--- a/documents/исследования.xlsx
+++ b/documents/исследования.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="20">
   <si>
     <t>первый (без разбиения)</t>
   </si>
@@ -71,6 +71,12 @@
   </si>
   <si>
     <t>степень сжатия (jpg)</t>
+  </si>
+  <si>
+    <t>среднее</t>
+  </si>
+  <si>
+    <t>ЦМ</t>
   </si>
 </sst>
 </file>
@@ -406,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:AK32"/>
+  <dimension ref="A3:AK68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F16" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -522,13 +528,28 @@
       <c r="F4">
         <v>2000</v>
       </c>
-      <c r="L4" t="e">
+      <c r="G4">
+        <v>22.11</v>
+      </c>
+      <c r="H4">
+        <v>1.83</v>
+      </c>
+      <c r="I4">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="J4">
+        <v>75</v>
+      </c>
+      <c r="K4">
+        <v>4.28</v>
+      </c>
+      <c r="L4">
         <f>I4/K4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M4" t="e">
+        <v>1.1822429906542054</v>
+      </c>
+      <c r="M4">
         <f>J4/K4</f>
-        <v>#DIV/0!</v>
+        <v>17.523364485981308</v>
       </c>
       <c r="R4" t="s">
         <v>0</v>
@@ -542,19 +563,28 @@
       <c r="U4">
         <v>500</v>
       </c>
+      <c r="V4">
+        <v>76.59</v>
+      </c>
+      <c r="W4">
+        <v>1.9</v>
+      </c>
       <c r="X4">
         <v>5.0599999999999996</v>
       </c>
       <c r="Y4">
         <v>75</v>
       </c>
-      <c r="AA4" t="e">
+      <c r="Z4">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="AA4">
         <f>X4/Z4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB4" t="e">
+        <v>0.29590643274853795</v>
+      </c>
+      <c r="AB4">
         <f>Y4/Z4</f>
-        <v>#DIV/0!</v>
+        <v>4.3859649122807012</v>
       </c>
       <c r="AE4" t="s">
         <v>12</v>
@@ -576,7 +606,7 @@
         <v>17.523364485981308</v>
       </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:37" hidden="1">
       <c r="C5">
         <v>2</v>
       </c>
@@ -586,13 +616,28 @@
       <c r="F5">
         <v>2000</v>
       </c>
-      <c r="L5" t="e">
+      <c r="G5">
+        <v>17.38</v>
+      </c>
+      <c r="H5">
+        <v>2.19</v>
+      </c>
+      <c r="I5">
+        <v>11.3</v>
+      </c>
+      <c r="J5">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K5">
+        <v>4.25</v>
+      </c>
+      <c r="L5">
         <f t="shared" ref="L5:L32" si="0">I5/K5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M5" t="e">
+        <v>2.658823529411765</v>
+      </c>
+      <c r="M5">
         <f t="shared" ref="M5:M32" si="1">J5/K5</f>
-        <v>#DIV/0!</v>
+        <v>17.670588235294115</v>
       </c>
       <c r="S5">
         <v>8</v>
@@ -603,13 +648,28 @@
       <c r="U5">
         <v>500</v>
       </c>
-      <c r="AA5" t="e">
+      <c r="V5">
+        <v>30.03</v>
+      </c>
+      <c r="W5">
+        <v>1.71</v>
+      </c>
+      <c r="X5">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="Y5">
+        <v>75</v>
+      </c>
+      <c r="Z5">
+        <v>4.28</v>
+      </c>
+      <c r="AA5">
         <f t="shared" ref="AA5:AA27" si="2">X5/Z5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB5" t="e">
+        <v>1.1822429906542054</v>
+      </c>
+      <c r="AB5">
         <f t="shared" ref="AB5:AB27" si="3">Y5/Z5</f>
-        <v>#DIV/0!</v>
+        <v>17.523364485981308</v>
       </c>
       <c r="AE5" t="s">
         <v>13</v>
@@ -631,7 +691,7 @@
         <v>8.8785046728971952</v>
       </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:37" hidden="1">
       <c r="C6">
         <v>3</v>
       </c>
@@ -641,13 +701,28 @@
       <c r="F6">
         <v>2000</v>
       </c>
-      <c r="L6" t="e">
+      <c r="G6">
+        <v>28.81</v>
+      </c>
+      <c r="H6">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="I6">
+        <v>12.1</v>
+      </c>
+      <c r="J6">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K6">
+        <v>4.29</v>
+      </c>
+      <c r="L6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M6" t="e">
+        <v>2.8205128205128203</v>
+      </c>
+      <c r="M6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>17.505827505827504</v>
       </c>
       <c r="S6">
         <v>16</v>
@@ -658,13 +733,28 @@
       <c r="U6">
         <v>500</v>
       </c>
-      <c r="AA6" t="e">
+      <c r="V6">
+        <v>7.75</v>
+      </c>
+      <c r="W6">
+        <v>1.96</v>
+      </c>
+      <c r="X6">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="Y6">
+        <v>75</v>
+      </c>
+      <c r="Z6">
+        <v>1.07</v>
+      </c>
+      <c r="AA6">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB6" t="e">
+        <v>4.7289719626168214</v>
+      </c>
+      <c r="AB6">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>70.09345794392523</v>
       </c>
       <c r="AG6">
         <v>29.59</v>
@@ -683,7 +773,7 @@
         <v>1.4976525821596245</v>
       </c>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:37" hidden="1">
       <c r="C7">
         <v>4</v>
       </c>
@@ -693,13 +783,28 @@
       <c r="F7">
         <v>2000</v>
       </c>
-      <c r="L7" t="e">
+      <c r="G7">
+        <v>9.39</v>
+      </c>
+      <c r="H7">
+        <v>1.73</v>
+      </c>
+      <c r="I7">
+        <v>11.9</v>
+      </c>
+      <c r="J7">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K7">
+        <v>4.25</v>
+      </c>
+      <c r="L7">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M7" t="e">
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="M7">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>17.670588235294115</v>
       </c>
       <c r="S7">
         <v>4</v>
@@ -710,16 +815,31 @@
       <c r="U7">
         <v>1000</v>
       </c>
-      <c r="AA7" t="e">
+      <c r="V7">
+        <v>64.239999999999995</v>
+      </c>
+      <c r="W7">
+        <v>2.09</v>
+      </c>
+      <c r="X7">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="Y7">
+        <v>75</v>
+      </c>
+      <c r="Z7">
+        <v>17.2</v>
+      </c>
+      <c r="AA7">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB7" t="e">
+        <v>0.29418604651162789</v>
+      </c>
+      <c r="AB7">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:37">
+        <v>4.3604651162790695</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" hidden="1">
       <c r="C8">
         <v>5</v>
       </c>
@@ -729,13 +849,28 @@
       <c r="F8">
         <v>2000</v>
       </c>
-      <c r="L8" t="e">
+      <c r="G8">
+        <v>7.77</v>
+      </c>
+      <c r="H8">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="I8">
+        <v>12.4</v>
+      </c>
+      <c r="J8">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K8">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="L8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M8" t="e">
+        <v>2.9039812646370029</v>
+      </c>
+      <c r="M8">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>17.587822014051522</v>
       </c>
       <c r="S8">
         <v>8</v>
@@ -746,16 +881,31 @@
       <c r="U8">
         <v>1000</v>
       </c>
-      <c r="AA8" t="e">
+      <c r="V8">
+        <v>40.67</v>
+      </c>
+      <c r="W8">
+        <v>2.15</v>
+      </c>
+      <c r="X8">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="Y8">
+        <v>75</v>
+      </c>
+      <c r="Z8">
+        <v>4.28</v>
+      </c>
+      <c r="AA8">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB8" t="e">
+        <v>1.1822429906542054</v>
+      </c>
+      <c r="AB8">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:37">
+        <v>17.523364485981308</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" hidden="1">
       <c r="C9">
         <v>6</v>
       </c>
@@ -765,13 +915,28 @@
       <c r="F9">
         <v>2000</v>
       </c>
-      <c r="L9" t="e">
+      <c r="G9">
+        <v>12.89</v>
+      </c>
+      <c r="H9">
+        <v>2.23</v>
+      </c>
+      <c r="I9">
+        <v>11.8</v>
+      </c>
+      <c r="J9">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K9">
+        <v>4.24</v>
+      </c>
+      <c r="L9">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M9" t="e">
+        <v>2.7830188679245285</v>
+      </c>
+      <c r="M9">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>17.712264150943394</v>
       </c>
       <c r="S9">
         <v>16</v>
@@ -782,16 +947,31 @@
       <c r="U9">
         <v>1000</v>
       </c>
-      <c r="AA9" t="e">
+      <c r="V9">
+        <v>11.37</v>
+      </c>
+      <c r="W9">
+        <v>2.11</v>
+      </c>
+      <c r="X9">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="Y9">
+        <v>75</v>
+      </c>
+      <c r="Z9">
+        <v>1.07</v>
+      </c>
+      <c r="AA9">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB9" t="e">
+        <v>4.7289719626168214</v>
+      </c>
+      <c r="AB9">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37">
+        <v>70.09345794392523</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" hidden="1">
       <c r="C10">
         <v>7</v>
       </c>
@@ -801,13 +981,28 @@
       <c r="F10">
         <v>2000</v>
       </c>
-      <c r="L10" t="e">
+      <c r="G10">
+        <v>12.76</v>
+      </c>
+      <c r="H10">
+        <v>2.46</v>
+      </c>
+      <c r="I10">
+        <v>13.3</v>
+      </c>
+      <c r="J10">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K10">
+        <v>4</v>
+      </c>
+      <c r="L10">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M10" t="e">
+        <v>3.3250000000000002</v>
+      </c>
+      <c r="M10">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>18.774999999999999</v>
       </c>
       <c r="S10">
         <v>4</v>
@@ -818,16 +1013,31 @@
       <c r="U10">
         <v>1500</v>
       </c>
-      <c r="AA10" t="e">
+      <c r="V10">
+        <v>47.61</v>
+      </c>
+      <c r="W10">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="X10">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="Y10">
+        <v>75</v>
+      </c>
+      <c r="Z10">
+        <v>17.2</v>
+      </c>
+      <c r="AA10">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB10" t="e">
+        <v>0.29418604651162789</v>
+      </c>
+      <c r="AB10">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:37">
+        <v>4.3604651162790695</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" hidden="1">
       <c r="C11">
         <v>8</v>
       </c>
@@ -837,13 +1047,28 @@
       <c r="F11">
         <v>2000</v>
       </c>
-      <c r="L11" t="e">
+      <c r="G11">
+        <v>11.72</v>
+      </c>
+      <c r="H11">
+        <v>2.29</v>
+      </c>
+      <c r="I11">
+        <v>12.8</v>
+      </c>
+      <c r="J11">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K11">
+        <v>4.28</v>
+      </c>
+      <c r="L11">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M11" t="e">
+        <v>2.9906542056074765</v>
+      </c>
+      <c r="M11">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>17.546728971962615</v>
       </c>
       <c r="S11">
         <v>8</v>
@@ -854,16 +1079,31 @@
       <c r="U11">
         <v>1500</v>
       </c>
-      <c r="AA11" t="e">
+      <c r="V11">
+        <v>33.06</v>
+      </c>
+      <c r="W11">
+        <v>2.04</v>
+      </c>
+      <c r="X11">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="Y11">
+        <v>75</v>
+      </c>
+      <c r="Z11">
+        <v>4.28</v>
+      </c>
+      <c r="AA11">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB11" t="e">
+        <v>1.1822429906542054</v>
+      </c>
+      <c r="AB11">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:37">
+        <v>17.523364485981308</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" hidden="1">
       <c r="C12">
         <v>9</v>
       </c>
@@ -873,13 +1113,28 @@
       <c r="F12">
         <v>2000</v>
       </c>
-      <c r="L12" t="e">
+      <c r="G12">
+        <v>19.170000000000002</v>
+      </c>
+      <c r="H12">
+        <v>1.78</v>
+      </c>
+      <c r="I12">
+        <v>10</v>
+      </c>
+      <c r="J12">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K12">
+        <v>4.29</v>
+      </c>
+      <c r="L12">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M12" t="e">
+        <v>2.3310023310023311</v>
+      </c>
+      <c r="M12">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>17.505827505827504</v>
       </c>
       <c r="S12">
         <v>16</v>
@@ -890,16 +1145,31 @@
       <c r="U12">
         <v>1500</v>
       </c>
-      <c r="AA12" t="e">
+      <c r="V12">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="W12">
+        <v>1.71</v>
+      </c>
+      <c r="X12">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="Y12">
+        <v>75</v>
+      </c>
+      <c r="Z12">
+        <v>1.07</v>
+      </c>
+      <c r="AA12">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB12" t="e">
+        <v>4.7289719626168214</v>
+      </c>
+      <c r="AB12">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:37">
+        <v>70.09345794392523</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" hidden="1">
       <c r="C13">
         <v>10</v>
       </c>
@@ -909,13 +1179,28 @@
       <c r="F13">
         <v>2000</v>
       </c>
-      <c r="L13" t="e">
+      <c r="G13">
+        <v>29.44</v>
+      </c>
+      <c r="H13">
+        <v>2.23</v>
+      </c>
+      <c r="I13">
+        <v>12.4</v>
+      </c>
+      <c r="J13">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K13">
+        <v>4.32</v>
+      </c>
+      <c r="L13">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M13" t="e">
+        <v>2.8703703703703702</v>
+      </c>
+      <c r="M13">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>17.384259259259256</v>
       </c>
       <c r="S13">
         <v>4</v>
@@ -926,16 +1211,31 @@
       <c r="U13">
         <v>2000</v>
       </c>
-      <c r="AA13" t="e">
+      <c r="V13">
+        <v>18.579999999999998</v>
+      </c>
+      <c r="W13">
+        <v>1.79</v>
+      </c>
+      <c r="X13">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="Y13">
+        <v>75</v>
+      </c>
+      <c r="Z13">
+        <v>17.2</v>
+      </c>
+      <c r="AA13">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB13" t="e">
+        <v>0.29418604651162789</v>
+      </c>
+      <c r="AB13">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:37">
+        <v>4.3604651162790695</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" hidden="1">
       <c r="C14">
         <v>11</v>
       </c>
@@ -945,13 +1245,28 @@
       <c r="F14">
         <v>2000</v>
       </c>
-      <c r="L14" t="e">
+      <c r="G14">
+        <v>15.76</v>
+      </c>
+      <c r="H14">
+        <v>2.76</v>
+      </c>
+      <c r="I14">
+        <v>7.52</v>
+      </c>
+      <c r="J14">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K14">
+        <v>4.28</v>
+      </c>
+      <c r="L14">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M14" t="e">
+        <v>1.7570093457943923</v>
+      </c>
+      <c r="M14">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>17.546728971962615</v>
       </c>
       <c r="S14">
         <v>8</v>
@@ -962,16 +1277,31 @@
       <c r="U14">
         <v>2000</v>
       </c>
-      <c r="AA14" t="e">
+      <c r="V14">
+        <v>21.29</v>
+      </c>
+      <c r="W14">
+        <v>1.65</v>
+      </c>
+      <c r="X14">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="Y14">
+        <v>75</v>
+      </c>
+      <c r="Z14">
+        <v>4.28</v>
+      </c>
+      <c r="AA14">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB14" t="e">
+        <v>1.1822429906542054</v>
+      </c>
+      <c r="AB14">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:37">
+        <v>17.523364485981308</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" hidden="1">
       <c r="C15">
         <v>12</v>
       </c>
@@ -981,13 +1311,28 @@
       <c r="F15">
         <v>2000</v>
       </c>
-      <c r="L15" t="e">
+      <c r="G15">
+        <v>22.03</v>
+      </c>
+      <c r="H15">
+        <v>1.76</v>
+      </c>
+      <c r="I15">
+        <v>11.7</v>
+      </c>
+      <c r="J15">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K15">
+        <v>4.28</v>
+      </c>
+      <c r="L15">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M15" t="e">
+        <v>2.7336448598130838</v>
+      </c>
+      <c r="M15">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>17.546728971962615</v>
       </c>
       <c r="S15">
         <v>16</v>
@@ -998,16 +1343,31 @@
       <c r="U15">
         <v>2000</v>
       </c>
-      <c r="AA15" t="e">
+      <c r="V15">
+        <v>5.74</v>
+      </c>
+      <c r="W15">
+        <v>1.7</v>
+      </c>
+      <c r="X15">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="Y15">
+        <v>75</v>
+      </c>
+      <c r="Z15">
+        <v>1.07</v>
+      </c>
+      <c r="AA15">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB15" t="e">
+        <v>4.7289719626168214</v>
+      </c>
+      <c r="AB15">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:37">
+        <v>70.09345794392523</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" hidden="1">
       <c r="C16">
         <v>13</v>
       </c>
@@ -1017,13 +1377,28 @@
       <c r="F16">
         <v>2000</v>
       </c>
-      <c r="L16" t="e">
+      <c r="G16">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="H16">
+        <v>1.7</v>
+      </c>
+      <c r="I16">
+        <v>9.25</v>
+      </c>
+      <c r="J16">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K16">
+        <v>4.28</v>
+      </c>
+      <c r="L16">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M16" t="e">
+        <v>2.1612149532710281</v>
+      </c>
+      <c r="M16">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>17.546728971962615</v>
       </c>
       <c r="S16">
         <v>4</v>
@@ -1034,16 +1409,31 @@
       <c r="U16">
         <v>2500</v>
       </c>
-      <c r="AA16" t="e">
+      <c r="V16">
+        <v>13.01</v>
+      </c>
+      <c r="W16">
+        <v>1.87</v>
+      </c>
+      <c r="X16">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="Y16">
+        <v>75</v>
+      </c>
+      <c r="Z16">
+        <v>17.2</v>
+      </c>
+      <c r="AA16">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB16" t="e">
+        <v>0.29418604651162789</v>
+      </c>
+      <c r="AB16">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="3:28">
+        <v>4.3604651162790695</v>
+      </c>
+    </row>
+    <row r="17" spans="3:28" hidden="1">
       <c r="C17">
         <v>14</v>
       </c>
@@ -1053,13 +1443,28 @@
       <c r="F17">
         <v>2000</v>
       </c>
-      <c r="L17" t="e">
+      <c r="G17">
+        <v>23.4</v>
+      </c>
+      <c r="H17">
+        <v>2.25</v>
+      </c>
+      <c r="I17">
+        <v>15.6</v>
+      </c>
+      <c r="J17">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K17">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="L17">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M17" t="e">
+        <v>3.653395784543326</v>
+      </c>
+      <c r="M17">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>17.587822014051522</v>
       </c>
       <c r="S17">
         <v>8</v>
@@ -1070,16 +1475,31 @@
       <c r="U17">
         <v>2500</v>
       </c>
-      <c r="AA17" t="e">
+      <c r="V17">
+        <v>20.48</v>
+      </c>
+      <c r="W17">
+        <v>1.76</v>
+      </c>
+      <c r="X17">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="Y17">
+        <v>75</v>
+      </c>
+      <c r="Z17">
+        <v>4.28</v>
+      </c>
+      <c r="AA17">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB17" t="e">
+        <v>1.1822429906542054</v>
+      </c>
+      <c r="AB17">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="3:28">
+        <v>17.523364485981308</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" hidden="1">
       <c r="C18">
         <v>15</v>
       </c>
@@ -1089,13 +1509,28 @@
       <c r="F18">
         <v>2000</v>
       </c>
-      <c r="L18" t="e">
+      <c r="G18">
+        <v>13.03</v>
+      </c>
+      <c r="H18">
+        <v>2.34</v>
+      </c>
+      <c r="I18">
+        <v>6.84</v>
+      </c>
+      <c r="J18">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K18">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="L18">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M18" t="e">
+        <v>1.601873536299766</v>
+      </c>
+      <c r="M18">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>17.587822014051522</v>
       </c>
       <c r="S18">
         <v>16</v>
@@ -1106,16 +1541,31 @@
       <c r="U18">
         <v>2500</v>
       </c>
-      <c r="AA18" t="e">
+      <c r="V18">
+        <v>5.96</v>
+      </c>
+      <c r="W18">
+        <v>1.79</v>
+      </c>
+      <c r="X18">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="Y18">
+        <v>75</v>
+      </c>
+      <c r="Z18">
+        <v>1.07</v>
+      </c>
+      <c r="AA18">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB18" t="e">
+        <v>4.7289719626168214</v>
+      </c>
+      <c r="AB18">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="3:28">
+        <v>70.09345794392523</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" hidden="1">
       <c r="C19">
         <v>16</v>
       </c>
@@ -1125,13 +1575,28 @@
       <c r="F19">
         <v>2000</v>
       </c>
-      <c r="L19" t="e">
+      <c r="G19">
+        <v>21.79</v>
+      </c>
+      <c r="H19">
+        <v>2.23</v>
+      </c>
+      <c r="I19">
+        <v>12.8</v>
+      </c>
+      <c r="J19">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K19">
+        <v>4.28</v>
+      </c>
+      <c r="L19">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M19" t="e">
+        <v>2.9906542056074765</v>
+      </c>
+      <c r="M19">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>17.546728971962615</v>
       </c>
       <c r="S19">
         <v>4</v>
@@ -1142,16 +1607,31 @@
       <c r="U19">
         <v>3000</v>
       </c>
-      <c r="AA19" t="e">
+      <c r="V19">
+        <v>8.91</v>
+      </c>
+      <c r="W19">
+        <v>1.83</v>
+      </c>
+      <c r="X19">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="Y19">
+        <v>75</v>
+      </c>
+      <c r="Z19">
+        <v>17.2</v>
+      </c>
+      <c r="AA19">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB19" t="e">
+        <v>0.29418604651162789</v>
+      </c>
+      <c r="AB19">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="3:28">
+        <v>4.3604651162790695</v>
+      </c>
+    </row>
+    <row r="20" spans="3:28" hidden="1">
       <c r="C20">
         <v>17</v>
       </c>
@@ -1161,13 +1641,28 @@
       <c r="F20">
         <v>2000</v>
       </c>
-      <c r="L20" t="e">
+      <c r="G20">
+        <v>19.22</v>
+      </c>
+      <c r="H20">
+        <v>2.17</v>
+      </c>
+      <c r="I20">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="J20">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K20">
+        <v>4.32</v>
+      </c>
+      <c r="L20">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M20" t="e">
+        <v>4.3055555555555554</v>
+      </c>
+      <c r="M20">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>17.384259259259256</v>
       </c>
       <c r="S20">
         <v>8</v>
@@ -1178,16 +1673,31 @@
       <c r="U20">
         <v>3000</v>
       </c>
-      <c r="AA20" t="e">
+      <c r="V20">
+        <v>19.79</v>
+      </c>
+      <c r="W20">
+        <v>1.72</v>
+      </c>
+      <c r="X20">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="Y20">
+        <v>75</v>
+      </c>
+      <c r="Z20">
+        <v>4.28</v>
+      </c>
+      <c r="AA20">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB20" t="e">
+        <v>1.1822429906542054</v>
+      </c>
+      <c r="AB20">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="3:28">
+        <v>17.523364485981308</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" hidden="1">
       <c r="C21">
         <v>18</v>
       </c>
@@ -1197,13 +1707,28 @@
       <c r="F21">
         <v>2000</v>
       </c>
-      <c r="L21" t="e">
+      <c r="G21">
+        <v>12.69</v>
+      </c>
+      <c r="H21">
+        <v>1.75</v>
+      </c>
+      <c r="I21">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="J21">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K21">
+        <v>4.32</v>
+      </c>
+      <c r="L21">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M21" t="e">
+        <v>4.7222222222222214</v>
+      </c>
+      <c r="M21">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>17.384259259259256</v>
       </c>
       <c r="S21">
         <v>16</v>
@@ -1214,16 +1739,31 @@
       <c r="U21">
         <v>3000</v>
       </c>
-      <c r="AA21" t="e">
+      <c r="V21">
+        <v>5.74</v>
+      </c>
+      <c r="W21">
+        <v>1.84</v>
+      </c>
+      <c r="X21">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="Y21">
+        <v>75</v>
+      </c>
+      <c r="Z21">
+        <v>1.07</v>
+      </c>
+      <c r="AA21">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB21" t="e">
+        <v>4.7289719626168214</v>
+      </c>
+      <c r="AB21">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="3:28">
+        <v>70.09345794392523</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" hidden="1">
       <c r="C22">
         <v>19</v>
       </c>
@@ -1233,13 +1773,28 @@
       <c r="F22">
         <v>2000</v>
       </c>
-      <c r="L22" t="e">
+      <c r="G22">
+        <v>14.02</v>
+      </c>
+      <c r="H22">
+        <v>1.72</v>
+      </c>
+      <c r="I22">
+        <v>15.1</v>
+      </c>
+      <c r="J22">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K22">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="L22">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M22" t="e">
+        <v>3.5362997658079629</v>
+      </c>
+      <c r="M22">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>17.587822014051522</v>
       </c>
       <c r="S22">
         <v>4</v>
@@ -1250,16 +1805,31 @@
       <c r="U22">
         <v>3500</v>
       </c>
-      <c r="AA22" t="e">
+      <c r="V22">
+        <v>6.13</v>
+      </c>
+      <c r="W22">
+        <v>1.79</v>
+      </c>
+      <c r="X22">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="Y22">
+        <v>75</v>
+      </c>
+      <c r="Z22">
+        <v>17.2</v>
+      </c>
+      <c r="AA22">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB22" t="e">
+        <v>0.29418604651162789</v>
+      </c>
+      <c r="AB22">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="3:28">
+        <v>4.3604651162790695</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" hidden="1">
       <c r="C23">
         <v>20</v>
       </c>
@@ -1269,13 +1839,28 @@
       <c r="F23">
         <v>2000</v>
       </c>
-      <c r="L23" t="e">
+      <c r="G23">
+        <v>23.77</v>
+      </c>
+      <c r="H23">
+        <v>2.19</v>
+      </c>
+      <c r="I23">
+        <v>14</v>
+      </c>
+      <c r="J23">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K23">
+        <v>4.29</v>
+      </c>
+      <c r="L23">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M23" t="e">
+        <v>3.2634032634032635</v>
+      </c>
+      <c r="M23">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>17.505827505827504</v>
       </c>
       <c r="S23">
         <v>8</v>
@@ -1286,16 +1871,31 @@
       <c r="U23">
         <v>3500</v>
       </c>
-      <c r="AA23" t="e">
+      <c r="V23">
+        <v>18.75</v>
+      </c>
+      <c r="W23">
+        <v>1.79</v>
+      </c>
+      <c r="X23">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="Y23">
+        <v>75</v>
+      </c>
+      <c r="Z23">
+        <v>4.28</v>
+      </c>
+      <c r="AA23">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB23" t="e">
+        <v>1.1822429906542054</v>
+      </c>
+      <c r="AB23">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="3:28">
+        <v>17.523364485981308</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" hidden="1">
       <c r="C24">
         <v>21</v>
       </c>
@@ -1305,13 +1905,28 @@
       <c r="F24">
         <v>2000</v>
       </c>
-      <c r="L24" t="e">
+      <c r="G24">
+        <v>11.99</v>
+      </c>
+      <c r="H24">
+        <v>2.25</v>
+      </c>
+      <c r="I24">
+        <v>13</v>
+      </c>
+      <c r="J24">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K24">
+        <v>4.29</v>
+      </c>
+      <c r="L24">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M24" t="e">
+        <v>3.0303030303030303</v>
+      </c>
+      <c r="M24">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>17.505827505827504</v>
       </c>
       <c r="S24">
         <v>16</v>
@@ -1322,16 +1937,31 @@
       <c r="U24">
         <v>3500</v>
       </c>
-      <c r="AA24" t="e">
+      <c r="V24">
+        <v>5.74</v>
+      </c>
+      <c r="W24">
+        <v>1.81</v>
+      </c>
+      <c r="X24">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="Y24">
+        <v>75</v>
+      </c>
+      <c r="Z24">
+        <v>1.07</v>
+      </c>
+      <c r="AA24">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB24" t="e">
+        <v>4.7289719626168214</v>
+      </c>
+      <c r="AB24">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="25" spans="3:28">
+        <v>70.09345794392523</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" hidden="1">
       <c r="C25">
         <v>22</v>
       </c>
@@ -1341,13 +1971,28 @@
       <c r="F25">
         <v>2000</v>
       </c>
-      <c r="L25" t="e">
+      <c r="G25">
+        <v>17.97</v>
+      </c>
+      <c r="H25">
+        <v>1.7</v>
+      </c>
+      <c r="I25">
+        <v>11.8</v>
+      </c>
+      <c r="J25">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K25">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="L25">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M25" t="e">
+        <v>2.7378190255220423</v>
+      </c>
+      <c r="M25">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>17.424593967517403</v>
       </c>
       <c r="S25">
         <v>4</v>
@@ -1358,16 +2003,31 @@
       <c r="U25">
         <v>4000</v>
       </c>
-      <c r="AA25" t="e">
+      <c r="V25">
+        <v>5.58</v>
+      </c>
+      <c r="W25">
+        <v>1.95</v>
+      </c>
+      <c r="X25">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="Y25">
+        <v>75</v>
+      </c>
+      <c r="Z25">
+        <v>17.2</v>
+      </c>
+      <c r="AA25">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB25" t="e">
+        <v>0.29418604651162789</v>
+      </c>
+      <c r="AB25">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="26" spans="3:28">
+        <v>4.3604651162790695</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" hidden="1">
       <c r="C26">
         <v>23</v>
       </c>
@@ -1377,13 +2037,28 @@
       <c r="F26">
         <v>2000</v>
       </c>
-      <c r="L26" t="e">
+      <c r="G26">
+        <v>21.23</v>
+      </c>
+      <c r="H26">
+        <v>2.17</v>
+      </c>
+      <c r="I26">
+        <v>13.7</v>
+      </c>
+      <c r="J26">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K26">
+        <v>4.3</v>
+      </c>
+      <c r="L26">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M26" t="e">
+        <v>3.1860465116279069</v>
+      </c>
+      <c r="M26">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>17.465116279069768</v>
       </c>
       <c r="S26">
         <v>8</v>
@@ -1394,16 +2069,31 @@
       <c r="U26">
         <v>4000</v>
       </c>
-      <c r="AA26" t="e">
+      <c r="V26">
+        <v>26.01</v>
+      </c>
+      <c r="W26">
+        <v>1.92</v>
+      </c>
+      <c r="X26">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="Y26">
+        <v>75</v>
+      </c>
+      <c r="Z26">
+        <v>4.28</v>
+      </c>
+      <c r="AA26">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB26" t="e">
+        <v>1.1822429906542054</v>
+      </c>
+      <c r="AB26">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="27" spans="3:28">
+        <v>17.523364485981308</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" hidden="1">
       <c r="C27">
         <v>24</v>
       </c>
@@ -1413,13 +2103,28 @@
       <c r="F27">
         <v>2000</v>
       </c>
-      <c r="L27" t="e">
+      <c r="G27">
+        <v>14.84</v>
+      </c>
+      <c r="H27">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="I27">
+        <v>10.4</v>
+      </c>
+      <c r="J27">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K27">
+        <v>4.29</v>
+      </c>
+      <c r="L27">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M27" t="e">
+        <v>2.4242424242424243</v>
+      </c>
+      <c r="M27">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>17.505827505827504</v>
       </c>
       <c r="S27">
         <v>16</v>
@@ -1430,16 +2135,31 @@
       <c r="U27">
         <v>4000</v>
       </c>
-      <c r="AA27" t="e">
+      <c r="V27">
+        <v>7.78</v>
+      </c>
+      <c r="W27">
+        <v>1.75</v>
+      </c>
+      <c r="X27">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="Y27">
+        <v>75</v>
+      </c>
+      <c r="Z27">
+        <v>1.07</v>
+      </c>
+      <c r="AA27">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB27" t="e">
+        <v>4.7289719626168214</v>
+      </c>
+      <c r="AB27">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" spans="3:28">
+        <v>70.09345794392523</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" hidden="1">
       <c r="C28">
         <v>25</v>
       </c>
@@ -1449,16 +2169,31 @@
       <c r="F28">
         <v>2000</v>
       </c>
-      <c r="L28" t="e">
+      <c r="G28">
+        <v>16.579999999999998</v>
+      </c>
+      <c r="H28">
+        <v>1.75</v>
+      </c>
+      <c r="I28">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="J28">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K28">
+        <v>4.32</v>
+      </c>
+      <c r="L28">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M28" t="e">
+        <v>2.1898148148148149</v>
+      </c>
+      <c r="M28">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="29" spans="3:28">
+        <v>17.384259259259256</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" hidden="1">
       <c r="C29">
         <v>26</v>
       </c>
@@ -1468,16 +2203,31 @@
       <c r="F29">
         <v>2000</v>
       </c>
-      <c r="L29" t="e">
+      <c r="G29">
+        <v>4.57</v>
+      </c>
+      <c r="H29">
+        <v>2.19</v>
+      </c>
+      <c r="I29">
+        <v>13.1</v>
+      </c>
+      <c r="J29">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K29">
+        <v>4.29</v>
+      </c>
+      <c r="L29">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M29" t="e">
+        <v>3.0536130536130535</v>
+      </c>
+      <c r="M29">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="30" spans="3:28">
+        <v>17.505827505827504</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" hidden="1">
       <c r="C30">
         <v>27</v>
       </c>
@@ -1487,16 +2237,31 @@
       <c r="F30">
         <v>2000</v>
       </c>
-      <c r="L30" t="e">
+      <c r="G30">
+        <v>13.63</v>
+      </c>
+      <c r="H30">
+        <v>1.84</v>
+      </c>
+      <c r="I30">
+        <v>9.23</v>
+      </c>
+      <c r="J30">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K30">
+        <v>4.29</v>
+      </c>
+      <c r="L30">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M30" t="e">
+        <v>2.1515151515151514</v>
+      </c>
+      <c r="M30">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="31" spans="3:28">
+        <v>17.505827505827504</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" hidden="1">
       <c r="C31">
         <v>28</v>
       </c>
@@ -1506,16 +2271,31 @@
       <c r="F31">
         <v>2000</v>
       </c>
-      <c r="L31" t="e">
+      <c r="G31">
+        <v>20.92</v>
+      </c>
+      <c r="H31">
+        <v>2.23</v>
+      </c>
+      <c r="I31">
+        <v>14.9</v>
+      </c>
+      <c r="J31">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K31">
+        <v>4.3</v>
+      </c>
+      <c r="L31">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M31" t="e">
+        <v>3.4651162790697678</v>
+      </c>
+      <c r="M31">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="32" spans="3:28">
+        <v>17.465116279069768</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" hidden="1">
       <c r="C32">
         <v>29</v>
       </c>
@@ -1525,12 +2305,862 @@
       <c r="F32">
         <v>2000</v>
       </c>
-      <c r="L32" t="e">
+      <c r="G32">
+        <v>22.28</v>
+      </c>
+      <c r="H32">
+        <v>2.15</v>
+      </c>
+      <c r="I32">
+        <v>10.6</v>
+      </c>
+      <c r="J32">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K32">
+        <v>4.28</v>
+      </c>
+      <c r="L32">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M32" t="e">
+        <v>2.4766355140186915</v>
+      </c>
+      <c r="M32">
         <f t="shared" si="1"/>
+        <v>17.546728971962615</v>
+      </c>
+    </row>
+    <row r="33" spans="3:13">
+      <c r="C33" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33">
+        <f>AVERAGE(F4:F32)</f>
+        <v>2000</v>
+      </c>
+      <c r="G33">
+        <f t="shared" ref="G33:M33" si="5">AVERAGE(G4:G32)</f>
+        <v>16.872068965517236</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="5"/>
+        <v>2.0862068965517242</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="5"/>
+        <v>12.10551724137931</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="5"/>
+        <v>75.096551724137896</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="5"/>
+        <v>4.2758620689655178</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="5"/>
+        <v>2.8312408854194984</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="5"/>
+        <v>17.566073210309693</v>
+      </c>
+    </row>
+    <row r="38" spans="3:13" ht="60">
+      <c r="C38" s="1"/>
+      <c r="D38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="3:13">
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39">
+        <v>2000</v>
+      </c>
+      <c r="I39">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="J39">
+        <v>75</v>
+      </c>
+      <c r="L39" t="e">
+        <f>I39/K39</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M39" t="e">
+        <f>J39/K39</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" spans="3:13">
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="E40" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40">
+        <v>2000</v>
+      </c>
+      <c r="I40">
+        <v>11.3</v>
+      </c>
+      <c r="J40">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L40" t="e">
+        <f t="shared" ref="L40:L67" si="6">I40/K40</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M40" t="e">
+        <f t="shared" ref="M40:M67" si="7">J40/K40</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="41" spans="3:13">
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="E41" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41">
+        <v>2000</v>
+      </c>
+      <c r="I41">
+        <v>12.1</v>
+      </c>
+      <c r="J41">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L41" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M41" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="42" spans="3:13">
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="E42" t="s">
+        <v>19</v>
+      </c>
+      <c r="F42">
+        <v>2000</v>
+      </c>
+      <c r="I42">
+        <v>11.9</v>
+      </c>
+      <c r="J42">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L42" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M42" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="43" spans="3:13">
+      <c r="C43">
+        <v>5</v>
+      </c>
+      <c r="E43" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43">
+        <v>2000</v>
+      </c>
+      <c r="I43">
+        <v>12.4</v>
+      </c>
+      <c r="J43">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L43" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M43" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="44" spans="3:13">
+      <c r="C44">
+        <v>6</v>
+      </c>
+      <c r="E44" t="s">
+        <v>19</v>
+      </c>
+      <c r="F44">
+        <v>2000</v>
+      </c>
+      <c r="I44">
+        <v>11.8</v>
+      </c>
+      <c r="J44">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L44" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M44" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="45" spans="3:13">
+      <c r="C45">
+        <v>7</v>
+      </c>
+      <c r="E45" t="s">
+        <v>19</v>
+      </c>
+      <c r="F45">
+        <v>2000</v>
+      </c>
+      <c r="I45">
+        <v>13.3</v>
+      </c>
+      <c r="J45">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L45" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M45" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="46" spans="3:13">
+      <c r="C46">
+        <v>8</v>
+      </c>
+      <c r="E46" t="s">
+        <v>19</v>
+      </c>
+      <c r="F46">
+        <v>2000</v>
+      </c>
+      <c r="I46">
+        <v>12.8</v>
+      </c>
+      <c r="J46">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L46" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M46" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="47" spans="3:13">
+      <c r="C47">
+        <v>9</v>
+      </c>
+      <c r="E47" t="s">
+        <v>19</v>
+      </c>
+      <c r="F47">
+        <v>2000</v>
+      </c>
+      <c r="I47">
+        <v>10</v>
+      </c>
+      <c r="J47">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L47" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M47" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="48" spans="3:13">
+      <c r="C48">
+        <v>10</v>
+      </c>
+      <c r="E48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F48">
+        <v>2000</v>
+      </c>
+      <c r="I48">
+        <v>12.4</v>
+      </c>
+      <c r="J48">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L48" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M48" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13">
+      <c r="C49">
+        <v>11</v>
+      </c>
+      <c r="E49" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49">
+        <v>2000</v>
+      </c>
+      <c r="I49">
+        <v>7.52</v>
+      </c>
+      <c r="J49">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L49" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M49" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13">
+      <c r="C50">
+        <v>12</v>
+      </c>
+      <c r="E50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F50">
+        <v>2000</v>
+      </c>
+      <c r="I50">
+        <v>11.7</v>
+      </c>
+      <c r="J50">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L50" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M50" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13">
+      <c r="C51">
+        <v>13</v>
+      </c>
+      <c r="E51" t="s">
+        <v>19</v>
+      </c>
+      <c r="F51">
+        <v>2000</v>
+      </c>
+      <c r="I51">
+        <v>9.25</v>
+      </c>
+      <c r="J51">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L51" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M51" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13">
+      <c r="C52">
+        <v>14</v>
+      </c>
+      <c r="E52" t="s">
+        <v>19</v>
+      </c>
+      <c r="F52">
+        <v>2000</v>
+      </c>
+      <c r="I52">
+        <v>15.6</v>
+      </c>
+      <c r="J52">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L52" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M52" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13">
+      <c r="C53">
+        <v>15</v>
+      </c>
+      <c r="E53" t="s">
+        <v>19</v>
+      </c>
+      <c r="F53">
+        <v>2000</v>
+      </c>
+      <c r="I53">
+        <v>6.84</v>
+      </c>
+      <c r="J53">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L53" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M53" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13">
+      <c r="C54">
+        <v>16</v>
+      </c>
+      <c r="E54" t="s">
+        <v>19</v>
+      </c>
+      <c r="F54">
+        <v>2000</v>
+      </c>
+      <c r="I54">
+        <v>12.8</v>
+      </c>
+      <c r="J54">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L54" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M54" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13">
+      <c r="C55">
+        <v>17</v>
+      </c>
+      <c r="E55" t="s">
+        <v>19</v>
+      </c>
+      <c r="F55">
+        <v>2000</v>
+      </c>
+      <c r="I55">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="J55">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L55" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M55" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="56" spans="3:13">
+      <c r="C56">
+        <v>18</v>
+      </c>
+      <c r="E56" t="s">
+        <v>19</v>
+      </c>
+      <c r="F56">
+        <v>2000</v>
+      </c>
+      <c r="I56">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="J56">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L56" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M56" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="57" spans="3:13">
+      <c r="C57">
+        <v>19</v>
+      </c>
+      <c r="E57" t="s">
+        <v>19</v>
+      </c>
+      <c r="F57">
+        <v>2000</v>
+      </c>
+      <c r="I57">
+        <v>15.1</v>
+      </c>
+      <c r="J57">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L57" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M57" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13">
+      <c r="C58">
+        <v>20</v>
+      </c>
+      <c r="E58" t="s">
+        <v>19</v>
+      </c>
+      <c r="F58">
+        <v>2000</v>
+      </c>
+      <c r="I58">
+        <v>14</v>
+      </c>
+      <c r="J58">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L58" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M58" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13">
+      <c r="C59">
+        <v>21</v>
+      </c>
+      <c r="E59" t="s">
+        <v>19</v>
+      </c>
+      <c r="F59">
+        <v>2000</v>
+      </c>
+      <c r="I59">
+        <v>13</v>
+      </c>
+      <c r="J59">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L59" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M59" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13">
+      <c r="C60">
+        <v>22</v>
+      </c>
+      <c r="E60" t="s">
+        <v>19</v>
+      </c>
+      <c r="F60">
+        <v>2000</v>
+      </c>
+      <c r="I60">
+        <v>11.8</v>
+      </c>
+      <c r="J60">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L60" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M60" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13">
+      <c r="C61">
+        <v>23</v>
+      </c>
+      <c r="E61" t="s">
+        <v>19</v>
+      </c>
+      <c r="F61">
+        <v>2000</v>
+      </c>
+      <c r="I61">
+        <v>13.7</v>
+      </c>
+      <c r="J61">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L61" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M61" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13">
+      <c r="C62">
+        <v>24</v>
+      </c>
+      <c r="E62" t="s">
+        <v>19</v>
+      </c>
+      <c r="F62">
+        <v>2000</v>
+      </c>
+      <c r="I62">
+        <v>10.4</v>
+      </c>
+      <c r="J62">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L62" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M62" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13">
+      <c r="C63">
+        <v>25</v>
+      </c>
+      <c r="E63" t="s">
+        <v>19</v>
+      </c>
+      <c r="F63">
+        <v>2000</v>
+      </c>
+      <c r="I63">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="J63">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L63" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M63" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13">
+      <c r="C64">
+        <v>26</v>
+      </c>
+      <c r="E64" t="s">
+        <v>19</v>
+      </c>
+      <c r="F64">
+        <v>2000</v>
+      </c>
+      <c r="I64">
+        <v>13.1</v>
+      </c>
+      <c r="J64">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L64" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M64" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="65" spans="3:13">
+      <c r="C65">
+        <v>27</v>
+      </c>
+      <c r="E65" t="s">
+        <v>19</v>
+      </c>
+      <c r="F65">
+        <v>2000</v>
+      </c>
+      <c r="I65">
+        <v>9.23</v>
+      </c>
+      <c r="J65">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L65" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M65" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="66" spans="3:13">
+      <c r="C66">
+        <v>28</v>
+      </c>
+      <c r="E66" t="s">
+        <v>19</v>
+      </c>
+      <c r="F66">
+        <v>2000</v>
+      </c>
+      <c r="I66">
+        <v>14.9</v>
+      </c>
+      <c r="J66">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L66" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M66" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="67" spans="3:13">
+      <c r="C67">
+        <v>29</v>
+      </c>
+      <c r="E67" t="s">
+        <v>19</v>
+      </c>
+      <c r="F67">
+        <v>2000</v>
+      </c>
+      <c r="I67">
+        <v>10.6</v>
+      </c>
+      <c r="J67">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L67" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M67" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="68" spans="3:13">
+      <c r="C68" t="s">
+        <v>18</v>
+      </c>
+      <c r="F68">
+        <f>AVERAGE(F39:F67)</f>
+        <v>2000</v>
+      </c>
+      <c r="G68" t="e">
+        <f t="shared" ref="G68" si="8">AVERAGE(G39:G67)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H68" t="e">
+        <f t="shared" ref="H68" si="9">AVERAGE(H39:H67)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I68">
+        <f t="shared" ref="I68" si="10">AVERAGE(I39:I67)</f>
+        <v>12.10551724137931</v>
+      </c>
+      <c r="J68">
+        <f t="shared" ref="J68" si="11">AVERAGE(J39:J67)</f>
+        <v>75.096551724137896</v>
+      </c>
+      <c r="K68" t="e">
+        <f t="shared" ref="K68" si="12">AVERAGE(K39:K67)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L68" t="e">
+        <f t="shared" ref="L68" si="13">AVERAGE(L39:L67)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M68" t="e">
+        <f t="shared" ref="M68" si="14">AVERAGE(M39:M67)</f>
         <v>#DIV/0!</v>
       </c>
     </row>

--- a/documents/исследования.xlsx
+++ b/documents/исследования.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="23">
   <si>
     <t>первый (без разбиения)</t>
   </si>
@@ -78,6 +78,15 @@
   <si>
     <t>ЦМ</t>
   </si>
+  <si>
+    <t>РГЗ</t>
+  </si>
+  <si>
+    <t>первый (с разбиением)</t>
+  </si>
+  <si>
+    <t>минимальный</t>
+  </si>
 </sst>
 </file>
 
@@ -93,12 +102,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -113,11 +128,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -412,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:AK68"/>
+  <dimension ref="A3:AK320"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="C190" workbookViewId="0">
+      <selection activeCell="K197" sqref="K197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2412,22 +2428,31 @@
       <c r="F39">
         <v>2000</v>
       </c>
+      <c r="G39">
+        <v>19.11</v>
+      </c>
+      <c r="H39">
+        <v>1.9</v>
+      </c>
       <c r="I39">
         <v>5.0599999999999996</v>
       </c>
       <c r="J39">
         <v>75</v>
       </c>
-      <c r="L39" t="e">
+      <c r="K39">
+        <v>4.28</v>
+      </c>
+      <c r="L39">
         <f>I39/K39</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M39" t="e">
+        <v>1.1822429906542054</v>
+      </c>
+      <c r="M39">
         <f>J39/K39</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="40" spans="3:13">
+        <v>17.523364485981308</v>
+      </c>
+    </row>
+    <row r="40" spans="3:13" hidden="1">
       <c r="C40">
         <v>2</v>
       </c>
@@ -2437,22 +2462,31 @@
       <c r="F40">
         <v>2000</v>
       </c>
+      <c r="G40">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="H40">
+        <v>2.19</v>
+      </c>
       <c r="I40">
         <v>11.3</v>
       </c>
       <c r="J40">
         <v>75.099999999999994</v>
       </c>
-      <c r="L40" t="e">
+      <c r="K40">
+        <v>4.24</v>
+      </c>
+      <c r="L40">
         <f t="shared" ref="L40:L67" si="6">I40/K40</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M40" t="e">
+        <v>2.6650943396226414</v>
+      </c>
+      <c r="M40">
         <f t="shared" ref="M40:M67" si="7">J40/K40</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="41" spans="3:13">
+        <v>17.712264150943394</v>
+      </c>
+    </row>
+    <row r="41" spans="3:13" hidden="1">
       <c r="C41">
         <v>3</v>
       </c>
@@ -2462,22 +2496,31 @@
       <c r="F41">
         <v>2000</v>
       </c>
+      <c r="G41">
+        <v>9.77</v>
+      </c>
+      <c r="H41">
+        <v>2.2200000000000002</v>
+      </c>
       <c r="I41">
         <v>12.1</v>
       </c>
       <c r="J41">
         <v>75.099999999999994</v>
       </c>
-      <c r="L41" t="e">
+      <c r="K41">
+        <v>4.28</v>
+      </c>
+      <c r="L41">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M41" t="e">
+        <v>2.8271028037383177</v>
+      </c>
+      <c r="M41">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="42" spans="3:13">
+        <v>17.546728971962615</v>
+      </c>
+    </row>
+    <row r="42" spans="3:13" hidden="1">
       <c r="C42">
         <v>4</v>
       </c>
@@ -2487,22 +2530,31 @@
       <c r="F42">
         <v>2000</v>
       </c>
+      <c r="G42">
+        <v>3.04</v>
+      </c>
+      <c r="H42">
+        <v>1.0900000000000001</v>
+      </c>
       <c r="I42">
         <v>11.9</v>
       </c>
       <c r="J42">
         <v>75.099999999999994</v>
       </c>
-      <c r="L42" t="e">
+      <c r="K42">
+        <v>4.25</v>
+      </c>
+      <c r="L42">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M42" t="e">
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="M42">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="43" spans="3:13">
+        <v>17.670588235294115</v>
+      </c>
+    </row>
+    <row r="43" spans="3:13" hidden="1">
       <c r="C43">
         <v>5</v>
       </c>
@@ -2512,22 +2564,31 @@
       <c r="F43">
         <v>2000</v>
       </c>
+      <c r="G43">
+        <v>3.67</v>
+      </c>
+      <c r="H43">
+        <v>1.68</v>
+      </c>
       <c r="I43">
         <v>12.4</v>
       </c>
       <c r="J43">
         <v>75.099999999999994</v>
       </c>
-      <c r="L43" t="e">
+      <c r="K43">
+        <v>4.26</v>
+      </c>
+      <c r="L43">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M43" t="e">
+        <v>2.910798122065728</v>
+      </c>
+      <c r="M43">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="44" spans="3:13">
+        <v>17.629107981220656</v>
+      </c>
+    </row>
+    <row r="44" spans="3:13" hidden="1">
       <c r="C44">
         <v>6</v>
       </c>
@@ -2537,22 +2598,31 @@
       <c r="F44">
         <v>2000</v>
       </c>
+      <c r="G44">
+        <v>5.85</v>
+      </c>
+      <c r="H44">
+        <v>1.73</v>
+      </c>
       <c r="I44">
         <v>11.8</v>
       </c>
       <c r="J44">
         <v>75.099999999999994</v>
       </c>
-      <c r="L44" t="e">
+      <c r="K44">
+        <v>4.24</v>
+      </c>
+      <c r="L44">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M44" t="e">
+        <v>2.7830188679245285</v>
+      </c>
+      <c r="M44">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="45" spans="3:13">
+        <v>17.712264150943394</v>
+      </c>
+    </row>
+    <row r="45" spans="3:13" hidden="1">
       <c r="C45">
         <v>7</v>
       </c>
@@ -2562,22 +2632,31 @@
       <c r="F45">
         <v>2000</v>
       </c>
+      <c r="G45">
+        <v>4.51</v>
+      </c>
+      <c r="H45">
+        <v>2.11</v>
+      </c>
       <c r="I45">
         <v>13.3</v>
       </c>
       <c r="J45">
         <v>75.099999999999994</v>
       </c>
-      <c r="L45" t="e">
+      <c r="K45">
+        <v>3.99</v>
+      </c>
+      <c r="L45">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M45" t="e">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="M45">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="46" spans="3:13">
+        <v>18.822055137844607</v>
+      </c>
+    </row>
+    <row r="46" spans="3:13" hidden="1">
       <c r="C46">
         <v>8</v>
       </c>
@@ -2587,22 +2666,31 @@
       <c r="F46">
         <v>2000</v>
       </c>
+      <c r="G46">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="H46">
+        <v>2.15</v>
+      </c>
       <c r="I46">
         <v>12.8</v>
       </c>
       <c r="J46">
         <v>75.099999999999994</v>
       </c>
-      <c r="L46" t="e">
+      <c r="K46">
+        <v>4.29</v>
+      </c>
+      <c r="L46">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M46" t="e">
+        <v>2.9836829836829839</v>
+      </c>
+      <c r="M46">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="47" spans="3:13">
+        <v>17.505827505827504</v>
+      </c>
+    </row>
+    <row r="47" spans="3:13" hidden="1">
       <c r="C47">
         <v>9</v>
       </c>
@@ -2612,22 +2700,31 @@
       <c r="F47">
         <v>2000</v>
       </c>
+      <c r="G47">
+        <v>5.09</v>
+      </c>
+      <c r="H47">
+        <v>2.23</v>
+      </c>
       <c r="I47">
         <v>10</v>
       </c>
       <c r="J47">
         <v>75.099999999999994</v>
       </c>
-      <c r="L47" t="e">
+      <c r="K47">
+        <v>4.3</v>
+      </c>
+      <c r="L47">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M47" t="e">
+        <v>2.3255813953488373</v>
+      </c>
+      <c r="M47">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="48" spans="3:13">
+        <v>17.465116279069768</v>
+      </c>
+    </row>
+    <row r="48" spans="3:13" hidden="1">
       <c r="C48">
         <v>10</v>
       </c>
@@ -2637,22 +2734,31 @@
       <c r="F48">
         <v>2000</v>
       </c>
+      <c r="G48">
+        <v>9.86</v>
+      </c>
+      <c r="H48">
+        <v>2.17</v>
+      </c>
       <c r="I48">
         <v>12.4</v>
       </c>
       <c r="J48">
         <v>75.099999999999994</v>
       </c>
-      <c r="L48" t="e">
+      <c r="K48">
+        <v>4.29</v>
+      </c>
+      <c r="L48">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M48" t="e">
+        <v>2.8904428904428907</v>
+      </c>
+      <c r="M48">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="49" spans="3:13">
+        <v>17.505827505827504</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" hidden="1">
       <c r="C49">
         <v>11</v>
       </c>
@@ -2662,22 +2768,31 @@
       <c r="F49">
         <v>2000</v>
       </c>
+      <c r="G49">
+        <v>6.83</v>
+      </c>
+      <c r="H49">
+        <v>1.73</v>
+      </c>
       <c r="I49">
         <v>7.52</v>
       </c>
       <c r="J49">
         <v>75.099999999999994</v>
       </c>
-      <c r="L49" t="e">
+      <c r="K49">
+        <v>4.3</v>
+      </c>
+      <c r="L49">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M49" t="e">
+        <v>1.7488372093023254</v>
+      </c>
+      <c r="M49">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="50" spans="3:13">
+        <v>17.465116279069768</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" hidden="1">
       <c r="C50">
         <v>12</v>
       </c>
@@ -2687,22 +2802,31 @@
       <c r="F50">
         <v>2000</v>
       </c>
+      <c r="G50">
+        <v>6.96</v>
+      </c>
+      <c r="H50">
+        <v>1.75</v>
+      </c>
       <c r="I50">
         <v>11.7</v>
       </c>
       <c r="J50">
         <v>75.099999999999994</v>
       </c>
-      <c r="L50" t="e">
+      <c r="K50">
+        <v>4.25</v>
+      </c>
+      <c r="L50">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M50" t="e">
+        <v>2.7529411764705882</v>
+      </c>
+      <c r="M50">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="51" spans="3:13">
+        <v>17.670588235294115</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" hidden="1">
       <c r="C51">
         <v>13</v>
       </c>
@@ -2712,22 +2836,31 @@
       <c r="F51">
         <v>2000</v>
       </c>
+      <c r="G51">
+        <v>5.84</v>
+      </c>
+      <c r="H51">
+        <v>2.15</v>
+      </c>
       <c r="I51">
         <v>9.25</v>
       </c>
       <c r="J51">
         <v>75.099999999999994</v>
       </c>
-      <c r="L51" t="e">
+      <c r="K51">
+        <v>4.26</v>
+      </c>
+      <c r="L51">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M51" t="e">
+        <v>2.171361502347418</v>
+      </c>
+      <c r="M51">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="52" spans="3:13">
+        <v>17.629107981220656</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" hidden="1">
       <c r="C52">
         <v>14</v>
       </c>
@@ -2737,22 +2870,31 @@
       <c r="F52">
         <v>2000</v>
       </c>
+      <c r="G52">
+        <v>10.06</v>
+      </c>
+      <c r="H52">
+        <v>2.15</v>
+      </c>
       <c r="I52">
         <v>15.6</v>
       </c>
       <c r="J52">
         <v>75.099999999999994</v>
       </c>
-      <c r="L52" t="e">
+      <c r="K52">
+        <v>4.24</v>
+      </c>
+      <c r="L52">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M52" t="e">
+        <v>3.6792452830188678</v>
+      </c>
+      <c r="M52">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="53" spans="3:13">
+        <v>17.712264150943394</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" hidden="1">
       <c r="C53">
         <v>15</v>
       </c>
@@ -2762,22 +2904,31 @@
       <c r="F53">
         <v>2000</v>
       </c>
+      <c r="G53">
+        <v>7.25</v>
+      </c>
+      <c r="H53">
+        <v>2.12</v>
+      </c>
       <c r="I53">
         <v>6.84</v>
       </c>
       <c r="J53">
         <v>75.099999999999994</v>
       </c>
-      <c r="L53" t="e">
+      <c r="K53">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="L53">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M53" t="e">
+        <v>1.601873536299766</v>
+      </c>
+      <c r="M53">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="54" spans="3:13">
+        <v>17.587822014051522</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" hidden="1">
       <c r="C54">
         <v>16</v>
       </c>
@@ -2787,22 +2938,31 @@
       <c r="F54">
         <v>2000</v>
       </c>
+      <c r="G54">
+        <v>10.31</v>
+      </c>
+      <c r="H54">
+        <v>2.14</v>
+      </c>
       <c r="I54">
         <v>12.8</v>
       </c>
       <c r="J54">
         <v>75.099999999999994</v>
       </c>
-      <c r="L54" t="e">
+      <c r="K54">
+        <v>4.29</v>
+      </c>
+      <c r="L54">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M54" t="e">
+        <v>2.9836829836829839</v>
+      </c>
+      <c r="M54">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="55" spans="3:13">
+        <v>17.505827505827504</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" hidden="1">
       <c r="C55">
         <v>17</v>
       </c>
@@ -2812,22 +2972,31 @@
       <c r="F55">
         <v>2000</v>
       </c>
+      <c r="G55">
+        <v>7.72</v>
+      </c>
+      <c r="H55">
+        <v>2.39</v>
+      </c>
       <c r="I55">
         <v>18.600000000000001</v>
       </c>
       <c r="J55">
         <v>75.099999999999994</v>
       </c>
-      <c r="L55" t="e">
+      <c r="K55">
+        <v>4.29</v>
+      </c>
+      <c r="L55">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M55" t="e">
+        <v>4.3356643356643358</v>
+      </c>
+      <c r="M55">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="56" spans="3:13">
+        <v>17.505827505827504</v>
+      </c>
+    </row>
+    <row r="56" spans="3:13" hidden="1">
       <c r="C56">
         <v>18</v>
       </c>
@@ -2837,22 +3006,31 @@
       <c r="F56">
         <v>2000</v>
       </c>
+      <c r="G56">
+        <v>5.69</v>
+      </c>
+      <c r="H56">
+        <v>2.12</v>
+      </c>
       <c r="I56">
         <v>20.399999999999999</v>
       </c>
       <c r="J56">
         <v>75.099999999999994</v>
       </c>
-      <c r="L56" t="e">
+      <c r="K56">
+        <v>4.25</v>
+      </c>
+      <c r="L56">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M56" t="e">
+        <v>4.8</v>
+      </c>
+      <c r="M56">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="57" spans="3:13">
+        <v>17.670588235294115</v>
+      </c>
+    </row>
+    <row r="57" spans="3:13" hidden="1">
       <c r="C57">
         <v>19</v>
       </c>
@@ -2862,22 +3040,31 @@
       <c r="F57">
         <v>2000</v>
       </c>
+      <c r="G57">
+        <v>9.91</v>
+      </c>
+      <c r="H57">
+        <v>2.15</v>
+      </c>
       <c r="I57">
         <v>15.1</v>
       </c>
       <c r="J57">
         <v>75.099999999999994</v>
       </c>
-      <c r="L57" t="e">
+      <c r="K57">
+        <v>4.3</v>
+      </c>
+      <c r="L57">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M57" t="e">
+        <v>3.5116279069767442</v>
+      </c>
+      <c r="M57">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="58" spans="3:13">
+        <v>17.465116279069768</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" hidden="1">
       <c r="C58">
         <v>20</v>
       </c>
@@ -2887,22 +3074,31 @@
       <c r="F58">
         <v>2000</v>
       </c>
+      <c r="G58">
+        <v>11.59</v>
+      </c>
+      <c r="H58">
+        <v>2.2200000000000002</v>
+      </c>
       <c r="I58">
         <v>14</v>
       </c>
       <c r="J58">
         <v>75.099999999999994</v>
       </c>
-      <c r="L58" t="e">
+      <c r="K58">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="L58">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M58" t="e">
+        <v>3.2786885245901645</v>
+      </c>
+      <c r="M58">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="59" spans="3:13">
+        <v>17.587822014051522</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" hidden="1">
       <c r="C59">
         <v>21</v>
       </c>
@@ -2912,22 +3108,31 @@
       <c r="F59">
         <v>2000</v>
       </c>
+      <c r="G59">
+        <v>5.44</v>
+      </c>
+      <c r="H59">
+        <v>2.2799999999999998</v>
+      </c>
       <c r="I59">
         <v>13</v>
       </c>
       <c r="J59">
         <v>75.099999999999994</v>
       </c>
-      <c r="L59" t="e">
+      <c r="K59">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="L59">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M59" t="e">
+        <v>3.0444964871194382</v>
+      </c>
+      <c r="M59">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="60" spans="3:13">
+        <v>17.587822014051522</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" hidden="1">
       <c r="C60">
         <v>22</v>
       </c>
@@ -2937,22 +3142,31 @@
       <c r="F60">
         <v>2000</v>
       </c>
+      <c r="G60">
+        <v>9.31</v>
+      </c>
+      <c r="H60">
+        <v>2.19</v>
+      </c>
       <c r="I60">
         <v>11.8</v>
       </c>
       <c r="J60">
         <v>75.099999999999994</v>
       </c>
-      <c r="L60" t="e">
+      <c r="K60">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="L60">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M60" t="e">
+        <v>2.7634660421545671</v>
+      </c>
+      <c r="M60">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="61" spans="3:13">
+        <v>17.587822014051522</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" hidden="1">
       <c r="C61">
         <v>23</v>
       </c>
@@ -2962,22 +3176,31 @@
       <c r="F61">
         <v>2000</v>
       </c>
+      <c r="G61">
+        <v>8.81</v>
+      </c>
+      <c r="H61">
+        <v>2.2599999999999998</v>
+      </c>
       <c r="I61">
         <v>13.7</v>
       </c>
       <c r="J61">
         <v>75.099999999999994</v>
       </c>
-      <c r="L61" t="e">
+      <c r="K61">
+        <v>4.3</v>
+      </c>
+      <c r="L61">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M61" t="e">
+        <v>3.1860465116279069</v>
+      </c>
+      <c r="M61">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="62" spans="3:13">
+        <v>17.465116279069768</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" hidden="1">
       <c r="C62">
         <v>24</v>
       </c>
@@ -2987,22 +3210,31 @@
       <c r="F62">
         <v>2000</v>
       </c>
+      <c r="G62">
+        <v>6.74</v>
+      </c>
+      <c r="H62">
+        <v>2.2799999999999998</v>
+      </c>
       <c r="I62">
         <v>10.4</v>
       </c>
       <c r="J62">
         <v>75.099999999999994</v>
       </c>
-      <c r="L62" t="e">
+      <c r="K62">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="L62">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M62" t="e">
+        <v>2.4355971896955508</v>
+      </c>
+      <c r="M62">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="63" spans="3:13">
+        <v>17.587822014051522</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" hidden="1">
       <c r="C63">
         <v>25</v>
       </c>
@@ -3012,22 +3244,31 @@
       <c r="F63">
         <v>2000</v>
       </c>
+      <c r="G63">
+        <v>8.86</v>
+      </c>
+      <c r="H63">
+        <v>2.76</v>
+      </c>
       <c r="I63">
         <v>9.4600000000000009</v>
       </c>
       <c r="J63">
         <v>75.099999999999994</v>
       </c>
-      <c r="L63" t="e">
+      <c r="K63">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="L63">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M63" t="e">
+        <v>2.2154566744730682</v>
+      </c>
+      <c r="M63">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="64" spans="3:13">
+        <v>17.587822014051522</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" hidden="1">
       <c r="C64">
         <v>26</v>
       </c>
@@ -3037,22 +3278,31 @@
       <c r="F64">
         <v>2000</v>
       </c>
+      <c r="G64">
+        <v>2.95</v>
+      </c>
+      <c r="H64">
+        <v>2.2200000000000002</v>
+      </c>
       <c r="I64">
         <v>13.1</v>
       </c>
       <c r="J64">
         <v>75.099999999999994</v>
       </c>
-      <c r="L64" t="e">
+      <c r="K64">
+        <v>4.3</v>
+      </c>
+      <c r="L64">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M64" t="e">
+        <v>3.0465116279069768</v>
+      </c>
+      <c r="M64">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="65" spans="3:13">
+        <v>17.465116279069768</v>
+      </c>
+    </row>
+    <row r="65" spans="3:13" hidden="1">
       <c r="C65">
         <v>27</v>
       </c>
@@ -3062,22 +3312,31 @@
       <c r="F65">
         <v>2000</v>
       </c>
+      <c r="G65">
+        <v>6.44</v>
+      </c>
+      <c r="H65">
+        <v>2.93</v>
+      </c>
       <c r="I65">
         <v>9.23</v>
       </c>
       <c r="J65">
         <v>75.099999999999994</v>
       </c>
-      <c r="L65" t="e">
+      <c r="K65">
+        <v>4.3</v>
+      </c>
+      <c r="L65">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M65" t="e">
+        <v>2.1465116279069769</v>
+      </c>
+      <c r="M65">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="66" spans="3:13">
+        <v>17.465116279069768</v>
+      </c>
+    </row>
+    <row r="66" spans="3:13" hidden="1">
       <c r="C66">
         <v>28</v>
       </c>
@@ -3087,22 +3346,31 @@
       <c r="F66">
         <v>2000</v>
       </c>
+      <c r="G66">
+        <v>9.59</v>
+      </c>
+      <c r="H66">
+        <v>2.25</v>
+      </c>
       <c r="I66">
         <v>14.9</v>
       </c>
       <c r="J66">
         <v>75.099999999999994</v>
       </c>
-      <c r="L66" t="e">
+      <c r="K66">
+        <v>4.29</v>
+      </c>
+      <c r="L66">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M66" t="e">
+        <v>3.473193473193473</v>
+      </c>
+      <c r="M66">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="67" spans="3:13">
+        <v>17.505827505827504</v>
+      </c>
+    </row>
+    <row r="67" spans="3:13" hidden="1">
       <c r="C67">
         <v>29</v>
       </c>
@@ -3112,19 +3380,28 @@
       <c r="F67">
         <v>2000</v>
       </c>
+      <c r="G67">
+        <v>14.18</v>
+      </c>
+      <c r="H67">
+        <v>2.25</v>
+      </c>
       <c r="I67">
         <v>10.6</v>
       </c>
       <c r="J67">
         <v>75.099999999999994</v>
       </c>
-      <c r="L67" t="e">
+      <c r="K67">
+        <v>4.3</v>
+      </c>
+      <c r="L67">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M67" t="e">
+        <v>2.4651162790697674</v>
+      </c>
+      <c r="M67">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>17.465116279069768</v>
       </c>
     </row>
     <row r="68" spans="3:13">
@@ -3135,13 +3412,13 @@
         <f>AVERAGE(F39:F67)</f>
         <v>2000</v>
       </c>
-      <c r="G68" t="e">
+      <c r="G68">
         <f t="shared" ref="G68" si="8">AVERAGE(G39:G67)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H68" t="e">
+        <v>7.8710344827586214</v>
+      </c>
+      <c r="H68">
         <f t="shared" ref="H68" si="9">AVERAGE(H39:H67)</f>
-        <v>#DIV/0!</v>
+        <v>2.1313793103448271</v>
       </c>
       <c r="I68">
         <f t="shared" ref="I68" si="10">AVERAGE(I39:I67)</f>
@@ -3151,16 +3428,6555 @@
         <f t="shared" ref="J68" si="11">AVERAGE(J39:J67)</f>
         <v>75.096551724137896</v>
       </c>
-      <c r="K68" t="e">
+      <c r="K68">
         <f t="shared" ref="K68" si="12">AVERAGE(K39:K67)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L68" t="e">
+        <v>4.2658620689655162</v>
+      </c>
+      <c r="L68">
         <f t="shared" ref="L68" si="13">AVERAGE(L39:L67)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M68" t="e">
+        <v>2.8393660723556686</v>
+      </c>
+      <c r="M68">
         <f t="shared" ref="M68" si="14">AVERAGE(M39:M67)</f>
+        <v>17.607269147719911</v>
+      </c>
+    </row>
+    <row r="72" spans="3:13" ht="60">
+      <c r="C72" s="1"/>
+      <c r="D72" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="3:13">
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73" t="s">
+        <v>0</v>
+      </c>
+      <c r="E73" t="s">
+        <v>20</v>
+      </c>
+      <c r="F73">
+        <v>2000</v>
+      </c>
+      <c r="G73">
+        <v>38.229999999999997</v>
+      </c>
+      <c r="H73">
+        <v>1.89</v>
+      </c>
+      <c r="I73">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="J73">
+        <v>75</v>
+      </c>
+      <c r="K73">
+        <v>4.28</v>
+      </c>
+      <c r="L73">
+        <f>I73/K73</f>
+        <v>1.1822429906542054</v>
+      </c>
+      <c r="M73">
+        <f>J73/K73</f>
+        <v>17.523364485981308</v>
+      </c>
+    </row>
+    <row r="74" spans="3:13" hidden="1">
+      <c r="C74">
+        <v>2</v>
+      </c>
+      <c r="E74" t="s">
+        <v>20</v>
+      </c>
+      <c r="F74">
+        <v>2000</v>
+      </c>
+      <c r="G74">
+        <v>38.42</v>
+      </c>
+      <c r="H74">
+        <v>5.33</v>
+      </c>
+      <c r="I74">
+        <v>11.3</v>
+      </c>
+      <c r="J74">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K74">
+        <v>4.26</v>
+      </c>
+      <c r="L74">
+        <f t="shared" ref="L74:L101" si="15">I74/K74</f>
+        <v>2.6525821596244135</v>
+      </c>
+      <c r="M74">
+        <f t="shared" ref="M74:M101" si="16">J74/K74</f>
+        <v>17.629107981220656</v>
+      </c>
+    </row>
+    <row r="75" spans="3:13" hidden="1">
+      <c r="C75">
+        <v>3</v>
+      </c>
+      <c r="E75" t="s">
+        <v>20</v>
+      </c>
+      <c r="F75">
+        <v>2000</v>
+      </c>
+      <c r="G75">
+        <v>19.75</v>
+      </c>
+      <c r="H75">
+        <v>2.87</v>
+      </c>
+      <c r="I75">
+        <v>12.1</v>
+      </c>
+      <c r="J75">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K75">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="15"/>
+        <v>2.8337236533957846</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="16"/>
+        <v>17.587822014051522</v>
+      </c>
+    </row>
+    <row r="76" spans="3:13" hidden="1">
+      <c r="C76">
+        <v>4</v>
+      </c>
+      <c r="E76" t="s">
+        <v>20</v>
+      </c>
+      <c r="F76">
+        <v>2000</v>
+      </c>
+      <c r="G76">
+        <v>21.31</v>
+      </c>
+      <c r="H76">
+        <v>3.69</v>
+      </c>
+      <c r="I76">
+        <v>11.9</v>
+      </c>
+      <c r="J76">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K76">
+        <v>4.25</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="15"/>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="16"/>
+        <v>17.670588235294115</v>
+      </c>
+    </row>
+    <row r="77" spans="3:13" hidden="1">
+      <c r="C77">
+        <v>5</v>
+      </c>
+      <c r="E77" t="s">
+        <v>20</v>
+      </c>
+      <c r="F77">
+        <v>2000</v>
+      </c>
+      <c r="G77">
+        <v>3.57</v>
+      </c>
+      <c r="H77">
+        <v>1.84</v>
+      </c>
+      <c r="I77">
+        <v>12.4</v>
+      </c>
+      <c r="J77">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K77">
+        <v>4.26</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="15"/>
+        <v>2.910798122065728</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="16"/>
+        <v>17.629107981220656</v>
+      </c>
+    </row>
+    <row r="78" spans="3:13" hidden="1">
+      <c r="C78">
+        <v>6</v>
+      </c>
+      <c r="E78" t="s">
+        <v>20</v>
+      </c>
+      <c r="F78">
+        <v>2000</v>
+      </c>
+      <c r="G78">
+        <v>4.93</v>
+      </c>
+      <c r="H78">
+        <v>2.75</v>
+      </c>
+      <c r="I78">
+        <v>11.8</v>
+      </c>
+      <c r="J78">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K78">
+        <v>4.24</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="15"/>
+        <v>2.7830188679245285</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="16"/>
+        <v>17.712264150943394</v>
+      </c>
+    </row>
+    <row r="79" spans="3:13" hidden="1">
+      <c r="C79">
+        <v>7</v>
+      </c>
+      <c r="E79" t="s">
+        <v>20</v>
+      </c>
+      <c r="F79">
+        <v>2000</v>
+      </c>
+      <c r="G79">
+        <v>3.78</v>
+      </c>
+      <c r="H79">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="I79">
+        <v>13.3</v>
+      </c>
+      <c r="J79">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K79">
+        <v>3.98</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="15"/>
+        <v>3.341708542713568</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="16"/>
+        <v>18.86934673366834</v>
+      </c>
+    </row>
+    <row r="80" spans="3:13" hidden="1">
+      <c r="C80">
+        <v>8</v>
+      </c>
+      <c r="E80" t="s">
+        <v>20</v>
+      </c>
+      <c r="F80">
+        <v>2000</v>
+      </c>
+      <c r="G80">
+        <v>5.16</v>
+      </c>
+      <c r="H80">
+        <v>2.64</v>
+      </c>
+      <c r="I80">
+        <v>12.8</v>
+      </c>
+      <c r="J80">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K80">
+        <v>4.3</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="15"/>
+        <v>2.976744186046512</v>
+      </c>
+      <c r="M80">
+        <f t="shared" si="16"/>
+        <v>17.465116279069768</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" hidden="1">
+      <c r="C81">
+        <v>9</v>
+      </c>
+      <c r="E81" t="s">
+        <v>20</v>
+      </c>
+      <c r="F81">
+        <v>2000</v>
+      </c>
+      <c r="G81">
+        <v>7.43</v>
+      </c>
+      <c r="H81">
+        <v>2.34</v>
+      </c>
+      <c r="I81">
+        <v>10</v>
+      </c>
+      <c r="J81">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K81">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="15"/>
+        <v>2.3201856148491879</v>
+      </c>
+      <c r="M81">
+        <f t="shared" si="16"/>
+        <v>17.424593967517403</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" hidden="1">
+      <c r="C82">
+        <v>10</v>
+      </c>
+      <c r="E82" t="s">
+        <v>20</v>
+      </c>
+      <c r="F82">
+        <v>2000</v>
+      </c>
+      <c r="G82">
+        <v>9.25</v>
+      </c>
+      <c r="H82">
+        <v>2.36</v>
+      </c>
+      <c r="I82">
+        <v>12.4</v>
+      </c>
+      <c r="J82">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K82">
+        <v>4.28</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="15"/>
+        <v>2.8971962616822431</v>
+      </c>
+      <c r="M82">
+        <f t="shared" si="16"/>
+        <v>17.546728971962615</v>
+      </c>
+    </row>
+    <row r="83" spans="3:13" hidden="1">
+      <c r="C83">
+        <v>11</v>
+      </c>
+      <c r="E83" t="s">
+        <v>20</v>
+      </c>
+      <c r="F83">
+        <v>2000</v>
+      </c>
+      <c r="G83">
+        <v>5.05</v>
+      </c>
+      <c r="H83">
+        <v>2.25</v>
+      </c>
+      <c r="I83">
+        <v>7.52</v>
+      </c>
+      <c r="J83">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K83">
+        <v>4.3</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="15"/>
+        <v>1.7488372093023254</v>
+      </c>
+      <c r="M83">
+        <f t="shared" si="16"/>
+        <v>17.465116279069768</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" hidden="1">
+      <c r="C84">
+        <v>12</v>
+      </c>
+      <c r="E84" t="s">
+        <v>20</v>
+      </c>
+      <c r="F84">
+        <v>2000</v>
+      </c>
+      <c r="G84">
+        <v>5.32</v>
+      </c>
+      <c r="H84">
+        <v>1.78</v>
+      </c>
+      <c r="I84">
+        <v>11.7</v>
+      </c>
+      <c r="J84">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K84">
+        <v>4.28</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="15"/>
+        <v>2.7336448598130838</v>
+      </c>
+      <c r="M84">
+        <f t="shared" si="16"/>
+        <v>17.546728971962615</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" hidden="1">
+      <c r="C85">
+        <v>13</v>
+      </c>
+      <c r="E85" t="s">
+        <v>20</v>
+      </c>
+      <c r="F85">
+        <v>2000</v>
+      </c>
+      <c r="G85">
+        <v>2.61</v>
+      </c>
+      <c r="H85">
+        <v>2.29</v>
+      </c>
+      <c r="I85">
+        <v>9.25</v>
+      </c>
+      <c r="J85">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K85">
+        <v>4.26</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="15"/>
+        <v>2.171361502347418</v>
+      </c>
+      <c r="M85">
+        <f t="shared" si="16"/>
+        <v>17.629107981220656</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" hidden="1">
+      <c r="C86">
+        <v>14</v>
+      </c>
+      <c r="E86" t="s">
+        <v>20</v>
+      </c>
+      <c r="F86">
+        <v>2000</v>
+      </c>
+      <c r="G86">
+        <v>9.8699999999999992</v>
+      </c>
+      <c r="H86">
+        <v>1.75</v>
+      </c>
+      <c r="I86">
+        <v>15.6</v>
+      </c>
+      <c r="J86">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K86">
+        <v>4.29</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="15"/>
+        <v>3.6363636363636362</v>
+      </c>
+      <c r="M86">
+        <f t="shared" si="16"/>
+        <v>17.505827505827504</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" hidden="1">
+      <c r="C87">
+        <v>15</v>
+      </c>
+      <c r="E87" t="s">
+        <v>20</v>
+      </c>
+      <c r="F87">
+        <v>2000</v>
+      </c>
+      <c r="G87">
+        <v>7.8</v>
+      </c>
+      <c r="H87">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="I87">
+        <v>6.84</v>
+      </c>
+      <c r="J87">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K87">
+        <v>4.29</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="15"/>
+        <v>1.5944055944055944</v>
+      </c>
+      <c r="M87">
+        <f t="shared" si="16"/>
+        <v>17.505827505827504</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" hidden="1">
+      <c r="C88">
+        <v>16</v>
+      </c>
+      <c r="E88" t="s">
+        <v>20</v>
+      </c>
+      <c r="F88">
+        <v>2000</v>
+      </c>
+      <c r="G88">
+        <v>9.17</v>
+      </c>
+      <c r="H88">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="I88">
+        <v>12.8</v>
+      </c>
+      <c r="J88">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K88">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="15"/>
+        <v>2.9976580796252934</v>
+      </c>
+      <c r="M88">
+        <f t="shared" si="16"/>
+        <v>17.587822014051522</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" hidden="1">
+      <c r="C89">
+        <v>17</v>
+      </c>
+      <c r="E89" t="s">
+        <v>20</v>
+      </c>
+      <c r="F89">
+        <v>2000</v>
+      </c>
+      <c r="G89">
+        <v>8.25</v>
+      </c>
+      <c r="H89">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="I89">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="J89">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K89">
+        <v>4.29</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="15"/>
+        <v>4.3356643356643358</v>
+      </c>
+      <c r="M89">
+        <f t="shared" si="16"/>
+        <v>17.505827505827504</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" hidden="1">
+      <c r="C90">
+        <v>18</v>
+      </c>
+      <c r="E90" t="s">
+        <v>20</v>
+      </c>
+      <c r="F90">
+        <v>2000</v>
+      </c>
+      <c r="G90">
+        <v>5.16</v>
+      </c>
+      <c r="H90">
+        <v>2.25</v>
+      </c>
+      <c r="I90">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="J90">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K90">
+        <v>4.32</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="15"/>
+        <v>4.7222222222222214</v>
+      </c>
+      <c r="M90">
+        <f t="shared" si="16"/>
+        <v>17.384259259259256</v>
+      </c>
+    </row>
+    <row r="91" spans="3:13" hidden="1">
+      <c r="C91">
+        <v>19</v>
+      </c>
+      <c r="E91" t="s">
+        <v>20</v>
+      </c>
+      <c r="F91">
+        <v>2000</v>
+      </c>
+      <c r="G91">
+        <v>7.53</v>
+      </c>
+      <c r="H91">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="I91">
+        <v>15.1</v>
+      </c>
+      <c r="J91">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K91">
+        <v>4.34</v>
+      </c>
+      <c r="L91">
+        <f t="shared" si="15"/>
+        <v>3.4792626728110601</v>
+      </c>
+      <c r="M91">
+        <f t="shared" si="16"/>
+        <v>17.304147465437786</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" hidden="1">
+      <c r="C92">
+        <v>20</v>
+      </c>
+      <c r="E92" t="s">
+        <v>20</v>
+      </c>
+      <c r="F92">
+        <v>2000</v>
+      </c>
+      <c r="G92">
+        <v>9.09</v>
+      </c>
+      <c r="H92">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="I92">
+        <v>14</v>
+      </c>
+      <c r="J92">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K92">
+        <v>4.3</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="15"/>
+        <v>3.2558139534883721</v>
+      </c>
+      <c r="M92">
+        <f t="shared" si="16"/>
+        <v>17.465116279069768</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" hidden="1">
+      <c r="C93">
+        <v>21</v>
+      </c>
+      <c r="E93" t="s">
+        <v>20</v>
+      </c>
+      <c r="F93">
+        <v>2000</v>
+      </c>
+      <c r="G93">
+        <v>5.44</v>
+      </c>
+      <c r="H93">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="I93">
+        <v>13</v>
+      </c>
+      <c r="J93">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K93">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="15"/>
+        <v>3.0444964871194382</v>
+      </c>
+      <c r="M93">
+        <f t="shared" si="16"/>
+        <v>17.587822014051522</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" hidden="1">
+      <c r="C94">
+        <v>22</v>
+      </c>
+      <c r="E94" t="s">
+        <v>20</v>
+      </c>
+      <c r="F94">
+        <v>2000</v>
+      </c>
+      <c r="G94">
+        <v>7.86</v>
+      </c>
+      <c r="H94">
+        <v>2.19</v>
+      </c>
+      <c r="I94">
+        <v>11.8</v>
+      </c>
+      <c r="J94">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K94">
+        <v>4.3</v>
+      </c>
+      <c r="L94">
+        <f t="shared" si="15"/>
+        <v>2.7441860465116283</v>
+      </c>
+      <c r="M94">
+        <f t="shared" si="16"/>
+        <v>17.465116279069768</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" hidden="1">
+      <c r="C95">
+        <v>23</v>
+      </c>
+      <c r="E95" t="s">
+        <v>20</v>
+      </c>
+      <c r="F95">
+        <v>2000</v>
+      </c>
+      <c r="G95">
+        <v>7.96</v>
+      </c>
+      <c r="H95">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="I95">
+        <v>13.7</v>
+      </c>
+      <c r="J95">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K95">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="L95">
+        <f t="shared" si="15"/>
+        <v>3.1786542923433876</v>
+      </c>
+      <c r="M95">
+        <f t="shared" si="16"/>
+        <v>17.424593967517403</v>
+      </c>
+    </row>
+    <row r="96" spans="3:13" hidden="1">
+      <c r="C96">
+        <v>24</v>
+      </c>
+      <c r="E96" t="s">
+        <v>20</v>
+      </c>
+      <c r="F96">
+        <v>2000</v>
+      </c>
+      <c r="G96">
+        <v>5.32</v>
+      </c>
+      <c r="H96">
+        <v>2.17</v>
+      </c>
+      <c r="I96">
+        <v>10.4</v>
+      </c>
+      <c r="J96">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K96">
+        <v>4.3</v>
+      </c>
+      <c r="L96">
+        <f t="shared" si="15"/>
+        <v>2.418604651162791</v>
+      </c>
+      <c r="M96">
+        <f t="shared" si="16"/>
+        <v>17.465116279069768</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" hidden="1">
+      <c r="C97">
+        <v>25</v>
+      </c>
+      <c r="E97" t="s">
+        <v>20</v>
+      </c>
+      <c r="F97">
+        <v>2000</v>
+      </c>
+      <c r="G97">
+        <v>5.09</v>
+      </c>
+      <c r="H97">
+        <v>2.15</v>
+      </c>
+      <c r="I97">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="J97">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K97">
+        <v>4.29</v>
+      </c>
+      <c r="L97">
+        <f t="shared" si="15"/>
+        <v>2.2051282051282053</v>
+      </c>
+      <c r="M97">
+        <f t="shared" si="16"/>
+        <v>17.505827505827504</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" hidden="1">
+      <c r="C98">
+        <v>26</v>
+      </c>
+      <c r="E98" t="s">
+        <v>20</v>
+      </c>
+      <c r="F98">
+        <v>2000</v>
+      </c>
+      <c r="G98">
+        <v>1.51</v>
+      </c>
+      <c r="H98">
+        <v>2.15</v>
+      </c>
+      <c r="I98">
+        <v>13.1</v>
+      </c>
+      <c r="J98">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K98">
+        <v>4.32</v>
+      </c>
+      <c r="L98">
+        <f t="shared" si="15"/>
+        <v>3.032407407407407</v>
+      </c>
+      <c r="M98">
+        <f t="shared" si="16"/>
+        <v>17.384259259259256</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" hidden="1">
+      <c r="C99">
+        <v>27</v>
+      </c>
+      <c r="E99" t="s">
+        <v>20</v>
+      </c>
+      <c r="F99">
+        <v>2000</v>
+      </c>
+      <c r="G99">
+        <v>4.96</v>
+      </c>
+      <c r="H99">
+        <v>2.23</v>
+      </c>
+      <c r="I99">
+        <v>9.23</v>
+      </c>
+      <c r="J99">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K99">
+        <v>4.3</v>
+      </c>
+      <c r="L99">
+        <f t="shared" si="15"/>
+        <v>2.1465116279069769</v>
+      </c>
+      <c r="M99">
+        <f t="shared" si="16"/>
+        <v>17.465116279069768</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" hidden="1">
+      <c r="C100">
+        <v>28</v>
+      </c>
+      <c r="E100" t="s">
+        <v>20</v>
+      </c>
+      <c r="F100">
+        <v>2000</v>
+      </c>
+      <c r="G100">
+        <v>6.88</v>
+      </c>
+      <c r="H100">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="I100">
+        <v>14.9</v>
+      </c>
+      <c r="J100">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K100">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="L100">
+        <f t="shared" si="15"/>
+        <v>3.4894613583138177</v>
+      </c>
+      <c r="M100">
+        <f t="shared" si="16"/>
+        <v>17.587822014051522</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" hidden="1">
+      <c r="C101">
+        <v>29</v>
+      </c>
+      <c r="E101" t="s">
+        <v>20</v>
+      </c>
+      <c r="F101">
+        <v>2000</v>
+      </c>
+      <c r="G101">
+        <v>8.56</v>
+      </c>
+      <c r="H101">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="I101">
+        <v>10.6</v>
+      </c>
+      <c r="J101">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K101">
+        <v>4.32</v>
+      </c>
+      <c r="L101">
+        <f t="shared" si="15"/>
+        <v>2.4537037037037033</v>
+      </c>
+      <c r="M101">
+        <f t="shared" si="16"/>
+        <v>17.384259259259256</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13">
+      <c r="C102" t="s">
+        <v>18</v>
+      </c>
+      <c r="F102">
+        <f>AVERAGE(F73:F101)</f>
+        <v>2000</v>
+      </c>
+      <c r="G102">
+        <f t="shared" ref="G102:M102" si="17">AVERAGE(G73:G101)</f>
+        <v>9.4917241379310369</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="17"/>
+        <v>2.4058620689655172</v>
+      </c>
+      <c r="I102">
+        <f t="shared" si="17"/>
+        <v>12.10551724137931</v>
+      </c>
+      <c r="J102">
+        <f t="shared" si="17"/>
+        <v>75.096551724137896</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="17"/>
+        <v>4.2775862068965518</v>
+      </c>
+      <c r="L102">
+        <f t="shared" si="17"/>
+        <v>2.8305720084343746</v>
+      </c>
+      <c r="M102">
+        <f t="shared" si="17"/>
+        <v>17.559577738815843</v>
+      </c>
+    </row>
+    <row r="107" spans="3:13" s="2" customFormat="1"/>
+    <row r="110" spans="3:13" ht="60">
+      <c r="C110" s="1"/>
+      <c r="D110" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K110" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L110" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M110" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" spans="3:13">
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111" t="s">
+        <v>21</v>
+      </c>
+      <c r="E111" t="s">
+        <v>7</v>
+      </c>
+      <c r="F111">
+        <v>2000</v>
+      </c>
+      <c r="G111">
+        <v>190.46</v>
+      </c>
+      <c r="H111">
+        <v>1.79</v>
+      </c>
+      <c r="I111">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="J111">
+        <v>75</v>
+      </c>
+      <c r="K111">
+        <v>12.8</v>
+      </c>
+      <c r="L111">
+        <f>I111/K111</f>
+        <v>0.39531249999999996</v>
+      </c>
+      <c r="M111">
+        <f>J111/K111</f>
+        <v>5.859375</v>
+      </c>
+    </row>
+    <row r="112" spans="3:13">
+      <c r="C112">
+        <v>2</v>
+      </c>
+      <c r="E112" t="s">
+        <v>7</v>
+      </c>
+      <c r="F112">
+        <v>2000</v>
+      </c>
+      <c r="G112">
+        <v>222.33</v>
+      </c>
+      <c r="H112">
+        <v>2.06</v>
+      </c>
+      <c r="I112">
+        <v>11.3</v>
+      </c>
+      <c r="J112">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K112">
+        <v>10.8</v>
+      </c>
+      <c r="L112">
+        <f t="shared" ref="L112:L139" si="18">I112/K112</f>
+        <v>1.0462962962962963</v>
+      </c>
+      <c r="M112">
+        <f t="shared" ref="M112:M139" si="19">J112/K112</f>
+        <v>6.9537037037037024</v>
+      </c>
+    </row>
+    <row r="113" spans="3:13">
+      <c r="C113">
+        <v>3</v>
+      </c>
+      <c r="E113" t="s">
+        <v>7</v>
+      </c>
+      <c r="F113">
+        <v>2000</v>
+      </c>
+      <c r="G113">
+        <v>194.91</v>
+      </c>
+      <c r="H113">
+        <v>1.75</v>
+      </c>
+      <c r="I113">
+        <v>12.1</v>
+      </c>
+      <c r="J113">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K113">
+        <v>11</v>
+      </c>
+      <c r="L113">
+        <f t="shared" si="18"/>
+        <v>1.0999999999999999</v>
+      </c>
+      <c r="M113">
+        <f t="shared" si="19"/>
+        <v>6.8272727272727272</v>
+      </c>
+    </row>
+    <row r="114" spans="3:13">
+      <c r="C114">
+        <v>4</v>
+      </c>
+      <c r="E114" t="s">
+        <v>7</v>
+      </c>
+      <c r="F114">
+        <v>2000</v>
+      </c>
+      <c r="G114">
+        <v>80.98</v>
+      </c>
+      <c r="H114">
+        <v>1.83</v>
+      </c>
+      <c r="I114">
+        <v>11.9</v>
+      </c>
+      <c r="J114">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K114">
+        <v>6.8</v>
+      </c>
+      <c r="L114">
+        <f t="shared" si="18"/>
+        <v>1.75</v>
+      </c>
+      <c r="M114">
+        <f t="shared" si="19"/>
+        <v>11.044117647058822</v>
+      </c>
+    </row>
+    <row r="115" spans="3:13">
+      <c r="C115">
+        <v>5</v>
+      </c>
+      <c r="E115" t="s">
+        <v>7</v>
+      </c>
+      <c r="F115">
+        <v>2000</v>
+      </c>
+      <c r="G115">
+        <v>70.64</v>
+      </c>
+      <c r="H115">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="I115">
+        <v>12.4</v>
+      </c>
+      <c r="J115">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K115">
+        <v>6.12</v>
+      </c>
+      <c r="L115">
+        <f t="shared" si="18"/>
+        <v>2.0261437908496731</v>
+      </c>
+      <c r="M115">
+        <f t="shared" si="19"/>
+        <v>12.271241830065359</v>
+      </c>
+    </row>
+    <row r="116" spans="3:13">
+      <c r="C116">
+        <v>6</v>
+      </c>
+      <c r="E116" t="s">
+        <v>7</v>
+      </c>
+      <c r="F116">
+        <v>2000</v>
+      </c>
+      <c r="G116">
+        <v>103.13</v>
+      </c>
+      <c r="H116">
+        <v>1.83</v>
+      </c>
+      <c r="I116">
+        <v>11.8</v>
+      </c>
+      <c r="J116">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K116">
+        <v>7.92</v>
+      </c>
+      <c r="L116">
+        <f t="shared" si="18"/>
+        <v>1.4898989898989901</v>
+      </c>
+      <c r="M116">
+        <f t="shared" si="19"/>
+        <v>9.4823232323232318</v>
+      </c>
+    </row>
+    <row r="117" spans="3:13">
+      <c r="C117">
+        <v>7</v>
+      </c>
+      <c r="E117" t="s">
+        <v>7</v>
+      </c>
+      <c r="F117">
+        <v>2000</v>
+      </c>
+      <c r="G117">
+        <v>95.28</v>
+      </c>
+      <c r="H117">
+        <v>1.84</v>
+      </c>
+      <c r="I117">
+        <v>13.3</v>
+      </c>
+      <c r="J117">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K117">
+        <v>7.58</v>
+      </c>
+      <c r="L117">
+        <f t="shared" si="18"/>
+        <v>1.7546174142480211</v>
+      </c>
+      <c r="M117">
+        <f t="shared" si="19"/>
+        <v>9.9076517150395773</v>
+      </c>
+    </row>
+    <row r="118" spans="3:13">
+      <c r="C118">
+        <v>8</v>
+      </c>
+      <c r="E118" t="s">
+        <v>7</v>
+      </c>
+      <c r="F118">
+        <v>2000</v>
+      </c>
+      <c r="G118">
+        <v>88.29</v>
+      </c>
+      <c r="H118">
+        <v>1.75</v>
+      </c>
+      <c r="I118">
+        <v>12.8</v>
+      </c>
+      <c r="J118">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K118">
+        <v>7.31</v>
+      </c>
+      <c r="L118">
+        <f t="shared" si="18"/>
+        <v>1.7510259917920659</v>
+      </c>
+      <c r="M118">
+        <f t="shared" si="19"/>
+        <v>10.27359781121751</v>
+      </c>
+    </row>
+    <row r="119" spans="3:13">
+      <c r="C119">
+        <v>9</v>
+      </c>
+      <c r="E119" t="s">
+        <v>7</v>
+      </c>
+      <c r="F119">
+        <v>2000</v>
+      </c>
+      <c r="G119">
+        <v>133.97</v>
+      </c>
+      <c r="H119">
+        <v>1.79</v>
+      </c>
+      <c r="I119">
+        <v>10</v>
+      </c>
+      <c r="J119">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K119">
+        <v>10</v>
+      </c>
+      <c r="L119">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="M119">
+        <f t="shared" si="19"/>
+        <v>7.51</v>
+      </c>
+    </row>
+    <row r="120" spans="3:13">
+      <c r="C120">
+        <v>10</v>
+      </c>
+      <c r="E120" t="s">
+        <v>7</v>
+      </c>
+      <c r="F120">
+        <v>2000</v>
+      </c>
+      <c r="G120">
+        <v>186.15</v>
+      </c>
+      <c r="H120">
+        <v>1.75</v>
+      </c>
+      <c r="I120">
+        <v>12.4</v>
+      </c>
+      <c r="J120">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K120">
+        <v>12.9</v>
+      </c>
+      <c r="L120">
+        <f t="shared" si="18"/>
+        <v>0.96124031007751942</v>
+      </c>
+      <c r="M120">
+        <f t="shared" si="19"/>
+        <v>5.8217054263565888</v>
+      </c>
+    </row>
+    <row r="121" spans="3:13">
+      <c r="C121">
+        <v>11</v>
+      </c>
+      <c r="E121" t="s">
+        <v>7</v>
+      </c>
+      <c r="F121">
+        <v>2000</v>
+      </c>
+      <c r="G121">
+        <v>119.79</v>
+      </c>
+      <c r="H121">
+        <v>1.83</v>
+      </c>
+      <c r="I121">
+        <v>7.52</v>
+      </c>
+      <c r="J121">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K121">
+        <v>9.08</v>
+      </c>
+      <c r="L121">
+        <f t="shared" si="18"/>
+        <v>0.82819383259911894</v>
+      </c>
+      <c r="M121">
+        <f t="shared" si="19"/>
+        <v>8.2709251101321577</v>
+      </c>
+    </row>
+    <row r="122" spans="3:13">
+      <c r="C122">
+        <v>12</v>
+      </c>
+      <c r="E122" t="s">
+        <v>7</v>
+      </c>
+      <c r="F122">
+        <v>2000</v>
+      </c>
+      <c r="G122">
+        <v>153.47999999999999</v>
+      </c>
+      <c r="H122">
+        <v>1.86</v>
+      </c>
+      <c r="I122">
+        <v>11.7</v>
+      </c>
+      <c r="J122">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K122">
+        <v>10.9</v>
+      </c>
+      <c r="L122">
+        <f t="shared" si="18"/>
+        <v>1.073394495412844</v>
+      </c>
+      <c r="M122">
+        <f t="shared" si="19"/>
+        <v>6.8899082568807328</v>
+      </c>
+    </row>
+    <row r="123" spans="3:13">
+      <c r="C123">
+        <v>13</v>
+      </c>
+      <c r="E123" t="s">
+        <v>7</v>
+      </c>
+      <c r="F123">
+        <v>2000</v>
+      </c>
+      <c r="G123">
+        <v>95.55</v>
+      </c>
+      <c r="H123">
+        <v>1.79</v>
+      </c>
+      <c r="I123">
+        <v>9.25</v>
+      </c>
+      <c r="J123">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K123">
+        <v>7.37</v>
+      </c>
+      <c r="L123">
+        <f t="shared" si="18"/>
+        <v>1.2550881953867028</v>
+      </c>
+      <c r="M123">
+        <f t="shared" si="19"/>
+        <v>10.189959294436905</v>
+      </c>
+    </row>
+    <row r="124" spans="3:13">
+      <c r="C124">
+        <v>14</v>
+      </c>
+      <c r="E124" t="s">
+        <v>7</v>
+      </c>
+      <c r="F124">
+        <v>2000</v>
+      </c>
+      <c r="G124">
+        <v>192.02</v>
+      </c>
+      <c r="H124">
+        <v>1.79</v>
+      </c>
+      <c r="I124">
+        <v>15.6</v>
+      </c>
+      <c r="J124">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K124">
+        <v>13.3</v>
+      </c>
+      <c r="L124">
+        <f t="shared" si="18"/>
+        <v>1.1729323308270676</v>
+      </c>
+      <c r="M124">
+        <f t="shared" si="19"/>
+        <v>5.6466165413533824</v>
+      </c>
+    </row>
+    <row r="125" spans="3:13">
+      <c r="C125">
+        <v>15</v>
+      </c>
+      <c r="E125" t="s">
+        <v>7</v>
+      </c>
+      <c r="F125">
+        <v>2000</v>
+      </c>
+      <c r="G125">
+        <v>114.49</v>
+      </c>
+      <c r="H125">
+        <v>1.73</v>
+      </c>
+      <c r="I125">
+        <v>6.84</v>
+      </c>
+      <c r="J125">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K125">
+        <v>8.73</v>
+      </c>
+      <c r="L125">
+        <f t="shared" si="18"/>
+        <v>0.78350515463917525</v>
+      </c>
+      <c r="M125">
+        <f t="shared" si="19"/>
+        <v>8.6025200458190145</v>
+      </c>
+    </row>
+    <row r="126" spans="3:13">
+      <c r="C126">
+        <v>16</v>
+      </c>
+      <c r="E126" t="s">
+        <v>7</v>
+      </c>
+      <c r="F126">
+        <v>2000</v>
+      </c>
+      <c r="G126">
+        <v>187.92</v>
+      </c>
+      <c r="H126">
+        <v>1.7</v>
+      </c>
+      <c r="I126">
+        <v>12.8</v>
+      </c>
+      <c r="J126">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K126">
+        <v>12.9</v>
+      </c>
+      <c r="L126">
+        <f t="shared" si="18"/>
+        <v>0.99224806201550386</v>
+      </c>
+      <c r="M126">
+        <f t="shared" si="19"/>
+        <v>5.8217054263565888</v>
+      </c>
+    </row>
+    <row r="127" spans="3:13">
+      <c r="C127">
+        <v>17</v>
+      </c>
+      <c r="E127" t="s">
+        <v>7</v>
+      </c>
+      <c r="F127">
+        <v>2000</v>
+      </c>
+      <c r="G127">
+        <v>163.04</v>
+      </c>
+      <c r="H127">
+        <v>1.73</v>
+      </c>
+      <c r="I127">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="J127">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K127">
+        <v>11.6</v>
+      </c>
+      <c r="L127">
+        <f t="shared" si="18"/>
+        <v>1.6034482758620692</v>
+      </c>
+      <c r="M127">
+        <f t="shared" si="19"/>
+        <v>6.4741379310344822</v>
+      </c>
+    </row>
+    <row r="128" spans="3:13">
+      <c r="C128">
+        <v>18</v>
+      </c>
+      <c r="E128" t="s">
+        <v>7</v>
+      </c>
+      <c r="F128">
+        <v>2000</v>
+      </c>
+      <c r="G128">
+        <v>122.42</v>
+      </c>
+      <c r="H128">
+        <v>1.89</v>
+      </c>
+      <c r="I128">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="J128">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K128">
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="L128">
+        <f t="shared" si="18"/>
+        <v>2.2343921139101859</v>
+      </c>
+      <c r="M128">
+        <f t="shared" si="19"/>
+        <v>8.2256297918948516</v>
+      </c>
+    </row>
+    <row r="129" spans="3:13">
+      <c r="C129">
+        <v>19</v>
+      </c>
+      <c r="E129" t="s">
+        <v>7</v>
+      </c>
+      <c r="F129">
+        <v>2000</v>
+      </c>
+      <c r="G129">
+        <v>130.30000000000001</v>
+      </c>
+      <c r="H129">
+        <v>1.83</v>
+      </c>
+      <c r="I129">
+        <v>15.1</v>
+      </c>
+      <c r="J129">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K129">
+        <v>9.77</v>
+      </c>
+      <c r="L129">
+        <f t="shared" si="18"/>
+        <v>1.5455475946775845</v>
+      </c>
+      <c r="M129">
+        <f t="shared" si="19"/>
+        <v>7.686796315250767</v>
+      </c>
+    </row>
+    <row r="130" spans="3:13">
+      <c r="C130">
+        <v>20</v>
+      </c>
+      <c r="E130" t="s">
+        <v>7</v>
+      </c>
+      <c r="F130">
+        <v>2000</v>
+      </c>
+      <c r="G130">
+        <v>198.95</v>
+      </c>
+      <c r="H130">
+        <v>1.84</v>
+      </c>
+      <c r="I130">
+        <v>14</v>
+      </c>
+      <c r="J130">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K130">
+        <v>13.5</v>
+      </c>
+      <c r="L130">
+        <f t="shared" si="18"/>
+        <v>1.037037037037037</v>
+      </c>
+      <c r="M130">
+        <f t="shared" si="19"/>
+        <v>5.5629629629629624</v>
+      </c>
+    </row>
+    <row r="131" spans="3:13">
+      <c r="C131">
+        <v>21</v>
+      </c>
+      <c r="E131" t="s">
+        <v>7</v>
+      </c>
+      <c r="F131">
+        <v>2000</v>
+      </c>
+      <c r="G131">
+        <v>115.36</v>
+      </c>
+      <c r="H131">
+        <v>1.84</v>
+      </c>
+      <c r="I131">
+        <v>13</v>
+      </c>
+      <c r="J131">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K131">
+        <v>8.74</v>
+      </c>
+      <c r="L131">
+        <f t="shared" si="18"/>
+        <v>1.4874141876430205</v>
+      </c>
+      <c r="M131">
+        <f t="shared" si="19"/>
+        <v>8.5926773455377568</v>
+      </c>
+    </row>
+    <row r="132" spans="3:13">
+      <c r="C132">
+        <v>22</v>
+      </c>
+      <c r="E132" t="s">
+        <v>7</v>
+      </c>
+      <c r="F132">
+        <v>2000</v>
+      </c>
+      <c r="G132">
+        <v>151.79</v>
+      </c>
+      <c r="H132">
+        <v>1.68</v>
+      </c>
+      <c r="I132">
+        <v>11.8</v>
+      </c>
+      <c r="J132">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K132">
+        <v>11.1</v>
+      </c>
+      <c r="L132">
+        <f t="shared" si="18"/>
+        <v>1.0630630630630631</v>
+      </c>
+      <c r="M132">
+        <f t="shared" si="19"/>
+        <v>6.7657657657657655</v>
+      </c>
+    </row>
+    <row r="133" spans="3:13">
+      <c r="C133">
+        <v>23</v>
+      </c>
+      <c r="E133" t="s">
+        <v>7</v>
+      </c>
+      <c r="F133">
+        <v>2000</v>
+      </c>
+      <c r="G133">
+        <v>180.04</v>
+      </c>
+      <c r="H133">
+        <v>1.83</v>
+      </c>
+      <c r="I133">
+        <v>13.7</v>
+      </c>
+      <c r="J133">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K133">
+        <v>12.5</v>
+      </c>
+      <c r="L133">
+        <f t="shared" si="18"/>
+        <v>1.0959999999999999</v>
+      </c>
+      <c r="M133">
+        <f t="shared" si="19"/>
+        <v>6.0079999999999991</v>
+      </c>
+    </row>
+    <row r="134" spans="3:13">
+      <c r="C134">
+        <v>24</v>
+      </c>
+      <c r="E134" t="s">
+        <v>7</v>
+      </c>
+      <c r="F134">
+        <v>2000</v>
+      </c>
+      <c r="G134">
+        <v>140.28</v>
+      </c>
+      <c r="H134">
+        <v>1.72</v>
+      </c>
+      <c r="I134">
+        <v>10.4</v>
+      </c>
+      <c r="J134">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K134">
+        <v>10.1</v>
+      </c>
+      <c r="L134">
+        <f t="shared" si="18"/>
+        <v>1.0297029702970297</v>
+      </c>
+      <c r="M134">
+        <f t="shared" si="19"/>
+        <v>7.4356435643564351</v>
+      </c>
+    </row>
+    <row r="135" spans="3:13">
+      <c r="C135">
+        <v>25</v>
+      </c>
+      <c r="E135" t="s">
+        <v>7</v>
+      </c>
+      <c r="F135">
+        <v>2000</v>
+      </c>
+      <c r="G135">
+        <v>212.78</v>
+      </c>
+      <c r="H135">
+        <v>1.72</v>
+      </c>
+      <c r="I135">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="J135">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K135">
+        <v>11</v>
+      </c>
+      <c r="L135">
+        <f t="shared" si="18"/>
+        <v>0.8600000000000001</v>
+      </c>
+      <c r="M135">
+        <f t="shared" si="19"/>
+        <v>6.8272727272727272</v>
+      </c>
+    </row>
+    <row r="136" spans="3:13">
+      <c r="C136">
+        <v>26</v>
+      </c>
+      <c r="E136" t="s">
+        <v>7</v>
+      </c>
+      <c r="F136">
+        <v>2000</v>
+      </c>
+      <c r="G136">
+        <v>66.92</v>
+      </c>
+      <c r="H136">
+        <v>2.25</v>
+      </c>
+      <c r="I136">
+        <v>13.1</v>
+      </c>
+      <c r="J136">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K136">
+        <v>5.96</v>
+      </c>
+      <c r="L136">
+        <f t="shared" si="18"/>
+        <v>2.1979865771812079</v>
+      </c>
+      <c r="M136">
+        <f t="shared" si="19"/>
+        <v>12.600671140939596</v>
+      </c>
+    </row>
+    <row r="137" spans="3:13">
+      <c r="C137">
+        <v>27</v>
+      </c>
+      <c r="E137" t="s">
+        <v>7</v>
+      </c>
+      <c r="F137">
+        <v>2000</v>
+      </c>
+      <c r="G137">
+        <v>133.71</v>
+      </c>
+      <c r="H137">
+        <v>1.81</v>
+      </c>
+      <c r="I137">
+        <v>9.23</v>
+      </c>
+      <c r="J137">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K137">
+        <v>9.26</v>
+      </c>
+      <c r="L137">
+        <f t="shared" si="18"/>
+        <v>0.9967602591792657</v>
+      </c>
+      <c r="M137">
+        <f t="shared" si="19"/>
+        <v>8.1101511879049664</v>
+      </c>
+    </row>
+    <row r="138" spans="3:13">
+      <c r="C138">
+        <v>28</v>
+      </c>
+      <c r="E138" t="s">
+        <v>7</v>
+      </c>
+      <c r="F138">
+        <v>2000</v>
+      </c>
+      <c r="G138">
+        <v>181.92</v>
+      </c>
+      <c r="H138">
+        <v>1.78</v>
+      </c>
+      <c r="I138">
+        <v>14.9</v>
+      </c>
+      <c r="J138">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K138">
+        <v>12.7</v>
+      </c>
+      <c r="L138">
+        <f t="shared" si="18"/>
+        <v>1.173228346456693</v>
+      </c>
+      <c r="M138">
+        <f t="shared" si="19"/>
+        <v>5.9133858267716537</v>
+      </c>
+    </row>
+    <row r="139" spans="3:13">
+      <c r="C139">
+        <v>29</v>
+      </c>
+      <c r="E139" t="s">
+        <v>7</v>
+      </c>
+      <c r="F139">
+        <v>2000</v>
+      </c>
+      <c r="G139">
+        <v>185.38</v>
+      </c>
+      <c r="H139">
+        <v>1.99</v>
+      </c>
+      <c r="I139">
+        <v>10.6</v>
+      </c>
+      <c r="J139">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K139">
+        <v>12.9</v>
+      </c>
+      <c r="L139">
+        <f t="shared" si="18"/>
+        <v>0.82170542635658905</v>
+      </c>
+      <c r="M139">
+        <f t="shared" si="19"/>
+        <v>5.8217054263565888</v>
+      </c>
+    </row>
+    <row r="140" spans="3:13">
+      <c r="C140" t="s">
+        <v>18</v>
+      </c>
+      <c r="F140">
+        <f>AVERAGE(F111:F139)</f>
+        <v>2000</v>
+      </c>
+      <c r="G140">
+        <f t="shared" ref="G140:M140" si="20">AVERAGE(G111:G139)</f>
+        <v>145.25103448275866</v>
+      </c>
+      <c r="H140">
+        <f t="shared" si="20"/>
+        <v>1.8358620689655174</v>
+      </c>
+      <c r="I140">
+        <f t="shared" si="20"/>
+        <v>12.10551724137931</v>
+      </c>
+      <c r="J140">
+        <f t="shared" si="20"/>
+        <v>75.096551724137896</v>
+      </c>
+      <c r="K140">
+        <f t="shared" si="20"/>
+        <v>10.129999999999999</v>
+      </c>
+      <c r="L140">
+        <f t="shared" si="20"/>
+        <v>1.2595235591623009</v>
+      </c>
+      <c r="M140">
+        <f t="shared" si="20"/>
+        <v>7.8412904742780984</v>
+      </c>
+    </row>
+    <row r="146" spans="3:13" ht="60">
+      <c r="C146" s="1"/>
+      <c r="D146" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J146" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K146" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L146" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M146" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="147" spans="3:13">
+      <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="D147" t="s">
+        <v>21</v>
+      </c>
+      <c r="E147" t="s">
+        <v>19</v>
+      </c>
+      <c r="F147">
+        <v>2000</v>
+      </c>
+      <c r="G147">
+        <v>72.959999999999994</v>
+      </c>
+      <c r="H147">
+        <v>1.78</v>
+      </c>
+      <c r="I147">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="J147">
+        <v>75</v>
+      </c>
+      <c r="K147">
+        <v>12.9</v>
+      </c>
+      <c r="L147">
+        <f>I147/K147</f>
+        <v>0.39224806201550383</v>
+      </c>
+      <c r="M147">
+        <f>J147/K147</f>
+        <v>5.8139534883720927</v>
+      </c>
+    </row>
+    <row r="148" spans="3:13">
+      <c r="C148">
+        <v>2</v>
+      </c>
+      <c r="E148" t="s">
+        <v>19</v>
+      </c>
+      <c r="F148">
+        <v>2000</v>
+      </c>
+      <c r="G148">
+        <v>82.02</v>
+      </c>
+      <c r="H148">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="I148">
+        <v>11.3</v>
+      </c>
+      <c r="J148">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K148">
+        <v>11.3</v>
+      </c>
+      <c r="L148">
+        <f t="shared" ref="L148:L175" si="21">I148/K148</f>
+        <v>1</v>
+      </c>
+      <c r="M148">
+        <f t="shared" ref="M148:M175" si="22">J148/K148</f>
+        <v>6.6460176991150437</v>
+      </c>
+    </row>
+    <row r="149" spans="3:13">
+      <c r="C149">
+        <v>3</v>
+      </c>
+      <c r="E149" t="s">
+        <v>19</v>
+      </c>
+      <c r="F149">
+        <v>2000</v>
+      </c>
+      <c r="G149">
+        <v>65.430000000000007</v>
+      </c>
+      <c r="H149">
+        <v>2.93</v>
+      </c>
+      <c r="I149">
+        <v>12.1</v>
+      </c>
+      <c r="J149">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K149">
+        <v>11.1</v>
+      </c>
+      <c r="L149">
+        <f t="shared" si="21"/>
+        <v>1.0900900900900901</v>
+      </c>
+      <c r="M149">
+        <f t="shared" si="22"/>
+        <v>6.7657657657657655</v>
+      </c>
+    </row>
+    <row r="150" spans="3:13">
+      <c r="C150">
+        <v>4</v>
+      </c>
+      <c r="E150" t="s">
+        <v>19</v>
+      </c>
+      <c r="F150">
+        <v>2000</v>
+      </c>
+      <c r="G150">
+        <v>42.79</v>
+      </c>
+      <c r="H150">
+        <v>2.93</v>
+      </c>
+      <c r="I150">
+        <v>11.9</v>
+      </c>
+      <c r="J150">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K150">
+        <v>7.01</v>
+      </c>
+      <c r="L150">
+        <f t="shared" si="21"/>
+        <v>1.6975748930099859</v>
+      </c>
+      <c r="M150">
+        <f t="shared" si="22"/>
+        <v>10.713266761768901</v>
+      </c>
+    </row>
+    <row r="151" spans="3:13">
+      <c r="C151">
+        <v>5</v>
+      </c>
+      <c r="E151" t="s">
+        <v>19</v>
+      </c>
+      <c r="F151">
+        <v>2000</v>
+      </c>
+      <c r="G151">
+        <v>40.65</v>
+      </c>
+      <c r="H151">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="I151">
+        <v>12.4</v>
+      </c>
+      <c r="J151">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K151">
+        <v>6.38</v>
+      </c>
+      <c r="L151">
+        <f t="shared" si="21"/>
+        <v>1.9435736677115989</v>
+      </c>
+      <c r="M151">
+        <f t="shared" si="22"/>
+        <v>11.77115987460815</v>
+      </c>
+    </row>
+    <row r="152" spans="3:13">
+      <c r="C152">
+        <v>6</v>
+      </c>
+      <c r="E152" t="s">
+        <v>19</v>
+      </c>
+      <c r="F152">
+        <v>2000</v>
+      </c>
+      <c r="G152">
+        <v>37.909999999999997</v>
+      </c>
+      <c r="H152">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="I152">
+        <v>11.8</v>
+      </c>
+      <c r="J152">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K152">
+        <v>8.25</v>
+      </c>
+      <c r="L152">
+        <f t="shared" si="21"/>
+        <v>1.4303030303030304</v>
+      </c>
+      <c r="M152">
+        <f t="shared" si="22"/>
+        <v>9.1030303030303017</v>
+      </c>
+    </row>
+    <row r="153" spans="3:13">
+      <c r="C153">
+        <v>7</v>
+      </c>
+      <c r="E153" t="s">
+        <v>19</v>
+      </c>
+      <c r="F153">
+        <v>2000</v>
+      </c>
+      <c r="G153">
+        <v>36.93</v>
+      </c>
+      <c r="H153">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="I153">
+        <v>13.3</v>
+      </c>
+      <c r="J153">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K153">
+        <v>7.73</v>
+      </c>
+      <c r="L153">
+        <f t="shared" si="21"/>
+        <v>1.720569210866753</v>
+      </c>
+      <c r="M153">
+        <f t="shared" si="22"/>
+        <v>9.7153945666235426</v>
+      </c>
+    </row>
+    <row r="154" spans="3:13">
+      <c r="C154">
+        <v>8</v>
+      </c>
+      <c r="E154" t="s">
+        <v>19</v>
+      </c>
+      <c r="F154">
+        <v>2000</v>
+      </c>
+      <c r="G154">
+        <v>41.18</v>
+      </c>
+      <c r="H154">
+        <v>2.31</v>
+      </c>
+      <c r="I154">
+        <v>12.8</v>
+      </c>
+      <c r="J154">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K154">
+        <v>7.62</v>
+      </c>
+      <c r="L154">
+        <f t="shared" si="21"/>
+        <v>1.6797900262467191</v>
+      </c>
+      <c r="M154">
+        <f t="shared" si="22"/>
+        <v>9.8556430446194216</v>
+      </c>
+    </row>
+    <row r="155" spans="3:13">
+      <c r="C155">
+        <v>9</v>
+      </c>
+      <c r="E155" t="s">
+        <v>19</v>
+      </c>
+      <c r="F155">
+        <v>2000</v>
+      </c>
+      <c r="G155">
+        <v>38.020000000000003</v>
+      </c>
+      <c r="H155">
+        <v>1.89</v>
+      </c>
+      <c r="I155">
+        <v>10</v>
+      </c>
+      <c r="J155">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K155">
+        <v>10</v>
+      </c>
+      <c r="L155">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="M155">
+        <f t="shared" si="22"/>
+        <v>7.51</v>
+      </c>
+    </row>
+    <row r="156" spans="3:13">
+      <c r="C156">
+        <v>10</v>
+      </c>
+      <c r="E156" t="s">
+        <v>19</v>
+      </c>
+      <c r="F156">
+        <v>2000</v>
+      </c>
+      <c r="G156">
+        <v>62.37</v>
+      </c>
+      <c r="H156">
+        <v>2.29</v>
+      </c>
+      <c r="I156">
+        <v>12.4</v>
+      </c>
+      <c r="J156">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K156">
+        <v>13</v>
+      </c>
+      <c r="L156">
+        <f t="shared" si="21"/>
+        <v>0.9538461538461539</v>
+      </c>
+      <c r="M156">
+        <f t="shared" si="22"/>
+        <v>5.7769230769230768</v>
+      </c>
+    </row>
+    <row r="157" spans="3:13">
+      <c r="C157">
+        <v>11</v>
+      </c>
+      <c r="E157" t="s">
+        <v>19</v>
+      </c>
+      <c r="F157">
+        <v>2000</v>
+      </c>
+      <c r="G157">
+        <v>55.61</v>
+      </c>
+      <c r="H157">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="I157">
+        <v>7.52</v>
+      </c>
+      <c r="J157">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K157">
+        <v>9.24</v>
+      </c>
+      <c r="L157">
+        <f t="shared" si="21"/>
+        <v>0.81385281385281383</v>
+      </c>
+      <c r="M157">
+        <f t="shared" si="22"/>
+        <v>8.1277056277056268</v>
+      </c>
+    </row>
+    <row r="158" spans="3:13">
+      <c r="C158">
+        <v>12</v>
+      </c>
+      <c r="E158" t="s">
+        <v>19</v>
+      </c>
+      <c r="F158">
+        <v>2000</v>
+      </c>
+      <c r="G158">
+        <v>56.79</v>
+      </c>
+      <c r="H158">
+        <v>2.29</v>
+      </c>
+      <c r="I158">
+        <v>11.7</v>
+      </c>
+      <c r="J158">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K158">
+        <v>11</v>
+      </c>
+      <c r="L158">
+        <f t="shared" si="21"/>
+        <v>1.0636363636363635</v>
+      </c>
+      <c r="M158">
+        <f t="shared" si="22"/>
+        <v>6.8272727272727272</v>
+      </c>
+    </row>
+    <row r="159" spans="3:13">
+      <c r="C159">
+        <v>13</v>
+      </c>
+      <c r="E159" t="s">
+        <v>19</v>
+      </c>
+      <c r="F159">
+        <v>2000</v>
+      </c>
+      <c r="G159">
+        <v>46.89</v>
+      </c>
+      <c r="H159">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="I159">
+        <v>9.25</v>
+      </c>
+      <c r="J159">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K159">
+        <v>7.54</v>
+      </c>
+      <c r="L159">
+        <f t="shared" si="21"/>
+        <v>1.226790450928382</v>
+      </c>
+      <c r="M159">
+        <f t="shared" si="22"/>
+        <v>9.9602122015915118</v>
+      </c>
+    </row>
+    <row r="160" spans="3:13">
+      <c r="C160">
+        <v>14</v>
+      </c>
+      <c r="E160" t="s">
+        <v>19</v>
+      </c>
+      <c r="F160">
+        <v>2000</v>
+      </c>
+      <c r="G160">
+        <v>60.57</v>
+      </c>
+      <c r="H160">
+        <v>2.23</v>
+      </c>
+      <c r="I160">
+        <v>15.6</v>
+      </c>
+      <c r="J160">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K160">
+        <v>13.8</v>
+      </c>
+      <c r="L160">
+        <f t="shared" si="21"/>
+        <v>1.1304347826086956</v>
+      </c>
+      <c r="M160">
+        <f t="shared" si="22"/>
+        <v>5.4420289855072461</v>
+      </c>
+    </row>
+    <row r="161" spans="3:13">
+      <c r="C161">
+        <v>15</v>
+      </c>
+      <c r="E161" t="s">
+        <v>19</v>
+      </c>
+      <c r="F161">
+        <v>2000</v>
+      </c>
+      <c r="G161">
+        <v>53.77</v>
+      </c>
+      <c r="H161">
+        <v>1.73</v>
+      </c>
+      <c r="I161">
+        <v>6.84</v>
+      </c>
+      <c r="J161">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K161">
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="L161">
+        <f t="shared" si="21"/>
+        <v>0.74186550976138821</v>
+      </c>
+      <c r="M161">
+        <f t="shared" si="22"/>
+        <v>8.1453362255965285</v>
+      </c>
+    </row>
+    <row r="162" spans="3:13">
+      <c r="C162">
+        <v>16</v>
+      </c>
+      <c r="E162" t="s">
+        <v>19</v>
+      </c>
+      <c r="F162">
+        <v>2000</v>
+      </c>
+      <c r="G162">
+        <v>76</v>
+      </c>
+      <c r="H162">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="I162">
+        <v>12.8</v>
+      </c>
+      <c r="J162">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K162">
+        <v>13.2</v>
+      </c>
+      <c r="L162">
+        <f t="shared" si="21"/>
+        <v>0.96969696969696983</v>
+      </c>
+      <c r="M162">
+        <f t="shared" si="22"/>
+        <v>5.6893939393939394</v>
+      </c>
+    </row>
+    <row r="163" spans="3:13">
+      <c r="C163">
+        <v>17</v>
+      </c>
+      <c r="E163" t="s">
+        <v>19</v>
+      </c>
+      <c r="F163">
+        <v>2000</v>
+      </c>
+      <c r="G163">
+        <v>54.16</v>
+      </c>
+      <c r="H163">
+        <v>2.34</v>
+      </c>
+      <c r="I163">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="J163">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K163">
+        <v>12</v>
+      </c>
+      <c r="L163">
+        <f t="shared" si="21"/>
+        <v>1.55</v>
+      </c>
+      <c r="M163">
+        <f t="shared" si="22"/>
+        <v>6.2583333333333329</v>
+      </c>
+    </row>
+    <row r="164" spans="3:13">
+      <c r="C164">
+        <v>18</v>
+      </c>
+      <c r="E164" t="s">
+        <v>19</v>
+      </c>
+      <c r="F164">
+        <v>2000</v>
+      </c>
+      <c r="G164">
+        <v>47</v>
+      </c>
+      <c r="H164">
+        <v>2.85</v>
+      </c>
+      <c r="I164">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="J164">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K164">
+        <v>9.64</v>
+      </c>
+      <c r="L164">
+        <f t="shared" si="21"/>
+        <v>2.1161825726141075</v>
+      </c>
+      <c r="M164">
+        <f t="shared" si="22"/>
+        <v>7.7904564315352687</v>
+      </c>
+    </row>
+    <row r="165" spans="3:13">
+      <c r="C165">
+        <v>19</v>
+      </c>
+      <c r="E165" t="s">
+        <v>19</v>
+      </c>
+      <c r="F165">
+        <v>2000</v>
+      </c>
+      <c r="G165">
+        <v>73.83</v>
+      </c>
+      <c r="H165">
+        <v>1.86</v>
+      </c>
+      <c r="I165">
+        <v>15.1</v>
+      </c>
+      <c r="J165">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K165">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="L165">
+        <f t="shared" si="21"/>
+        <v>1.5408163265306121</v>
+      </c>
+      <c r="M165">
+        <f t="shared" si="22"/>
+        <v>7.6632653061224483</v>
+      </c>
+    </row>
+    <row r="166" spans="3:13">
+      <c r="C166">
+        <v>20</v>
+      </c>
+      <c r="E166" t="s">
+        <v>19</v>
+      </c>
+      <c r="F166">
+        <v>2000</v>
+      </c>
+      <c r="G166">
+        <v>68.06</v>
+      </c>
+      <c r="H166">
+        <v>2.36</v>
+      </c>
+      <c r="I166">
+        <v>14</v>
+      </c>
+      <c r="J166">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K166">
+        <v>14.4</v>
+      </c>
+      <c r="L166">
+        <f t="shared" si="21"/>
+        <v>0.97222222222222221</v>
+      </c>
+      <c r="M166">
+        <f t="shared" si="22"/>
+        <v>5.2152777777777777</v>
+      </c>
+    </row>
+    <row r="167" spans="3:13">
+      <c r="C167">
+        <v>21</v>
+      </c>
+      <c r="E167" t="s">
+        <v>19</v>
+      </c>
+      <c r="F167">
+        <v>2000</v>
+      </c>
+      <c r="G167">
+        <v>44.29</v>
+      </c>
+      <c r="H167">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="I167">
+        <v>13</v>
+      </c>
+      <c r="J167">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K167">
+        <v>9.11</v>
+      </c>
+      <c r="L167">
+        <f t="shared" si="21"/>
+        <v>1.4270032930845227</v>
+      </c>
+      <c r="M167">
+        <f t="shared" si="22"/>
+        <v>8.2436882546652033</v>
+      </c>
+    </row>
+    <row r="168" spans="3:13">
+      <c r="C168">
+        <v>22</v>
+      </c>
+      <c r="E168" t="s">
+        <v>19</v>
+      </c>
+      <c r="F168">
+        <v>2000</v>
+      </c>
+      <c r="G168">
+        <v>59.2</v>
+      </c>
+      <c r="H168">
+        <v>2.31</v>
+      </c>
+      <c r="I168">
+        <v>11.8</v>
+      </c>
+      <c r="J168">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K168">
+        <v>11.7</v>
+      </c>
+      <c r="L168">
+        <f t="shared" si="21"/>
+        <v>1.0085470085470087</v>
+      </c>
+      <c r="M168">
+        <f t="shared" si="22"/>
+        <v>6.4188034188034191</v>
+      </c>
+    </row>
+    <row r="169" spans="3:13">
+      <c r="C169">
+        <v>23</v>
+      </c>
+      <c r="E169" t="s">
+        <v>19</v>
+      </c>
+      <c r="F169">
+        <v>2000</v>
+      </c>
+      <c r="G169">
+        <v>55.36</v>
+      </c>
+      <c r="H169">
+        <v>2.4</v>
+      </c>
+      <c r="I169">
+        <v>13.7</v>
+      </c>
+      <c r="J169">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K169">
+        <v>12.9</v>
+      </c>
+      <c r="L169">
+        <f t="shared" si="21"/>
+        <v>1.0620155038759689</v>
+      </c>
+      <c r="M169">
+        <f t="shared" si="22"/>
+        <v>5.8217054263565888</v>
+      </c>
+    </row>
+    <row r="170" spans="3:13">
+      <c r="C170">
+        <v>24</v>
+      </c>
+      <c r="E170" t="s">
+        <v>19</v>
+      </c>
+      <c r="F170">
+        <v>2000</v>
+      </c>
+      <c r="G170">
+        <v>39.53</v>
+      </c>
+      <c r="H170">
+        <v>1.83</v>
+      </c>
+      <c r="I170">
+        <v>10.4</v>
+      </c>
+      <c r="J170">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K170">
+        <v>10.6</v>
+      </c>
+      <c r="L170">
+        <f t="shared" si="21"/>
+        <v>0.98113207547169823</v>
+      </c>
+      <c r="M170">
+        <f t="shared" si="22"/>
+        <v>7.0849056603773581</v>
+      </c>
+    </row>
+    <row r="171" spans="3:13">
+      <c r="C171">
+        <v>25</v>
+      </c>
+      <c r="E171" t="s">
+        <v>19</v>
+      </c>
+      <c r="F171">
+        <v>2000</v>
+      </c>
+      <c r="G171">
+        <v>50.01</v>
+      </c>
+      <c r="H171">
+        <v>2.25</v>
+      </c>
+      <c r="I171">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="J171">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K171">
+        <v>11</v>
+      </c>
+      <c r="L171">
+        <f t="shared" si="21"/>
+        <v>0.8600000000000001</v>
+      </c>
+      <c r="M171">
+        <f t="shared" si="22"/>
+        <v>6.8272727272727272</v>
+      </c>
+    </row>
+    <row r="172" spans="3:13">
+      <c r="C172">
+        <v>26</v>
+      </c>
+      <c r="E172" t="s">
+        <v>19</v>
+      </c>
+      <c r="F172">
+        <v>2000</v>
+      </c>
+      <c r="G172">
+        <v>27.14</v>
+      </c>
+      <c r="H172">
+        <v>2.29</v>
+      </c>
+      <c r="I172">
+        <v>13.1</v>
+      </c>
+      <c r="J172">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K172">
+        <v>6.04</v>
+      </c>
+      <c r="L172">
+        <f t="shared" si="21"/>
+        <v>2.1688741721854305</v>
+      </c>
+      <c r="M172">
+        <f t="shared" si="22"/>
+        <v>12.433774834437084</v>
+      </c>
+    </row>
+    <row r="173" spans="3:13">
+      <c r="C173">
+        <v>27</v>
+      </c>
+      <c r="E173" t="s">
+        <v>19</v>
+      </c>
+      <c r="F173">
+        <v>2000</v>
+      </c>
+      <c r="G173">
+        <v>32.03</v>
+      </c>
+      <c r="H173">
+        <v>2.31</v>
+      </c>
+      <c r="I173">
+        <v>9.23</v>
+      </c>
+      <c r="J173">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K173">
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="L173">
+        <f t="shared" si="21"/>
+        <v>0.94279877425944858</v>
+      </c>
+      <c r="M173">
+        <f t="shared" si="22"/>
+        <v>7.6710929519918283</v>
+      </c>
+    </row>
+    <row r="174" spans="3:13">
+      <c r="C174">
+        <v>28</v>
+      </c>
+      <c r="E174" t="s">
+        <v>19</v>
+      </c>
+      <c r="F174">
+        <v>2000</v>
+      </c>
+      <c r="G174">
+        <v>48.58</v>
+      </c>
+      <c r="H174">
+        <v>2.31</v>
+      </c>
+      <c r="I174">
+        <v>14.9</v>
+      </c>
+      <c r="J174">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K174">
+        <v>12.8</v>
+      </c>
+      <c r="L174">
+        <f t="shared" si="21"/>
+        <v>1.1640625</v>
+      </c>
+      <c r="M174">
+        <f t="shared" si="22"/>
+        <v>5.8671874999999991</v>
+      </c>
+    </row>
+    <row r="175" spans="3:13">
+      <c r="C175">
+        <v>29</v>
+      </c>
+      <c r="E175" t="s">
+        <v>19</v>
+      </c>
+      <c r="F175">
+        <v>2000</v>
+      </c>
+      <c r="G175">
+        <v>63.8</v>
+      </c>
+      <c r="H175">
+        <v>1.9</v>
+      </c>
+      <c r="I175">
+        <v>10.6</v>
+      </c>
+      <c r="J175">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K175">
+        <v>13.4</v>
+      </c>
+      <c r="L175">
+        <f t="shared" si="21"/>
+        <v>0.79104477611940294</v>
+      </c>
+      <c r="M175">
+        <f t="shared" si="22"/>
+        <v>5.6044776119402977</v>
+      </c>
+    </row>
+    <row r="176" spans="3:13">
+      <c r="C176" t="s">
+        <v>18</v>
+      </c>
+      <c r="E176" t="s">
+        <v>19</v>
+      </c>
+      <c r="F176">
+        <f>AVERAGE(F147:F175)</f>
+        <v>2000</v>
+      </c>
+      <c r="G176">
+        <f t="shared" ref="G176:M176" si="23">AVERAGE(G147:G175)</f>
+        <v>52.857931034482746</v>
+      </c>
+      <c r="H176">
+        <f t="shared" si="23"/>
+        <v>2.2703448275862068</v>
+      </c>
+      <c r="I176">
+        <f t="shared" si="23"/>
+        <v>12.10551724137931</v>
+      </c>
+      <c r="J176">
+        <f t="shared" si="23"/>
+        <v>75.096551724137896</v>
+      </c>
+      <c r="K176">
+        <f t="shared" si="23"/>
+        <v>10.430000000000001</v>
+      </c>
+      <c r="L176">
+        <f t="shared" si="23"/>
+        <v>1.2220334913615476</v>
+      </c>
+      <c r="M176">
+        <f t="shared" si="23"/>
+        <v>7.6125291559485238</v>
+      </c>
+    </row>
+    <row r="181" spans="3:13" ht="60">
+      <c r="C181" s="1"/>
+      <c r="D181" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H181" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I181" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J181" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K181" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L181" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M181" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="182" spans="3:13">
+      <c r="C182">
+        <v>1</v>
+      </c>
+      <c r="D182" t="s">
+        <v>21</v>
+      </c>
+      <c r="E182" t="s">
+        <v>20</v>
+      </c>
+      <c r="F182">
+        <v>2000</v>
+      </c>
+      <c r="G182">
+        <v>74.430000000000007</v>
+      </c>
+      <c r="H182">
+        <v>1.79</v>
+      </c>
+      <c r="I182">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="J182">
+        <v>75</v>
+      </c>
+      <c r="K182">
+        <v>13.2</v>
+      </c>
+      <c r="L182">
+        <f>I182/K182</f>
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="M182">
+        <f>J182/K182</f>
+        <v>5.6818181818181825</v>
+      </c>
+    </row>
+    <row r="183" spans="3:13">
+      <c r="C183">
+        <v>2</v>
+      </c>
+      <c r="E183" t="s">
+        <v>20</v>
+      </c>
+      <c r="F183">
+        <v>2000</v>
+      </c>
+      <c r="G183">
+        <v>54.85</v>
+      </c>
+      <c r="H183">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="I183">
+        <v>11.3</v>
+      </c>
+      <c r="J183">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K183">
+        <v>11.3</v>
+      </c>
+      <c r="L183">
+        <f t="shared" ref="L183:L210" si="24">I183/K183</f>
+        <v>1</v>
+      </c>
+      <c r="M183">
+        <f t="shared" ref="M183:M210" si="25">J183/K183</f>
+        <v>6.6460176991150437</v>
+      </c>
+    </row>
+    <row r="184" spans="3:13">
+      <c r="C184">
+        <v>3</v>
+      </c>
+      <c r="E184" t="s">
+        <v>20</v>
+      </c>
+      <c r="F184">
+        <v>2000</v>
+      </c>
+      <c r="G184">
+        <v>88.99</v>
+      </c>
+      <c r="H184">
+        <v>2.09</v>
+      </c>
+      <c r="I184">
+        <v>12.1</v>
+      </c>
+      <c r="J184">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K184">
+        <v>11.2</v>
+      </c>
+      <c r="L184">
+        <f t="shared" si="24"/>
+        <v>1.0803571428571428</v>
+      </c>
+      <c r="M184">
+        <f t="shared" si="25"/>
+        <v>6.7053571428571423</v>
+      </c>
+    </row>
+    <row r="185" spans="3:13">
+      <c r="C185">
+        <v>4</v>
+      </c>
+      <c r="E185" t="s">
+        <v>20</v>
+      </c>
+      <c r="F185">
+        <v>2000</v>
+      </c>
+      <c r="G185">
+        <v>76.459999999999994</v>
+      </c>
+      <c r="H185">
+        <v>2.71</v>
+      </c>
+      <c r="I185">
+        <v>11.9</v>
+      </c>
+      <c r="J185">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K185">
+        <v>7.23</v>
+      </c>
+      <c r="L185">
+        <f t="shared" si="24"/>
+        <v>1.6459197786998616</v>
+      </c>
+      <c r="M185">
+        <f t="shared" si="25"/>
+        <v>10.387275242047025</v>
+      </c>
+    </row>
+    <row r="186" spans="3:13">
+      <c r="C186">
+        <v>5</v>
+      </c>
+      <c r="E186" t="s">
+        <v>20</v>
+      </c>
+      <c r="F186">
+        <v>2000</v>
+      </c>
+      <c r="G186">
+        <v>51.09</v>
+      </c>
+      <c r="H186">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="I186">
+        <v>12.4</v>
+      </c>
+      <c r="J186">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K186">
+        <v>6.44</v>
+      </c>
+      <c r="L186">
+        <f t="shared" si="24"/>
+        <v>1.9254658385093166</v>
+      </c>
+      <c r="M186">
+        <f t="shared" si="25"/>
+        <v>11.661490683229813</v>
+      </c>
+    </row>
+    <row r="187" spans="3:13">
+      <c r="C187">
+        <v>6</v>
+      </c>
+      <c r="E187" t="s">
+        <v>20</v>
+      </c>
+      <c r="F187">
+        <v>2000</v>
+      </c>
+      <c r="G187">
+        <v>65.16</v>
+      </c>
+      <c r="H187">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="I187">
+        <v>11.8</v>
+      </c>
+      <c r="J187">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K187">
+        <v>8.31</v>
+      </c>
+      <c r="L187">
+        <f t="shared" si="24"/>
+        <v>1.4199759326113117</v>
+      </c>
+      <c r="M187">
+        <f t="shared" si="25"/>
+        <v>9.0373044524669055</v>
+      </c>
+    </row>
+    <row r="188" spans="3:13">
+      <c r="C188">
+        <v>7</v>
+      </c>
+      <c r="E188" t="s">
+        <v>20</v>
+      </c>
+      <c r="F188">
+        <v>2000</v>
+      </c>
+      <c r="G188">
+        <v>60.23</v>
+      </c>
+      <c r="H188">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="I188">
+        <v>13.3</v>
+      </c>
+      <c r="J188">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K188">
+        <v>7.73</v>
+      </c>
+      <c r="L188">
+        <f t="shared" si="24"/>
+        <v>1.720569210866753</v>
+      </c>
+      <c r="M188">
+        <f t="shared" si="25"/>
+        <v>9.7153945666235426</v>
+      </c>
+    </row>
+    <row r="189" spans="3:13">
+      <c r="C189">
+        <v>8</v>
+      </c>
+      <c r="E189" t="s">
+        <v>20</v>
+      </c>
+      <c r="F189">
+        <v>2000</v>
+      </c>
+      <c r="G189">
+        <v>130.08000000000001</v>
+      </c>
+      <c r="H189">
+        <v>2.17</v>
+      </c>
+      <c r="I189">
+        <v>12.8</v>
+      </c>
+      <c r="J189">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K189">
+        <v>7.74</v>
+      </c>
+      <c r="L189">
+        <f t="shared" si="24"/>
+        <v>1.6537467700258399</v>
+      </c>
+      <c r="M189">
+        <f t="shared" si="25"/>
+        <v>9.7028423772609802</v>
+      </c>
+    </row>
+    <row r="190" spans="3:13">
+      <c r="C190">
+        <v>9</v>
+      </c>
+      <c r="E190" t="s">
+        <v>20</v>
+      </c>
+      <c r="F190">
+        <v>2000</v>
+      </c>
+      <c r="G190">
+        <v>120.59</v>
+      </c>
+      <c r="H190">
+        <v>3.23</v>
+      </c>
+      <c r="I190">
+        <v>10</v>
+      </c>
+      <c r="J190">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K190">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="L190">
+        <f t="shared" si="24"/>
+        <v>0.98039215686274517</v>
+      </c>
+      <c r="M190">
+        <f t="shared" si="25"/>
+        <v>7.3627450980392153</v>
+      </c>
+    </row>
+    <row r="191" spans="3:13">
+      <c r="C191">
+        <v>10</v>
+      </c>
+      <c r="E191" t="s">
+        <v>20</v>
+      </c>
+      <c r="F191">
+        <v>2000</v>
+      </c>
+      <c r="G191">
+        <v>94.38</v>
+      </c>
+      <c r="H191">
+        <v>2.4</v>
+      </c>
+      <c r="I191">
+        <v>12.4</v>
+      </c>
+      <c r="J191">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K191">
+        <v>13</v>
+      </c>
+      <c r="L191">
+        <f t="shared" si="24"/>
+        <v>0.9538461538461539</v>
+      </c>
+      <c r="M191">
+        <f t="shared" si="25"/>
+        <v>5.7769230769230768</v>
+      </c>
+    </row>
+    <row r="192" spans="3:13">
+      <c r="C192">
+        <v>11</v>
+      </c>
+      <c r="E192" t="s">
+        <v>20</v>
+      </c>
+      <c r="F192">
+        <v>2000</v>
+      </c>
+      <c r="G192">
+        <v>60.98</v>
+      </c>
+      <c r="H192">
+        <v>2.65</v>
+      </c>
+      <c r="I192">
+        <v>7.52</v>
+      </c>
+      <c r="J192">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K192">
+        <v>9.33</v>
+      </c>
+      <c r="L192">
+        <f t="shared" si="24"/>
+        <v>0.80600214362272238</v>
+      </c>
+      <c r="M192">
+        <f t="shared" si="25"/>
+        <v>8.0493033226152182</v>
+      </c>
+    </row>
+    <row r="193" spans="3:13">
+      <c r="C193">
+        <v>12</v>
+      </c>
+      <c r="E193" t="s">
+        <v>20</v>
+      </c>
+      <c r="F193">
+        <v>2000</v>
+      </c>
+      <c r="G193">
+        <v>71.53</v>
+      </c>
+      <c r="H193">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="I193">
+        <v>11.7</v>
+      </c>
+      <c r="J193">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K193">
+        <v>11</v>
+      </c>
+      <c r="L193">
+        <f t="shared" si="24"/>
+        <v>1.0636363636363635</v>
+      </c>
+      <c r="M193">
+        <f t="shared" si="25"/>
+        <v>6.8272727272727272</v>
+      </c>
+    </row>
+    <row r="194" spans="3:13">
+      <c r="C194">
+        <v>13</v>
+      </c>
+      <c r="E194" t="s">
+        <v>20</v>
+      </c>
+      <c r="F194">
+        <v>2000</v>
+      </c>
+      <c r="G194">
+        <v>77.290000000000006</v>
+      </c>
+      <c r="H194">
+        <v>2.52</v>
+      </c>
+      <c r="I194">
+        <v>9.25</v>
+      </c>
+      <c r="J194">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K194">
+        <v>7.59</v>
+      </c>
+      <c r="L194">
+        <f t="shared" si="24"/>
+        <v>1.2187088274044795</v>
+      </c>
+      <c r="M194">
+        <f t="shared" si="25"/>
+        <v>9.8945981554677207</v>
+      </c>
+    </row>
+    <row r="195" spans="3:13">
+      <c r="C195">
+        <v>14</v>
+      </c>
+      <c r="E195" t="s">
+        <v>20</v>
+      </c>
+      <c r="F195">
+        <v>2000</v>
+      </c>
+      <c r="G195">
+        <v>97.41</v>
+      </c>
+      <c r="H195">
+        <v>3.91</v>
+      </c>
+      <c r="I195">
+        <v>15.6</v>
+      </c>
+      <c r="J195">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K195">
+        <v>15.2</v>
+      </c>
+      <c r="L195">
+        <f t="shared" si="24"/>
+        <v>1.0263157894736843</v>
+      </c>
+      <c r="M195">
+        <f t="shared" si="25"/>
+        <v>4.9407894736842106</v>
+      </c>
+    </row>
+    <row r="196" spans="3:13">
+      <c r="C196">
+        <v>15</v>
+      </c>
+      <c r="E196" t="s">
+        <v>20</v>
+      </c>
+      <c r="F196">
+        <v>2000</v>
+      </c>
+      <c r="G196">
+        <v>184.38</v>
+      </c>
+      <c r="H196">
+        <v>1.79</v>
+      </c>
+      <c r="I196">
+        <v>6.84</v>
+      </c>
+      <c r="J196">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K196">
+        <v>9.59</v>
+      </c>
+      <c r="L196">
+        <f t="shared" si="24"/>
+        <v>0.71324296141814392</v>
+      </c>
+      <c r="M196">
+        <f t="shared" si="25"/>
+        <v>7.8310740354535966</v>
+      </c>
+    </row>
+    <row r="197" spans="3:13">
+      <c r="C197">
+        <v>16</v>
+      </c>
+      <c r="E197" t="s">
+        <v>20</v>
+      </c>
+      <c r="F197">
+        <v>2000</v>
+      </c>
+      <c r="I197">
+        <v>12.8</v>
+      </c>
+      <c r="J197">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L197" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M197" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="198" spans="3:13">
+      <c r="C198">
+        <v>17</v>
+      </c>
+      <c r="E198" t="s">
+        <v>20</v>
+      </c>
+      <c r="F198">
+        <v>2000</v>
+      </c>
+      <c r="I198">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="J198">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L198" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M198" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="199" spans="3:13">
+      <c r="C199">
+        <v>18</v>
+      </c>
+      <c r="E199" t="s">
+        <v>20</v>
+      </c>
+      <c r="F199">
+        <v>2000</v>
+      </c>
+      <c r="I199">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="J199">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L199" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M199" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="200" spans="3:13">
+      <c r="C200">
+        <v>19</v>
+      </c>
+      <c r="E200" t="s">
+        <v>20</v>
+      </c>
+      <c r="F200">
+        <v>2000</v>
+      </c>
+      <c r="I200">
+        <v>15.1</v>
+      </c>
+      <c r="J200">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L200" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M200" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="201" spans="3:13">
+      <c r="C201">
+        <v>20</v>
+      </c>
+      <c r="E201" t="s">
+        <v>20</v>
+      </c>
+      <c r="F201">
+        <v>2000</v>
+      </c>
+      <c r="I201">
+        <v>14</v>
+      </c>
+      <c r="J201">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L201" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M201" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="202" spans="3:13">
+      <c r="C202">
+        <v>21</v>
+      </c>
+      <c r="E202" t="s">
+        <v>20</v>
+      </c>
+      <c r="F202">
+        <v>2000</v>
+      </c>
+      <c r="I202">
+        <v>13</v>
+      </c>
+      <c r="J202">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L202" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M202" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="203" spans="3:13">
+      <c r="C203">
+        <v>22</v>
+      </c>
+      <c r="E203" t="s">
+        <v>20</v>
+      </c>
+      <c r="F203">
+        <v>2000</v>
+      </c>
+      <c r="I203">
+        <v>11.8</v>
+      </c>
+      <c r="J203">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L203" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M203" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="204" spans="3:13">
+      <c r="C204">
+        <v>23</v>
+      </c>
+      <c r="E204" t="s">
+        <v>20</v>
+      </c>
+      <c r="F204">
+        <v>2000</v>
+      </c>
+      <c r="I204">
+        <v>13.7</v>
+      </c>
+      <c r="J204">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L204" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M204" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="205" spans="3:13">
+      <c r="C205">
+        <v>24</v>
+      </c>
+      <c r="E205" t="s">
+        <v>20</v>
+      </c>
+      <c r="F205">
+        <v>2000</v>
+      </c>
+      <c r="I205">
+        <v>10.4</v>
+      </c>
+      <c r="J205">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L205" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M205" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="206" spans="3:13">
+      <c r="C206">
+        <v>25</v>
+      </c>
+      <c r="E206" t="s">
+        <v>20</v>
+      </c>
+      <c r="F206">
+        <v>2000</v>
+      </c>
+      <c r="I206">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="J206">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L206" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M206" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="207" spans="3:13">
+      <c r="C207">
+        <v>26</v>
+      </c>
+      <c r="E207" t="s">
+        <v>20</v>
+      </c>
+      <c r="F207">
+        <v>2000</v>
+      </c>
+      <c r="I207">
+        <v>13.1</v>
+      </c>
+      <c r="J207">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L207" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M207" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="208" spans="3:13">
+      <c r="C208">
+        <v>27</v>
+      </c>
+      <c r="E208" t="s">
+        <v>20</v>
+      </c>
+      <c r="F208">
+        <v>2000</v>
+      </c>
+      <c r="I208">
+        <v>9.23</v>
+      </c>
+      <c r="J208">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L208" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M208" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="209" spans="3:13">
+      <c r="C209">
+        <v>28</v>
+      </c>
+      <c r="E209" t="s">
+        <v>20</v>
+      </c>
+      <c r="F209">
+        <v>2000</v>
+      </c>
+      <c r="I209">
+        <v>14.9</v>
+      </c>
+      <c r="J209">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L209" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M209" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="210" spans="3:13">
+      <c r="C210">
+        <v>29</v>
+      </c>
+      <c r="E210" t="s">
+        <v>20</v>
+      </c>
+      <c r="F210">
+        <v>2000</v>
+      </c>
+      <c r="I210">
+        <v>10.6</v>
+      </c>
+      <c r="J210">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L210" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M210" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="211" spans="3:13">
+      <c r="C211" t="s">
+        <v>18</v>
+      </c>
+      <c r="F211">
+        <f>AVERAGE(F182:F210)</f>
+        <v>2000</v>
+      </c>
+      <c r="G211">
+        <f t="shared" ref="G211:M211" si="26">AVERAGE(G182:G210)</f>
+        <v>87.19</v>
+      </c>
+      <c r="H211">
+        <f t="shared" si="26"/>
+        <v>2.738666666666667</v>
+      </c>
+      <c r="I211">
+        <f t="shared" si="26"/>
+        <v>12.10551724137931</v>
+      </c>
+      <c r="J211">
+        <f t="shared" si="26"/>
+        <v>75.096551724137896</v>
+      </c>
+      <c r="K211">
+        <f t="shared" si="26"/>
+        <v>9.9373333333333331</v>
+      </c>
+      <c r="L211" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M211" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="215" spans="3:13" s="2" customFormat="1"/>
+    <row r="219" spans="3:13" ht="60">
+      <c r="C219" s="1"/>
+      <c r="D219" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G219" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H219" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I219" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J219" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K219" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L219" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M219" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="220" spans="3:13">
+      <c r="C220">
+        <v>1</v>
+      </c>
+      <c r="D220" t="s">
+        <v>22</v>
+      </c>
+      <c r="E220" t="s">
+        <v>7</v>
+      </c>
+      <c r="F220">
+        <v>2000</v>
+      </c>
+      <c r="G220">
+        <v>27.75</v>
+      </c>
+      <c r="H220">
+        <v>1.78</v>
+      </c>
+      <c r="I220">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="J220">
+        <v>75</v>
+      </c>
+      <c r="K220">
+        <v>4.29</v>
+      </c>
+      <c r="L220">
+        <f>I220/K220</f>
+        <v>1.1794871794871793</v>
+      </c>
+      <c r="M220">
+        <f>J220/K220</f>
+        <v>17.482517482517483</v>
+      </c>
+    </row>
+    <row r="221" spans="3:13">
+      <c r="C221">
+        <v>2</v>
+      </c>
+      <c r="E221" t="s">
+        <v>7</v>
+      </c>
+      <c r="F221">
+        <v>2000</v>
+      </c>
+      <c r="I221">
+        <v>11.3</v>
+      </c>
+      <c r="J221">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L221" t="e">
+        <f t="shared" ref="L221:L248" si="27">I221/K221</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M221" t="e">
+        <f t="shared" ref="M221:M248" si="28">J221/K221</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="222" spans="3:13">
+      <c r="C222">
+        <v>3</v>
+      </c>
+      <c r="E222" t="s">
+        <v>7</v>
+      </c>
+      <c r="F222">
+        <v>2000</v>
+      </c>
+      <c r="I222">
+        <v>12.1</v>
+      </c>
+      <c r="J222">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L222" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M222" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="223" spans="3:13">
+      <c r="C223">
+        <v>4</v>
+      </c>
+      <c r="E223" t="s">
+        <v>7</v>
+      </c>
+      <c r="F223">
+        <v>2000</v>
+      </c>
+      <c r="I223">
+        <v>11.9</v>
+      </c>
+      <c r="J223">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L223" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M223" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="224" spans="3:13">
+      <c r="C224">
+        <v>5</v>
+      </c>
+      <c r="E224" t="s">
+        <v>7</v>
+      </c>
+      <c r="F224">
+        <v>2000</v>
+      </c>
+      <c r="I224">
+        <v>12.4</v>
+      </c>
+      <c r="J224">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L224" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M224" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="225" spans="3:13">
+      <c r="C225">
+        <v>6</v>
+      </c>
+      <c r="E225" t="s">
+        <v>7</v>
+      </c>
+      <c r="F225">
+        <v>2000</v>
+      </c>
+      <c r="I225">
+        <v>11.8</v>
+      </c>
+      <c r="J225">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L225" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M225" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="226" spans="3:13">
+      <c r="C226">
+        <v>7</v>
+      </c>
+      <c r="E226" t="s">
+        <v>7</v>
+      </c>
+      <c r="F226">
+        <v>2000</v>
+      </c>
+      <c r="I226">
+        <v>13.3</v>
+      </c>
+      <c r="J226">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L226" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M226" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="227" spans="3:13">
+      <c r="C227">
+        <v>8</v>
+      </c>
+      <c r="E227" t="s">
+        <v>7</v>
+      </c>
+      <c r="F227">
+        <v>2000</v>
+      </c>
+      <c r="I227">
+        <v>12.8</v>
+      </c>
+      <c r="J227">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L227" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M227" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="228" spans="3:13">
+      <c r="C228">
+        <v>9</v>
+      </c>
+      <c r="E228" t="s">
+        <v>7</v>
+      </c>
+      <c r="F228">
+        <v>2000</v>
+      </c>
+      <c r="I228">
+        <v>10</v>
+      </c>
+      <c r="J228">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L228" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M228" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="229" spans="3:13">
+      <c r="C229">
+        <v>10</v>
+      </c>
+      <c r="E229" t="s">
+        <v>7</v>
+      </c>
+      <c r="F229">
+        <v>2000</v>
+      </c>
+      <c r="I229">
+        <v>12.4</v>
+      </c>
+      <c r="J229">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L229" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M229" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="230" spans="3:13">
+      <c r="C230">
+        <v>11</v>
+      </c>
+      <c r="E230" t="s">
+        <v>7</v>
+      </c>
+      <c r="F230">
+        <v>2000</v>
+      </c>
+      <c r="I230">
+        <v>7.52</v>
+      </c>
+      <c r="J230">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L230" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M230" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="231" spans="3:13">
+      <c r="C231">
+        <v>12</v>
+      </c>
+      <c r="E231" t="s">
+        <v>7</v>
+      </c>
+      <c r="F231">
+        <v>2000</v>
+      </c>
+      <c r="I231">
+        <v>11.7</v>
+      </c>
+      <c r="J231">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L231" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M231" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="232" spans="3:13">
+      <c r="C232">
+        <v>13</v>
+      </c>
+      <c r="E232" t="s">
+        <v>7</v>
+      </c>
+      <c r="F232">
+        <v>2000</v>
+      </c>
+      <c r="I232">
+        <v>9.25</v>
+      </c>
+      <c r="J232">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L232" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M232" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="233" spans="3:13">
+      <c r="C233">
+        <v>14</v>
+      </c>
+      <c r="E233" t="s">
+        <v>7</v>
+      </c>
+      <c r="F233">
+        <v>2000</v>
+      </c>
+      <c r="I233">
+        <v>15.6</v>
+      </c>
+      <c r="J233">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L233" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M233" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="234" spans="3:13">
+      <c r="C234">
+        <v>15</v>
+      </c>
+      <c r="E234" t="s">
+        <v>7</v>
+      </c>
+      <c r="F234">
+        <v>2000</v>
+      </c>
+      <c r="I234">
+        <v>6.84</v>
+      </c>
+      <c r="J234">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L234" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M234" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="235" spans="3:13">
+      <c r="C235">
+        <v>16</v>
+      </c>
+      <c r="E235" t="s">
+        <v>7</v>
+      </c>
+      <c r="F235">
+        <v>2000</v>
+      </c>
+      <c r="I235">
+        <v>12.8</v>
+      </c>
+      <c r="J235">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L235" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M235" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="236" spans="3:13">
+      <c r="C236">
+        <v>17</v>
+      </c>
+      <c r="E236" t="s">
+        <v>7</v>
+      </c>
+      <c r="F236">
+        <v>2000</v>
+      </c>
+      <c r="I236">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="J236">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L236" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M236" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="237" spans="3:13">
+      <c r="C237">
+        <v>18</v>
+      </c>
+      <c r="E237" t="s">
+        <v>7</v>
+      </c>
+      <c r="F237">
+        <v>2000</v>
+      </c>
+      <c r="I237">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="J237">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L237" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M237" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="238" spans="3:13">
+      <c r="C238">
+        <v>19</v>
+      </c>
+      <c r="E238" t="s">
+        <v>7</v>
+      </c>
+      <c r="F238">
+        <v>2000</v>
+      </c>
+      <c r="I238">
+        <v>15.1</v>
+      </c>
+      <c r="J238">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L238" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M238" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="239" spans="3:13">
+      <c r="C239">
+        <v>20</v>
+      </c>
+      <c r="E239" t="s">
+        <v>7</v>
+      </c>
+      <c r="F239">
+        <v>2000</v>
+      </c>
+      <c r="I239">
+        <v>14</v>
+      </c>
+      <c r="J239">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L239" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M239" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="240" spans="3:13">
+      <c r="C240">
+        <v>21</v>
+      </c>
+      <c r="E240" t="s">
+        <v>7</v>
+      </c>
+      <c r="F240">
+        <v>2000</v>
+      </c>
+      <c r="I240">
+        <v>13</v>
+      </c>
+      <c r="J240">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L240" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M240" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="241" spans="3:13">
+      <c r="C241">
+        <v>22</v>
+      </c>
+      <c r="E241" t="s">
+        <v>7</v>
+      </c>
+      <c r="F241">
+        <v>2000</v>
+      </c>
+      <c r="I241">
+        <v>11.8</v>
+      </c>
+      <c r="J241">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L241" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M241" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="242" spans="3:13">
+      <c r="C242">
+        <v>23</v>
+      </c>
+      <c r="E242" t="s">
+        <v>7</v>
+      </c>
+      <c r="F242">
+        <v>2000</v>
+      </c>
+      <c r="I242">
+        <v>13.7</v>
+      </c>
+      <c r="J242">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L242" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M242" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="243" spans="3:13">
+      <c r="C243">
+        <v>24</v>
+      </c>
+      <c r="E243" t="s">
+        <v>7</v>
+      </c>
+      <c r="F243">
+        <v>2000</v>
+      </c>
+      <c r="I243">
+        <v>10.4</v>
+      </c>
+      <c r="J243">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L243" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M243" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="244" spans="3:13">
+      <c r="C244">
+        <v>25</v>
+      </c>
+      <c r="E244" t="s">
+        <v>7</v>
+      </c>
+      <c r="F244">
+        <v>2000</v>
+      </c>
+      <c r="I244">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="J244">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L244" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M244" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="245" spans="3:13">
+      <c r="C245">
+        <v>26</v>
+      </c>
+      <c r="E245" t="s">
+        <v>7</v>
+      </c>
+      <c r="F245">
+        <v>2000</v>
+      </c>
+      <c r="I245">
+        <v>13.1</v>
+      </c>
+      <c r="J245">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L245" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M245" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="246" spans="3:13">
+      <c r="C246">
+        <v>27</v>
+      </c>
+      <c r="E246" t="s">
+        <v>7</v>
+      </c>
+      <c r="F246">
+        <v>2000</v>
+      </c>
+      <c r="I246">
+        <v>9.23</v>
+      </c>
+      <c r="J246">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L246" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M246" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="247" spans="3:13">
+      <c r="C247">
+        <v>28</v>
+      </c>
+      <c r="E247" t="s">
+        <v>7</v>
+      </c>
+      <c r="F247">
+        <v>2000</v>
+      </c>
+      <c r="I247">
+        <v>14.9</v>
+      </c>
+      <c r="J247">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L247" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M247" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="248" spans="3:13">
+      <c r="C248">
+        <v>29</v>
+      </c>
+      <c r="E248" t="s">
+        <v>7</v>
+      </c>
+      <c r="F248">
+        <v>2000</v>
+      </c>
+      <c r="I248">
+        <v>10.6</v>
+      </c>
+      <c r="J248">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L248" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M248" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="249" spans="3:13">
+      <c r="C249" t="s">
+        <v>18</v>
+      </c>
+      <c r="F249">
+        <f>AVERAGE(F220:F248)</f>
+        <v>2000</v>
+      </c>
+      <c r="G249">
+        <f t="shared" ref="G249:M249" si="29">AVERAGE(G220:G248)</f>
+        <v>27.75</v>
+      </c>
+      <c r="H249">
+        <f t="shared" si="29"/>
+        <v>1.78</v>
+      </c>
+      <c r="I249">
+        <f t="shared" si="29"/>
+        <v>12.10551724137931</v>
+      </c>
+      <c r="J249">
+        <f t="shared" si="29"/>
+        <v>75.096551724137896</v>
+      </c>
+      <c r="K249">
+        <f t="shared" si="29"/>
+        <v>4.29</v>
+      </c>
+      <c r="L249" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M249" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="255" spans="3:13" ht="60">
+      <c r="C255" s="1"/>
+      <c r="D255" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F255" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G255" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H255" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I255" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J255" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K255" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L255" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M255" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="256" spans="3:13">
+      <c r="C256">
+        <v>1</v>
+      </c>
+      <c r="D256" t="s">
+        <v>22</v>
+      </c>
+      <c r="E256" t="s">
+        <v>19</v>
+      </c>
+      <c r="F256">
+        <v>2000</v>
+      </c>
+      <c r="G256">
+        <v>11.68</v>
+      </c>
+      <c r="H256">
+        <v>1.79</v>
+      </c>
+      <c r="I256">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="J256">
+        <v>75</v>
+      </c>
+      <c r="K256">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="L256">
+        <f>I256/K256</f>
+        <v>1.1740139211136891</v>
+      </c>
+      <c r="M256">
+        <f>J256/K256</f>
+        <v>17.40139211136891</v>
+      </c>
+    </row>
+    <row r="257" spans="3:13">
+      <c r="C257">
+        <v>2</v>
+      </c>
+      <c r="E257" t="s">
+        <v>19</v>
+      </c>
+      <c r="F257">
+        <v>2000</v>
+      </c>
+      <c r="I257">
+        <v>11.3</v>
+      </c>
+      <c r="J257">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L257" t="e">
+        <f t="shared" ref="L257:L284" si="30">I257/K257</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M257" t="e">
+        <f t="shared" ref="M257:M284" si="31">J257/K257</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="258" spans="3:13">
+      <c r="C258">
+        <v>3</v>
+      </c>
+      <c r="E258" t="s">
+        <v>19</v>
+      </c>
+      <c r="F258">
+        <v>2000</v>
+      </c>
+      <c r="I258">
+        <v>12.1</v>
+      </c>
+      <c r="J258">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L258" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M258" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="259" spans="3:13">
+      <c r="C259">
+        <v>4</v>
+      </c>
+      <c r="E259" t="s">
+        <v>19</v>
+      </c>
+      <c r="F259">
+        <v>2000</v>
+      </c>
+      <c r="I259">
+        <v>11.9</v>
+      </c>
+      <c r="J259">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L259" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M259" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="260" spans="3:13">
+      <c r="C260">
+        <v>5</v>
+      </c>
+      <c r="E260" t="s">
+        <v>19</v>
+      </c>
+      <c r="F260">
+        <v>2000</v>
+      </c>
+      <c r="I260">
+        <v>12.4</v>
+      </c>
+      <c r="J260">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L260" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M260" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="261" spans="3:13">
+      <c r="C261">
+        <v>6</v>
+      </c>
+      <c r="E261" t="s">
+        <v>19</v>
+      </c>
+      <c r="F261">
+        <v>2000</v>
+      </c>
+      <c r="I261">
+        <v>11.8</v>
+      </c>
+      <c r="J261">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L261" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M261" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="262" spans="3:13">
+      <c r="C262">
+        <v>7</v>
+      </c>
+      <c r="E262" t="s">
+        <v>19</v>
+      </c>
+      <c r="F262">
+        <v>2000</v>
+      </c>
+      <c r="I262">
+        <v>13.3</v>
+      </c>
+      <c r="J262">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L262" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M262" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="263" spans="3:13">
+      <c r="C263">
+        <v>8</v>
+      </c>
+      <c r="E263" t="s">
+        <v>19</v>
+      </c>
+      <c r="F263">
+        <v>2000</v>
+      </c>
+      <c r="I263">
+        <v>12.8</v>
+      </c>
+      <c r="J263">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L263" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M263" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="264" spans="3:13">
+      <c r="C264">
+        <v>9</v>
+      </c>
+      <c r="E264" t="s">
+        <v>19</v>
+      </c>
+      <c r="F264">
+        <v>2000</v>
+      </c>
+      <c r="I264">
+        <v>10</v>
+      </c>
+      <c r="J264">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L264" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M264" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="265" spans="3:13">
+      <c r="C265">
+        <v>10</v>
+      </c>
+      <c r="E265" t="s">
+        <v>19</v>
+      </c>
+      <c r="F265">
+        <v>2000</v>
+      </c>
+      <c r="I265">
+        <v>12.4</v>
+      </c>
+      <c r="J265">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L265" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M265" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="266" spans="3:13">
+      <c r="C266">
+        <v>11</v>
+      </c>
+      <c r="E266" t="s">
+        <v>19</v>
+      </c>
+      <c r="F266">
+        <v>2000</v>
+      </c>
+      <c r="I266">
+        <v>7.52</v>
+      </c>
+      <c r="J266">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L266" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M266" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="267" spans="3:13">
+      <c r="C267">
+        <v>12</v>
+      </c>
+      <c r="E267" t="s">
+        <v>19</v>
+      </c>
+      <c r="F267">
+        <v>2000</v>
+      </c>
+      <c r="I267">
+        <v>11.7</v>
+      </c>
+      <c r="J267">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L267" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M267" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="268" spans="3:13">
+      <c r="C268">
+        <v>13</v>
+      </c>
+      <c r="E268" t="s">
+        <v>19</v>
+      </c>
+      <c r="F268">
+        <v>2000</v>
+      </c>
+      <c r="I268">
+        <v>9.25</v>
+      </c>
+      <c r="J268">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L268" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M268" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="269" spans="3:13">
+      <c r="C269">
+        <v>14</v>
+      </c>
+      <c r="E269" t="s">
+        <v>19</v>
+      </c>
+      <c r="F269">
+        <v>2000</v>
+      </c>
+      <c r="I269">
+        <v>15.6</v>
+      </c>
+      <c r="J269">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L269" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M269" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="270" spans="3:13">
+      <c r="C270">
+        <v>15</v>
+      </c>
+      <c r="E270" t="s">
+        <v>19</v>
+      </c>
+      <c r="F270">
+        <v>2000</v>
+      </c>
+      <c r="I270">
+        <v>6.84</v>
+      </c>
+      <c r="J270">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L270" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M270" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="271" spans="3:13">
+      <c r="C271">
+        <v>16</v>
+      </c>
+      <c r="E271" t="s">
+        <v>19</v>
+      </c>
+      <c r="F271">
+        <v>2000</v>
+      </c>
+      <c r="I271">
+        <v>12.8</v>
+      </c>
+      <c r="J271">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L271" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M271" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="272" spans="3:13">
+      <c r="C272">
+        <v>17</v>
+      </c>
+      <c r="E272" t="s">
+        <v>19</v>
+      </c>
+      <c r="F272">
+        <v>2000</v>
+      </c>
+      <c r="I272">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="J272">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L272" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M272" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="273" spans="3:13">
+      <c r="C273">
+        <v>18</v>
+      </c>
+      <c r="E273" t="s">
+        <v>19</v>
+      </c>
+      <c r="F273">
+        <v>2000</v>
+      </c>
+      <c r="I273">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="J273">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L273" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M273" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="274" spans="3:13">
+      <c r="C274">
+        <v>19</v>
+      </c>
+      <c r="E274" t="s">
+        <v>19</v>
+      </c>
+      <c r="F274">
+        <v>2000</v>
+      </c>
+      <c r="I274">
+        <v>15.1</v>
+      </c>
+      <c r="J274">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L274" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M274" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="275" spans="3:13">
+      <c r="C275">
+        <v>20</v>
+      </c>
+      <c r="E275" t="s">
+        <v>19</v>
+      </c>
+      <c r="F275">
+        <v>2000</v>
+      </c>
+      <c r="I275">
+        <v>14</v>
+      </c>
+      <c r="J275">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L275" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M275" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="276" spans="3:13">
+      <c r="C276">
+        <v>21</v>
+      </c>
+      <c r="E276" t="s">
+        <v>19</v>
+      </c>
+      <c r="F276">
+        <v>2000</v>
+      </c>
+      <c r="I276">
+        <v>13</v>
+      </c>
+      <c r="J276">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L276" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M276" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="277" spans="3:13">
+      <c r="C277">
+        <v>22</v>
+      </c>
+      <c r="E277" t="s">
+        <v>19</v>
+      </c>
+      <c r="F277">
+        <v>2000</v>
+      </c>
+      <c r="I277">
+        <v>11.8</v>
+      </c>
+      <c r="J277">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L277" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M277" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="278" spans="3:13">
+      <c r="C278">
+        <v>23</v>
+      </c>
+      <c r="E278" t="s">
+        <v>19</v>
+      </c>
+      <c r="F278">
+        <v>2000</v>
+      </c>
+      <c r="I278">
+        <v>13.7</v>
+      </c>
+      <c r="J278">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L278" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M278" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="279" spans="3:13">
+      <c r="C279">
+        <v>24</v>
+      </c>
+      <c r="E279" t="s">
+        <v>19</v>
+      </c>
+      <c r="F279">
+        <v>2000</v>
+      </c>
+      <c r="I279">
+        <v>10.4</v>
+      </c>
+      <c r="J279">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L279" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M279" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="280" spans="3:13">
+      <c r="C280">
+        <v>25</v>
+      </c>
+      <c r="E280" t="s">
+        <v>19</v>
+      </c>
+      <c r="F280">
+        <v>2000</v>
+      </c>
+      <c r="I280">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="J280">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L280" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M280" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="281" spans="3:13">
+      <c r="C281">
+        <v>26</v>
+      </c>
+      <c r="E281" t="s">
+        <v>19</v>
+      </c>
+      <c r="F281">
+        <v>2000</v>
+      </c>
+      <c r="I281">
+        <v>13.1</v>
+      </c>
+      <c r="J281">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L281" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M281" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="282" spans="3:13">
+      <c r="C282">
+        <v>27</v>
+      </c>
+      <c r="E282" t="s">
+        <v>19</v>
+      </c>
+      <c r="F282">
+        <v>2000</v>
+      </c>
+      <c r="I282">
+        <v>9.23</v>
+      </c>
+      <c r="J282">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L282" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M282" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="283" spans="3:13">
+      <c r="C283">
+        <v>28</v>
+      </c>
+      <c r="E283" t="s">
+        <v>19</v>
+      </c>
+      <c r="F283">
+        <v>2000</v>
+      </c>
+      <c r="I283">
+        <v>14.9</v>
+      </c>
+      <c r="J283">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L283" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M283" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="284" spans="3:13">
+      <c r="C284">
+        <v>29</v>
+      </c>
+      <c r="E284" t="s">
+        <v>19</v>
+      </c>
+      <c r="F284">
+        <v>2000</v>
+      </c>
+      <c r="I284">
+        <v>10.6</v>
+      </c>
+      <c r="J284">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L284" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M284" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="285" spans="3:13">
+      <c r="C285" t="s">
+        <v>18</v>
+      </c>
+      <c r="E285" t="s">
+        <v>19</v>
+      </c>
+      <c r="F285">
+        <f>AVERAGE(F256:F284)</f>
+        <v>2000</v>
+      </c>
+      <c r="G285">
+        <f t="shared" ref="G285:M285" si="32">AVERAGE(G256:G284)</f>
+        <v>11.68</v>
+      </c>
+      <c r="H285">
+        <f t="shared" si="32"/>
+        <v>1.79</v>
+      </c>
+      <c r="I285">
+        <f t="shared" si="32"/>
+        <v>12.10551724137931</v>
+      </c>
+      <c r="J285">
+        <f t="shared" si="32"/>
+        <v>75.096551724137896</v>
+      </c>
+      <c r="K285">
+        <f t="shared" si="32"/>
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="L285" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M285" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="290" spans="3:13" ht="60">
+      <c r="C290" s="1"/>
+      <c r="D290" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F290" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G290" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H290" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I290" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J290" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K290" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L290" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M290" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="291" spans="3:13">
+      <c r="C291">
+        <v>1</v>
+      </c>
+      <c r="D291" t="s">
+        <v>22</v>
+      </c>
+      <c r="E291" t="s">
+        <v>20</v>
+      </c>
+      <c r="F291">
+        <v>2000</v>
+      </c>
+      <c r="G291">
+        <v>7.66</v>
+      </c>
+      <c r="H291">
+        <v>1.68</v>
+      </c>
+      <c r="I291">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="J291">
+        <v>75</v>
+      </c>
+      <c r="K291">
+        <v>4.3</v>
+      </c>
+      <c r="L291">
+        <f>I291/K291</f>
+        <v>1.1767441860465115</v>
+      </c>
+      <c r="M291">
+        <f>J291/K291</f>
+        <v>17.441860465116278</v>
+      </c>
+    </row>
+    <row r="292" spans="3:13">
+      <c r="C292">
+        <v>2</v>
+      </c>
+      <c r="E292" t="s">
+        <v>20</v>
+      </c>
+      <c r="F292">
+        <v>2000</v>
+      </c>
+      <c r="I292">
+        <v>11.3</v>
+      </c>
+      <c r="J292">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L292" t="e">
+        <f t="shared" ref="L292:L319" si="33">I292/K292</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M292" t="e">
+        <f t="shared" ref="M292:M319" si="34">J292/K292</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="293" spans="3:13">
+      <c r="C293">
+        <v>3</v>
+      </c>
+      <c r="E293" t="s">
+        <v>20</v>
+      </c>
+      <c r="F293">
+        <v>2000</v>
+      </c>
+      <c r="I293">
+        <v>12.1</v>
+      </c>
+      <c r="J293">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L293" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M293" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="294" spans="3:13">
+      <c r="C294">
+        <v>4</v>
+      </c>
+      <c r="E294" t="s">
+        <v>20</v>
+      </c>
+      <c r="F294">
+        <v>2000</v>
+      </c>
+      <c r="I294">
+        <v>11.9</v>
+      </c>
+      <c r="J294">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L294" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M294" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="295" spans="3:13">
+      <c r="C295">
+        <v>5</v>
+      </c>
+      <c r="E295" t="s">
+        <v>20</v>
+      </c>
+      <c r="F295">
+        <v>2000</v>
+      </c>
+      <c r="I295">
+        <v>12.4</v>
+      </c>
+      <c r="J295">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L295" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M295" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="296" spans="3:13">
+      <c r="C296">
+        <v>6</v>
+      </c>
+      <c r="E296" t="s">
+        <v>20</v>
+      </c>
+      <c r="F296">
+        <v>2000</v>
+      </c>
+      <c r="I296">
+        <v>11.8</v>
+      </c>
+      <c r="J296">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L296" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M296" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="297" spans="3:13">
+      <c r="C297">
+        <v>7</v>
+      </c>
+      <c r="E297" t="s">
+        <v>20</v>
+      </c>
+      <c r="F297">
+        <v>2000</v>
+      </c>
+      <c r="I297">
+        <v>13.3</v>
+      </c>
+      <c r="J297">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L297" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M297" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="298" spans="3:13">
+      <c r="C298">
+        <v>8</v>
+      </c>
+      <c r="E298" t="s">
+        <v>20</v>
+      </c>
+      <c r="F298">
+        <v>2000</v>
+      </c>
+      <c r="I298">
+        <v>12.8</v>
+      </c>
+      <c r="J298">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L298" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M298" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="299" spans="3:13">
+      <c r="C299">
+        <v>9</v>
+      </c>
+      <c r="E299" t="s">
+        <v>20</v>
+      </c>
+      <c r="F299">
+        <v>2000</v>
+      </c>
+      <c r="I299">
+        <v>10</v>
+      </c>
+      <c r="J299">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L299" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M299" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="300" spans="3:13">
+      <c r="C300">
+        <v>10</v>
+      </c>
+      <c r="E300" t="s">
+        <v>20</v>
+      </c>
+      <c r="F300">
+        <v>2000</v>
+      </c>
+      <c r="I300">
+        <v>12.4</v>
+      </c>
+      <c r="J300">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L300" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M300" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="301" spans="3:13">
+      <c r="C301">
+        <v>11</v>
+      </c>
+      <c r="E301" t="s">
+        <v>20</v>
+      </c>
+      <c r="F301">
+        <v>2000</v>
+      </c>
+      <c r="I301">
+        <v>7.52</v>
+      </c>
+      <c r="J301">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L301" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M301" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="302" spans="3:13">
+      <c r="C302">
+        <v>12</v>
+      </c>
+      <c r="E302" t="s">
+        <v>20</v>
+      </c>
+      <c r="F302">
+        <v>2000</v>
+      </c>
+      <c r="I302">
+        <v>11.7</v>
+      </c>
+      <c r="J302">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L302" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M302" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="303" spans="3:13">
+      <c r="C303">
+        <v>13</v>
+      </c>
+      <c r="E303" t="s">
+        <v>20</v>
+      </c>
+      <c r="F303">
+        <v>2000</v>
+      </c>
+      <c r="I303">
+        <v>9.25</v>
+      </c>
+      <c r="J303">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L303" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M303" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="304" spans="3:13">
+      <c r="C304">
+        <v>14</v>
+      </c>
+      <c r="E304" t="s">
+        <v>20</v>
+      </c>
+      <c r="F304">
+        <v>2000</v>
+      </c>
+      <c r="I304">
+        <v>15.6</v>
+      </c>
+      <c r="J304">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L304" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M304" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="305" spans="3:13">
+      <c r="C305">
+        <v>15</v>
+      </c>
+      <c r="E305" t="s">
+        <v>20</v>
+      </c>
+      <c r="F305">
+        <v>2000</v>
+      </c>
+      <c r="I305">
+        <v>6.84</v>
+      </c>
+      <c r="J305">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L305" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M305" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="306" spans="3:13">
+      <c r="C306">
+        <v>16</v>
+      </c>
+      <c r="E306" t="s">
+        <v>20</v>
+      </c>
+      <c r="F306">
+        <v>2000</v>
+      </c>
+      <c r="I306">
+        <v>12.8</v>
+      </c>
+      <c r="J306">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L306" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M306" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="307" spans="3:13">
+      <c r="C307">
+        <v>17</v>
+      </c>
+      <c r="E307" t="s">
+        <v>20</v>
+      </c>
+      <c r="F307">
+        <v>2000</v>
+      </c>
+      <c r="I307">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="J307">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L307" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M307" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="308" spans="3:13">
+      <c r="C308">
+        <v>18</v>
+      </c>
+      <c r="E308" t="s">
+        <v>20</v>
+      </c>
+      <c r="F308">
+        <v>2000</v>
+      </c>
+      <c r="I308">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="J308">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L308" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M308" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="309" spans="3:13">
+      <c r="C309">
+        <v>19</v>
+      </c>
+      <c r="E309" t="s">
+        <v>20</v>
+      </c>
+      <c r="F309">
+        <v>2000</v>
+      </c>
+      <c r="I309">
+        <v>15.1</v>
+      </c>
+      <c r="J309">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L309" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M309" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="310" spans="3:13">
+      <c r="C310">
+        <v>20</v>
+      </c>
+      <c r="E310" t="s">
+        <v>20</v>
+      </c>
+      <c r="F310">
+        <v>2000</v>
+      </c>
+      <c r="I310">
+        <v>14</v>
+      </c>
+      <c r="J310">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L310" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M310" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="311" spans="3:13">
+      <c r="C311">
+        <v>21</v>
+      </c>
+      <c r="E311" t="s">
+        <v>20</v>
+      </c>
+      <c r="F311">
+        <v>2000</v>
+      </c>
+      <c r="I311">
+        <v>13</v>
+      </c>
+      <c r="J311">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L311" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M311" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="312" spans="3:13">
+      <c r="C312">
+        <v>22</v>
+      </c>
+      <c r="E312" t="s">
+        <v>20</v>
+      </c>
+      <c r="F312">
+        <v>2000</v>
+      </c>
+      <c r="I312">
+        <v>11.8</v>
+      </c>
+      <c r="J312">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L312" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M312" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="313" spans="3:13">
+      <c r="C313">
+        <v>23</v>
+      </c>
+      <c r="E313" t="s">
+        <v>20</v>
+      </c>
+      <c r="F313">
+        <v>2000</v>
+      </c>
+      <c r="I313">
+        <v>13.7</v>
+      </c>
+      <c r="J313">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L313" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M313" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="314" spans="3:13">
+      <c r="C314">
+        <v>24</v>
+      </c>
+      <c r="E314" t="s">
+        <v>20</v>
+      </c>
+      <c r="F314">
+        <v>2000</v>
+      </c>
+      <c r="I314">
+        <v>10.4</v>
+      </c>
+      <c r="J314">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L314" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M314" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="315" spans="3:13">
+      <c r="C315">
+        <v>25</v>
+      </c>
+      <c r="E315" t="s">
+        <v>20</v>
+      </c>
+      <c r="F315">
+        <v>2000</v>
+      </c>
+      <c r="I315">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="J315">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L315" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M315" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="316" spans="3:13">
+      <c r="C316">
+        <v>26</v>
+      </c>
+      <c r="E316" t="s">
+        <v>20</v>
+      </c>
+      <c r="F316">
+        <v>2000</v>
+      </c>
+      <c r="I316">
+        <v>13.1</v>
+      </c>
+      <c r="J316">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L316" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M316" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="317" spans="3:13">
+      <c r="C317">
+        <v>27</v>
+      </c>
+      <c r="E317" t="s">
+        <v>20</v>
+      </c>
+      <c r="F317">
+        <v>2000</v>
+      </c>
+      <c r="I317">
+        <v>9.23</v>
+      </c>
+      <c r="J317">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L317" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M317" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="318" spans="3:13">
+      <c r="C318">
+        <v>28</v>
+      </c>
+      <c r="E318" t="s">
+        <v>20</v>
+      </c>
+      <c r="F318">
+        <v>2000</v>
+      </c>
+      <c r="I318">
+        <v>14.9</v>
+      </c>
+      <c r="J318">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L318" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M318" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="319" spans="3:13">
+      <c r="C319">
+        <v>29</v>
+      </c>
+      <c r="E319" t="s">
+        <v>20</v>
+      </c>
+      <c r="F319">
+        <v>2000</v>
+      </c>
+      <c r="I319">
+        <v>10.6</v>
+      </c>
+      <c r="J319">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L319" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M319" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="320" spans="3:13">
+      <c r="C320" t="s">
+        <v>18</v>
+      </c>
+      <c r="F320">
+        <f>AVERAGE(F291:F319)</f>
+        <v>2000</v>
+      </c>
+      <c r="G320">
+        <f t="shared" ref="G320:M320" si="35">AVERAGE(G291:G319)</f>
+        <v>7.66</v>
+      </c>
+      <c r="H320">
+        <f t="shared" si="35"/>
+        <v>1.68</v>
+      </c>
+      <c r="I320">
+        <f t="shared" si="35"/>
+        <v>12.10551724137931</v>
+      </c>
+      <c r="J320">
+        <f t="shared" si="35"/>
+        <v>75.096551724137896</v>
+      </c>
+      <c r="K320">
+        <f t="shared" si="35"/>
+        <v>4.3</v>
+      </c>
+      <c r="L320" t="e">
+        <f t="shared" si="35"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M320" t="e">
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
     </row>

--- a/documents/исследования.xlsx
+++ b/documents/исследования.xlsx
@@ -430,8 +430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:AK320"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C190" workbookViewId="0">
-      <selection activeCell="K197" sqref="K197"/>
+    <sheetView tabSelected="1" topLeftCell="E68" workbookViewId="0">
+      <selection activeCell="E325" sqref="E325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4571,7 +4571,7 @@
         <v>5.859375</v>
       </c>
     </row>
-    <row r="112" spans="3:13">
+    <row r="112" spans="3:13" hidden="1">
       <c r="C112">
         <v>2</v>
       </c>
@@ -4605,7 +4605,7 @@
         <v>6.9537037037037024</v>
       </c>
     </row>
-    <row r="113" spans="3:13">
+    <row r="113" spans="3:13" hidden="1">
       <c r="C113">
         <v>3</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>6.8272727272727272</v>
       </c>
     </row>
-    <row r="114" spans="3:13">
+    <row r="114" spans="3:13" hidden="1">
       <c r="C114">
         <v>4</v>
       </c>
@@ -4673,7 +4673,7 @@
         <v>11.044117647058822</v>
       </c>
     </row>
-    <row r="115" spans="3:13">
+    <row r="115" spans="3:13" hidden="1">
       <c r="C115">
         <v>5</v>
       </c>
@@ -4707,7 +4707,7 @@
         <v>12.271241830065359</v>
       </c>
     </row>
-    <row r="116" spans="3:13">
+    <row r="116" spans="3:13" hidden="1">
       <c r="C116">
         <v>6</v>
       </c>
@@ -4741,7 +4741,7 @@
         <v>9.4823232323232318</v>
       </c>
     </row>
-    <row r="117" spans="3:13">
+    <row r="117" spans="3:13" hidden="1">
       <c r="C117">
         <v>7</v>
       </c>
@@ -4775,7 +4775,7 @@
         <v>9.9076517150395773</v>
       </c>
     </row>
-    <row r="118" spans="3:13">
+    <row r="118" spans="3:13" hidden="1">
       <c r="C118">
         <v>8</v>
       </c>
@@ -4809,7 +4809,7 @@
         <v>10.27359781121751</v>
       </c>
     </row>
-    <row r="119" spans="3:13">
+    <row r="119" spans="3:13" hidden="1">
       <c r="C119">
         <v>9</v>
       </c>
@@ -4843,7 +4843,7 @@
         <v>7.51</v>
       </c>
     </row>
-    <row r="120" spans="3:13">
+    <row r="120" spans="3:13" hidden="1">
       <c r="C120">
         <v>10</v>
       </c>
@@ -4877,7 +4877,7 @@
         <v>5.8217054263565888</v>
       </c>
     </row>
-    <row r="121" spans="3:13">
+    <row r="121" spans="3:13" hidden="1">
       <c r="C121">
         <v>11</v>
       </c>
@@ -4911,7 +4911,7 @@
         <v>8.2709251101321577</v>
       </c>
     </row>
-    <row r="122" spans="3:13">
+    <row r="122" spans="3:13" hidden="1">
       <c r="C122">
         <v>12</v>
       </c>
@@ -4945,7 +4945,7 @@
         <v>6.8899082568807328</v>
       </c>
     </row>
-    <row r="123" spans="3:13">
+    <row r="123" spans="3:13" hidden="1">
       <c r="C123">
         <v>13</v>
       </c>
@@ -4979,7 +4979,7 @@
         <v>10.189959294436905</v>
       </c>
     </row>
-    <row r="124" spans="3:13">
+    <row r="124" spans="3:13" hidden="1">
       <c r="C124">
         <v>14</v>
       </c>
@@ -5013,7 +5013,7 @@
         <v>5.6466165413533824</v>
       </c>
     </row>
-    <row r="125" spans="3:13">
+    <row r="125" spans="3:13" hidden="1">
       <c r="C125">
         <v>15</v>
       </c>
@@ -5047,7 +5047,7 @@
         <v>8.6025200458190145</v>
       </c>
     </row>
-    <row r="126" spans="3:13">
+    <row r="126" spans="3:13" hidden="1">
       <c r="C126">
         <v>16</v>
       </c>
@@ -5081,7 +5081,7 @@
         <v>5.8217054263565888</v>
       </c>
     </row>
-    <row r="127" spans="3:13">
+    <row r="127" spans="3:13" hidden="1">
       <c r="C127">
         <v>17</v>
       </c>
@@ -5115,7 +5115,7 @@
         <v>6.4741379310344822</v>
       </c>
     </row>
-    <row r="128" spans="3:13">
+    <row r="128" spans="3:13" hidden="1">
       <c r="C128">
         <v>18</v>
       </c>
@@ -5149,7 +5149,7 @@
         <v>8.2256297918948516</v>
       </c>
     </row>
-    <row r="129" spans="3:13">
+    <row r="129" spans="3:13" hidden="1">
       <c r="C129">
         <v>19</v>
       </c>
@@ -5183,7 +5183,7 @@
         <v>7.686796315250767</v>
       </c>
     </row>
-    <row r="130" spans="3:13">
+    <row r="130" spans="3:13" hidden="1">
       <c r="C130">
         <v>20</v>
       </c>
@@ -5217,7 +5217,7 @@
         <v>5.5629629629629624</v>
       </c>
     </row>
-    <row r="131" spans="3:13">
+    <row r="131" spans="3:13" hidden="1">
       <c r="C131">
         <v>21</v>
       </c>
@@ -5251,7 +5251,7 @@
         <v>8.5926773455377568</v>
       </c>
     </row>
-    <row r="132" spans="3:13">
+    <row r="132" spans="3:13" hidden="1">
       <c r="C132">
         <v>22</v>
       </c>
@@ -5285,7 +5285,7 @@
         <v>6.7657657657657655</v>
       </c>
     </row>
-    <row r="133" spans="3:13">
+    <row r="133" spans="3:13" hidden="1">
       <c r="C133">
         <v>23</v>
       </c>
@@ -5319,7 +5319,7 @@
         <v>6.0079999999999991</v>
       </c>
     </row>
-    <row r="134" spans="3:13">
+    <row r="134" spans="3:13" hidden="1">
       <c r="C134">
         <v>24</v>
       </c>
@@ -5353,7 +5353,7 @@
         <v>7.4356435643564351</v>
       </c>
     </row>
-    <row r="135" spans="3:13">
+    <row r="135" spans="3:13" hidden="1">
       <c r="C135">
         <v>25</v>
       </c>
@@ -5387,7 +5387,7 @@
         <v>6.8272727272727272</v>
       </c>
     </row>
-    <row r="136" spans="3:13">
+    <row r="136" spans="3:13" hidden="1">
       <c r="C136">
         <v>26</v>
       </c>
@@ -5421,7 +5421,7 @@
         <v>12.600671140939596</v>
       </c>
     </row>
-    <row r="137" spans="3:13">
+    <row r="137" spans="3:13" hidden="1">
       <c r="C137">
         <v>27</v>
       </c>
@@ -5455,7 +5455,7 @@
         <v>8.1101511879049664</v>
       </c>
     </row>
-    <row r="138" spans="3:13">
+    <row r="138" spans="3:13" hidden="1">
       <c r="C138">
         <v>28</v>
       </c>
@@ -5489,7 +5489,7 @@
         <v>5.9133858267716537</v>
       </c>
     </row>
-    <row r="139" spans="3:13">
+    <row r="139" spans="3:13" hidden="1">
       <c r="C139">
         <v>29</v>
       </c>
@@ -5630,7 +5630,7 @@
         <v>5.8139534883720927</v>
       </c>
     </row>
-    <row r="148" spans="3:13">
+    <row r="148" spans="3:13" hidden="1">
       <c r="C148">
         <v>2</v>
       </c>
@@ -5664,7 +5664,7 @@
         <v>6.6460176991150437</v>
       </c>
     </row>
-    <row r="149" spans="3:13">
+    <row r="149" spans="3:13" hidden="1">
       <c r="C149">
         <v>3</v>
       </c>
@@ -5698,7 +5698,7 @@
         <v>6.7657657657657655</v>
       </c>
     </row>
-    <row r="150" spans="3:13">
+    <row r="150" spans="3:13" hidden="1">
       <c r="C150">
         <v>4</v>
       </c>
@@ -5732,7 +5732,7 @@
         <v>10.713266761768901</v>
       </c>
     </row>
-    <row r="151" spans="3:13">
+    <row r="151" spans="3:13" hidden="1">
       <c r="C151">
         <v>5</v>
       </c>
@@ -5766,7 +5766,7 @@
         <v>11.77115987460815</v>
       </c>
     </row>
-    <row r="152" spans="3:13">
+    <row r="152" spans="3:13" hidden="1">
       <c r="C152">
         <v>6</v>
       </c>
@@ -5800,7 +5800,7 @@
         <v>9.1030303030303017</v>
       </c>
     </row>
-    <row r="153" spans="3:13">
+    <row r="153" spans="3:13" hidden="1">
       <c r="C153">
         <v>7</v>
       </c>
@@ -5834,7 +5834,7 @@
         <v>9.7153945666235426</v>
       </c>
     </row>
-    <row r="154" spans="3:13">
+    <row r="154" spans="3:13" hidden="1">
       <c r="C154">
         <v>8</v>
       </c>
@@ -5868,7 +5868,7 @@
         <v>9.8556430446194216</v>
       </c>
     </row>
-    <row r="155" spans="3:13">
+    <row r="155" spans="3:13" hidden="1">
       <c r="C155">
         <v>9</v>
       </c>
@@ -5902,7 +5902,7 @@
         <v>7.51</v>
       </c>
     </row>
-    <row r="156" spans="3:13">
+    <row r="156" spans="3:13" hidden="1">
       <c r="C156">
         <v>10</v>
       </c>
@@ -5936,7 +5936,7 @@
         <v>5.7769230769230768</v>
       </c>
     </row>
-    <row r="157" spans="3:13">
+    <row r="157" spans="3:13" hidden="1">
       <c r="C157">
         <v>11</v>
       </c>
@@ -5970,7 +5970,7 @@
         <v>8.1277056277056268</v>
       </c>
     </row>
-    <row r="158" spans="3:13">
+    <row r="158" spans="3:13" hidden="1">
       <c r="C158">
         <v>12</v>
       </c>
@@ -6004,7 +6004,7 @@
         <v>6.8272727272727272</v>
       </c>
     </row>
-    <row r="159" spans="3:13">
+    <row r="159" spans="3:13" hidden="1">
       <c r="C159">
         <v>13</v>
       </c>
@@ -6038,7 +6038,7 @@
         <v>9.9602122015915118</v>
       </c>
     </row>
-    <row r="160" spans="3:13">
+    <row r="160" spans="3:13" hidden="1">
       <c r="C160">
         <v>14</v>
       </c>
@@ -6072,7 +6072,7 @@
         <v>5.4420289855072461</v>
       </c>
     </row>
-    <row r="161" spans="3:13">
+    <row r="161" spans="3:13" hidden="1">
       <c r="C161">
         <v>15</v>
       </c>
@@ -6106,7 +6106,7 @@
         <v>8.1453362255965285</v>
       </c>
     </row>
-    <row r="162" spans="3:13">
+    <row r="162" spans="3:13" hidden="1">
       <c r="C162">
         <v>16</v>
       </c>
@@ -6140,7 +6140,7 @@
         <v>5.6893939393939394</v>
       </c>
     </row>
-    <row r="163" spans="3:13">
+    <row r="163" spans="3:13" hidden="1">
       <c r="C163">
         <v>17</v>
       </c>
@@ -6174,7 +6174,7 @@
         <v>6.2583333333333329</v>
       </c>
     </row>
-    <row r="164" spans="3:13">
+    <row r="164" spans="3:13" hidden="1">
       <c r="C164">
         <v>18</v>
       </c>
@@ -6208,7 +6208,7 @@
         <v>7.7904564315352687</v>
       </c>
     </row>
-    <row r="165" spans="3:13">
+    <row r="165" spans="3:13" hidden="1">
       <c r="C165">
         <v>19</v>
       </c>
@@ -6242,7 +6242,7 @@
         <v>7.6632653061224483</v>
       </c>
     </row>
-    <row r="166" spans="3:13">
+    <row r="166" spans="3:13" hidden="1">
       <c r="C166">
         <v>20</v>
       </c>
@@ -6276,7 +6276,7 @@
         <v>5.2152777777777777</v>
       </c>
     </row>
-    <row r="167" spans="3:13">
+    <row r="167" spans="3:13" hidden="1">
       <c r="C167">
         <v>21</v>
       </c>
@@ -6310,7 +6310,7 @@
         <v>8.2436882546652033</v>
       </c>
     </row>
-    <row r="168" spans="3:13">
+    <row r="168" spans="3:13" hidden="1">
       <c r="C168">
         <v>22</v>
       </c>
@@ -6344,7 +6344,7 @@
         <v>6.4188034188034191</v>
       </c>
     </row>
-    <row r="169" spans="3:13">
+    <row r="169" spans="3:13" hidden="1">
       <c r="C169">
         <v>23</v>
       </c>
@@ -6378,7 +6378,7 @@
         <v>5.8217054263565888</v>
       </c>
     </row>
-    <row r="170" spans="3:13">
+    <row r="170" spans="3:13" hidden="1">
       <c r="C170">
         <v>24</v>
       </c>
@@ -6412,7 +6412,7 @@
         <v>7.0849056603773581</v>
       </c>
     </row>
-    <row r="171" spans="3:13">
+    <row r="171" spans="3:13" hidden="1">
       <c r="C171">
         <v>25</v>
       </c>
@@ -6446,7 +6446,7 @@
         <v>6.8272727272727272</v>
       </c>
     </row>
-    <row r="172" spans="3:13">
+    <row r="172" spans="3:13" hidden="1">
       <c r="C172">
         <v>26</v>
       </c>
@@ -6480,7 +6480,7 @@
         <v>12.433774834437084</v>
       </c>
     </row>
-    <row r="173" spans="3:13">
+    <row r="173" spans="3:13" hidden="1">
       <c r="C173">
         <v>27</v>
       </c>
@@ -6514,7 +6514,7 @@
         <v>7.6710929519918283</v>
       </c>
     </row>
-    <row r="174" spans="3:13">
+    <row r="174" spans="3:13" hidden="1">
       <c r="C174">
         <v>28</v>
       </c>
@@ -6548,7 +6548,7 @@
         <v>5.8671874999999991</v>
       </c>
     </row>
-    <row r="175" spans="3:13">
+    <row r="175" spans="3:13" hidden="1">
       <c r="C175">
         <v>29</v>
       </c>
@@ -6692,7 +6692,7 @@
         <v>5.6818181818181825</v>
       </c>
     </row>
-    <row r="183" spans="3:13">
+    <row r="183" spans="3:13" hidden="1">
       <c r="C183">
         <v>2</v>
       </c>
@@ -6726,7 +6726,7 @@
         <v>6.6460176991150437</v>
       </c>
     </row>
-    <row r="184" spans="3:13">
+    <row r="184" spans="3:13" hidden="1">
       <c r="C184">
         <v>3</v>
       </c>
@@ -6760,7 +6760,7 @@
         <v>6.7053571428571423</v>
       </c>
     </row>
-    <row r="185" spans="3:13">
+    <row r="185" spans="3:13" hidden="1">
       <c r="C185">
         <v>4</v>
       </c>
@@ -6794,7 +6794,7 @@
         <v>10.387275242047025</v>
       </c>
     </row>
-    <row r="186" spans="3:13">
+    <row r="186" spans="3:13" hidden="1">
       <c r="C186">
         <v>5</v>
       </c>
@@ -6828,7 +6828,7 @@
         <v>11.661490683229813</v>
       </c>
     </row>
-    <row r="187" spans="3:13">
+    <row r="187" spans="3:13" hidden="1">
       <c r="C187">
         <v>6</v>
       </c>
@@ -6862,7 +6862,7 @@
         <v>9.0373044524669055</v>
       </c>
     </row>
-    <row r="188" spans="3:13">
+    <row r="188" spans="3:13" hidden="1">
       <c r="C188">
         <v>7</v>
       </c>
@@ -6896,7 +6896,7 @@
         <v>9.7153945666235426</v>
       </c>
     </row>
-    <row r="189" spans="3:13">
+    <row r="189" spans="3:13" hidden="1">
       <c r="C189">
         <v>8</v>
       </c>
@@ -6930,7 +6930,7 @@
         <v>9.7028423772609802</v>
       </c>
     </row>
-    <row r="190" spans="3:13">
+    <row r="190" spans="3:13" hidden="1">
       <c r="C190">
         <v>9</v>
       </c>
@@ -6964,7 +6964,7 @@
         <v>7.3627450980392153</v>
       </c>
     </row>
-    <row r="191" spans="3:13">
+    <row r="191" spans="3:13" hidden="1">
       <c r="C191">
         <v>10</v>
       </c>
@@ -6998,7 +6998,7 @@
         <v>5.7769230769230768</v>
       </c>
     </row>
-    <row r="192" spans="3:13">
+    <row r="192" spans="3:13" hidden="1">
       <c r="C192">
         <v>11</v>
       </c>
@@ -7032,7 +7032,7 @@
         <v>8.0493033226152182</v>
       </c>
     </row>
-    <row r="193" spans="3:13">
+    <row r="193" spans="3:13" hidden="1">
       <c r="C193">
         <v>12</v>
       </c>
@@ -7066,7 +7066,7 @@
         <v>6.8272727272727272</v>
       </c>
     </row>
-    <row r="194" spans="3:13">
+    <row r="194" spans="3:13" hidden="1">
       <c r="C194">
         <v>13</v>
       </c>
@@ -7100,7 +7100,7 @@
         <v>9.8945981554677207</v>
       </c>
     </row>
-    <row r="195" spans="3:13">
+    <row r="195" spans="3:13" hidden="1">
       <c r="C195">
         <v>14</v>
       </c>
@@ -7134,7 +7134,7 @@
         <v>4.9407894736842106</v>
       </c>
     </row>
-    <row r="196" spans="3:13">
+    <row r="196" spans="3:13" hidden="1">
       <c r="C196">
         <v>15</v>
       </c>
@@ -7168,7 +7168,7 @@
         <v>7.8310740354535966</v>
       </c>
     </row>
-    <row r="197" spans="3:13">
+    <row r="197" spans="3:13" hidden="1">
       <c r="C197">
         <v>16</v>
       </c>
@@ -7178,22 +7178,31 @@
       <c r="F197">
         <v>2000</v>
       </c>
+      <c r="G197">
+        <v>81.95</v>
+      </c>
+      <c r="H197">
+        <v>1.87</v>
+      </c>
       <c r="I197">
         <v>12.8</v>
       </c>
       <c r="J197">
         <v>75.099999999999994</v>
       </c>
-      <c r="L197" t="e">
+      <c r="K197">
+        <v>13.3</v>
+      </c>
+      <c r="L197">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M197" t="e">
+        <v>0.96240601503759393</v>
+      </c>
+      <c r="M197">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="198" spans="3:13">
+        <v>5.6466165413533824</v>
+      </c>
+    </row>
+    <row r="198" spans="3:13" hidden="1">
       <c r="C198">
         <v>17</v>
       </c>
@@ -7203,22 +7212,31 @@
       <c r="F198">
         <v>2000</v>
       </c>
+      <c r="G198">
+        <v>62.13</v>
+      </c>
+      <c r="H198">
+        <v>2.17</v>
+      </c>
       <c r="I198">
         <v>18.600000000000001</v>
       </c>
       <c r="J198">
         <v>75.099999999999994</v>
       </c>
-      <c r="L198" t="e">
+      <c r="K198">
+        <v>12.4</v>
+      </c>
+      <c r="L198">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M198" t="e">
+        <v>1.5</v>
+      </c>
+      <c r="M198">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="199" spans="3:13">
+        <v>6.0564516129032251</v>
+      </c>
+    </row>
+    <row r="199" spans="3:13" hidden="1">
       <c r="C199">
         <v>18</v>
       </c>
@@ -7228,22 +7246,31 @@
       <c r="F199">
         <v>2000</v>
       </c>
+      <c r="G199">
+        <v>59.95</v>
+      </c>
+      <c r="H199">
+        <v>2.1800000000000002</v>
+      </c>
       <c r="I199">
         <v>20.399999999999999</v>
       </c>
       <c r="J199">
         <v>75.099999999999994</v>
       </c>
-      <c r="L199" t="e">
+      <c r="K199">
+        <v>9.75</v>
+      </c>
+      <c r="L199">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M199" t="e">
+        <v>2.092307692307692</v>
+      </c>
+      <c r="M199">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="200" spans="3:13">
+        <v>7.7025641025641018</v>
+      </c>
+    </row>
+    <row r="200" spans="3:13" hidden="1">
       <c r="C200">
         <v>19</v>
       </c>
@@ -7253,22 +7280,31 @@
       <c r="F200">
         <v>2000</v>
       </c>
+      <c r="G200">
+        <v>74.09</v>
+      </c>
+      <c r="H200">
+        <v>2.1800000000000002</v>
+      </c>
       <c r="I200">
         <v>15.1</v>
       </c>
       <c r="J200">
         <v>75.099999999999994</v>
       </c>
-      <c r="L200" t="e">
+      <c r="K200">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="L200">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M200" t="e">
+        <v>1.4803921568627452</v>
+      </c>
+      <c r="M200">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="201" spans="3:13">
+        <v>7.3627450980392153</v>
+      </c>
+    </row>
+    <row r="201" spans="3:13" hidden="1">
       <c r="C201">
         <v>20</v>
       </c>
@@ -7278,22 +7314,31 @@
       <c r="F201">
         <v>2000</v>
       </c>
+      <c r="G201">
+        <v>72.319999999999993</v>
+      </c>
+      <c r="H201">
+        <v>2.2799999999999998</v>
+      </c>
       <c r="I201">
         <v>14</v>
       </c>
       <c r="J201">
         <v>75.099999999999994</v>
       </c>
-      <c r="L201" t="e">
+      <c r="K201">
+        <v>14.5</v>
+      </c>
+      <c r="L201">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M201" t="e">
+        <v>0.96551724137931039</v>
+      </c>
+      <c r="M201">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="202" spans="3:13">
+        <v>5.1793103448275861</v>
+      </c>
+    </row>
+    <row r="202" spans="3:13" hidden="1">
       <c r="C202">
         <v>21</v>
       </c>
@@ -7303,22 +7348,31 @@
       <c r="F202">
         <v>2000</v>
       </c>
+      <c r="G202">
+        <v>63.49</v>
+      </c>
+      <c r="H202">
+        <v>1.64</v>
+      </c>
       <c r="I202">
         <v>13</v>
       </c>
       <c r="J202">
         <v>75.099999999999994</v>
       </c>
-      <c r="L202" t="e">
+      <c r="K202">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="L202">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M202" t="e">
+        <v>1.3859275053304903</v>
+      </c>
+      <c r="M202">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="203" spans="3:13">
+        <v>8.0063965884861403</v>
+      </c>
+    </row>
+    <row r="203" spans="3:13" hidden="1">
       <c r="C203">
         <v>22</v>
       </c>
@@ -7328,22 +7382,31 @@
       <c r="F203">
         <v>2000</v>
       </c>
+      <c r="G203">
+        <v>64.14</v>
+      </c>
+      <c r="H203">
+        <v>2.1800000000000002</v>
+      </c>
       <c r="I203">
         <v>11.8</v>
       </c>
       <c r="J203">
         <v>75.099999999999994</v>
       </c>
-      <c r="L203" t="e">
+      <c r="K203">
+        <v>11.6</v>
+      </c>
+      <c r="L203">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M203" t="e">
+        <v>1.017241379310345</v>
+      </c>
+      <c r="M203">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="204" spans="3:13">
+        <v>6.4741379310344822</v>
+      </c>
+    </row>
+    <row r="204" spans="3:13" hidden="1">
       <c r="C204">
         <v>23</v>
       </c>
@@ -7353,22 +7416,31 @@
       <c r="F204">
         <v>2000</v>
       </c>
+      <c r="G204">
+        <v>66.89</v>
+      </c>
+      <c r="H204">
+        <v>2.23</v>
+      </c>
       <c r="I204">
         <v>13.7</v>
       </c>
       <c r="J204">
         <v>75.099999999999994</v>
       </c>
-      <c r="L204" t="e">
+      <c r="K204">
+        <v>12.9</v>
+      </c>
+      <c r="L204">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M204" t="e">
+        <v>1.0620155038759689</v>
+      </c>
+      <c r="M204">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="205" spans="3:13">
+        <v>5.8217054263565888</v>
+      </c>
+    </row>
+    <row r="205" spans="3:13" hidden="1">
       <c r="C205">
         <v>24</v>
       </c>
@@ -7378,22 +7450,31 @@
       <c r="F205">
         <v>2000</v>
       </c>
+      <c r="G205">
+        <v>57.13</v>
+      </c>
+      <c r="H205">
+        <v>2.19</v>
+      </c>
       <c r="I205">
         <v>10.4</v>
       </c>
       <c r="J205">
         <v>75.099999999999994</v>
       </c>
-      <c r="L205" t="e">
+      <c r="K205">
+        <v>10.3</v>
+      </c>
+      <c r="L205">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M205" t="e">
+        <v>1.0097087378640777</v>
+      </c>
+      <c r="M205">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="206" spans="3:13">
+        <v>7.2912621359223291</v>
+      </c>
+    </row>
+    <row r="206" spans="3:13" hidden="1">
       <c r="C206">
         <v>25</v>
       </c>
@@ -7403,22 +7484,31 @@
       <c r="F206">
         <v>2000</v>
       </c>
+      <c r="G206">
+        <v>47.28</v>
+      </c>
+      <c r="H206">
+        <v>2.25</v>
+      </c>
       <c r="I206">
         <v>9.4600000000000009</v>
       </c>
       <c r="J206">
         <v>75.099999999999994</v>
       </c>
-      <c r="L206" t="e">
+      <c r="K206">
+        <v>11.1</v>
+      </c>
+      <c r="L206">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M206" t="e">
+        <v>0.85225225225225232</v>
+      </c>
+      <c r="M206">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="207" spans="3:13">
+        <v>6.7657657657657655</v>
+      </c>
+    </row>
+    <row r="207" spans="3:13" hidden="1">
       <c r="C207">
         <v>26</v>
       </c>
@@ -7428,22 +7518,31 @@
       <c r="F207">
         <v>2000</v>
       </c>
+      <c r="G207">
+        <v>37.67</v>
+      </c>
+      <c r="H207">
+        <v>2.1800000000000002</v>
+      </c>
       <c r="I207">
         <v>13.1</v>
       </c>
       <c r="J207">
         <v>75.099999999999994</v>
       </c>
-      <c r="L207" t="e">
+      <c r="K207">
+        <v>6.18</v>
+      </c>
+      <c r="L207">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M207" t="e">
+        <v>2.1197411003236248</v>
+      </c>
+      <c r="M207">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="208" spans="3:13">
+        <v>12.15210355987055</v>
+      </c>
+    </row>
+    <row r="208" spans="3:13" hidden="1">
       <c r="C208">
         <v>27</v>
       </c>
@@ -7453,22 +7552,31 @@
       <c r="F208">
         <v>2000</v>
       </c>
+      <c r="G208">
+        <v>57.19</v>
+      </c>
+      <c r="H208">
+        <v>2.23</v>
+      </c>
       <c r="I208">
         <v>9.23</v>
       </c>
       <c r="J208">
         <v>75.099999999999994</v>
       </c>
-      <c r="L208" t="e">
+      <c r="K208">
+        <v>9.66</v>
+      </c>
+      <c r="L208">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M208" t="e">
+        <v>0.95548654244306419</v>
+      </c>
+      <c r="M208">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="209" spans="3:13">
+        <v>7.774327122153208</v>
+      </c>
+    </row>
+    <row r="209" spans="3:13" hidden="1">
       <c r="C209">
         <v>28</v>
       </c>
@@ -7478,22 +7586,31 @@
       <c r="F209">
         <v>2000</v>
       </c>
+      <c r="G209">
+        <v>56.3</v>
+      </c>
+      <c r="H209">
+        <v>2.19</v>
+      </c>
       <c r="I209">
         <v>14.9</v>
       </c>
       <c r="J209">
         <v>75.099999999999994</v>
       </c>
-      <c r="L209" t="e">
+      <c r="K209">
+        <v>12.9</v>
+      </c>
+      <c r="L209">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M209" t="e">
+        <v>1.1550387596899225</v>
+      </c>
+      <c r="M209">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="210" spans="3:13">
+        <v>5.8217054263565888</v>
+      </c>
+    </row>
+    <row r="210" spans="3:13" hidden="1">
       <c r="C210">
         <v>29</v>
       </c>
@@ -7503,19 +7620,28 @@
       <c r="F210">
         <v>2000</v>
       </c>
+      <c r="G210">
+        <v>72.88</v>
+      </c>
+      <c r="H210">
+        <v>2.1800000000000002</v>
+      </c>
       <c r="I210">
         <v>10.6</v>
       </c>
       <c r="J210">
         <v>75.099999999999994</v>
       </c>
-      <c r="L210" t="e">
+      <c r="K210">
+        <v>13.7</v>
+      </c>
+      <c r="L210">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M210" t="e">
+        <v>0.77372262773722633</v>
+      </c>
+      <c r="M210">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+        <v>5.4817518248175183</v>
       </c>
     </row>
     <row r="211" spans="3:13">
@@ -7528,11 +7654,11 @@
       </c>
       <c r="G211">
         <f t="shared" ref="G211:M211" si="26">AVERAGE(G182:G210)</f>
-        <v>87.19</v>
+        <v>75.215862068965535</v>
       </c>
       <c r="H211">
         <f t="shared" si="26"/>
-        <v>2.738666666666667</v>
+        <v>2.4493103448275866</v>
       </c>
       <c r="I211">
         <f t="shared" si="26"/>
@@ -7544,15 +7670,15 @@
       </c>
       <c r="K211">
         <f t="shared" si="26"/>
-        <v>9.9373333333333331</v>
-      </c>
-      <c r="L211" t="e">
+        <v>10.583793103448276</v>
+      </c>
+      <c r="L211">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M211" t="e">
+        <v>1.2042506868131779</v>
+      </c>
+      <c r="M211">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
+        <v>7.5088637832870715</v>
       </c>
     </row>
     <row r="215" spans="3:13" s="2" customFormat="1"/>
@@ -7626,7 +7752,7 @@
         <v>17.482517482517483</v>
       </c>
     </row>
-    <row r="221" spans="3:13">
+    <row r="221" spans="3:13" hidden="1">
       <c r="C221">
         <v>2</v>
       </c>
@@ -7636,22 +7762,31 @@
       <c r="F221">
         <v>2000</v>
       </c>
+      <c r="G221">
+        <v>41.76</v>
+      </c>
+      <c r="H221">
+        <v>2.34</v>
+      </c>
       <c r="I221">
         <v>11.3</v>
       </c>
       <c r="J221">
         <v>75.099999999999994</v>
       </c>
-      <c r="L221" t="e">
+      <c r="K221">
+        <v>4.28</v>
+      </c>
+      <c r="L221">
         <f t="shared" ref="L221:L248" si="27">I221/K221</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M221" t="e">
+        <v>2.6401869158878504</v>
+      </c>
+      <c r="M221">
         <f t="shared" ref="M221:M248" si="28">J221/K221</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="222" spans="3:13">
+        <v>17.546728971962615</v>
+      </c>
+    </row>
+    <row r="222" spans="3:13" hidden="1">
       <c r="C222">
         <v>3</v>
       </c>
@@ -7661,22 +7796,31 @@
       <c r="F222">
         <v>2000</v>
       </c>
+      <c r="G222">
+        <v>41.23</v>
+      </c>
+      <c r="H222">
+        <v>2.71</v>
+      </c>
       <c r="I222">
         <v>12.1</v>
       </c>
       <c r="J222">
         <v>75.099999999999994</v>
       </c>
-      <c r="L222" t="e">
+      <c r="K222">
+        <v>4.29</v>
+      </c>
+      <c r="L222">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M222" t="e">
+        <v>2.8205128205128203</v>
+      </c>
+      <c r="M222">
         <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="223" spans="3:13">
+        <v>17.505827505827504</v>
+      </c>
+    </row>
+    <row r="223" spans="3:13" hidden="1">
       <c r="C223">
         <v>4</v>
       </c>
@@ -7686,22 +7830,31 @@
       <c r="F223">
         <v>2000</v>
       </c>
+      <c r="G223">
+        <v>41.93</v>
+      </c>
+      <c r="H223">
+        <v>1.68</v>
+      </c>
       <c r="I223">
         <v>11.9</v>
       </c>
       <c r="J223">
         <v>75.099999999999994</v>
       </c>
-      <c r="L223" t="e">
+      <c r="K223">
+        <v>4.26</v>
+      </c>
+      <c r="L223">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M223" t="e">
+        <v>2.7934272300469485</v>
+      </c>
+      <c r="M223">
         <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="224" spans="3:13">
+        <v>17.629107981220656</v>
+      </c>
+    </row>
+    <row r="224" spans="3:13" hidden="1">
       <c r="C224">
         <v>5</v>
       </c>
@@ -7711,22 +7864,31 @@
       <c r="F224">
         <v>2000</v>
       </c>
+      <c r="G224">
+        <v>29.12</v>
+      </c>
+      <c r="H224">
+        <v>2.2799999999999998</v>
+      </c>
       <c r="I224">
         <v>12.4</v>
       </c>
       <c r="J224">
         <v>75.099999999999994</v>
       </c>
-      <c r="L224" t="e">
+      <c r="K224">
+        <v>4.28</v>
+      </c>
+      <c r="L224">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M224" t="e">
+        <v>2.8971962616822431</v>
+      </c>
+      <c r="M224">
         <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="225" spans="3:13">
+        <v>17.546728971962615</v>
+      </c>
+    </row>
+    <row r="225" spans="3:13" hidden="1">
       <c r="C225">
         <v>6</v>
       </c>
@@ -7736,22 +7898,31 @@
       <c r="F225">
         <v>2000</v>
       </c>
+      <c r="G225">
+        <v>27.89</v>
+      </c>
+      <c r="H225">
+        <v>2.1</v>
+      </c>
       <c r="I225">
         <v>11.8</v>
       </c>
       <c r="J225">
         <v>75.099999999999994</v>
       </c>
-      <c r="L225" t="e">
+      <c r="K225">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="L225">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M225" t="e">
+        <v>2.7634660421545671</v>
+      </c>
+      <c r="M225">
         <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="226" spans="3:13">
+        <v>17.587822014051522</v>
+      </c>
+    </row>
+    <row r="226" spans="3:13" hidden="1">
       <c r="C226">
         <v>7</v>
       </c>
@@ -7760,6 +7931,12 @@
       </c>
       <c r="F226">
         <v>2000</v>
+      </c>
+      <c r="G226">
+        <v>28.83</v>
+      </c>
+      <c r="H226">
+        <v>2.15</v>
       </c>
       <c r="I226">
         <v>13.3</v>
@@ -7767,16 +7944,19 @@
       <c r="J226">
         <v>75.099999999999994</v>
       </c>
-      <c r="L226" t="e">
+      <c r="K226">
+        <v>4.08</v>
+      </c>
+      <c r="L226">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M226" t="e">
+        <v>3.2598039215686274</v>
+      </c>
+      <c r="M226">
         <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="227" spans="3:13">
+        <v>18.406862745098039</v>
+      </c>
+    </row>
+    <row r="227" spans="3:13" hidden="1">
       <c r="C227">
         <v>8</v>
       </c>
@@ -7786,22 +7966,31 @@
       <c r="F227">
         <v>2000</v>
       </c>
+      <c r="G227">
+        <v>28.28</v>
+      </c>
+      <c r="H227">
+        <v>1.79</v>
+      </c>
       <c r="I227">
         <v>12.8</v>
       </c>
       <c r="J227">
         <v>75.099999999999994</v>
       </c>
-      <c r="L227" t="e">
+      <c r="K227">
+        <v>4.28</v>
+      </c>
+      <c r="L227">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M227" t="e">
+        <v>2.9906542056074765</v>
+      </c>
+      <c r="M227">
         <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="228" spans="3:13">
+        <v>17.546728971962615</v>
+      </c>
+    </row>
+    <row r="228" spans="3:13" hidden="1">
       <c r="C228">
         <v>9</v>
       </c>
@@ -7811,22 +8000,31 @@
       <c r="F228">
         <v>2000</v>
       </c>
+      <c r="G228">
+        <v>28.56</v>
+      </c>
+      <c r="H228">
+        <v>2.1800000000000002</v>
+      </c>
       <c r="I228">
         <v>10</v>
       </c>
       <c r="J228">
         <v>75.099999999999994</v>
       </c>
-      <c r="L228" t="e">
+      <c r="K228">
+        <v>4.24</v>
+      </c>
+      <c r="L228">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M228" t="e">
+        <v>2.3584905660377355</v>
+      </c>
+      <c r="M228">
         <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="229" spans="3:13">
+        <v>17.712264150943394</v>
+      </c>
+    </row>
+    <row r="229" spans="3:13" hidden="1">
       <c r="C229">
         <v>10</v>
       </c>
@@ -7836,22 +8034,31 @@
       <c r="F229">
         <v>2000</v>
       </c>
+      <c r="G229">
+        <v>28.28</v>
+      </c>
+      <c r="H229">
+        <v>2.19</v>
+      </c>
       <c r="I229">
         <v>12.4</v>
       </c>
       <c r="J229">
         <v>75.099999999999994</v>
       </c>
-      <c r="L229" t="e">
+      <c r="K229">
+        <v>4.3</v>
+      </c>
+      <c r="L229">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M229" t="e">
+        <v>2.8837209302325584</v>
+      </c>
+      <c r="M229">
         <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="230" spans="3:13">
+        <v>17.465116279069768</v>
+      </c>
+    </row>
+    <row r="230" spans="3:13" hidden="1">
       <c r="C230">
         <v>11</v>
       </c>
@@ -7861,22 +8068,31 @@
       <c r="F230">
         <v>2000</v>
       </c>
+      <c r="G230">
+        <v>28.49</v>
+      </c>
+      <c r="H230">
+        <v>2.17</v>
+      </c>
       <c r="I230">
         <v>7.52</v>
       </c>
       <c r="J230">
         <v>75.099999999999994</v>
       </c>
-      <c r="L230" t="e">
+      <c r="K230">
+        <v>4.28</v>
+      </c>
+      <c r="L230">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M230" t="e">
+        <v>1.7570093457943923</v>
+      </c>
+      <c r="M230">
         <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="231" spans="3:13">
+        <v>17.546728971962615</v>
+      </c>
+    </row>
+    <row r="231" spans="3:13" hidden="1">
       <c r="C231">
         <v>12</v>
       </c>
@@ -7886,22 +8102,31 @@
       <c r="F231">
         <v>2000</v>
       </c>
+      <c r="G231">
+        <v>28.45</v>
+      </c>
+      <c r="H231">
+        <v>2.17</v>
+      </c>
       <c r="I231">
         <v>11.7</v>
       </c>
       <c r="J231">
         <v>75.099999999999994</v>
       </c>
-      <c r="L231" t="e">
+      <c r="K231">
+        <v>4.28</v>
+      </c>
+      <c r="L231">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M231" t="e">
+        <v>2.7336448598130838</v>
+      </c>
+      <c r="M231">
         <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="232" spans="3:13">
+        <v>17.546728971962615</v>
+      </c>
+    </row>
+    <row r="232" spans="3:13" hidden="1">
       <c r="C232">
         <v>13</v>
       </c>
@@ -7911,22 +8136,31 @@
       <c r="F232">
         <v>2000</v>
       </c>
+      <c r="G232">
+        <v>28.56</v>
+      </c>
+      <c r="H232">
+        <v>2.23</v>
+      </c>
       <c r="I232">
         <v>9.25</v>
       </c>
       <c r="J232">
         <v>75.099999999999994</v>
       </c>
-      <c r="L232" t="e">
+      <c r="K232">
+        <v>4.28</v>
+      </c>
+      <c r="L232">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M232" t="e">
+        <v>2.1612149532710281</v>
+      </c>
+      <c r="M232">
         <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="233" spans="3:13">
+        <v>17.546728971962615</v>
+      </c>
+    </row>
+    <row r="233" spans="3:13" hidden="1">
       <c r="C233">
         <v>14</v>
       </c>
@@ -7936,22 +8170,31 @@
       <c r="F233">
         <v>2000</v>
       </c>
+      <c r="G233">
+        <v>28.52</v>
+      </c>
+      <c r="H233">
+        <v>2.23</v>
+      </c>
       <c r="I233">
         <v>15.6</v>
       </c>
       <c r="J233">
         <v>75.099999999999994</v>
       </c>
-      <c r="L233" t="e">
+      <c r="K233">
+        <v>4.28</v>
+      </c>
+      <c r="L233">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M233" t="e">
+        <v>3.6448598130841119</v>
+      </c>
+      <c r="M233">
         <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="234" spans="3:13">
+        <v>17.546728971962615</v>
+      </c>
+    </row>
+    <row r="234" spans="3:13" hidden="1">
       <c r="C234">
         <v>15</v>
       </c>
@@ -7961,22 +8204,31 @@
       <c r="F234">
         <v>2000</v>
       </c>
+      <c r="G234">
+        <v>28.52</v>
+      </c>
+      <c r="H234">
+        <v>2.1800000000000002</v>
+      </c>
       <c r="I234">
         <v>6.84</v>
       </c>
       <c r="J234">
         <v>75.099999999999994</v>
       </c>
-      <c r="L234" t="e">
+      <c r="K234">
+        <v>4.28</v>
+      </c>
+      <c r="L234">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M234" t="e">
+        <v>1.5981308411214952</v>
+      </c>
+      <c r="M234">
         <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="235" spans="3:13">
+        <v>17.546728971962615</v>
+      </c>
+    </row>
+    <row r="235" spans="3:13" hidden="1">
       <c r="C235">
         <v>16</v>
       </c>
@@ -7986,22 +8238,31 @@
       <c r="F235">
         <v>2000</v>
       </c>
+      <c r="G235">
+        <v>28.58</v>
+      </c>
+      <c r="H235">
+        <v>2.1800000000000002</v>
+      </c>
       <c r="I235">
         <v>12.8</v>
       </c>
       <c r="J235">
         <v>75.099999999999994</v>
       </c>
-      <c r="L235" t="e">
+      <c r="K235">
+        <v>4.29</v>
+      </c>
+      <c r="L235">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M235" t="e">
+        <v>2.9836829836829839</v>
+      </c>
+      <c r="M235">
         <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="236" spans="3:13">
+        <v>17.505827505827504</v>
+      </c>
+    </row>
+    <row r="236" spans="3:13" hidden="1">
       <c r="C236">
         <v>17</v>
       </c>
@@ -8011,22 +8272,31 @@
       <c r="F236">
         <v>2000</v>
       </c>
+      <c r="G236">
+        <v>28.72</v>
+      </c>
+      <c r="H236">
+        <v>2.31</v>
+      </c>
       <c r="I236">
         <v>18.600000000000001</v>
       </c>
       <c r="J236">
         <v>75.099999999999994</v>
       </c>
-      <c r="L236" t="e">
+      <c r="K236">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="L236">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M236" t="e">
+        <v>4.3559718969555039</v>
+      </c>
+      <c r="M236">
         <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="237" spans="3:13">
+        <v>17.587822014051522</v>
+      </c>
+    </row>
+    <row r="237" spans="3:13" hidden="1">
       <c r="C237">
         <v>18</v>
       </c>
@@ -8036,22 +8306,31 @@
       <c r="F237">
         <v>2000</v>
       </c>
+      <c r="G237">
+        <v>28.63</v>
+      </c>
+      <c r="H237">
+        <v>2.29</v>
+      </c>
       <c r="I237">
         <v>20.399999999999999</v>
       </c>
       <c r="J237">
         <v>75.099999999999994</v>
       </c>
-      <c r="L237" t="e">
+      <c r="K237">
+        <v>4.28</v>
+      </c>
+      <c r="L237">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M237" t="e">
+        <v>4.7663551401869153</v>
+      </c>
+      <c r="M237">
         <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="238" spans="3:13">
+        <v>17.546728971962615</v>
+      </c>
+    </row>
+    <row r="238" spans="3:13" hidden="1">
       <c r="C238">
         <v>19</v>
       </c>
@@ -8061,22 +8340,31 @@
       <c r="F238">
         <v>2000</v>
       </c>
+      <c r="G238">
+        <v>28.74</v>
+      </c>
+      <c r="H238">
+        <v>2.29</v>
+      </c>
       <c r="I238">
         <v>15.1</v>
       </c>
       <c r="J238">
         <v>75.099999999999994</v>
       </c>
-      <c r="L238" t="e">
+      <c r="K238">
+        <v>4.32</v>
+      </c>
+      <c r="L238">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M238" t="e">
+        <v>3.4953703703703702</v>
+      </c>
+      <c r="M238">
         <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="239" spans="3:13">
+        <v>17.384259259259256</v>
+      </c>
+    </row>
+    <row r="239" spans="3:13" hidden="1">
       <c r="C239">
         <v>20</v>
       </c>
@@ -8086,22 +8374,31 @@
       <c r="F239">
         <v>2000</v>
       </c>
+      <c r="G239">
+        <v>28.72</v>
+      </c>
+      <c r="H239">
+        <v>2.25</v>
+      </c>
       <c r="I239">
         <v>14</v>
       </c>
       <c r="J239">
         <v>75.099999999999994</v>
       </c>
-      <c r="L239" t="e">
+      <c r="K239">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="L239">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M239" t="e">
+        <v>3.2786885245901645</v>
+      </c>
+      <c r="M239">
         <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="240" spans="3:13">
+        <v>17.587822014051522</v>
+      </c>
+    </row>
+    <row r="240" spans="3:13" hidden="1">
       <c r="C240">
         <v>21</v>
       </c>
@@ -8111,22 +8408,31 @@
       <c r="F240">
         <v>2000</v>
       </c>
+      <c r="G240">
+        <v>28.64</v>
+      </c>
+      <c r="H240">
+        <v>1.71</v>
+      </c>
       <c r="I240">
         <v>13</v>
       </c>
       <c r="J240">
         <v>75.099999999999994</v>
       </c>
-      <c r="L240" t="e">
+      <c r="K240">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="L240">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M240" t="e">
+        <v>3.0444964871194382</v>
+      </c>
+      <c r="M240">
         <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="241" spans="3:13">
+        <v>17.587822014051522</v>
+      </c>
+    </row>
+    <row r="241" spans="3:13" hidden="1">
       <c r="C241">
         <v>22</v>
       </c>
@@ -8136,22 +8442,31 @@
       <c r="F241">
         <v>2000</v>
       </c>
+      <c r="G241">
+        <v>28.7</v>
+      </c>
+      <c r="H241">
+        <v>2.2200000000000002</v>
+      </c>
       <c r="I241">
         <v>11.8</v>
       </c>
       <c r="J241">
         <v>75.099999999999994</v>
       </c>
-      <c r="L241" t="e">
+      <c r="K241">
+        <v>4.3</v>
+      </c>
+      <c r="L241">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M241" t="e">
+        <v>2.7441860465116283</v>
+      </c>
+      <c r="M241">
         <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="242" spans="3:13">
+        <v>17.465116279069768</v>
+      </c>
+    </row>
+    <row r="242" spans="3:13" hidden="1">
       <c r="C242">
         <v>23</v>
       </c>
@@ -8161,22 +8476,31 @@
       <c r="F242">
         <v>2000</v>
       </c>
+      <c r="G242">
+        <v>28.5</v>
+      </c>
+      <c r="H242">
+        <v>2.2599999999999998</v>
+      </c>
       <c r="I242">
         <v>13.7</v>
       </c>
       <c r="J242">
         <v>75.099999999999994</v>
       </c>
-      <c r="L242" t="e">
+      <c r="K242">
+        <v>4.3</v>
+      </c>
+      <c r="L242">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M242" t="e">
+        <v>3.1860465116279069</v>
+      </c>
+      <c r="M242">
         <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="243" spans="3:13">
+        <v>17.465116279069768</v>
+      </c>
+    </row>
+    <row r="243" spans="3:13" hidden="1">
       <c r="C243">
         <v>24</v>
       </c>
@@ -8186,22 +8510,31 @@
       <c r="F243">
         <v>2000</v>
       </c>
+      <c r="G243">
+        <v>28.44</v>
+      </c>
+      <c r="H243">
+        <v>2.25</v>
+      </c>
       <c r="I243">
         <v>10.4</v>
       </c>
       <c r="J243">
         <v>75.099999999999994</v>
       </c>
-      <c r="L243" t="e">
+      <c r="K243">
+        <v>4.3</v>
+      </c>
+      <c r="L243">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M243" t="e">
+        <v>2.418604651162791</v>
+      </c>
+      <c r="M243">
         <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="244" spans="3:13">
+        <v>17.465116279069768</v>
+      </c>
+    </row>
+    <row r="244" spans="3:13" hidden="1">
       <c r="C244">
         <v>25</v>
       </c>
@@ -8211,22 +8544,31 @@
       <c r="F244">
         <v>2000</v>
       </c>
+      <c r="G244">
+        <v>28.75</v>
+      </c>
+      <c r="H244">
+        <v>2.25</v>
+      </c>
       <c r="I244">
         <v>9.4600000000000009</v>
       </c>
       <c r="J244">
         <v>75.099999999999994</v>
       </c>
-      <c r="L244" t="e">
+      <c r="K244">
+        <v>4.3</v>
+      </c>
+      <c r="L244">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M244" t="e">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M244">
         <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="245" spans="3:13">
+        <v>17.465116279069768</v>
+      </c>
+    </row>
+    <row r="245" spans="3:13" hidden="1">
       <c r="C245">
         <v>26</v>
       </c>
@@ -8236,22 +8578,31 @@
       <c r="F245">
         <v>2000</v>
       </c>
+      <c r="G245">
+        <v>28.48</v>
+      </c>
+      <c r="H245">
+        <v>1.76</v>
+      </c>
       <c r="I245">
         <v>13.1</v>
       </c>
       <c r="J245">
         <v>75.099999999999994</v>
       </c>
-      <c r="L245" t="e">
+      <c r="K245">
+        <v>4.29</v>
+      </c>
+      <c r="L245">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M245" t="e">
+        <v>3.0536130536130535</v>
+      </c>
+      <c r="M245">
         <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="246" spans="3:13">
+        <v>17.505827505827504</v>
+      </c>
+    </row>
+    <row r="246" spans="3:13" hidden="1">
       <c r="C246">
         <v>27</v>
       </c>
@@ -8261,22 +8612,31 @@
       <c r="F246">
         <v>2000</v>
       </c>
+      <c r="G246">
+        <v>29.03</v>
+      </c>
+      <c r="H246">
+        <v>1.75</v>
+      </c>
       <c r="I246">
         <v>9.23</v>
       </c>
       <c r="J246">
         <v>75.099999999999994</v>
       </c>
-      <c r="L246" t="e">
+      <c r="K246">
+        <v>4.26</v>
+      </c>
+      <c r="L246">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M246" t="e">
+        <v>2.166666666666667</v>
+      </c>
+      <c r="M246">
         <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="247" spans="3:13">
+        <v>17.629107981220656</v>
+      </c>
+    </row>
+    <row r="247" spans="3:13" hidden="1">
       <c r="C247">
         <v>28</v>
       </c>
@@ -8286,22 +8646,31 @@
       <c r="F247">
         <v>2000</v>
       </c>
+      <c r="G247">
+        <v>28.63</v>
+      </c>
+      <c r="H247">
+        <v>2.2799999999999998</v>
+      </c>
       <c r="I247">
         <v>14.9</v>
       </c>
       <c r="J247">
         <v>75.099999999999994</v>
       </c>
-      <c r="L247" t="e">
+      <c r="K247">
+        <v>4.29</v>
+      </c>
+      <c r="L247">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M247" t="e">
+        <v>3.473193473193473</v>
+      </c>
+      <c r="M247">
         <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="248" spans="3:13">
+        <v>17.505827505827504</v>
+      </c>
+    </row>
+    <row r="248" spans="3:13" hidden="1">
       <c r="C248">
         <v>29</v>
       </c>
@@ -8311,19 +8680,28 @@
       <c r="F248">
         <v>2000</v>
       </c>
+      <c r="G248">
+        <v>29.09</v>
+      </c>
+      <c r="H248">
+        <v>2.2599999999999998</v>
+      </c>
       <c r="I248">
         <v>10.6</v>
       </c>
       <c r="J248">
         <v>75.099999999999994</v>
       </c>
-      <c r="L248" t="e">
+      <c r="K248">
+        <v>4.3</v>
+      </c>
+      <c r="L248">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M248" t="e">
+        <v>2.4651162790697674</v>
+      </c>
+      <c r="M248">
         <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
+        <v>17.465116279069768</v>
       </c>
     </row>
     <row r="249" spans="3:13">
@@ -8336,11 +8714,11 @@
       </c>
       <c r="G249">
         <f t="shared" ref="G249:M249" si="29">AVERAGE(G220:G248)</f>
-        <v>27.75</v>
+        <v>29.924827586206899</v>
       </c>
       <c r="H249">
         <f t="shared" si="29"/>
-        <v>1.78</v>
+        <v>2.1462068965517238</v>
       </c>
       <c r="I249">
         <f t="shared" si="29"/>
@@ -8352,15 +8730,15 @@
       </c>
       <c r="K249">
         <f t="shared" si="29"/>
-        <v>4.29</v>
-      </c>
-      <c r="L249" t="e">
+        <v>4.2762068965517237</v>
+      </c>
+      <c r="L249">
         <f t="shared" si="29"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M249" t="e">
+        <v>2.8315102748638887</v>
+      </c>
+      <c r="M249">
         <f t="shared" si="29"/>
-        <v>#DIV/0!</v>
+        <v>17.563102624201992</v>
       </c>
     </row>
     <row r="255" spans="3:13" ht="60">
@@ -8433,7 +8811,7 @@
         <v>17.40139211136891</v>
       </c>
     </row>
-    <row r="257" spans="3:13">
+    <row r="257" spans="3:13" hidden="1">
       <c r="C257">
         <v>2</v>
       </c>
@@ -8443,22 +8821,31 @@
       <c r="F257">
         <v>2000</v>
       </c>
+      <c r="G257">
+        <v>20.97</v>
+      </c>
+      <c r="H257">
+        <v>1.95</v>
+      </c>
       <c r="I257">
         <v>11.3</v>
       </c>
       <c r="J257">
         <v>75.099999999999994</v>
       </c>
-      <c r="L257" t="e">
+      <c r="K257">
+        <v>4.29</v>
+      </c>
+      <c r="L257">
         <f t="shared" ref="L257:L284" si="30">I257/K257</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M257" t="e">
+        <v>2.6340326340326343</v>
+      </c>
+      <c r="M257">
         <f t="shared" ref="M257:M284" si="31">J257/K257</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="258" spans="3:13">
+        <v>17.505827505827504</v>
+      </c>
+    </row>
+    <row r="258" spans="3:13" hidden="1">
       <c r="C258">
         <v>3</v>
       </c>
@@ -8468,22 +8855,31 @@
       <c r="F258">
         <v>2000</v>
       </c>
+      <c r="G258">
+        <v>17.52</v>
+      </c>
+      <c r="H258">
+        <v>2.69</v>
+      </c>
       <c r="I258">
         <v>12.1</v>
       </c>
       <c r="J258">
         <v>75.099999999999994</v>
       </c>
-      <c r="L258" t="e">
+      <c r="K258">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="L258">
         <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M258" t="e">
+        <v>2.8337236533957846</v>
+      </c>
+      <c r="M258">
         <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="259" spans="3:13">
+        <v>17.587822014051522</v>
+      </c>
+    </row>
+    <row r="259" spans="3:13" hidden="1">
       <c r="C259">
         <v>4</v>
       </c>
@@ -8493,22 +8889,31 @@
       <c r="F259">
         <v>2000</v>
       </c>
+      <c r="G259">
+        <v>20.16</v>
+      </c>
+      <c r="H259">
+        <v>2.62</v>
+      </c>
       <c r="I259">
         <v>11.9</v>
       </c>
       <c r="J259">
         <v>75.099999999999994</v>
       </c>
-      <c r="L259" t="e">
+      <c r="K259">
+        <v>4.26</v>
+      </c>
+      <c r="L259">
         <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M259" t="e">
+        <v>2.7934272300469485</v>
+      </c>
+      <c r="M259">
         <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="260" spans="3:13">
+        <v>17.629107981220656</v>
+      </c>
+    </row>
+    <row r="260" spans="3:13" hidden="1">
       <c r="C260">
         <v>5</v>
       </c>
@@ -8518,22 +8923,31 @@
       <c r="F260">
         <v>2000</v>
       </c>
+      <c r="G260">
+        <v>23.29</v>
+      </c>
+      <c r="H260">
+        <v>2.12</v>
+      </c>
       <c r="I260">
         <v>12.4</v>
       </c>
       <c r="J260">
         <v>75.099999999999994</v>
       </c>
-      <c r="L260" t="e">
+      <c r="K260">
+        <v>4.25</v>
+      </c>
+      <c r="L260">
         <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M260" t="e">
+        <v>2.9176470588235297</v>
+      </c>
+      <c r="M260">
         <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="261" spans="3:13">
+        <v>17.670588235294115</v>
+      </c>
+    </row>
+    <row r="261" spans="3:13" hidden="1">
       <c r="C261">
         <v>6</v>
       </c>
@@ -8543,22 +8957,31 @@
       <c r="F261">
         <v>2000</v>
       </c>
+      <c r="G261">
+        <v>10.95</v>
+      </c>
+      <c r="H261">
+        <v>2.4900000000000002</v>
+      </c>
       <c r="I261">
         <v>11.8</v>
       </c>
       <c r="J261">
         <v>75.099999999999994</v>
       </c>
-      <c r="L261" t="e">
+      <c r="K261">
+        <v>4.24</v>
+      </c>
+      <c r="L261">
         <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M261" t="e">
+        <v>2.7830188679245285</v>
+      </c>
+      <c r="M261">
         <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="262" spans="3:13">
+        <v>17.712264150943394</v>
+      </c>
+    </row>
+    <row r="262" spans="3:13" hidden="1">
       <c r="C262">
         <v>7</v>
       </c>
@@ -8568,22 +8991,31 @@
       <c r="F262">
         <v>2000</v>
       </c>
+      <c r="G262">
+        <v>20.059999999999999</v>
+      </c>
+      <c r="H262">
+        <v>2.42</v>
+      </c>
       <c r="I262">
         <v>13.3</v>
       </c>
       <c r="J262">
         <v>75.099999999999994</v>
       </c>
-      <c r="L262" t="e">
+      <c r="K262">
+        <v>4.09</v>
+      </c>
+      <c r="L262">
         <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M262" t="e">
+        <v>3.2518337408312963</v>
+      </c>
+      <c r="M262">
         <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="263" spans="3:13">
+        <v>18.361858190709047</v>
+      </c>
+    </row>
+    <row r="263" spans="3:13" hidden="1">
       <c r="C263">
         <v>8</v>
       </c>
@@ -8593,22 +9025,31 @@
       <c r="F263">
         <v>2000</v>
       </c>
+      <c r="G263">
+        <v>19.45</v>
+      </c>
+      <c r="H263">
+        <v>2.5099999999999998</v>
+      </c>
       <c r="I263">
         <v>12.8</v>
       </c>
       <c r="J263">
         <v>75.099999999999994</v>
       </c>
-      <c r="L263" t="e">
+      <c r="K263">
+        <v>4.28</v>
+      </c>
+      <c r="L263">
         <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M263" t="e">
+        <v>2.9906542056074765</v>
+      </c>
+      <c r="M263">
         <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="264" spans="3:13">
+        <v>17.546728971962615</v>
+      </c>
+    </row>
+    <row r="264" spans="3:13" hidden="1">
       <c r="C264">
         <v>9</v>
       </c>
@@ -8618,22 +9059,31 @@
       <c r="F264">
         <v>2000</v>
       </c>
+      <c r="G264">
+        <v>10.33</v>
+      </c>
+      <c r="H264">
+        <v>2.31</v>
+      </c>
       <c r="I264">
         <v>10</v>
       </c>
       <c r="J264">
         <v>75.099999999999994</v>
       </c>
-      <c r="L264" t="e">
+      <c r="K264">
+        <v>4.2</v>
+      </c>
+      <c r="L264">
         <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M264" t="e">
+        <v>2.3809523809523809</v>
+      </c>
+      <c r="M264">
         <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="265" spans="3:13">
+        <v>17.88095238095238</v>
+      </c>
+    </row>
+    <row r="265" spans="3:13" hidden="1">
       <c r="C265">
         <v>10</v>
       </c>
@@ -8643,22 +9093,31 @@
       <c r="F265">
         <v>2000</v>
       </c>
+      <c r="G265">
+        <v>13.53</v>
+      </c>
+      <c r="H265">
+        <v>2.54</v>
+      </c>
       <c r="I265">
         <v>12.4</v>
       </c>
       <c r="J265">
         <v>75.099999999999994</v>
       </c>
-      <c r="L265" t="e">
+      <c r="K265">
+        <v>4.28</v>
+      </c>
+      <c r="L265">
         <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M265" t="e">
+        <v>2.8971962616822431</v>
+      </c>
+      <c r="M265">
         <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="266" spans="3:13">
+        <v>17.546728971962615</v>
+      </c>
+    </row>
+    <row r="266" spans="3:13" hidden="1">
       <c r="C266">
         <v>11</v>
       </c>
@@ -8668,22 +9127,31 @@
       <c r="F266">
         <v>2000</v>
       </c>
+      <c r="G266">
+        <v>23.49</v>
+      </c>
+      <c r="H266">
+        <v>2.5299999999999998</v>
+      </c>
       <c r="I266">
         <v>7.52</v>
       </c>
       <c r="J266">
         <v>75.099999999999994</v>
       </c>
-      <c r="L266" t="e">
+      <c r="K266">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="L266">
         <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M266" t="e">
+        <v>1.7611241217798597</v>
+      </c>
+      <c r="M266">
         <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="267" spans="3:13">
+        <v>17.587822014051522</v>
+      </c>
+    </row>
+    <row r="267" spans="3:13" hidden="1">
       <c r="C267">
         <v>12</v>
       </c>
@@ -8693,22 +9161,31 @@
       <c r="F267">
         <v>2000</v>
       </c>
+      <c r="G267">
+        <v>19.22</v>
+      </c>
+      <c r="H267">
+        <v>1.83</v>
+      </c>
       <c r="I267">
         <v>11.7</v>
       </c>
       <c r="J267">
         <v>75.099999999999994</v>
       </c>
-      <c r="L267" t="e">
+      <c r="K267">
+        <v>4.28</v>
+      </c>
+      <c r="L267">
         <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M267" t="e">
+        <v>2.7336448598130838</v>
+      </c>
+      <c r="M267">
         <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="268" spans="3:13">
+        <v>17.546728971962615</v>
+      </c>
+    </row>
+    <row r="268" spans="3:13" hidden="1">
       <c r="C268">
         <v>13</v>
       </c>
@@ -8718,22 +9195,31 @@
       <c r="F268">
         <v>2000</v>
       </c>
+      <c r="G268">
+        <v>29.23</v>
+      </c>
+      <c r="H268">
+        <v>2.11</v>
+      </c>
       <c r="I268">
         <v>9.25</v>
       </c>
       <c r="J268">
         <v>75.099999999999994</v>
       </c>
-      <c r="L268" t="e">
+      <c r="K268">
+        <v>4.26</v>
+      </c>
+      <c r="L268">
         <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M268" t="e">
+        <v>2.171361502347418</v>
+      </c>
+      <c r="M268">
         <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="269" spans="3:13">
+        <v>17.629107981220656</v>
+      </c>
+    </row>
+    <row r="269" spans="3:13" hidden="1">
       <c r="C269">
         <v>14</v>
       </c>
@@ -8743,22 +9229,31 @@
       <c r="F269">
         <v>2000</v>
       </c>
+      <c r="G269">
+        <v>12.02</v>
+      </c>
+      <c r="H269">
+        <v>1.62</v>
+      </c>
       <c r="I269">
         <v>15.6</v>
       </c>
       <c r="J269">
         <v>75.099999999999994</v>
       </c>
-      <c r="L269" t="e">
+      <c r="K269">
+        <v>4.25</v>
+      </c>
+      <c r="L269">
         <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M269" t="e">
+        <v>3.6705882352941175</v>
+      </c>
+      <c r="M269">
         <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="270" spans="3:13">
+        <v>17.670588235294115</v>
+      </c>
+    </row>
+    <row r="270" spans="3:13" hidden="1">
       <c r="C270">
         <v>15</v>
       </c>
@@ -8768,22 +9263,31 @@
       <c r="F270">
         <v>2000</v>
       </c>
+      <c r="G270">
+        <v>13.67</v>
+      </c>
+      <c r="H270">
+        <v>2.2200000000000002</v>
+      </c>
       <c r="I270">
         <v>6.84</v>
       </c>
       <c r="J270">
         <v>75.099999999999994</v>
       </c>
-      <c r="L270" t="e">
+      <c r="K270">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="L270">
         <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M270" t="e">
+        <v>1.601873536299766</v>
+      </c>
+      <c r="M270">
         <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="271" spans="3:13">
+        <v>17.587822014051522</v>
+      </c>
+    </row>
+    <row r="271" spans="3:13" hidden="1">
       <c r="C271">
         <v>16</v>
       </c>
@@ -8793,22 +9297,31 @@
       <c r="F271">
         <v>2000</v>
       </c>
+      <c r="G271">
+        <v>13.2</v>
+      </c>
+      <c r="H271">
+        <v>2.09</v>
+      </c>
       <c r="I271">
         <v>12.8</v>
       </c>
       <c r="J271">
         <v>75.099999999999994</v>
       </c>
-      <c r="L271" t="e">
+      <c r="K271">
+        <v>4.29</v>
+      </c>
+      <c r="L271">
         <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M271" t="e">
+        <v>2.9836829836829839</v>
+      </c>
+      <c r="M271">
         <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="272" spans="3:13">
+        <v>17.505827505827504</v>
+      </c>
+    </row>
+    <row r="272" spans="3:13" hidden="1">
       <c r="C272">
         <v>17</v>
       </c>
@@ -8818,22 +9331,31 @@
       <c r="F272">
         <v>2000</v>
       </c>
+      <c r="G272">
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="H272">
+        <v>1.61</v>
+      </c>
       <c r="I272">
         <v>18.600000000000001</v>
       </c>
       <c r="J272">
         <v>75.099999999999994</v>
       </c>
-      <c r="L272" t="e">
+      <c r="K272">
+        <v>4.29</v>
+      </c>
+      <c r="L272">
         <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M272" t="e">
+        <v>4.3356643356643358</v>
+      </c>
+      <c r="M272">
         <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="273" spans="3:13">
+        <v>17.505827505827504</v>
+      </c>
+    </row>
+    <row r="273" spans="3:13" hidden="1">
       <c r="C273">
         <v>18</v>
       </c>
@@ -8843,22 +9365,31 @@
       <c r="F273">
         <v>2000</v>
       </c>
+      <c r="G273">
+        <v>12.71</v>
+      </c>
+      <c r="H273">
+        <v>1.62</v>
+      </c>
       <c r="I273">
         <v>20.399999999999999</v>
       </c>
       <c r="J273">
         <v>75.099999999999994</v>
       </c>
-      <c r="L273" t="e">
+      <c r="K273">
+        <v>4.25</v>
+      </c>
+      <c r="L273">
         <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M273" t="e">
+        <v>4.8</v>
+      </c>
+      <c r="M273">
         <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="274" spans="3:13">
+        <v>17.670588235294115</v>
+      </c>
+    </row>
+    <row r="274" spans="3:13" hidden="1">
       <c r="C274">
         <v>19</v>
       </c>
@@ -8868,22 +9399,31 @@
       <c r="F274">
         <v>2000</v>
       </c>
+      <c r="G274">
+        <v>19.77</v>
+      </c>
+      <c r="H274">
+        <v>2.25</v>
+      </c>
       <c r="I274">
         <v>15.1</v>
       </c>
       <c r="J274">
         <v>75.099999999999994</v>
       </c>
-      <c r="L274" t="e">
+      <c r="K274">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="L274">
         <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M274" t="e">
+        <v>3.5034802784222738</v>
+      </c>
+      <c r="M274">
         <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="275" spans="3:13">
+        <v>17.424593967517403</v>
+      </c>
+    </row>
+    <row r="275" spans="3:13" hidden="1">
       <c r="C275">
         <v>20</v>
       </c>
@@ -8893,22 +9433,31 @@
       <c r="F275">
         <v>2000</v>
       </c>
+      <c r="G275">
+        <v>10.11</v>
+      </c>
+      <c r="H275">
+        <v>1.73</v>
+      </c>
       <c r="I275">
         <v>14</v>
       </c>
       <c r="J275">
         <v>75.099999999999994</v>
       </c>
-      <c r="L275" t="e">
+      <c r="K275">
+        <v>4.28</v>
+      </c>
+      <c r="L275">
         <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M275" t="e">
+        <v>3.2710280373831773</v>
+      </c>
+      <c r="M275">
         <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="276" spans="3:13">
+        <v>17.546728971962615</v>
+      </c>
+    </row>
+    <row r="276" spans="3:13" hidden="1">
       <c r="C276">
         <v>21</v>
       </c>
@@ -8918,22 +9467,31 @@
       <c r="F276">
         <v>2000</v>
       </c>
+      <c r="G276">
+        <v>10.92</v>
+      </c>
+      <c r="H276">
+        <v>2.2599999999999998</v>
+      </c>
       <c r="I276">
         <v>13</v>
       </c>
       <c r="J276">
         <v>75.099999999999994</v>
       </c>
-      <c r="L276" t="e">
+      <c r="K276">
+        <v>4.24</v>
+      </c>
+      <c r="L276">
         <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M276" t="e">
+        <v>3.0660377358490565</v>
+      </c>
+      <c r="M276">
         <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="277" spans="3:13">
+        <v>17.712264150943394</v>
+      </c>
+    </row>
+    <row r="277" spans="3:13" hidden="1">
       <c r="C277">
         <v>22</v>
       </c>
@@ -8943,22 +9501,31 @@
       <c r="F277">
         <v>2000</v>
       </c>
+      <c r="G277">
+        <v>10.23</v>
+      </c>
+      <c r="H277">
+        <v>2.14</v>
+      </c>
       <c r="I277">
         <v>11.8</v>
       </c>
       <c r="J277">
         <v>75.099999999999994</v>
       </c>
-      <c r="L277" t="e">
+      <c r="K277">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="L277">
         <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M277" t="e">
+        <v>2.7634660421545671</v>
+      </c>
+      <c r="M277">
         <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="278" spans="3:13">
+        <v>17.587822014051522</v>
+      </c>
+    </row>
+    <row r="278" spans="3:13" hidden="1">
       <c r="C278">
         <v>23</v>
       </c>
@@ -8968,22 +9535,31 @@
       <c r="F278">
         <v>2000</v>
       </c>
+      <c r="G278">
+        <v>9.49</v>
+      </c>
+      <c r="H278">
+        <v>2.12</v>
+      </c>
       <c r="I278">
         <v>13.7</v>
       </c>
       <c r="J278">
         <v>75.099999999999994</v>
       </c>
-      <c r="L278" t="e">
+      <c r="K278">
+        <v>4.29</v>
+      </c>
+      <c r="L278">
         <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M278" t="e">
+        <v>3.1934731934731935</v>
+      </c>
+      <c r="M278">
         <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="279" spans="3:13">
+        <v>17.505827505827504</v>
+      </c>
+    </row>
+    <row r="279" spans="3:13" hidden="1">
       <c r="C279">
         <v>24</v>
       </c>
@@ -8993,22 +9569,31 @@
       <c r="F279">
         <v>2000</v>
       </c>
+      <c r="G279">
+        <v>9.11</v>
+      </c>
+      <c r="H279">
+        <v>1.97</v>
+      </c>
       <c r="I279">
         <v>10.4</v>
       </c>
       <c r="J279">
         <v>75.099999999999994</v>
       </c>
-      <c r="L279" t="e">
+      <c r="K279">
+        <v>4.28</v>
+      </c>
+      <c r="L279">
         <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M279" t="e">
+        <v>2.4299065420560746</v>
+      </c>
+      <c r="M279">
         <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="280" spans="3:13">
+        <v>17.546728971962615</v>
+      </c>
+    </row>
+    <row r="280" spans="3:13" hidden="1">
       <c r="C280">
         <v>25</v>
       </c>
@@ -9018,22 +9603,31 @@
       <c r="F280">
         <v>2000</v>
       </c>
+      <c r="G280">
+        <v>10.42</v>
+      </c>
+      <c r="H280">
+        <v>1.65</v>
+      </c>
       <c r="I280">
         <v>9.4600000000000009</v>
       </c>
       <c r="J280">
         <v>75.099999999999994</v>
       </c>
-      <c r="L280" t="e">
+      <c r="K280">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="L280">
         <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M280" t="e">
+        <v>2.2154566744730682</v>
+      </c>
+      <c r="M280">
         <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="281" spans="3:13">
+        <v>17.587822014051522</v>
+      </c>
+    </row>
+    <row r="281" spans="3:13" hidden="1">
       <c r="C281">
         <v>26</v>
       </c>
@@ -9043,22 +9637,31 @@
       <c r="F281">
         <v>2000</v>
       </c>
+      <c r="G281">
+        <v>16.3</v>
+      </c>
+      <c r="H281">
+        <v>2.17</v>
+      </c>
       <c r="I281">
         <v>13.1</v>
       </c>
       <c r="J281">
         <v>75.099999999999994</v>
       </c>
-      <c r="L281" t="e">
+      <c r="K281">
+        <v>4.26</v>
+      </c>
+      <c r="L281">
         <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M281" t="e">
+        <v>3.075117370892019</v>
+      </c>
+      <c r="M281">
         <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="282" spans="3:13">
+        <v>17.629107981220656</v>
+      </c>
+    </row>
+    <row r="282" spans="3:13" hidden="1">
       <c r="C282">
         <v>27</v>
       </c>
@@ -9068,22 +9671,31 @@
       <c r="F282">
         <v>2000</v>
       </c>
+      <c r="G282">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="H282">
+        <v>2.12</v>
+      </c>
       <c r="I282">
         <v>9.23</v>
       </c>
       <c r="J282">
         <v>75.099999999999994</v>
       </c>
-      <c r="L282" t="e">
+      <c r="K282">
+        <v>4.3</v>
+      </c>
+      <c r="L282">
         <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M282" t="e">
+        <v>2.1465116279069769</v>
+      </c>
+      <c r="M282">
         <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="283" spans="3:13">
+        <v>17.465116279069768</v>
+      </c>
+    </row>
+    <row r="283" spans="3:13" hidden="1">
       <c r="C283">
         <v>28</v>
       </c>
@@ -9093,22 +9705,31 @@
       <c r="F283">
         <v>2000</v>
       </c>
+      <c r="G283">
+        <v>7.5</v>
+      </c>
+      <c r="H283">
+        <v>2.15</v>
+      </c>
       <c r="I283">
         <v>14.9</v>
       </c>
       <c r="J283">
         <v>75.099999999999994</v>
       </c>
-      <c r="L283" t="e">
+      <c r="K283">
+        <v>4.29</v>
+      </c>
+      <c r="L283">
         <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M283" t="e">
+        <v>3.473193473193473</v>
+      </c>
+      <c r="M283">
         <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="284" spans="3:13">
+        <v>17.505827505827504</v>
+      </c>
+    </row>
+    <row r="284" spans="3:13" hidden="1">
       <c r="C284">
         <v>29</v>
       </c>
@@ -9118,19 +9739,28 @@
       <c r="F284">
         <v>2000</v>
       </c>
+      <c r="G284">
+        <v>10.02</v>
+      </c>
+      <c r="H284">
+        <v>2.25</v>
+      </c>
       <c r="I284">
         <v>10.6</v>
       </c>
       <c r="J284">
         <v>75.099999999999994</v>
       </c>
-      <c r="L284" t="e">
+      <c r="K284">
+        <v>4.29</v>
+      </c>
+      <c r="L284">
         <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M284" t="e">
+        <v>2.4708624708624707</v>
+      </c>
+      <c r="M284">
         <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
+        <v>17.505827505827504</v>
       </c>
     </row>
     <row r="285" spans="3:13">
@@ -9146,11 +9776,11 @@
       </c>
       <c r="G285">
         <f t="shared" ref="G285:M285" si="32">AVERAGE(G256:G284)</f>
-        <v>11.68</v>
+        <v>14.617931034482762</v>
       </c>
       <c r="H285">
         <f t="shared" si="32"/>
-        <v>1.79</v>
+        <v>2.1337931034482756</v>
       </c>
       <c r="I285">
         <f t="shared" si="32"/>
@@ -9162,15 +9792,15 @@
       </c>
       <c r="K285">
         <f t="shared" si="32"/>
-        <v>4.3099999999999996</v>
-      </c>
-      <c r="L285" t="e">
+        <v>4.265862068965518</v>
+      </c>
+      <c r="L285">
         <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M285" t="e">
+        <v>2.8387232060675318</v>
+      </c>
+      <c r="M285">
         <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
+        <v>17.60569827055463</v>
       </c>
     </row>
     <row r="290" spans="3:13" ht="60">
@@ -9243,7 +9873,7 @@
         <v>17.441860465116278</v>
       </c>
     </row>
-    <row r="292" spans="3:13">
+    <row r="292" spans="3:13" hidden="1">
       <c r="C292">
         <v>2</v>
       </c>
@@ -9253,22 +9883,31 @@
       <c r="F292">
         <v>2000</v>
       </c>
+      <c r="G292">
+        <v>11.47</v>
+      </c>
+      <c r="H292">
+        <v>1.79</v>
+      </c>
       <c r="I292">
         <v>11.3</v>
       </c>
       <c r="J292">
         <v>75.099999999999994</v>
       </c>
-      <c r="L292" t="e">
+      <c r="K292">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="L292">
         <f t="shared" ref="L292:L319" si="33">I292/K292</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M292" t="e">
+        <v>2.646370023419204</v>
+      </c>
+      <c r="M292">
         <f t="shared" ref="M292:M319" si="34">J292/K292</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="293" spans="3:13">
+        <v>17.587822014051522</v>
+      </c>
+    </row>
+    <row r="293" spans="3:13" hidden="1">
       <c r="C293">
         <v>3</v>
       </c>
@@ -9278,22 +9917,31 @@
       <c r="F293">
         <v>2000</v>
       </c>
+      <c r="G293">
+        <v>20.95</v>
+      </c>
+      <c r="H293">
+        <v>2.19</v>
+      </c>
       <c r="I293">
         <v>12.1</v>
       </c>
       <c r="J293">
         <v>75.099999999999994</v>
       </c>
-      <c r="L293" t="e">
+      <c r="K293">
+        <v>4.26</v>
+      </c>
+      <c r="L293">
         <f t="shared" si="33"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M293" t="e">
+        <v>2.84037558685446</v>
+      </c>
+      <c r="M293">
         <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="294" spans="3:13">
+        <v>17.629107981220656</v>
+      </c>
+    </row>
+    <row r="294" spans="3:13" hidden="1">
       <c r="C294">
         <v>4</v>
       </c>
@@ -9303,22 +9951,31 @@
       <c r="F294">
         <v>2000</v>
       </c>
+      <c r="G294">
+        <v>29.58</v>
+      </c>
+      <c r="H294">
+        <v>2.23</v>
+      </c>
       <c r="I294">
         <v>11.9</v>
       </c>
       <c r="J294">
         <v>75.099999999999994</v>
       </c>
-      <c r="L294" t="e">
+      <c r="K294">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="L294">
         <f t="shared" si="33"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M294" t="e">
+        <v>2.7868852459016398</v>
+      </c>
+      <c r="M294">
         <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="295" spans="3:13">
+        <v>17.587822014051522</v>
+      </c>
+    </row>
+    <row r="295" spans="3:13" hidden="1">
       <c r="C295">
         <v>5</v>
       </c>
@@ -9328,22 +9985,31 @@
       <c r="F295">
         <v>2000</v>
       </c>
+      <c r="G295">
+        <v>29.42</v>
+      </c>
+      <c r="H295">
+        <v>2.56</v>
+      </c>
       <c r="I295">
         <v>12.4</v>
       </c>
       <c r="J295">
         <v>75.099999999999994</v>
       </c>
-      <c r="L295" t="e">
+      <c r="K295">
+        <v>4.26</v>
+      </c>
+      <c r="L295">
         <f t="shared" si="33"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M295" t="e">
+        <v>2.910798122065728</v>
+      </c>
+      <c r="M295">
         <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="296" spans="3:13">
+        <v>17.629107981220656</v>
+      </c>
+    </row>
+    <row r="296" spans="3:13" hidden="1">
       <c r="C296">
         <v>6</v>
       </c>
@@ -9353,22 +10019,31 @@
       <c r="F296">
         <v>2000</v>
       </c>
+      <c r="G296">
+        <v>20.420000000000002</v>
+      </c>
+      <c r="H296">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="I296">
         <v>11.8</v>
       </c>
       <c r="J296">
         <v>75.099999999999994</v>
       </c>
-      <c r="L296" t="e">
+      <c r="K296">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="L296">
         <f t="shared" si="33"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M296" t="e">
+        <v>2.7634660421545671</v>
+      </c>
+      <c r="M296">
         <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="297" spans="3:13">
+        <v>17.587822014051522</v>
+      </c>
+    </row>
+    <row r="297" spans="3:13" hidden="1">
       <c r="C297">
         <v>7</v>
       </c>
@@ -9378,22 +10053,31 @@
       <c r="F297">
         <v>2000</v>
       </c>
+      <c r="G297">
+        <v>23.42</v>
+      </c>
+      <c r="H297">
+        <v>2.42</v>
+      </c>
       <c r="I297">
         <v>13.3</v>
       </c>
       <c r="J297">
         <v>75.099999999999994</v>
       </c>
-      <c r="L297" t="e">
+      <c r="K297">
+        <v>4.05</v>
+      </c>
+      <c r="L297">
         <f t="shared" si="33"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M297" t="e">
+        <v>3.283950617283951</v>
+      </c>
+      <c r="M297">
         <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="298" spans="3:13">
+        <v>18.543209876543209</v>
+      </c>
+    </row>
+    <row r="298" spans="3:13" hidden="1">
       <c r="C298">
         <v>8</v>
       </c>
@@ -9403,22 +10087,31 @@
       <c r="F298">
         <v>2000</v>
       </c>
+      <c r="G298">
+        <v>25.94</v>
+      </c>
+      <c r="H298">
+        <v>2.79</v>
+      </c>
       <c r="I298">
         <v>12.8</v>
       </c>
       <c r="J298">
         <v>75.099999999999994</v>
       </c>
-      <c r="L298" t="e">
+      <c r="K298">
+        <v>4.28</v>
+      </c>
+      <c r="L298">
         <f t="shared" si="33"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M298" t="e">
+        <v>2.9906542056074765</v>
+      </c>
+      <c r="M298">
         <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="299" spans="3:13">
+        <v>17.546728971962615</v>
+      </c>
+    </row>
+    <row r="299" spans="3:13" hidden="1">
       <c r="C299">
         <v>9</v>
       </c>
@@ -9428,22 +10121,31 @@
       <c r="F299">
         <v>2000</v>
       </c>
+      <c r="G299">
+        <v>12.99</v>
+      </c>
+      <c r="H299">
+        <v>2.76</v>
+      </c>
       <c r="I299">
         <v>10</v>
       </c>
       <c r="J299">
         <v>75.099999999999994</v>
       </c>
-      <c r="L299" t="e">
+      <c r="K299">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="L299">
         <f t="shared" si="33"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M299" t="e">
+        <v>2.3419203747072603</v>
+      </c>
+      <c r="M299">
         <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="300" spans="3:13">
+        <v>17.587822014051522</v>
+      </c>
+    </row>
+    <row r="300" spans="3:13" hidden="1">
       <c r="C300">
         <v>10</v>
       </c>
@@ -9453,22 +10155,31 @@
       <c r="F300">
         <v>2000</v>
       </c>
+      <c r="G300">
+        <v>6.26</v>
+      </c>
+      <c r="H300">
+        <v>2.09</v>
+      </c>
       <c r="I300">
         <v>12.4</v>
       </c>
       <c r="J300">
         <v>75.099999999999994</v>
       </c>
-      <c r="L300" t="e">
+      <c r="K300">
+        <v>4.28</v>
+      </c>
+      <c r="L300">
         <f t="shared" si="33"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M300" t="e">
+        <v>2.8971962616822431</v>
+      </c>
+      <c r="M300">
         <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="301" spans="3:13">
+        <v>17.546728971962615</v>
+      </c>
+    </row>
+    <row r="301" spans="3:13" hidden="1">
       <c r="C301">
         <v>11</v>
       </c>
@@ -9478,22 +10189,31 @@
       <c r="F301">
         <v>2000</v>
       </c>
+      <c r="G301">
+        <v>10.42</v>
+      </c>
+      <c r="H301">
+        <v>2.15</v>
+      </c>
       <c r="I301">
         <v>7.52</v>
       </c>
       <c r="J301">
         <v>75.099999999999994</v>
       </c>
-      <c r="L301" t="e">
+      <c r="K301">
+        <v>4.25</v>
+      </c>
+      <c r="L301">
         <f t="shared" si="33"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M301" t="e">
+        <v>1.7694117647058822</v>
+      </c>
+      <c r="M301">
         <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="302" spans="3:13">
+        <v>17.670588235294115</v>
+      </c>
+    </row>
+    <row r="302" spans="3:13" hidden="1">
       <c r="C302">
         <v>12</v>
       </c>
@@ -9503,22 +10223,31 @@
       <c r="F302">
         <v>2000</v>
       </c>
+      <c r="G302">
+        <v>8.44</v>
+      </c>
+      <c r="H302">
+        <v>2.1800000000000002</v>
+      </c>
       <c r="I302">
         <v>11.7</v>
       </c>
       <c r="J302">
         <v>75.099999999999994</v>
       </c>
-      <c r="L302" t="e">
+      <c r="K302">
+        <v>4.28</v>
+      </c>
+      <c r="L302">
         <f t="shared" si="33"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M302" t="e">
+        <v>2.7336448598130838</v>
+      </c>
+      <c r="M302">
         <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="303" spans="3:13">
+        <v>17.546728971962615</v>
+      </c>
+    </row>
+    <row r="303" spans="3:13" hidden="1">
       <c r="C303">
         <v>13</v>
       </c>
@@ -9528,22 +10257,31 @@
       <c r="F303">
         <v>2000</v>
       </c>
+      <c r="G303">
+        <v>15.54</v>
+      </c>
+      <c r="H303">
+        <v>2.1800000000000002</v>
+      </c>
       <c r="I303">
         <v>9.25</v>
       </c>
       <c r="J303">
         <v>75.099999999999994</v>
       </c>
-      <c r="L303" t="e">
+      <c r="K303">
+        <v>4.26</v>
+      </c>
+      <c r="L303">
         <f t="shared" si="33"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M303" t="e">
+        <v>2.171361502347418</v>
+      </c>
+      <c r="M303">
         <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="304" spans="3:13">
+        <v>17.629107981220656</v>
+      </c>
+    </row>
+    <row r="304" spans="3:13" hidden="1">
       <c r="C304">
         <v>14</v>
       </c>
@@ -9553,22 +10291,31 @@
       <c r="F304">
         <v>2000</v>
       </c>
+      <c r="G304">
+        <v>6.3</v>
+      </c>
+      <c r="H304">
+        <v>2.14</v>
+      </c>
       <c r="I304">
         <v>15.6</v>
       </c>
       <c r="J304">
         <v>75.099999999999994</v>
       </c>
-      <c r="L304" t="e">
+      <c r="K304">
+        <v>4.29</v>
+      </c>
+      <c r="L304">
         <f t="shared" si="33"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M304" t="e">
+        <v>3.6363636363636362</v>
+      </c>
+      <c r="M304">
         <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="305" spans="3:13">
+        <v>17.505827505827504</v>
+      </c>
+    </row>
+    <row r="305" spans="3:13" hidden="1">
       <c r="C305">
         <v>15</v>
       </c>
@@ -9578,22 +10325,31 @@
       <c r="F305">
         <v>2000</v>
       </c>
+      <c r="G305">
+        <v>10.11</v>
+      </c>
+      <c r="H305">
+        <v>2.12</v>
+      </c>
       <c r="I305">
         <v>6.84</v>
       </c>
       <c r="J305">
         <v>75.099999999999994</v>
       </c>
-      <c r="L305" t="e">
+      <c r="K305">
+        <v>4.29</v>
+      </c>
+      <c r="L305">
         <f t="shared" si="33"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M305" t="e">
+        <v>1.5944055944055944</v>
+      </c>
+      <c r="M305">
         <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="306" spans="3:13">
+        <v>17.505827505827504</v>
+      </c>
+    </row>
+    <row r="306" spans="3:13" hidden="1">
       <c r="C306">
         <v>16</v>
       </c>
@@ -9603,22 +10359,31 @@
       <c r="F306">
         <v>2000</v>
       </c>
+      <c r="G306">
+        <v>7.22</v>
+      </c>
+      <c r="H306">
+        <v>2.12</v>
+      </c>
       <c r="I306">
         <v>12.8</v>
       </c>
       <c r="J306">
         <v>75.099999999999994</v>
       </c>
-      <c r="L306" t="e">
+      <c r="K306">
+        <v>4.28</v>
+      </c>
+      <c r="L306">
         <f t="shared" si="33"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M306" t="e">
+        <v>2.9906542056074765</v>
+      </c>
+      <c r="M306">
         <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="307" spans="3:13">
+        <v>17.546728971962615</v>
+      </c>
+    </row>
+    <row r="307" spans="3:13" hidden="1">
       <c r="C307">
         <v>17</v>
       </c>
@@ -9628,22 +10393,31 @@
       <c r="F307">
         <v>2000</v>
       </c>
+      <c r="G307">
+        <v>6.52</v>
+      </c>
+      <c r="H307">
+        <v>2.1800000000000002</v>
+      </c>
       <c r="I307">
         <v>18.600000000000001</v>
       </c>
       <c r="J307">
         <v>75.099999999999994</v>
       </c>
-      <c r="L307" t="e">
+      <c r="K307">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="L307">
         <f t="shared" si="33"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M307" t="e">
+        <v>4.3559718969555039</v>
+      </c>
+      <c r="M307">
         <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="308" spans="3:13">
+        <v>17.587822014051522</v>
+      </c>
+    </row>
+    <row r="308" spans="3:13" hidden="1">
       <c r="C308">
         <v>18</v>
       </c>
@@ -9653,22 +10427,31 @@
       <c r="F308">
         <v>2000</v>
       </c>
+      <c r="G308">
+        <v>10.86</v>
+      </c>
+      <c r="H308">
+        <v>2.17</v>
+      </c>
       <c r="I308">
         <v>20.399999999999999</v>
       </c>
       <c r="J308">
         <v>75.099999999999994</v>
       </c>
-      <c r="L308" t="e">
+      <c r="K308">
+        <v>4.28</v>
+      </c>
+      <c r="L308">
         <f t="shared" si="33"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M308" t="e">
+        <v>4.7663551401869153</v>
+      </c>
+      <c r="M308">
         <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="309" spans="3:13">
+        <v>17.546728971962615</v>
+      </c>
+    </row>
+    <row r="309" spans="3:13" hidden="1">
       <c r="C309">
         <v>19</v>
       </c>
@@ -9678,22 +10461,31 @@
       <c r="F309">
         <v>2000</v>
       </c>
+      <c r="G309">
+        <v>12.67</v>
+      </c>
+      <c r="H309">
+        <v>2.1800000000000002</v>
+      </c>
       <c r="I309">
         <v>15.1</v>
       </c>
       <c r="J309">
         <v>75.099999999999994</v>
       </c>
-      <c r="L309" t="e">
+      <c r="K309">
+        <v>4.34</v>
+      </c>
+      <c r="L309">
         <f t="shared" si="33"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M309" t="e">
+        <v>3.4792626728110601</v>
+      </c>
+      <c r="M309">
         <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="310" spans="3:13">
+        <v>17.304147465437786</v>
+      </c>
+    </row>
+    <row r="310" spans="3:13" hidden="1">
       <c r="C310">
         <v>20</v>
       </c>
@@ -9703,22 +10495,31 @@
       <c r="F310">
         <v>2000</v>
       </c>
+      <c r="G310">
+        <v>6.49</v>
+      </c>
+      <c r="H310">
+        <v>2.2000000000000002</v>
+      </c>
       <c r="I310">
         <v>14</v>
       </c>
       <c r="J310">
         <v>75.099999999999994</v>
       </c>
-      <c r="L310" t="e">
+      <c r="K310">
+        <v>4.3</v>
+      </c>
+      <c r="L310">
         <f t="shared" si="33"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M310" t="e">
+        <v>3.2558139534883721</v>
+      </c>
+      <c r="M310">
         <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="311" spans="3:13">
+        <v>17.465116279069768</v>
+      </c>
+    </row>
+    <row r="311" spans="3:13" hidden="1">
       <c r="C311">
         <v>21</v>
       </c>
@@ -9728,22 +10529,31 @@
       <c r="F311">
         <v>2000</v>
       </c>
+      <c r="G311">
+        <v>11.14</v>
+      </c>
+      <c r="H311">
+        <v>2.23</v>
+      </c>
       <c r="I311">
         <v>13</v>
       </c>
       <c r="J311">
         <v>75.099999999999994</v>
       </c>
-      <c r="L311" t="e">
+      <c r="K311">
+        <v>4.26</v>
+      </c>
+      <c r="L311">
         <f t="shared" si="33"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M311" t="e">
+        <v>3.051643192488263</v>
+      </c>
+      <c r="M311">
         <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="312" spans="3:13">
+        <v>17.629107981220656</v>
+      </c>
+    </row>
+    <row r="312" spans="3:13" hidden="1">
       <c r="C312">
         <v>22</v>
       </c>
@@ -9753,22 +10563,31 @@
       <c r="F312">
         <v>2000</v>
       </c>
+      <c r="G312">
+        <v>7.69</v>
+      </c>
+      <c r="H312">
+        <v>2.23</v>
+      </c>
       <c r="I312">
         <v>11.8</v>
       </c>
       <c r="J312">
         <v>75.099999999999994</v>
       </c>
-      <c r="L312" t="e">
+      <c r="K312">
+        <v>4.29</v>
+      </c>
+      <c r="L312">
         <f t="shared" si="33"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M312" t="e">
+        <v>2.7505827505827507</v>
+      </c>
+      <c r="M312">
         <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="313" spans="3:13">
+        <v>17.505827505827504</v>
+      </c>
+    </row>
+    <row r="313" spans="3:13" hidden="1">
       <c r="C313">
         <v>23</v>
       </c>
@@ -9778,22 +10597,31 @@
       <c r="F313">
         <v>2000</v>
       </c>
+      <c r="G313">
+        <v>6.69</v>
+      </c>
+      <c r="H313">
+        <v>2.2599999999999998</v>
+      </c>
       <c r="I313">
         <v>13.7</v>
       </c>
       <c r="J313">
         <v>75.099999999999994</v>
       </c>
-      <c r="L313" t="e">
+      <c r="K313">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="L313">
         <f t="shared" si="33"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M313" t="e">
+        <v>3.1786542923433876</v>
+      </c>
+      <c r="M313">
         <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="314" spans="3:13">
+        <v>17.424593967517403</v>
+      </c>
+    </row>
+    <row r="314" spans="3:13" hidden="1">
       <c r="C314">
         <v>24</v>
       </c>
@@ -9803,22 +10631,31 @@
       <c r="F314">
         <v>2000</v>
       </c>
+      <c r="G314">
+        <v>8.11</v>
+      </c>
+      <c r="H314">
+        <v>2.2400000000000002</v>
+      </c>
       <c r="I314">
         <v>10.4</v>
       </c>
       <c r="J314">
         <v>75.099999999999994</v>
       </c>
-      <c r="L314" t="e">
+      <c r="K314">
+        <v>4.29</v>
+      </c>
+      <c r="L314">
         <f t="shared" si="33"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M314" t="e">
+        <v>2.4242424242424243</v>
+      </c>
+      <c r="M314">
         <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="315" spans="3:13">
+        <v>17.505827505827504</v>
+      </c>
+    </row>
+    <row r="315" spans="3:13" hidden="1">
       <c r="C315">
         <v>25</v>
       </c>
@@ -9828,22 +10665,31 @@
       <c r="F315">
         <v>2000</v>
       </c>
+      <c r="G315">
+        <v>6.89</v>
+      </c>
+      <c r="H315">
+        <v>2.09</v>
+      </c>
       <c r="I315">
         <v>9.4600000000000009</v>
       </c>
       <c r="J315">
         <v>75.099999999999994</v>
       </c>
-      <c r="L315" t="e">
+      <c r="K315">
+        <v>4.29</v>
+      </c>
+      <c r="L315">
         <f t="shared" si="33"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M315" t="e">
+        <v>2.2051282051282053</v>
+      </c>
+      <c r="M315">
         <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="316" spans="3:13">
+        <v>17.505827505827504</v>
+      </c>
+    </row>
+    <row r="316" spans="3:13" hidden="1">
       <c r="C316">
         <v>26</v>
       </c>
@@ -9853,22 +10699,31 @@
       <c r="F316">
         <v>2000</v>
       </c>
+      <c r="G316">
+        <v>16.239999999999998</v>
+      </c>
+      <c r="H316">
+        <v>1.99</v>
+      </c>
       <c r="I316">
         <v>13.1</v>
       </c>
       <c r="J316">
         <v>75.099999999999994</v>
       </c>
-      <c r="L316" t="e">
+      <c r="K316">
+        <v>4.26</v>
+      </c>
+      <c r="L316">
         <f t="shared" si="33"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M316" t="e">
+        <v>3.075117370892019</v>
+      </c>
+      <c r="M316">
         <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="317" spans="3:13">
+        <v>17.629107981220656</v>
+      </c>
+    </row>
+    <row r="317" spans="3:13" hidden="1">
       <c r="C317">
         <v>27</v>
       </c>
@@ -9878,22 +10733,31 @@
       <c r="F317">
         <v>2000</v>
       </c>
+      <c r="G317">
+        <v>9.86</v>
+      </c>
+      <c r="H317">
+        <v>2.1800000000000002</v>
+      </c>
       <c r="I317">
         <v>9.23</v>
       </c>
       <c r="J317">
         <v>75.099999999999994</v>
       </c>
-      <c r="L317" t="e">
+      <c r="K317">
+        <v>4.28</v>
+      </c>
+      <c r="L317">
         <f t="shared" si="33"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M317" t="e">
+        <v>2.1565420560747661</v>
+      </c>
+      <c r="M317">
         <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="318" spans="3:13">
+        <v>17.546728971962615</v>
+      </c>
+    </row>
+    <row r="318" spans="3:13" hidden="1">
       <c r="C318">
         <v>28</v>
       </c>
@@ -9903,22 +10767,31 @@
       <c r="F318">
         <v>2000</v>
       </c>
+      <c r="G318">
+        <v>5.87</v>
+      </c>
+      <c r="H318">
+        <v>2.23</v>
+      </c>
       <c r="I318">
         <v>14.9</v>
       </c>
       <c r="J318">
         <v>75.099999999999994</v>
       </c>
-      <c r="L318" t="e">
+      <c r="K318">
+        <v>4.28</v>
+      </c>
+      <c r="L318">
         <f t="shared" si="33"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M318" t="e">
+        <v>3.481308411214953</v>
+      </c>
+      <c r="M318">
         <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="319" spans="3:13">
+        <v>17.546728971962615</v>
+      </c>
+    </row>
+    <row r="319" spans="3:13" hidden="1">
       <c r="C319">
         <v>29</v>
       </c>
@@ -9928,19 +10801,28 @@
       <c r="F319">
         <v>2000</v>
       </c>
+      <c r="G319">
+        <v>6.3</v>
+      </c>
+      <c r="H319">
+        <v>2.1800000000000002</v>
+      </c>
       <c r="I319">
         <v>10.6</v>
       </c>
       <c r="J319">
         <v>75.099999999999994</v>
       </c>
-      <c r="L319" t="e">
+      <c r="K319">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="L319">
         <f t="shared" si="33"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M319" t="e">
+        <v>2.4593967517401394</v>
+      </c>
+      <c r="M319">
         <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
+        <v>17.424593967517403</v>
       </c>
     </row>
     <row r="320" spans="3:13">
@@ -9953,11 +10835,11 @@
       </c>
       <c r="G320">
         <f t="shared" ref="G320:M320" si="35">AVERAGE(G291:G319)</f>
-        <v>7.66</v>
+        <v>12.464482758620692</v>
       </c>
       <c r="H320">
         <f t="shared" si="35"/>
-        <v>1.68</v>
+        <v>2.2089655172413787</v>
       </c>
       <c r="I320">
         <f t="shared" si="35"/>
@@ -9969,15 +10851,15 @@
       </c>
       <c r="K320">
         <f t="shared" si="35"/>
-        <v>4.3</v>
-      </c>
-      <c r="L320" t="e">
+        <v>4.2731034482758634</v>
+      </c>
+      <c r="L320">
         <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M320" t="e">
+        <v>2.8335938395556859</v>
+      </c>
+      <c r="M320">
         <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
+        <v>17.576379329852852</v>
       </c>
     </row>
   </sheetData>

--- a/documents/исследования.xlsx
+++ b/documents/исследования.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="портрет" sheetId="1" r:id="rId1"/>
@@ -11038,11 +11038,11 @@
         <v>4.17</v>
       </c>
       <c r="L330">
-        <f t="shared" ref="L330:L357" si="36">I330/K330</f>
+        <f t="shared" ref="L330:L338" si="36">I330/K330</f>
         <v>2.709832134292566</v>
       </c>
       <c r="M330">
-        <f t="shared" ref="M330:M357" si="37">J330/K330</f>
+        <f t="shared" ref="M330:M338" si="37">J330/K330</f>
         <v>18.009592326139089</v>
       </c>
       <c r="S330">
@@ -11136,11 +11136,11 @@
         <v>1.07</v>
       </c>
       <c r="AA331">
-        <f t="shared" ref="AA330:AA352" si="38">X331/Z331</f>
+        <f t="shared" ref="AA331:AA352" si="38">X331/Z331</f>
         <v>4.7289719626168214</v>
       </c>
       <c r="AB331">
-        <f t="shared" ref="AB330:AB352" si="39">Y331/Z331</f>
+        <f t="shared" ref="AB331:AB352" si="39">Y331/Z331</f>
         <v>70.09345794392523</v>
       </c>
     </row>
@@ -14326,7 +14326,7 @@
         <v>4.7</v>
       </c>
       <c r="M115">
-        <f t="shared" ref="M115:M123" si="7">J115/K115</f>
+        <f t="shared" ref="M115:M120" si="7">J115/K115</f>
         <v>15.978723404255318</v>
       </c>
     </row>
@@ -18113,7 +18113,7 @@
         <v>4.63</v>
       </c>
       <c r="M374">
-        <f t="shared" ref="M374:M382" si="19">J374/K374</f>
+        <f t="shared" ref="M374:M379" si="19">J374/K374</f>
         <v>16.220302375809933</v>
       </c>
     </row>
@@ -18572,12 +18572,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:Z402"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C220" workbookViewId="0">
-      <selection activeCell="F215" sqref="F215"/>
+    <sheetView topLeftCell="B368" workbookViewId="0">
+      <selection activeCell="C405" sqref="C405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" customWidth="1"/>
     <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="0" hidden="1" customWidth="1"/>
@@ -21741,16 +21742,28 @@
       <c r="F224">
         <v>2000</v>
       </c>
-      <c r="L224" t="e">
+      <c r="G224">
+        <v>36.57</v>
+      </c>
+      <c r="H224">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="J224">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K224">
+        <v>4.29</v>
+      </c>
+      <c r="L224">
         <f>I224/K224</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M224" t="e">
+        <v>0</v>
+      </c>
+      <c r="M224">
         <f>J224/K224</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="225" spans="3:6">
+        <v>17.505827505827504</v>
+      </c>
+    </row>
+    <row r="225" spans="3:13" hidden="1">
       <c r="C225">
         <v>2</v>
       </c>
@@ -21760,8 +21773,24 @@
       <c r="F225">
         <v>2000</v>
       </c>
-    </row>
-    <row r="226" spans="3:6">
+      <c r="G225">
+        <v>36.47</v>
+      </c>
+      <c r="H225">
+        <v>2.29</v>
+      </c>
+      <c r="J225">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K225">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="M225">
+        <f t="shared" ref="M225:M230" si="13">J225/K225</f>
+        <v>17.587822014051522</v>
+      </c>
+    </row>
+    <row r="226" spans="3:13" hidden="1">
       <c r="C226">
         <v>3</v>
       </c>
@@ -21771,8 +21800,24 @@
       <c r="F226">
         <v>2000</v>
       </c>
-    </row>
-    <row r="227" spans="3:6">
+      <c r="G226">
+        <v>36.020000000000003</v>
+      </c>
+      <c r="H226">
+        <v>2.23</v>
+      </c>
+      <c r="J226">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K226">
+        <v>4.28</v>
+      </c>
+      <c r="M226">
+        <f t="shared" si="13"/>
+        <v>17.546728971962615</v>
+      </c>
+    </row>
+    <row r="227" spans="3:13" hidden="1">
       <c r="C227">
         <v>4</v>
       </c>
@@ -21782,8 +21827,24 @@
       <c r="F227">
         <v>2000</v>
       </c>
-    </row>
-    <row r="228" spans="3:6">
+      <c r="G227">
+        <v>33.19</v>
+      </c>
+      <c r="H227">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="J227">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K227">
+        <v>4.3</v>
+      </c>
+      <c r="M227">
+        <f t="shared" si="13"/>
+        <v>17.465116279069768</v>
+      </c>
+    </row>
+    <row r="228" spans="3:13" hidden="1">
       <c r="C228">
         <v>5</v>
       </c>
@@ -21793,8 +21854,24 @@
       <c r="F228">
         <v>2000</v>
       </c>
-    </row>
-    <row r="229" spans="3:6">
+      <c r="G228">
+        <v>32.590000000000003</v>
+      </c>
+      <c r="H228">
+        <v>2.34</v>
+      </c>
+      <c r="J228">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K228">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="M228">
+        <f t="shared" si="13"/>
+        <v>17.587822014051522</v>
+      </c>
+    </row>
+    <row r="229" spans="3:13" hidden="1">
       <c r="C229">
         <v>6</v>
       </c>
@@ -21804,8 +21881,24 @@
       <c r="F229">
         <v>2000</v>
       </c>
-    </row>
-    <row r="230" spans="3:6">
+      <c r="G229">
+        <v>32.64</v>
+      </c>
+      <c r="H229">
+        <v>2.39</v>
+      </c>
+      <c r="J229">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K229">
+        <v>4.32</v>
+      </c>
+      <c r="M229">
+        <f t="shared" si="13"/>
+        <v>17.384259259259256</v>
+      </c>
+    </row>
+    <row r="230" spans="3:13" hidden="1">
       <c r="C230">
         <v>7</v>
       </c>
@@ -21815,8 +21908,24 @@
       <c r="F230">
         <v>2000</v>
       </c>
-    </row>
-    <row r="231" spans="3:6">
+      <c r="G230">
+        <v>32.1</v>
+      </c>
+      <c r="H230">
+        <v>2.64</v>
+      </c>
+      <c r="J230">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K230">
+        <v>4.24</v>
+      </c>
+      <c r="M230">
+        <f t="shared" si="13"/>
+        <v>17.712264150943394</v>
+      </c>
+    </row>
+    <row r="231" spans="3:13" hidden="1">
       <c r="C231">
         <v>8</v>
       </c>
@@ -21827,7 +21936,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="232" spans="3:6">
+    <row r="232" spans="3:13" hidden="1">
       <c r="C232">
         <v>9</v>
       </c>
@@ -21838,7 +21947,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="233" spans="3:6">
+    <row r="233" spans="3:13" hidden="1">
       <c r="C233">
         <v>10</v>
       </c>
@@ -21849,7 +21958,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="234" spans="3:6">
+    <row r="234" spans="3:13" hidden="1">
       <c r="C234">
         <v>11</v>
       </c>
@@ -21860,7 +21969,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="235" spans="3:6">
+    <row r="235" spans="3:13" hidden="1">
       <c r="C235">
         <v>12</v>
       </c>
@@ -21871,7 +21980,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="236" spans="3:6">
+    <row r="236" spans="3:13" hidden="1">
       <c r="C236">
         <v>13</v>
       </c>
@@ -21882,7 +21991,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="237" spans="3:6">
+    <row r="237" spans="3:13" hidden="1">
       <c r="C237">
         <v>14</v>
       </c>
@@ -21893,7 +22002,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="238" spans="3:6">
+    <row r="238" spans="3:13" hidden="1">
       <c r="C238">
         <v>15</v>
       </c>
@@ -21904,7 +22013,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="239" spans="3:6">
+    <row r="239" spans="3:13" hidden="1">
       <c r="C239">
         <v>16</v>
       </c>
@@ -21915,7 +22024,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="240" spans="3:6">
+    <row r="240" spans="3:13" hidden="1">
       <c r="C240">
         <v>17</v>
       </c>
@@ -21926,7 +22035,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="241" spans="3:13">
+    <row r="241" spans="3:13" hidden="1">
       <c r="C241">
         <v>18</v>
       </c>
@@ -21937,7 +22046,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="242" spans="3:13">
+    <row r="242" spans="3:13" hidden="1">
       <c r="C242">
         <v>19</v>
       </c>
@@ -21948,7 +22057,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="243" spans="3:13">
+    <row r="243" spans="3:13" hidden="1">
       <c r="C243">
         <v>20</v>
       </c>
@@ -21959,7 +22068,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="244" spans="3:13">
+    <row r="244" spans="3:13" hidden="1">
       <c r="C244">
         <v>21</v>
       </c>
@@ -21970,7 +22079,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="245" spans="3:13">
+    <row r="245" spans="3:13" hidden="1">
       <c r="C245">
         <v>22</v>
       </c>
@@ -21981,7 +22090,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="246" spans="3:13">
+    <row r="246" spans="3:13" hidden="1">
       <c r="C246">
         <v>23</v>
       </c>
@@ -21992,7 +22101,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="247" spans="3:13">
+    <row r="247" spans="3:13" hidden="1">
       <c r="C247">
         <v>24</v>
       </c>
@@ -22003,7 +22112,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="248" spans="3:13">
+    <row r="248" spans="3:13" hidden="1">
       <c r="C248">
         <v>25</v>
       </c>
@@ -22014,7 +22123,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="249" spans="3:13">
+    <row r="249" spans="3:13" hidden="1">
       <c r="C249">
         <v>26</v>
       </c>
@@ -22025,7 +22134,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="250" spans="3:13">
+    <row r="250" spans="3:13" hidden="1">
       <c r="C250">
         <v>27</v>
       </c>
@@ -22036,7 +22145,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="251" spans="3:13">
+    <row r="251" spans="3:13" hidden="1">
       <c r="C251">
         <v>28</v>
       </c>
@@ -22047,7 +22156,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="252" spans="3:13">
+    <row r="252" spans="3:13" hidden="1">
       <c r="C252">
         <v>29</v>
       </c>
@@ -22062,33 +22171,33 @@
       <c r="C253" t="s">
         <v>18</v>
       </c>
-      <c r="G253" t="e">
+      <c r="G253">
         <f>AVERAGE(G224:G252)</f>
+        <v>34.22571428571429</v>
+      </c>
+      <c r="H253">
+        <f t="shared" ref="H253:M253" si="14">AVERAGE(H224:H252)</f>
+        <v>2.3171428571428572</v>
+      </c>
+      <c r="I253" t="e">
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H253" t="e">
-        <f t="shared" ref="H253:M253" si="13">AVERAGE(H224:H252)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I253" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J253" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K253" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L253" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M253" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+      <c r="J253">
+        <f t="shared" si="14"/>
+        <v>75.100000000000009</v>
+      </c>
+      <c r="K253">
+        <f t="shared" si="14"/>
+        <v>4.2814285714285711</v>
+      </c>
+      <c r="L253">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M253">
+        <f t="shared" si="14"/>
+        <v>17.541405742166511</v>
       </c>
     </row>
     <row r="258" spans="3:13" ht="60">
@@ -22137,16 +22246,28 @@
       <c r="F259">
         <v>2000</v>
       </c>
-      <c r="L259" t="e">
+      <c r="G259">
+        <v>18.59</v>
+      </c>
+      <c r="H259">
+        <v>1.62</v>
+      </c>
+      <c r="J259">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K259">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="L259">
         <f>I259/K259</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M259" t="e">
+        <v>0</v>
+      </c>
+      <c r="M259">
         <f>J259/K259</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="260" spans="3:13">
+        <v>17.587822014051522</v>
+      </c>
+    </row>
+    <row r="260" spans="3:13" hidden="1">
       <c r="C260">
         <v>2</v>
       </c>
@@ -22156,8 +22277,24 @@
       <c r="F260">
         <v>2000</v>
       </c>
-    </row>
-    <row r="261" spans="3:13">
+      <c r="G260">
+        <v>13.42</v>
+      </c>
+      <c r="H260">
+        <v>1.87</v>
+      </c>
+      <c r="J260">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K260">
+        <v>4.26</v>
+      </c>
+      <c r="M260">
+        <f t="shared" ref="M260:M265" si="15">J260/K260</f>
+        <v>17.629107981220656</v>
+      </c>
+    </row>
+    <row r="261" spans="3:13" hidden="1">
       <c r="C261">
         <v>3</v>
       </c>
@@ -22167,8 +22304,24 @@
       <c r="F261">
         <v>2000</v>
       </c>
-    </row>
-    <row r="262" spans="3:13">
+      <c r="G261">
+        <v>21.04</v>
+      </c>
+      <c r="H261">
+        <v>2.37</v>
+      </c>
+      <c r="J261">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K261">
+        <v>4.28</v>
+      </c>
+      <c r="M261">
+        <f t="shared" si="15"/>
+        <v>17.546728971962615</v>
+      </c>
+    </row>
+    <row r="262" spans="3:13" hidden="1">
       <c r="C262">
         <v>4</v>
       </c>
@@ -22178,8 +22331,24 @@
       <c r="F262">
         <v>2000</v>
       </c>
-    </row>
-    <row r="263" spans="3:13">
+      <c r="G262">
+        <v>11.49</v>
+      </c>
+      <c r="H262">
+        <v>1.93</v>
+      </c>
+      <c r="J262">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K262">
+        <v>4.29</v>
+      </c>
+      <c r="M262">
+        <f t="shared" si="15"/>
+        <v>17.505827505827504</v>
+      </c>
+    </row>
+    <row r="263" spans="3:13" hidden="1">
       <c r="C263">
         <v>5</v>
       </c>
@@ -22189,8 +22358,24 @@
       <c r="F263">
         <v>2000</v>
       </c>
-    </row>
-    <row r="264" spans="3:13">
+      <c r="G263">
+        <v>22.49</v>
+      </c>
+      <c r="H263">
+        <v>2.63</v>
+      </c>
+      <c r="J263">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K263">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="M263">
+        <f t="shared" si="15"/>
+        <v>17.587822014051522</v>
+      </c>
+    </row>
+    <row r="264" spans="3:13" hidden="1">
       <c r="C264">
         <v>6</v>
       </c>
@@ -22200,8 +22385,24 @@
       <c r="F264">
         <v>2000</v>
       </c>
-    </row>
-    <row r="265" spans="3:13">
+      <c r="G264">
+        <v>23.71</v>
+      </c>
+      <c r="H264">
+        <v>1.84</v>
+      </c>
+      <c r="J264">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K264">
+        <v>4.3</v>
+      </c>
+      <c r="M264">
+        <f t="shared" si="15"/>
+        <v>17.465116279069768</v>
+      </c>
+    </row>
+    <row r="265" spans="3:13" hidden="1">
       <c r="C265">
         <v>7</v>
       </c>
@@ -22211,8 +22412,24 @@
       <c r="F265">
         <v>2000</v>
       </c>
-    </row>
-    <row r="266" spans="3:13">
+      <c r="G265">
+        <v>23.32</v>
+      </c>
+      <c r="H265">
+        <v>2.06</v>
+      </c>
+      <c r="J265">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K265">
+        <v>4.24</v>
+      </c>
+      <c r="M265">
+        <f t="shared" si="15"/>
+        <v>17.712264150943394</v>
+      </c>
+    </row>
+    <row r="266" spans="3:13" hidden="1">
       <c r="C266">
         <v>8</v>
       </c>
@@ -22223,7 +22440,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="267" spans="3:13">
+    <row r="267" spans="3:13" hidden="1">
       <c r="C267">
         <v>9</v>
       </c>
@@ -22234,7 +22451,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="268" spans="3:13">
+    <row r="268" spans="3:13" hidden="1">
       <c r="C268">
         <v>10</v>
       </c>
@@ -22245,7 +22462,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="269" spans="3:13">
+    <row r="269" spans="3:13" hidden="1">
       <c r="C269">
         <v>11</v>
       </c>
@@ -22256,7 +22473,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="270" spans="3:13">
+    <row r="270" spans="3:13" hidden="1">
       <c r="C270">
         <v>12</v>
       </c>
@@ -22267,7 +22484,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="271" spans="3:13">
+    <row r="271" spans="3:13" hidden="1">
       <c r="C271">
         <v>13</v>
       </c>
@@ -22278,7 +22495,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="272" spans="3:13">
+    <row r="272" spans="3:13" hidden="1">
       <c r="C272">
         <v>14</v>
       </c>
@@ -22289,7 +22506,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="273" spans="3:13">
+    <row r="273" spans="3:13" hidden="1">
       <c r="C273">
         <v>15</v>
       </c>
@@ -22300,7 +22517,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="274" spans="3:13">
+    <row r="274" spans="3:13" hidden="1">
       <c r="C274">
         <v>16</v>
       </c>
@@ -22311,7 +22528,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="275" spans="3:13">
+    <row r="275" spans="3:13" hidden="1">
       <c r="C275">
         <v>17</v>
       </c>
@@ -22322,7 +22539,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="276" spans="3:13">
+    <row r="276" spans="3:13" hidden="1">
       <c r="C276">
         <v>18</v>
       </c>
@@ -22333,7 +22550,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="277" spans="3:13">
+    <row r="277" spans="3:13" hidden="1">
       <c r="C277">
         <v>19</v>
       </c>
@@ -22344,7 +22561,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="278" spans="3:13">
+    <row r="278" spans="3:13" hidden="1">
       <c r="C278">
         <v>20</v>
       </c>
@@ -22355,7 +22572,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="279" spans="3:13">
+    <row r="279" spans="3:13" hidden="1">
       <c r="C279">
         <v>21</v>
       </c>
@@ -22366,7 +22583,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="280" spans="3:13">
+    <row r="280" spans="3:13" hidden="1">
       <c r="C280">
         <v>22</v>
       </c>
@@ -22377,7 +22594,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="281" spans="3:13">
+    <row r="281" spans="3:13" hidden="1">
       <c r="C281">
         <v>23</v>
       </c>
@@ -22388,7 +22605,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="282" spans="3:13">
+    <row r="282" spans="3:13" hidden="1">
       <c r="C282">
         <v>24</v>
       </c>
@@ -22399,7 +22616,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="283" spans="3:13">
+    <row r="283" spans="3:13" hidden="1">
       <c r="C283">
         <v>25</v>
       </c>
@@ -22410,7 +22627,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="284" spans="3:13">
+    <row r="284" spans="3:13" hidden="1">
       <c r="C284">
         <v>26</v>
       </c>
@@ -22421,7 +22638,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="285" spans="3:13">
+    <row r="285" spans="3:13" hidden="1">
       <c r="C285">
         <v>27</v>
       </c>
@@ -22432,7 +22649,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="286" spans="3:13">
+    <row r="286" spans="3:13" hidden="1">
       <c r="C286">
         <v>28</v>
       </c>
@@ -22443,7 +22660,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="287" spans="3:13">
+    <row r="287" spans="3:13" hidden="1">
       <c r="C287">
         <v>29</v>
       </c>
@@ -22458,33 +22675,33 @@
       <c r="C288" t="s">
         <v>18</v>
       </c>
-      <c r="G288" t="e">
+      <c r="G288">
         <f>AVERAGE(G259:G287)</f>
+        <v>19.151428571428568</v>
+      </c>
+      <c r="H288">
+        <f t="shared" ref="H288:M288" si="16">AVERAGE(H259:H287)</f>
+        <v>2.0457142857142858</v>
+      </c>
+      <c r="I288" t="e">
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H288" t="e">
-        <f t="shared" ref="H288:M288" si="14">AVERAGE(H259:H287)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I288" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J288" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K288" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L288" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M288" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
+      <c r="J288">
+        <f t="shared" si="16"/>
+        <v>75.100000000000009</v>
+      </c>
+      <c r="K288">
+        <f t="shared" si="16"/>
+        <v>4.2728571428571422</v>
+      </c>
+      <c r="L288">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M288">
+        <f t="shared" si="16"/>
+        <v>17.576384131018141</v>
       </c>
     </row>
     <row r="294" spans="3:13" ht="60">
@@ -22533,16 +22750,28 @@
       <c r="F295">
         <v>2000</v>
       </c>
-      <c r="L295" t="e">
+      <c r="G295">
+        <v>10.69</v>
+      </c>
+      <c r="H295">
+        <v>2.73</v>
+      </c>
+      <c r="J295">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K295">
+        <v>4.26</v>
+      </c>
+      <c r="L295">
         <f>I295/K295</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M295" t="e">
+        <v>0</v>
+      </c>
+      <c r="M295">
         <f>J295/K295</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="296" spans="3:13">
+        <v>17.629107981220656</v>
+      </c>
+    </row>
+    <row r="296" spans="3:13" hidden="1">
       <c r="C296">
         <v>2</v>
       </c>
@@ -22552,8 +22781,24 @@
       <c r="F296">
         <v>2000</v>
       </c>
-    </row>
-    <row r="297" spans="3:13">
+      <c r="G296">
+        <v>10.79</v>
+      </c>
+      <c r="H296">
+        <v>2.14</v>
+      </c>
+      <c r="J296">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K296">
+        <v>4.3</v>
+      </c>
+      <c r="M296">
+        <f t="shared" ref="M296:M301" si="17">J296/K296</f>
+        <v>17.465116279069768</v>
+      </c>
+    </row>
+    <row r="297" spans="3:13" hidden="1">
       <c r="C297">
         <v>3</v>
       </c>
@@ -22563,8 +22808,24 @@
       <c r="F297">
         <v>2000</v>
       </c>
-    </row>
-    <row r="298" spans="3:13">
+      <c r="G297">
+        <v>15.05</v>
+      </c>
+      <c r="H297">
+        <v>2.36</v>
+      </c>
+      <c r="J297">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K297">
+        <v>4.28</v>
+      </c>
+      <c r="M297">
+        <f t="shared" si="17"/>
+        <v>17.546728971962615</v>
+      </c>
+    </row>
+    <row r="298" spans="3:13" hidden="1">
       <c r="C298">
         <v>4</v>
       </c>
@@ -22574,8 +22835,24 @@
       <c r="F298">
         <v>2000</v>
       </c>
-    </row>
-    <row r="299" spans="3:13">
+      <c r="G298">
+        <v>8.61</v>
+      </c>
+      <c r="H298">
+        <v>2.59</v>
+      </c>
+      <c r="J298">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K298">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="M298">
+        <f t="shared" si="17"/>
+        <v>17.587822014051522</v>
+      </c>
+    </row>
+    <row r="299" spans="3:13" hidden="1">
       <c r="C299">
         <v>5</v>
       </c>
@@ -22585,8 +22862,24 @@
       <c r="F299">
         <v>2000</v>
       </c>
-    </row>
-    <row r="300" spans="3:13">
+      <c r="G299">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="H299">
+        <v>1.87</v>
+      </c>
+      <c r="J299">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K299">
+        <v>4.28</v>
+      </c>
+      <c r="M299">
+        <f t="shared" si="17"/>
+        <v>17.546728971962615</v>
+      </c>
+    </row>
+    <row r="300" spans="3:13" hidden="1">
       <c r="C300">
         <v>6</v>
       </c>
@@ -22596,8 +22889,24 @@
       <c r="F300">
         <v>2000</v>
       </c>
-    </row>
-    <row r="301" spans="3:13">
+      <c r="G300">
+        <v>13.42</v>
+      </c>
+      <c r="H300">
+        <v>2.71</v>
+      </c>
+      <c r="J300">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K300">
+        <v>4.29</v>
+      </c>
+      <c r="M300">
+        <f t="shared" si="17"/>
+        <v>17.505827505827504</v>
+      </c>
+    </row>
+    <row r="301" spans="3:13" hidden="1">
       <c r="C301">
         <v>7</v>
       </c>
@@ -22607,8 +22916,24 @@
       <c r="F301">
         <v>2000</v>
       </c>
-    </row>
-    <row r="302" spans="3:13">
+      <c r="G301">
+        <v>11.87</v>
+      </c>
+      <c r="H301">
+        <v>2.95</v>
+      </c>
+      <c r="J301">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K301">
+        <v>4.25</v>
+      </c>
+      <c r="M301">
+        <f t="shared" si="17"/>
+        <v>17.670588235294115</v>
+      </c>
+    </row>
+    <row r="302" spans="3:13" hidden="1">
       <c r="C302">
         <v>8</v>
       </c>
@@ -22619,7 +22944,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="303" spans="3:13">
+    <row r="303" spans="3:13" hidden="1">
       <c r="C303">
         <v>9</v>
       </c>
@@ -22630,7 +22955,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="304" spans="3:13">
+    <row r="304" spans="3:13" hidden="1">
       <c r="C304">
         <v>10</v>
       </c>
@@ -22641,7 +22966,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="305" spans="3:6">
+    <row r="305" spans="3:6" hidden="1">
       <c r="C305">
         <v>11</v>
       </c>
@@ -22652,7 +22977,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="306" spans="3:6">
+    <row r="306" spans="3:6" hidden="1">
       <c r="C306">
         <v>12</v>
       </c>
@@ -22663,7 +22988,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="307" spans="3:6">
+    <row r="307" spans="3:6" hidden="1">
       <c r="C307">
         <v>13</v>
       </c>
@@ -22674,7 +22999,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="308" spans="3:6">
+    <row r="308" spans="3:6" hidden="1">
       <c r="C308">
         <v>14</v>
       </c>
@@ -22685,7 +23010,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="309" spans="3:6">
+    <row r="309" spans="3:6" hidden="1">
       <c r="C309">
         <v>15</v>
       </c>
@@ -22696,7 +23021,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="310" spans="3:6">
+    <row r="310" spans="3:6" hidden="1">
       <c r="C310">
         <v>16</v>
       </c>
@@ -22707,7 +23032,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="311" spans="3:6">
+    <row r="311" spans="3:6" hidden="1">
       <c r="C311">
         <v>17</v>
       </c>
@@ -22718,7 +23043,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="312" spans="3:6">
+    <row r="312" spans="3:6" hidden="1">
       <c r="C312">
         <v>18</v>
       </c>
@@ -22729,7 +23054,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="313" spans="3:6">
+    <row r="313" spans="3:6" hidden="1">
       <c r="C313">
         <v>19</v>
       </c>
@@ -22740,7 +23065,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="314" spans="3:6">
+    <row r="314" spans="3:6" hidden="1">
       <c r="C314">
         <v>20</v>
       </c>
@@ -22751,7 +23076,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="315" spans="3:6">
+    <row r="315" spans="3:6" hidden="1">
       <c r="C315">
         <v>21</v>
       </c>
@@ -22762,7 +23087,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="316" spans="3:6">
+    <row r="316" spans="3:6" hidden="1">
       <c r="C316">
         <v>22</v>
       </c>
@@ -22773,7 +23098,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="317" spans="3:6">
+    <row r="317" spans="3:6" hidden="1">
       <c r="C317">
         <v>23</v>
       </c>
@@ -22784,7 +23109,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="318" spans="3:6">
+    <row r="318" spans="3:6" hidden="1">
       <c r="C318">
         <v>24</v>
       </c>
@@ -22795,7 +23120,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="319" spans="3:6">
+    <row r="319" spans="3:6" hidden="1">
       <c r="C319">
         <v>25</v>
       </c>
@@ -22806,7 +23131,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="320" spans="3:6">
+    <row r="320" spans="3:6" hidden="1">
       <c r="C320">
         <v>26</v>
       </c>
@@ -22817,7 +23142,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="321" spans="1:26">
+    <row r="321" spans="1:26" hidden="1">
       <c r="C321">
         <v>27</v>
       </c>
@@ -22828,7 +23153,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="322" spans="1:26">
+    <row r="322" spans="1:26" hidden="1">
       <c r="C322">
         <v>28</v>
       </c>
@@ -22839,7 +23164,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="323" spans="1:26">
+    <row r="323" spans="1:26" hidden="1">
       <c r="C323">
         <v>29</v>
       </c>
@@ -22854,33 +23179,33 @@
       <c r="C324" t="s">
         <v>18</v>
       </c>
-      <c r="G324" t="e">
+      <c r="G324">
         <f>AVERAGE(G295:G323)</f>
+        <v>11.45857142857143</v>
+      </c>
+      <c r="H324">
+        <f t="shared" ref="H324:M324" si="18">AVERAGE(H295:H323)</f>
+        <v>2.4785714285714286</v>
+      </c>
+      <c r="I324" t="e">
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H324" t="e">
-        <f t="shared" ref="H324:M324" si="15">AVERAGE(H295:H323)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I324" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J324" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K324" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L324" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M324" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+      <c r="J324">
+        <f t="shared" si="18"/>
+        <v>75.100000000000009</v>
+      </c>
+      <c r="K324">
+        <f t="shared" si="18"/>
+        <v>4.2757142857142858</v>
+      </c>
+      <c r="L324">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M324">
+        <f t="shared" si="18"/>
+        <v>17.564559994198401</v>
       </c>
     </row>
     <row r="329" spans="1:26">
@@ -22959,6 +23284,22 @@
       <c r="F335">
         <v>500</v>
       </c>
+      <c r="G335">
+        <v>207.18</v>
+      </c>
+      <c r="H335">
+        <v>1.76</v>
+      </c>
+      <c r="J335">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K335">
+        <v>17</v>
+      </c>
+      <c r="M335">
+        <f>J335/K335</f>
+        <v>4.4176470588235288</v>
+      </c>
     </row>
     <row r="336" spans="1:26">
       <c r="D336">
@@ -22970,8 +23311,24 @@
       <c r="F336">
         <v>500</v>
       </c>
-    </row>
-    <row r="337" spans="4:6">
+      <c r="G336">
+        <v>118.06</v>
+      </c>
+      <c r="H336">
+        <v>1.68</v>
+      </c>
+      <c r="J336">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K336">
+        <v>4.29</v>
+      </c>
+      <c r="M336">
+        <f t="shared" ref="M336:M358" si="19">J336/K336</f>
+        <v>17.505827505827504</v>
+      </c>
+    </row>
+    <row r="337" spans="4:13">
       <c r="D337">
         <v>16</v>
       </c>
@@ -22981,8 +23338,24 @@
       <c r="F337">
         <v>500</v>
       </c>
-    </row>
-    <row r="338" spans="4:6">
+      <c r="G337">
+        <v>49.55</v>
+      </c>
+      <c r="H337">
+        <v>1.7</v>
+      </c>
+      <c r="J337">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K337">
+        <v>1.06</v>
+      </c>
+      <c r="M337">
+        <f t="shared" si="19"/>
+        <v>70.849056603773576</v>
+      </c>
+    </row>
+    <row r="338" spans="4:13">
       <c r="D338">
         <v>4</v>
       </c>
@@ -22992,8 +23365,24 @@
       <c r="F338">
         <v>1000</v>
       </c>
-    </row>
-    <row r="339" spans="4:6">
+      <c r="G338">
+        <v>303.72000000000003</v>
+      </c>
+      <c r="H338">
+        <v>1.68</v>
+      </c>
+      <c r="J338">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K338">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="M338">
+        <f t="shared" si="19"/>
+        <v>4.3918128654970756</v>
+      </c>
+    </row>
+    <row r="339" spans="4:13">
       <c r="D339">
         <v>8</v>
       </c>
@@ -23003,8 +23392,24 @@
       <c r="F339">
         <v>1000</v>
       </c>
-    </row>
-    <row r="340" spans="4:6">
+      <c r="G339">
+        <v>45.83</v>
+      </c>
+      <c r="H339">
+        <v>1.68</v>
+      </c>
+      <c r="J339">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K339">
+        <v>4.29</v>
+      </c>
+      <c r="M339">
+        <f t="shared" si="19"/>
+        <v>17.505827505827504</v>
+      </c>
+    </row>
+    <row r="340" spans="4:13">
       <c r="D340">
         <v>16</v>
       </c>
@@ -23014,8 +23419,24 @@
       <c r="F340">
         <v>1000</v>
       </c>
-    </row>
-    <row r="341" spans="4:6">
+      <c r="G340">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="H340">
+        <v>1.86</v>
+      </c>
+      <c r="J340">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K340">
+        <v>1.06</v>
+      </c>
+      <c r="M340">
+        <f t="shared" si="19"/>
+        <v>70.849056603773576</v>
+      </c>
+    </row>
+    <row r="341" spans="4:13">
       <c r="D341">
         <v>4</v>
       </c>
@@ -23025,8 +23446,24 @@
       <c r="F341">
         <v>1500</v>
       </c>
-    </row>
-    <row r="342" spans="4:6">
+      <c r="G341">
+        <v>73.010000000000005</v>
+      </c>
+      <c r="H341">
+        <v>1.98</v>
+      </c>
+      <c r="J341">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K341">
+        <v>17</v>
+      </c>
+      <c r="M341">
+        <f t="shared" si="19"/>
+        <v>4.4176470588235288</v>
+      </c>
+    </row>
+    <row r="342" spans="4:13">
       <c r="D342">
         <v>8</v>
       </c>
@@ -23036,8 +23473,24 @@
       <c r="F342">
         <v>1500</v>
       </c>
-    </row>
-    <row r="343" spans="4:6">
+      <c r="G342">
+        <v>48.87</v>
+      </c>
+      <c r="H342">
+        <v>1.81</v>
+      </c>
+      <c r="J342">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K342">
+        <v>4.29</v>
+      </c>
+      <c r="M342">
+        <f t="shared" si="19"/>
+        <v>17.505827505827504</v>
+      </c>
+    </row>
+    <row r="343" spans="4:13">
       <c r="D343">
         <v>16</v>
       </c>
@@ -23047,8 +23500,24 @@
       <c r="F343">
         <v>1500</v>
       </c>
-    </row>
-    <row r="344" spans="4:6">
+      <c r="G343">
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="H343">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="J343">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K343">
+        <v>1.06</v>
+      </c>
+      <c r="M343">
+        <f t="shared" si="19"/>
+        <v>70.849056603773576</v>
+      </c>
+    </row>
+    <row r="344" spans="4:13">
       <c r="D344">
         <v>4</v>
       </c>
@@ -23058,8 +23527,24 @@
       <c r="F344">
         <v>2000</v>
       </c>
-    </row>
-    <row r="345" spans="4:6">
+      <c r="G344">
+        <v>63.47</v>
+      </c>
+      <c r="H344">
+        <v>1.92</v>
+      </c>
+      <c r="J344">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K344">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="M344">
+        <f t="shared" si="19"/>
+        <v>4.3918128654970756</v>
+      </c>
+    </row>
+    <row r="345" spans="4:13">
       <c r="D345">
         <v>8</v>
       </c>
@@ -23069,8 +23554,24 @@
       <c r="F345">
         <v>2000</v>
       </c>
-    </row>
-    <row r="346" spans="4:6">
+      <c r="G345">
+        <v>49.16</v>
+      </c>
+      <c r="H345">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="J345">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K345">
+        <v>4.28</v>
+      </c>
+      <c r="M345">
+        <f t="shared" si="19"/>
+        <v>17.546728971962615</v>
+      </c>
+    </row>
+    <row r="346" spans="4:13">
       <c r="D346">
         <v>16</v>
       </c>
@@ -23080,8 +23581,24 @@
       <c r="F346">
         <v>2000</v>
       </c>
-    </row>
-    <row r="347" spans="4:6">
+      <c r="G346">
+        <v>10.83</v>
+      </c>
+      <c r="H346">
+        <v>1.79</v>
+      </c>
+      <c r="J346">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K346">
+        <v>1.06</v>
+      </c>
+      <c r="M346">
+        <f t="shared" si="19"/>
+        <v>70.849056603773576</v>
+      </c>
+    </row>
+    <row r="347" spans="4:13">
       <c r="D347">
         <v>4</v>
       </c>
@@ -23091,8 +23608,24 @@
       <c r="F347">
         <v>2500</v>
       </c>
-    </row>
-    <row r="348" spans="4:6">
+      <c r="G347">
+        <v>43.13</v>
+      </c>
+      <c r="H347">
+        <v>1.75</v>
+      </c>
+      <c r="J347">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K347">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="M347">
+        <f t="shared" si="19"/>
+        <v>4.3918128654970756</v>
+      </c>
+    </row>
+    <row r="348" spans="4:13">
       <c r="D348">
         <v>8</v>
       </c>
@@ -23102,8 +23635,24 @@
       <c r="F348">
         <v>2500</v>
       </c>
-    </row>
-    <row r="349" spans="4:6">
+      <c r="G348">
+        <v>30.47</v>
+      </c>
+      <c r="H348">
+        <v>1.79</v>
+      </c>
+      <c r="J348">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K348">
+        <v>4.29</v>
+      </c>
+      <c r="M348">
+        <f t="shared" si="19"/>
+        <v>17.505827505827504</v>
+      </c>
+    </row>
+    <row r="349" spans="4:13">
       <c r="D349">
         <v>16</v>
       </c>
@@ -23113,8 +23662,24 @@
       <c r="F349">
         <v>2500</v>
       </c>
-    </row>
-    <row r="350" spans="4:6">
+      <c r="G349">
+        <v>6.16</v>
+      </c>
+      <c r="H349">
+        <v>1.81</v>
+      </c>
+      <c r="J349">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K349">
+        <v>1.05</v>
+      </c>
+      <c r="M349">
+        <f t="shared" si="19"/>
+        <v>71.523809523809518</v>
+      </c>
+    </row>
+    <row r="350" spans="4:13">
       <c r="D350">
         <v>4</v>
       </c>
@@ -23124,8 +23689,24 @@
       <c r="F350">
         <v>3000</v>
       </c>
-    </row>
-    <row r="351" spans="4:6">
+      <c r="G350">
+        <v>19.309999999999999</v>
+      </c>
+      <c r="H350">
+        <v>1.7</v>
+      </c>
+      <c r="J350">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K350">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="M350">
+        <f t="shared" si="19"/>
+        <v>4.3918128654970756</v>
+      </c>
+    </row>
+    <row r="351" spans="4:13">
       <c r="D351">
         <v>8</v>
       </c>
@@ -23135,8 +23716,24 @@
       <c r="F351">
         <v>3000</v>
       </c>
-    </row>
-    <row r="352" spans="4:6">
+      <c r="G351">
+        <v>29.87</v>
+      </c>
+      <c r="H351">
+        <v>1.98</v>
+      </c>
+      <c r="J351">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K351">
+        <v>4.28</v>
+      </c>
+      <c r="M351">
+        <f t="shared" si="19"/>
+        <v>17.546728971962615</v>
+      </c>
+    </row>
+    <row r="352" spans="4:13">
       <c r="D352">
         <v>16</v>
       </c>
@@ -23145,6 +23742,22 @@
       </c>
       <c r="F352">
         <v>3000</v>
+      </c>
+      <c r="G352">
+        <v>6.33</v>
+      </c>
+      <c r="H352">
+        <v>1.92</v>
+      </c>
+      <c r="J352">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K352">
+        <v>1.05</v>
+      </c>
+      <c r="M352">
+        <f t="shared" si="19"/>
+        <v>71.523809523809518</v>
       </c>
     </row>
     <row r="353" spans="1:26">
@@ -23157,6 +23770,22 @@
       <c r="F353">
         <v>3500</v>
       </c>
+      <c r="G353">
+        <v>22.38</v>
+      </c>
+      <c r="H353">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="J353">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K353">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="M353">
+        <f t="shared" si="19"/>
+        <v>4.3918128654970756</v>
+      </c>
     </row>
     <row r="354" spans="1:26">
       <c r="D354">
@@ -23168,6 +23797,22 @@
       <c r="F354">
         <v>3500</v>
       </c>
+      <c r="G354">
+        <v>46.85</v>
+      </c>
+      <c r="H354">
+        <v>1.98</v>
+      </c>
+      <c r="J354">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K354">
+        <v>4.28</v>
+      </c>
+      <c r="M354">
+        <f t="shared" si="19"/>
+        <v>17.546728971962615</v>
+      </c>
     </row>
     <row r="355" spans="1:26">
       <c r="D355">
@@ -23179,6 +23824,22 @@
       <c r="F355">
         <v>3500</v>
       </c>
+      <c r="G355">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="H355">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="J355">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K355">
+        <v>1.05</v>
+      </c>
+      <c r="M355">
+        <f t="shared" si="19"/>
+        <v>71.523809523809518</v>
+      </c>
     </row>
     <row r="356" spans="1:26">
       <c r="D356">
@@ -23190,6 +23851,22 @@
       <c r="F356">
         <v>4000</v>
       </c>
+      <c r="G356">
+        <v>14.38</v>
+      </c>
+      <c r="H356">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="J356">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K356">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="M356">
+        <f t="shared" si="19"/>
+        <v>4.3918128654970756</v>
+      </c>
     </row>
     <row r="357" spans="1:26">
       <c r="D357">
@@ -23201,6 +23878,22 @@
       <c r="F357">
         <v>4000</v>
       </c>
+      <c r="G357">
+        <v>45.88</v>
+      </c>
+      <c r="H357">
+        <v>2.09</v>
+      </c>
+      <c r="J357">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K357">
+        <v>4.28</v>
+      </c>
+      <c r="M357">
+        <f t="shared" si="19"/>
+        <v>17.546728971962615</v>
+      </c>
     </row>
     <row r="358" spans="1:26">
       <c r="D358">
@@ -23211,6 +23904,22 @@
       </c>
       <c r="F358">
         <v>4000</v>
+      </c>
+      <c r="G358">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="H358">
+        <v>1.87</v>
+      </c>
+      <c r="J358">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K358">
+        <v>1.05</v>
+      </c>
+      <c r="M358">
+        <f t="shared" si="19"/>
+        <v>71.523809523809518</v>
       </c>
     </row>
     <row r="366" spans="1:26">
@@ -23286,16 +23995,28 @@
       <c r="F373">
         <v>2000</v>
       </c>
-      <c r="L373" t="e">
+      <c r="G373">
+        <v>49.42</v>
+      </c>
+      <c r="H373">
+        <v>2.62</v>
+      </c>
+      <c r="J373">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K373">
+        <v>4.28</v>
+      </c>
+      <c r="L373">
         <f>I373/K373</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M373" t="e">
+        <v>0</v>
+      </c>
+      <c r="M373">
         <f>J373/K373</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="374" spans="3:13">
+        <v>17.546728971962615</v>
+      </c>
+    </row>
+    <row r="374" spans="3:13" hidden="1">
       <c r="C374">
         <v>2</v>
       </c>
@@ -23305,8 +24026,24 @@
       <c r="F374">
         <v>2000</v>
       </c>
-    </row>
-    <row r="375" spans="3:13">
+      <c r="G374">
+        <v>49.29</v>
+      </c>
+      <c r="H374">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="J374">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K374">
+        <v>4.25</v>
+      </c>
+      <c r="M374">
+        <f t="shared" ref="M374:M379" si="20">J374/K374</f>
+        <v>17.670588235294115</v>
+      </c>
+    </row>
+    <row r="375" spans="3:13" hidden="1">
       <c r="C375">
         <v>3</v>
       </c>
@@ -23316,8 +24053,24 @@
       <c r="F375">
         <v>2000</v>
       </c>
-    </row>
-    <row r="376" spans="3:13">
+      <c r="G375">
+        <v>52.42</v>
+      </c>
+      <c r="H375">
+        <v>2.29</v>
+      </c>
+      <c r="J375">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K375">
+        <v>4.28</v>
+      </c>
+      <c r="M375">
+        <f t="shared" si="20"/>
+        <v>17.546728971962615</v>
+      </c>
+    </row>
+    <row r="376" spans="3:13" hidden="1">
       <c r="C376">
         <v>4</v>
       </c>
@@ -23327,8 +24080,24 @@
       <c r="F376">
         <v>2000</v>
       </c>
-    </row>
-    <row r="377" spans="3:13">
+      <c r="G376">
+        <v>49.09</v>
+      </c>
+      <c r="H376">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="J376">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K376">
+        <v>4.3</v>
+      </c>
+      <c r="M376">
+        <f t="shared" si="20"/>
+        <v>17.465116279069768</v>
+      </c>
+    </row>
+    <row r="377" spans="3:13" hidden="1">
       <c r="C377">
         <v>5</v>
       </c>
@@ -23338,8 +24107,24 @@
       <c r="F377">
         <v>2000</v>
       </c>
-    </row>
-    <row r="378" spans="3:13">
+      <c r="G377">
+        <v>43.23</v>
+      </c>
+      <c r="H377">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="J377">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K377">
+        <v>4.26</v>
+      </c>
+      <c r="M377">
+        <f t="shared" si="20"/>
+        <v>17.629107981220656</v>
+      </c>
+    </row>
+    <row r="378" spans="3:13" hidden="1">
       <c r="C378">
         <v>6</v>
       </c>
@@ -23349,8 +24134,24 @@
       <c r="F378">
         <v>2000</v>
       </c>
-    </row>
-    <row r="379" spans="3:13">
+      <c r="G378">
+        <v>34.99</v>
+      </c>
+      <c r="H378">
+        <v>2.19</v>
+      </c>
+      <c r="J378">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K378">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="M378">
+        <f t="shared" si="20"/>
+        <v>17.424593967517403</v>
+      </c>
+    </row>
+    <row r="379" spans="3:13" hidden="1">
       <c r="C379">
         <v>7</v>
       </c>
@@ -23360,8 +24161,24 @@
       <c r="F379">
         <v>2000</v>
       </c>
-    </row>
-    <row r="380" spans="3:13">
+      <c r="G379">
+        <v>30.33</v>
+      </c>
+      <c r="H379">
+        <v>2.23</v>
+      </c>
+      <c r="J379">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K379">
+        <v>4.21</v>
+      </c>
+      <c r="M379">
+        <f t="shared" si="20"/>
+        <v>17.838479809976246</v>
+      </c>
+    </row>
+    <row r="380" spans="3:13" hidden="1">
       <c r="C380">
         <v>8</v>
       </c>
@@ -23372,7 +24189,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="381" spans="3:13">
+    <row r="381" spans="3:13" hidden="1">
       <c r="C381">
         <v>9</v>
       </c>
@@ -23383,7 +24200,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="382" spans="3:13">
+    <row r="382" spans="3:13" hidden="1">
       <c r="C382">
         <v>10</v>
       </c>
@@ -23394,7 +24211,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="383" spans="3:13">
+    <row r="383" spans="3:13" hidden="1">
       <c r="C383">
         <v>11</v>
       </c>
@@ -23405,7 +24222,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="384" spans="3:13">
+    <row r="384" spans="3:13" hidden="1">
       <c r="C384">
         <v>12</v>
       </c>
@@ -23416,7 +24233,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="385" spans="3:6">
+    <row r="385" spans="3:6" hidden="1">
       <c r="C385">
         <v>13</v>
       </c>
@@ -23427,7 +24244,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="386" spans="3:6">
+    <row r="386" spans="3:6" hidden="1">
       <c r="C386">
         <v>14</v>
       </c>
@@ -23438,7 +24255,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="387" spans="3:6">
+    <row r="387" spans="3:6" hidden="1">
       <c r="C387">
         <v>15</v>
       </c>
@@ -23449,7 +24266,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="388" spans="3:6">
+    <row r="388" spans="3:6" hidden="1">
       <c r="C388">
         <v>16</v>
       </c>
@@ -23460,7 +24277,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="389" spans="3:6">
+    <row r="389" spans="3:6" hidden="1">
       <c r="C389">
         <v>17</v>
       </c>
@@ -23471,7 +24288,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="390" spans="3:6">
+    <row r="390" spans="3:6" hidden="1">
       <c r="C390">
         <v>18</v>
       </c>
@@ -23482,7 +24299,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="391" spans="3:6">
+    <row r="391" spans="3:6" hidden="1">
       <c r="C391">
         <v>19</v>
       </c>
@@ -23493,7 +24310,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="392" spans="3:6">
+    <row r="392" spans="3:6" hidden="1">
       <c r="C392">
         <v>20</v>
       </c>
@@ -23504,7 +24321,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="393" spans="3:6">
+    <row r="393" spans="3:6" hidden="1">
       <c r="C393">
         <v>21</v>
       </c>
@@ -23515,7 +24332,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="394" spans="3:6">
+    <row r="394" spans="3:6" hidden="1">
       <c r="C394">
         <v>22</v>
       </c>
@@ -23526,7 +24343,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="395" spans="3:6">
+    <row r="395" spans="3:6" hidden="1">
       <c r="C395">
         <v>23</v>
       </c>
@@ -23537,7 +24354,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="396" spans="3:6">
+    <row r="396" spans="3:6" hidden="1">
       <c r="C396">
         <v>24</v>
       </c>
@@ -23548,7 +24365,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="397" spans="3:6">
+    <row r="397" spans="3:6" hidden="1">
       <c r="C397">
         <v>25</v>
       </c>
@@ -23559,7 +24376,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="398" spans="3:6">
+    <row r="398" spans="3:6" hidden="1">
       <c r="C398">
         <v>26</v>
       </c>
@@ -23570,7 +24387,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="399" spans="3:6">
+    <row r="399" spans="3:6" hidden="1">
       <c r="C399">
         <v>27</v>
       </c>
@@ -23581,7 +24398,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="400" spans="3:6">
+    <row r="400" spans="3:6" hidden="1">
       <c r="C400">
         <v>28</v>
       </c>
@@ -23592,7 +24409,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="401" spans="3:13">
+    <row r="401" spans="3:13" hidden="1">
       <c r="C401">
         <v>29</v>
       </c>
@@ -23607,33 +24424,33 @@
       <c r="C402" t="s">
         <v>18</v>
       </c>
-      <c r="G402" t="e">
+      <c r="G402">
         <f>AVERAGE(G373:G401)</f>
+        <v>44.11</v>
+      </c>
+      <c r="H402">
+        <f t="shared" ref="H402:M402" si="21">AVERAGE(H373:H401)</f>
+        <v>2.3528571428571432</v>
+      </c>
+      <c r="I402" t="e">
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H402" t="e">
-        <f t="shared" ref="H402:M402" si="16">AVERAGE(H373:H401)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I402" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J402" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K402" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L402" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M402" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
+      <c r="J402">
+        <f t="shared" si="21"/>
+        <v>75.100000000000009</v>
+      </c>
+      <c r="K402">
+        <f t="shared" si="21"/>
+        <v>4.2700000000000005</v>
+      </c>
+      <c r="L402">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="M402">
+        <f t="shared" si="21"/>
+        <v>17.588763459571918</v>
       </c>
     </row>
   </sheetData>
@@ -23646,11 +24463,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:Z402"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="B361" workbookViewId="0">
+      <selection activeCell="G412" sqref="G412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="0" hidden="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="1:13" ht="60">
       <c r="A3" s="1"/>
@@ -23706,16 +24528,28 @@
       <c r="F4">
         <v>2000</v>
       </c>
-      <c r="L4" t="e">
+      <c r="G4">
+        <v>35.04</v>
+      </c>
+      <c r="H4">
+        <v>1.93</v>
+      </c>
+      <c r="J4">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K4">
+        <v>4.25</v>
+      </c>
+      <c r="L4">
         <f>I4/K4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M4" t="e">
+        <v>0</v>
+      </c>
+      <c r="M4">
         <f>J4/K4</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>17.670588235294115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" hidden="1">
       <c r="C5">
         <v>2</v>
       </c>
@@ -23725,8 +24559,24 @@
       <c r="F5">
         <v>2000</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="G5">
+        <v>39.49</v>
+      </c>
+      <c r="H5">
+        <v>2.17</v>
+      </c>
+      <c r="J5">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K5">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5:M10" si="0">J5/K5</f>
+        <v>17.264367816091955</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" hidden="1">
       <c r="C6">
         <v>3</v>
       </c>
@@ -23736,8 +24586,24 @@
       <c r="F6">
         <v>2000</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="G6">
+        <v>41.78</v>
+      </c>
+      <c r="H6">
+        <v>1.81</v>
+      </c>
+      <c r="J6">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K6">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>17.264367816091955</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" hidden="1">
       <c r="C7">
         <v>4</v>
       </c>
@@ -23747,8 +24613,24 @@
       <c r="F7">
         <v>2000</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="G7">
+        <v>42.96</v>
+      </c>
+      <c r="H7">
+        <v>1.75</v>
+      </c>
+      <c r="J7">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K7">
+        <v>4.34</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>17.304147465437786</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" hidden="1">
       <c r="C8">
         <v>5</v>
       </c>
@@ -23758,8 +24640,24 @@
       <c r="F8">
         <v>2000</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="G8">
+        <v>29.41</v>
+      </c>
+      <c r="H8">
+        <v>2.23</v>
+      </c>
+      <c r="J8">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K8">
+        <v>4.28</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>17.546728971962615</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" hidden="1">
       <c r="C9">
         <v>6</v>
       </c>
@@ -23769,8 +24667,24 @@
       <c r="F9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="G9">
+        <v>31.56</v>
+      </c>
+      <c r="H9">
+        <v>2.15</v>
+      </c>
+      <c r="J9">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K9">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>17.264367816091955</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" hidden="1">
       <c r="C10">
         <v>7</v>
       </c>
@@ -23780,8 +24694,24 @@
       <c r="F10">
         <v>2000</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="G10">
+        <v>30.78</v>
+      </c>
+      <c r="H10">
+        <v>2.25</v>
+      </c>
+      <c r="J10">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K10">
+        <v>4.33</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>17.344110854503462</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" hidden="1">
       <c r="C11">
         <v>8</v>
       </c>
@@ -23792,7 +24722,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" hidden="1">
       <c r="C12">
         <v>9</v>
       </c>
@@ -23803,7 +24733,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" hidden="1">
       <c r="C13">
         <v>10</v>
       </c>
@@ -23814,7 +24744,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" hidden="1">
       <c r="C14">
         <v>11</v>
       </c>
@@ -23825,7 +24755,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" hidden="1">
       <c r="C15">
         <v>12</v>
       </c>
@@ -23836,7 +24766,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" hidden="1">
       <c r="C16">
         <v>13</v>
       </c>
@@ -23847,7 +24777,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="17" spans="3:6">
+    <row r="17" spans="3:6" hidden="1">
       <c r="C17">
         <v>14</v>
       </c>
@@ -23858,7 +24788,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="18" spans="3:6">
+    <row r="18" spans="3:6" hidden="1">
       <c r="C18">
         <v>15</v>
       </c>
@@ -23869,7 +24799,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="19" spans="3:6">
+    <row r="19" spans="3:6" hidden="1">
       <c r="C19">
         <v>16</v>
       </c>
@@ -23880,7 +24810,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="20" spans="3:6">
+    <row r="20" spans="3:6" hidden="1">
       <c r="C20">
         <v>17</v>
       </c>
@@ -23891,7 +24821,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:6">
+    <row r="21" spans="3:6" hidden="1">
       <c r="C21">
         <v>18</v>
       </c>
@@ -23902,7 +24832,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="22" spans="3:6">
+    <row r="22" spans="3:6" hidden="1">
       <c r="C22">
         <v>19</v>
       </c>
@@ -23913,7 +24843,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="23" spans="3:6">
+    <row r="23" spans="3:6" hidden="1">
       <c r="C23">
         <v>20</v>
       </c>
@@ -23924,7 +24854,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="24" spans="3:6">
+    <row r="24" spans="3:6" hidden="1">
       <c r="C24">
         <v>21</v>
       </c>
@@ -23935,7 +24865,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="25" spans="3:6">
+    <row r="25" spans="3:6" hidden="1">
       <c r="C25">
         <v>22</v>
       </c>
@@ -23946,7 +24876,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="26" spans="3:6">
+    <row r="26" spans="3:6" hidden="1">
       <c r="C26">
         <v>23</v>
       </c>
@@ -23957,7 +24887,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="27" spans="3:6">
+    <row r="27" spans="3:6" hidden="1">
       <c r="C27">
         <v>24</v>
       </c>
@@ -23968,7 +24898,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="28" spans="3:6">
+    <row r="28" spans="3:6" hidden="1">
       <c r="C28">
         <v>25</v>
       </c>
@@ -23979,7 +24909,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="29" spans="3:6">
+    <row r="29" spans="3:6" hidden="1">
       <c r="C29">
         <v>26</v>
       </c>
@@ -23990,7 +24920,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="30" spans="3:6">
+    <row r="30" spans="3:6" hidden="1">
       <c r="C30">
         <v>27</v>
       </c>
@@ -24001,7 +24931,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="31" spans="3:6">
+    <row r="31" spans="3:6" hidden="1">
       <c r="C31">
         <v>28</v>
       </c>
@@ -24012,7 +24942,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="32" spans="3:6">
+    <row r="32" spans="3:6" hidden="1">
       <c r="C32">
         <v>29</v>
       </c>
@@ -24026,6 +24956,34 @@
     <row r="33" spans="3:13">
       <c r="C33" t="s">
         <v>18</v>
+      </c>
+      <c r="G33">
+        <f>AVERAGE(G4:G32)</f>
+        <v>35.86</v>
+      </c>
+      <c r="H33">
+        <f t="shared" ref="H33:M33" si="1">AVERAGE(H4:H32)</f>
+        <v>2.0414285714285714</v>
+      </c>
+      <c r="I33" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="1"/>
+        <v>75.100000000000009</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="1"/>
+        <v>4.3214285714285712</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="1"/>
+        <v>17.379811282210547</v>
       </c>
     </row>
     <row r="38" spans="3:13" ht="60">
@@ -24074,16 +25032,28 @@
       <c r="F39">
         <v>2000</v>
       </c>
-      <c r="L39" t="e">
+      <c r="G39">
+        <v>34.44</v>
+      </c>
+      <c r="H39">
+        <v>2.4</v>
+      </c>
+      <c r="J39">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K39">
+        <v>4.24</v>
+      </c>
+      <c r="L39">
         <f>I39/K39</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M39" t="e">
+        <v>0</v>
+      </c>
+      <c r="M39">
         <f>J39/K39</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="40" spans="3:13">
+        <v>17.712264150943394</v>
+      </c>
+    </row>
+    <row r="40" spans="3:13" hidden="1">
       <c r="C40">
         <v>2</v>
       </c>
@@ -24093,8 +25063,24 @@
       <c r="F40">
         <v>2000</v>
       </c>
-    </row>
-    <row r="41" spans="3:13">
+      <c r="G40">
+        <v>37.14</v>
+      </c>
+      <c r="H40">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="J40">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K40">
+        <v>4.34</v>
+      </c>
+      <c r="M40">
+        <f t="shared" ref="M40:M45" si="2">J40/K40</f>
+        <v>17.304147465437786</v>
+      </c>
+    </row>
+    <row r="41" spans="3:13" hidden="1">
       <c r="C41">
         <v>3</v>
       </c>
@@ -24104,8 +25090,24 @@
       <c r="F41">
         <v>2000</v>
       </c>
-    </row>
-    <row r="42" spans="3:13">
+      <c r="G41">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="H41">
+        <v>2.73</v>
+      </c>
+      <c r="J41">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K41">
+        <v>4.34</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="2"/>
+        <v>17.304147465437786</v>
+      </c>
+    </row>
+    <row r="42" spans="3:13" hidden="1">
       <c r="C42">
         <v>4</v>
       </c>
@@ -24115,8 +25117,24 @@
       <c r="F42">
         <v>2000</v>
       </c>
-    </row>
-    <row r="43" spans="3:13">
+      <c r="G42">
+        <v>45.96</v>
+      </c>
+      <c r="H42">
+        <v>2.64</v>
+      </c>
+      <c r="J42">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K42">
+        <v>4.3</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="2"/>
+        <v>17.465116279069768</v>
+      </c>
+    </row>
+    <row r="43" spans="3:13" hidden="1">
       <c r="C43">
         <v>5</v>
       </c>
@@ -24126,8 +25144,24 @@
       <c r="F43">
         <v>2000</v>
       </c>
-    </row>
-    <row r="44" spans="3:13">
+      <c r="G43">
+        <v>36.85</v>
+      </c>
+      <c r="H43">
+        <v>2.68</v>
+      </c>
+      <c r="J43">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K43">
+        <v>4.29</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="2"/>
+        <v>17.505827505827504</v>
+      </c>
+    </row>
+    <row r="44" spans="3:13" hidden="1">
       <c r="C44">
         <v>6</v>
       </c>
@@ -24137,8 +25171,24 @@
       <c r="F44">
         <v>2000</v>
       </c>
-    </row>
-    <row r="45" spans="3:13">
+      <c r="G44">
+        <v>51.89</v>
+      </c>
+      <c r="H44">
+        <v>2.25</v>
+      </c>
+      <c r="J44">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K44">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="2"/>
+        <v>17.264367816091955</v>
+      </c>
+    </row>
+    <row r="45" spans="3:13" hidden="1">
       <c r="C45">
         <v>7</v>
       </c>
@@ -24148,8 +25198,24 @@
       <c r="F45">
         <v>2000</v>
       </c>
-    </row>
-    <row r="46" spans="3:13">
+      <c r="G45">
+        <v>26.19</v>
+      </c>
+      <c r="H45">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="J45">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K45">
+        <v>4.33</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="2"/>
+        <v>17.344110854503462</v>
+      </c>
+    </row>
+    <row r="46" spans="3:13" hidden="1">
       <c r="C46">
         <v>8</v>
       </c>
@@ -24160,7 +25226,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="47" spans="3:13">
+    <row r="47" spans="3:13" hidden="1">
       <c r="C47">
         <v>9</v>
       </c>
@@ -24171,7 +25237,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="48" spans="3:13">
+    <row r="48" spans="3:13" hidden="1">
       <c r="C48">
         <v>10</v>
       </c>
@@ -24182,7 +25248,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="49" spans="3:6">
+    <row r="49" spans="3:6" hidden="1">
       <c r="C49">
         <v>11</v>
       </c>
@@ -24193,7 +25259,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="50" spans="3:6">
+    <row r="50" spans="3:6" hidden="1">
       <c r="C50">
         <v>12</v>
       </c>
@@ -24204,7 +25270,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="51" spans="3:6">
+    <row r="51" spans="3:6" hidden="1">
       <c r="C51">
         <v>13</v>
       </c>
@@ -24215,7 +25281,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="52" spans="3:6">
+    <row r="52" spans="3:6" hidden="1">
       <c r="C52">
         <v>14</v>
       </c>
@@ -24226,7 +25292,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="53" spans="3:6">
+    <row r="53" spans="3:6" hidden="1">
       <c r="C53">
         <v>15</v>
       </c>
@@ -24237,7 +25303,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="54" spans="3:6">
+    <row r="54" spans="3:6" hidden="1">
       <c r="C54">
         <v>16</v>
       </c>
@@ -24248,7 +25314,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="55" spans="3:6">
+    <row r="55" spans="3:6" hidden="1">
       <c r="C55">
         <v>17</v>
       </c>
@@ -24259,7 +25325,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="56" spans="3:6">
+    <row r="56" spans="3:6" hidden="1">
       <c r="C56">
         <v>18</v>
       </c>
@@ -24270,7 +25336,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="57" spans="3:6">
+    <row r="57" spans="3:6" hidden="1">
       <c r="C57">
         <v>19</v>
       </c>
@@ -24281,7 +25347,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="58" spans="3:6">
+    <row r="58" spans="3:6" hidden="1">
       <c r="C58">
         <v>20</v>
       </c>
@@ -24292,7 +25358,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="59" spans="3:6">
+    <row r="59" spans="3:6" hidden="1">
       <c r="C59">
         <v>21</v>
       </c>
@@ -24303,7 +25369,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="60" spans="3:6">
+    <row r="60" spans="3:6" hidden="1">
       <c r="C60">
         <v>22</v>
       </c>
@@ -24314,7 +25380,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="61" spans="3:6">
+    <row r="61" spans="3:6" hidden="1">
       <c r="C61">
         <v>23</v>
       </c>
@@ -24325,7 +25391,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="62" spans="3:6">
+    <row r="62" spans="3:6" hidden="1">
       <c r="C62">
         <v>24</v>
       </c>
@@ -24336,7 +25402,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="63" spans="3:6">
+    <row r="63" spans="3:6" hidden="1">
       <c r="C63">
         <v>25</v>
       </c>
@@ -24347,7 +25413,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="64" spans="3:6">
+    <row r="64" spans="3:6" hidden="1">
       <c r="C64">
         <v>26</v>
       </c>
@@ -24358,7 +25424,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="65" spans="3:13">
+    <row r="65" spans="3:13" hidden="1">
       <c r="C65">
         <v>27</v>
       </c>
@@ -24369,7 +25435,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="66" spans="3:13">
+    <row r="66" spans="3:13" hidden="1">
       <c r="C66">
         <v>28</v>
       </c>
@@ -24380,7 +25446,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="67" spans="3:13">
+    <row r="67" spans="3:13" hidden="1">
       <c r="C67">
         <v>29</v>
       </c>
@@ -24394,6 +25460,34 @@
     <row r="68" spans="3:13">
       <c r="C68" t="s">
         <v>18</v>
+      </c>
+      <c r="G68">
+        <f>AVERAGE(G39:G67)</f>
+        <v>38.467142857142854</v>
+      </c>
+      <c r="H68">
+        <f t="shared" ref="H68:M68" si="3">AVERAGE(H39:H67)</f>
+        <v>2.4428571428571431</v>
+      </c>
+      <c r="I68" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="3"/>
+        <v>75.100000000000009</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="3"/>
+        <v>4.3128571428571423</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="3"/>
+        <v>17.414283076758807</v>
       </c>
     </row>
     <row r="73" spans="3:13" ht="60">
@@ -24442,16 +25536,28 @@
       <c r="F74">
         <v>2000</v>
       </c>
-      <c r="L74" t="e">
+      <c r="G74">
+        <v>23.85</v>
+      </c>
+      <c r="H74">
+        <v>2.56</v>
+      </c>
+      <c r="J74">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K74">
+        <v>4.24</v>
+      </c>
+      <c r="L74">
         <f>I74/K74</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M74" t="e">
+        <v>0</v>
+      </c>
+      <c r="M74">
         <f>J74/K74</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="75" spans="3:13">
+        <v>17.712264150943394</v>
+      </c>
+    </row>
+    <row r="75" spans="3:13" hidden="1">
       <c r="C75">
         <v>2</v>
       </c>
@@ -24461,8 +25567,24 @@
       <c r="F75">
         <v>2000</v>
       </c>
-    </row>
-    <row r="76" spans="3:13">
+      <c r="G75">
+        <v>43.48</v>
+      </c>
+      <c r="H75">
+        <v>2.19</v>
+      </c>
+      <c r="J75">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K75">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="M75">
+        <f t="shared" ref="M75:M80" si="4">J75/K75</f>
+        <v>17.424593967517403</v>
+      </c>
+    </row>
+    <row r="76" spans="3:13" hidden="1">
       <c r="C76">
         <v>3</v>
       </c>
@@ -24472,8 +25594,24 @@
       <c r="F76">
         <v>2000</v>
       </c>
-    </row>
-    <row r="77" spans="3:13">
+      <c r="G76">
+        <v>43.84</v>
+      </c>
+      <c r="H76">
+        <v>2.69</v>
+      </c>
+      <c r="J76">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K76">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="4"/>
+        <v>17.424593967517403</v>
+      </c>
+    </row>
+    <row r="77" spans="3:13" hidden="1">
       <c r="C77">
         <v>4</v>
       </c>
@@ -24483,8 +25621,24 @@
       <c r="F77">
         <v>2000</v>
       </c>
-    </row>
-    <row r="78" spans="3:13">
+      <c r="G77">
+        <v>25.43</v>
+      </c>
+      <c r="H77">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="J77">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K77">
+        <v>4.3</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="4"/>
+        <v>17.465116279069768</v>
+      </c>
+    </row>
+    <row r="78" spans="3:13" hidden="1">
       <c r="C78">
         <v>5</v>
       </c>
@@ -24494,8 +25648,24 @@
       <c r="F78">
         <v>2000</v>
       </c>
-    </row>
-    <row r="79" spans="3:13">
+      <c r="G78">
+        <v>24.32</v>
+      </c>
+      <c r="H78">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="J78">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K78">
+        <v>4.28</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="4"/>
+        <v>17.546728971962615</v>
+      </c>
+    </row>
+    <row r="79" spans="3:13" hidden="1">
       <c r="C79">
         <v>6</v>
       </c>
@@ -24505,8 +25675,24 @@
       <c r="F79">
         <v>2000</v>
       </c>
-    </row>
-    <row r="80" spans="3:13">
+      <c r="G79">
+        <v>22.06</v>
+      </c>
+      <c r="H79">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="J79">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K79">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="4"/>
+        <v>17.224770642201833</v>
+      </c>
+    </row>
+    <row r="80" spans="3:13" hidden="1">
       <c r="C80">
         <v>7</v>
       </c>
@@ -24516,8 +25702,24 @@
       <c r="F80">
         <v>2000</v>
       </c>
-    </row>
-    <row r="81" spans="3:6">
+      <c r="G80">
+        <v>33.76</v>
+      </c>
+      <c r="H80">
+        <v>1.82</v>
+      </c>
+      <c r="J80">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K80">
+        <v>4.32</v>
+      </c>
+      <c r="M80">
+        <f t="shared" si="4"/>
+        <v>17.384259259259256</v>
+      </c>
+    </row>
+    <row r="81" spans="3:6" hidden="1">
       <c r="C81">
         <v>8</v>
       </c>
@@ -24528,7 +25730,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="82" spans="3:6">
+    <row r="82" spans="3:6" hidden="1">
       <c r="C82">
         <v>9</v>
       </c>
@@ -24539,7 +25741,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="83" spans="3:6">
+    <row r="83" spans="3:6" hidden="1">
       <c r="C83">
         <v>10</v>
       </c>
@@ -24550,7 +25752,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="84" spans="3:6">
+    <row r="84" spans="3:6" hidden="1">
       <c r="C84">
         <v>11</v>
       </c>
@@ -24561,7 +25763,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="85" spans="3:6">
+    <row r="85" spans="3:6" hidden="1">
       <c r="C85">
         <v>12</v>
       </c>
@@ -24572,7 +25774,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="86" spans="3:6">
+    <row r="86" spans="3:6" hidden="1">
       <c r="C86">
         <v>13</v>
       </c>
@@ -24583,7 +25785,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="87" spans="3:6">
+    <row r="87" spans="3:6" hidden="1">
       <c r="C87">
         <v>14</v>
       </c>
@@ -24594,7 +25796,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="88" spans="3:6">
+    <row r="88" spans="3:6" hidden="1">
       <c r="C88">
         <v>15</v>
       </c>
@@ -24605,7 +25807,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="89" spans="3:6">
+    <row r="89" spans="3:6" hidden="1">
       <c r="C89">
         <v>16</v>
       </c>
@@ -24616,7 +25818,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="90" spans="3:6">
+    <row r="90" spans="3:6" hidden="1">
       <c r="C90">
         <v>17</v>
       </c>
@@ -24627,7 +25829,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="91" spans="3:6">
+    <row r="91" spans="3:6" hidden="1">
       <c r="C91">
         <v>18</v>
       </c>
@@ -24638,7 +25840,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="92" spans="3:6">
+    <row r="92" spans="3:6" hidden="1">
       <c r="C92">
         <v>19</v>
       </c>
@@ -24649,7 +25851,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="93" spans="3:6">
+    <row r="93" spans="3:6" hidden="1">
       <c r="C93">
         <v>20</v>
       </c>
@@ -24660,7 +25862,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="94" spans="3:6">
+    <row r="94" spans="3:6" hidden="1">
       <c r="C94">
         <v>21</v>
       </c>
@@ -24671,7 +25873,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="95" spans="3:6">
+    <row r="95" spans="3:6" hidden="1">
       <c r="C95">
         <v>22</v>
       </c>
@@ -24682,7 +25884,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="96" spans="3:6">
+    <row r="96" spans="3:6" hidden="1">
       <c r="C96">
         <v>23</v>
       </c>
@@ -24693,7 +25895,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="97" spans="1:26">
+    <row r="97" spans="1:26" hidden="1">
       <c r="C97">
         <v>24</v>
       </c>
@@ -24704,7 +25906,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="98" spans="1:26">
+    <row r="98" spans="1:26" hidden="1">
       <c r="C98">
         <v>25</v>
       </c>
@@ -24715,7 +25917,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="99" spans="1:26">
+    <row r="99" spans="1:26" hidden="1">
       <c r="C99">
         <v>26</v>
       </c>
@@ -24726,7 +25928,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="100" spans="1:26">
+    <row r="100" spans="1:26" hidden="1">
       <c r="C100">
         <v>27</v>
       </c>
@@ -24737,7 +25939,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="101" spans="1:26">
+    <row r="101" spans="1:26" hidden="1">
       <c r="C101">
         <v>28</v>
       </c>
@@ -24748,7 +25950,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="102" spans="1:26">
+    <row r="102" spans="1:26" hidden="1">
       <c r="C102">
         <v>29</v>
       </c>
@@ -24762,6 +25964,34 @@
     <row r="103" spans="1:26">
       <c r="C103" t="s">
         <v>18</v>
+      </c>
+      <c r="G103">
+        <f>AVERAGE(G74:G102)</f>
+        <v>30.962857142857139</v>
+      </c>
+      <c r="H103">
+        <f t="shared" ref="H103:M103" si="5">AVERAGE(H74:H102)</f>
+        <v>2.351428571428571</v>
+      </c>
+      <c r="I103" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J103">
+        <f t="shared" si="5"/>
+        <v>75.100000000000009</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="5"/>
+        <v>4.3028571428571434</v>
+      </c>
+      <c r="L103">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <f t="shared" si="5"/>
+        <v>17.454618176924523</v>
       </c>
     </row>
     <row r="108" spans="1:26">
@@ -24838,16 +26068,28 @@
       <c r="F114">
         <v>2000</v>
       </c>
-      <c r="L114" t="e">
+      <c r="G114">
+        <v>243.03</v>
+      </c>
+      <c r="H114">
+        <v>1.74</v>
+      </c>
+      <c r="J114">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K114">
+        <v>14.2</v>
+      </c>
+      <c r="L114">
         <f>I114/K114</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M114" t="e">
+        <v>0</v>
+      </c>
+      <c r="M114">
         <f>J114/K114</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="115" spans="3:13">
+        <v>5.288732394366197</v>
+      </c>
+    </row>
+    <row r="115" spans="3:13" hidden="1">
       <c r="C115">
         <v>2</v>
       </c>
@@ -24857,8 +26099,24 @@
       <c r="F115">
         <v>2000</v>
       </c>
-    </row>
-    <row r="116" spans="3:13">
+      <c r="G115">
+        <v>235.97</v>
+      </c>
+      <c r="H115">
+        <v>1.67</v>
+      </c>
+      <c r="J115">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K115">
+        <v>15.9</v>
+      </c>
+      <c r="M115">
+        <f t="shared" ref="M115:M120" si="6">J115/K115</f>
+        <v>4.7232704402515715</v>
+      </c>
+    </row>
+    <row r="116" spans="3:13" hidden="1">
       <c r="C116">
         <v>3</v>
       </c>
@@ -24868,8 +26126,24 @@
       <c r="F116">
         <v>2000</v>
       </c>
-    </row>
-    <row r="117" spans="3:13">
+      <c r="G116">
+        <v>237.48</v>
+      </c>
+      <c r="H116">
+        <v>1.73</v>
+      </c>
+      <c r="J116">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K116">
+        <v>16.7</v>
+      </c>
+      <c r="M116">
+        <f t="shared" si="6"/>
+        <v>4.4970059880239521</v>
+      </c>
+    </row>
+    <row r="117" spans="3:13" hidden="1">
       <c r="C117">
         <v>4</v>
       </c>
@@ -24879,8 +26153,24 @@
       <c r="F117">
         <v>2000</v>
       </c>
-    </row>
-    <row r="118" spans="3:13">
+      <c r="G117">
+        <v>242.59</v>
+      </c>
+      <c r="H117">
+        <v>1.75</v>
+      </c>
+      <c r="J117">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K117">
+        <v>16.5</v>
+      </c>
+      <c r="M117">
+        <f t="shared" si="6"/>
+        <v>4.5515151515151508</v>
+      </c>
+    </row>
+    <row r="118" spans="3:13" hidden="1">
       <c r="C118">
         <v>5</v>
       </c>
@@ -24890,8 +26180,24 @@
       <c r="F118">
         <v>2000</v>
       </c>
-    </row>
-    <row r="119" spans="3:13">
+      <c r="G118">
+        <v>231.55</v>
+      </c>
+      <c r="H118">
+        <v>1.74</v>
+      </c>
+      <c r="J118">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K118">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="M118">
+        <f t="shared" si="6"/>
+        <v>4.6645962732919246</v>
+      </c>
+    </row>
+    <row r="119" spans="3:13" hidden="1">
       <c r="C119">
         <v>6</v>
       </c>
@@ -24901,8 +26207,24 @@
       <c r="F119">
         <v>2000</v>
       </c>
-    </row>
-    <row r="120" spans="3:13">
+      <c r="G119">
+        <v>245.87</v>
+      </c>
+      <c r="H119">
+        <v>1.73</v>
+      </c>
+      <c r="J119">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K119">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="M119">
+        <f t="shared" si="6"/>
+        <v>4.443786982248521</v>
+      </c>
+    </row>
+    <row r="120" spans="3:13" hidden="1">
       <c r="C120">
         <v>7</v>
       </c>
@@ -24912,8 +26234,24 @@
       <c r="F120">
         <v>2000</v>
       </c>
-    </row>
-    <row r="121" spans="3:13">
+      <c r="G120">
+        <v>241.99</v>
+      </c>
+      <c r="H120">
+        <v>1.7</v>
+      </c>
+      <c r="J120">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K120">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="M120">
+        <f t="shared" si="6"/>
+        <v>4.5792682926829267</v>
+      </c>
+    </row>
+    <row r="121" spans="3:13" hidden="1">
       <c r="C121">
         <v>8</v>
       </c>
@@ -24924,7 +26262,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="122" spans="3:13">
+    <row r="122" spans="3:13" hidden="1">
       <c r="C122">
         <v>9</v>
       </c>
@@ -24935,7 +26273,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="123" spans="3:13">
+    <row r="123" spans="3:13" hidden="1">
       <c r="C123">
         <v>10</v>
       </c>
@@ -24946,7 +26284,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="124" spans="3:13">
+    <row r="124" spans="3:13" hidden="1">
       <c r="C124">
         <v>11</v>
       </c>
@@ -24957,7 +26295,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="125" spans="3:13">
+    <row r="125" spans="3:13" hidden="1">
       <c r="C125">
         <v>12</v>
       </c>
@@ -24968,7 +26306,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="126" spans="3:13">
+    <row r="126" spans="3:13" hidden="1">
       <c r="C126">
         <v>13</v>
       </c>
@@ -24979,7 +26317,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="127" spans="3:13">
+    <row r="127" spans="3:13" hidden="1">
       <c r="C127">
         <v>14</v>
       </c>
@@ -24990,7 +26328,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="128" spans="3:13">
+    <row r="128" spans="3:13" hidden="1">
       <c r="C128">
         <v>15</v>
       </c>
@@ -25001,7 +26339,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="129" spans="3:6">
+    <row r="129" spans="3:13" hidden="1">
       <c r="C129">
         <v>16</v>
       </c>
@@ -25012,7 +26350,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="130" spans="3:6">
+    <row r="130" spans="3:13" hidden="1">
       <c r="C130">
         <v>17</v>
       </c>
@@ -25023,7 +26361,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="131" spans="3:6">
+    <row r="131" spans="3:13" hidden="1">
       <c r="C131">
         <v>18</v>
       </c>
@@ -25034,7 +26372,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="132" spans="3:6">
+    <row r="132" spans="3:13" hidden="1">
       <c r="C132">
         <v>19</v>
       </c>
@@ -25045,7 +26383,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="133" spans="3:6">
+    <row r="133" spans="3:13" hidden="1">
       <c r="C133">
         <v>20</v>
       </c>
@@ -25056,7 +26394,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="134" spans="3:6">
+    <row r="134" spans="3:13" hidden="1">
       <c r="C134">
         <v>21</v>
       </c>
@@ -25067,7 +26405,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="135" spans="3:6">
+    <row r="135" spans="3:13" hidden="1">
       <c r="C135">
         <v>22</v>
       </c>
@@ -25078,7 +26416,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="136" spans="3:6">
+    <row r="136" spans="3:13" hidden="1">
       <c r="C136">
         <v>23</v>
       </c>
@@ -25089,7 +26427,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="137" spans="3:6">
+    <row r="137" spans="3:13" hidden="1">
       <c r="C137">
         <v>24</v>
       </c>
@@ -25100,7 +26438,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="138" spans="3:6">
+    <row r="138" spans="3:13" hidden="1">
       <c r="C138">
         <v>25</v>
       </c>
@@ -25111,7 +26449,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="139" spans="3:6">
+    <row r="139" spans="3:13" hidden="1">
       <c r="C139">
         <v>26</v>
       </c>
@@ -25122,7 +26460,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="140" spans="3:6">
+    <row r="140" spans="3:13" hidden="1">
       <c r="C140">
         <v>27</v>
       </c>
@@ -25133,7 +26471,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="141" spans="3:6">
+    <row r="141" spans="3:13" hidden="1">
       <c r="C141">
         <v>28</v>
       </c>
@@ -25144,7 +26482,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="142" spans="3:6">
+    <row r="142" spans="3:13" hidden="1">
       <c r="C142">
         <v>29</v>
       </c>
@@ -25155,9 +26493,37 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="143" spans="3:6">
+    <row r="143" spans="3:13">
       <c r="C143" t="s">
         <v>18</v>
+      </c>
+      <c r="G143">
+        <f>AVERAGE(G114:G142)</f>
+        <v>239.78285714285718</v>
+      </c>
+      <c r="H143">
+        <f t="shared" ref="H143:M143" si="7">AVERAGE(H114:H142)</f>
+        <v>1.7228571428571429</v>
+      </c>
+      <c r="I143" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J143">
+        <f t="shared" si="7"/>
+        <v>75.100000000000009</v>
+      </c>
+      <c r="K143">
+        <f t="shared" si="7"/>
+        <v>16.100000000000001</v>
+      </c>
+      <c r="L143">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M143">
+        <f t="shared" si="7"/>
+        <v>4.678310788911463</v>
       </c>
     </row>
     <row r="148" spans="3:13" ht="60">
@@ -25206,16 +26572,28 @@
       <c r="F149">
         <v>2000</v>
       </c>
-      <c r="L149" t="e">
+      <c r="G149">
+        <v>169.96</v>
+      </c>
+      <c r="H149">
+        <v>1.92</v>
+      </c>
+      <c r="J149">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K149">
+        <v>14.4</v>
+      </c>
+      <c r="L149">
         <f>I149/K149</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M149" t="e">
+        <v>0</v>
+      </c>
+      <c r="M149">
         <f>J149/K149</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="150" spans="3:13">
+        <v>5.2152777777777777</v>
+      </c>
+    </row>
+    <row r="150" spans="3:13" hidden="1">
       <c r="C150">
         <v>2</v>
       </c>
@@ -25225,8 +26603,24 @@
       <c r="F150">
         <v>2000</v>
       </c>
-    </row>
-    <row r="151" spans="3:13">
+      <c r="G150">
+        <v>165.76</v>
+      </c>
+      <c r="H150">
+        <v>2.13</v>
+      </c>
+      <c r="J150">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K150">
+        <v>15.9</v>
+      </c>
+      <c r="M150">
+        <f t="shared" ref="M150:M155" si="8">J150/K150</f>
+        <v>4.7232704402515715</v>
+      </c>
+    </row>
+    <row r="151" spans="3:13" hidden="1">
       <c r="C151">
         <v>3</v>
       </c>
@@ -25236,8 +26630,24 @@
       <c r="F151">
         <v>2000</v>
       </c>
-    </row>
-    <row r="152" spans="3:13">
+      <c r="G151">
+        <v>156.66</v>
+      </c>
+      <c r="H151">
+        <v>1.72</v>
+      </c>
+      <c r="J151">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K151">
+        <v>16.8</v>
+      </c>
+      <c r="M151">
+        <f t="shared" si="8"/>
+        <v>4.4702380952380949</v>
+      </c>
+    </row>
+    <row r="152" spans="3:13" hidden="1">
       <c r="C152">
         <v>4</v>
       </c>
@@ -25247,8 +26657,24 @@
       <c r="F152">
         <v>2000</v>
       </c>
-    </row>
-    <row r="153" spans="3:13">
+      <c r="G152">
+        <v>188</v>
+      </c>
+      <c r="H152">
+        <v>1.73</v>
+      </c>
+      <c r="J152">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K152">
+        <v>16.5</v>
+      </c>
+      <c r="M152">
+        <f t="shared" si="8"/>
+        <v>4.5515151515151508</v>
+      </c>
+    </row>
+    <row r="153" spans="3:13" hidden="1">
       <c r="C153">
         <v>5</v>
       </c>
@@ -25258,8 +26684,24 @@
       <c r="F153">
         <v>2000</v>
       </c>
-    </row>
-    <row r="154" spans="3:13">
+      <c r="G153">
+        <v>155.91999999999999</v>
+      </c>
+      <c r="H153">
+        <v>1.65</v>
+      </c>
+      <c r="J153">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K153">
+        <v>16</v>
+      </c>
+      <c r="M153">
+        <f t="shared" si="8"/>
+        <v>4.6937499999999996</v>
+      </c>
+    </row>
+    <row r="154" spans="3:13" hidden="1">
       <c r="C154">
         <v>6</v>
       </c>
@@ -25269,8 +26711,24 @@
       <c r="F154">
         <v>2000</v>
       </c>
-    </row>
-    <row r="155" spans="3:13">
+      <c r="G154">
+        <v>181.07</v>
+      </c>
+      <c r="H154">
+        <v>1.78</v>
+      </c>
+      <c r="J154">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K154">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="M154">
+        <f t="shared" si="8"/>
+        <v>4.443786982248521</v>
+      </c>
+    </row>
+    <row r="155" spans="3:13" hidden="1">
       <c r="C155">
         <v>7</v>
       </c>
@@ -25280,8 +26738,24 @@
       <c r="F155">
         <v>2000</v>
       </c>
-    </row>
-    <row r="156" spans="3:13">
+      <c r="G155">
+        <v>152.97</v>
+      </c>
+      <c r="H155">
+        <v>1.68</v>
+      </c>
+      <c r="J155">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K155">
+        <v>16.3</v>
+      </c>
+      <c r="M155">
+        <f t="shared" si="8"/>
+        <v>4.6073619631901837</v>
+      </c>
+    </row>
+    <row r="156" spans="3:13" hidden="1">
       <c r="C156">
         <v>8</v>
       </c>
@@ -25292,7 +26766,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="157" spans="3:13">
+    <row r="157" spans="3:13" hidden="1">
       <c r="C157">
         <v>9</v>
       </c>
@@ -25303,7 +26777,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="158" spans="3:13">
+    <row r="158" spans="3:13" hidden="1">
       <c r="C158">
         <v>10</v>
       </c>
@@ -25314,7 +26788,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="159" spans="3:13">
+    <row r="159" spans="3:13" hidden="1">
       <c r="C159">
         <v>11</v>
       </c>
@@ -25325,7 +26799,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="160" spans="3:13">
+    <row r="160" spans="3:13" hidden="1">
       <c r="C160">
         <v>12</v>
       </c>
@@ -25336,7 +26810,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="161" spans="3:6">
+    <row r="161" spans="3:6" hidden="1">
       <c r="C161">
         <v>13</v>
       </c>
@@ -25347,7 +26821,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="162" spans="3:6">
+    <row r="162" spans="3:6" hidden="1">
       <c r="C162">
         <v>14</v>
       </c>
@@ -25358,7 +26832,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="163" spans="3:6">
+    <row r="163" spans="3:6" hidden="1">
       <c r="C163">
         <v>15</v>
       </c>
@@ -25369,7 +26843,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="164" spans="3:6">
+    <row r="164" spans="3:6" hidden="1">
       <c r="C164">
         <v>16</v>
       </c>
@@ -25380,7 +26854,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="165" spans="3:6">
+    <row r="165" spans="3:6" hidden="1">
       <c r="C165">
         <v>17</v>
       </c>
@@ -25391,7 +26865,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="166" spans="3:6">
+    <row r="166" spans="3:6" hidden="1">
       <c r="C166">
         <v>18</v>
       </c>
@@ -25402,7 +26876,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="167" spans="3:6">
+    <row r="167" spans="3:6" hidden="1">
       <c r="C167">
         <v>19</v>
       </c>
@@ -25413,7 +26887,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="168" spans="3:6">
+    <row r="168" spans="3:6" hidden="1">
       <c r="C168">
         <v>20</v>
       </c>
@@ -25424,7 +26898,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="169" spans="3:6">
+    <row r="169" spans="3:6" hidden="1">
       <c r="C169">
         <v>21</v>
       </c>
@@ -25435,7 +26909,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="170" spans="3:6">
+    <row r="170" spans="3:6" hidden="1">
       <c r="C170">
         <v>22</v>
       </c>
@@ -25446,7 +26920,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="171" spans="3:6">
+    <row r="171" spans="3:6" hidden="1">
       <c r="C171">
         <v>23</v>
       </c>
@@ -25457,7 +26931,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="172" spans="3:6">
+    <row r="172" spans="3:6" hidden="1">
       <c r="C172">
         <v>24</v>
       </c>
@@ -25468,7 +26942,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="173" spans="3:6">
+    <row r="173" spans="3:6" hidden="1">
       <c r="C173">
         <v>25</v>
       </c>
@@ -25479,7 +26953,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="174" spans="3:6">
+    <row r="174" spans="3:6" hidden="1">
       <c r="C174">
         <v>26</v>
       </c>
@@ -25490,7 +26964,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="175" spans="3:6">
+    <row r="175" spans="3:6" hidden="1">
       <c r="C175">
         <v>27</v>
       </c>
@@ -25501,7 +26975,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="176" spans="3:6">
+    <row r="176" spans="3:6" hidden="1">
       <c r="C176">
         <v>28</v>
       </c>
@@ -25512,7 +26986,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="177" spans="3:13">
+    <row r="177" spans="3:13" hidden="1">
       <c r="C177">
         <v>29</v>
       </c>
@@ -25526,6 +27000,34 @@
     <row r="178" spans="3:13">
       <c r="C178" t="s">
         <v>18</v>
+      </c>
+      <c r="G178">
+        <f>AVERAGE(G149:G177)</f>
+        <v>167.19142857142856</v>
+      </c>
+      <c r="H178">
+        <f t="shared" ref="H178:M178" si="9">AVERAGE(H149:H177)</f>
+        <v>1.8014285714285714</v>
+      </c>
+      <c r="I178" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J178">
+        <f t="shared" si="9"/>
+        <v>75.100000000000009</v>
+      </c>
+      <c r="K178">
+        <f t="shared" si="9"/>
+        <v>16.114285714285714</v>
+      </c>
+      <c r="L178">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M178">
+        <f t="shared" si="9"/>
+        <v>4.6721714871744719</v>
       </c>
     </row>
     <row r="184" spans="3:13" ht="60">
@@ -25574,16 +27076,28 @@
       <c r="F185">
         <v>2000</v>
       </c>
-      <c r="L185" t="e">
+      <c r="G185">
+        <v>102.03</v>
+      </c>
+      <c r="H185">
+        <v>2.14</v>
+      </c>
+      <c r="J185">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K185">
+        <v>14.6</v>
+      </c>
+      <c r="L185">
         <f>I185/K185</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M185" t="e">
+        <v>0</v>
+      </c>
+      <c r="M185">
         <f>J185/K185</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="186" spans="3:13">
+        <v>5.1438356164383556</v>
+      </c>
+    </row>
+    <row r="186" spans="3:13" hidden="1">
       <c r="C186">
         <v>2</v>
       </c>
@@ -25593,8 +27107,24 @@
       <c r="F186">
         <v>2000</v>
       </c>
-    </row>
-    <row r="187" spans="3:13">
+      <c r="G186">
+        <v>185.71</v>
+      </c>
+      <c r="H186">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="J186">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K186">
+        <v>15.9</v>
+      </c>
+      <c r="M186">
+        <f t="shared" ref="M186:M191" si="10">J186/K186</f>
+        <v>4.7232704402515715</v>
+      </c>
+    </row>
+    <row r="187" spans="3:13" hidden="1">
       <c r="C187">
         <v>3</v>
       </c>
@@ -25604,8 +27134,24 @@
       <c r="F187">
         <v>2000</v>
       </c>
-    </row>
-    <row r="188" spans="3:13">
+      <c r="G187">
+        <v>169.14</v>
+      </c>
+      <c r="H187">
+        <v>1.84</v>
+      </c>
+      <c r="J187">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K187">
+        <v>17.2</v>
+      </c>
+      <c r="M187">
+        <f t="shared" si="10"/>
+        <v>4.3662790697674421</v>
+      </c>
+    </row>
+    <row r="188" spans="3:13" hidden="1">
       <c r="C188">
         <v>4</v>
       </c>
@@ -25615,8 +27161,24 @@
       <c r="F188">
         <v>2000</v>
       </c>
-    </row>
-    <row r="189" spans="3:13">
+      <c r="G188">
+        <v>86.29</v>
+      </c>
+      <c r="H188">
+        <v>1.74</v>
+      </c>
+      <c r="J188">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K188">
+        <v>17.2</v>
+      </c>
+      <c r="M188">
+        <f t="shared" si="10"/>
+        <v>4.3662790697674421</v>
+      </c>
+    </row>
+    <row r="189" spans="3:13" hidden="1">
       <c r="C189">
         <v>5</v>
       </c>
@@ -25626,8 +27188,24 @@
       <c r="F189">
         <v>2000</v>
       </c>
-    </row>
-    <row r="190" spans="3:13">
+      <c r="G189">
+        <v>85.69</v>
+      </c>
+      <c r="H189">
+        <v>1.79</v>
+      </c>
+      <c r="J189">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K189">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="M189">
+        <f t="shared" si="10"/>
+        <v>4.6645962732919246</v>
+      </c>
+    </row>
+    <row r="190" spans="3:13" hidden="1">
       <c r="C190">
         <v>6</v>
       </c>
@@ -25637,8 +27215,24 @@
       <c r="F190">
         <v>2000</v>
       </c>
-    </row>
-    <row r="191" spans="3:13">
+      <c r="G190">
+        <v>102.98</v>
+      </c>
+      <c r="H190">
+        <v>1.81</v>
+      </c>
+      <c r="J190">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K190">
+        <v>17.2</v>
+      </c>
+      <c r="M190">
+        <f t="shared" si="10"/>
+        <v>4.3662790697674421</v>
+      </c>
+    </row>
+    <row r="191" spans="3:13" hidden="1">
       <c r="C191">
         <v>7</v>
       </c>
@@ -25648,8 +27242,24 @@
       <c r="F191">
         <v>2000</v>
       </c>
-    </row>
-    <row r="192" spans="3:13">
+      <c r="G191">
+        <v>155.19</v>
+      </c>
+      <c r="H191">
+        <v>1.75</v>
+      </c>
+      <c r="J191">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K191">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="M191">
+        <f t="shared" si="10"/>
+        <v>4.443786982248521</v>
+      </c>
+    </row>
+    <row r="192" spans="3:13" hidden="1">
       <c r="C192">
         <v>8</v>
       </c>
@@ -25660,7 +27270,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="193" spans="3:6">
+    <row r="193" spans="3:6" hidden="1">
       <c r="C193">
         <v>9</v>
       </c>
@@ -25671,7 +27281,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="194" spans="3:6">
+    <row r="194" spans="3:6" hidden="1">
       <c r="C194">
         <v>10</v>
       </c>
@@ -25682,7 +27292,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="195" spans="3:6">
+    <row r="195" spans="3:6" hidden="1">
       <c r="C195">
         <v>11</v>
       </c>
@@ -25693,7 +27303,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="196" spans="3:6">
+    <row r="196" spans="3:6" hidden="1">
       <c r="C196">
         <v>12</v>
       </c>
@@ -25704,7 +27314,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="197" spans="3:6">
+    <row r="197" spans="3:6" hidden="1">
       <c r="C197">
         <v>13</v>
       </c>
@@ -25715,7 +27325,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="198" spans="3:6">
+    <row r="198" spans="3:6" hidden="1">
       <c r="C198">
         <v>14</v>
       </c>
@@ -25726,7 +27336,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="199" spans="3:6">
+    <row r="199" spans="3:6" hidden="1">
       <c r="C199">
         <v>15</v>
       </c>
@@ -25737,7 +27347,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="200" spans="3:6">
+    <row r="200" spans="3:6" hidden="1">
       <c r="C200">
         <v>16</v>
       </c>
@@ -25748,7 +27358,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="201" spans="3:6">
+    <row r="201" spans="3:6" hidden="1">
       <c r="C201">
         <v>17</v>
       </c>
@@ -25759,7 +27369,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="202" spans="3:6">
+    <row r="202" spans="3:6" hidden="1">
       <c r="C202">
         <v>18</v>
       </c>
@@ -25770,7 +27380,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="203" spans="3:6">
+    <row r="203" spans="3:6" hidden="1">
       <c r="C203">
         <v>19</v>
       </c>
@@ -25781,7 +27391,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="204" spans="3:6">
+    <row r="204" spans="3:6" hidden="1">
       <c r="C204">
         <v>20</v>
       </c>
@@ -25792,7 +27402,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="205" spans="3:6">
+    <row r="205" spans="3:6" hidden="1">
       <c r="C205">
         <v>21</v>
       </c>
@@ -25803,7 +27413,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="206" spans="3:6">
+    <row r="206" spans="3:6" hidden="1">
       <c r="C206">
         <v>22</v>
       </c>
@@ -25814,7 +27424,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="207" spans="3:6">
+    <row r="207" spans="3:6" hidden="1">
       <c r="C207">
         <v>23</v>
       </c>
@@ -25825,7 +27435,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="208" spans="3:6">
+    <row r="208" spans="3:6" hidden="1">
       <c r="C208">
         <v>24</v>
       </c>
@@ -25836,7 +27446,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="209" spans="1:26">
+    <row r="209" spans="1:26" hidden="1">
       <c r="C209">
         <v>25</v>
       </c>
@@ -25847,7 +27457,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="210" spans="1:26">
+    <row r="210" spans="1:26" hidden="1">
       <c r="C210">
         <v>26</v>
       </c>
@@ -25858,7 +27468,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="211" spans="1:26">
+    <row r="211" spans="1:26" hidden="1">
       <c r="C211">
         <v>27</v>
       </c>
@@ -25869,7 +27479,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="212" spans="1:26">
+    <row r="212" spans="1:26" hidden="1">
       <c r="C212">
         <v>28</v>
       </c>
@@ -25880,7 +27490,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="213" spans="1:26">
+    <row r="213" spans="1:26" hidden="1">
       <c r="C213">
         <v>29</v>
       </c>
@@ -25894,6 +27504,34 @@
     <row r="214" spans="1:26">
       <c r="C214" t="s">
         <v>18</v>
+      </c>
+      <c r="G214">
+        <f>AVERAGE(G185:G213)</f>
+        <v>126.71857142857142</v>
+      </c>
+      <c r="H214">
+        <f t="shared" ref="H214:M214" si="11">AVERAGE(H185:H213)</f>
+        <v>1.9042857142857144</v>
+      </c>
+      <c r="I214" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J214">
+        <f t="shared" si="11"/>
+        <v>75.100000000000009</v>
+      </c>
+      <c r="K214">
+        <f t="shared" si="11"/>
+        <v>16.442857142857143</v>
+      </c>
+      <c r="L214">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M214">
+        <f t="shared" si="11"/>
+        <v>4.5820466459332421</v>
       </c>
     </row>
     <row r="218" spans="1:26">
@@ -25970,16 +27608,28 @@
       <c r="F224">
         <v>2000</v>
       </c>
-      <c r="L224" t="e">
+      <c r="G224">
+        <v>37.46</v>
+      </c>
+      <c r="H224">
+        <v>1.83</v>
+      </c>
+      <c r="J224">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K224">
+        <v>4.24</v>
+      </c>
+      <c r="L224">
         <f>I224/K224</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M224" t="e">
+        <v>0</v>
+      </c>
+      <c r="M224">
         <f>J224/K224</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="225" spans="3:6">
+        <v>17.712264150943394</v>
+      </c>
+    </row>
+    <row r="225" spans="3:13" hidden="1">
       <c r="C225">
         <v>2</v>
       </c>
@@ -25989,8 +27639,24 @@
       <c r="F225">
         <v>2000</v>
       </c>
-    </row>
-    <row r="226" spans="3:6">
+      <c r="G225">
+        <v>37.590000000000003</v>
+      </c>
+      <c r="H225">
+        <v>2.09</v>
+      </c>
+      <c r="J225">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K225">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="M225">
+        <f t="shared" ref="M225:M230" si="12">J225/K225</f>
+        <v>17.224770642201833</v>
+      </c>
+    </row>
+    <row r="226" spans="3:13" hidden="1">
       <c r="C226">
         <v>3</v>
       </c>
@@ -26000,8 +27666,24 @@
       <c r="F226">
         <v>2000</v>
       </c>
-    </row>
-    <row r="227" spans="3:6">
+      <c r="G226">
+        <v>41.92</v>
+      </c>
+      <c r="H226">
+        <v>1.17</v>
+      </c>
+      <c r="J226">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K226">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="M226">
+        <f t="shared" si="12"/>
+        <v>17.264367816091955</v>
+      </c>
+    </row>
+    <row r="227" spans="3:13" hidden="1">
       <c r="C227">
         <v>4</v>
       </c>
@@ -26011,8 +27693,24 @@
       <c r="F227">
         <v>2000</v>
       </c>
-    </row>
-    <row r="228" spans="3:6">
+      <c r="G227">
+        <v>38.75</v>
+      </c>
+      <c r="H227">
+        <v>2.46</v>
+      </c>
+      <c r="J227">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K227">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="M227">
+        <f t="shared" si="12"/>
+        <v>17.264367816091955</v>
+      </c>
+    </row>
+    <row r="228" spans="3:13" hidden="1">
       <c r="C228">
         <v>5</v>
       </c>
@@ -26022,8 +27720,24 @@
       <c r="F228">
         <v>2000</v>
       </c>
-    </row>
-    <row r="229" spans="3:6">
+      <c r="G228">
+        <v>38.44</v>
+      </c>
+      <c r="H228">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="J228">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K228">
+        <v>4.29</v>
+      </c>
+      <c r="M228">
+        <f t="shared" si="12"/>
+        <v>17.505827505827504</v>
+      </c>
+    </row>
+    <row r="229" spans="3:13" hidden="1">
       <c r="C229">
         <v>6</v>
       </c>
@@ -26033,8 +27747,24 @@
       <c r="F229">
         <v>2000</v>
       </c>
-    </row>
-    <row r="230" spans="3:6">
+      <c r="G229">
+        <v>36.58</v>
+      </c>
+      <c r="H229">
+        <v>2.69</v>
+      </c>
+      <c r="J229">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K229">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="M229">
+        <f t="shared" si="12"/>
+        <v>17.264367816091955</v>
+      </c>
+    </row>
+    <row r="230" spans="3:13" hidden="1">
       <c r="C230">
         <v>7</v>
       </c>
@@ -26044,8 +27774,24 @@
       <c r="F230">
         <v>2000</v>
       </c>
-    </row>
-    <row r="231" spans="3:6">
+      <c r="G230">
+        <v>33.18</v>
+      </c>
+      <c r="H230">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="J230">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K230">
+        <v>4.33</v>
+      </c>
+      <c r="M230">
+        <f t="shared" si="12"/>
+        <v>17.344110854503462</v>
+      </c>
+    </row>
+    <row r="231" spans="3:13" hidden="1">
       <c r="C231">
         <v>8</v>
       </c>
@@ -26056,7 +27802,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="232" spans="3:6">
+    <row r="232" spans="3:13" hidden="1">
       <c r="C232">
         <v>9</v>
       </c>
@@ -26067,7 +27813,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="233" spans="3:6">
+    <row r="233" spans="3:13" hidden="1">
       <c r="C233">
         <v>10</v>
       </c>
@@ -26078,7 +27824,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="234" spans="3:6">
+    <row r="234" spans="3:13" hidden="1">
       <c r="C234">
         <v>11</v>
       </c>
@@ -26089,7 +27835,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="235" spans="3:6">
+    <row r="235" spans="3:13" hidden="1">
       <c r="C235">
         <v>12</v>
       </c>
@@ -26100,7 +27846,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="236" spans="3:6">
+    <row r="236" spans="3:13" hidden="1">
       <c r="C236">
         <v>13</v>
       </c>
@@ -26111,7 +27857,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="237" spans="3:6">
+    <row r="237" spans="3:13" hidden="1">
       <c r="C237">
         <v>14</v>
       </c>
@@ -26122,7 +27868,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="238" spans="3:6">
+    <row r="238" spans="3:13" hidden="1">
       <c r="C238">
         <v>15</v>
       </c>
@@ -26133,7 +27879,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="239" spans="3:6">
+    <row r="239" spans="3:13" hidden="1">
       <c r="C239">
         <v>16</v>
       </c>
@@ -26144,7 +27890,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="240" spans="3:6">
+    <row r="240" spans="3:13" hidden="1">
       <c r="C240">
         <v>17</v>
       </c>
@@ -26155,7 +27901,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="241" spans="3:6">
+    <row r="241" spans="3:13" hidden="1">
       <c r="C241">
         <v>18</v>
       </c>
@@ -26166,7 +27912,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="242" spans="3:6">
+    <row r="242" spans="3:13" hidden="1">
       <c r="C242">
         <v>19</v>
       </c>
@@ -26177,7 +27923,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="243" spans="3:6">
+    <row r="243" spans="3:13" hidden="1">
       <c r="C243">
         <v>20</v>
       </c>
@@ -26188,7 +27934,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="244" spans="3:6">
+    <row r="244" spans="3:13" hidden="1">
       <c r="C244">
         <v>21</v>
       </c>
@@ -26199,7 +27945,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="245" spans="3:6">
+    <row r="245" spans="3:13" hidden="1">
       <c r="C245">
         <v>22</v>
       </c>
@@ -26210,7 +27956,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="246" spans="3:6">
+    <row r="246" spans="3:13" hidden="1">
       <c r="C246">
         <v>23</v>
       </c>
@@ -26221,7 +27967,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="247" spans="3:6">
+    <row r="247" spans="3:13" hidden="1">
       <c r="C247">
         <v>24</v>
       </c>
@@ -26232,7 +27978,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="248" spans="3:6">
+    <row r="248" spans="3:13" hidden="1">
       <c r="C248">
         <v>25</v>
       </c>
@@ -26243,7 +27989,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="249" spans="3:6">
+    <row r="249" spans="3:13" hidden="1">
       <c r="C249">
         <v>26</v>
       </c>
@@ -26254,7 +28000,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="250" spans="3:6">
+    <row r="250" spans="3:13" hidden="1">
       <c r="C250">
         <v>27</v>
       </c>
@@ -26265,7 +28011,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="251" spans="3:6">
+    <row r="251" spans="3:13" hidden="1">
       <c r="C251">
         <v>28</v>
       </c>
@@ -26276,7 +28022,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="252" spans="3:6">
+    <row r="252" spans="3:13" hidden="1">
       <c r="C252">
         <v>29</v>
       </c>
@@ -26287,9 +28033,37 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="253" spans="3:6">
+    <row r="253" spans="3:13">
       <c r="C253" t="s">
         <v>18</v>
+      </c>
+      <c r="G253">
+        <f>AVERAGE(G224:G252)</f>
+        <v>37.702857142857148</v>
+      </c>
+      <c r="H253">
+        <f t="shared" ref="H253:M253" si="13">AVERAGE(H224:H252)</f>
+        <v>2.1</v>
+      </c>
+      <c r="I253" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J253">
+        <f t="shared" si="13"/>
+        <v>75.100000000000009</v>
+      </c>
+      <c r="K253">
+        <f t="shared" si="13"/>
+        <v>4.3242857142857138</v>
+      </c>
+      <c r="L253">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M253">
+        <f t="shared" si="13"/>
+        <v>17.368582371678865</v>
       </c>
     </row>
     <row r="258" spans="3:13" ht="60">
@@ -26338,16 +28112,28 @@
       <c r="F259">
         <v>2000</v>
       </c>
-      <c r="L259" t="e">
+      <c r="G259">
+        <v>37.17</v>
+      </c>
+      <c r="H259">
+        <v>2.54</v>
+      </c>
+      <c r="J259">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K259">
+        <v>4.24</v>
+      </c>
+      <c r="L259">
         <f>I259/K259</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M259" t="e">
+        <v>0</v>
+      </c>
+      <c r="M259">
         <f>J259/K259</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="260" spans="3:13">
+        <v>17.712264150943394</v>
+      </c>
+    </row>
+    <row r="260" spans="3:13" hidden="1">
       <c r="C260">
         <v>2</v>
       </c>
@@ -26357,8 +28143,24 @@
       <c r="F260">
         <v>2000</v>
       </c>
-    </row>
-    <row r="261" spans="3:13">
+      <c r="G260">
+        <v>33.46</v>
+      </c>
+      <c r="H260">
+        <v>2.65</v>
+      </c>
+      <c r="J260">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K260">
+        <v>4.34</v>
+      </c>
+      <c r="M260">
+        <f t="shared" ref="M260:M265" si="14">J260/K260</f>
+        <v>17.304147465437786</v>
+      </c>
+    </row>
+    <row r="261" spans="3:13" hidden="1">
       <c r="C261">
         <v>3</v>
       </c>
@@ -26368,8 +28170,24 @@
       <c r="F261">
         <v>2000</v>
       </c>
-    </row>
-    <row r="262" spans="3:13">
+      <c r="G261">
+        <v>31.32</v>
+      </c>
+      <c r="H261">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="J261">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K261">
+        <v>4.34</v>
+      </c>
+      <c r="M261">
+        <f t="shared" si="14"/>
+        <v>17.304147465437786</v>
+      </c>
+    </row>
+    <row r="262" spans="3:13" hidden="1">
       <c r="C262">
         <v>4</v>
       </c>
@@ -26379,8 +28197,24 @@
       <c r="F262">
         <v>2000</v>
       </c>
-    </row>
-    <row r="263" spans="3:13">
+      <c r="G262">
+        <v>40.1</v>
+      </c>
+      <c r="H262">
+        <v>2.15</v>
+      </c>
+      <c r="J262">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K262">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="M262">
+        <f t="shared" si="14"/>
+        <v>17.424593967517403</v>
+      </c>
+    </row>
+    <row r="263" spans="3:13" hidden="1">
       <c r="C263">
         <v>5</v>
       </c>
@@ -26390,8 +28224,24 @@
       <c r="F263">
         <v>2000</v>
       </c>
-    </row>
-    <row r="264" spans="3:13">
+      <c r="G263">
+        <v>33.01</v>
+      </c>
+      <c r="H263">
+        <v>2.46</v>
+      </c>
+      <c r="J263">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K263">
+        <v>4.29</v>
+      </c>
+      <c r="M263">
+        <f t="shared" si="14"/>
+        <v>17.505827505827504</v>
+      </c>
+    </row>
+    <row r="264" spans="3:13" hidden="1">
       <c r="C264">
         <v>6</v>
       </c>
@@ -26401,8 +28251,24 @@
       <c r="F264">
         <v>2000</v>
       </c>
-    </row>
-    <row r="265" spans="3:13">
+      <c r="G264">
+        <v>39.42</v>
+      </c>
+      <c r="H264">
+        <v>2.23</v>
+      </c>
+      <c r="J264">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K264">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="M264">
+        <f t="shared" si="14"/>
+        <v>17.264367816091955</v>
+      </c>
+    </row>
+    <row r="265" spans="3:13" hidden="1">
       <c r="C265">
         <v>7</v>
       </c>
@@ -26412,8 +28278,24 @@
       <c r="F265">
         <v>2000</v>
       </c>
-    </row>
-    <row r="266" spans="3:13">
+      <c r="G265">
+        <v>25.49</v>
+      </c>
+      <c r="H265">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="J265">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K265">
+        <v>4.33</v>
+      </c>
+      <c r="M265">
+        <f t="shared" si="14"/>
+        <v>17.344110854503462</v>
+      </c>
+    </row>
+    <row r="266" spans="3:13" hidden="1">
       <c r="C266">
         <v>8</v>
       </c>
@@ -26424,7 +28306,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="267" spans="3:13">
+    <row r="267" spans="3:13" hidden="1">
       <c r="C267">
         <v>9</v>
       </c>
@@ -26435,7 +28317,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="268" spans="3:13">
+    <row r="268" spans="3:13" hidden="1">
       <c r="C268">
         <v>10</v>
       </c>
@@ -26446,7 +28328,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="269" spans="3:13">
+    <row r="269" spans="3:13" hidden="1">
       <c r="C269">
         <v>11</v>
       </c>
@@ -26457,7 +28339,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="270" spans="3:13">
+    <row r="270" spans="3:13" hidden="1">
       <c r="C270">
         <v>12</v>
       </c>
@@ -26468,7 +28350,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="271" spans="3:13">
+    <row r="271" spans="3:13" hidden="1">
       <c r="C271">
         <v>13</v>
       </c>
@@ -26479,7 +28361,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="272" spans="3:13">
+    <row r="272" spans="3:13" hidden="1">
       <c r="C272">
         <v>14</v>
       </c>
@@ -26490,7 +28372,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="273" spans="3:6">
+    <row r="273" spans="3:13" hidden="1">
       <c r="C273">
         <v>15</v>
       </c>
@@ -26501,7 +28383,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="274" spans="3:6">
+    <row r="274" spans="3:13" hidden="1">
       <c r="C274">
         <v>16</v>
       </c>
@@ -26512,7 +28394,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="275" spans="3:6">
+    <row r="275" spans="3:13" hidden="1">
       <c r="C275">
         <v>17</v>
       </c>
@@ -26523,7 +28405,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="276" spans="3:6">
+    <row r="276" spans="3:13" hidden="1">
       <c r="C276">
         <v>18</v>
       </c>
@@ -26534,7 +28416,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="277" spans="3:6">
+    <row r="277" spans="3:13" hidden="1">
       <c r="C277">
         <v>19</v>
       </c>
@@ -26545,7 +28427,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="278" spans="3:6">
+    <row r="278" spans="3:13" hidden="1">
       <c r="C278">
         <v>20</v>
       </c>
@@ -26556,7 +28438,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="279" spans="3:6">
+    <row r="279" spans="3:13" hidden="1">
       <c r="C279">
         <v>21</v>
       </c>
@@ -26567,7 +28449,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="280" spans="3:6">
+    <row r="280" spans="3:13" hidden="1">
       <c r="C280">
         <v>22</v>
       </c>
@@ -26578,7 +28460,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="281" spans="3:6">
+    <row r="281" spans="3:13" hidden="1">
       <c r="C281">
         <v>23</v>
       </c>
@@ -26589,7 +28471,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="282" spans="3:6">
+    <row r="282" spans="3:13" hidden="1">
       <c r="C282">
         <v>24</v>
       </c>
@@ -26600,7 +28482,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="283" spans="3:6">
+    <row r="283" spans="3:13" hidden="1">
       <c r="C283">
         <v>25</v>
       </c>
@@ -26611,7 +28493,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="284" spans="3:6">
+    <row r="284" spans="3:13" hidden="1">
       <c r="C284">
         <v>26</v>
       </c>
@@ -26622,7 +28504,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="285" spans="3:6">
+    <row r="285" spans="3:13" hidden="1">
       <c r="C285">
         <v>27</v>
       </c>
@@ -26633,7 +28515,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="286" spans="3:6">
+    <row r="286" spans="3:13" hidden="1">
       <c r="C286">
         <v>28</v>
       </c>
@@ -26644,7 +28526,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="287" spans="3:6">
+    <row r="287" spans="3:13" hidden="1">
       <c r="C287">
         <v>29</v>
       </c>
@@ -26655,9 +28537,37 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="288" spans="3:6">
+    <row r="288" spans="3:13">
       <c r="C288" t="s">
         <v>18</v>
+      </c>
+      <c r="G288">
+        <f>AVERAGE(G259:G287)</f>
+        <v>34.28142857142857</v>
+      </c>
+      <c r="H288">
+        <f t="shared" ref="H288:M288" si="15">AVERAGE(H259:H287)</f>
+        <v>2.3414285714285716</v>
+      </c>
+      <c r="I288" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J288">
+        <f t="shared" si="15"/>
+        <v>75.100000000000009</v>
+      </c>
+      <c r="K288">
+        <f t="shared" si="15"/>
+        <v>4.3142857142857141</v>
+      </c>
+      <c r="L288">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M288">
+        <f t="shared" si="15"/>
+        <v>17.408494175108469</v>
       </c>
     </row>
     <row r="294" spans="3:13" ht="60">
@@ -26706,16 +28616,28 @@
       <c r="F295">
         <v>2000</v>
       </c>
-      <c r="L295" t="e">
+      <c r="G295">
+        <v>14.45</v>
+      </c>
+      <c r="H295">
+        <v>2.25</v>
+      </c>
+      <c r="J295">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K295">
+        <v>4.24</v>
+      </c>
+      <c r="L295">
         <f>I295/K295</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M295" t="e">
+        <v>0</v>
+      </c>
+      <c r="M295">
         <f>J295/K295</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="296" spans="3:13">
+        <v>17.712264150943394</v>
+      </c>
+    </row>
+    <row r="296" spans="3:13" hidden="1">
       <c r="C296">
         <v>2</v>
       </c>
@@ -26725,8 +28647,24 @@
       <c r="F296">
         <v>2000</v>
       </c>
-    </row>
-    <row r="297" spans="3:13">
+      <c r="G296">
+        <v>28.45</v>
+      </c>
+      <c r="H296">
+        <v>2.19</v>
+      </c>
+      <c r="J296">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K296">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="M296">
+        <f t="shared" ref="M296:M301" si="16">J296/K296</f>
+        <v>17.424593967517403</v>
+      </c>
+    </row>
+    <row r="297" spans="3:13" hidden="1">
       <c r="C297">
         <v>3</v>
       </c>
@@ -26736,8 +28674,24 @@
       <c r="F297">
         <v>2000</v>
       </c>
-    </row>
-    <row r="298" spans="3:13">
+      <c r="G297">
+        <v>29.23</v>
+      </c>
+      <c r="H297">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="J297">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K297">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="M297">
+        <f t="shared" si="16"/>
+        <v>17.424593967517403</v>
+      </c>
+    </row>
+    <row r="298" spans="3:13" hidden="1">
       <c r="C298">
         <v>4</v>
       </c>
@@ -26747,8 +28701,24 @@
       <c r="F298">
         <v>2000</v>
       </c>
-    </row>
-    <row r="299" spans="3:13">
+      <c r="G298">
+        <v>15.97</v>
+      </c>
+      <c r="H298">
+        <v>2.31</v>
+      </c>
+      <c r="J298">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K298">
+        <v>4.3</v>
+      </c>
+      <c r="M298">
+        <f t="shared" si="16"/>
+        <v>17.465116279069768</v>
+      </c>
+    </row>
+    <row r="299" spans="3:13" hidden="1">
       <c r="C299">
         <v>5</v>
       </c>
@@ -26758,8 +28728,24 @@
       <c r="F299">
         <v>2000</v>
       </c>
-    </row>
-    <row r="300" spans="3:13">
+      <c r="G299">
+        <v>15.19</v>
+      </c>
+      <c r="H299">
+        <v>2.31</v>
+      </c>
+      <c r="J299">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K299">
+        <v>4.29</v>
+      </c>
+      <c r="M299">
+        <f t="shared" si="16"/>
+        <v>17.505827505827504</v>
+      </c>
+    </row>
+    <row r="300" spans="3:13" hidden="1">
       <c r="C300">
         <v>6</v>
       </c>
@@ -26769,8 +28755,24 @@
       <c r="F300">
         <v>2000</v>
       </c>
-    </row>
-    <row r="301" spans="3:13">
+      <c r="G300">
+        <v>12.92</v>
+      </c>
+      <c r="H300">
+        <v>1.76</v>
+      </c>
+      <c r="J300">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K300">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="M300">
+        <f t="shared" si="16"/>
+        <v>17.224770642201833</v>
+      </c>
+    </row>
+    <row r="301" spans="3:13" hidden="1">
       <c r="C301">
         <v>7</v>
       </c>
@@ -26780,8 +28782,24 @@
       <c r="F301">
         <v>2000</v>
       </c>
-    </row>
-    <row r="302" spans="3:13">
+      <c r="G301">
+        <v>31.31</v>
+      </c>
+      <c r="H301">
+        <v>1.75</v>
+      </c>
+      <c r="J301">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K301">
+        <v>4.32</v>
+      </c>
+      <c r="M301">
+        <f t="shared" si="16"/>
+        <v>17.384259259259256</v>
+      </c>
+    </row>
+    <row r="302" spans="3:13" hidden="1">
       <c r="C302">
         <v>8</v>
       </c>
@@ -26792,7 +28810,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="303" spans="3:13">
+    <row r="303" spans="3:13" hidden="1">
       <c r="C303">
         <v>9</v>
       </c>
@@ -26803,7 +28821,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="304" spans="3:13">
+    <row r="304" spans="3:13" hidden="1">
       <c r="C304">
         <v>10</v>
       </c>
@@ -26814,7 +28832,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="305" spans="3:6">
+    <row r="305" spans="3:6" hidden="1">
       <c r="C305">
         <v>11</v>
       </c>
@@ -26825,7 +28843,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="306" spans="3:6">
+    <row r="306" spans="3:6" hidden="1">
       <c r="C306">
         <v>12</v>
       </c>
@@ -26836,7 +28854,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="307" spans="3:6">
+    <row r="307" spans="3:6" hidden="1">
       <c r="C307">
         <v>13</v>
       </c>
@@ -26847,7 +28865,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="308" spans="3:6">
+    <row r="308" spans="3:6" hidden="1">
       <c r="C308">
         <v>14</v>
       </c>
@@ -26858,7 +28876,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="309" spans="3:6">
+    <row r="309" spans="3:6" hidden="1">
       <c r="C309">
         <v>15</v>
       </c>
@@ -26869,7 +28887,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="310" spans="3:6">
+    <row r="310" spans="3:6" hidden="1">
       <c r="C310">
         <v>16</v>
       </c>
@@ -26880,7 +28898,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="311" spans="3:6">
+    <row r="311" spans="3:6" hidden="1">
       <c r="C311">
         <v>17</v>
       </c>
@@ -26891,7 +28909,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="312" spans="3:6">
+    <row r="312" spans="3:6" hidden="1">
       <c r="C312">
         <v>18</v>
       </c>
@@ -26902,7 +28920,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="313" spans="3:6">
+    <row r="313" spans="3:6" hidden="1">
       <c r="C313">
         <v>19</v>
       </c>
@@ -26913,7 +28931,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="314" spans="3:6">
+    <row r="314" spans="3:6" hidden="1">
       <c r="C314">
         <v>20</v>
       </c>
@@ -26924,7 +28942,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="315" spans="3:6">
+    <row r="315" spans="3:6" hidden="1">
       <c r="C315">
         <v>21</v>
       </c>
@@ -26935,7 +28953,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="316" spans="3:6">
+    <row r="316" spans="3:6" hidden="1">
       <c r="C316">
         <v>22</v>
       </c>
@@ -26946,7 +28964,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="317" spans="3:6">
+    <row r="317" spans="3:6" hidden="1">
       <c r="C317">
         <v>23</v>
       </c>
@@ -26957,7 +28975,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="318" spans="3:6">
+    <row r="318" spans="3:6" hidden="1">
       <c r="C318">
         <v>24</v>
       </c>
@@ -26968,7 +28986,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="319" spans="3:6">
+    <row r="319" spans="3:6" hidden="1">
       <c r="C319">
         <v>25</v>
       </c>
@@ -26979,7 +28997,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="320" spans="3:6">
+    <row r="320" spans="3:6" hidden="1">
       <c r="C320">
         <v>26</v>
       </c>
@@ -26990,7 +29008,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="321" spans="1:26">
+    <row r="321" spans="1:26" hidden="1">
       <c r="C321">
         <v>27</v>
       </c>
@@ -27001,7 +29019,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="322" spans="1:26">
+    <row r="322" spans="1:26" hidden="1">
       <c r="C322">
         <v>28</v>
       </c>
@@ -27012,7 +29030,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="323" spans="1:26">
+    <row r="323" spans="1:26" hidden="1">
       <c r="C323">
         <v>29</v>
       </c>
@@ -27026,6 +29044,34 @@
     <row r="324" spans="1:26">
       <c r="C324" t="s">
         <v>18</v>
+      </c>
+      <c r="G324">
+        <f>AVERAGE(G295:G323)</f>
+        <v>21.074285714285711</v>
+      </c>
+      <c r="H324">
+        <f t="shared" ref="H324:M324" si="17">AVERAGE(H295:H323)</f>
+        <v>2.1214285714285714</v>
+      </c>
+      <c r="I324" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J324">
+        <f t="shared" si="17"/>
+        <v>75.100000000000009</v>
+      </c>
+      <c r="K324">
+        <f t="shared" si="17"/>
+        <v>4.3042857142857143</v>
+      </c>
+      <c r="L324">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M324">
+        <f t="shared" si="17"/>
+        <v>17.448775110333791</v>
       </c>
     </row>
     <row r="329" spans="1:26">
@@ -27057,305 +29103,689 @@
       <c r="Z329" s="2"/>
     </row>
     <row r="334" spans="1:26" ht="60">
+      <c r="C334" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D334" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E334" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F334" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G334" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H334" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I334" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J334" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K334" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L334" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M334" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="335" spans="1:26">
+      <c r="C335" t="s">
+        <v>0</v>
+      </c>
+      <c r="D335">
         <v>4</v>
       </c>
-      <c r="I334" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J334" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K334" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L334" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M334" s="1" t="s">
+      <c r="E335" t="s">
+        <v>7</v>
+      </c>
+      <c r="F335">
+        <v>500</v>
+      </c>
+      <c r="G335">
+        <v>186.84</v>
+      </c>
+      <c r="H335">
+        <v>1.73</v>
+      </c>
+      <c r="J335">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K335">
         <v>17</v>
       </c>
-      <c r="N334" s="1" t="s">
+      <c r="M335">
+        <f>J335/K335</f>
+        <v>4.4176470588235288</v>
+      </c>
+    </row>
+    <row r="336" spans="1:26">
+      <c r="D336">
+        <v>8</v>
+      </c>
+      <c r="E336" t="s">
+        <v>7</v>
+      </c>
+      <c r="F336">
+        <v>500</v>
+      </c>
+      <c r="G336">
+        <v>28.98</v>
+      </c>
+      <c r="H336">
+        <v>1.72</v>
+      </c>
+      <c r="J336">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K336">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="M336">
+        <f t="shared" ref="M336:M358" si="18">J336/K336</f>
+        <v>17.264367816091955</v>
+      </c>
+    </row>
+    <row r="337" spans="4:13">
+      <c r="D337">
         <v>16</v>
       </c>
-    </row>
-    <row r="335" spans="1:26">
-      <c r="D335" t="s">
-        <v>0</v>
-      </c>
-      <c r="E335">
+      <c r="E337" t="s">
+        <v>7</v>
+      </c>
+      <c r="F337">
+        <v>500</v>
+      </c>
+      <c r="G337">
+        <v>7.74</v>
+      </c>
+      <c r="H337">
+        <v>2.36</v>
+      </c>
+      <c r="J337">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K337">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="M337">
+        <f t="shared" si="18"/>
+        <v>68.89908256880733</v>
+      </c>
+    </row>
+    <row r="338" spans="4:13">
+      <c r="D338">
         <v>4</v>
       </c>
-      <c r="F335" t="s">
-        <v>7</v>
-      </c>
-      <c r="G335">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="336" spans="1:26">
-      <c r="E336">
+      <c r="E338" t="s">
+        <v>7</v>
+      </c>
+      <c r="F338">
+        <v>1000</v>
+      </c>
+      <c r="G338">
+        <v>181.18</v>
+      </c>
+      <c r="H338">
+        <v>1.83</v>
+      </c>
+      <c r="J338">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K338">
+        <v>17</v>
+      </c>
+      <c r="M338">
+        <f t="shared" si="18"/>
+        <v>4.4176470588235288</v>
+      </c>
+    </row>
+    <row r="339" spans="4:13">
+      <c r="D339">
         <v>8</v>
       </c>
-      <c r="F336" t="s">
-        <v>7</v>
-      </c>
-      <c r="G336">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="337" spans="5:7">
-      <c r="E337">
+      <c r="E339" t="s">
+        <v>7</v>
+      </c>
+      <c r="F339">
+        <v>1000</v>
+      </c>
+      <c r="G339">
+        <v>49.05</v>
+      </c>
+      <c r="H339">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="J339">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K339">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="M339">
+        <f t="shared" si="18"/>
+        <v>17.264367816091955</v>
+      </c>
+    </row>
+    <row r="340" spans="4:13">
+      <c r="D340">
         <v>16</v>
       </c>
-      <c r="F337" t="s">
-        <v>7</v>
-      </c>
-      <c r="G337">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="338" spans="5:7">
-      <c r="E338">
+      <c r="E340" t="s">
+        <v>7</v>
+      </c>
+      <c r="F340">
+        <v>1000</v>
+      </c>
+      <c r="G340">
+        <v>11.48</v>
+      </c>
+      <c r="H340">
+        <v>1.98</v>
+      </c>
+      <c r="J340">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K340">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="M340">
+        <f t="shared" si="18"/>
+        <v>68.89908256880733</v>
+      </c>
+    </row>
+    <row r="341" spans="4:13">
+      <c r="D341">
         <v>4</v>
       </c>
-      <c r="F338" t="s">
-        <v>7</v>
-      </c>
-      <c r="G338">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="339" spans="5:7">
-      <c r="E339">
+      <c r="E341" t="s">
+        <v>7</v>
+      </c>
+      <c r="F341">
+        <v>1500</v>
+      </c>
+      <c r="G341">
+        <v>176.85</v>
+      </c>
+      <c r="H341">
+        <v>1.81</v>
+      </c>
+      <c r="J341">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K341">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="M341">
+        <f t="shared" si="18"/>
+        <v>4.3918128654970756</v>
+      </c>
+    </row>
+    <row r="342" spans="4:13">
+      <c r="D342">
         <v>8</v>
       </c>
-      <c r="F339" t="s">
-        <v>7</v>
-      </c>
-      <c r="G339">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="340" spans="5:7">
-      <c r="E340">
+      <c r="E342" t="s">
+        <v>7</v>
+      </c>
+      <c r="F342">
+        <v>1500</v>
+      </c>
+      <c r="G342">
+        <v>44.51</v>
+      </c>
+      <c r="H342">
+        <v>1.89</v>
+      </c>
+      <c r="J342">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K342">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="M342">
+        <f t="shared" si="18"/>
+        <v>17.264367816091955</v>
+      </c>
+    </row>
+    <row r="343" spans="4:13">
+      <c r="D343">
         <v>16</v>
       </c>
-      <c r="F340" t="s">
-        <v>7</v>
-      </c>
-      <c r="G340">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="341" spans="5:7">
-      <c r="E341">
+      <c r="E343" t="s">
+        <v>7</v>
+      </c>
+      <c r="F343">
+        <v>1500</v>
+      </c>
+      <c r="G343">
+        <v>7.77</v>
+      </c>
+      <c r="H343">
+        <v>1.83</v>
+      </c>
+      <c r="J343">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K343">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="M343">
+        <f t="shared" si="18"/>
+        <v>68.89908256880733</v>
+      </c>
+    </row>
+    <row r="344" spans="4:13">
+      <c r="D344">
         <v>4</v>
       </c>
-      <c r="F341" t="s">
-        <v>7</v>
-      </c>
-      <c r="G341">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="342" spans="5:7">
-      <c r="E342">
+      <c r="E344" t="s">
+        <v>7</v>
+      </c>
+      <c r="F344">
+        <v>2000</v>
+      </c>
+      <c r="G344">
+        <v>129.21</v>
+      </c>
+      <c r="H344">
+        <v>1.79</v>
+      </c>
+      <c r="J344">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K344">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="M344">
+        <f t="shared" si="18"/>
+        <v>4.3918128654970756</v>
+      </c>
+    </row>
+    <row r="345" spans="4:13">
+      <c r="D345">
         <v>8</v>
       </c>
-      <c r="F342" t="s">
-        <v>7</v>
-      </c>
-      <c r="G342">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="343" spans="5:7">
-      <c r="E343">
+      <c r="E345" t="s">
+        <v>7</v>
+      </c>
+      <c r="F345">
+        <v>2000</v>
+      </c>
+      <c r="G345">
+        <v>29.08</v>
+      </c>
+      <c r="H345">
+        <v>1.65</v>
+      </c>
+      <c r="J345">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K345">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="M345">
+        <f t="shared" si="18"/>
+        <v>17.264367816091955</v>
+      </c>
+    </row>
+    <row r="346" spans="4:13">
+      <c r="D346">
         <v>16</v>
       </c>
-      <c r="F343" t="s">
-        <v>7</v>
-      </c>
-      <c r="G343">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="344" spans="5:7">
-      <c r="E344">
+      <c r="E346" t="s">
+        <v>7</v>
+      </c>
+      <c r="F346">
+        <v>2000</v>
+      </c>
+      <c r="G346">
+        <v>6.05</v>
+      </c>
+      <c r="H346">
+        <v>1.72</v>
+      </c>
+      <c r="J346">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K346">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="M346">
+        <f t="shared" si="18"/>
+        <v>68.89908256880733</v>
+      </c>
+    </row>
+    <row r="347" spans="4:13">
+      <c r="D347">
         <v>4</v>
       </c>
-      <c r="F344" t="s">
-        <v>7</v>
-      </c>
-      <c r="G344">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="345" spans="5:7">
-      <c r="E345">
+      <c r="E347" t="s">
+        <v>7</v>
+      </c>
+      <c r="F347">
+        <v>2500</v>
+      </c>
+      <c r="G347">
+        <v>99.95</v>
+      </c>
+      <c r="H347">
+        <v>1.76</v>
+      </c>
+      <c r="J347">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K347">
+        <v>17</v>
+      </c>
+      <c r="M347">
+        <f t="shared" si="18"/>
+        <v>4.4176470588235288</v>
+      </c>
+    </row>
+    <row r="348" spans="4:13">
+      <c r="D348">
         <v>8</v>
       </c>
-      <c r="F345" t="s">
-        <v>7</v>
-      </c>
-      <c r="G345">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="346" spans="5:7">
-      <c r="E346">
+      <c r="E348" t="s">
+        <v>7</v>
+      </c>
+      <c r="F348">
+        <v>2500</v>
+      </c>
+      <c r="G348">
+        <v>28.83</v>
+      </c>
+      <c r="H348">
+        <v>1.68</v>
+      </c>
+      <c r="J348">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K348">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="M348">
+        <f t="shared" si="18"/>
+        <v>17.264367816091955</v>
+      </c>
+    </row>
+    <row r="349" spans="4:13">
+      <c r="D349">
         <v>16</v>
       </c>
-      <c r="F346" t="s">
-        <v>7</v>
-      </c>
-      <c r="G346">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="347" spans="5:7">
-      <c r="E347">
+      <c r="E349" t="s">
+        <v>7</v>
+      </c>
+      <c r="F349">
+        <v>2500</v>
+      </c>
+      <c r="G349">
+        <v>6.13</v>
+      </c>
+      <c r="H349">
+        <v>1.81</v>
+      </c>
+      <c r="J349">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K349">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="M349">
+        <f t="shared" si="18"/>
+        <v>68.89908256880733</v>
+      </c>
+    </row>
+    <row r="350" spans="4:13">
+      <c r="D350">
         <v>4</v>
       </c>
-      <c r="F347" t="s">
-        <v>7</v>
-      </c>
-      <c r="G347">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="348" spans="5:7">
-      <c r="E348">
+      <c r="E350" t="s">
+        <v>7</v>
+      </c>
+      <c r="F350">
+        <v>3000</v>
+      </c>
+      <c r="G350">
+        <v>97.08</v>
+      </c>
+      <c r="H350">
+        <v>1.76</v>
+      </c>
+      <c r="J350">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K350">
+        <v>17</v>
+      </c>
+      <c r="M350">
+        <f t="shared" si="18"/>
+        <v>4.4176470588235288</v>
+      </c>
+    </row>
+    <row r="351" spans="4:13">
+      <c r="D351">
         <v>8</v>
       </c>
-      <c r="F348" t="s">
-        <v>7</v>
-      </c>
-      <c r="G348">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="349" spans="5:7">
-      <c r="E349">
+      <c r="E351" t="s">
+        <v>7</v>
+      </c>
+      <c r="F351">
+        <v>3000</v>
+      </c>
+      <c r="G351">
+        <v>29.16</v>
+      </c>
+      <c r="H351">
+        <v>1.79</v>
+      </c>
+      <c r="J351">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K351">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="M351">
+        <f t="shared" si="18"/>
+        <v>17.264367816091955</v>
+      </c>
+    </row>
+    <row r="352" spans="4:13">
+      <c r="D352">
         <v>16</v>
       </c>
-      <c r="F349" t="s">
-        <v>7</v>
-      </c>
-      <c r="G349">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="350" spans="5:7">
-      <c r="E350">
+      <c r="E352" t="s">
+        <v>7</v>
+      </c>
+      <c r="F352">
+        <v>3000</v>
+      </c>
+      <c r="G352">
+        <v>6.15</v>
+      </c>
+      <c r="H352">
+        <v>1.73</v>
+      </c>
+      <c r="J352">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K352">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="M352">
+        <f t="shared" si="18"/>
+        <v>68.89908256880733</v>
+      </c>
+    </row>
+    <row r="353" spans="1:26">
+      <c r="D353">
         <v>4</v>
       </c>
-      <c r="F350" t="s">
-        <v>7</v>
-      </c>
-      <c r="G350">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="351" spans="5:7">
-      <c r="E351">
+      <c r="E353" t="s">
+        <v>7</v>
+      </c>
+      <c r="F353">
+        <v>3500</v>
+      </c>
+      <c r="G353">
+        <v>100.85</v>
+      </c>
+      <c r="H353">
+        <v>1.67</v>
+      </c>
+      <c r="J353">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K353">
+        <v>17</v>
+      </c>
+      <c r="M353">
+        <f t="shared" si="18"/>
+        <v>4.4176470588235288</v>
+      </c>
+    </row>
+    <row r="354" spans="1:26">
+      <c r="D354">
         <v>8</v>
       </c>
-      <c r="F351" t="s">
-        <v>7</v>
-      </c>
-      <c r="G351">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="352" spans="5:7">
-      <c r="E352">
+      <c r="E354" t="s">
+        <v>7</v>
+      </c>
+      <c r="F354">
+        <v>3500</v>
+      </c>
+      <c r="G354">
+        <v>28.95</v>
+      </c>
+      <c r="H354">
+        <v>1.78</v>
+      </c>
+      <c r="J354">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K354">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="M354">
+        <f t="shared" si="18"/>
+        <v>17.264367816091955</v>
+      </c>
+    </row>
+    <row r="355" spans="1:26">
+      <c r="D355">
         <v>16</v>
       </c>
-      <c r="F352" t="s">
-        <v>7</v>
-      </c>
-      <c r="G352">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="353" spans="1:26">
-      <c r="E353">
+      <c r="E355" t="s">
+        <v>7</v>
+      </c>
+      <c r="F355">
+        <v>3500</v>
+      </c>
+      <c r="G355">
+        <v>6.13</v>
+      </c>
+      <c r="H355">
+        <v>1.76</v>
+      </c>
+      <c r="J355">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K355">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="M355">
+        <f t="shared" si="18"/>
+        <v>68.89908256880733</v>
+      </c>
+    </row>
+    <row r="356" spans="1:26">
+      <c r="D356">
         <v>4</v>
       </c>
-      <c r="F353" t="s">
-        <v>7</v>
-      </c>
-      <c r="G353">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="354" spans="1:26">
-      <c r="E354">
+      <c r="E356" t="s">
+        <v>7</v>
+      </c>
+      <c r="F356">
+        <v>4000</v>
+      </c>
+      <c r="G356">
+        <v>96.67</v>
+      </c>
+      <c r="H356">
+        <v>1.7</v>
+      </c>
+      <c r="J356">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K356">
+        <v>17</v>
+      </c>
+      <c r="M356">
+        <f t="shared" si="18"/>
+        <v>4.4176470588235288</v>
+      </c>
+    </row>
+    <row r="357" spans="1:26">
+      <c r="D357">
         <v>8</v>
       </c>
-      <c r="F354" t="s">
-        <v>7</v>
-      </c>
-      <c r="G354">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="355" spans="1:26">
-      <c r="E355">
+      <c r="E357" t="s">
+        <v>7</v>
+      </c>
+      <c r="F357">
+        <v>4000</v>
+      </c>
+      <c r="G357">
+        <v>28.64</v>
+      </c>
+      <c r="H357">
+        <v>1.76</v>
+      </c>
+      <c r="J357">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K357">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="M357">
+        <f t="shared" si="18"/>
+        <v>17.264367816091955</v>
+      </c>
+    </row>
+    <row r="358" spans="1:26">
+      <c r="D358">
         <v>16</v>
       </c>
-      <c r="F355" t="s">
-        <v>7</v>
-      </c>
-      <c r="G355">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="356" spans="1:26">
-      <c r="E356">
-        <v>4</v>
-      </c>
-      <c r="F356" t="s">
-        <v>7</v>
-      </c>
-      <c r="G356">
+      <c r="E358" t="s">
+        <v>7</v>
+      </c>
+      <c r="F358">
         <v>4000</v>
       </c>
-    </row>
-    <row r="357" spans="1:26">
-      <c r="E357">
-        <v>8</v>
-      </c>
-      <c r="F357" t="s">
-        <v>7</v>
-      </c>
-      <c r="G357">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="358" spans="1:26">
-      <c r="E358">
-        <v>16</v>
-      </c>
-      <c r="F358" t="s">
-        <v>7</v>
-      </c>
       <c r="G358">
-        <v>4000</v>
+        <v>6.27</v>
+      </c>
+      <c r="H358">
+        <v>1.65</v>
+      </c>
+      <c r="J358">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K358">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="M358">
+        <f t="shared" si="18"/>
+        <v>68.89908256880733</v>
       </c>
     </row>
     <row r="366" spans="1:26">
@@ -27431,16 +29861,28 @@
       <c r="F373">
         <v>2000</v>
       </c>
-      <c r="L373" t="e">
+      <c r="G373">
+        <v>30.41</v>
+      </c>
+      <c r="H373">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J373">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K373">
+        <v>4.26</v>
+      </c>
+      <c r="L373">
         <f>I373/K373</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M373" t="e">
+        <v>0</v>
+      </c>
+      <c r="M373">
         <f>J373/K373</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="374" spans="3:13">
+        <v>17.629107981220656</v>
+      </c>
+    </row>
+    <row r="374" spans="3:13" hidden="1">
       <c r="C374">
         <v>2</v>
       </c>
@@ -27450,8 +29892,24 @@
       <c r="F374">
         <v>2000</v>
       </c>
-    </row>
-    <row r="375" spans="3:13">
+      <c r="G374">
+        <v>43.19</v>
+      </c>
+      <c r="H374">
+        <v>2.12</v>
+      </c>
+      <c r="J374">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K374">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M374">
+        <f t="shared" ref="M374:M379" si="19">J374/K374</f>
+        <v>17.068181818181817</v>
+      </c>
+    </row>
+    <row r="375" spans="3:13" hidden="1">
       <c r="C375">
         <v>3</v>
       </c>
@@ -27461,8 +29919,24 @@
       <c r="F375">
         <v>2000</v>
       </c>
-    </row>
-    <row r="376" spans="3:13">
+      <c r="G375">
+        <v>48.52</v>
+      </c>
+      <c r="H375">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="J375">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K375">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="M375">
+        <f t="shared" si="19"/>
+        <v>17.264367816091955</v>
+      </c>
+    </row>
+    <row r="376" spans="3:13" hidden="1">
       <c r="C376">
         <v>4</v>
       </c>
@@ -27472,8 +29946,24 @@
       <c r="F376">
         <v>2000</v>
       </c>
-    </row>
-    <row r="377" spans="3:13">
+      <c r="G376">
+        <v>49.53</v>
+      </c>
+      <c r="H376">
+        <v>2.59</v>
+      </c>
+      <c r="J376">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K376">
+        <v>4.33</v>
+      </c>
+      <c r="M376">
+        <f t="shared" si="19"/>
+        <v>17.344110854503462</v>
+      </c>
+    </row>
+    <row r="377" spans="3:13" hidden="1">
       <c r="C377">
         <v>5</v>
       </c>
@@ -27483,8 +29973,24 @@
       <c r="F377">
         <v>2000</v>
       </c>
-    </row>
-    <row r="378" spans="3:13">
+      <c r="G377">
+        <v>45.41</v>
+      </c>
+      <c r="H377">
+        <v>1.7</v>
+      </c>
+      <c r="J377">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K377">
+        <v>4.37</v>
+      </c>
+      <c r="M377">
+        <f t="shared" si="19"/>
+        <v>17.185354691075514</v>
+      </c>
+    </row>
+    <row r="378" spans="3:13" hidden="1">
       <c r="C378">
         <v>6</v>
       </c>
@@ -27494,8 +30000,24 @@
       <c r="F378">
         <v>2000</v>
       </c>
-    </row>
-    <row r="379" spans="3:13">
+      <c r="G378">
+        <v>56.43</v>
+      </c>
+      <c r="H378">
+        <v>2.31</v>
+      </c>
+      <c r="J378">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K378">
+        <v>4.37</v>
+      </c>
+      <c r="M378">
+        <f t="shared" si="19"/>
+        <v>17.185354691075514</v>
+      </c>
+    </row>
+    <row r="379" spans="3:13" hidden="1">
       <c r="C379">
         <v>7</v>
       </c>
@@ -27505,8 +30027,24 @@
       <c r="F379">
         <v>2000</v>
       </c>
-    </row>
-    <row r="380" spans="3:13">
+      <c r="G379">
+        <v>37.74</v>
+      </c>
+      <c r="H379">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="J379">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K379">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="M379">
+        <f t="shared" si="19"/>
+        <v>17.264367816091955</v>
+      </c>
+    </row>
+    <row r="380" spans="3:13" hidden="1">
       <c r="C380">
         <v>8</v>
       </c>
@@ -27517,7 +30055,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="381" spans="3:13">
+    <row r="381" spans="3:13" hidden="1">
       <c r="C381">
         <v>9</v>
       </c>
@@ -27528,7 +30066,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="382" spans="3:13">
+    <row r="382" spans="3:13" hidden="1">
       <c r="C382">
         <v>10</v>
       </c>
@@ -27539,7 +30077,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="383" spans="3:13">
+    <row r="383" spans="3:13" hidden="1">
       <c r="C383">
         <v>11</v>
       </c>
@@ -27550,7 +30088,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="384" spans="3:13">
+    <row r="384" spans="3:13" hidden="1">
       <c r="C384">
         <v>12</v>
       </c>
@@ -27561,7 +30099,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="385" spans="3:6">
+    <row r="385" spans="3:6" hidden="1">
       <c r="C385">
         <v>13</v>
       </c>
@@ -27572,7 +30110,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="386" spans="3:6">
+    <row r="386" spans="3:6" hidden="1">
       <c r="C386">
         <v>14</v>
       </c>
@@ -27583,7 +30121,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="387" spans="3:6">
+    <row r="387" spans="3:6" hidden="1">
       <c r="C387">
         <v>15</v>
       </c>
@@ -27594,7 +30132,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="388" spans="3:6">
+    <row r="388" spans="3:6" hidden="1">
       <c r="C388">
         <v>16</v>
       </c>
@@ -27605,7 +30143,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="389" spans="3:6">
+    <row r="389" spans="3:6" hidden="1">
       <c r="C389">
         <v>17</v>
       </c>
@@ -27616,7 +30154,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="390" spans="3:6">
+    <row r="390" spans="3:6" hidden="1">
       <c r="C390">
         <v>18</v>
       </c>
@@ -27627,7 +30165,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="391" spans="3:6">
+    <row r="391" spans="3:6" hidden="1">
       <c r="C391">
         <v>19</v>
       </c>
@@ -27638,7 +30176,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="392" spans="3:6">
+    <row r="392" spans="3:6" hidden="1">
       <c r="C392">
         <v>20</v>
       </c>
@@ -27649,7 +30187,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="393" spans="3:6">
+    <row r="393" spans="3:6" hidden="1">
       <c r="C393">
         <v>21</v>
       </c>
@@ -27660,7 +30198,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="394" spans="3:6">
+    <row r="394" spans="3:6" hidden="1">
       <c r="C394">
         <v>22</v>
       </c>
@@ -27671,7 +30209,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="395" spans="3:6">
+    <row r="395" spans="3:6" hidden="1">
       <c r="C395">
         <v>23</v>
       </c>
@@ -27682,7 +30220,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="396" spans="3:6">
+    <row r="396" spans="3:6" hidden="1">
       <c r="C396">
         <v>24</v>
       </c>
@@ -27693,7 +30231,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="397" spans="3:6">
+    <row r="397" spans="3:6" hidden="1">
       <c r="C397">
         <v>25</v>
       </c>
@@ -27704,7 +30242,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="398" spans="3:6">
+    <row r="398" spans="3:6" hidden="1">
       <c r="C398">
         <v>26</v>
       </c>
@@ -27715,7 +30253,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="399" spans="3:6">
+    <row r="399" spans="3:6" hidden="1">
       <c r="C399">
         <v>27</v>
       </c>
@@ -27726,7 +30264,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="400" spans="3:6">
+    <row r="400" spans="3:6" hidden="1">
       <c r="C400">
         <v>28</v>
       </c>
@@ -27737,7 +30275,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="401" spans="3:6">
+    <row r="401" spans="3:13" hidden="1">
       <c r="C401">
         <v>29</v>
       </c>
@@ -27748,9 +30286,37 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="402" spans="3:6">
+    <row r="402" spans="3:13">
       <c r="C402" t="s">
         <v>18</v>
+      </c>
+      <c r="G402">
+        <f>AVERAGE(G373:G401)</f>
+        <v>44.461428571428577</v>
+      </c>
+      <c r="H402">
+        <f t="shared" ref="H402:M402" si="20">AVERAGE(H373:H401)</f>
+        <v>2.2442857142857142</v>
+      </c>
+      <c r="I402" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J402">
+        <f t="shared" si="20"/>
+        <v>75.100000000000009</v>
+      </c>
+      <c r="K402">
+        <f t="shared" si="20"/>
+        <v>4.347142857142857</v>
+      </c>
+      <c r="L402">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="M402">
+        <f t="shared" si="20"/>
+        <v>17.277263666891553</v>
       </c>
     </row>
   </sheetData>

--- a/documents/исследования.xlsx
+++ b/documents/исследования.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="портрет" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1698" uniqueCount="33">
   <si>
     <t>первый (без разбиения)</t>
   </si>
@@ -99,12 +99,30 @@
   <si>
     <t>сред</t>
   </si>
+  <si>
+    <t>А1</t>
+  </si>
+  <si>
+    <t>А2</t>
+  </si>
+  <si>
+    <t>Б</t>
+  </si>
+  <si>
+    <t>Без классификации</t>
+  </si>
+  <si>
+    <t>Центром масс</t>
+  </si>
+  <si>
+    <t>Разницей граничных значений</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +130,20 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -140,12 +172,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -153,6 +187,244 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>портрет!$C$370</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>А1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>портрет!$D$369:$F$369</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Без классификации</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Центром масс</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Разницей граничных значений</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>портрет!$D$370:$F$370</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>16.87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.87</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>портрет!$C$371</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Б</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>портрет!$D$369:$F$369</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Без классификации</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Центром масс</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Разницей граничных значений</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>портрет!$D$371:$F$371</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>29.92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.46</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>портрет!$C$372</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>А2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>портрет!$D$369:$F$369</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Без классификации</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Центром масс</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Разницей граничных значений</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>портрет!$D$372:$F$372</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>145.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52.86</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75.209999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="56469760"/>
+        <c:axId val="56487936"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="56469760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="56487936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="56487936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="56469760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>438149</xdr:colOff>
+      <xdr:row>373</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>387</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -440,21 +712,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:AK358"/>
+  <dimension ref="A3:AK372"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="S35" sqref="S35"/>
+    <sheetView tabSelected="1" topLeftCell="A323" workbookViewId="0">
+      <selection activeCell="AD7" sqref="AD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" customWidth="1"/>
     <col min="7" max="7" width="11.140625" customWidth="1"/>
-    <col min="8" max="9" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="15.140625" customWidth="1"/>
+    <col min="12" max="12" width="0" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="23.5703125" customWidth="1"/>
     <col min="19" max="19" width="25.85546875" customWidth="1"/>
+    <col min="24" max="24" width="0" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:37" s="1" customFormat="1" ht="60">
@@ -634,7 +911,7 @@
         <v>17.523364485981308</v>
       </c>
     </row>
-    <row r="5" spans="1:37" hidden="1">
+    <row r="5" spans="1:37">
       <c r="C5">
         <v>2</v>
       </c>
@@ -719,7 +996,7 @@
         <v>8.8785046728971952</v>
       </c>
     </row>
-    <row r="6" spans="1:37" hidden="1">
+    <row r="6" spans="1:37">
       <c r="C6">
         <v>3</v>
       </c>
@@ -801,7 +1078,7 @@
         <v>1.4976525821596245</v>
       </c>
     </row>
-    <row r="7" spans="1:37" hidden="1">
+    <row r="7" spans="1:37">
       <c r="C7">
         <v>4</v>
       </c>
@@ -867,7 +1144,7 @@
         <v>4.3604651162790695</v>
       </c>
     </row>
-    <row r="8" spans="1:37" hidden="1">
+    <row r="8" spans="1:37">
       <c r="C8">
         <v>5</v>
       </c>
@@ -933,7 +1210,7 @@
         <v>17.523364485981308</v>
       </c>
     </row>
-    <row r="9" spans="1:37" hidden="1">
+    <row r="9" spans="1:37">
       <c r="C9">
         <v>6</v>
       </c>
@@ -999,7 +1276,7 @@
         <v>70.09345794392523</v>
       </c>
     </row>
-    <row r="10" spans="1:37" hidden="1">
+    <row r="10" spans="1:37">
       <c r="C10">
         <v>7</v>
       </c>
@@ -1065,7 +1342,7 @@
         <v>4.3604651162790695</v>
       </c>
     </row>
-    <row r="11" spans="1:37" hidden="1">
+    <row r="11" spans="1:37">
       <c r="C11">
         <v>8</v>
       </c>
@@ -1131,7 +1408,7 @@
         <v>17.523364485981308</v>
       </c>
     </row>
-    <row r="12" spans="1:37" hidden="1">
+    <row r="12" spans="1:37">
       <c r="C12">
         <v>9</v>
       </c>
@@ -1197,7 +1474,7 @@
         <v>70.09345794392523</v>
       </c>
     </row>
-    <row r="13" spans="1:37" hidden="1">
+    <row r="13" spans="1:37">
       <c r="C13">
         <v>10</v>
       </c>
@@ -1263,7 +1540,7 @@
         <v>4.3604651162790695</v>
       </c>
     </row>
-    <row r="14" spans="1:37" hidden="1">
+    <row r="14" spans="1:37">
       <c r="C14">
         <v>11</v>
       </c>
@@ -1329,7 +1606,7 @@
         <v>17.523364485981308</v>
       </c>
     </row>
-    <row r="15" spans="1:37" hidden="1">
+    <row r="15" spans="1:37">
       <c r="C15">
         <v>12</v>
       </c>
@@ -1395,7 +1672,7 @@
         <v>70.09345794392523</v>
       </c>
     </row>
-    <row r="16" spans="1:37" hidden="1">
+    <row r="16" spans="1:37">
       <c r="C16">
         <v>13</v>
       </c>
@@ -1461,7 +1738,7 @@
         <v>4.3604651162790695</v>
       </c>
     </row>
-    <row r="17" spans="3:28" hidden="1">
+    <row r="17" spans="3:28">
       <c r="C17">
         <v>14</v>
       </c>
@@ -1527,7 +1804,7 @@
         <v>17.523364485981308</v>
       </c>
     </row>
-    <row r="18" spans="3:28" hidden="1">
+    <row r="18" spans="3:28">
       <c r="C18">
         <v>15</v>
       </c>
@@ -1593,7 +1870,7 @@
         <v>70.09345794392523</v>
       </c>
     </row>
-    <row r="19" spans="3:28" hidden="1">
+    <row r="19" spans="3:28">
       <c r="C19">
         <v>16</v>
       </c>
@@ -1659,7 +1936,7 @@
         <v>4.3604651162790695</v>
       </c>
     </row>
-    <row r="20" spans="3:28" hidden="1">
+    <row r="20" spans="3:28">
       <c r="C20">
         <v>17</v>
       </c>
@@ -1725,7 +2002,7 @@
         <v>17.523364485981308</v>
       </c>
     </row>
-    <row r="21" spans="3:28" hidden="1">
+    <row r="21" spans="3:28">
       <c r="C21">
         <v>18</v>
       </c>
@@ -1791,7 +2068,7 @@
         <v>70.09345794392523</v>
       </c>
     </row>
-    <row r="22" spans="3:28" hidden="1">
+    <row r="22" spans="3:28">
       <c r="C22">
         <v>19</v>
       </c>
@@ -1857,7 +2134,7 @@
         <v>4.3604651162790695</v>
       </c>
     </row>
-    <row r="23" spans="3:28" hidden="1">
+    <row r="23" spans="3:28">
       <c r="C23">
         <v>20</v>
       </c>
@@ -1923,7 +2200,7 @@
         <v>17.523364485981308</v>
       </c>
     </row>
-    <row r="24" spans="3:28" hidden="1">
+    <row r="24" spans="3:28">
       <c r="C24">
         <v>21</v>
       </c>
@@ -1989,7 +2266,7 @@
         <v>70.09345794392523</v>
       </c>
     </row>
-    <row r="25" spans="3:28" hidden="1">
+    <row r="25" spans="3:28">
       <c r="C25">
         <v>22</v>
       </c>
@@ -2055,7 +2332,7 @@
         <v>4.3604651162790695</v>
       </c>
     </row>
-    <row r="26" spans="3:28" hidden="1">
+    <row r="26" spans="3:28">
       <c r="C26">
         <v>23</v>
       </c>
@@ -2121,7 +2398,7 @@
         <v>17.523364485981308</v>
       </c>
     </row>
-    <row r="27" spans="3:28" hidden="1">
+    <row r="27" spans="3:28">
       <c r="C27">
         <v>24</v>
       </c>
@@ -2187,7 +2464,7 @@
         <v>70.09345794392523</v>
       </c>
     </row>
-    <row r="28" spans="3:28" hidden="1">
+    <row r="28" spans="3:28">
       <c r="C28">
         <v>25</v>
       </c>
@@ -2221,7 +2498,7 @@
         <v>17.384259259259256</v>
       </c>
     </row>
-    <row r="29" spans="3:28" hidden="1">
+    <row r="29" spans="3:28">
       <c r="C29">
         <v>26</v>
       </c>
@@ -2255,7 +2532,7 @@
         <v>17.505827505827504</v>
       </c>
     </row>
-    <row r="30" spans="3:28" hidden="1">
+    <row r="30" spans="3:28">
       <c r="C30">
         <v>27</v>
       </c>
@@ -2289,7 +2566,7 @@
         <v>17.505827505827504</v>
       </c>
     </row>
-    <row r="31" spans="3:28" hidden="1">
+    <row r="31" spans="3:28">
       <c r="C31">
         <v>28</v>
       </c>
@@ -2323,7 +2600,7 @@
         <v>17.465116279069768</v>
       </c>
     </row>
-    <row r="32" spans="3:28" hidden="1">
+    <row r="32" spans="3:28">
       <c r="C32">
         <v>29</v>
       </c>
@@ -12418,9 +12695,65 @@
         <v>17.905078223967024</v>
       </c>
     </row>
+    <row r="363" spans="3:13" s="2" customFormat="1"/>
+    <row r="369" spans="3:6">
+      <c r="C369" s="4"/>
+      <c r="D369" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E369" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F369" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="370" spans="3:6" ht="15.75">
+      <c r="C370" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D370" s="3">
+        <v>16.87</v>
+      </c>
+      <c r="E370" s="3">
+        <v>7.87</v>
+      </c>
+      <c r="F370" s="3">
+        <v>9.49</v>
+      </c>
+    </row>
+    <row r="371" spans="3:6" ht="15.75">
+      <c r="C371" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D371" s="3">
+        <v>29.92</v>
+      </c>
+      <c r="E371" s="3">
+        <v>14.62</v>
+      </c>
+      <c r="F371" s="3">
+        <v>12.46</v>
+      </c>
+    </row>
+    <row r="372" spans="3:6" ht="15.75">
+      <c r="C372" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D372" s="3">
+        <v>145.25</v>
+      </c>
+      <c r="E372" s="3">
+        <v>52.86</v>
+      </c>
+      <c r="F372" s="3">
+        <v>75.209999999999994</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -24463,7 +24796,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:Z402"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B361" workbookViewId="0">
+    <sheetView topLeftCell="B361" workbookViewId="0">
       <selection activeCell="G412" sqref="G412"/>
     </sheetView>
   </sheetViews>

--- a/documents/исследования.xlsx
+++ b/documents/исследования.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="портрет" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1829" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2064" uniqueCount="55">
   <si>
     <t>первый (без разбиения)</t>
   </si>
@@ -171,12 +171,30 @@
   <si>
     <t>Время сжатия</t>
   </si>
+  <si>
+    <t>мало деталей</t>
+  </si>
+  <si>
+    <t>много деталей</t>
+  </si>
+  <si>
+    <t>текст</t>
+  </si>
+  <si>
+    <t>А2 + ЦМ</t>
+  </si>
+  <si>
+    <t>А1+РГЗ</t>
+  </si>
+  <si>
+    <t>Б+ЦМ</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,6 +223,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -309,7 +335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -330,19 +356,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -511,24 +541,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="82044032"/>
-        <c:axId val="82045568"/>
+        <c:axId val="90905216"/>
+        <c:axId val="90919296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="82044032"/>
+        <c:axId val="90905216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82045568"/>
+        <c:crossAx val="90919296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82045568"/>
+        <c:axId val="90919296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -536,7 +566,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82044032"/>
+        <c:crossAx val="90905216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -549,429 +579,13 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="ru-RU"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>портрет!$AF$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>портрет!$AG$3:$AN$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>портрет!$AG$4:$AN$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>76.59</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>64.239999999999995</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>47.61</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18.579999999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13.01</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.91</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.13</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.58</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>портрет!$AF$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dLbls>
-            <c:showVal val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>портрет!$AG$3:$AN$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>портрет!$AG$5:$AN$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>30.03</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>40.67</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>33.06</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>21.29</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20.48</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>19.79</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18.75</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>26.01</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="77946880"/>
-        <c:axId val="77956992"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="77946880"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77956992"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="77956992"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77946880"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="ru-RU"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>портрет!$C$430</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Время сжатия</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>портрет!$D$429:$G$429</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>А2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>А2 + РГЗ</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Метод эталонного блока</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Б + РГЗ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>портрет!$D$430:$G$430</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>145.25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>75.209999999999994</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>83.26</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12.46</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="59683584"/>
-        <c:axId val="60328960"/>
-      </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>портрет!$C$431</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>СКО</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>портрет!$D$429:$G$429</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>А2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>А2 + РГЗ</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Метод эталонного блока</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Б + РГЗ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>портрет!$D$431:$G$431</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>72.3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>52.24</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>56.59</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>46.59</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="146728832"/>
-        <c:axId val="146726272"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="59683584"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60328960"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="60328960"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59683584"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="146726272"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146728832"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="146728832"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="none"/>
-        <c:crossAx val="146726272"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
   <c:chart>
@@ -1160,8 +774,8 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="59682816"/>
-        <c:axId val="59685888"/>
+        <c:axId val="92932736"/>
+        <c:axId val="92938624"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1238,25 +852,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="146722816"/>
-        <c:axId val="146720256"/>
+        <c:axId val="92941696"/>
+        <c:axId val="92940160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="59682816"/>
+        <c:axId val="92932736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59685888"/>
+        <c:crossAx val="92938624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59685888"/>
+        <c:axId val="92938624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1264,32 +878,32 @@
         <c:minorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59682816"/>
+        <c:crossAx val="92932736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="146720256"/>
+        <c:axId val="92940160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146722816"/>
+        <c:crossAx val="92941696"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="146722816"/>
+        <c:axId val="92941696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="t"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="146720256"/>
+        <c:crossAx val="92940160"/>
         <c:crosses val="max"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1305,13 +919,13 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
   <c:chart>
@@ -1444,11 +1058,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="60766848"/>
-        <c:axId val="61246848"/>
+        <c:axId val="97459584"/>
+        <c:axId val="97465856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="60766848"/>
+        <c:axId val="97459584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1472,14 +1086,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61246848"/>
+        <c:crossAx val="97465856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61246848"/>
+        <c:axId val="97465856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1505,7 +1119,184 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60766848"/>
+        <c:crossAx val="97459584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'распределение классов'!$C$81</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ЦМ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'распределение классов'!$B$82:$B$86</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0-50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51-100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>101-150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>151-200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>201-255</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'распределение классов'!$C$82:$C$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>339.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>336.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>372.14285714285717</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>205.57142857142858</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'распределение классов'!$D$81</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>РГЗ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'распределение классов'!$B$82:$B$86</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0-50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51-100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>101-150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>151-200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>201-255</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'распределение классов'!$D$82:$D$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1220.4285714285713</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77.428571428571431</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.714285714285715</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4285714285714284</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="83479552"/>
+        <c:axId val="83528704"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="83479552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="83528704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="83528704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="83479552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1524,7 +1315,184 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'распределение классов'!$C$143</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ЦМ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'распределение классов'!$B$144:$B$148</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0-50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51-100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>101-150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>151-200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>201-255</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'распределение классов'!$C$144:$C$148</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100.57142857142857</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>481.85714285714283</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>585.85714285714289</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55.714285714285715</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'распределение классов'!$D$143</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>РГЗ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'распределение классов'!$B$144:$B$148</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0-50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51-100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>101-150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>151-200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>201-255</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'распределение классов'!$D$144:$D$148</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>202.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>285.14285714285717</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>604.71428571428567</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>359.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69.571428571428569</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="110241280"/>
+        <c:axId val="110242816"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="110241280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="110242816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="110242816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="110241280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
   <c:chart>
@@ -1683,24 +1651,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="110582016"/>
-        <c:axId val="116122368"/>
+        <c:axId val="97507968"/>
+        <c:axId val="97751424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="110582016"/>
+        <c:axId val="97507968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116122368"/>
+        <c:crossAx val="97751424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116122368"/>
+        <c:axId val="97751424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1708,7 +1676,625 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110582016"/>
+        <c:crossAx val="97507968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>портрет!$AF$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>портрет!$AG$3:$AN$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>портрет!$AG$4:$AN$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>76.59</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64.239999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.61</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.579999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.01</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.91</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.58</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>портрет!$AF$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>портрет!$AG$3:$AN$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>портрет!$AG$5:$AN$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>30.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.79</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="90948736"/>
+        <c:axId val="90950272"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="90948736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="90950272"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="90950272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="90948736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>портрет!$C$430</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Время сжатия</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>портрет!$D$429:$G$429</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>А2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>А2 + РГЗ</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Метод эталонного блока</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Б + РГЗ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>портрет!$D$430:$G$430</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>145.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75.209999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>83.26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.46</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="91000832"/>
+        <c:axId val="91002368"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>портрет!$C$431</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>СКО</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>портрет!$D$429:$G$429</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>А2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>А2 + РГЗ</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Метод эталонного блока</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Б + РГЗ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>портрет!$D$431:$G$431</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>72.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52.24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56.59</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46.59</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="91009792"/>
+        <c:axId val="91003904"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="91000832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="91002368"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="91002368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="91000832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="91003904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="91009792"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="91009792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="91003904"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'мало деталей'!$C$411</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>А1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'мало деталей'!$D$410:$F$410</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Без классификации</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Центром масс</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Разницей граничных значений</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'мало деталей'!$D$411:$F$411</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>42.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'мало деталей'!$C$412</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>А2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'мало деталей'!$D$410:$F$410</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Без классификации</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Центром масс</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Разницей граничных значений</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'мало деталей'!$D$412:$F$412</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>114.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54.09</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51.03</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'мало деталей'!$C$413</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Б</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'мало деталей'!$D$410:$F$410</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Без классификации</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Центром масс</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Разницей граничных значений</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'мало деталей'!$D$413:$F$413</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>131.63999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76.53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>108.48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="77860864"/>
+        <c:axId val="77862400"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="77860864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="77862400"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="77862400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="77860864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1718,6 +2304,1003 @@
       <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'мало деталей'!$C$459</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Время сжатия</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'мало деталей'!$D$458:$G$458</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>А2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>А2 + ЦМ</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Метод эталонного блока</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>А1+РГЗ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'мало деталей'!$D$459:$G$459</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>114.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54.09</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73.150000000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="78401536"/>
+        <c:axId val="78403072"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'мало деталей'!$C$460</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>СКО</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'мало деталей'!$D$458:$G$458</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>А2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>А2 + ЦМ</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Метод эталонного блока</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>А1+РГЗ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'мало деталей'!$D$460:$G$460</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>172.69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76.88</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>122.08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>92.27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="83599360"/>
+        <c:axId val="83465728"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="78401536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="78403072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="78403072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="78401536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="83465728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="83599360"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="83599360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="83465728"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'много деталей'!$C$443</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>А1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'много деталей'!$D$442:$F$442</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Без классификации</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Центром масс</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Разницей граничных значений</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'много деталей'!$D$443:$F$443</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>63.47</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42.71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60.79</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'много деталей'!$C$444</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>А2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'много деталей'!$D$442:$F$442</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Без классификации</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Центром масс</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Разницей граничных значений</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'много деталей'!$D$444:$F$444</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>224.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>124.52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82.51</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'много деталей'!$C$445</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Б</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'много деталей'!$D$442:$F$442</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Без классификации</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Центром масс</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Разницей граничных значений</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'много деталей'!$D$445:$F$445</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>133.66</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>120.59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70.62</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="97987584"/>
+        <c:axId val="107705088"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="97987584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="107705088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="107705088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="97987584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'много деталей'!$C$496</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Время сжатия</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'много деталей'!$D$495:$G$495</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>А2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>А2 + РГЗ</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Метод эталонного блока</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>А1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'много деталей'!$D$496:$G$496</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>224.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82.51</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>140.87</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63.47</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="83602816"/>
+        <c:axId val="83613184"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'много деталей'!$C$497</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>СКО</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'много деталей'!$D$495:$G$495</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>А2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>А2 + РГЗ</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Метод эталонного блока</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>А1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'много деталей'!$D$497:$G$497</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>136.16999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>138.36000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>109.36</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>136.41999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="120517376"/>
+        <c:axId val="115922432"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="83602816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="83613184"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="83613184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="83602816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="115922432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="120517376"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="120517376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="115922432"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>текст!$D$451</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>А1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>текст!$E$450:$G$450</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Без классификации</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Центром масс</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Разницей граничных значений</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>текст!$E$451:$G$451</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>176.85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51.36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>151.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>текст!$D$452</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>А2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>текст!$E$450:$G$450</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Без классификации</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Центром масс</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Разницей граничных значений</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>текст!$E$452:$G$452</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>239.78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>167.19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>126.72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>текст!$D$453</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Б</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>текст!$E$450:$G$450</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Без классификации</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Центром масс</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Разницей граничных значений</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>текст!$E$453:$G$453</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>101.12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>154.02000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59.64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="115294592"/>
+        <c:axId val="115296128"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="115294592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="115296128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="115296128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="115294592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>текст!$C$502</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Время сжатия</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>текст!$D$501:$G$501</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>А2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>А2 + ЦМ</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Метод эталонного блока</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Б+ЦМ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>текст!$D$502:$G$502</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>239.78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>167.19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>174.35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>154.02000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="115451776"/>
+        <c:axId val="115885568"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>текст!$C$503</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>СКО</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>текст!$D$501:$G$501</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>А2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>А2 + ЦМ</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Метод эталонного блока</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Б+ЦМ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>текст!$D$503:$G$503</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>899.91</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>998.96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>364.76</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>737.26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="123101568"/>
+        <c:axId val="116868224"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="115451776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="115885568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="115885568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="115451776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="116868224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="123101568"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="123101568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="116868224"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1826,6 +3409,201 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>414</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>428</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>462</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>476</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>445</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>459</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>498</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>512</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>455</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>470</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>504</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>518</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>6</xdr:row>
@@ -1857,7 +3635,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1889,10 +3667,70 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1190625</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1209675</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2214,8 +4052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:AN431"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A429" workbookViewId="0">
-      <selection activeCell="H436" sqref="H436"/>
+    <sheetView topLeftCell="A426" workbookViewId="0">
+      <selection activeCell="C429" sqref="C429:G431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15808,7 +17646,7 @@
       <c r="E430" s="3">
         <v>75.209999999999994</v>
       </c>
-      <c r="F430" s="14">
+      <c r="F430" s="11">
         <v>83.26</v>
       </c>
       <c r="G430" s="3">
@@ -15825,7 +17663,7 @@
       <c r="E431" s="3">
         <v>52.24</v>
       </c>
-      <c r="F431" s="14">
+      <c r="F431" s="11">
         <v>56.59</v>
       </c>
       <c r="G431" s="3">
@@ -15841,10 +17679,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:M443"/>
+  <dimension ref="A3:N460"/>
   <sheetViews>
-    <sheetView topLeftCell="A367" workbookViewId="0">
-      <selection activeCell="D404" sqref="D404"/>
+    <sheetView topLeftCell="A450" workbookViewId="0">
+      <selection activeCell="C458" sqref="C458:G460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20760,7 +22598,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="321" spans="3:13" hidden="1">
+    <row r="321" spans="3:14" hidden="1">
       <c r="C321">
         <v>27</v>
       </c>
@@ -20771,7 +22609,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="322" spans="3:13" hidden="1">
+    <row r="322" spans="3:14" hidden="1">
       <c r="C322">
         <v>28</v>
       </c>
@@ -20782,7 +22620,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="323" spans="3:13" hidden="1">
+    <row r="323" spans="3:14" hidden="1">
       <c r="C323">
         <v>29</v>
       </c>
@@ -20793,7 +22631,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="324" spans="3:13">
+    <row r="324" spans="3:14">
       <c r="C324" t="s">
         <v>14</v>
       </c>
@@ -20826,8 +22664,8 @@
         <v>17.552062773906787</v>
       </c>
     </row>
-    <row r="329" spans="3:13" s="2" customFormat="1"/>
-    <row r="334" spans="3:13" ht="60">
+    <row r="329" spans="3:14" s="2" customFormat="1"/>
+    <row r="334" spans="3:14" ht="60">
       <c r="D334" s="1" t="s">
         <v>2</v>
       </c>
@@ -20858,8 +22696,11 @@
       <c r="M334" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="335" spans="3:13">
+      <c r="N334" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="335" spans="3:14">
       <c r="D335" t="s">
         <v>0</v>
       </c>
@@ -20885,8 +22726,11 @@
         <f>J335/K335</f>
         <v>4.3410404624277454</v>
       </c>
-    </row>
-    <row r="336" spans="3:13">
+      <c r="N335">
+        <v>4.51</v>
+      </c>
+    </row>
+    <row r="336" spans="3:14">
       <c r="E336">
         <v>8</v>
       </c>
@@ -20909,8 +22753,11 @@
         <f t="shared" ref="M336:M358" si="18">J336/K336</f>
         <v>17.224770642201833</v>
       </c>
-    </row>
-    <row r="337" spans="5:13">
+      <c r="N336">
+        <v>6.79</v>
+      </c>
+    </row>
+    <row r="337" spans="5:14">
       <c r="E337">
         <v>16</v>
       </c>
@@ -20933,8 +22780,11 @@
         <f t="shared" si="18"/>
         <v>69.537037037037024</v>
       </c>
-    </row>
-    <row r="338" spans="5:13">
+      <c r="N337">
+        <v>19.52</v>
+      </c>
+    </row>
+    <row r="338" spans="5:14">
       <c r="E338">
         <v>4</v>
       </c>
@@ -20957,8 +22807,11 @@
         <f t="shared" si="18"/>
         <v>4.3410404624277454</v>
       </c>
-    </row>
-    <row r="339" spans="5:13">
+      <c r="N338">
+        <v>5.46</v>
+      </c>
+    </row>
+    <row r="339" spans="5:14">
       <c r="E339">
         <v>8</v>
       </c>
@@ -20981,8 +22834,11 @@
         <f t="shared" si="18"/>
         <v>17.224770642201833</v>
       </c>
-    </row>
-    <row r="340" spans="5:13">
+      <c r="N339">
+        <v>7.43</v>
+      </c>
+    </row>
+    <row r="340" spans="5:14">
       <c r="E340">
         <v>16</v>
       </c>
@@ -21005,8 +22861,11 @@
         <f t="shared" si="18"/>
         <v>69.537037037037024</v>
       </c>
-    </row>
-    <row r="341" spans="5:13">
+      <c r="N340">
+        <v>19.809999999999999</v>
+      </c>
+    </row>
+    <row r="341" spans="5:14">
       <c r="E341">
         <v>4</v>
       </c>
@@ -21029,8 +22888,11 @@
         <f t="shared" si="18"/>
         <v>4.3410404624277454</v>
       </c>
-    </row>
-    <row r="342" spans="5:13">
+      <c r="N341">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="342" spans="5:14">
       <c r="E342">
         <v>8</v>
       </c>
@@ -21053,8 +22915,11 @@
         <f t="shared" si="18"/>
         <v>17.224770642201833</v>
       </c>
-    </row>
-    <row r="343" spans="5:13">
+      <c r="N342">
+        <v>7.76</v>
+      </c>
+    </row>
+    <row r="343" spans="5:14">
       <c r="E343">
         <v>16</v>
       </c>
@@ -21077,8 +22942,11 @@
         <f t="shared" si="18"/>
         <v>69.537037037037024</v>
       </c>
-    </row>
-    <row r="344" spans="5:13">
+      <c r="N343">
+        <v>19.93</v>
+      </c>
+    </row>
+    <row r="344" spans="5:14">
       <c r="E344">
         <v>4</v>
       </c>
@@ -21101,8 +22969,11 @@
         <f t="shared" si="18"/>
         <v>4.3410404624277454</v>
       </c>
-    </row>
-    <row r="345" spans="5:13">
+      <c r="N344">
+        <v>6.01</v>
+      </c>
+    </row>
+    <row r="345" spans="5:14">
       <c r="E345">
         <v>8</v>
       </c>
@@ -21125,8 +22996,11 @@
         <f t="shared" si="18"/>
         <v>17.224770642201833</v>
       </c>
-    </row>
-    <row r="346" spans="5:13">
+      <c r="N345">
+        <v>8.36</v>
+      </c>
+    </row>
+    <row r="346" spans="5:14">
       <c r="E346">
         <v>16</v>
       </c>
@@ -21150,7 +23024,7 @@
         <v>69.537037037037024</v>
       </c>
     </row>
-    <row r="347" spans="5:13">
+    <row r="347" spans="5:14">
       <c r="E347">
         <v>4</v>
       </c>
@@ -21173,8 +23047,11 @@
         <f t="shared" si="18"/>
         <v>4.3410404624277454</v>
       </c>
-    </row>
-    <row r="348" spans="5:13">
+      <c r="N347">
+        <v>6.08</v>
+      </c>
+    </row>
+    <row r="348" spans="5:14">
       <c r="E348">
         <v>8</v>
       </c>
@@ -21197,8 +23074,11 @@
         <f t="shared" si="18"/>
         <v>17.224770642201833</v>
       </c>
-    </row>
-    <row r="349" spans="5:13">
+      <c r="N348">
+        <v>8.6300000000000008</v>
+      </c>
+    </row>
+    <row r="349" spans="5:14">
       <c r="E349">
         <v>16</v>
       </c>
@@ -21222,7 +23102,7 @@
         <v>69.537037037037024</v>
       </c>
     </row>
-    <row r="350" spans="5:13">
+    <row r="350" spans="5:14">
       <c r="E350">
         <v>4</v>
       </c>
@@ -21245,8 +23125,11 @@
         <f t="shared" si="18"/>
         <v>4.3410404624277454</v>
       </c>
-    </row>
-    <row r="351" spans="5:13">
+      <c r="N350">
+        <v>6.05</v>
+      </c>
+    </row>
+    <row r="351" spans="5:14">
       <c r="E351">
         <v>8</v>
       </c>
@@ -21269,8 +23152,11 @@
         <f t="shared" si="18"/>
         <v>17.224770642201833</v>
       </c>
-    </row>
-    <row r="352" spans="5:13">
+      <c r="N351">
+        <v>9.1199999999999992</v>
+      </c>
+    </row>
+    <row r="352" spans="5:14">
       <c r="E352">
         <v>16</v>
       </c>
@@ -21294,7 +23180,7 @@
         <v>69.537037037037024</v>
       </c>
     </row>
-    <row r="353" spans="5:13">
+    <row r="353" spans="5:14">
       <c r="E353">
         <v>4</v>
       </c>
@@ -21317,8 +23203,11 @@
         <f t="shared" si="18"/>
         <v>4.3410404624277454</v>
       </c>
-    </row>
-    <row r="354" spans="5:13">
+      <c r="N353">
+        <v>6.01</v>
+      </c>
+    </row>
+    <row r="354" spans="5:14">
       <c r="E354">
         <v>8</v>
       </c>
@@ -21341,8 +23230,11 @@
         <f t="shared" si="18"/>
         <v>17.224770642201833</v>
       </c>
-    </row>
-    <row r="355" spans="5:13">
+      <c r="N354">
+        <v>9.48</v>
+      </c>
+    </row>
+    <row r="355" spans="5:14">
       <c r="E355">
         <v>16</v>
       </c>
@@ -21366,7 +23258,7 @@
         <v>69.537037037037024</v>
       </c>
     </row>
-    <row r="356" spans="5:13">
+    <row r="356" spans="5:14">
       <c r="E356">
         <v>4</v>
       </c>
@@ -21389,8 +23281,11 @@
         <f t="shared" si="18"/>
         <v>4.3410404624277454</v>
       </c>
-    </row>
-    <row r="357" spans="5:13">
+      <c r="N356">
+        <v>6.02</v>
+      </c>
+    </row>
+    <row r="357" spans="5:14">
       <c r="E357">
         <v>8</v>
       </c>
@@ -21413,8 +23308,11 @@
         <f t="shared" si="18"/>
         <v>17.224770642201833</v>
       </c>
-    </row>
-    <row r="358" spans="5:13">
+      <c r="N357">
+        <v>9.65</v>
+      </c>
+    </row>
+    <row r="358" spans="5:14">
       <c r="E358">
         <v>16</v>
       </c>
@@ -21438,7 +23336,7 @@
         <v>69.537037037037024</v>
       </c>
     </row>
-    <row r="366" spans="5:13" s="2" customFormat="1"/>
+    <row r="366" spans="5:14" s="2" customFormat="1"/>
     <row r="372" spans="3:13" ht="60">
       <c r="D372" s="1" t="s">
         <v>2</v>
@@ -21951,44 +23849,475 @@
         <v>17.983939776454147</v>
       </c>
     </row>
-    <row r="407" spans="3:13">
-      <c r="C407" s="1"/>
-      <c r="D407" s="1"/>
-      <c r="E407" s="1"/>
-      <c r="F407" s="1"/>
-      <c r="G407" s="1"/>
-      <c r="H407" s="1"/>
-      <c r="I407" s="1"/>
-      <c r="J407" s="1"/>
-      <c r="K407" s="1"/>
-      <c r="L407" s="1"/>
-      <c r="M407" s="1"/>
-    </row>
-    <row r="443" spans="3:13">
+    <row r="407" spans="3:13" s="2" customFormat="1">
+      <c r="C407" s="15"/>
+      <c r="D407" s="15"/>
+      <c r="E407" s="15"/>
+      <c r="F407" s="15"/>
+      <c r="G407" s="15"/>
+      <c r="H407" s="15"/>
+      <c r="I407" s="15"/>
+      <c r="J407" s="15"/>
+      <c r="K407" s="15"/>
+      <c r="L407" s="15"/>
+      <c r="M407" s="15"/>
+    </row>
+    <row r="410" spans="3:13">
+      <c r="D410" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E410" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F410" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="411" spans="3:13" ht="15.75">
+      <c r="C411" t="s">
+        <v>23</v>
+      </c>
+      <c r="D411" s="3">
+        <v>42.03</v>
+      </c>
+      <c r="E411" s="3">
+        <v>22.34</v>
+      </c>
+      <c r="F411" s="3">
+        <v>19.55</v>
+      </c>
+    </row>
+    <row r="412" spans="3:13" ht="15.75">
+      <c r="C412" t="s">
+        <v>24</v>
+      </c>
+      <c r="D412" s="3">
+        <v>114.03</v>
+      </c>
+      <c r="E412" s="3">
+        <v>54.09</v>
+      </c>
+      <c r="F412" s="3">
+        <v>51.03</v>
+      </c>
+    </row>
+    <row r="413" spans="3:13" ht="15.75">
+      <c r="C413" t="s">
+        <v>25</v>
+      </c>
+      <c r="D413" s="3">
+        <v>131.63999999999999</v>
+      </c>
+      <c r="E413" s="3">
+        <v>76.53</v>
+      </c>
+      <c r="F413" s="3">
+        <v>108.48</v>
+      </c>
+    </row>
+    <row r="431" s="2" customFormat="1"/>
+    <row r="435" spans="3:14" ht="60">
+      <c r="D435" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E435" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F435" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G435" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H435" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I435" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J435" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K435" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L435" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M435" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N435" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="436" spans="3:14">
+      <c r="C436">
+        <v>1</v>
+      </c>
+      <c r="D436" t="s">
+        <v>19</v>
+      </c>
+      <c r="E436">
+        <v>4</v>
+      </c>
+      <c r="F436">
+        <v>500</v>
+      </c>
+      <c r="G436">
+        <v>130.44</v>
+      </c>
+      <c r="H436">
+        <v>1.93</v>
+      </c>
+      <c r="J436">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K436">
+        <v>16.2</v>
+      </c>
+      <c r="L436">
+        <f>I436/K436</f>
+        <v>0</v>
+      </c>
+      <c r="M436">
+        <f>J436/K436</f>
+        <v>4.6358024691358022</v>
+      </c>
+      <c r="N436">
+        <v>109.84</v>
+      </c>
+    </row>
+    <row r="437" spans="3:14">
+      <c r="E437">
+        <v>4</v>
+      </c>
+      <c r="F437">
+        <v>1000</v>
+      </c>
+      <c r="J437">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="M437" t="e">
+        <f t="shared" ref="M437:M451" si="21">J437/K437</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="438" spans="3:14">
+      <c r="E438">
+        <v>4</v>
+      </c>
+      <c r="F438">
+        <v>1500</v>
+      </c>
+      <c r="J438">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="M438" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="439" spans="3:14">
+      <c r="E439">
+        <v>4</v>
+      </c>
+      <c r="F439">
+        <v>2000</v>
+      </c>
+      <c r="G439">
+        <v>80.760000000000005</v>
+      </c>
+      <c r="H439">
+        <v>1.67</v>
+      </c>
+      <c r="J439">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K439">
+        <v>16</v>
+      </c>
+      <c r="M439">
+        <f t="shared" si="21"/>
+        <v>4.6937499999999996</v>
+      </c>
+      <c r="N439">
+        <v>122.08</v>
+      </c>
+    </row>
+    <row r="440" spans="3:14">
+      <c r="E440">
+        <v>4</v>
+      </c>
+      <c r="F440">
+        <v>2500</v>
+      </c>
+      <c r="J440">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="M440" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="441" spans="3:14">
+      <c r="E441">
+        <v>4</v>
+      </c>
+      <c r="F441">
+        <v>3000</v>
+      </c>
+      <c r="J441">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="M441" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="442" spans="3:14">
+      <c r="E442">
+        <v>4</v>
+      </c>
+      <c r="F442">
+        <v>3500</v>
+      </c>
+      <c r="J442">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="M442" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="443" spans="3:14">
       <c r="C443" s="1"/>
       <c r="D443" s="1"/>
-      <c r="E443" s="1"/>
-      <c r="F443" s="1"/>
+      <c r="E443">
+        <v>4</v>
+      </c>
+      <c r="F443">
+        <v>4000</v>
+      </c>
       <c r="G443" s="1"/>
       <c r="H443" s="1"/>
       <c r="I443" s="1"/>
-      <c r="J443" s="1"/>
+      <c r="J443">
+        <v>75.099999999999994</v>
+      </c>
       <c r="K443" s="1"/>
       <c r="L443" s="1"/>
-      <c r="M443" s="1"/>
+      <c r="M443" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="444" spans="3:14">
+      <c r="E444">
+        <v>8</v>
+      </c>
+      <c r="F444">
+        <v>500</v>
+      </c>
+      <c r="G444">
+        <v>25.27</v>
+      </c>
+      <c r="H444">
+        <v>1.81</v>
+      </c>
+      <c r="J444">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K444">
+        <v>4.29</v>
+      </c>
+      <c r="M444">
+        <f t="shared" si="21"/>
+        <v>17.505827505827504</v>
+      </c>
+      <c r="N444">
+        <v>146.07400000000001</v>
+      </c>
+    </row>
+    <row r="445" spans="3:14">
+      <c r="E445">
+        <v>8</v>
+      </c>
+      <c r="F445">
+        <v>1000</v>
+      </c>
+      <c r="J445">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="M445" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="446" spans="3:14">
+      <c r="E446">
+        <v>8</v>
+      </c>
+      <c r="F446">
+        <v>1500</v>
+      </c>
+      <c r="G446">
+        <v>21.68</v>
+      </c>
+      <c r="H446">
+        <v>1.62</v>
+      </c>
+      <c r="J446">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K446">
+        <v>4.29</v>
+      </c>
+      <c r="M446">
+        <f t="shared" si="21"/>
+        <v>17.505827505827504</v>
+      </c>
+      <c r="N446">
+        <v>149.24</v>
+      </c>
+    </row>
+    <row r="447" spans="3:14">
+      <c r="E447">
+        <v>8</v>
+      </c>
+      <c r="F447">
+        <v>2000</v>
+      </c>
+      <c r="J447">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="M447" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="448" spans="3:14">
+      <c r="E448">
+        <v>8</v>
+      </c>
+      <c r="F448">
+        <v>2500</v>
+      </c>
+      <c r="J448">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="M448" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="449" spans="3:13">
+      <c r="E449">
+        <v>8</v>
+      </c>
+      <c r="F449">
+        <v>3000</v>
+      </c>
+      <c r="J449">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="M449" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="450" spans="3:13">
+      <c r="E450">
+        <v>8</v>
+      </c>
+      <c r="F450">
+        <v>3500</v>
+      </c>
+      <c r="J450">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="M450" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="451" spans="3:13">
+      <c r="E451">
+        <v>8</v>
+      </c>
+      <c r="F451">
+        <v>4000</v>
+      </c>
+      <c r="J451">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="M451" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="454" spans="3:13" s="2" customFormat="1"/>
+    <row r="458" spans="3:13">
+      <c r="D458" t="s">
+        <v>24</v>
+      </c>
+      <c r="E458" t="s">
+        <v>52</v>
+      </c>
+      <c r="F458" t="s">
+        <v>47</v>
+      </c>
+      <c r="G458" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="459" spans="3:13" ht="15.75">
+      <c r="C459" t="s">
+        <v>48</v>
+      </c>
+      <c r="D459" s="3">
+        <v>114.03</v>
+      </c>
+      <c r="E459" s="3">
+        <v>54.09</v>
+      </c>
+      <c r="F459" s="11">
+        <v>73.150000000000006</v>
+      </c>
+      <c r="G459" s="3">
+        <v>19.55</v>
+      </c>
+    </row>
+    <row r="460" spans="3:13" ht="15.75">
+      <c r="C460" t="s">
+        <v>29</v>
+      </c>
+      <c r="D460" s="3">
+        <v>172.69</v>
+      </c>
+      <c r="E460" s="3">
+        <v>76.88</v>
+      </c>
+      <c r="F460" s="11">
+        <v>122.08</v>
+      </c>
+      <c r="G460" s="3">
+        <v>92.27</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:Z402"/>
+  <dimension ref="A3:Z497"/>
   <sheetViews>
-    <sheetView topLeftCell="B368" workbookViewId="0">
-      <selection activeCell="C405" sqref="C405"/>
+    <sheetView topLeftCell="B493" workbookViewId="0">
+      <selection activeCell="C495" sqref="C495:G497"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27868,18 +30197,990 @@
         <v>17.588763459571918</v>
       </c>
     </row>
+    <row r="405" spans="3:13" s="2" customFormat="1"/>
+    <row r="410" spans="3:13" ht="60">
+      <c r="D410" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E410" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F410" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G410" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H410" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I410" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J410" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K410" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L410" s="1"/>
+    </row>
+    <row r="411" spans="3:13">
+      <c r="D411">
+        <v>4</v>
+      </c>
+      <c r="E411" t="s">
+        <v>6</v>
+      </c>
+      <c r="F411">
+        <v>500</v>
+      </c>
+      <c r="G411">
+        <v>207.18</v>
+      </c>
+      <c r="H411">
+        <v>1.76</v>
+      </c>
+      <c r="J411">
+        <v>4.4176470588235288</v>
+      </c>
+      <c r="K411">
+        <v>102.44</v>
+      </c>
+      <c r="M411" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="412" spans="3:13">
+      <c r="D412">
+        <v>4</v>
+      </c>
+      <c r="E412" t="s">
+        <v>6</v>
+      </c>
+      <c r="F412">
+        <v>1000</v>
+      </c>
+      <c r="G412">
+        <v>303.72000000000003</v>
+      </c>
+      <c r="H412">
+        <v>1.68</v>
+      </c>
+      <c r="J412">
+        <v>4.3918128654970756</v>
+      </c>
+    </row>
+    <row r="413" spans="3:13">
+      <c r="D413">
+        <v>4</v>
+      </c>
+      <c r="E413" t="s">
+        <v>6</v>
+      </c>
+      <c r="F413">
+        <v>1500</v>
+      </c>
+      <c r="G413">
+        <v>73.010000000000005</v>
+      </c>
+      <c r="H413">
+        <v>1.98</v>
+      </c>
+      <c r="J413">
+        <v>4.4176470588235288</v>
+      </c>
+      <c r="K413">
+        <v>123.62</v>
+      </c>
+      <c r="M413" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="414" spans="3:13">
+      <c r="D414">
+        <v>4</v>
+      </c>
+      <c r="E414" t="s">
+        <v>6</v>
+      </c>
+      <c r="F414">
+        <v>2000</v>
+      </c>
+      <c r="G414">
+        <v>63.47</v>
+      </c>
+      <c r="H414">
+        <v>1.92</v>
+      </c>
+      <c r="J414">
+        <v>4.3918128654970756</v>
+      </c>
+      <c r="K414">
+        <v>136.41999999999999</v>
+      </c>
+      <c r="M414" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="415" spans="3:13">
+      <c r="D415">
+        <v>4</v>
+      </c>
+      <c r="E415" t="s">
+        <v>6</v>
+      </c>
+      <c r="F415">
+        <v>2500</v>
+      </c>
+      <c r="G415">
+        <v>43.13</v>
+      </c>
+      <c r="H415">
+        <v>1.75</v>
+      </c>
+      <c r="J415">
+        <v>4.3918128654970756</v>
+      </c>
+      <c r="K415">
+        <v>151.84</v>
+      </c>
+      <c r="M415" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="416" spans="3:13">
+      <c r="D416">
+        <v>4</v>
+      </c>
+      <c r="E416" t="s">
+        <v>6</v>
+      </c>
+      <c r="F416">
+        <v>3000</v>
+      </c>
+      <c r="G416">
+        <v>19.309999999999999</v>
+      </c>
+      <c r="H416">
+        <v>1.7</v>
+      </c>
+      <c r="J416">
+        <v>4.3918128654970756</v>
+      </c>
+    </row>
+    <row r="417" spans="4:10">
+      <c r="D417">
+        <v>4</v>
+      </c>
+      <c r="E417" t="s">
+        <v>6</v>
+      </c>
+      <c r="F417">
+        <v>3500</v>
+      </c>
+      <c r="G417">
+        <v>22.38</v>
+      </c>
+      <c r="H417">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="J417">
+        <v>4.3918128654970756</v>
+      </c>
+    </row>
+    <row r="418" spans="4:10">
+      <c r="D418">
+        <v>4</v>
+      </c>
+      <c r="E418" t="s">
+        <v>6</v>
+      </c>
+      <c r="F418">
+        <v>4000</v>
+      </c>
+      <c r="G418">
+        <v>14.38</v>
+      </c>
+      <c r="H418">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="J418">
+        <v>4.3918128654970756</v>
+      </c>
+    </row>
+    <row r="419" spans="4:10">
+      <c r="D419">
+        <v>8</v>
+      </c>
+      <c r="E419" t="s">
+        <v>6</v>
+      </c>
+      <c r="F419">
+        <v>500</v>
+      </c>
+      <c r="G419">
+        <v>118.06</v>
+      </c>
+      <c r="H419">
+        <v>1.68</v>
+      </c>
+      <c r="J419">
+        <v>17.505827505827504</v>
+      </c>
+    </row>
+    <row r="420" spans="4:10">
+      <c r="D420">
+        <v>8</v>
+      </c>
+      <c r="E420" t="s">
+        <v>6</v>
+      </c>
+      <c r="F420">
+        <v>1000</v>
+      </c>
+      <c r="G420">
+        <v>45.83</v>
+      </c>
+      <c r="H420">
+        <v>1.68</v>
+      </c>
+      <c r="J420">
+        <v>17.505827505827504</v>
+      </c>
+    </row>
+    <row r="421" spans="4:10">
+      <c r="D421">
+        <v>8</v>
+      </c>
+      <c r="E421" t="s">
+        <v>6</v>
+      </c>
+      <c r="F421">
+        <v>1500</v>
+      </c>
+      <c r="G421">
+        <v>48.87</v>
+      </c>
+      <c r="H421">
+        <v>1.81</v>
+      </c>
+      <c r="J421">
+        <v>17.505827505827504</v>
+      </c>
+    </row>
+    <row r="422" spans="4:10">
+      <c r="D422">
+        <v>8</v>
+      </c>
+      <c r="E422" t="s">
+        <v>6</v>
+      </c>
+      <c r="F422">
+        <v>2000</v>
+      </c>
+      <c r="G422">
+        <v>49.16</v>
+      </c>
+      <c r="H422">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="J422">
+        <v>17.546728971962615</v>
+      </c>
+    </row>
+    <row r="423" spans="4:10">
+      <c r="D423">
+        <v>8</v>
+      </c>
+      <c r="E423" t="s">
+        <v>6</v>
+      </c>
+      <c r="F423">
+        <v>2500</v>
+      </c>
+      <c r="G423">
+        <v>30.47</v>
+      </c>
+      <c r="H423">
+        <v>1.79</v>
+      </c>
+      <c r="J423">
+        <v>17.505827505827504</v>
+      </c>
+    </row>
+    <row r="424" spans="4:10">
+      <c r="D424">
+        <v>8</v>
+      </c>
+      <c r="E424" t="s">
+        <v>6</v>
+      </c>
+      <c r="F424">
+        <v>3000</v>
+      </c>
+      <c r="G424">
+        <v>29.87</v>
+      </c>
+      <c r="H424">
+        <v>1.98</v>
+      </c>
+      <c r="J424">
+        <v>17.546728971962615</v>
+      </c>
+    </row>
+    <row r="425" spans="4:10">
+      <c r="D425">
+        <v>8</v>
+      </c>
+      <c r="E425" t="s">
+        <v>6</v>
+      </c>
+      <c r="F425">
+        <v>3500</v>
+      </c>
+      <c r="G425">
+        <v>46.85</v>
+      </c>
+      <c r="H425">
+        <v>1.98</v>
+      </c>
+      <c r="J425">
+        <v>17.546728971962615</v>
+      </c>
+    </row>
+    <row r="426" spans="4:10">
+      <c r="D426">
+        <v>8</v>
+      </c>
+      <c r="E426" t="s">
+        <v>6</v>
+      </c>
+      <c r="F426">
+        <v>4000</v>
+      </c>
+      <c r="G426">
+        <v>45.88</v>
+      </c>
+      <c r="H426">
+        <v>2.09</v>
+      </c>
+      <c r="J426">
+        <v>17.546728971962615</v>
+      </c>
+    </row>
+    <row r="427" spans="4:10">
+      <c r="D427">
+        <v>16</v>
+      </c>
+      <c r="E427" t="s">
+        <v>6</v>
+      </c>
+      <c r="F427">
+        <v>500</v>
+      </c>
+      <c r="G427">
+        <v>49.55</v>
+      </c>
+      <c r="H427">
+        <v>1.7</v>
+      </c>
+      <c r="J427">
+        <v>70.849056603773576</v>
+      </c>
+    </row>
+    <row r="428" spans="4:10">
+      <c r="D428">
+        <v>16</v>
+      </c>
+      <c r="E428" t="s">
+        <v>6</v>
+      </c>
+      <c r="F428">
+        <v>1000</v>
+      </c>
+      <c r="G428">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="H428">
+        <v>1.86</v>
+      </c>
+      <c r="J428">
+        <v>70.849056603773576</v>
+      </c>
+    </row>
+    <row r="429" spans="4:10">
+      <c r="D429">
+        <v>16</v>
+      </c>
+      <c r="E429" t="s">
+        <v>6</v>
+      </c>
+      <c r="F429">
+        <v>1500</v>
+      </c>
+      <c r="G429">
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="H429">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="J429">
+        <v>70.849056603773576</v>
+      </c>
+    </row>
+    <row r="430" spans="4:10">
+      <c r="D430">
+        <v>16</v>
+      </c>
+      <c r="E430" t="s">
+        <v>6</v>
+      </c>
+      <c r="F430">
+        <v>2000</v>
+      </c>
+      <c r="G430">
+        <v>10.83</v>
+      </c>
+      <c r="H430">
+        <v>1.79</v>
+      </c>
+      <c r="J430">
+        <v>70.849056603773576</v>
+      </c>
+    </row>
+    <row r="431" spans="4:10">
+      <c r="D431">
+        <v>16</v>
+      </c>
+      <c r="E431" t="s">
+        <v>6</v>
+      </c>
+      <c r="F431">
+        <v>2500</v>
+      </c>
+      <c r="G431">
+        <v>6.16</v>
+      </c>
+      <c r="H431">
+        <v>1.81</v>
+      </c>
+      <c r="J431">
+        <v>71.523809523809518</v>
+      </c>
+    </row>
+    <row r="432" spans="4:10">
+      <c r="D432">
+        <v>16</v>
+      </c>
+      <c r="E432" t="s">
+        <v>6</v>
+      </c>
+      <c r="F432">
+        <v>3000</v>
+      </c>
+      <c r="G432">
+        <v>6.33</v>
+      </c>
+      <c r="H432">
+        <v>1.92</v>
+      </c>
+      <c r="J432">
+        <v>71.523809523809518</v>
+      </c>
+    </row>
+    <row r="433" spans="3:10">
+      <c r="D433">
+        <v>16</v>
+      </c>
+      <c r="E433" t="s">
+        <v>6</v>
+      </c>
+      <c r="F433">
+        <v>3500</v>
+      </c>
+      <c r="G433">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="H433">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="J433">
+        <v>71.523809523809518</v>
+      </c>
+    </row>
+    <row r="434" spans="3:10">
+      <c r="D434">
+        <v>16</v>
+      </c>
+      <c r="E434" t="s">
+        <v>6</v>
+      </c>
+      <c r="F434">
+        <v>4000</v>
+      </c>
+      <c r="G434">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="H434">
+        <v>1.87</v>
+      </c>
+      <c r="J434">
+        <v>71.523809523809518</v>
+      </c>
+    </row>
+    <row r="438" spans="3:10" s="2" customFormat="1"/>
+    <row r="442" spans="3:10">
+      <c r="D442" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E442" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F442" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="443" spans="3:10" ht="15.75">
+      <c r="C443" t="s">
+        <v>23</v>
+      </c>
+      <c r="D443" s="11">
+        <v>63.47</v>
+      </c>
+      <c r="E443" s="3">
+        <v>42.71</v>
+      </c>
+      <c r="F443" s="3">
+        <v>60.79</v>
+      </c>
+    </row>
+    <row r="444" spans="3:10" ht="15.75">
+      <c r="C444" t="s">
+        <v>24</v>
+      </c>
+      <c r="D444" s="3">
+        <v>224.04</v>
+      </c>
+      <c r="E444" s="3">
+        <v>124.52</v>
+      </c>
+      <c r="F444" s="3">
+        <v>82.51</v>
+      </c>
+    </row>
+    <row r="445" spans="3:10" ht="15.75">
+      <c r="C445" t="s">
+        <v>25</v>
+      </c>
+      <c r="D445" s="3">
+        <v>133.66</v>
+      </c>
+      <c r="E445" s="3">
+        <v>120.59</v>
+      </c>
+      <c r="F445" s="3">
+        <v>70.62</v>
+      </c>
+    </row>
+    <row r="466" spans="3:14" s="2" customFormat="1"/>
+    <row r="471" spans="3:14" ht="60">
+      <c r="D471" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E471" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F471" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G471" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H471" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I471" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J471" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K471" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L471" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M471" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N471" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="472" spans="3:14">
+      <c r="C472">
+        <v>1</v>
+      </c>
+      <c r="D472" t="s">
+        <v>19</v>
+      </c>
+      <c r="E472">
+        <v>4</v>
+      </c>
+      <c r="F472">
+        <v>500</v>
+      </c>
+      <c r="G472">
+        <v>212.46</v>
+      </c>
+      <c r="H472">
+        <v>2.19</v>
+      </c>
+      <c r="J472">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K472">
+        <v>17.2</v>
+      </c>
+      <c r="L472">
+        <f>I472/K472</f>
+        <v>0</v>
+      </c>
+      <c r="M472">
+        <f>J472/K472</f>
+        <v>4.3662790697674421</v>
+      </c>
+      <c r="N472">
+        <v>99.35</v>
+      </c>
+    </row>
+    <row r="473" spans="3:14">
+      <c r="E473">
+        <v>4</v>
+      </c>
+      <c r="F473">
+        <v>1000</v>
+      </c>
+      <c r="J473">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="M473" t="e">
+        <f t="shared" ref="M473:M487" si="22">J473/K473</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="474" spans="3:14">
+      <c r="E474">
+        <v>4</v>
+      </c>
+      <c r="F474">
+        <v>1500</v>
+      </c>
+      <c r="J474">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="M474" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="475" spans="3:14">
+      <c r="E475">
+        <v>4</v>
+      </c>
+      <c r="F475">
+        <v>2000</v>
+      </c>
+      <c r="G475">
+        <v>140.87</v>
+      </c>
+      <c r="H475">
+        <v>1.7</v>
+      </c>
+      <c r="J475">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K475">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="M475">
+        <f t="shared" si="22"/>
+        <v>4.3918128654970756</v>
+      </c>
+      <c r="N475">
+        <v>109.36</v>
+      </c>
+    </row>
+    <row r="476" spans="3:14">
+      <c r="E476">
+        <v>4</v>
+      </c>
+      <c r="F476">
+        <v>2500</v>
+      </c>
+      <c r="G476">
+        <v>135.46</v>
+      </c>
+      <c r="H476">
+        <v>1.93</v>
+      </c>
+      <c r="J476">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K476">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="M476">
+        <f t="shared" si="22"/>
+        <v>4.3918128654970756</v>
+      </c>
+      <c r="N476">
+        <v>114.78</v>
+      </c>
+    </row>
+    <row r="477" spans="3:14">
+      <c r="E477">
+        <v>4</v>
+      </c>
+      <c r="F477">
+        <v>3000</v>
+      </c>
+      <c r="J477">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="M477" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="478" spans="3:14">
+      <c r="E478">
+        <v>4</v>
+      </c>
+      <c r="F478">
+        <v>3500</v>
+      </c>
+      <c r="J478">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="M478" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="479" spans="3:14">
+      <c r="C479" s="1"/>
+      <c r="D479" s="1"/>
+      <c r="E479">
+        <v>4</v>
+      </c>
+      <c r="F479">
+        <v>4000</v>
+      </c>
+      <c r="G479" s="1"/>
+      <c r="H479" s="1"/>
+      <c r="I479" s="1"/>
+      <c r="J479">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K479" s="1"/>
+      <c r="L479" s="1"/>
+      <c r="M479" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="480" spans="3:14">
+      <c r="E480">
+        <v>8</v>
+      </c>
+      <c r="F480">
+        <v>500</v>
+      </c>
+      <c r="J480">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="M480" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="481" spans="3:13">
+      <c r="E481">
+        <v>8</v>
+      </c>
+      <c r="F481">
+        <v>1000</v>
+      </c>
+      <c r="J481">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="M481" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="482" spans="3:13">
+      <c r="E482">
+        <v>8</v>
+      </c>
+      <c r="F482">
+        <v>1500</v>
+      </c>
+      <c r="J482">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="M482" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="483" spans="3:13">
+      <c r="E483">
+        <v>8</v>
+      </c>
+      <c r="F483">
+        <v>2000</v>
+      </c>
+      <c r="J483">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="M483" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="484" spans="3:13">
+      <c r="E484">
+        <v>8</v>
+      </c>
+      <c r="F484">
+        <v>2500</v>
+      </c>
+      <c r="J484">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="M484" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="485" spans="3:13">
+      <c r="E485">
+        <v>8</v>
+      </c>
+      <c r="F485">
+        <v>3000</v>
+      </c>
+      <c r="J485">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="M485" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="486" spans="3:13">
+      <c r="E486">
+        <v>8</v>
+      </c>
+      <c r="F486">
+        <v>3500</v>
+      </c>
+      <c r="J486">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="M486" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="487" spans="3:13">
+      <c r="E487">
+        <v>8</v>
+      </c>
+      <c r="F487">
+        <v>4000</v>
+      </c>
+      <c r="J487">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="M487" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="491" spans="3:13" s="2" customFormat="1"/>
+    <row r="495" spans="3:13">
+      <c r="D495" t="s">
+        <v>24</v>
+      </c>
+      <c r="E495" t="s">
+        <v>45</v>
+      </c>
+      <c r="F495" t="s">
+        <v>47</v>
+      </c>
+      <c r="G495" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="496" spans="3:13" ht="15.75">
+      <c r="C496" t="s">
+        <v>48</v>
+      </c>
+      <c r="D496" s="3">
+        <v>224.04</v>
+      </c>
+      <c r="E496" s="3">
+        <v>82.51</v>
+      </c>
+      <c r="F496" s="11">
+        <v>140.87</v>
+      </c>
+      <c r="G496" s="11">
+        <v>63.47</v>
+      </c>
+      <c r="H496" s="11"/>
+      <c r="I496" s="3"/>
+    </row>
+    <row r="497" spans="3:9" ht="15.75">
+      <c r="C497" t="s">
+        <v>29</v>
+      </c>
+      <c r="D497" s="3">
+        <v>136.16999999999999</v>
+      </c>
+      <c r="E497" s="3">
+        <v>138.36000000000001</v>
+      </c>
+      <c r="F497" s="11">
+        <v>109.36</v>
+      </c>
+      <c r="G497" s="11">
+        <v>136.41999999999999</v>
+      </c>
+      <c r="H497" s="11"/>
+      <c r="I497" s="3"/>
+    </row>
   </sheetData>
+  <sortState ref="D411:J434">
+    <sortCondition ref="D411"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:Z402"/>
+  <dimension ref="A3:Z503"/>
   <sheetViews>
-    <sheetView topLeftCell="B361" workbookViewId="0">
-      <selection activeCell="G412" sqref="G412"/>
+    <sheetView tabSelected="1" topLeftCell="A504" workbookViewId="0">
+      <selection activeCell="M514" sqref="M514"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -33734,22 +37035,894 @@
         <v>17.277263666891553</v>
       </c>
     </row>
+    <row r="416" spans="3:13" ht="60">
+      <c r="C416" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D416" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E416" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F416" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G416" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H416" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I416" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J416" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K416" s="1"/>
+      <c r="L416" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="417" spans="3:10">
+      <c r="C417" t="s">
+        <v>0</v>
+      </c>
+      <c r="D417">
+        <v>4</v>
+      </c>
+      <c r="E417">
+        <v>500</v>
+      </c>
+      <c r="F417">
+        <v>186.84</v>
+      </c>
+      <c r="G417">
+        <v>1.73</v>
+      </c>
+      <c r="H417">
+        <v>4.4176470588235288</v>
+      </c>
+      <c r="J417">
+        <v>875.75</v>
+      </c>
+    </row>
+    <row r="418" spans="3:10">
+      <c r="D418">
+        <v>4</v>
+      </c>
+      <c r="E418">
+        <v>1000</v>
+      </c>
+      <c r="F418">
+        <v>181.18</v>
+      </c>
+      <c r="G418">
+        <v>1.83</v>
+      </c>
+      <c r="H418">
+        <v>4.4176470588235288</v>
+      </c>
+    </row>
+    <row r="419" spans="3:10">
+      <c r="D419">
+        <v>4</v>
+      </c>
+      <c r="E419">
+        <v>1500</v>
+      </c>
+      <c r="F419">
+        <v>176.85</v>
+      </c>
+      <c r="G419">
+        <v>1.81</v>
+      </c>
+      <c r="H419">
+        <v>4.3918128654970756</v>
+      </c>
+      <c r="J419">
+        <v>877.66</v>
+      </c>
+    </row>
+    <row r="420" spans="3:10">
+      <c r="D420">
+        <v>4</v>
+      </c>
+      <c r="E420">
+        <v>2000</v>
+      </c>
+      <c r="F420">
+        <v>129.21</v>
+      </c>
+      <c r="G420">
+        <v>1.79</v>
+      </c>
+      <c r="H420">
+        <v>4.3918128654970756</v>
+      </c>
+    </row>
+    <row r="421" spans="3:10">
+      <c r="D421">
+        <v>4</v>
+      </c>
+      <c r="E421">
+        <v>2500</v>
+      </c>
+      <c r="F421">
+        <v>99.95</v>
+      </c>
+      <c r="G421">
+        <v>1.76</v>
+      </c>
+      <c r="H421">
+        <v>4.4176470588235288</v>
+      </c>
+    </row>
+    <row r="422" spans="3:10">
+      <c r="D422">
+        <v>4</v>
+      </c>
+      <c r="E422">
+        <v>3000</v>
+      </c>
+      <c r="F422">
+        <v>97.08</v>
+      </c>
+      <c r="G422">
+        <v>1.76</v>
+      </c>
+      <c r="H422">
+        <v>4.4176470588235288</v>
+      </c>
+    </row>
+    <row r="423" spans="3:10">
+      <c r="D423">
+        <v>4</v>
+      </c>
+      <c r="E423">
+        <v>3500</v>
+      </c>
+      <c r="F423">
+        <v>100.85</v>
+      </c>
+      <c r="G423">
+        <v>1.67</v>
+      </c>
+      <c r="H423">
+        <v>4.4176470588235288</v>
+      </c>
+    </row>
+    <row r="424" spans="3:10">
+      <c r="D424">
+        <v>4</v>
+      </c>
+      <c r="E424">
+        <v>4000</v>
+      </c>
+      <c r="F424">
+        <v>96.67</v>
+      </c>
+      <c r="G424">
+        <v>1.7</v>
+      </c>
+      <c r="H424">
+        <v>4.4176470588235288</v>
+      </c>
+    </row>
+    <row r="425" spans="3:10">
+      <c r="D425">
+        <v>8</v>
+      </c>
+      <c r="E425">
+        <v>500</v>
+      </c>
+      <c r="F425">
+        <v>28.98</v>
+      </c>
+      <c r="G425">
+        <v>1.72</v>
+      </c>
+      <c r="H425">
+        <v>17.264367816091955</v>
+      </c>
+    </row>
+    <row r="426" spans="3:10">
+      <c r="D426">
+        <v>8</v>
+      </c>
+      <c r="E426">
+        <v>1000</v>
+      </c>
+      <c r="F426">
+        <v>49.05</v>
+      </c>
+      <c r="G426">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="H426">
+        <v>17.264367816091955</v>
+      </c>
+    </row>
+    <row r="427" spans="3:10">
+      <c r="D427">
+        <v>8</v>
+      </c>
+      <c r="E427">
+        <v>1500</v>
+      </c>
+      <c r="F427">
+        <v>44.51</v>
+      </c>
+      <c r="G427">
+        <v>1.89</v>
+      </c>
+      <c r="H427">
+        <v>17.264367816091955</v>
+      </c>
+    </row>
+    <row r="428" spans="3:10">
+      <c r="D428">
+        <v>8</v>
+      </c>
+      <c r="E428">
+        <v>2000</v>
+      </c>
+      <c r="F428">
+        <v>29.08</v>
+      </c>
+      <c r="G428">
+        <v>1.65</v>
+      </c>
+      <c r="H428">
+        <v>17.264367816091955</v>
+      </c>
+    </row>
+    <row r="429" spans="3:10">
+      <c r="D429">
+        <v>8</v>
+      </c>
+      <c r="E429">
+        <v>2500</v>
+      </c>
+      <c r="F429">
+        <v>28.83</v>
+      </c>
+      <c r="G429">
+        <v>1.68</v>
+      </c>
+      <c r="H429">
+        <v>17.264367816091955</v>
+      </c>
+    </row>
+    <row r="430" spans="3:10">
+      <c r="D430">
+        <v>8</v>
+      </c>
+      <c r="E430">
+        <v>3000</v>
+      </c>
+      <c r="F430">
+        <v>29.16</v>
+      </c>
+      <c r="G430">
+        <v>1.79</v>
+      </c>
+      <c r="H430">
+        <v>17.264367816091955</v>
+      </c>
+    </row>
+    <row r="431" spans="3:10">
+      <c r="D431">
+        <v>8</v>
+      </c>
+      <c r="E431">
+        <v>3500</v>
+      </c>
+      <c r="F431">
+        <v>28.95</v>
+      </c>
+      <c r="G431">
+        <v>1.78</v>
+      </c>
+      <c r="H431">
+        <v>17.264367816091955</v>
+      </c>
+    </row>
+    <row r="432" spans="3:10">
+      <c r="D432">
+        <v>8</v>
+      </c>
+      <c r="E432">
+        <v>4000</v>
+      </c>
+      <c r="F432">
+        <v>28.64</v>
+      </c>
+      <c r="G432">
+        <v>1.76</v>
+      </c>
+      <c r="H432">
+        <v>17.264367816091955</v>
+      </c>
+    </row>
+    <row r="433" spans="4:8">
+      <c r="D433">
+        <v>16</v>
+      </c>
+      <c r="E433">
+        <v>500</v>
+      </c>
+      <c r="F433">
+        <v>7.74</v>
+      </c>
+      <c r="G433">
+        <v>2.36</v>
+      </c>
+      <c r="H433">
+        <v>68.89908256880733</v>
+      </c>
+    </row>
+    <row r="434" spans="4:8">
+      <c r="D434">
+        <v>16</v>
+      </c>
+      <c r="E434">
+        <v>1000</v>
+      </c>
+      <c r="F434">
+        <v>11.48</v>
+      </c>
+      <c r="G434">
+        <v>1.98</v>
+      </c>
+      <c r="H434">
+        <v>68.89908256880733</v>
+      </c>
+    </row>
+    <row r="435" spans="4:8">
+      <c r="D435">
+        <v>16</v>
+      </c>
+      <c r="E435">
+        <v>1500</v>
+      </c>
+      <c r="F435">
+        <v>7.77</v>
+      </c>
+      <c r="G435">
+        <v>1.83</v>
+      </c>
+      <c r="H435">
+        <v>68.89908256880733</v>
+      </c>
+    </row>
+    <row r="436" spans="4:8">
+      <c r="D436">
+        <v>16</v>
+      </c>
+      <c r="E436">
+        <v>2000</v>
+      </c>
+      <c r="F436">
+        <v>6.05</v>
+      </c>
+      <c r="G436">
+        <v>1.72</v>
+      </c>
+      <c r="H436">
+        <v>68.89908256880733</v>
+      </c>
+    </row>
+    <row r="437" spans="4:8">
+      <c r="D437">
+        <v>16</v>
+      </c>
+      <c r="E437">
+        <v>2500</v>
+      </c>
+      <c r="F437">
+        <v>6.13</v>
+      </c>
+      <c r="G437">
+        <v>1.81</v>
+      </c>
+      <c r="H437">
+        <v>68.89908256880733</v>
+      </c>
+    </row>
+    <row r="438" spans="4:8">
+      <c r="D438">
+        <v>16</v>
+      </c>
+      <c r="E438">
+        <v>3000</v>
+      </c>
+      <c r="F438">
+        <v>6.15</v>
+      </c>
+      <c r="G438">
+        <v>1.73</v>
+      </c>
+      <c r="H438">
+        <v>68.89908256880733</v>
+      </c>
+    </row>
+    <row r="439" spans="4:8">
+      <c r="D439">
+        <v>16</v>
+      </c>
+      <c r="E439">
+        <v>3500</v>
+      </c>
+      <c r="F439">
+        <v>6.13</v>
+      </c>
+      <c r="G439">
+        <v>1.76</v>
+      </c>
+      <c r="H439">
+        <v>68.89908256880733</v>
+      </c>
+    </row>
+    <row r="440" spans="4:8">
+      <c r="D440">
+        <v>16</v>
+      </c>
+      <c r="E440">
+        <v>4000</v>
+      </c>
+      <c r="F440">
+        <v>6.27</v>
+      </c>
+      <c r="G440">
+        <v>1.65</v>
+      </c>
+      <c r="H440">
+        <v>68.89908256880733</v>
+      </c>
+    </row>
+    <row r="445" spans="4:8" s="2" customFormat="1"/>
+    <row r="450" spans="4:7">
+      <c r="E450" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F450" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G450" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="451" spans="4:7" ht="15.75">
+      <c r="D451" t="s">
+        <v>23</v>
+      </c>
+      <c r="E451" s="16">
+        <v>176.85</v>
+      </c>
+      <c r="F451" s="3">
+        <v>51.36</v>
+      </c>
+      <c r="G451" s="3">
+        <v>151.01</v>
+      </c>
+    </row>
+    <row r="452" spans="4:7" ht="15.75">
+      <c r="D452" t="s">
+        <v>24</v>
+      </c>
+      <c r="E452" s="3">
+        <v>239.78</v>
+      </c>
+      <c r="F452" s="3">
+        <v>167.19</v>
+      </c>
+      <c r="G452" s="3">
+        <v>126.72</v>
+      </c>
+    </row>
+    <row r="453" spans="4:7" ht="15.75">
+      <c r="D453" t="s">
+        <v>25</v>
+      </c>
+      <c r="E453" s="3">
+        <v>101.12</v>
+      </c>
+      <c r="F453" s="3">
+        <v>154.02000000000001</v>
+      </c>
+      <c r="G453" s="3">
+        <v>59.64</v>
+      </c>
+    </row>
+    <row r="475" spans="4:14" s="2" customFormat="1"/>
+    <row r="479" spans="4:14" ht="60">
+      <c r="D479" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E479" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F479" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G479" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H479" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I479" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J479" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K479" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L479" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M479" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N479" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="480" spans="4:14">
+      <c r="D480" t="s">
+        <v>19</v>
+      </c>
+      <c r="E480">
+        <v>4</v>
+      </c>
+      <c r="F480">
+        <v>500</v>
+      </c>
+      <c r="G480">
+        <v>189.71</v>
+      </c>
+      <c r="H480">
+        <v>1.91</v>
+      </c>
+      <c r="J480">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K480">
+        <v>16.7</v>
+      </c>
+      <c r="L480">
+        <f>I480/K480</f>
+        <v>0</v>
+      </c>
+      <c r="M480">
+        <f>J480/K480</f>
+        <v>4.4970059880239521</v>
+      </c>
+      <c r="N480">
+        <v>361.48</v>
+      </c>
+    </row>
+    <row r="481" spans="4:14">
+      <c r="E481">
+        <v>4</v>
+      </c>
+      <c r="F481">
+        <v>1000</v>
+      </c>
+      <c r="J481">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="M481" t="e">
+        <f t="shared" ref="M481:M495" si="21">J481/K481</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="482" spans="4:14">
+      <c r="E482">
+        <v>4</v>
+      </c>
+      <c r="F482">
+        <v>1500</v>
+      </c>
+      <c r="J482">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="M482" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="483" spans="4:14">
+      <c r="E483">
+        <v>4</v>
+      </c>
+      <c r="F483">
+        <v>2000</v>
+      </c>
+      <c r="G483">
+        <v>174.35</v>
+      </c>
+      <c r="H483">
+        <v>1.81</v>
+      </c>
+      <c r="J483">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K483">
+        <v>16.7</v>
+      </c>
+      <c r="M483">
+        <f t="shared" si="21"/>
+        <v>4.4970059880239521</v>
+      </c>
+      <c r="N483">
+        <v>364.76</v>
+      </c>
+    </row>
+    <row r="484" spans="4:14">
+      <c r="E484">
+        <v>4</v>
+      </c>
+      <c r="F484">
+        <v>2500</v>
+      </c>
+      <c r="J484">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="M484" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="485" spans="4:14">
+      <c r="E485">
+        <v>4</v>
+      </c>
+      <c r="F485">
+        <v>3000</v>
+      </c>
+      <c r="J485">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="M485" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="486" spans="4:14">
+      <c r="E486">
+        <v>4</v>
+      </c>
+      <c r="F486">
+        <v>3500</v>
+      </c>
+      <c r="J486">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="M486" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="487" spans="4:14">
+      <c r="D487" s="1"/>
+      <c r="E487">
+        <v>4</v>
+      </c>
+      <c r="F487">
+        <v>4000</v>
+      </c>
+      <c r="G487" s="1"/>
+      <c r="H487" s="1"/>
+      <c r="I487" s="1"/>
+      <c r="J487">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K487" s="1"/>
+      <c r="L487" s="1"/>
+      <c r="M487" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="488" spans="4:14">
+      <c r="E488">
+        <v>8</v>
+      </c>
+      <c r="F488">
+        <v>500</v>
+      </c>
+      <c r="J488">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="M488" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="489" spans="4:14">
+      <c r="E489">
+        <v>8</v>
+      </c>
+      <c r="F489">
+        <v>1000</v>
+      </c>
+      <c r="J489">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="M489" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="490" spans="4:14">
+      <c r="E490">
+        <v>8</v>
+      </c>
+      <c r="F490">
+        <v>1500</v>
+      </c>
+      <c r="J490">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="M490" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="491" spans="4:14">
+      <c r="E491">
+        <v>8</v>
+      </c>
+      <c r="F491">
+        <v>2000</v>
+      </c>
+      <c r="J491">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="M491" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="492" spans="4:14">
+      <c r="E492">
+        <v>8</v>
+      </c>
+      <c r="F492">
+        <v>2500</v>
+      </c>
+      <c r="J492">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="M492" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="493" spans="4:14">
+      <c r="E493">
+        <v>8</v>
+      </c>
+      <c r="F493">
+        <v>3000</v>
+      </c>
+      <c r="J493">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="M493" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="494" spans="4:14">
+      <c r="E494">
+        <v>8</v>
+      </c>
+      <c r="F494">
+        <v>3500</v>
+      </c>
+      <c r="J494">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="M494" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="495" spans="4:14">
+      <c r="E495">
+        <v>8</v>
+      </c>
+      <c r="F495">
+        <v>4000</v>
+      </c>
+      <c r="J495">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="M495" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="497" spans="3:7" s="2" customFormat="1"/>
+    <row r="501" spans="3:7">
+      <c r="D501" t="s">
+        <v>24</v>
+      </c>
+      <c r="E501" t="s">
+        <v>52</v>
+      </c>
+      <c r="F501" t="s">
+        <v>47</v>
+      </c>
+      <c r="G501" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="502" spans="3:7" ht="15.75">
+      <c r="C502" t="s">
+        <v>48</v>
+      </c>
+      <c r="D502" s="3">
+        <v>239.78</v>
+      </c>
+      <c r="E502" s="3">
+        <v>167.19</v>
+      </c>
+      <c r="F502" s="16">
+        <v>174.35</v>
+      </c>
+      <c r="G502" s="3">
+        <v>154.02000000000001</v>
+      </c>
+    </row>
+    <row r="503" spans="3:7" ht="15.75">
+      <c r="C503" t="s">
+        <v>29</v>
+      </c>
+      <c r="D503" s="3">
+        <v>899.91</v>
+      </c>
+      <c r="E503" s="3">
+        <v>998.96</v>
+      </c>
+      <c r="F503" s="16">
+        <v>364.76</v>
+      </c>
+      <c r="G503" s="3">
+        <v>737.26</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="D417:H440">
+    <sortCondition ref="D417"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C5:L51"/>
+  <dimension ref="B3:L83"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36:L43"/>
+    <sheetView topLeftCell="C62" workbookViewId="0">
+      <selection activeCell="K73" sqref="K73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="5" spans="3:6" ht="45">
+    <row r="3" spans="2:6">
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="45">
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
@@ -33763,7 +37936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="3:6">
+    <row r="6" spans="2:6">
       <c r="C6">
         <v>76.59</v>
       </c>
@@ -33777,7 +37950,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="3:6">
+    <row r="7" spans="2:6">
       <c r="C7">
         <v>64.239999999999995</v>
       </c>
@@ -33791,7 +37964,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="3:6">
+    <row r="8" spans="2:6">
       <c r="C8">
         <v>47.61</v>
       </c>
@@ -33805,7 +37978,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="9" spans="3:6">
+    <row r="9" spans="2:6">
       <c r="C9">
         <v>13.01</v>
       </c>
@@ -33819,7 +37992,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="10" spans="3:6">
+    <row r="10" spans="2:6">
       <c r="C10">
         <v>18.579999999999998</v>
       </c>
@@ -33833,7 +38006,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="3:6">
+    <row r="11" spans="2:6">
       <c r="C11">
         <v>8.91</v>
       </c>
@@ -33847,7 +38020,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="12" spans="3:6">
+    <row r="12" spans="2:6">
       <c r="C12">
         <v>6.13</v>
       </c>
@@ -33861,7 +38034,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="13" spans="3:6">
+    <row r="13" spans="2:6">
       <c r="C13">
         <v>5.58</v>
       </c>
@@ -33875,7 +38048,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="14" spans="3:6">
+    <row r="14" spans="2:6">
       <c r="C14">
         <v>30.03</v>
       </c>
@@ -33889,7 +38062,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="15" spans="3:6">
+    <row r="15" spans="2:6">
       <c r="C15">
         <v>40.67</v>
       </c>
@@ -33903,7 +38076,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="3:6">
+    <row r="16" spans="2:6">
       <c r="C16">
         <v>33.06</v>
       </c>
@@ -34042,11 +38215,11 @@
         <v>17.100000000000001</v>
       </c>
       <c r="J28">
-        <f>G28/I28</f>
+        <f t="shared" ref="J28:J51" si="0">G28/I28</f>
         <v>0.29590643274853795</v>
       </c>
       <c r="K28">
-        <f>H28/I28</f>
+        <f t="shared" ref="K28:K51" si="1">H28/I28</f>
         <v>4.3859649122807012</v>
       </c>
       <c r="L28">
@@ -34076,11 +38249,11 @@
         <v>17.2</v>
       </c>
       <c r="J29">
-        <f>G29/I29</f>
+        <f t="shared" si="0"/>
         <v>0.29418604651162789</v>
       </c>
       <c r="K29">
-        <f>H29/I29</f>
+        <f t="shared" si="1"/>
         <v>4.3604651162790695</v>
       </c>
       <c r="L29">
@@ -34110,11 +38283,11 @@
         <v>17.2</v>
       </c>
       <c r="J30">
-        <f>G30/I30</f>
+        <f t="shared" si="0"/>
         <v>0.29418604651162789</v>
       </c>
       <c r="K30">
-        <f>H30/I30</f>
+        <f t="shared" si="1"/>
         <v>4.3604651162790695</v>
       </c>
       <c r="L30">
@@ -34144,11 +38317,11 @@
         <v>17.2</v>
       </c>
       <c r="J31">
-        <f>G31/I31</f>
+        <f t="shared" si="0"/>
         <v>0.29418604651162789</v>
       </c>
       <c r="K31">
-        <f>H31/I31</f>
+        <f t="shared" si="1"/>
         <v>4.3604651162790695</v>
       </c>
       <c r="L31">
@@ -34178,11 +38351,11 @@
         <v>17.2</v>
       </c>
       <c r="J32">
-        <f>G32/I32</f>
+        <f t="shared" si="0"/>
         <v>0.29418604651162789</v>
       </c>
       <c r="K32">
-        <f>H32/I32</f>
+        <f t="shared" si="1"/>
         <v>4.3604651162790695</v>
       </c>
       <c r="L32">
@@ -34212,11 +38385,11 @@
         <v>17.2</v>
       </c>
       <c r="J33">
-        <f>G33/I33</f>
+        <f t="shared" si="0"/>
         <v>0.29418604651162789</v>
       </c>
       <c r="K33">
-        <f>H33/I33</f>
+        <f t="shared" si="1"/>
         <v>4.3604651162790695</v>
       </c>
       <c r="L33">
@@ -34246,11 +38419,11 @@
         <v>17.2</v>
       </c>
       <c r="J34">
-        <f>G34/I34</f>
+        <f t="shared" si="0"/>
         <v>0.29418604651162789</v>
       </c>
       <c r="K34">
-        <f>H34/I34</f>
+        <f t="shared" si="1"/>
         <v>4.3604651162790695</v>
       </c>
       <c r="L34">
@@ -34280,11 +38453,11 @@
         <v>17.2</v>
       </c>
       <c r="J35">
-        <f>G35/I35</f>
+        <f t="shared" si="0"/>
         <v>0.29418604651162789</v>
       </c>
       <c r="K35">
-        <f>H35/I35</f>
+        <f t="shared" si="1"/>
         <v>4.3604651162790695</v>
       </c>
       <c r="L35">
@@ -34314,11 +38487,11 @@
         <v>4.28</v>
       </c>
       <c r="J36">
-        <f>G36/I36</f>
+        <f t="shared" si="0"/>
         <v>1.1822429906542054</v>
       </c>
       <c r="K36">
-        <f>H36/I36</f>
+        <f t="shared" si="1"/>
         <v>17.523364485981308</v>
       </c>
       <c r="L36">
@@ -34348,11 +38521,11 @@
         <v>4.28</v>
       </c>
       <c r="J37">
-        <f>G37/I37</f>
+        <f t="shared" si="0"/>
         <v>1.1822429906542054</v>
       </c>
       <c r="K37">
-        <f>H37/I37</f>
+        <f t="shared" si="1"/>
         <v>17.523364485981308</v>
       </c>
       <c r="L37">
@@ -34382,11 +38555,11 @@
         <v>4.28</v>
       </c>
       <c r="J38">
-        <f>G38/I38</f>
+        <f t="shared" si="0"/>
         <v>1.1822429906542054</v>
       </c>
       <c r="K38">
-        <f>H38/I38</f>
+        <f t="shared" si="1"/>
         <v>17.523364485981308</v>
       </c>
       <c r="L38">
@@ -34416,11 +38589,11 @@
         <v>4.28</v>
       </c>
       <c r="J39">
-        <f>G39/I39</f>
+        <f t="shared" si="0"/>
         <v>1.1822429906542054</v>
       </c>
       <c r="K39">
-        <f>H39/I39</f>
+        <f t="shared" si="1"/>
         <v>17.523364485981308</v>
       </c>
       <c r="L39">
@@ -34450,11 +38623,11 @@
         <v>4.28</v>
       </c>
       <c r="J40">
-        <f>G40/I40</f>
+        <f t="shared" si="0"/>
         <v>1.1822429906542054</v>
       </c>
       <c r="K40">
-        <f>H40/I40</f>
+        <f t="shared" si="1"/>
         <v>17.523364485981308</v>
       </c>
       <c r="L40">
@@ -34484,11 +38657,11 @@
         <v>4.28</v>
       </c>
       <c r="J41">
-        <f>G41/I41</f>
+        <f t="shared" si="0"/>
         <v>1.1822429906542054</v>
       </c>
       <c r="K41">
-        <f>H41/I41</f>
+        <f t="shared" si="1"/>
         <v>17.523364485981308</v>
       </c>
       <c r="L41">
@@ -34518,11 +38691,11 @@
         <v>4.28</v>
       </c>
       <c r="J42">
-        <f>G42/I42</f>
+        <f t="shared" si="0"/>
         <v>1.1822429906542054</v>
       </c>
       <c r="K42">
-        <f>H42/I42</f>
+        <f t="shared" si="1"/>
         <v>17.523364485981308</v>
       </c>
       <c r="L42">
@@ -34552,11 +38725,11 @@
         <v>4.28</v>
       </c>
       <c r="J43">
-        <f>G43/I43</f>
+        <f t="shared" si="0"/>
         <v>1.1822429906542054</v>
       </c>
       <c r="K43">
-        <f>H43/I43</f>
+        <f t="shared" si="1"/>
         <v>17.523364485981308</v>
       </c>
       <c r="L43">
@@ -34586,11 +38759,11 @@
         <v>1.07</v>
       </c>
       <c r="J44">
-        <f>G44/I44</f>
+        <f t="shared" si="0"/>
         <v>4.7289719626168214</v>
       </c>
       <c r="K44">
-        <f>H44/I44</f>
+        <f t="shared" si="1"/>
         <v>70.09345794392523</v>
       </c>
       <c r="L44">
@@ -34620,11 +38793,11 @@
         <v>1.07</v>
       </c>
       <c r="J45">
-        <f>G45/I45</f>
+        <f t="shared" si="0"/>
         <v>4.7289719626168214</v>
       </c>
       <c r="K45">
-        <f>H45/I45</f>
+        <f t="shared" si="1"/>
         <v>70.09345794392523</v>
       </c>
       <c r="L45">
@@ -34654,11 +38827,11 @@
         <v>1.07</v>
       </c>
       <c r="J46">
-        <f>G46/I46</f>
+        <f t="shared" si="0"/>
         <v>4.7289719626168214</v>
       </c>
       <c r="K46">
-        <f>H46/I46</f>
+        <f t="shared" si="1"/>
         <v>70.09345794392523</v>
       </c>
       <c r="L46">
@@ -34688,11 +38861,11 @@
         <v>1.07</v>
       </c>
       <c r="J47">
-        <f>G47/I47</f>
+        <f t="shared" si="0"/>
         <v>4.7289719626168214</v>
       </c>
       <c r="K47">
-        <f>H47/I47</f>
+        <f t="shared" si="1"/>
         <v>70.09345794392523</v>
       </c>
       <c r="L47">
@@ -34722,18 +38895,18 @@
         <v>1.07</v>
       </c>
       <c r="J48">
-        <f>G48/I48</f>
+        <f t="shared" si="0"/>
         <v>4.7289719626168214</v>
       </c>
       <c r="K48">
-        <f>H48/I48</f>
+        <f t="shared" si="1"/>
         <v>70.09345794392523</v>
       </c>
       <c r="L48">
         <v>396.69</v>
       </c>
     </row>
-    <row r="49" spans="3:12">
+    <row r="49" spans="2:12">
       <c r="C49">
         <v>16</v>
       </c>
@@ -34756,18 +38929,18 @@
         <v>1.07</v>
       </c>
       <c r="J49">
-        <f>G49/I49</f>
+        <f t="shared" si="0"/>
         <v>4.7289719626168214</v>
       </c>
       <c r="K49">
-        <f>H49/I49</f>
+        <f t="shared" si="1"/>
         <v>70.09345794392523</v>
       </c>
       <c r="L49">
         <v>396.69</v>
       </c>
     </row>
-    <row r="50" spans="3:12">
+    <row r="50" spans="2:12">
       <c r="C50">
         <v>16</v>
       </c>
@@ -34790,18 +38963,18 @@
         <v>1.07</v>
       </c>
       <c r="J50">
-        <f>G50/I50</f>
+        <f t="shared" si="0"/>
         <v>4.7289719626168214</v>
       </c>
       <c r="K50">
-        <f>H50/I50</f>
+        <f t="shared" si="1"/>
         <v>70.09345794392523</v>
       </c>
       <c r="L50">
         <v>396.7</v>
       </c>
     </row>
-    <row r="51" spans="3:12">
+    <row r="51" spans="2:12">
       <c r="C51">
         <v>16</v>
       </c>
@@ -34824,20 +38997,514 @@
         <v>1.07</v>
       </c>
       <c r="J51">
-        <f>G51/I51</f>
+        <f t="shared" si="0"/>
         <v>4.7289719626168214</v>
       </c>
       <c r="K51">
-        <f>H51/I51</f>
+        <f t="shared" si="1"/>
         <v>70.09345794392523</v>
       </c>
       <c r="L51">
         <v>396.77</v>
       </c>
     </row>
+    <row r="54" spans="2:12" s="2" customFormat="1"/>
+    <row r="57" spans="2:12">
+      <c r="B57" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12" ht="45">
+      <c r="D59" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+    </row>
+    <row r="60" spans="2:12">
+      <c r="D60">
+        <v>4</v>
+      </c>
+      <c r="E60">
+        <v>500</v>
+      </c>
+      <c r="F60">
+        <v>2.17</v>
+      </c>
+      <c r="G60">
+        <v>2.14</v>
+      </c>
+      <c r="H60">
+        <v>4.3410404624277454</v>
+      </c>
+      <c r="I60">
+        <v>4.51</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12">
+      <c r="D61">
+        <v>4</v>
+      </c>
+      <c r="E61">
+        <v>1000</v>
+      </c>
+      <c r="F61">
+        <v>0.85</v>
+      </c>
+      <c r="G61">
+        <v>1.76</v>
+      </c>
+      <c r="H61">
+        <v>4.3410404624277454</v>
+      </c>
+      <c r="I61">
+        <v>5.46</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12">
+      <c r="D62">
+        <v>4</v>
+      </c>
+      <c r="E62">
+        <v>1500</v>
+      </c>
+      <c r="F62">
+        <v>0.39</v>
+      </c>
+      <c r="G62">
+        <v>1.88</v>
+      </c>
+      <c r="H62">
+        <v>4.3410404624277499</v>
+      </c>
+      <c r="I62">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12">
+      <c r="D63">
+        <v>4</v>
+      </c>
+      <c r="E63">
+        <v>2000</v>
+      </c>
+      <c r="F63">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G63">
+        <v>1.7</v>
+      </c>
+      <c r="H63">
+        <v>4.3410404624277454</v>
+      </c>
+      <c r="I63">
+        <v>6.01</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12">
+      <c r="D64">
+        <v>4</v>
+      </c>
+      <c r="E64">
+        <v>3500</v>
+      </c>
+      <c r="F64">
+        <v>0.15</v>
+      </c>
+      <c r="G64">
+        <v>1.91</v>
+      </c>
+      <c r="H64">
+        <v>4.3410404624277454</v>
+      </c>
+      <c r="I64">
+        <v>6.01</v>
+      </c>
+    </row>
+    <row r="65" spans="4:9">
+      <c r="D65">
+        <v>4</v>
+      </c>
+      <c r="E65">
+        <v>4000</v>
+      </c>
+      <c r="F65">
+        <v>0.16</v>
+      </c>
+      <c r="G65">
+        <v>1.95</v>
+      </c>
+      <c r="H65">
+        <v>4.3410404624277454</v>
+      </c>
+      <c r="I65">
+        <v>6.02</v>
+      </c>
+    </row>
+    <row r="66" spans="4:9">
+      <c r="D66">
+        <v>4</v>
+      </c>
+      <c r="E66">
+        <v>3000</v>
+      </c>
+      <c r="F66">
+        <v>0.25</v>
+      </c>
+      <c r="G66">
+        <v>1.9</v>
+      </c>
+      <c r="H66">
+        <v>4.3410404624277454</v>
+      </c>
+      <c r="I66">
+        <v>6.05</v>
+      </c>
+    </row>
+    <row r="67" spans="4:9">
+      <c r="D67">
+        <v>4</v>
+      </c>
+      <c r="E67">
+        <v>2500</v>
+      </c>
+      <c r="F67">
+        <v>0.21</v>
+      </c>
+      <c r="G67">
+        <v>1.9</v>
+      </c>
+      <c r="H67">
+        <v>4.3410404624277454</v>
+      </c>
+      <c r="I67">
+        <v>6.08</v>
+      </c>
+    </row>
+    <row r="68" spans="4:9">
+      <c r="D68">
+        <v>8</v>
+      </c>
+      <c r="E68">
+        <v>500</v>
+      </c>
+      <c r="F68">
+        <v>6.07</v>
+      </c>
+      <c r="G68">
+        <v>1.67</v>
+      </c>
+      <c r="H68">
+        <v>17.224770642201833</v>
+      </c>
+      <c r="I68">
+        <v>6.79</v>
+      </c>
+    </row>
+    <row r="69" spans="4:9">
+      <c r="D69">
+        <v>8</v>
+      </c>
+      <c r="E69">
+        <v>1000</v>
+      </c>
+      <c r="F69">
+        <v>5.41</v>
+      </c>
+      <c r="G69">
+        <v>1.68</v>
+      </c>
+      <c r="H69">
+        <v>17.224770642201833</v>
+      </c>
+      <c r="I69">
+        <v>7.43</v>
+      </c>
+    </row>
+    <row r="70" spans="4:9">
+      <c r="D70">
+        <v>8</v>
+      </c>
+      <c r="E70">
+        <v>1500</v>
+      </c>
+      <c r="F70">
+        <v>3.78</v>
+      </c>
+      <c r="G70">
+        <v>1.73</v>
+      </c>
+      <c r="H70">
+        <v>17.224770642201833</v>
+      </c>
+      <c r="I70">
+        <v>7.76</v>
+      </c>
+    </row>
+    <row r="71" spans="4:9">
+      <c r="D71">
+        <v>8</v>
+      </c>
+      <c r="E71">
+        <v>2000</v>
+      </c>
+      <c r="F71">
+        <v>2.84</v>
+      </c>
+      <c r="G71">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="H71">
+        <v>17.224770642201833</v>
+      </c>
+      <c r="I71">
+        <v>8.36</v>
+      </c>
+    </row>
+    <row r="72" spans="4:9">
+      <c r="D72">
+        <v>8</v>
+      </c>
+      <c r="E72">
+        <v>2500</v>
+      </c>
+      <c r="F72">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="G72">
+        <v>2.12</v>
+      </c>
+      <c r="H72">
+        <v>17.224770642201833</v>
+      </c>
+      <c r="I72">
+        <v>8.6300000000000008</v>
+      </c>
+    </row>
+    <row r="73" spans="4:9">
+      <c r="D73">
+        <v>8</v>
+      </c>
+      <c r="E73">
+        <v>3000</v>
+      </c>
+      <c r="F73">
+        <v>2.11</v>
+      </c>
+      <c r="G73">
+        <v>1.76</v>
+      </c>
+      <c r="H73">
+        <v>17.224770642201833</v>
+      </c>
+      <c r="I73">
+        <v>9.1199999999999992</v>
+      </c>
+    </row>
+    <row r="74" spans="4:9">
+      <c r="D74">
+        <v>8</v>
+      </c>
+      <c r="E74">
+        <v>3500</v>
+      </c>
+      <c r="F74">
+        <v>1.44</v>
+      </c>
+      <c r="G74">
+        <v>1.79</v>
+      </c>
+      <c r="H74">
+        <v>17.224770642201833</v>
+      </c>
+      <c r="I74">
+        <v>9.48</v>
+      </c>
+    </row>
+    <row r="75" spans="4:9">
+      <c r="D75">
+        <v>8</v>
+      </c>
+      <c r="E75">
+        <v>4000</v>
+      </c>
+      <c r="F75">
+        <v>1.28</v>
+      </c>
+      <c r="G75">
+        <v>1.75</v>
+      </c>
+      <c r="H75">
+        <v>17.224770642201833</v>
+      </c>
+      <c r="I75">
+        <v>9.65</v>
+      </c>
+    </row>
+    <row r="76" spans="4:9">
+      <c r="D76">
+        <v>16</v>
+      </c>
+      <c r="E76">
+        <v>500</v>
+      </c>
+      <c r="F76">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="G76">
+        <v>1.81</v>
+      </c>
+      <c r="H76">
+        <v>69.537037037037024</v>
+      </c>
+      <c r="I76">
+        <v>19.52</v>
+      </c>
+    </row>
+    <row r="77" spans="4:9">
+      <c r="D77">
+        <v>16</v>
+      </c>
+      <c r="E77">
+        <v>1000</v>
+      </c>
+      <c r="F77">
+        <v>2.63</v>
+      </c>
+      <c r="G77">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="H77">
+        <v>69.537037037037024</v>
+      </c>
+      <c r="I77">
+        <v>19.809999999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="4:9">
+      <c r="D78">
+        <v>16</v>
+      </c>
+      <c r="E78">
+        <v>1500</v>
+      </c>
+      <c r="F78">
+        <v>2.57</v>
+      </c>
+      <c r="G78">
+        <v>1.84</v>
+      </c>
+      <c r="H78">
+        <v>69.537037037037024</v>
+      </c>
+      <c r="I78">
+        <v>19.93</v>
+      </c>
+    </row>
+    <row r="79" spans="4:9">
+      <c r="D79">
+        <v>16</v>
+      </c>
+      <c r="E79">
+        <v>2000</v>
+      </c>
+      <c r="F79">
+        <v>2.73</v>
+      </c>
+      <c r="G79">
+        <v>1.99</v>
+      </c>
+      <c r="H79">
+        <v>69.537037037037024</v>
+      </c>
+    </row>
+    <row r="80" spans="4:9">
+      <c r="D80">
+        <v>16</v>
+      </c>
+      <c r="E80">
+        <v>2500</v>
+      </c>
+      <c r="F80">
+        <v>1.99</v>
+      </c>
+      <c r="G80">
+        <v>1.73</v>
+      </c>
+      <c r="H80">
+        <v>69.537037037037024</v>
+      </c>
+    </row>
+    <row r="81" spans="4:8">
+      <c r="D81">
+        <v>16</v>
+      </c>
+      <c r="E81">
+        <v>3000</v>
+      </c>
+      <c r="F81">
+        <v>1.4</v>
+      </c>
+      <c r="G81">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="H81">
+        <v>69.537037037037024</v>
+      </c>
+    </row>
+    <row r="82" spans="4:8">
+      <c r="D82">
+        <v>16</v>
+      </c>
+      <c r="E82">
+        <v>3500</v>
+      </c>
+      <c r="F82">
+        <v>1.19</v>
+      </c>
+      <c r="G82">
+        <v>1.72</v>
+      </c>
+      <c r="H82">
+        <v>69.537037037037024</v>
+      </c>
+    </row>
+    <row r="83" spans="4:8">
+      <c r="D83">
+        <v>16</v>
+      </c>
+      <c r="E83">
+        <v>4000</v>
+      </c>
+      <c r="F83">
+        <v>1.06</v>
+      </c>
+      <c r="G83">
+        <v>1.78</v>
+      </c>
+      <c r="H83">
+        <v>69.537037037037024</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="C28:L51">
-    <sortCondition ref="C28"/>
+  <sortState ref="D60:I83">
+    <sortCondition ref="I83"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -34846,10 +39513,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:AG29"/>
+  <dimension ref="A2:AG200"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="B143" sqref="B143:D148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -36144,6 +40811,1416 @@
       </c>
       <c r="D29">
         <v>23.827586206896552</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" s="2" customFormat="1"/>
+    <row r="52" spans="1:11">
+      <c r="B52" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55" t="s">
+        <v>30</v>
+      </c>
+      <c r="C55" t="s">
+        <v>38</v>
+      </c>
+      <c r="D55" t="s">
+        <v>30</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
+      <c r="G55">
+        <v>3</v>
+      </c>
+      <c r="H55">
+        <v>4</v>
+      </c>
+      <c r="I55">
+        <v>5</v>
+      </c>
+      <c r="J55">
+        <v>6</v>
+      </c>
+      <c r="K55">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="B56" t="s">
+        <v>33</v>
+      </c>
+      <c r="C56">
+        <f>AVERAGE(E56:AG56)</f>
+        <v>339.57142857142856</v>
+      </c>
+      <c r="D56" t="s">
+        <v>33</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>299</v>
+      </c>
+      <c r="G56">
+        <v>224</v>
+      </c>
+      <c r="H56">
+        <v>308</v>
+      </c>
+      <c r="I56">
+        <v>961</v>
+      </c>
+      <c r="J56">
+        <v>585</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="B57" t="s">
+        <v>34</v>
+      </c>
+      <c r="C57">
+        <f t="shared" ref="C57:C60" si="2">AVERAGE(E57:AG57)</f>
+        <v>267</v>
+      </c>
+      <c r="D57" t="s">
+        <v>34</v>
+      </c>
+      <c r="E57">
+        <v>81</v>
+      </c>
+      <c r="F57">
+        <v>80</v>
+      </c>
+      <c r="G57">
+        <v>207</v>
+      </c>
+      <c r="H57">
+        <v>519</v>
+      </c>
+      <c r="I57">
+        <v>356</v>
+      </c>
+      <c r="J57">
+        <v>407</v>
+      </c>
+      <c r="K57">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="B58" t="s">
+        <v>35</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="2"/>
+        <v>336.71428571428572</v>
+      </c>
+      <c r="D58" t="s">
+        <v>35</v>
+      </c>
+      <c r="E58">
+        <v>484</v>
+      </c>
+      <c r="F58">
+        <v>431</v>
+      </c>
+      <c r="G58">
+        <v>287</v>
+      </c>
+      <c r="H58">
+        <v>388</v>
+      </c>
+      <c r="I58">
+        <v>131</v>
+      </c>
+      <c r="J58">
+        <v>269</v>
+      </c>
+      <c r="K58">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="B59" t="s">
+        <v>36</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="2"/>
+        <v>372.14285714285717</v>
+      </c>
+      <c r="D59" t="s">
+        <v>36</v>
+      </c>
+      <c r="E59">
+        <v>187</v>
+      </c>
+      <c r="F59">
+        <v>500</v>
+      </c>
+      <c r="G59">
+        <v>529</v>
+      </c>
+      <c r="H59">
+        <v>201</v>
+      </c>
+      <c r="I59">
+        <v>73</v>
+      </c>
+      <c r="J59">
+        <v>180</v>
+      </c>
+      <c r="K59">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="B60" t="s">
+        <v>37</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="2"/>
+        <v>205.57142857142858</v>
+      </c>
+      <c r="D60" t="s">
+        <v>37</v>
+      </c>
+      <c r="E60">
+        <v>769</v>
+      </c>
+      <c r="F60">
+        <v>211</v>
+      </c>
+      <c r="G60">
+        <v>274</v>
+      </c>
+      <c r="H60">
+        <v>105</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>80</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" t="s">
+        <v>16</v>
+      </c>
+      <c r="B67" t="s">
+        <v>30</v>
+      </c>
+      <c r="C67" t="s">
+        <v>38</v>
+      </c>
+      <c r="D67" t="s">
+        <v>30</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>2</v>
+      </c>
+      <c r="G67">
+        <v>3</v>
+      </c>
+      <c r="H67">
+        <v>4</v>
+      </c>
+      <c r="I67">
+        <v>5</v>
+      </c>
+      <c r="J67">
+        <v>6</v>
+      </c>
+      <c r="K67">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="B68" t="s">
+        <v>33</v>
+      </c>
+      <c r="C68">
+        <f>AVERAGE(E68:AG68)</f>
+        <v>1220.4285714285713</v>
+      </c>
+      <c r="D68" t="s">
+        <v>33</v>
+      </c>
+      <c r="E68">
+        <v>991</v>
+      </c>
+      <c r="F68">
+        <v>1382</v>
+      </c>
+      <c r="G68">
+        <v>1060</v>
+      </c>
+      <c r="H68">
+        <v>855</v>
+      </c>
+      <c r="I68">
+        <v>1381</v>
+      </c>
+      <c r="J68">
+        <v>1433</v>
+      </c>
+      <c r="K68">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="B69" t="s">
+        <v>34</v>
+      </c>
+      <c r="C69">
+        <f>AVERAGE(E69:AG69)</f>
+        <v>201</v>
+      </c>
+      <c r="D69" t="s">
+        <v>34</v>
+      </c>
+      <c r="E69">
+        <v>249</v>
+      </c>
+      <c r="F69">
+        <v>100</v>
+      </c>
+      <c r="G69">
+        <v>349</v>
+      </c>
+      <c r="H69">
+        <v>580</v>
+      </c>
+      <c r="I69">
+        <v>96</v>
+      </c>
+      <c r="J69">
+        <v>33</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="B70" t="s">
+        <v>35</v>
+      </c>
+      <c r="C70">
+        <f>AVERAGE(E70:AG70)</f>
+        <v>77.428571428571431</v>
+      </c>
+      <c r="D70" t="s">
+        <v>35</v>
+      </c>
+      <c r="E70">
+        <v>264</v>
+      </c>
+      <c r="F70">
+        <v>39</v>
+      </c>
+      <c r="G70">
+        <v>75</v>
+      </c>
+      <c r="H70">
+        <v>38</v>
+      </c>
+      <c r="I70">
+        <v>44</v>
+      </c>
+      <c r="J70">
+        <v>44</v>
+      </c>
+      <c r="K70">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="B71" t="s">
+        <v>36</v>
+      </c>
+      <c r="C71">
+        <f>AVERAGE(E71:AG71)</f>
+        <v>18.714285714285715</v>
+      </c>
+      <c r="D71" t="s">
+        <v>36</v>
+      </c>
+      <c r="E71">
+        <v>17</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>37</v>
+      </c>
+      <c r="H71">
+        <v>24</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>11</v>
+      </c>
+      <c r="K71">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="B72" t="s">
+        <v>37</v>
+      </c>
+      <c r="C72">
+        <f>AVERAGE(E72:AG72)</f>
+        <v>3.4285714285714284</v>
+      </c>
+      <c r="D72" t="s">
+        <v>37</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>24</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4">
+      <c r="B81" t="s">
+        <v>30</v>
+      </c>
+      <c r="C81" t="s">
+        <v>15</v>
+      </c>
+      <c r="D81" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4">
+      <c r="B82" t="s">
+        <v>33</v>
+      </c>
+      <c r="C82">
+        <v>339.57142857142856</v>
+      </c>
+      <c r="D82">
+        <v>1220.4285714285713</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4">
+      <c r="B83" t="s">
+        <v>34</v>
+      </c>
+      <c r="C83">
+        <v>267</v>
+      </c>
+      <c r="D83">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4">
+      <c r="B84" t="s">
+        <v>35</v>
+      </c>
+      <c r="C84">
+        <v>336.71428571428572</v>
+      </c>
+      <c r="D84">
+        <v>77.428571428571431</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4">
+      <c r="B85" t="s">
+        <v>36</v>
+      </c>
+      <c r="C85">
+        <v>372.14285714285717</v>
+      </c>
+      <c r="D85">
+        <v>18.714285714285715</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4">
+      <c r="B86" t="s">
+        <v>37</v>
+      </c>
+      <c r="C86">
+        <v>205.57142857142858</v>
+      </c>
+      <c r="D86">
+        <v>3.4285714285714284</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" s="2" customFormat="1"/>
+    <row r="118" spans="1:11">
+      <c r="B118" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121" t="s">
+        <v>15</v>
+      </c>
+      <c r="B121" t="s">
+        <v>30</v>
+      </c>
+      <c r="C121" t="s">
+        <v>38</v>
+      </c>
+      <c r="D121" t="s">
+        <v>30</v>
+      </c>
+      <c r="E121">
+        <v>1</v>
+      </c>
+      <c r="F121">
+        <v>2</v>
+      </c>
+      <c r="G121">
+        <v>3</v>
+      </c>
+      <c r="H121">
+        <v>4</v>
+      </c>
+      <c r="I121">
+        <v>5</v>
+      </c>
+      <c r="J121">
+        <v>6</v>
+      </c>
+      <c r="K121">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="B122" t="s">
+        <v>33</v>
+      </c>
+      <c r="C122">
+        <f>AVERAGE(E122:AG122)</f>
+        <v>100.57142857142857</v>
+      </c>
+      <c r="D122" t="s">
+        <v>33</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>5</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>425</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>19</v>
+      </c>
+      <c r="K122">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="B123" t="s">
+        <v>34</v>
+      </c>
+      <c r="C123">
+        <f t="shared" ref="C123:C126" si="3">AVERAGE(E123:AG123)</f>
+        <v>481.85714285714283</v>
+      </c>
+      <c r="D123" t="s">
+        <v>34</v>
+      </c>
+      <c r="E123">
+        <v>22</v>
+      </c>
+      <c r="F123">
+        <v>235</v>
+      </c>
+      <c r="G123">
+        <v>307</v>
+      </c>
+      <c r="H123">
+        <v>584</v>
+      </c>
+      <c r="I123">
+        <v>262</v>
+      </c>
+      <c r="J123">
+        <v>958</v>
+      </c>
+      <c r="K123">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="B124" t="s">
+        <v>35</v>
+      </c>
+      <c r="C124">
+        <f t="shared" si="3"/>
+        <v>585.85714285714289</v>
+      </c>
+      <c r="D124" t="s">
+        <v>35</v>
+      </c>
+      <c r="E124">
+        <v>580</v>
+      </c>
+      <c r="F124">
+        <v>631</v>
+      </c>
+      <c r="G124">
+        <v>889</v>
+      </c>
+      <c r="H124">
+        <v>232</v>
+      </c>
+      <c r="I124">
+        <v>997</v>
+      </c>
+      <c r="J124">
+        <v>526</v>
+      </c>
+      <c r="K124">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="B125" t="s">
+        <v>36</v>
+      </c>
+      <c r="C125">
+        <f t="shared" si="3"/>
+        <v>297</v>
+      </c>
+      <c r="D125" t="s">
+        <v>36</v>
+      </c>
+      <c r="E125">
+        <v>839</v>
+      </c>
+      <c r="F125">
+        <v>531</v>
+      </c>
+      <c r="G125">
+        <v>318</v>
+      </c>
+      <c r="H125">
+        <v>102</v>
+      </c>
+      <c r="I125">
+        <v>256</v>
+      </c>
+      <c r="J125">
+        <v>18</v>
+      </c>
+      <c r="K125">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="B126" t="s">
+        <v>37</v>
+      </c>
+      <c r="C126">
+        <f t="shared" si="3"/>
+        <v>55.714285714285715</v>
+      </c>
+      <c r="D126" t="s">
+        <v>37</v>
+      </c>
+      <c r="E126">
+        <v>80</v>
+      </c>
+      <c r="F126">
+        <v>119</v>
+      </c>
+      <c r="G126">
+        <v>7</v>
+      </c>
+      <c r="H126">
+        <v>178</v>
+      </c>
+      <c r="I126">
+        <v>6</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="E127" t="s">
+        <v>31</v>
+      </c>
+      <c r="I127" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131" s="5"/>
+      <c r="B131" s="5"/>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5"/>
+      <c r="G131" s="5"/>
+      <c r="H131" s="5"/>
+      <c r="I131" s="5"/>
+      <c r="J131" s="5"/>
+      <c r="K131" s="5"/>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133" t="s">
+        <v>16</v>
+      </c>
+      <c r="B133" t="s">
+        <v>30</v>
+      </c>
+      <c r="C133" t="s">
+        <v>38</v>
+      </c>
+      <c r="D133" t="s">
+        <v>30</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
+      <c r="F133">
+        <v>2</v>
+      </c>
+      <c r="G133">
+        <v>3</v>
+      </c>
+      <c r="H133">
+        <v>4</v>
+      </c>
+      <c r="I133">
+        <v>5</v>
+      </c>
+      <c r="J133">
+        <v>6</v>
+      </c>
+      <c r="K133">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="B134" t="s">
+        <v>33</v>
+      </c>
+      <c r="C134">
+        <f>AVERAGE(E134:AG134)</f>
+        <v>202.28571428571428</v>
+      </c>
+      <c r="D134" t="s">
+        <v>33</v>
+      </c>
+      <c r="E134">
+        <v>123</v>
+      </c>
+      <c r="F134">
+        <v>219</v>
+      </c>
+      <c r="G134">
+        <v>52</v>
+      </c>
+      <c r="H134">
+        <v>277</v>
+      </c>
+      <c r="I134">
+        <v>151</v>
+      </c>
+      <c r="J134">
+        <v>50</v>
+      </c>
+      <c r="K134">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="B135" t="s">
+        <v>34</v>
+      </c>
+      <c r="C135">
+        <f>AVERAGE(E135:AG135)</f>
+        <v>285.14285714285717</v>
+      </c>
+      <c r="D135" t="s">
+        <v>34</v>
+      </c>
+      <c r="E135">
+        <v>529</v>
+      </c>
+      <c r="F135">
+        <v>194</v>
+      </c>
+      <c r="G135">
+        <v>151</v>
+      </c>
+      <c r="H135">
+        <v>201</v>
+      </c>
+      <c r="I135">
+        <v>372</v>
+      </c>
+      <c r="J135">
+        <v>146</v>
+      </c>
+      <c r="K135">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="B136" t="s">
+        <v>35</v>
+      </c>
+      <c r="C136">
+        <f>AVERAGE(E136:AG136)</f>
+        <v>604.71428571428567</v>
+      </c>
+      <c r="D136" t="s">
+        <v>35</v>
+      </c>
+      <c r="E136">
+        <v>651</v>
+      </c>
+      <c r="F136">
+        <v>722</v>
+      </c>
+      <c r="G136">
+        <v>596</v>
+      </c>
+      <c r="H136">
+        <v>314</v>
+      </c>
+      <c r="I136">
+        <v>757</v>
+      </c>
+      <c r="J136">
+        <v>737</v>
+      </c>
+      <c r="K136">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="B137" t="s">
+        <v>36</v>
+      </c>
+      <c r="C137">
+        <f>AVERAGE(E137:AG137)</f>
+        <v>359.28571428571428</v>
+      </c>
+      <c r="D137" t="s">
+        <v>36</v>
+      </c>
+      <c r="E137">
+        <v>192</v>
+      </c>
+      <c r="F137">
+        <v>371</v>
+      </c>
+      <c r="G137">
+        <v>655</v>
+      </c>
+      <c r="H137">
+        <v>397</v>
+      </c>
+      <c r="I137">
+        <v>220</v>
+      </c>
+      <c r="J137">
+        <v>562</v>
+      </c>
+      <c r="K137">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="B138" t="s">
+        <v>37</v>
+      </c>
+      <c r="C138">
+        <f>AVERAGE(E138:AG138)</f>
+        <v>69.571428571428569</v>
+      </c>
+      <c r="D138" t="s">
+        <v>37</v>
+      </c>
+      <c r="E138">
+        <v>26</v>
+      </c>
+      <c r="F138">
+        <v>15</v>
+      </c>
+      <c r="G138">
+        <v>67</v>
+      </c>
+      <c r="H138">
+        <v>332</v>
+      </c>
+      <c r="I138">
+        <v>21</v>
+      </c>
+      <c r="J138">
+        <v>26</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="B143" t="s">
+        <v>30</v>
+      </c>
+      <c r="C143" t="s">
+        <v>15</v>
+      </c>
+      <c r="D143" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="B144" t="s">
+        <v>33</v>
+      </c>
+      <c r="C144">
+        <v>100.57142857142857</v>
+      </c>
+      <c r="D144">
+        <v>202.28571428571428</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4">
+      <c r="B145" t="s">
+        <v>34</v>
+      </c>
+      <c r="C145">
+        <v>481.85714285714283</v>
+      </c>
+      <c r="D145">
+        <v>285.14285714285717</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4">
+      <c r="B146" t="s">
+        <v>35</v>
+      </c>
+      <c r="C146">
+        <v>585.85714285714289</v>
+      </c>
+      <c r="D146">
+        <v>604.71428571428567</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4">
+      <c r="B147" t="s">
+        <v>36</v>
+      </c>
+      <c r="C147">
+        <v>297</v>
+      </c>
+      <c r="D147">
+        <v>359.28571428571428</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4">
+      <c r="B148" t="s">
+        <v>37</v>
+      </c>
+      <c r="C148">
+        <v>55.714285714285715</v>
+      </c>
+      <c r="D148">
+        <v>69.571428571428569</v>
+      </c>
+    </row>
+    <row r="175" s="2" customFormat="1"/>
+    <row r="179" spans="1:11">
+      <c r="B179" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11">
+      <c r="A182" t="s">
+        <v>15</v>
+      </c>
+      <c r="B182" t="s">
+        <v>30</v>
+      </c>
+      <c r="C182" t="s">
+        <v>38</v>
+      </c>
+      <c r="D182" t="s">
+        <v>30</v>
+      </c>
+      <c r="E182">
+        <v>1</v>
+      </c>
+      <c r="F182">
+        <v>2</v>
+      </c>
+      <c r="G182">
+        <v>3</v>
+      </c>
+      <c r="H182">
+        <v>4</v>
+      </c>
+      <c r="I182">
+        <v>5</v>
+      </c>
+      <c r="J182">
+        <v>6</v>
+      </c>
+      <c r="K182">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11">
+      <c r="B183" t="s">
+        <v>33</v>
+      </c>
+      <c r="C183">
+        <f>AVERAGE(E183:AG183)</f>
+        <v>0</v>
+      </c>
+      <c r="D183" t="s">
+        <v>33</v>
+      </c>
+      <c r="E183">
+        <v>0</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+      <c r="G183">
+        <v>0</v>
+      </c>
+      <c r="H183">
+        <v>0</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11">
+      <c r="B184" t="s">
+        <v>34</v>
+      </c>
+      <c r="C184">
+        <f t="shared" ref="C184:C187" si="4">AVERAGE(E184:AG184)</f>
+        <v>0</v>
+      </c>
+      <c r="D184" t="s">
+        <v>34</v>
+      </c>
+      <c r="E184">
+        <v>0</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+      <c r="G184">
+        <v>0</v>
+      </c>
+      <c r="H184">
+        <v>0</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="K184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11">
+      <c r="B185" t="s">
+        <v>35</v>
+      </c>
+      <c r="C185">
+        <f t="shared" si="4"/>
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="D185" t="s">
+        <v>35</v>
+      </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+      <c r="F185">
+        <v>8</v>
+      </c>
+      <c r="G185">
+        <v>1</v>
+      </c>
+      <c r="H185">
+        <v>0</v>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+      <c r="K185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11">
+      <c r="B186" t="s">
+        <v>36</v>
+      </c>
+      <c r="C186">
+        <f t="shared" si="4"/>
+        <v>238.71428571428572</v>
+      </c>
+      <c r="D186" t="s">
+        <v>36</v>
+      </c>
+      <c r="E186">
+        <v>124</v>
+      </c>
+      <c r="F186">
+        <v>376</v>
+      </c>
+      <c r="G186">
+        <v>425</v>
+      </c>
+      <c r="H186">
+        <v>113</v>
+      </c>
+      <c r="I186">
+        <v>266</v>
+      </c>
+      <c r="J186">
+        <v>2</v>
+      </c>
+      <c r="K186">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11">
+      <c r="B187" t="s">
+        <v>37</v>
+      </c>
+      <c r="C187">
+        <f t="shared" si="4"/>
+        <v>1280.8571428571429</v>
+      </c>
+      <c r="D187" t="s">
+        <v>37</v>
+      </c>
+      <c r="E187">
+        <v>1397</v>
+      </c>
+      <c r="F187">
+        <v>1137</v>
+      </c>
+      <c r="G187">
+        <v>1095</v>
+      </c>
+      <c r="H187">
+        <v>1408</v>
+      </c>
+      <c r="I187">
+        <v>1255</v>
+      </c>
+      <c r="J187">
+        <v>1519</v>
+      </c>
+      <c r="K187">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11">
+      <c r="E188" t="s">
+        <v>31</v>
+      </c>
+      <c r="F188" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11">
+      <c r="A192" s="5"/>
+      <c r="B192" s="5"/>
+      <c r="C192" s="5"/>
+      <c r="D192" s="5"/>
+      <c r="E192" s="5"/>
+      <c r="F192" s="5"/>
+      <c r="G192" s="5"/>
+      <c r="H192" s="5"/>
+      <c r="I192" s="5"/>
+      <c r="J192" s="5"/>
+      <c r="K192" s="5"/>
+    </row>
+    <row r="194" spans="1:11">
+      <c r="A194" t="s">
+        <v>16</v>
+      </c>
+      <c r="B194" t="s">
+        <v>30</v>
+      </c>
+      <c r="C194" t="s">
+        <v>38</v>
+      </c>
+      <c r="D194" t="s">
+        <v>30</v>
+      </c>
+      <c r="E194">
+        <v>1</v>
+      </c>
+      <c r="F194">
+        <v>2</v>
+      </c>
+      <c r="G194">
+        <v>3</v>
+      </c>
+      <c r="H194">
+        <v>4</v>
+      </c>
+      <c r="I194">
+        <v>5</v>
+      </c>
+      <c r="J194">
+        <v>6</v>
+      </c>
+      <c r="K194">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11">
+      <c r="B195" t="s">
+        <v>33</v>
+      </c>
+      <c r="C195">
+        <f>AVERAGE(E195:AG195)</f>
+        <v>129.28571428571428</v>
+      </c>
+      <c r="D195" t="s">
+        <v>33</v>
+      </c>
+      <c r="E195">
+        <v>275</v>
+      </c>
+      <c r="F195">
+        <v>148</v>
+      </c>
+      <c r="G195">
+        <v>118</v>
+      </c>
+      <c r="H195">
+        <v>82</v>
+      </c>
+      <c r="I195">
+        <v>120</v>
+      </c>
+      <c r="J195">
+        <v>67</v>
+      </c>
+      <c r="K195">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11">
+      <c r="B196" t="s">
+        <v>34</v>
+      </c>
+      <c r="C196">
+        <f>AVERAGE(E196:AG196)</f>
+        <v>42.857142857142854</v>
+      </c>
+      <c r="D196" t="s">
+        <v>34</v>
+      </c>
+      <c r="E196">
+        <v>16</v>
+      </c>
+      <c r="F196">
+        <v>1</v>
+      </c>
+      <c r="G196">
+        <v>5</v>
+      </c>
+      <c r="H196">
+        <v>223</v>
+      </c>
+      <c r="I196">
+        <v>16</v>
+      </c>
+      <c r="J196">
+        <v>33</v>
+      </c>
+      <c r="K196">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11">
+      <c r="B197" t="s">
+        <v>35</v>
+      </c>
+      <c r="C197">
+        <f>AVERAGE(E197:AG197)</f>
+        <v>206.71428571428572</v>
+      </c>
+      <c r="D197" t="s">
+        <v>35</v>
+      </c>
+      <c r="E197">
+        <v>143</v>
+      </c>
+      <c r="F197">
+        <v>2</v>
+      </c>
+      <c r="G197">
+        <v>2</v>
+      </c>
+      <c r="H197">
+        <v>252</v>
+      </c>
+      <c r="I197">
+        <v>110</v>
+      </c>
+      <c r="J197">
+        <v>931</v>
+      </c>
+      <c r="K197">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11">
+      <c r="B198" t="s">
+        <v>36</v>
+      </c>
+      <c r="C198">
+        <f>AVERAGE(E198:AG198)</f>
+        <v>473.85714285714283</v>
+      </c>
+      <c r="D198" t="s">
+        <v>36</v>
+      </c>
+      <c r="E198">
+        <v>921</v>
+      </c>
+      <c r="F198">
+        <v>42</v>
+      </c>
+      <c r="G198">
+        <v>26</v>
+      </c>
+      <c r="H198">
+        <v>891</v>
+      </c>
+      <c r="I198">
+        <v>924</v>
+      </c>
+      <c r="J198">
+        <v>484</v>
+      </c>
+      <c r="K198">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11">
+      <c r="B199" t="s">
+        <v>37</v>
+      </c>
+      <c r="C199">
+        <f>AVERAGE(E199:AG199)</f>
+        <v>668.28571428571433</v>
+      </c>
+      <c r="D199" t="s">
+        <v>37</v>
+      </c>
+      <c r="E199">
+        <v>166</v>
+      </c>
+      <c r="F199">
+        <v>1328</v>
+      </c>
+      <c r="G199">
+        <v>1370</v>
+      </c>
+      <c r="H199">
+        <v>73</v>
+      </c>
+      <c r="I199">
+        <v>351</v>
+      </c>
+      <c r="J199">
+        <v>6</v>
+      </c>
+      <c r="K199">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11">
+      <c r="K200" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -36173,16 +42250,16 @@
       <c r="E4" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="13"/>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" spans="3:10" ht="48" thickBot="1">
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="12" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="10" t="s">
         <v>26</v>
       </c>
       <c r="I5" t="s">
@@ -36193,7 +42270,7 @@
       </c>
     </row>
     <row r="6" spans="3:10" ht="32.25" thickBot="1">
-      <c r="C6" s="10"/>
+      <c r="C6" s="13"/>
       <c r="D6" s="8" t="s">
         <v>27</v>
       </c>
@@ -36211,7 +42288,7 @@
       </c>
     </row>
     <row r="7" spans="3:10" ht="32.25" customHeight="1" thickBot="1">
-      <c r="C7" s="12"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="8" t="s">
         <v>28</v>
       </c>
@@ -36229,7 +42306,7 @@
       </c>
     </row>
     <row r="8" spans="3:10" ht="16.5" thickBot="1">
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="12" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -36249,19 +42326,19 @@
       </c>
     </row>
     <row r="9" spans="3:10" ht="32.25" thickBot="1">
-      <c r="C9" s="10"/>
+      <c r="C9" s="13"/>
       <c r="D9" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="3:10" ht="95.25" thickBot="1">
-      <c r="C10" s="12"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="11" spans="3:10" ht="16.5" thickBot="1">
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="12" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="8" t="s">
@@ -36269,13 +42346,13 @@
       </c>
     </row>
     <row r="12" spans="3:10" ht="32.25" thickBot="1">
-      <c r="C12" s="10"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="3:10" ht="95.25" thickBot="1">
-      <c r="C13" s="12"/>
+      <c r="C13" s="14"/>
       <c r="D13" s="8" t="s">
         <v>28</v>
       </c>

--- a/documents/исследования.xlsx
+++ b/documents/исследования.xlsx
@@ -4,26 +4,28 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="портрет" sheetId="1" r:id="rId1"/>
-    <sheet name="мало деталей" sheetId="2" r:id="rId2"/>
-    <sheet name="много деталей" sheetId="3" r:id="rId3"/>
-    <sheet name="текст" sheetId="4" r:id="rId4"/>
-    <sheet name="Лист1" sheetId="5" r:id="rId5"/>
-    <sheet name="распределение классов" sheetId="6" r:id="rId6"/>
-    <sheet name="Лист3" sheetId="7" r:id="rId7"/>
+    <sheet name="разные размеры" sheetId="8" r:id="rId2"/>
+    <sheet name="мало деталей" sheetId="2" r:id="rId3"/>
+    <sheet name="много деталей" sheetId="3" r:id="rId4"/>
+    <sheet name="текст" sheetId="4" r:id="rId5"/>
+    <sheet name="цвет" sheetId="9" r:id="rId6"/>
+    <sheet name="Лист1" sheetId="5" r:id="rId7"/>
+    <sheet name="распределение классов" sheetId="6" r:id="rId8"/>
+    <sheet name="Лист3" sheetId="7" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Лист1!$E$5:$H$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Лист1!$E$5:$H$29</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2064" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2266" uniqueCount="61">
   <si>
     <t>первый (без разбиения)</t>
   </si>
@@ -188,6 +190,24 @@
   </si>
   <si>
     <t>Б+ЦМ</t>
+  </si>
+  <si>
+    <t>Эталон</t>
+  </si>
+  <si>
+    <t>304 на 304</t>
+  </si>
+  <si>
+    <t>160 на 160</t>
+  </si>
+  <si>
+    <t>120 на 200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">размер исходного файла </t>
+  </si>
+  <si>
+    <t>портрет 2</t>
   </si>
 </sst>
 </file>
@@ -360,6 +380,10 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -369,10 +393,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -541,24 +561,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="90905216"/>
-        <c:axId val="90919296"/>
+        <c:axId val="88296064"/>
+        <c:axId val="88314240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="90905216"/>
+        <c:axId val="88296064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90919296"/>
+        <c:crossAx val="88314240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90919296"/>
+        <c:axId val="88314240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -566,7 +586,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90905216"/>
+        <c:crossAx val="88296064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -579,13 +599,612 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'много деталей'!$C$496</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Время сжатия</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'много деталей'!$D$495:$G$495</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>А2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>А2 + РГЗ</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Метод эталонного блока</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>А1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'много деталей'!$D$496:$G$496</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>224.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82.51</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>140.87</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63.47</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="92697728"/>
+        <c:axId val="92699264"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'много деталей'!$C$497</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>СКО</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'много деталей'!$D$495:$G$495</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>А2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>А2 + РГЗ</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Метод эталонного блока</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>А1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'много деталей'!$D$497:$G$497</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>136.16999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>138.36000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>109.36</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>136.41999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="92706688"/>
+        <c:axId val="92705152"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="92697728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="92699264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="92699264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="92697728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="92705152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="92706688"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="92706688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="92705152"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>текст!$D$451</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>А1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>текст!$E$450:$G$450</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Без классификации</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Центром масс</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Разницей граничных значений</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>текст!$E$451:$G$451</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>176.85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51.36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>151.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>текст!$D$452</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>А2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>текст!$E$450:$G$450</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Без классификации</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Центром масс</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Разницей граничных значений</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>текст!$E$452:$G$452</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>239.78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>167.19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>126.72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>текст!$D$453</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Б</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>текст!$E$450:$G$450</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Без классификации</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Центром масс</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Разницей граничных значений</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>текст!$E$453:$G$453</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>101.12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>154.02000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59.64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="94534656"/>
+        <c:axId val="94544640"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="94534656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="94544640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="94544640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="94534656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>текст!$C$502</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Время сжатия</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>текст!$D$501:$G$501</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>А2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>А2 + ЦМ</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Метод эталонного блока</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Б+ЦМ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>текст!$D$502:$G$502</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>239.78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>167.19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>174.35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>154.02000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="94562176"/>
+        <c:axId val="94563712"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>текст!$C$503</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>СКО</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>текст!$D$501:$G$501</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>А2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>А2 + ЦМ</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Метод эталонного блока</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Б+ЦМ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>текст!$D$503:$G$503</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>899.91</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>998.96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>364.76</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>737.26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="94575232"/>
+        <c:axId val="94573696"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="94562176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="94563712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="94563712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="94562176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="94573696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="94575232"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="94575232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="94573696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
   <c:chart>
@@ -774,8 +1393,8 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="92932736"/>
-        <c:axId val="92938624"/>
+        <c:axId val="94925568"/>
+        <c:axId val="94927104"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -852,25 +1471,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="92941696"/>
-        <c:axId val="92940160"/>
+        <c:axId val="94934528"/>
+        <c:axId val="94932992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="92932736"/>
+        <c:axId val="94925568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92938624"/>
+        <c:crossAx val="94927104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92938624"/>
+        <c:axId val="94927104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -878,32 +1497,32 @@
         <c:minorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92932736"/>
+        <c:crossAx val="94925568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="92940160"/>
+        <c:axId val="94932992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92941696"/>
+        <c:crossAx val="94934528"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="92941696"/>
+        <c:axId val="94934528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="t"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="92940160"/>
+        <c:crossAx val="94932992"/>
         <c:crosses val="max"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -912,20 +1531,19 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
   <c:chart>
@@ -1058,11 +1676,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="97459584"/>
-        <c:axId val="97465856"/>
+        <c:axId val="94979584"/>
+        <c:axId val="94981504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97459584"/>
+        <c:axId val="94979584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1083,17 +1701,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97465856"/>
+        <c:crossAx val="94981504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97465856"/>
+        <c:axId val="94981504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1115,30 +1732,28 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97459584"/>
+        <c:crossAx val="94979584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
   <c:chart>
@@ -1271,24 +1886,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="83479552"/>
-        <c:axId val="83528704"/>
+        <c:axId val="95092736"/>
+        <c:axId val="95094272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="83479552"/>
+        <c:axId val="95092736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83528704"/>
+        <c:crossAx val="95094272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83528704"/>
+        <c:axId val="95094272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1296,26 +1911,25 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83479552"/>
+        <c:crossAx val="95092736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
   <c:chart>
@@ -1448,24 +2062,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="110241280"/>
-        <c:axId val="110242816"/>
+        <c:axId val="95118848"/>
+        <c:axId val="95120384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="110241280"/>
+        <c:axId val="95118848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110242816"/>
+        <c:crossAx val="95120384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110242816"/>
+        <c:axId val="95120384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1473,7 +2087,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110241280"/>
+        <c:crossAx val="95118848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1486,13 +2100,13 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
   <c:chart>
@@ -1651,24 +2265,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="97507968"/>
-        <c:axId val="97751424"/>
+        <c:axId val="95199616"/>
+        <c:axId val="95201152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97507968"/>
+        <c:axId val="95199616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97751424"/>
+        <c:crossAx val="95201152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97751424"/>
+        <c:axId val="95201152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1676,19 +2290,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97507968"/>
+        <c:crossAx val="95199616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1837,56 +2452,28 @@
           <c:val>
             <c:numRef>
               <c:f>портрет!$AG$5:$AN$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>30.03</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>40.67</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>33.06</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>21.29</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20.48</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>19.79</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18.75</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>26.01</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="90948736"/>
-        <c:axId val="90950272"/>
+        <c:axId val="88331392"/>
+        <c:axId val="88332928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="90948736"/>
+        <c:axId val="88331392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90950272"/>
+        <c:crossAx val="88332928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90950272"/>
+        <c:axId val="88332928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1894,7 +2481,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90948736"/>
+        <c:crossAx val="88331392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1906,7 +2493,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1977,8 +2564,8 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="91000832"/>
-        <c:axId val="91002368"/>
+        <c:axId val="92508160"/>
+        <c:axId val="92509696"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2039,24 +2626,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="91009792"/>
-        <c:axId val="91003904"/>
+        <c:axId val="92517120"/>
+        <c:axId val="92511232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="91000832"/>
+        <c:axId val="92508160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91002368"/>
+        <c:crossAx val="92509696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91002368"/>
+        <c:axId val="92509696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2064,31 +2651,31 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91000832"/>
+        <c:crossAx val="92508160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="91003904"/>
+        <c:axId val="92511232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91009792"/>
+        <c:crossAx val="92517120"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="91009792"/>
+        <c:axId val="92517120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="91003904"/>
+        <c:crossAx val="92511232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2104,13 +2691,808 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'разные размеры'!$Q$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>время сжатия</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'разные размеры'!$O$20:$P$29</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="10"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>-</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>ЦМ</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>РГЗ</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>-</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>ЦМ</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>РГЗ</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>-</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>ЦМ</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>РГЗ</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>-</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>А1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>А1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>А1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>А2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>А2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>А2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Б</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Б</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Б</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Эталон</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'разные размеры'!$Q$20:$Q$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>22.11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>190.46</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72.959999999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>74.430000000000007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.68</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.66</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>83.26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="86618112"/>
+        <c:axId val="86619648"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'разные размеры'!$R$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>СКО</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'разные размеры'!$R$20:$R$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>81.81</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>91.29</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>72.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>96.63</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52.24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37.590000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>97.61</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46.59</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>56.59</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="107063552"/>
+        <c:axId val="89136128"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="86618112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="86619648"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="86619648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="86618112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="89136128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="107063552"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="107063552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="89136128"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'разные размеры'!$Q$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>время сжатия</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'разные размеры'!$O$36:$P$45</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="10"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>-</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>ЦМ</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>РГЗ</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>-</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>ЦМ</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>РГЗ</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>-</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>ЦМ</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>РГЗ</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>-</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>А1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>А1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>А1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>А2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>А2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>А2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Б</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Б</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Б</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Эталон</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'разные размеры'!$Q$36:$Q$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7.38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.58</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>153.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>110.45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>61.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>77.56</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64.040000000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="108210816"/>
+        <c:axId val="86622976"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'разные размеры'!$R$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>СКО</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'разные размеры'!$R$36:$R$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>43.55</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43.24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71.67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>83.02</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.39</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.93</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56.47</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.41</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="115588096"/>
+        <c:axId val="112902144"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="108210816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="86622976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="86622976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="108210816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="112902144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="115588096"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="115588096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="112902144"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'разные размеры'!$Q$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>время сжатия</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'разные размеры'!$O$5:$P$14</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="10"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>-</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>ЦМ</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>РГЗ</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>-</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>ЦМ</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>РГЗ</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>-</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>ЦМ</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>РГЗ</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>-</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>А1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>А1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>А1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>А2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>А2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>А2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Б</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Б</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Б</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Эталон</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'разные размеры'!$Q$5:$Q$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>58.08</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46.41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1225.97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>652.19000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>763.43</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1758.11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>911.24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1424.73</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>765.78</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="107030400"/>
+        <c:axId val="107031936"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'разные размеры'!$R$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>СКО</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'разные размеры'!$R$5:$R$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>52.73</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44.67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.06</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26.69</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.739999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.94</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21.86</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38.51</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="112903680"/>
+        <c:axId val="112883584"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="107030400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="107031936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="107031936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="107030400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="112883584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="112903680"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="112903680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="112883584"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
   <c:chart>
@@ -2269,24 +3651,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="77860864"/>
-        <c:axId val="77862400"/>
+        <c:axId val="92637056"/>
+        <c:axId val="92638592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="77860864"/>
+        <c:axId val="92637056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77862400"/>
+        <c:crossAx val="92638592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77862400"/>
+        <c:axId val="92638592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2294,26 +3676,25 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77860864"/>
+        <c:crossAx val="92637056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
   <c:chart>
@@ -2378,8 +3759,8 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="78401536"/>
-        <c:axId val="78403072"/>
+        <c:axId val="92549888"/>
+        <c:axId val="92551424"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2440,24 +3821,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="83599360"/>
-        <c:axId val="83465728"/>
+        <c:axId val="92562944"/>
+        <c:axId val="92561408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78401536"/>
+        <c:axId val="92549888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78403072"/>
+        <c:crossAx val="92551424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78403072"/>
+        <c:axId val="92551424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2465,31 +3846,32 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78401536"/>
+        <c:crossAx val="92549888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="83465728"/>
+        <c:axId val="92561408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83599360"/>
+        <c:crossAx val="92562944"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="83599360"/>
+        <c:axId val="92562944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="83465728"/>
+        <c:crossAx val="92561408"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2497,20 +3879,19 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
   <c:chart>
@@ -2669,24 +4050,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="97987584"/>
-        <c:axId val="107705088"/>
+        <c:axId val="92760704"/>
+        <c:axId val="92795264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97987584"/>
+        <c:axId val="92760704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107705088"/>
+        <c:crossAx val="92795264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="107705088"/>
+        <c:axId val="92795264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2694,7 +4075,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97987584"/>
+        <c:crossAx val="92760704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2707,604 +4088,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="ru-RU"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'много деталей'!$C$496</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Время сжатия</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'много деталей'!$D$495:$G$495</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>А2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>А2 + РГЗ</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Метод эталонного блока</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>А1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'много деталей'!$D$496:$G$496</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>224.04</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>82.51</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>140.87</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>63.47</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="83602816"/>
-        <c:axId val="83613184"/>
-      </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'много деталей'!$C$497</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>СКО</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'много деталей'!$D$495:$G$495</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>А2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>А2 + РГЗ</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Метод эталонного блока</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>А1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'много деталей'!$D$497:$G$497</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>136.16999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>138.36000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>109.36</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>136.41999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="120517376"/>
-        <c:axId val="115922432"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="83602816"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83613184"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="83613184"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83602816"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="115922432"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120517376"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="120517376"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="none"/>
-        <c:crossAx val="115922432"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="ru-RU"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>текст!$D$451</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>А1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>текст!$E$450:$G$450</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Без классификации</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Центром масс</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Разницей граничных значений</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>текст!$E$451:$G$451</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>176.85</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>51.36</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>151.01</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>текст!$D$452</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>А2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>текст!$E$450:$G$450</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Без классификации</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Центром масс</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Разницей граничных значений</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>текст!$E$452:$G$452</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>239.78</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>167.19</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>126.72</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>текст!$D$453</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Б</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>текст!$E$450:$G$450</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Без классификации</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Центром масс</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Разницей граничных значений</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>текст!$E$453:$G$453</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>101.12</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>154.02000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>59.64</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="115294592"/>
-        <c:axId val="115296128"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="115294592"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115296128"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="115296128"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115294592"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="ru-RU"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>текст!$C$502</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Время сжатия</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>текст!$D$501:$G$501</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>А2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>А2 + ЦМ</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Метод эталонного блока</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Б+ЦМ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>текст!$D$502:$G$502</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>239.78</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>167.19</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>174.35</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>154.02000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="115451776"/>
-        <c:axId val="115885568"/>
-      </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>текст!$C$503</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>СКО</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>текст!$D$501:$G$501</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>А2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>А2 + ЦМ</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Метод эталонного блока</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Б+ЦМ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>текст!$D$503:$G$503</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>899.91</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>998.96</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>364.76</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>737.26</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="123101568"/>
-        <c:axId val="116868224"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="115451776"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115885568"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="115885568"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115451776"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="116868224"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123101568"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="123101568"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="none"/>
-        <c:crossAx val="116868224"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3409,6 +4193,101 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>533400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>495300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
       <xdr:row>414</xdr:row>
@@ -3470,7 +4349,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3535,7 +4414,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3600,7 +4479,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3635,7 +4514,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3730,7 +4609,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4052,8 +4931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:AN431"/>
   <sheetViews>
-    <sheetView topLeftCell="A426" workbookViewId="0">
-      <selection activeCell="C429" sqref="C429:G431"/>
+    <sheetView topLeftCell="C36" workbookViewId="0">
+      <selection activeCell="C32" sqref="A5:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4274,7 +5153,7 @@
         <v>5.58</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:40" hidden="1">
       <c r="C5">
         <v>2</v>
       </c>
@@ -4370,7 +5249,7 @@
         <v>26.01</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:40" hidden="1">
       <c r="C6">
         <v>3</v>
       </c>
@@ -4439,7 +5318,7 @@
         <v>396.69</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:40" hidden="1">
       <c r="C7">
         <v>4</v>
       </c>
@@ -4508,7 +5387,7 @@
         <v>56.44</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:40" hidden="1">
       <c r="C8">
         <v>5</v>
       </c>
@@ -4577,7 +5456,7 @@
         <v>172.74</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:40" hidden="1">
       <c r="C9">
         <v>6</v>
       </c>
@@ -4646,7 +5525,7 @@
         <v>396.65</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:40" hidden="1">
       <c r="C10">
         <v>7</v>
       </c>
@@ -4715,7 +5594,7 @@
         <v>65.12</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:40" hidden="1">
       <c r="C11">
         <v>8</v>
       </c>
@@ -4784,7 +5663,7 @@
         <v>175.23</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:40" hidden="1">
       <c r="C12">
         <v>9</v>
       </c>
@@ -4853,7 +5732,7 @@
         <v>396.67</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:40" hidden="1">
       <c r="C13">
         <v>10</v>
       </c>
@@ -4922,7 +5801,7 @@
         <v>83.36</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:40" hidden="1">
       <c r="C14">
         <v>11</v>
       </c>
@@ -4991,7 +5870,7 @@
         <v>176.06</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:40" hidden="1">
       <c r="C15">
         <v>12</v>
       </c>
@@ -5060,7 +5939,7 @@
         <v>396.69</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:40" hidden="1">
       <c r="C16">
         <v>13</v>
       </c>
@@ -5129,7 +6008,7 @@
         <v>81.81</v>
       </c>
     </row>
-    <row r="17" spans="3:29">
+    <row r="17" spans="3:29" hidden="1">
       <c r="C17">
         <v>14</v>
       </c>
@@ -5198,7 +6077,7 @@
         <v>176.57</v>
       </c>
     </row>
-    <row r="18" spans="3:29">
+    <row r="18" spans="3:29" hidden="1">
       <c r="C18">
         <v>15</v>
       </c>
@@ -5267,7 +6146,7 @@
         <v>396.69</v>
       </c>
     </row>
-    <row r="19" spans="3:29">
+    <row r="19" spans="3:29" hidden="1">
       <c r="C19">
         <v>16</v>
       </c>
@@ -5336,7 +6215,7 @@
         <v>87.01</v>
       </c>
     </row>
-    <row r="20" spans="3:29">
+    <row r="20" spans="3:29" hidden="1">
       <c r="C20">
         <v>17</v>
       </c>
@@ -5405,7 +6284,7 @@
         <v>176.64</v>
       </c>
     </row>
-    <row r="21" spans="3:29">
+    <row r="21" spans="3:29" hidden="1">
       <c r="C21">
         <v>18</v>
       </c>
@@ -5474,7 +6353,7 @@
         <v>396.69</v>
       </c>
     </row>
-    <row r="22" spans="3:29">
+    <row r="22" spans="3:29" hidden="1">
       <c r="C22">
         <v>19</v>
       </c>
@@ -5543,7 +6422,7 @@
         <v>92.98</v>
       </c>
     </row>
-    <row r="23" spans="3:29">
+    <row r="23" spans="3:29" hidden="1">
       <c r="C23">
         <v>20</v>
       </c>
@@ -5612,7 +6491,7 @@
         <v>178.87</v>
       </c>
     </row>
-    <row r="24" spans="3:29">
+    <row r="24" spans="3:29" hidden="1">
       <c r="C24">
         <v>21</v>
       </c>
@@ -5681,7 +6560,7 @@
         <v>396.7</v>
       </c>
     </row>
-    <row r="25" spans="3:29">
+    <row r="25" spans="3:29" hidden="1">
       <c r="C25">
         <v>22</v>
       </c>
@@ -5750,7 +6629,7 @@
         <v>99.5</v>
       </c>
     </row>
-    <row r="26" spans="3:29">
+    <row r="26" spans="3:29" hidden="1">
       <c r="C26">
         <v>23</v>
       </c>
@@ -5819,7 +6698,7 @@
         <v>179.21</v>
       </c>
     </row>
-    <row r="27" spans="3:29">
+    <row r="27" spans="3:29" hidden="1">
       <c r="C27">
         <v>24</v>
       </c>
@@ -5888,7 +6767,7 @@
         <v>396.77</v>
       </c>
     </row>
-    <row r="28" spans="3:29">
+    <row r="28" spans="3:29" hidden="1">
       <c r="C28">
         <v>25</v>
       </c>
@@ -5922,7 +6801,7 @@
         <v>17.384259259259256</v>
       </c>
     </row>
-    <row r="29" spans="3:29">
+    <row r="29" spans="3:29" hidden="1">
       <c r="C29">
         <v>26</v>
       </c>
@@ -5956,7 +6835,7 @@
         <v>17.505827505827504</v>
       </c>
     </row>
-    <row r="30" spans="3:29">
+    <row r="30" spans="3:29" hidden="1">
       <c r="C30">
         <v>27</v>
       </c>
@@ -5990,7 +6869,7 @@
         <v>17.505827505827504</v>
       </c>
     </row>
-    <row r="31" spans="3:29">
+    <row r="31" spans="3:29" hidden="1">
       <c r="C31">
         <v>28</v>
       </c>
@@ -6024,7 +6903,7 @@
         <v>17.465116279069768</v>
       </c>
     </row>
-    <row r="32" spans="3:29">
+    <row r="32" spans="3:29" hidden="1">
       <c r="C32">
         <v>29</v>
       </c>
@@ -13549,7 +14428,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="291" spans="3:13" hidden="1">
+    <row r="291" spans="3:13">
       <c r="C291">
         <v>1</v>
       </c>
@@ -17678,6 +18557,1520 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B3:R45"/>
+  <sheetViews>
+    <sheetView topLeftCell="P16" workbookViewId="0">
+      <selection activeCell="Z19" sqref="Z19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3" spans="2:18">
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" ht="60">
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18">
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>2500</v>
+      </c>
+      <c r="G5">
+        <v>58.08</v>
+      </c>
+      <c r="H5">
+        <v>7.01</v>
+      </c>
+      <c r="I5">
+        <v>270</v>
+      </c>
+      <c r="J5">
+        <v>61.6</v>
+      </c>
+      <c r="K5">
+        <f>I5/J5</f>
+        <v>4.383116883116883</v>
+      </c>
+      <c r="L5">
+        <v>52.73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q5">
+        <v>58.08</v>
+      </c>
+      <c r="R5">
+        <v>52.73</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18">
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>2500</v>
+      </c>
+      <c r="G6">
+        <v>46.41</v>
+      </c>
+      <c r="H6">
+        <v>8.56</v>
+      </c>
+      <c r="I6">
+        <v>270</v>
+      </c>
+      <c r="J6">
+        <v>62.1</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ref="K6:K14" si="0">I6/J6</f>
+        <v>4.3478260869565215</v>
+      </c>
+      <c r="L6">
+        <v>44.11</v>
+      </c>
+      <c r="O6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q6">
+        <v>46.41</v>
+      </c>
+      <c r="R6">
+        <v>44.11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18">
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>2500</v>
+      </c>
+      <c r="G7">
+        <v>31.51</v>
+      </c>
+      <c r="H7">
+        <v>6.38</v>
+      </c>
+      <c r="I7">
+        <v>270</v>
+      </c>
+      <c r="J7">
+        <v>61.7</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>4.3760129659643434</v>
+      </c>
+      <c r="L7">
+        <v>44.67</v>
+      </c>
+      <c r="O7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q7">
+        <v>31.51</v>
+      </c>
+      <c r="R7">
+        <v>44.67</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>2000</v>
+      </c>
+      <c r="G8">
+        <v>1225.97</v>
+      </c>
+      <c r="H8">
+        <v>7.64</v>
+      </c>
+      <c r="I8">
+        <v>270</v>
+      </c>
+      <c r="J8">
+        <v>32.9</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>8.2066869300911858</v>
+      </c>
+      <c r="L8">
+        <v>55.06</v>
+      </c>
+      <c r="O8" t="s">
+        <v>24</v>
+      </c>
+      <c r="P8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q8">
+        <v>1225.97</v>
+      </c>
+      <c r="R8">
+        <v>55.06</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18">
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>2000</v>
+      </c>
+      <c r="G9">
+        <v>652.19000000000005</v>
+      </c>
+      <c r="H9">
+        <v>6.26</v>
+      </c>
+      <c r="I9">
+        <v>270</v>
+      </c>
+      <c r="J9">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>7.8947368421052628</v>
+      </c>
+      <c r="L9">
+        <v>29.06</v>
+      </c>
+      <c r="O9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P9" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q9">
+        <v>652.19000000000005</v>
+      </c>
+      <c r="R9">
+        <v>29.06</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>2000</v>
+      </c>
+      <c r="G10">
+        <v>763.43</v>
+      </c>
+      <c r="H10">
+        <v>6.55</v>
+      </c>
+      <c r="I10">
+        <v>270</v>
+      </c>
+      <c r="J10">
+        <v>34.4</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>7.8488372093023262</v>
+      </c>
+      <c r="L10">
+        <v>26.69</v>
+      </c>
+      <c r="O10" t="s">
+        <v>24</v>
+      </c>
+      <c r="P10" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q10">
+        <v>763.43</v>
+      </c>
+      <c r="R10">
+        <v>26.69</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18">
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <v>1758.11</v>
+      </c>
+      <c r="H11">
+        <v>7.48</v>
+      </c>
+      <c r="I11">
+        <v>270</v>
+      </c>
+      <c r="J11">
+        <v>62</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>4.354838709677419</v>
+      </c>
+      <c r="L11">
+        <v>18.739999999999998</v>
+      </c>
+      <c r="O11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P11" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q11">
+        <v>1758.11</v>
+      </c>
+      <c r="R11">
+        <v>18.739999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18">
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <v>911.24</v>
+      </c>
+      <c r="H12">
+        <v>8.14</v>
+      </c>
+      <c r="I12">
+        <v>270</v>
+      </c>
+      <c r="J12">
+        <v>62</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>4.354838709677419</v>
+      </c>
+      <c r="L12">
+        <v>21.94</v>
+      </c>
+      <c r="O12" t="s">
+        <v>25</v>
+      </c>
+      <c r="P12" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q12">
+        <v>911.24</v>
+      </c>
+      <c r="R12">
+        <v>21.94</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18">
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13">
+        <v>1424.73</v>
+      </c>
+      <c r="H13">
+        <v>7.71</v>
+      </c>
+      <c r="I13">
+        <v>270</v>
+      </c>
+      <c r="J13">
+        <v>62</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>4.354838709677419</v>
+      </c>
+      <c r="L13">
+        <v>21.86</v>
+      </c>
+      <c r="O13" t="s">
+        <v>25</v>
+      </c>
+      <c r="P13" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q13">
+        <v>1424.73</v>
+      </c>
+      <c r="R13">
+        <v>21.86</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18">
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>2500</v>
+      </c>
+      <c r="G14">
+        <v>765.78</v>
+      </c>
+      <c r="H14">
+        <v>7.53</v>
+      </c>
+      <c r="I14">
+        <v>270</v>
+      </c>
+      <c r="J14">
+        <v>57.4</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>4.7038327526132404</v>
+      </c>
+      <c r="L14">
+        <v>38.51</v>
+      </c>
+      <c r="O14" t="s">
+        <v>55</v>
+      </c>
+      <c r="P14" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q14">
+        <v>765.78</v>
+      </c>
+      <c r="R14">
+        <v>38.51</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18">
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" ht="60">
+      <c r="C19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" ht="15.75">
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>2500</v>
+      </c>
+      <c r="G20">
+        <v>22.11</v>
+      </c>
+      <c r="H20">
+        <v>1.83</v>
+      </c>
+      <c r="I20">
+        <v>75</v>
+      </c>
+      <c r="J20">
+        <v>4.28</v>
+      </c>
+      <c r="K20">
+        <f>I20/J20</f>
+        <v>17.523364485981308</v>
+      </c>
+      <c r="L20" s="3">
+        <v>81.81</v>
+      </c>
+      <c r="O20" t="s">
+        <v>23</v>
+      </c>
+      <c r="P20" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q20">
+        <v>22.11</v>
+      </c>
+      <c r="R20" s="3">
+        <v>81.81</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" ht="15.75">
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21">
+        <v>2500</v>
+      </c>
+      <c r="G21">
+        <v>19.11</v>
+      </c>
+      <c r="H21">
+        <v>1.9</v>
+      </c>
+      <c r="I21">
+        <v>75</v>
+      </c>
+      <c r="J21">
+        <v>4.28</v>
+      </c>
+      <c r="K21">
+        <f t="shared" ref="K21:K29" si="1">I21/J21</f>
+        <v>17.523364485981308</v>
+      </c>
+      <c r="L21" s="3">
+        <v>98.71</v>
+      </c>
+      <c r="O21" t="s">
+        <v>23</v>
+      </c>
+      <c r="P21" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q21">
+        <v>19.11</v>
+      </c>
+      <c r="R21" s="3">
+        <v>98.71</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" ht="15.75">
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22">
+        <v>2500</v>
+      </c>
+      <c r="G22">
+        <v>15.23</v>
+      </c>
+      <c r="H22">
+        <v>1.89</v>
+      </c>
+      <c r="I22">
+        <v>75</v>
+      </c>
+      <c r="J22">
+        <v>4.28</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>17.523364485981308</v>
+      </c>
+      <c r="L22" s="3">
+        <v>91.29</v>
+      </c>
+      <c r="O22" t="s">
+        <v>23</v>
+      </c>
+      <c r="P22" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q22">
+        <v>15.23</v>
+      </c>
+      <c r="R22" s="3">
+        <v>91.29</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" ht="15.75">
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23">
+        <v>8</v>
+      </c>
+      <c r="F23">
+        <v>2000</v>
+      </c>
+      <c r="G23">
+        <v>190.46</v>
+      </c>
+      <c r="H23">
+        <v>1.79</v>
+      </c>
+      <c r="I23">
+        <v>75</v>
+      </c>
+      <c r="J23">
+        <v>12.8</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>5.859375</v>
+      </c>
+      <c r="L23" s="3">
+        <v>72.3</v>
+      </c>
+      <c r="O23" t="s">
+        <v>24</v>
+      </c>
+      <c r="P23" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q23">
+        <v>190.46</v>
+      </c>
+      <c r="R23" s="3">
+        <v>72.3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" ht="15.75">
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24">
+        <v>8</v>
+      </c>
+      <c r="F24">
+        <v>2000</v>
+      </c>
+      <c r="G24">
+        <v>72.959999999999994</v>
+      </c>
+      <c r="H24">
+        <v>1.78</v>
+      </c>
+      <c r="I24">
+        <v>75</v>
+      </c>
+      <c r="J24">
+        <v>12.9</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>5.8139534883720927</v>
+      </c>
+      <c r="L24" s="3">
+        <v>96.63</v>
+      </c>
+      <c r="O24" t="s">
+        <v>24</v>
+      </c>
+      <c r="P24" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q24">
+        <v>72.959999999999994</v>
+      </c>
+      <c r="R24" s="3">
+        <v>96.63</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" ht="15.75">
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25">
+        <v>8</v>
+      </c>
+      <c r="F25">
+        <v>2000</v>
+      </c>
+      <c r="G25">
+        <v>74.430000000000007</v>
+      </c>
+      <c r="H25">
+        <v>1.79</v>
+      </c>
+      <c r="I25">
+        <v>75</v>
+      </c>
+      <c r="J25">
+        <v>13.2</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="1"/>
+        <v>5.6818181818181825</v>
+      </c>
+      <c r="L25" s="3">
+        <v>52.24</v>
+      </c>
+      <c r="O25" t="s">
+        <v>24</v>
+      </c>
+      <c r="P25" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q25">
+        <v>74.430000000000007</v>
+      </c>
+      <c r="R25" s="3">
+        <v>52.24</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" ht="15.75">
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="F26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26">
+        <v>27.75</v>
+      </c>
+      <c r="H26">
+        <v>1.78</v>
+      </c>
+      <c r="I26">
+        <v>75</v>
+      </c>
+      <c r="J26">
+        <v>4.29</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="1"/>
+        <v>17.482517482517483</v>
+      </c>
+      <c r="L26" s="3">
+        <v>37.590000000000003</v>
+      </c>
+      <c r="O26" t="s">
+        <v>25</v>
+      </c>
+      <c r="P26" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q26">
+        <v>27.75</v>
+      </c>
+      <c r="R26" s="3">
+        <v>37.590000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" ht="15.75">
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="F27" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27">
+        <v>11.68</v>
+      </c>
+      <c r="H27">
+        <v>1.79</v>
+      </c>
+      <c r="I27">
+        <v>75</v>
+      </c>
+      <c r="J27">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="1"/>
+        <v>17.40139211136891</v>
+      </c>
+      <c r="L27" s="3">
+        <v>97.61</v>
+      </c>
+      <c r="O27" t="s">
+        <v>25</v>
+      </c>
+      <c r="P27" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q27">
+        <v>11.68</v>
+      </c>
+      <c r="R27" s="3">
+        <v>97.61</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" ht="15.75">
+      <c r="C28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28">
+        <v>4</v>
+      </c>
+      <c r="F28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28">
+        <v>7.66</v>
+      </c>
+      <c r="H28">
+        <v>1.68</v>
+      </c>
+      <c r="I28">
+        <v>75</v>
+      </c>
+      <c r="J28">
+        <v>4.3</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="1"/>
+        <v>17.441860465116278</v>
+      </c>
+      <c r="L28" s="3">
+        <v>46.59</v>
+      </c>
+      <c r="O28" t="s">
+        <v>25</v>
+      </c>
+      <c r="P28" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q28">
+        <v>7.66</v>
+      </c>
+      <c r="R28" s="3">
+        <v>46.59</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18">
+      <c r="C29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29">
+        <v>1500</v>
+      </c>
+      <c r="G29">
+        <v>83.26</v>
+      </c>
+      <c r="H29">
+        <v>1.72</v>
+      </c>
+      <c r="I29">
+        <v>75</v>
+      </c>
+      <c r="J29">
+        <v>16.97</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="1"/>
+        <v>4.4195639363582799</v>
+      </c>
+      <c r="L29">
+        <v>56.59</v>
+      </c>
+      <c r="O29" t="s">
+        <v>55</v>
+      </c>
+      <c r="P29" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q29">
+        <v>83.26</v>
+      </c>
+      <c r="R29">
+        <v>56.59</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18">
+      <c r="B34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" ht="60">
+      <c r="C35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="2:18">
+      <c r="C36" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36">
+        <v>4</v>
+      </c>
+      <c r="F36">
+        <v>2000</v>
+      </c>
+      <c r="G36">
+        <v>7.38</v>
+      </c>
+      <c r="H36">
+        <v>1.81</v>
+      </c>
+      <c r="I36">
+        <v>70.3</v>
+      </c>
+      <c r="J36">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="K36">
+        <f>I36/J36</f>
+        <v>4.366459627329192</v>
+      </c>
+      <c r="L36">
+        <v>43.55</v>
+      </c>
+      <c r="O36" t="s">
+        <v>23</v>
+      </c>
+      <c r="P36" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q36">
+        <v>7.38</v>
+      </c>
+      <c r="R36">
+        <v>43.55</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18">
+      <c r="C37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37">
+        <v>4</v>
+      </c>
+      <c r="F37">
+        <v>2000</v>
+      </c>
+      <c r="G37">
+        <v>6.21</v>
+      </c>
+      <c r="H37">
+        <v>1.97</v>
+      </c>
+      <c r="I37">
+        <v>70.3</v>
+      </c>
+      <c r="J37">
+        <v>16</v>
+      </c>
+      <c r="K37">
+        <f t="shared" ref="K37:K45" si="2">I37/J37</f>
+        <v>4.3937499999999998</v>
+      </c>
+      <c r="L37">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="O37" t="s">
+        <v>23</v>
+      </c>
+      <c r="P37" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q37">
+        <v>6.21</v>
+      </c>
+      <c r="R37">
+        <v>76.400000000000006</v>
+      </c>
+    </row>
+    <row r="38" spans="2:18">
+      <c r="C38" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38">
+        <v>4</v>
+      </c>
+      <c r="F38">
+        <v>2000</v>
+      </c>
+      <c r="G38">
+        <v>4.58</v>
+      </c>
+      <c r="H38">
+        <v>1.72</v>
+      </c>
+      <c r="I38">
+        <v>70.3</v>
+      </c>
+      <c r="J38">
+        <v>16</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="2"/>
+        <v>4.3937499999999998</v>
+      </c>
+      <c r="L38">
+        <v>43.24</v>
+      </c>
+      <c r="O38" t="s">
+        <v>23</v>
+      </c>
+      <c r="P38" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q38">
+        <v>4.58</v>
+      </c>
+      <c r="R38">
+        <v>43.24</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18">
+      <c r="C39" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39">
+        <v>8</v>
+      </c>
+      <c r="F39">
+        <v>2000</v>
+      </c>
+      <c r="G39">
+        <v>153.03</v>
+      </c>
+      <c r="H39">
+        <v>1.68</v>
+      </c>
+      <c r="I39">
+        <v>70.3</v>
+      </c>
+      <c r="J39">
+        <v>10.5</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="2"/>
+        <v>6.6952380952380945</v>
+      </c>
+      <c r="L39">
+        <v>71.67</v>
+      </c>
+      <c r="O39" t="s">
+        <v>24</v>
+      </c>
+      <c r="P39" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q39">
+        <v>153.03</v>
+      </c>
+      <c r="R39">
+        <v>71.67</v>
+      </c>
+    </row>
+    <row r="40" spans="2:18">
+      <c r="C40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40">
+        <v>8</v>
+      </c>
+      <c r="F40">
+        <v>2000</v>
+      </c>
+      <c r="G40">
+        <v>51.1</v>
+      </c>
+      <c r="H40">
+        <v>1.61</v>
+      </c>
+      <c r="I40">
+        <v>70.3</v>
+      </c>
+      <c r="J40">
+        <v>10.7</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="2"/>
+        <v>6.5700934579439254</v>
+      </c>
+      <c r="L40">
+        <v>83.02</v>
+      </c>
+      <c r="O40" t="s">
+        <v>24</v>
+      </c>
+      <c r="P40" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q40">
+        <v>51.1</v>
+      </c>
+      <c r="R40">
+        <v>83.02</v>
+      </c>
+    </row>
+    <row r="41" spans="2:18">
+      <c r="C41" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41">
+        <v>8</v>
+      </c>
+      <c r="F41">
+        <v>2000</v>
+      </c>
+      <c r="G41">
+        <v>63.06</v>
+      </c>
+      <c r="H41">
+        <v>1.62</v>
+      </c>
+      <c r="I41">
+        <v>70.3</v>
+      </c>
+      <c r="J41">
+        <v>11.1</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="2"/>
+        <v>6.333333333333333</v>
+      </c>
+      <c r="L41">
+        <v>32.39</v>
+      </c>
+      <c r="O41" t="s">
+        <v>24</v>
+      </c>
+      <c r="P41" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q41">
+        <v>63.06</v>
+      </c>
+      <c r="R41">
+        <v>32.39</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18">
+      <c r="C42" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42">
+        <v>4</v>
+      </c>
+      <c r="F42" t="s">
+        <v>6</v>
+      </c>
+      <c r="G42">
+        <v>110.45</v>
+      </c>
+      <c r="H42">
+        <v>1.62</v>
+      </c>
+      <c r="I42">
+        <v>70.3</v>
+      </c>
+      <c r="J42">
+        <v>16</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="2"/>
+        <v>4.3937499999999998</v>
+      </c>
+      <c r="L42">
+        <v>19.93</v>
+      </c>
+      <c r="O42" t="s">
+        <v>25</v>
+      </c>
+      <c r="P42" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q42">
+        <v>110.45</v>
+      </c>
+      <c r="R42">
+        <v>19.93</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18">
+      <c r="C43" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43">
+        <v>4</v>
+      </c>
+      <c r="F43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G43">
+        <v>61.75</v>
+      </c>
+      <c r="H43">
+        <v>1.61</v>
+      </c>
+      <c r="I43">
+        <v>70.3</v>
+      </c>
+      <c r="J43">
+        <v>16</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="2"/>
+        <v>4.3937499999999998</v>
+      </c>
+      <c r="L43">
+        <v>56.47</v>
+      </c>
+      <c r="O43" t="s">
+        <v>25</v>
+      </c>
+      <c r="P43" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q43">
+        <v>61.75</v>
+      </c>
+      <c r="R43">
+        <v>56.47</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18">
+      <c r="C44" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44">
+        <v>4</v>
+      </c>
+      <c r="F44" t="s">
+        <v>6</v>
+      </c>
+      <c r="G44">
+        <v>77.56</v>
+      </c>
+      <c r="H44">
+        <v>1.58</v>
+      </c>
+      <c r="I44">
+        <v>70.3</v>
+      </c>
+      <c r="J44">
+        <v>16</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="2"/>
+        <v>4.3937499999999998</v>
+      </c>
+      <c r="L44">
+        <v>25.41</v>
+      </c>
+      <c r="O44" t="s">
+        <v>25</v>
+      </c>
+      <c r="P44" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q44">
+        <v>77.56</v>
+      </c>
+      <c r="R44">
+        <v>25.41</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18">
+      <c r="C45" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45">
+        <v>4</v>
+      </c>
+      <c r="F45">
+        <v>1500</v>
+      </c>
+      <c r="G45">
+        <v>64.040000000000006</v>
+      </c>
+      <c r="H45">
+        <v>1.61</v>
+      </c>
+      <c r="I45">
+        <v>70.3</v>
+      </c>
+      <c r="J45">
+        <v>15.6</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="2"/>
+        <v>4.5064102564102564</v>
+      </c>
+      <c r="L45">
+        <v>39.04</v>
+      </c>
+      <c r="O45" t="s">
+        <v>55</v>
+      </c>
+      <c r="P45" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q45">
+        <v>64.040000000000006</v>
+      </c>
+      <c r="R45">
+        <v>39.04</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:N460"/>
   <sheetViews>
@@ -23850,17 +26243,17 @@
       </c>
     </row>
     <row r="407" spans="3:13" s="2" customFormat="1">
-      <c r="C407" s="15"/>
-      <c r="D407" s="15"/>
-      <c r="E407" s="15"/>
-      <c r="F407" s="15"/>
-      <c r="G407" s="15"/>
-      <c r="H407" s="15"/>
-      <c r="I407" s="15"/>
-      <c r="J407" s="15"/>
-      <c r="K407" s="15"/>
-      <c r="L407" s="15"/>
-      <c r="M407" s="15"/>
+      <c r="C407" s="12"/>
+      <c r="D407" s="12"/>
+      <c r="E407" s="12"/>
+      <c r="F407" s="12"/>
+      <c r="G407" s="12"/>
+      <c r="H407" s="12"/>
+      <c r="I407" s="12"/>
+      <c r="J407" s="12"/>
+      <c r="K407" s="12"/>
+      <c r="L407" s="12"/>
+      <c r="M407" s="12"/>
     </row>
     <row r="410" spans="3:13">
       <c r="D410" s="4" t="s">
@@ -24312,11 +26705,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:Z497"/>
   <sheetViews>
-    <sheetView topLeftCell="B493" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C495" sqref="C495:G497"/>
     </sheetView>
   </sheetViews>
@@ -31175,16 +33568,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:Z503"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A504" workbookViewId="0">
-      <selection activeCell="M514" sqref="M514"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" customWidth="1"/>
     <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="0" hidden="1" customWidth="1"/>
@@ -37498,7 +39892,7 @@
       <c r="D451" t="s">
         <v>23</v>
       </c>
-      <c r="E451" s="16">
+      <c r="E451" s="13">
         <v>176.85</v>
       </c>
       <c r="F451" s="3">
@@ -37874,7 +40268,7 @@
       <c r="E502" s="3">
         <v>167.19</v>
       </c>
-      <c r="F502" s="16">
+      <c r="F502" s="13">
         <v>174.35</v>
       </c>
       <c r="G502" s="3">
@@ -37891,7 +40285,7 @@
       <c r="E503" s="3">
         <v>998.96</v>
       </c>
-      <c r="F503" s="16">
+      <c r="F503" s="13">
         <v>364.76</v>
       </c>
       <c r="G503" s="3">
@@ -37907,7 +40301,450 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A4:L28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="4" spans="1:11" ht="60">
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>500</v>
+      </c>
+      <c r="F5">
+        <v>409.94</v>
+      </c>
+      <c r="G5">
+        <v>4.26</v>
+      </c>
+      <c r="H5">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="I5">
+        <v>51.5</v>
+      </c>
+      <c r="J5">
+        <f>H5/I5</f>
+        <v>1.4582524271844659</v>
+      </c>
+      <c r="K5">
+        <v>54.26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>1000</v>
+      </c>
+      <c r="H6">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="J6" t="e">
+        <f t="shared" ref="J6:J28" si="0">H6/I6</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>1500</v>
+      </c>
+      <c r="H7">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="J7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>2000</v>
+      </c>
+      <c r="F8">
+        <v>304.89</v>
+      </c>
+      <c r="G8">
+        <v>4.07</v>
+      </c>
+      <c r="H8">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="I8">
+        <v>51.5</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>1.4582524271844659</v>
+      </c>
+      <c r="K8">
+        <v>54.26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>2500</v>
+      </c>
+      <c r="F9">
+        <v>389.07</v>
+      </c>
+      <c r="G9">
+        <v>4.59</v>
+      </c>
+      <c r="H9">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="I9">
+        <v>51.5</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>1.4582524271844659</v>
+      </c>
+      <c r="K9">
+        <v>54.26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>3000</v>
+      </c>
+      <c r="H10">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="J10" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>3500</v>
+      </c>
+      <c r="H11">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="J11" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>4000</v>
+      </c>
+      <c r="H12">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="J12" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="D13">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>500</v>
+      </c>
+      <c r="H13">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="J13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="D14">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>1000</v>
+      </c>
+      <c r="H14">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="J14" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="D15">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>1500</v>
+      </c>
+      <c r="H15">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="J15" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="D16">
+        <v>8</v>
+      </c>
+      <c r="E16">
+        <v>2000</v>
+      </c>
+      <c r="H16">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="J16" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12">
+      <c r="D17">
+        <v>8</v>
+      </c>
+      <c r="E17">
+        <v>2500</v>
+      </c>
+      <c r="H17">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="J17" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12">
+      <c r="D18">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <v>3000</v>
+      </c>
+      <c r="H18">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="J18" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12">
+      <c r="D19">
+        <v>8</v>
+      </c>
+      <c r="E19">
+        <v>3500</v>
+      </c>
+      <c r="H19">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="J19" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12">
+      <c r="D20">
+        <v>8</v>
+      </c>
+      <c r="E20">
+        <v>4000</v>
+      </c>
+      <c r="H20">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="J20" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" s="2" customFormat="1"/>
+    <row r="25" spans="3:12" ht="60">
+      <c r="C25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12">
+      <c r="C26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26">
+        <v>2000</v>
+      </c>
+      <c r="G26">
+        <v>304.89</v>
+      </c>
+      <c r="H26">
+        <v>4.07</v>
+      </c>
+      <c r="I26">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="J26">
+        <v>51.5</v>
+      </c>
+      <c r="K26">
+        <f>I26/J26</f>
+        <v>1.4582524271844659</v>
+      </c>
+      <c r="L26">
+        <v>54.26</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12">
+      <c r="C27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27">
+        <v>2000</v>
+      </c>
+      <c r="G27">
+        <v>71.92</v>
+      </c>
+      <c r="H27">
+        <v>4.01</v>
+      </c>
+      <c r="I27">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K27" t="e">
+        <f t="shared" ref="K27:K28" si="1">I27/J27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L27">
+        <v>215.12</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12">
+      <c r="C28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" t="s">
+        <v>6</v>
+      </c>
+      <c r="I28">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K28" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:L83"/>
   <sheetViews>
@@ -39511,7 +42348,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:AG200"/>
   <sheetViews>
@@ -42229,7 +45066,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C3:J13"/>
   <sheetViews>
@@ -42253,7 +45090,7 @@
       <c r="H4" s="10"/>
     </row>
     <row r="5" spans="3:10" ht="48" thickBot="1">
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="8" t="s">
@@ -42270,7 +45107,7 @@
       </c>
     </row>
     <row r="6" spans="3:10" ht="32.25" thickBot="1">
-      <c r="C6" s="13"/>
+      <c r="C6" s="15"/>
       <c r="D6" s="8" t="s">
         <v>27</v>
       </c>
@@ -42288,7 +45125,7 @@
       </c>
     </row>
     <row r="7" spans="3:10" ht="32.25" customHeight="1" thickBot="1">
-      <c r="C7" s="14"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="8" t="s">
         <v>28</v>
       </c>
@@ -42306,7 +45143,7 @@
       </c>
     </row>
     <row r="8" spans="3:10" ht="16.5" thickBot="1">
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="14" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -42326,19 +45163,19 @@
       </c>
     </row>
     <row r="9" spans="3:10" ht="32.25" thickBot="1">
-      <c r="C9" s="13"/>
+      <c r="C9" s="15"/>
       <c r="D9" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="3:10" ht="95.25" thickBot="1">
-      <c r="C10" s="14"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="11" spans="3:10" ht="16.5" thickBot="1">
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="14" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="8" t="s">
@@ -42346,13 +45183,13 @@
       </c>
     </row>
     <row r="12" spans="3:10" ht="32.25" thickBot="1">
-      <c r="C12" s="13"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="3:10" ht="95.25" thickBot="1">
-      <c r="C13" s="14"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="8" t="s">
         <v>28</v>
       </c>

--- a/documents/исследования.xlsx
+++ b/documents/исследования.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="портрет" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2644" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2666" uniqueCount="80">
   <si>
     <t>первый (без разбиения)</t>
   </si>
@@ -162,9 +162,6 @@
     <t>А2 + РГЗ</t>
   </si>
   <si>
-    <t>Б + РГЗ</t>
-  </si>
-  <si>
     <t>Метод эталонного блока</t>
   </si>
   <si>
@@ -241,6 +238,33 @@
   </si>
   <si>
     <t>YIQ</t>
+  </si>
+  <si>
+    <t>Первый подходящий (без разбиения)</t>
+  </si>
+  <si>
+    <t>Первый подходящий (с разбиением)</t>
+  </si>
+  <si>
+    <t>Доменный блок с минимальным СКО</t>
+  </si>
+  <si>
+    <t>Первый подходящий (без разбиения) + РГЗ</t>
+  </si>
+  <si>
+    <t>Первый подходящий (с разбиением) + РГЗ</t>
+  </si>
+  <si>
+    <t>Время компрессии</t>
+  </si>
+  <si>
+    <t>Центр масс</t>
+  </si>
+  <si>
+    <t>Разница граничных значений</t>
+  </si>
+  <si>
+    <t>кк</t>
   </si>
 </sst>
 </file>
@@ -438,6 +462,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -447,8 +473,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -463,7 +487,17 @@
   <c:lang val="ru-RU"/>
   <c:chart>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17587167491231853"/>
+          <c:y val="7.6778988485025221E-2"/>
+          <c:w val="0.46429475765625361"/>
+          <c:h val="0.63291038115185083"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -476,11 +510,19 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>А1</c:v>
+                  <c:v>Первый подходящий (без разбиения)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:pattFill prst="wdUpDiag"/>
+            <a:ln w="15875">
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:cat>
             <c:strRef>
               <c:f>портрет!$D$402:$F$402</c:f>
@@ -490,10 +532,10 @@
                   <c:v>Без классификации</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Центром масс</c:v>
+                  <c:v>Центр масс</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Разницей граничных значений</c:v>
+                  <c:v>Разница граничных значений</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -505,13 +547,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>16.87</c:v>
+                  <c:v>9.2100000000000009</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.87</c:v>
+                  <c:v>4.0599999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.49</c:v>
+                  <c:v>2.95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -526,11 +568,19 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Б</c:v>
+                  <c:v>Первый подходящий (с разбиением)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:pattFill prst="pct5"/>
+            <a:ln w="15875">
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:cat>
             <c:strRef>
               <c:f>портрет!$D$402:$F$402</c:f>
@@ -540,10 +590,10 @@
                   <c:v>Без классификации</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Центром масс</c:v>
+                  <c:v>Центр масс</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Разницей граничных значений</c:v>
+                  <c:v>Разница граничных значений</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -555,13 +605,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>29.92</c:v>
+                  <c:v>45.08</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.62</c:v>
+                  <c:v>16.84</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.46</c:v>
+                  <c:v>15.86</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -576,11 +626,19 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>А2</c:v>
+                  <c:v>Доменный блок с минимальным СКО</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:pattFill prst="dkHorz"/>
+            <a:ln w="15875" cmpd="sng">
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:cat>
             <c:strRef>
               <c:f>портрет!$D$402:$F$402</c:f>
@@ -590,10 +648,10 @@
                   <c:v>Без классификации</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Центром масс</c:v>
+                  <c:v>Центр масс</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Разницей граничных значений</c:v>
+                  <c:v>Разница граничных значений</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -605,57 +663,171 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>145.25</c:v>
+                  <c:v>35.72</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>52.86</c:v>
+                  <c:v>15.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75.209999999999994</c:v>
+                  <c:v>13.43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="48607232"/>
-        <c:axId val="48608768"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>портрет!$C$406</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>портрет!$D$402:$F$402</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Без классификации</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Центр масс</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Разница граничных значений</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>портрет!$D$406:$F$406</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="91728128"/>
+        <c:axId val="92013312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="48607232"/>
+        <c:axId val="91728128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t>Метод классификации</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48608768"/>
+        <c:crossAx val="92013312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="48608768"/>
+        <c:axId val="92013312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t>t</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="-25000"/>
+                  <a:t>комп</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t>, сек</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48607232"/>
+        <c:crossAx val="91728128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000"/>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.66110883710840196"/>
+          <c:y val="8.6460758061807932E-2"/>
+          <c:w val="0.32027569218952751"/>
+          <c:h val="0.84250477857999795"/>
+        </c:manualLayout>
+      </c:layout>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -675,137 +847,169 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'много деталей'!$C$464</c:f>
+              <c:f>'мало деталей'!$C$411</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Время сжатия</c:v>
+                  <c:v>А1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'много деталей'!$D$463:$G$463</c:f>
+              <c:f>'мало деталей'!$D$410:$F$410</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>А2</c:v>
+                  <c:v>Без классификации</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>А2 + РГЗ</c:v>
+                  <c:v>Центром масс</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Метод эталонного блока</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>А1</c:v>
+                  <c:v>Разницей граничных значений</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'много деталей'!$D$464:$G$464</c:f>
+              <c:f>'мало деталей'!$D$411:$F$411</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>224.04</c:v>
+                  <c:v>42.03</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>82.51</c:v>
+                  <c:v>22.34</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>140.87</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>63.47</c:v>
+                  <c:v>19.55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="49730688"/>
-        <c:axId val="49732224"/>
-      </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'много деталей'!$C$465</c:f>
+              <c:f>'мало деталей'!$C$412</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>СКО</c:v>
+                  <c:v>А2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'много деталей'!$D$463:$G$463</c:f>
+              <c:f>'мало деталей'!$D$410:$F$410</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>А2</c:v>
+                  <c:v>Без классификации</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>А2 + РГЗ</c:v>
+                  <c:v>Центром масс</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Метод эталонного блока</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>А1</c:v>
+                  <c:v>Разницей граничных значений</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'много деталей'!$D$465:$G$465</c:f>
+              <c:f>'мало деталей'!$D$412:$F$412</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>136.16999999999999</c:v>
+                  <c:v>114.03</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>138.36000000000001</c:v>
+                  <c:v>54.09</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>109.36</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>136.41999999999999</c:v>
+                  <c:v>51.03</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="49739648"/>
-        <c:axId val="49738112"/>
-      </c:lineChart>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'мало деталей'!$C$413</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Б</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'мало деталей'!$D$410:$F$410</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Без классификации</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Центром масс</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Разницей граничных значений</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'мало деталей'!$D$413:$F$413</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>131.63999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76.53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>108.48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="95003008"/>
+        <c:axId val="95004544"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="49730688"/>
+        <c:axId val="95003008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49732224"/>
+        <c:crossAx val="95004544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49732224"/>
+        <c:axId val="95004544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -813,47 +1017,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49730688"/>
+        <c:crossAx val="95003008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:valAx>
-        <c:axId val="49738112"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49739648"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="49739648"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="none"/>
-        <c:crossAx val="49738112"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -873,169 +1049,137 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>текст!$D$451</c:f>
+              <c:f>'мало деталей'!$C$459</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>А1</c:v>
+                  <c:v>Время сжатия</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>текст!$E$450:$G$450</c:f>
+              <c:f>'мало деталей'!$D$458:$G$458</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Без классификации</c:v>
+                  <c:v>А2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Центром масс</c:v>
+                  <c:v>А2 + ЦМ</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Разницей граничных значений</c:v>
+                  <c:v>Метод эталонного блока</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>А1+РГЗ</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>текст!$E$451:$G$451</c:f>
+              <c:f>'мало деталей'!$D$459:$G$459</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>176.85</c:v>
+                  <c:v>114.03</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51.36</c:v>
+                  <c:v>54.09</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>151.01</c:v>
+                  <c:v>73.150000000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:axId val="94911488"/>
+        <c:axId val="94921472"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>текст!$D$452</c:f>
+              <c:f>'мало деталей'!$C$460</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>А2</c:v>
+                  <c:v>СКО</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>текст!$E$450:$G$450</c:f>
+              <c:f>'мало деталей'!$D$458:$G$458</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Без классификации</c:v>
+                  <c:v>А2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Центром масс</c:v>
+                  <c:v>А2 + ЦМ</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Разницей граничных значений</c:v>
+                  <c:v>Метод эталонного блока</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>А1+РГЗ</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>текст!$E$452:$G$452</c:f>
+              <c:f>'мало деталей'!$D$460:$G$460</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>239.78</c:v>
+                  <c:v>172.69</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>167.19</c:v>
+                  <c:v>76.88</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>126.72</c:v>
+                  <c:v>122.08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>92.27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>текст!$D$453</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Б</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>текст!$E$450:$G$450</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Без классификации</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Центром масс</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Разницей граничных значений</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>текст!$E$453:$G$453</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>101.12</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>154.02000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>59.64</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="49961984"/>
-        <c:axId val="49976064"/>
-      </c:barChart>
+        <c:marker val="1"/>
+        <c:axId val="94924800"/>
+        <c:axId val="94923008"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="49961984"/>
+        <c:axId val="94911488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49976064"/>
+        <c:crossAx val="94921472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49976064"/>
+        <c:axId val="94921472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1043,20 +1187,46 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49961984"/>
+        <c:crossAx val="94911488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:valAx>
+        <c:axId val="94923008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="94924800"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="94924800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="94923008"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1076,59 +1246,261 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>текст!$C$502</c:f>
+              <c:f>'много деталей'!$C$411</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Время сжатия</c:v>
+                  <c:v>А1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>текст!$D$501:$G$501</c:f>
+              <c:f>'много деталей'!$D$410:$F$410</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>А2</c:v>
+                  <c:v>Без классификации</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>А2 + ЦМ</c:v>
+                  <c:v>Центром масс</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Метод эталонного блока</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Б+ЦМ</c:v>
+                  <c:v>Разницей граничных значений</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>текст!$D$502:$G$502</c:f>
+              <c:f>'много деталей'!$D$411:$F$411</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>63.47</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42.71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60.79</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'много деталей'!$C$412</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>А2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'много деталей'!$D$410:$F$410</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Без классификации</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Центром масс</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Разницей граничных значений</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'много деталей'!$D$412:$F$412</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>224.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>124.52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82.51</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'много деталей'!$C$413</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Б</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'много деталей'!$D$410:$F$410</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Без классификации</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Центром масс</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Разницей граничных значений</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'много деталей'!$D$413:$F$413</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>133.66</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>120.59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70.62</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="96539776"/>
+        <c:axId val="96541312"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="96539776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="96541312"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="96541312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="96539776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'много деталей'!$C$464</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Время сжатия</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'много деталей'!$D$463:$G$463</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>А2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>А2 + РГЗ</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Метод эталонного блока</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>А1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'много деталей'!$D$464:$G$464</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>239.78</c:v>
+                  <c:v>224.04</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>167.19</c:v>
+                  <c:v>82.51</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>174.35</c:v>
+                  <c:v>140.87</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>154.02000000000001</c:v>
+                  <c:v>63.47</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="49993600"/>
-        <c:axId val="49995136"/>
+        <c:axId val="96583680"/>
+        <c:axId val="96585216"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1137,7 +1509,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>текст!$C$503</c:f>
+              <c:f>'много деталей'!$C$465</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1148,65 +1520,65 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>текст!$D$501:$G$501</c:f>
+              <c:f>'много деталей'!$D$463:$G$463</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>А2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>А2 + ЦМ</c:v>
+                  <c:v>А2 + РГЗ</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Метод эталонного блока</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Б+ЦМ</c:v>
+                  <c:v>А1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>текст!$D$503:$G$503</c:f>
+              <c:f>'много деталей'!$D$465:$G$465</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>899.91</c:v>
+                  <c:v>136.16999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>998.96</c:v>
+                  <c:v>138.36000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>364.76</c:v>
+                  <c:v>109.36</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>737.26</c:v>
+                  <c:v>136.41999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="50002560"/>
-        <c:axId val="50001024"/>
+        <c:axId val="96588544"/>
+        <c:axId val="96586752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="49993600"/>
+        <c:axId val="96583680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49995136"/>
+        <c:crossAx val="96585216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49995136"/>
+        <c:axId val="96585216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1214,31 +1586,31 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49993600"/>
+        <c:crossAx val="96583680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="50001024"/>
+        <c:axId val="96586752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50002560"/>
+        <c:crossAx val="96588544"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="50002560"/>
+        <c:axId val="96588544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="50001024"/>
+        <c:crossAx val="96586752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1253,13 +1625,412 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>текст!$D$451</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>А1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>текст!$E$450:$G$450</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Без классификации</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Центром масс</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Разницей граничных значений</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>текст!$E$451:$G$451</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>176.85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51.36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>151.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>текст!$D$452</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>А2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>текст!$E$450:$G$450</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Без классификации</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Центром масс</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Разницей граничных значений</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>текст!$E$452:$G$452</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>239.78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>167.19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>126.72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>текст!$D$453</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Б</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>текст!$E$450:$G$450</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Без классификации</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Центром масс</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Разницей граничных значений</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>текст!$E$453:$G$453</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>101.12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>154.02000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59.64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="102188928"/>
+        <c:axId val="102190464"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="102188928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="102190464"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="102190464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="102188928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>текст!$C$502</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Время сжатия</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>текст!$D$501:$G$501</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>А2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>А2 + ЦМ</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Метод эталонного блока</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Б+ЦМ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>текст!$D$502:$G$502</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>239.78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>167.19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>174.35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>154.02000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="102228736"/>
+        <c:axId val="102230272"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>текст!$C$503</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>СКО</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>текст!$D$501:$G$501</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>А2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>А2 + ЦМ</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Метод эталонного блока</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Б+ЦМ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>текст!$D$503:$G$503</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>899.91</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>998.96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>364.76</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>737.26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="102368768"/>
+        <c:axId val="102367232"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="102228736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="102230272"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="102230272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="102228736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="102367232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="102368768"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="102368768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="102367232"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
   <c:chart>
@@ -1448,8 +2219,8 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="50152192"/>
-        <c:axId val="50153728"/>
+        <c:axId val="104013184"/>
+        <c:axId val="104027264"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1526,25 +2297,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="50161152"/>
-        <c:axId val="50159616"/>
+        <c:axId val="104042880"/>
+        <c:axId val="104028800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="50152192"/>
+        <c:axId val="104013184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50153728"/>
+        <c:crossAx val="104027264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50153728"/>
+        <c:axId val="104027264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1552,32 +2323,32 @@
         <c:minorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50152192"/>
+        <c:crossAx val="104013184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="50159616"/>
+        <c:axId val="104028800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50161152"/>
+        <c:crossAx val="104042880"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="50161152"/>
+        <c:axId val="104042880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="t"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="50159616"/>
+        <c:crossAx val="104028800"/>
         <c:crosses val="max"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1592,13 +2363,13 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
   <c:chart>
@@ -1731,11 +2502,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="50284416"/>
-        <c:axId val="50294784"/>
+        <c:axId val="104104704"/>
+        <c:axId val="104106624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="50284416"/>
+        <c:axId val="104104704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1758,14 +2529,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50294784"/>
+        <c:crossAx val="104106624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50294784"/>
+        <c:axId val="104106624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1790,7 +2561,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50284416"/>
+        <c:crossAx val="104104704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1802,477 +2573,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="ru-RU"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'распределение классов'!$C$81</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ЦМ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'распределение классов'!$B$82:$B$86</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0-50</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>51-100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>101-150</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>151-200</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>201-255</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'распределение классов'!$C$82:$C$86</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>339.57142857142856</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>267</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>336.71428571428572</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>372.14285714285717</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>205.57142857142858</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'распределение классов'!$D$81</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>РГЗ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'распределение классов'!$B$82:$B$86</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0-50</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>51-100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>101-150</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>151-200</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>201-255</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'распределение классов'!$D$82:$D$86</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1220.4285714285713</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>201</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>77.428571428571431</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18.714285714285715</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.4285714285714284</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="50311552"/>
-        <c:axId val="50313088"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="50311552"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50313088"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="50313088"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50311552"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="ru-RU"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'распределение классов'!$C$143</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ЦМ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'распределение классов'!$B$144:$B$148</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0-50</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>51-100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>101-150</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>151-200</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>201-255</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'распределение классов'!$C$144:$C$148</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>100.57142857142857</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>481.85714285714283</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>585.85714285714289</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>297</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>55.714285714285715</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'распределение классов'!$D$143</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>РГЗ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'распределение классов'!$B$144:$B$148</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0-50</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>51-100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>101-150</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>151-200</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>201-255</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'распределение классов'!$D$144:$D$148</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>202.28571428571428</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>285.14285714285717</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>604.71428571428567</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>359.28571428571428</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>69.571428571428569</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="50345856"/>
-        <c:axId val="50347392"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="50345856"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50347392"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="50347392"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50345856"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="ru-RU"/>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'распределение классов'!$AI$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>сумм</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'распределение классов'!$AJ$5:$AJ$9</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0-50</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>51-100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>101-150</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>151-200</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>201-255</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'распределение классов'!$AI$5:$AI$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>12838</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11726</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11897</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6103</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1545</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="50379392"/>
-        <c:axId val="50381184"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="50379392"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50381184"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="50381184"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50379392"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2292,46 +2593,58 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист3!$G$6</c:f>
+              <c:f>'распределение классов'!$C$81</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>А1</c:v>
+                  <c:v>ЦМ</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Лист3!$H$5:$J$5</c:f>
+              <c:f>'распределение классов'!$B$82:$B$86</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Без классификации</c:v>
+                  <c:v>0-50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ЦМ</c:v>
+                  <c:v>51-100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>РГЗ</c:v>
+                  <c:v>101-150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>151-200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>201-255</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист3!$H$6:$J$6</c:f>
+              <c:f>'распределение классов'!$C$82:$C$86</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>16.87</c:v>
+                  <c:v>339.57142857142856</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.87</c:v>
+                  <c:v>267</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.49</c:v>
+                  <c:v>336.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>372.14285714285717</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>205.57142857142858</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2342,119 +2655,81 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист3!$G$7</c:f>
+              <c:f>'распределение классов'!$D$81</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Б</c:v>
+                  <c:v>РГЗ</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Лист3!$H$5:$J$5</c:f>
+              <c:f>'распределение классов'!$B$82:$B$86</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Без классификации</c:v>
+                  <c:v>0-50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ЦМ</c:v>
+                  <c:v>51-100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>РГЗ</c:v>
+                  <c:v>101-150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>151-200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>201-255</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист3!$H$7:$J$7</c:f>
+              <c:f>'распределение классов'!$D$82:$D$86</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>29.92</c:v>
+                  <c:v>1220.4285714285713</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.62</c:v>
+                  <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.46</c:v>
+                  <c:v>77.428571428571431</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.714285714285715</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4285714285714284</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Лист3!$G$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>А2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>Лист3!$H$5:$J$5</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Без классификации</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ЦМ</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>РГЗ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Лист3!$H$8:$J$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>145.25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>52.86</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>75.209999999999994</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="50259840"/>
-        <c:axId val="50261376"/>
+        <c:axId val="104123392"/>
+        <c:axId val="104125184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="50259840"/>
+        <c:axId val="104123392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50261376"/>
+        <c:crossAx val="104125184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50261376"/>
+        <c:axId val="104125184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2462,20 +2737,195 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50259840"/>
+        <c:crossAx val="104123392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'распределение классов'!$C$143</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ЦМ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'распределение классов'!$B$144:$B$148</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0-50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51-100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>101-150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>151-200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>201-255</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'распределение классов'!$C$144:$C$148</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100.57142857142857</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>481.85714285714283</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>585.85714285714289</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55.714285714285715</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'распределение классов'!$D$143</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>РГЗ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'распределение классов'!$B$144:$B$148</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0-50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51-100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>101-150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>151-200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>201-255</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'распределение классов'!$D$144:$D$148</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>202.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>285.14285714285717</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>604.71428571428567</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>359.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69.571428571428569</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="104170240"/>
+        <c:axId val="104171776"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="104170240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="104171776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="104171776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="104170240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2485,6 +2935,9 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
   <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -2627,25 +3080,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="83335424"/>
-        <c:axId val="83345408"/>
+        <c:axId val="92041984"/>
+        <c:axId val="92043520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="83335424"/>
+        <c:axId val="92041984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83345408"/>
+        <c:crossAx val="92043520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83345408"/>
+        <c:axId val="92043520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2653,7 +3106,123 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83335424"/>
+        <c:crossAx val="92041984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:title/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'распределение классов'!$AI$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>сумм</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'распределение классов'!$AJ$5:$AJ$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0-50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51-100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>101-150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>151-200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>201-255</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'распределение классов'!$AI$5:$AI$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>12838</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11726</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11897</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6103</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1545</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="104183296"/>
+        <c:axId val="104184832"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="104183296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="104184832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="104184832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="104183296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2665,13 +3234,13 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
   <c:chart>
@@ -2685,11 +3254,224 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
+              <c:f>Лист3!$G$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>А1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист3!$H$5:$J$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Без классификации</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ЦМ</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>РГЗ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист3!$H$6:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>16.87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.87</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист3!$G$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Б</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист3!$H$5:$J$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Без классификации</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ЦМ</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>РГЗ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист3!$H$7:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>29.92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.46</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист3!$G$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>А2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист3!$H$5:$J$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Без классификации</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ЦМ</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>РГЗ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист3!$H$8:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>145.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52.86</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75.209999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="104338176"/>
+        <c:axId val="104339712"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="104338176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="104339712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="104339712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="104338176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17260710585903752"/>
+          <c:y val="5.1400554097404488E-2"/>
+          <c:w val="0.60357587408597335"/>
+          <c:h val="0.5445866624176815"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
               <c:f>портрет!$C$433</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Время сжатия</c:v>
+                  <c:v>Время компрессии</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2700,16 +3482,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>А2</c:v>
+                  <c:v>Первый подходящий (без разбиения) + РГЗ</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>А2 + РГЗ</c:v>
+                  <c:v>Первый подходящий (с разбиением)</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Первый подходящий (с разбиением) + РГЗ</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Метод эталонного блока</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Б + РГЗ</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2721,148 +3503,136 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>145.25</c:v>
+                  <c:v>2.95</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>75.209999999999994</c:v>
+                  <c:v>45.08</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>83.26</c:v>
+                  <c:v>15.86</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.46</c:v>
+                  <c:v>35.86</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="49362432"/>
-        <c:axId val="49363968"/>
+        <c:axId val="92074368"/>
+        <c:axId val="92075904"/>
       </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>портрет!$C$434</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>СКО</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>портрет!$D$432:$G$432</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>А2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>А2 + РГЗ</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Метод эталонного блока</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Б + РГЗ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>портрет!$D$434:$G$434</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>72.3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>52.24</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>56.59</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>46.59</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="49375488"/>
-        <c:axId val="49373952"/>
-      </c:lineChart>
       <c:catAx>
-        <c:axId val="49362432"/>
+        <c:axId val="92074368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Алгоритм выбора доменного блока</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.29329681615884973"/>
+              <c:y val="0.89983141341319983"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49363968"/>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="92075904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49363968"/>
+        <c:axId val="92075904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="1" i="0" baseline="0"/>
+                  <a:t>t</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" b="1" i="0" baseline="-25000"/>
+                  <a:t>комп</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" b="1" i="0" baseline="0"/>
+                  <a:t>, сек</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49362432"/>
+        <c:crossAx val="92074368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:valAx>
-        <c:axId val="49373952"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49375488"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="49375488"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="none"/>
-        <c:crossAx val="49373952"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.78167276749269221"/>
+          <c:y val="0.26369685006901455"/>
+          <c:w val="0.20344147309199453"/>
+          <c:h val="0.13195137725382619"/>
+        </c:manualLayout>
+      </c:layout>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2872,6 +3642,9 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
   <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -2886,7 +3659,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>время сжатия</c:v>
+                  <c:v>Время компрессии</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2930,34 +3703,34 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>А1</c:v>
+                    <c:v>Первый подходящий (без разбиения)</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>А1</c:v>
+                    <c:v>Первый подходящий (без разбиения)</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>А1</c:v>
+                    <c:v>Первый подходящий (без разбиения)</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>А2</c:v>
+                    <c:v>Первый подходящий (с разбиением)</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>А2</c:v>
+                    <c:v>Первый подходящий (с разбиением)</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>А2</c:v>
+                    <c:v>Первый подходящий (с разбиением)</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Б</c:v>
+                    <c:v>Доменный блок с минимальным СКО</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>Б</c:v>
+                    <c:v>Доменный блок с минимальным СКО</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>Б</c:v>
+                    <c:v>Доменный блок с минимальным СКО</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>Эталон</c:v>
+                    <c:v>Метод эталонного блока</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -2970,13 +3743,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>9.2028571428571446</c:v>
+                  <c:v>9.2028571428571393</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0571428571428578</c:v>
+                  <c:v>4.0571428571428596</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9499999999999997</c:v>
+                  <c:v>2.95</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>45.081666666666671</c:v>
@@ -2997,127 +3770,89 @@
                   <c:v>15.751428571428571</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>61.947142857142858</c:v>
+                  <c:v>35.86</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="49483776"/>
-        <c:axId val="49485312"/>
+        <c:axId val="94575232"/>
+        <c:axId val="94577024"/>
       </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'разные размеры'!$R$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SSIM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:val>
-            <c:numRef>
-              <c:f>'разные размеры'!$R$20:$R$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.9807742857142856</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.97650857142857128</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.97729142857142848</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.97934333333333334</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.97966000000000009</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.98049428571428565</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.97224142857142859</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.96771285714285715</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.96771285714285715</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.97703714285714294</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="49488640"/>
-        <c:axId val="49486848"/>
-      </c:lineChart>
       <c:catAx>
-        <c:axId val="49483776"/>
+        <c:axId val="94575232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49485312"/>
+        <c:crossAx val="94577024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49485312"/>
+        <c:axId val="94577024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="1" i="0" baseline="0"/>
+                  <a:t>t</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" b="1" i="0" baseline="-25000"/>
+                  <a:t>комп</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" b="1" i="0" baseline="0"/>
+                  <a:t>, сек</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49483776"/>
+        <c:crossAx val="94575232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:valAx>
-        <c:axId val="49486848"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49488640"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="49488640"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="none"/>
-        <c:crossAx val="49486848"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -3126,9 +3861,14 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3138,6 +3878,9 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
   <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -3152,7 +3895,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>время сжатия</c:v>
+                  <c:v>Время компрессии</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3196,34 +3939,34 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>А1</c:v>
+                    <c:v>Первый подходящий (без разбиения)</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>А1</c:v>
+                    <c:v>Первый подходящий (без разбиения)</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>А1</c:v>
+                    <c:v>Первый подходящий (без разбиения)</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>А2</c:v>
+                    <c:v>Первый подходящий (с разбиением)</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>А2</c:v>
+                    <c:v>Первый подходящий (с разбиением)</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>А2</c:v>
+                    <c:v>Первый подходящий (с разбиением)</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Б</c:v>
+                    <c:v>Доменный блок с минимальным СКО</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>Б</c:v>
+                    <c:v>Доменный блок с минимальным СКО</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>Б</c:v>
+                    <c:v>Доменный блок с минимальным СКО</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>Эталон</c:v>
+                    <c:v>Метод эталонного блока</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -3269,121 +4012,62 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="49506176"/>
-        <c:axId val="49507712"/>
+        <c:axId val="94597888"/>
+        <c:axId val="94599424"/>
       </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'разные размеры'!$R$35</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SSIM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:val>
-            <c:numRef>
-              <c:f>'разные размеры'!$R$36:$R$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.99041999999999997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.98321000000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.99063000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.98436000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.96865000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.97109000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.98053999999999997</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.97648000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.97597</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.98702000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="49519232"/>
-        <c:axId val="49517696"/>
-      </c:lineChart>
       <c:catAx>
-        <c:axId val="49506176"/>
+        <c:axId val="94597888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49507712"/>
+        <c:crossAx val="94599424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49507712"/>
+        <c:axId val="94599424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="1" i="0" baseline="0"/>
+                  <a:t>t</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" b="1" i="0" baseline="-25000"/>
+                  <a:t>комп</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" b="1" i="0" baseline="0"/>
+                  <a:t>, сек</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49506176"/>
+        <c:crossAx val="94597888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:valAx>
-        <c:axId val="49517696"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49519232"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="49519232"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="none"/>
-        <c:crossAx val="49517696"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -3392,9 +4076,14 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3404,8 +4093,19 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18814270812302308"/>
+          <c:y val="4.0336129645919601E-2"/>
+          <c:w val="0.76312975301164276"/>
+          <c:h val="0.48806253441753028"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -3418,7 +4118,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>время сжатия</c:v>
+                  <c:v>Время компрессии</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3462,34 +4162,34 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>А1</c:v>
+                    <c:v>Первый подходящий (без разбиения)</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>А1</c:v>
+                    <c:v>Первый подходящий (без разбиения)</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>А1</c:v>
+                    <c:v>Первый подходящий (без разбиения)</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>А2</c:v>
+                    <c:v>Первый подходящий (с разбиением)</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>А2</c:v>
+                    <c:v>Первый подходящий (с разбиением)</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>А2</c:v>
+                    <c:v>Первый подходящий (с разбиением)</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Б</c:v>
+                    <c:v>Доменный блок с минимальным СКО</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>Б</c:v>
+                    <c:v>Доменный блок с минимальным СКО</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>Б</c:v>
+                    <c:v>Доменный блок с минимальным СКО</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>Эталон</c:v>
+                    <c:v>Метод эталонного блока</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -3535,132 +4235,86 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="49557504"/>
-        <c:axId val="49559040"/>
+        <c:axId val="92416640"/>
+        <c:axId val="92422528"/>
       </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'разные размеры'!$R$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SSIM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:val>
-            <c:numRef>
-              <c:f>'разные размеры'!$R$5:$R$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.98257000000000005</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.98936000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.98936999999999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.98001000000000005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.98660999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.98690999999999995</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.98221999999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.97945000000000004</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.97941</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.98734</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="49566464"/>
-        <c:axId val="49560576"/>
-      </c:lineChart>
       <c:catAx>
-        <c:axId val="49557504"/>
+        <c:axId val="92416640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49559040"/>
+        <c:crossAx val="92422528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49559040"/>
+        <c:axId val="92422528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="1" i="0" baseline="0"/>
+                  <a:t>t</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" b="1" i="0" baseline="-25000"/>
+                  <a:t>комп</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" b="1" i="0" baseline="0"/>
+                  <a:t>, сек</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49557504"/>
+        <c:crossAx val="92416640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:valAx>
-        <c:axId val="49560576"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49566464"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="49566464"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="none"/>
-        <c:crossAx val="49560576"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.3230673329295376"/>
+          <c:y val="0.87768771410385693"/>
+          <c:w val="0.20898394912174439"/>
+          <c:h val="6.5696324744148132E-2"/>
+        </c:manualLayout>
+      </c:layout>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3680,46 +4334,54 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'мало деталей'!$C$411</c:f>
+              <c:f>'разные размеры'!$AA$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>А1</c:v>
+                  <c:v>Первый подходящий (без разбиения)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:pattFill prst="wdUpDiag"/>
+            <a:ln w="15875">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'мало деталей'!$D$410:$F$410</c:f>
+              <c:f>'разные размеры'!$AB$4:$AD$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Без классификации</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Центром масс</c:v>
+                  <c:v>Центр масс</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Разницей граничных значений</c:v>
+                  <c:v>Разница граничных значений</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'мало деталей'!$D$411:$F$411</c:f>
+              <c:f>'разные размеры'!$AB$5:$AD$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>42.03</c:v>
+                  <c:v>68.42</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.34</c:v>
+                  <c:v>33.32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.55</c:v>
+                  <c:v>18.02</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3730,46 +4392,54 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'мало деталей'!$C$412</c:f>
+              <c:f>'разные размеры'!$AA$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>А2</c:v>
+                  <c:v>Первый подходящий (с разбиением)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:pattFill prst="pct5"/>
+            <a:ln w="15875">
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'мало деталей'!$D$410:$F$410</c:f>
+              <c:f>'разные размеры'!$AB$4:$AD$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Без классификации</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Центром масс</c:v>
+                  <c:v>Центр масс</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Разницей граничных значений</c:v>
+                  <c:v>Разница граничных значений</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'мало деталей'!$D$412:$F$412</c:f>
+              <c:f>'разные размеры'!$AB$6:$AD$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>114.03</c:v>
+                  <c:v>506.02</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>54.09</c:v>
+                  <c:v>189.61</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51.03</c:v>
+                  <c:v>152.18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3780,90 +4450,236 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'мало деталей'!$C$413</c:f>
+              <c:f>'разные размеры'!$AA$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Б</c:v>
+                  <c:v>Доменный блок с минимальным СКО</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:pattFill prst="dkHorz"/>
+            <a:ln w="15875">
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'мало деталей'!$D$410:$F$410</c:f>
+              <c:f>'разные размеры'!$AB$4:$AD$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Без классификации</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Центром масс</c:v>
+                  <c:v>Центр масс</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Разницей граничных значений</c:v>
+                  <c:v>Разница граничных значений</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'мало деталей'!$D$413:$F$413</c:f>
+              <c:f>'разные размеры'!$AB$7:$AD$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>131.63999999999999</c:v>
+                  <c:v>361.05</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>76.53</c:v>
+                  <c:v>127.12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>108.48</c:v>
+                  <c:v>109.15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="49780224"/>
-        <c:axId val="49781760"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'разные размеры'!$AA$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Метод эталонного блока</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="zigZag"/>
+            <a:ln w="15875">
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'разные размеры'!$AB$4:$AD$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Без классификации</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Центр масс</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Разница граничных значений</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'разные размеры'!$AB$8:$AD$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>399.98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'разные размеры'!$AA$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'разные размеры'!$AB$4:$AD$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Без классификации</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Центр масс</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Разница граничных значений</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'разные размеры'!$AB$9:$AD$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="84408192"/>
+        <c:axId val="84409728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="49780224"/>
+        <c:axId val="84408192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49781760"/>
+        <c:crossAx val="84409728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49781760"/>
+        <c:axId val="84409728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="1" i="0" baseline="0"/>
+                  <a:t>t</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" b="1" i="0" baseline="-25000"/>
+                  <a:t>комп</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" b="1" i="0" baseline="0"/>
+                  <a:t>, сек</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49780224"/>
+        <c:crossAx val="84408192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000"/>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
       <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3883,182 +4699,349 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'мало деталей'!$C$459</c:f>
+              <c:f>'разные размеры'!$AA$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Время сжатия</c:v>
+                  <c:v>Первый подходящий (без разбиения)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:pattFill prst="wdUpDiag"/>
+            <a:ln w="15875">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'мало деталей'!$D$458:$G$458</c:f>
+              <c:f>'разные размеры'!$AB$19:$AD$19</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>А2</c:v>
+                  <c:v>Без классификации</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>А2 + ЦМ</c:v>
+                  <c:v>Центр масс</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Метод эталонного блока</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>А1+РГЗ</c:v>
+                  <c:v>Разница граничных значений</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'мало деталей'!$D$459:$G$459</c:f>
+              <c:f>'разные размеры'!$AB$20:$AD$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>114.03</c:v>
+                  <c:v>9.2028571428571393</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>54.09</c:v>
+                  <c:v>4.0571428571428596</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>73.150000000000006</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19.55</c:v>
+                  <c:v>2.95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="49815936"/>
-        <c:axId val="49817472"/>
-      </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'мало деталей'!$C$460</c:f>
+              <c:f>'разные размеры'!$AA$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>СКО</c:v>
+                  <c:v>Первый подходящий (с разбиением)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:pattFill prst="pct5"/>
+            <a:ln w="15875">
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'мало деталей'!$D$458:$G$458</c:f>
+              <c:f>'разные размеры'!$AB$19:$AD$19</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>А2</c:v>
+                  <c:v>Без классификации</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>А2 + ЦМ</c:v>
+                  <c:v>Центр масс</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Метод эталонного блока</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>А1+РГЗ</c:v>
+                  <c:v>Разница граничных значений</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'мало деталей'!$D$460:$G$460</c:f>
+              <c:f>'разные размеры'!$AB$21:$AD$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>172.69</c:v>
+                  <c:v>45.081666666666671</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>76.88</c:v>
+                  <c:v>16.838571428571427</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>122.08</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>92.27</c:v>
+                  <c:v>15.864285714285716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="49833088"/>
-        <c:axId val="49819008"/>
-      </c:lineChart>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'разные размеры'!$AA$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Доменный блок с минимальным СКО</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="dkHorz"/>
+            <a:ln w="15875">
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'разные размеры'!$AB$19:$AD$19</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Без классификации</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Центр масс</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Разница граничных значений</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'разные размеры'!$AB$22:$AD$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>35.724285714285713</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.751428571428571</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.751428571428571</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'разные размеры'!$AA$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Метод эталонного блока</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="zigZag"/>
+            <a:ln w="15875">
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'разные размеры'!$AB$19:$AD$19</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Без классификации</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Центр масс</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Разница граничных значений</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'разные размеры'!$AB$23:$AD$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>35.86</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'разные размеры'!$AA$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'разные размеры'!$AB$19:$AD$19</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Без классификации</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Центр масс</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Разница граничных значений</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'разные размеры'!$AB$24:$AD$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="105925248"/>
+        <c:axId val="106095744"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="49815936"/>
+        <c:axId val="105925248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49817472"/>
+        <c:crossAx val="106095744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49817472"/>
+        <c:axId val="106095744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="1" i="0" baseline="0"/>
+                  <a:t>t</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" b="1" i="0" baseline="-25000"/>
+                  <a:t>комп</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" b="1" i="0" baseline="0"/>
+                  <a:t>, сек</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49815936"/>
+        <c:crossAx val="105925248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:valAx>
-        <c:axId val="49819008"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49833088"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="49833088"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="none"/>
-        <c:crossAx val="49819008"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000"/>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
       <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
@@ -4081,46 +5064,54 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'много деталей'!$C$411</c:f>
+              <c:f>'разные размеры'!$AA$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>А1</c:v>
+                  <c:v>Первый подходящий (без разбиения)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:pattFill prst="wdUpDiag"/>
+            <a:ln w="15875">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'много деталей'!$D$410:$F$410</c:f>
+              <c:f>'разные размеры'!$AB$35:$AD$35</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Без классификации</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Центром масс</c:v>
+                  <c:v>Центр масс</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Разницей граничных значений</c:v>
+                  <c:v>Разница граничных значений</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'много деталей'!$D$411:$F$411</c:f>
+              <c:f>'разные размеры'!$AB$36:$AD$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>63.47</c:v>
+                  <c:v>7.71</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42.71</c:v>
+                  <c:v>5.81</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60.79</c:v>
+                  <c:v>2.59</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4131,46 +5122,54 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'много деталей'!$C$412</c:f>
+              <c:f>'разные размеры'!$AA$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>А2</c:v>
+                  <c:v>Первый подходящий (с разбиением)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:pattFill prst="pct5"/>
+            <a:ln w="15875">
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'много деталей'!$D$410:$F$410</c:f>
+              <c:f>'разные размеры'!$AB$35:$AD$35</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Без классификации</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Центром масс</c:v>
+                  <c:v>Центр масс</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Разницей граничных значений</c:v>
+                  <c:v>Разница граничных значений</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'много деталей'!$D$412:$F$412</c:f>
+              <c:f>'разные размеры'!$AB$37:$AD$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>224.04</c:v>
+                  <c:v>142.16999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>124.52</c:v>
+                  <c:v>25.87</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>82.51</c:v>
+                  <c:v>24.69</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4181,90 +5180,236 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'много деталей'!$C$413</c:f>
+              <c:f>'разные размеры'!$AA$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Б</c:v>
+                  <c:v>Доменный блок с минимальным СКО</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:pattFill prst="dkHorz"/>
+            <a:ln w="15875">
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'много деталей'!$D$410:$F$410</c:f>
+              <c:f>'разные размеры'!$AB$35:$AD$35</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Без классификации</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Центром масс</c:v>
+                  <c:v>Центр масс</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Разницей граничных значений</c:v>
+                  <c:v>Разница граничных значений</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'много деталей'!$D$413:$F$413</c:f>
+              <c:f>'разные размеры'!$AB$38:$AD$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>133.66</c:v>
+                  <c:v>31.34</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>120.59</c:v>
+                  <c:v>8.67</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70.62</c:v>
+                  <c:v>5.28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="49678592"/>
-        <c:axId val="49692672"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'разные размеры'!$AA$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Метод эталонного блока</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="zigZag"/>
+            <a:ln w="15875">
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'разные размеры'!$AB$35:$AD$35</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Без классификации</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Центр масс</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Разница граничных значений</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'разные размеры'!$AB$39:$AD$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>47.42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'разные размеры'!$AA$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'разные размеры'!$AB$35:$AD$35</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Без классификации</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Центр масс</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Разница граничных значений</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'разные размеры'!$AB$40:$AD$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="106790272"/>
+        <c:axId val="106833024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="49678592"/>
+        <c:axId val="106790272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49692672"/>
+        <c:crossAx val="106833024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49692672"/>
+        <c:axId val="106833024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="1" i="0" baseline="0"/>
+                  <a:t>t</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" b="1" i="0" baseline="-25000"/>
+                  <a:t>комп</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" b="1" i="0" baseline="0"/>
+                  <a:t>, сек</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49678592"/>
+        <c:crossAx val="106790272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000"/>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
       <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4275,15 +5420,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>438149</xdr:colOff>
-      <xdr:row>406</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>407</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>247649</xdr:colOff>
-      <xdr:row>420</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>424</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4337,13 +5482,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>435</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1714500</xdr:colOff>
-      <xdr:row>449</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>450</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4375,8 +5520,8 @@
       <xdr:rowOff>533400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
@@ -4405,8 +5550,8 @@
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -4430,15 +5575,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>495300</xdr:rowOff>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4452,6 +5597,96 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Диаграмма 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>276226</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Диаграмма 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5135,10 +6370,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Лист1"/>
   <dimension ref="A3:AO434"/>
   <sheetViews>
-    <sheetView topLeftCell="A323" workbookViewId="0">
-      <selection activeCell="D218" sqref="D218"/>
+    <sheetView topLeftCell="A376" workbookViewId="0">
+      <selection activeCell="G433" sqref="G433:G434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5148,9 +6384,10 @@
     <col min="6" max="6" width="26.140625" customWidth="1"/>
     <col min="7" max="7" width="11.140625" customWidth="1"/>
     <col min="8" max="8" width="11.140625" hidden="1" customWidth="1"/>
-    <col min="9" max="10" width="13.85546875" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" customWidth="1"/>
-    <col min="12" max="13" width="9.140625" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" hidden="1" customWidth="1"/>
+    <col min="12" max="13" width="9.140625" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="11.7109375" customWidth="1"/>
     <col min="19" max="19" width="23.5703125" customWidth="1"/>
     <col min="20" max="20" width="25.85546875" customWidth="1"/>
@@ -5174,7 +6411,7 @@
         <v>4</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>5</v>
@@ -5195,7 +6432,7 @@
         <v>12</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>2</v>
@@ -5263,7 +6500,7 @@
         <v>160</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -5395,11 +6632,11 @@
         <v>17.100000000000001</v>
       </c>
       <c r="M5">
-        <f t="shared" ref="M5:M32" si="0">J5/L5</f>
+        <f t="shared" ref="M5:M10" si="0">J5/L5</f>
         <v>0.66081871345029242</v>
       </c>
       <c r="N5">
-        <f t="shared" ref="N5:N32" si="1">K5/L5</f>
+        <f t="shared" ref="N5:N10" si="1">K5/L5</f>
         <v>4.3918128654970756</v>
       </c>
       <c r="O5">
@@ -6857,7 +8094,7 @@
         <v>4</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>5</v>
@@ -6878,7 +8115,7 @@
         <v>12</v>
       </c>
       <c r="O38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="3:15">
@@ -6947,11 +8184,11 @@
         <v>17.100000000000001</v>
       </c>
       <c r="M40">
-        <f t="shared" ref="M40:M67" si="5">J40/L40</f>
+        <f t="shared" ref="M40:M45" si="5">J40/L40</f>
         <v>0.66081871345029242</v>
       </c>
       <c r="N40">
-        <f t="shared" ref="N40:N67" si="6">K40/L40</f>
+        <f t="shared" ref="N40:N45" si="6">K40/L40</f>
         <v>4.3918128654970756</v>
       </c>
       <c r="O40">
@@ -7573,7 +8810,7 @@
         <v>4</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>5</v>
@@ -7594,7 +8831,7 @@
         <v>12</v>
       </c>
       <c r="O72" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="73" spans="3:15">
@@ -7663,11 +8900,11 @@
         <v>17.100000000000001</v>
       </c>
       <c r="M74">
-        <f t="shared" ref="M74:M101" si="13">J74/L74</f>
+        <f t="shared" ref="M74:M79" si="13">J74/L74</f>
         <v>0.66081871345029242</v>
       </c>
       <c r="N74">
-        <f t="shared" ref="N74:N101" si="14">K74/L74</f>
+        <f t="shared" ref="N74:N79" si="14">K74/L74</f>
         <v>4.3918128654970756</v>
       </c>
       <c r="O74">
@@ -8290,7 +9527,7 @@
         <v>4</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I110" s="1" t="s">
         <v>5</v>
@@ -8311,7 +9548,7 @@
         <v>12</v>
       </c>
       <c r="O110" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="111" spans="1:15">
@@ -8383,11 +9620,11 @@
         <v>11.8</v>
       </c>
       <c r="M112">
-        <f t="shared" ref="M112:M139" si="16">J112/L112</f>
+        <f t="shared" ref="M112:M117" si="16">J112/L112</f>
         <v>0.9576271186440678</v>
       </c>
       <c r="N112">
-        <f t="shared" ref="N112:N139" si="17">K112/L112</f>
+        <f t="shared" ref="N112:N117" si="17">K112/L112</f>
         <v>6.3644067796610164</v>
       </c>
       <c r="O112">
@@ -9075,7 +10312,7 @@
         <v>4</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I146" s="1" t="s">
         <v>5</v>
@@ -9096,7 +10333,7 @@
         <v>12</v>
       </c>
       <c r="O146" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="147" spans="3:15">
@@ -9165,11 +10402,11 @@
         <v>12</v>
       </c>
       <c r="M148">
-        <f t="shared" ref="M148:M175" si="19">J148/L148</f>
+        <f t="shared" ref="M148:M153" si="19">J148/L148</f>
         <v>0.94166666666666676</v>
       </c>
       <c r="N148">
-        <f t="shared" ref="N148:N175" si="20">K148/L148</f>
+        <f t="shared" ref="N148:N153" si="20">K148/L148</f>
         <v>6.2583333333333329</v>
       </c>
       <c r="O148">
@@ -9794,7 +11031,7 @@
         <v>4</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I181" s="1" t="s">
         <v>5</v>
@@ -9815,7 +11052,7 @@
         <v>12</v>
       </c>
       <c r="O181" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="182" spans="3:15">
@@ -9884,11 +11121,11 @@
         <v>12.2</v>
       </c>
       <c r="M183">
-        <f t="shared" ref="M183:M210" si="22">J183/L183</f>
+        <f t="shared" ref="M183:M188" si="22">J183/L183</f>
         <v>0.92622950819672145</v>
       </c>
       <c r="N183">
-        <f t="shared" ref="N183:N210" si="23">K183/L183</f>
+        <f t="shared" ref="N183:N188" si="23">K183/L183</f>
         <v>6.1557377049180326</v>
       </c>
       <c r="O183">
@@ -10582,7 +11819,7 @@
         <v>4</v>
       </c>
       <c r="H219" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I219" s="1" t="s">
         <v>5</v>
@@ -10603,7 +11840,7 @@
         <v>12</v>
       </c>
       <c r="O219" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="220" spans="3:15">
@@ -10672,11 +11909,11 @@
         <v>4.28</v>
       </c>
       <c r="M221">
-        <f t="shared" ref="M221:M248" si="25">J221/L221</f>
+        <f t="shared" ref="M221:M226" si="25">J221/L221</f>
         <v>2.6401869158878504</v>
       </c>
       <c r="N221">
-        <f t="shared" ref="N221:N248" si="26">K221/L221</f>
+        <f t="shared" ref="N221:N226" si="26">K221/L221</f>
         <v>17.546728971962615</v>
       </c>
       <c r="O221">
@@ -11364,7 +12601,7 @@
         <v>4</v>
       </c>
       <c r="H255" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I255" s="1" t="s">
         <v>5</v>
@@ -11385,7 +12622,7 @@
         <v>12</v>
       </c>
       <c r="O255" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="256" spans="3:15">
@@ -11454,11 +12691,11 @@
         <v>4.26</v>
       </c>
       <c r="M257">
-        <f t="shared" ref="M257:M284" si="28">J257/L257</f>
+        <f t="shared" ref="M257:M262" si="28">J257/L257</f>
         <v>2.6525821596244135</v>
       </c>
       <c r="N257">
-        <f t="shared" ref="N257:N284" si="29">K257/L257</f>
+        <f t="shared" ref="N257:N262" si="29">K257/L257</f>
         <v>17.629107981220656</v>
       </c>
       <c r="O257">
@@ -12149,7 +13386,7 @@
         <v>4</v>
       </c>
       <c r="H290" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I290" s="1" t="s">
         <v>5</v>
@@ -12170,7 +13407,7 @@
         <v>12</v>
       </c>
       <c r="O290" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="291" spans="3:15">
@@ -12239,11 +13476,11 @@
         <v>4.2699999999999996</v>
       </c>
       <c r="M292">
-        <f t="shared" ref="M292:M319" si="31">J292/L292</f>
+        <f t="shared" ref="M292:M297" si="31">J292/L292</f>
         <v>2.646370023419204</v>
       </c>
       <c r="N292">
-        <f t="shared" ref="N292:N319" si="32">K292/L292</f>
+        <f t="shared" ref="N292:N297" si="32">K292/L292</f>
         <v>17.587822014051522</v>
       </c>
       <c r="O292">
@@ -12931,7 +14168,7 @@
         <v>4</v>
       </c>
       <c r="H328" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I328" s="1" t="s">
         <v>5</v>
@@ -12952,7 +14189,7 @@
         <v>12</v>
       </c>
       <c r="O328" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S328" s="1" t="s">
         <v>2</v>
@@ -13089,11 +14326,11 @@
         <v>16</v>
       </c>
       <c r="M330">
-        <f t="shared" ref="M330:M338" si="34">J330/L330</f>
+        <f t="shared" ref="M330:M335" si="34">J330/L330</f>
         <v>0.70625000000000004</v>
       </c>
       <c r="N330">
-        <f t="shared" ref="N330:N338" si="35">K330/L330</f>
+        <f t="shared" ref="N330:N335" si="35">K330/L330</f>
         <v>4.6937499999999996</v>
       </c>
       <c r="O330">
@@ -14463,7 +15700,7 @@
         <v>4</v>
       </c>
       <c r="H361" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I361" s="1" t="s">
         <v>5</v>
@@ -14484,7 +15721,7 @@
         <v>12</v>
       </c>
       <c r="O361" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P361">
         <v>0.97996000000000005</v>
@@ -14528,7 +15765,7 @@
         <v>1</v>
       </c>
       <c r="D362" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E362">
         <v>4</v>
@@ -14540,10 +15777,7 @@
         <v>120.67</v>
       </c>
       <c r="I362">
-        <v>1.7</v>
-      </c>
-      <c r="J362">
-        <v>5.0599999999999996</v>
+        <v>1.71</v>
       </c>
       <c r="K362">
         <v>75</v>
@@ -14553,7 +15787,7 @@
       </c>
       <c r="M362">
         <f>J362/L362</f>
-        <v>0.29764705882352938</v>
+        <v>0</v>
       </c>
       <c r="N362">
         <f>K362/L362</f>
@@ -14611,9 +15845,6 @@
       <c r="I363">
         <v>1.65</v>
       </c>
-      <c r="J363">
-        <v>11.3</v>
-      </c>
       <c r="K363">
         <v>75.099999999999994</v>
       </c>
@@ -14622,7 +15853,7 @@
       </c>
       <c r="M363">
         <f t="shared" ref="M363:M374" si="39">J363/L363</f>
-        <v>0.66470588235294126</v>
+        <v>0</v>
       </c>
       <c r="N363">
         <f t="shared" ref="N363:N379" si="40">K363/L363</f>
@@ -14677,9 +15908,6 @@
       <c r="I364">
         <v>1.72</v>
       </c>
-      <c r="J364">
-        <v>12.1</v>
-      </c>
       <c r="K364">
         <v>75.099999999999994</v>
       </c>
@@ -14688,7 +15916,7 @@
       </c>
       <c r="M364">
         <f t="shared" si="39"/>
-        <v>0.71176470588235297</v>
+        <v>0</v>
       </c>
       <c r="N364">
         <f t="shared" si="40"/>
@@ -14747,9 +15975,6 @@
       <c r="I365">
         <v>1.72</v>
       </c>
-      <c r="J365">
-        <v>12.1</v>
-      </c>
       <c r="K365">
         <v>75.099999999999994</v>
       </c>
@@ -14758,7 +15983,7 @@
       </c>
       <c r="M365">
         <f t="shared" si="39"/>
-        <v>0.70348837209302328</v>
+        <v>0</v>
       </c>
       <c r="N365">
         <f t="shared" si="40"/>
@@ -14785,9 +16010,6 @@
       <c r="I366">
         <v>1.67</v>
       </c>
-      <c r="J366">
-        <v>11.9</v>
-      </c>
       <c r="K366">
         <v>75.099999999999994</v>
       </c>
@@ -14796,7 +16018,7 @@
       </c>
       <c r="M366">
         <f t="shared" si="39"/>
-        <v>0.70000000000000007</v>
+        <v>0</v>
       </c>
       <c r="N366">
         <f t="shared" si="40"/>
@@ -14855,9 +16077,6 @@
       <c r="I367">
         <v>1.68</v>
       </c>
-      <c r="J367">
-        <v>12.4</v>
-      </c>
       <c r="K367">
         <v>75.099999999999994</v>
       </c>
@@ -14866,7 +16085,7 @@
       </c>
       <c r="M367">
         <f t="shared" si="39"/>
-        <v>0.72941176470588243</v>
+        <v>0</v>
       </c>
       <c r="N367">
         <f t="shared" si="40"/>
@@ -14922,9 +16141,6 @@
       <c r="I368">
         <v>1.78</v>
       </c>
-      <c r="J368">
-        <v>11.8</v>
-      </c>
       <c r="K368">
         <v>75.099999999999994</v>
       </c>
@@ -14933,7 +16149,7 @@
       </c>
       <c r="M368">
         <f t="shared" si="39"/>
-        <v>0.69411764705882362</v>
+        <v>0</v>
       </c>
       <c r="N368">
         <f t="shared" si="40"/>
@@ -14988,9 +16204,6 @@
       <c r="I369">
         <v>1.68</v>
       </c>
-      <c r="J369">
-        <v>13.3</v>
-      </c>
       <c r="K369">
         <v>75.099999999999994</v>
       </c>
@@ -14999,7 +16212,7 @@
       </c>
       <c r="M369">
         <f t="shared" si="39"/>
-        <v>0.78235294117647058</v>
+        <v>0</v>
       </c>
       <c r="N369">
         <f t="shared" si="40"/>
@@ -15043,10 +16256,10 @@
     </row>
     <row r="370" spans="2:29">
       <c r="B370" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D370" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T370">
         <v>8</v>
@@ -15972,53 +17185,71 @@
         <v>26</v>
       </c>
       <c r="E402" s="4" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="F402" s="4" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
     </row>
     <row r="403" spans="3:6" ht="15.75">
-      <c r="C403" s="4" t="s">
-        <v>23</v>
+      <c r="C403" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="D403" s="3">
-        <v>16.87</v>
+        <v>9.2100000000000009</v>
       </c>
       <c r="E403" s="3">
-        <v>7.87</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="F403" s="3">
-        <v>9.49</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="404" spans="3:6" ht="15.75">
-      <c r="C404" s="4" t="s">
-        <v>25</v>
+      <c r="C404" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="D404" s="3">
-        <v>29.92</v>
+        <v>45.08</v>
       </c>
       <c r="E404" s="3">
-        <v>14.62</v>
+        <v>16.84</v>
       </c>
       <c r="F404" s="3">
-        <v>12.46</v>
+        <v>15.86</v>
       </c>
     </row>
     <row r="405" spans="3:6" ht="15.75">
-      <c r="C405" s="4" t="s">
-        <v>24</v>
+      <c r="C405" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="D405" s="3">
-        <v>145.25</v>
+        <v>35.72</v>
       </c>
       <c r="E405" s="3">
-        <v>52.86</v>
+        <v>15.75</v>
       </c>
       <c r="F405" s="3">
-        <v>75.209999999999994</v>
-      </c>
+        <v>13.43</v>
+      </c>
+    </row>
+    <row r="406" spans="3:6" ht="15.75">
+      <c r="C406" s="3"/>
+      <c r="D406" s="11"/>
+      <c r="E406" s="11"/>
+      <c r="F406" s="11"/>
+    </row>
+    <row r="407" spans="3:6" ht="15.75">
+      <c r="C407" s="3"/>
+      <c r="D407" s="11"/>
+      <c r="E407" s="11"/>
+      <c r="F407" s="11"/>
+    </row>
+    <row r="408" spans="3:6" ht="15.75">
+      <c r="C408" s="3"/>
+      <c r="D408" s="11"/>
+      <c r="E408" s="11"/>
+      <c r="F408" s="11"/>
     </row>
     <row r="428" spans="2:7" s="2" customFormat="1"/>
     <row r="431" spans="2:7">
@@ -16026,53 +17257,53 @@
         <v>43</v>
       </c>
     </row>
-    <row r="432" spans="2:7">
-      <c r="D432" t="s">
-        <v>24</v>
-      </c>
-      <c r="E432" t="s">
-        <v>44</v>
-      </c>
-      <c r="F432" t="s">
-        <v>46</v>
-      </c>
-      <c r="G432" t="s">
+    <row r="432" spans="2:7" ht="15.75">
+      <c r="D432" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E432" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F432" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G432" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="433" spans="3:8" ht="15.75">
-      <c r="C433" t="s">
-        <v>47</v>
+      <c r="C433" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="D433" s="3">
-        <v>145.25</v>
+        <v>2.95</v>
       </c>
       <c r="E433" s="3">
-        <v>75.209999999999994</v>
-      </c>
-      <c r="F433" s="11">
-        <v>83.26</v>
+        <v>45.08</v>
+      </c>
+      <c r="F433" s="3">
+        <v>15.86</v>
       </c>
       <c r="G433" s="3">
-        <v>12.46</v>
+        <v>35.86</v>
       </c>
       <c r="H433" s="3"/>
     </row>
     <row r="434" spans="3:8" ht="15.75">
-      <c r="C434" t="s">
-        <v>29</v>
-      </c>
-      <c r="D434" s="3">
-        <v>72.3</v>
-      </c>
-      <c r="E434" s="3">
-        <v>52.24</v>
+      <c r="C434" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D434" s="11">
+        <v>0.97729100000000002</v>
+      </c>
+      <c r="E434" s="11">
+        <v>0.97934299999999996</v>
       </c>
       <c r="F434" s="11">
-        <v>56.59</v>
+        <v>0.98049399999999998</v>
       </c>
       <c r="G434" s="3">
-        <v>46.59</v>
+        <v>0.97767999999999999</v>
       </c>
       <c r="H434" s="3"/>
     </row>
@@ -16085,20 +17316,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:R45"/>
+  <sheetPr codeName="Лист2"/>
+  <dimension ref="B3:AT45"/>
   <sheetViews>
-    <sheetView topLeftCell="N34" workbookViewId="0">
-      <selection activeCell="R36" sqref="R36:R45"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AE11" sqref="AE11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="3" spans="2:18">
+    <row r="3" spans="2:46">
       <c r="B3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="2:18" ht="60">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="2:46" ht="60">
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
@@ -16127,7 +17359,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>2</v>
@@ -16135,14 +17367,24 @@
       <c r="P4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="1" t="s">
-        <v>4</v>
+      <c r="Q4" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="2:18">
+        <v>60</v>
+      </c>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD4" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="2:46" ht="15.75">
       <c r="C5" t="s">
         <v>23</v>
       </c>
@@ -16174,8 +17416,8 @@
       <c r="L5">
         <v>0.98257000000000005</v>
       </c>
-      <c r="O5" t="s">
-        <v>23</v>
+      <c r="O5" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="P5" t="s">
         <v>6</v>
@@ -16186,8 +17428,20 @@
       <c r="R5">
         <v>0.98257000000000005</v>
       </c>
-    </row>
-    <row r="6" spans="2:18">
+      <c r="AA5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB5">
+        <v>68.42</v>
+      </c>
+      <c r="AC5">
+        <v>33.32</v>
+      </c>
+      <c r="AD5">
+        <v>18.02</v>
+      </c>
+    </row>
+    <row r="6" spans="2:46" ht="15.75">
       <c r="C6" t="s">
         <v>23</v>
       </c>
@@ -16219,10 +17473,10 @@
       <c r="L6">
         <v>0.98936000000000002</v>
       </c>
-      <c r="O6" t="s">
-        <v>23</v>
-      </c>
-      <c r="P6" t="s">
+      <c r="O6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="P6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="Q6">
@@ -16231,8 +17485,20 @@
       <c r="R6">
         <v>0.98936000000000002</v>
       </c>
-    </row>
-    <row r="7" spans="2:18">
+      <c r="AA6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB6">
+        <v>506.02</v>
+      </c>
+      <c r="AC6">
+        <v>189.61</v>
+      </c>
+      <c r="AD6">
+        <v>152.18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:46" ht="15.75">
       <c r="C7" t="s">
         <v>23</v>
       </c>
@@ -16264,10 +17530,10 @@
       <c r="L7">
         <v>0.98936999999999997</v>
       </c>
-      <c r="O7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P7" t="s">
+      <c r="O7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="P7" s="3" t="s">
         <v>16</v>
       </c>
       <c r="Q7">
@@ -16276,8 +17542,20 @@
       <c r="R7">
         <v>0.98936999999999997</v>
       </c>
-    </row>
-    <row r="8" spans="2:18">
+      <c r="AA7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB7">
+        <v>361.05</v>
+      </c>
+      <c r="AC7">
+        <v>127.12</v>
+      </c>
+      <c r="AD7">
+        <v>109.15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:46" ht="15.75">
       <c r="C8" t="s">
         <v>24</v>
       </c>
@@ -16309,8 +17587,8 @@
       <c r="L8">
         <v>0.98001000000000005</v>
       </c>
-      <c r="O8" t="s">
-        <v>24</v>
+      <c r="O8" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="P8" t="s">
         <v>6</v>
@@ -16321,8 +17599,14 @@
       <c r="R8">
         <v>0.98001000000000005</v>
       </c>
-    </row>
-    <row r="9" spans="2:18">
+      <c r="AA8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB8">
+        <v>399.98</v>
+      </c>
+    </row>
+    <row r="9" spans="2:46" ht="15.75">
       <c r="C9" t="s">
         <v>24</v>
       </c>
@@ -16354,10 +17638,10 @@
       <c r="L9">
         <v>0.98660999999999999</v>
       </c>
-      <c r="O9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P9" t="s">
+      <c r="O9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="P9" s="3" t="s">
         <v>15</v>
       </c>
       <c r="Q9">
@@ -16367,7 +17651,7 @@
         <v>0.98660999999999999</v>
       </c>
     </row>
-    <row r="10" spans="2:18">
+    <row r="10" spans="2:46" ht="15.75">
       <c r="C10" t="s">
         <v>24</v>
       </c>
@@ -16399,10 +17683,10 @@
       <c r="L10">
         <v>0.98690999999999995</v>
       </c>
-      <c r="O10" t="s">
-        <v>24</v>
-      </c>
-      <c r="P10" t="s">
+      <c r="O10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="P10" s="3" t="s">
         <v>16</v>
       </c>
       <c r="Q10">
@@ -16411,8 +17695,11 @@
       <c r="R10">
         <v>0.98690999999999995</v>
       </c>
-    </row>
-    <row r="11" spans="2:18">
+      <c r="AT10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="2:46" ht="15.75">
       <c r="C11" t="s">
         <v>25</v>
       </c>
@@ -16444,8 +17731,8 @@
       <c r="L11">
         <v>0.98221999999999998</v>
       </c>
-      <c r="O11" t="s">
-        <v>25</v>
+      <c r="O11" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="P11" t="s">
         <v>6</v>
@@ -16457,7 +17744,7 @@
         <v>0.98221999999999998</v>
       </c>
     </row>
-    <row r="12" spans="2:18">
+    <row r="12" spans="2:46" ht="15.75">
       <c r="C12" t="s">
         <v>25</v>
       </c>
@@ -16489,10 +17776,10 @@
       <c r="L12">
         <v>0.97945000000000004</v>
       </c>
-      <c r="O12" t="s">
-        <v>25</v>
-      </c>
-      <c r="P12" t="s">
+      <c r="O12" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P12" s="3" t="s">
         <v>15</v>
       </c>
       <c r="Q12">
@@ -16502,7 +17789,7 @@
         <v>0.97945000000000004</v>
       </c>
     </row>
-    <row r="13" spans="2:18">
+    <row r="13" spans="2:46" ht="15.75">
       <c r="C13" t="s">
         <v>25</v>
       </c>
@@ -16534,10 +17821,10 @@
       <c r="L13">
         <v>0.97941</v>
       </c>
-      <c r="O13" t="s">
-        <v>25</v>
-      </c>
-      <c r="P13" t="s">
+      <c r="O13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="3" t="s">
         <v>16</v>
       </c>
       <c r="Q13">
@@ -16547,9 +17834,9 @@
         <v>0.97941</v>
       </c>
     </row>
-    <row r="14" spans="2:18">
+    <row r="14" spans="2:46" ht="15.75">
       <c r="C14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
         <v>6</v>
@@ -16579,8 +17866,8 @@
       <c r="L14">
         <v>0.98734</v>
       </c>
-      <c r="O14" t="s">
-        <v>54</v>
+      <c r="O14" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="P14" t="s">
         <v>6</v>
@@ -16592,12 +17879,12 @@
         <v>0.98734</v>
       </c>
     </row>
-    <row r="18" spans="2:18">
+    <row r="18" spans="2:30">
       <c r="B18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="2:18" ht="60">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="2:30" ht="60">
       <c r="C19" s="1" t="s">
         <v>2</v>
       </c>
@@ -16626,7 +17913,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O19" s="1" t="s">
         <v>2</v>
@@ -16634,14 +17921,24 @@
       <c r="P19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Q19" s="1" t="s">
-        <v>4</v>
+      <c r="Q19" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="2:18">
+        <v>60</v>
+      </c>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC19" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD19" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="2:30" ht="15.75">
       <c r="C20" t="s">
         <v>23</v>
       </c>
@@ -16673,20 +17970,32 @@
       <c r="L20">
         <v>0.9807742857142856</v>
       </c>
-      <c r="O20" t="s">
-        <v>23</v>
-      </c>
-      <c r="P20" t="s">
+      <c r="O20" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="P20" s="3" t="s">
         <v>6</v>
       </c>
       <c r="Q20">
-        <v>9.2028571428571446</v>
+        <v>9.2028571428571393</v>
       </c>
       <c r="R20">
         <v>0.9807742857142856</v>
       </c>
-    </row>
-    <row r="21" spans="2:18" ht="15.75">
+      <c r="AA20" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB20">
+        <v>9.2028571428571393</v>
+      </c>
+      <c r="AC20">
+        <v>4.0571428571428596</v>
+      </c>
+      <c r="AD20">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="21" spans="2:30" ht="15.75">
       <c r="C21" t="s">
         <v>23</v>
       </c>
@@ -16718,20 +18027,32 @@
       <c r="L21" s="3">
         <v>0.97650857142857128</v>
       </c>
-      <c r="O21" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" t="s">
+      <c r="O21" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="P21" s="3" t="s">
         <v>15</v>
       </c>
       <c r="Q21">
-        <v>4.0571428571428578</v>
+        <v>4.0571428571428596</v>
       </c>
       <c r="R21" s="3">
         <v>0.97650857142857128</v>
       </c>
-    </row>
-    <row r="22" spans="2:18" ht="15.75">
+      <c r="AA21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB21">
+        <v>45.081666666666671</v>
+      </c>
+      <c r="AC21">
+        <v>16.838571428571427</v>
+      </c>
+      <c r="AD21">
+        <v>15.864285714285716</v>
+      </c>
+    </row>
+    <row r="22" spans="2:30" ht="15.75">
       <c r="C22" t="s">
         <v>23</v>
       </c>
@@ -16763,20 +18084,32 @@
       <c r="L22" s="3">
         <v>0.97729142857142848</v>
       </c>
-      <c r="O22" t="s">
-        <v>23</v>
-      </c>
-      <c r="P22" t="s">
+      <c r="O22" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="P22" s="3" t="s">
         <v>16</v>
       </c>
       <c r="Q22">
-        <v>2.9499999999999997</v>
+        <v>2.95</v>
       </c>
       <c r="R22" s="3">
         <v>0.97729142857142848</v>
       </c>
-    </row>
-    <row r="23" spans="2:18" ht="15.75">
+      <c r="AA22" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB22">
+        <v>35.724285714285713</v>
+      </c>
+      <c r="AC22">
+        <v>15.751428571428571</v>
+      </c>
+      <c r="AD22">
+        <v>15.751428571428571</v>
+      </c>
+    </row>
+    <row r="23" spans="2:30" ht="15.75">
       <c r="C23" t="s">
         <v>24</v>
       </c>
@@ -16808,8 +18141,8 @@
       <c r="L23" s="3">
         <v>0.97934333333333334</v>
       </c>
-      <c r="O23" t="s">
-        <v>24</v>
+      <c r="O23" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="P23" t="s">
         <v>6</v>
@@ -16820,8 +18153,14 @@
       <c r="R23" s="3">
         <v>0.97934333333333334</v>
       </c>
-    </row>
-    <row r="24" spans="2:18" ht="15.75">
+      <c r="AA23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>35.86</v>
+      </c>
+    </row>
+    <row r="24" spans="2:30" ht="15.75">
       <c r="C24" t="s">
         <v>24</v>
       </c>
@@ -16853,10 +18192,10 @@
       <c r="L24" s="3">
         <v>0.97966000000000009</v>
       </c>
-      <c r="O24" t="s">
-        <v>24</v>
-      </c>
-      <c r="P24" t="s">
+      <c r="O24" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="P24" s="3" t="s">
         <v>15</v>
       </c>
       <c r="Q24">
@@ -16866,7 +18205,7 @@
         <v>0.97966000000000009</v>
       </c>
     </row>
-    <row r="25" spans="2:18" ht="15.75">
+    <row r="25" spans="2:30" ht="15.75">
       <c r="C25" t="s">
         <v>24</v>
       </c>
@@ -16898,10 +18237,10 @@
       <c r="L25" s="3">
         <v>0.98049428571428565</v>
       </c>
-      <c r="O25" t="s">
-        <v>24</v>
-      </c>
-      <c r="P25" t="s">
+      <c r="O25" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="P25" s="3" t="s">
         <v>16</v>
       </c>
       <c r="Q25">
@@ -16911,7 +18250,7 @@
         <v>0.98049428571428565</v>
       </c>
     </row>
-    <row r="26" spans="2:18" ht="15.75">
+    <row r="26" spans="2:30" ht="15.75">
       <c r="C26" t="s">
         <v>25</v>
       </c>
@@ -16943,8 +18282,8 @@
       <c r="L26" s="3">
         <v>0.97224142857142859</v>
       </c>
-      <c r="O26" t="s">
-        <v>25</v>
+      <c r="O26" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="P26" t="s">
         <v>6</v>
@@ -16956,7 +18295,7 @@
         <v>0.97224142857142859</v>
       </c>
     </row>
-    <row r="27" spans="2:18" ht="15.75">
+    <row r="27" spans="2:30" ht="15.75">
       <c r="C27" t="s">
         <v>25</v>
       </c>
@@ -16988,10 +18327,10 @@
       <c r="L27" s="3">
         <v>0.96771285714285715</v>
       </c>
-      <c r="O27" t="s">
-        <v>25</v>
-      </c>
-      <c r="P27" t="s">
+      <c r="O27" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P27" s="3" t="s">
         <v>15</v>
       </c>
       <c r="Q27">
@@ -17001,7 +18340,7 @@
         <v>0.96771285714285715</v>
       </c>
     </row>
-    <row r="28" spans="2:18" ht="15.75">
+    <row r="28" spans="2:30" ht="15.75">
       <c r="C28" t="s">
         <v>25</v>
       </c>
@@ -17033,10 +18372,10 @@
       <c r="L28" s="3">
         <v>0.96771285714285715</v>
       </c>
-      <c r="O28" t="s">
-        <v>25</v>
-      </c>
-      <c r="P28" t="s">
+      <c r="O28" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P28" s="3" t="s">
         <v>16</v>
       </c>
       <c r="Q28">
@@ -17046,9 +18385,9 @@
         <v>0.96771285714285715</v>
       </c>
     </row>
-    <row r="29" spans="2:18">
+    <row r="29" spans="2:30" ht="15.75">
       <c r="C29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D29" t="s">
         <v>6</v>
@@ -17059,8 +18398,8 @@
       <c r="F29">
         <v>300</v>
       </c>
-      <c r="G29">
-        <v>61.947142857142858</v>
+      <c r="G29" s="3">
+        <v>35.86</v>
       </c>
       <c r="H29">
         <v>1.72</v>
@@ -17075,28 +18414,28 @@
         <f t="shared" si="1"/>
         <v>4.6791443850267376</v>
       </c>
-      <c r="L29">
-        <v>0.97703714285714294</v>
-      </c>
-      <c r="O29" t="s">
-        <v>54</v>
+      <c r="L29" s="3">
+        <v>0.97767999999999999</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="P29" t="s">
         <v>6</v>
       </c>
-      <c r="Q29">
-        <v>61.947142857142858</v>
-      </c>
-      <c r="R29">
-        <v>0.97703714285714294</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18">
+      <c r="Q29" s="3">
+        <v>35.86</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0.97767999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30">
       <c r="B34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="2:18" ht="60">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" ht="60">
       <c r="C35" s="1" t="s">
         <v>2</v>
       </c>
@@ -17125,7 +18464,7 @@
         <v>12</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O35" s="1" t="s">
         <v>2</v>
@@ -17133,14 +18472,24 @@
       <c r="P35" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Q35" s="1" t="s">
-        <v>4</v>
+      <c r="Q35" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="2:18">
+        <v>60</v>
+      </c>
+      <c r="AA35" s="4"/>
+      <c r="AB35" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC35" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD35" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="2:30" ht="15.75">
       <c r="C36" t="s">
         <v>23</v>
       </c>
@@ -17172,8 +18521,8 @@
       <c r="L36">
         <v>0.99041999999999997</v>
       </c>
-      <c r="O36" t="s">
-        <v>23</v>
+      <c r="O36" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="P36" t="s">
         <v>6</v>
@@ -17184,8 +18533,20 @@
       <c r="R36">
         <v>0.99041999999999997</v>
       </c>
-    </row>
-    <row r="37" spans="2:18">
+      <c r="AA36" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB36">
+        <v>7.71</v>
+      </c>
+      <c r="AC36">
+        <v>5.81</v>
+      </c>
+      <c r="AD36">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" ht="15.75">
       <c r="C37" t="s">
         <v>23</v>
       </c>
@@ -17217,10 +18578,10 @@
       <c r="L37">
         <v>0.98321000000000003</v>
       </c>
-      <c r="O37" t="s">
-        <v>23</v>
-      </c>
-      <c r="P37" t="s">
+      <c r="O37" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="P37" s="3" t="s">
         <v>15</v>
       </c>
       <c r="Q37">
@@ -17229,8 +18590,20 @@
       <c r="R37">
         <v>0.98321000000000003</v>
       </c>
-    </row>
-    <row r="38" spans="2:18">
+      <c r="AA37" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB37">
+        <v>142.16999999999999</v>
+      </c>
+      <c r="AC37">
+        <v>25.87</v>
+      </c>
+      <c r="AD37">
+        <v>24.69</v>
+      </c>
+    </row>
+    <row r="38" spans="2:30" ht="15.75">
       <c r="C38" t="s">
         <v>23</v>
       </c>
@@ -17262,10 +18635,10 @@
       <c r="L38">
         <v>0.99063000000000001</v>
       </c>
-      <c r="O38" t="s">
-        <v>23</v>
-      </c>
-      <c r="P38" t="s">
+      <c r="O38" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="P38" s="3" t="s">
         <v>16</v>
       </c>
       <c r="Q38">
@@ -17274,8 +18647,20 @@
       <c r="R38">
         <v>0.99063000000000001</v>
       </c>
-    </row>
-    <row r="39" spans="2:18">
+      <c r="AA38" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB38">
+        <v>31.34</v>
+      </c>
+      <c r="AC38">
+        <v>8.67</v>
+      </c>
+      <c r="AD38">
+        <v>5.28</v>
+      </c>
+    </row>
+    <row r="39" spans="2:30" ht="15.75">
       <c r="C39" t="s">
         <v>24</v>
       </c>
@@ -17307,8 +18692,8 @@
       <c r="L39">
         <v>0.98436000000000001</v>
       </c>
-      <c r="O39" t="s">
-        <v>24</v>
+      <c r="O39" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="P39" t="s">
         <v>6</v>
@@ -17319,8 +18704,14 @@
       <c r="R39">
         <v>0.98436000000000001</v>
       </c>
-    </row>
-    <row r="40" spans="2:18">
+      <c r="AA39" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB39">
+        <v>47.42</v>
+      </c>
+    </row>
+    <row r="40" spans="2:30" ht="15.75">
       <c r="C40" t="s">
         <v>24</v>
       </c>
@@ -17352,10 +18743,10 @@
       <c r="L40">
         <v>0.96865000000000001</v>
       </c>
-      <c r="O40" t="s">
-        <v>24</v>
-      </c>
-      <c r="P40" t="s">
+      <c r="O40" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="P40" s="3" t="s">
         <v>15</v>
       </c>
       <c r="Q40">
@@ -17365,7 +18756,7 @@
         <v>0.96865000000000001</v>
       </c>
     </row>
-    <row r="41" spans="2:18">
+    <row r="41" spans="2:30" ht="15.75">
       <c r="C41" t="s">
         <v>24</v>
       </c>
@@ -17397,10 +18788,10 @@
       <c r="L41">
         <v>0.97109000000000001</v>
       </c>
-      <c r="O41" t="s">
-        <v>24</v>
-      </c>
-      <c r="P41" t="s">
+      <c r="O41" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="P41" s="3" t="s">
         <v>16</v>
       </c>
       <c r="Q41">
@@ -17410,7 +18801,7 @@
         <v>0.97109000000000001</v>
       </c>
     </row>
-    <row r="42" spans="2:18">
+    <row r="42" spans="2:30" ht="15.75">
       <c r="C42" t="s">
         <v>25</v>
       </c>
@@ -17442,8 +18833,8 @@
       <c r="L42">
         <v>0.98053999999999997</v>
       </c>
-      <c r="O42" t="s">
-        <v>25</v>
+      <c r="O42" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="P42" t="s">
         <v>6</v>
@@ -17455,7 +18846,7 @@
         <v>0.98053999999999997</v>
       </c>
     </row>
-    <row r="43" spans="2:18">
+    <row r="43" spans="2:30" ht="15.75">
       <c r="C43" t="s">
         <v>25</v>
       </c>
@@ -17487,10 +18878,10 @@
       <c r="L43">
         <v>0.97648000000000001</v>
       </c>
-      <c r="O43" t="s">
-        <v>25</v>
-      </c>
-      <c r="P43" t="s">
+      <c r="O43" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P43" s="3" t="s">
         <v>15</v>
       </c>
       <c r="Q43">
@@ -17500,7 +18891,7 @@
         <v>0.97648000000000001</v>
       </c>
     </row>
-    <row r="44" spans="2:18">
+    <row r="44" spans="2:30" ht="15.75">
       <c r="C44" t="s">
         <v>25</v>
       </c>
@@ -17532,10 +18923,10 @@
       <c r="L44">
         <v>0.97597</v>
       </c>
-      <c r="O44" t="s">
-        <v>25</v>
-      </c>
-      <c r="P44" t="s">
+      <c r="O44" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P44" s="3" t="s">
         <v>16</v>
       </c>
       <c r="Q44">
@@ -17545,9 +18936,9 @@
         <v>0.97597</v>
       </c>
     </row>
-    <row r="45" spans="2:18">
+    <row r="45" spans="2:30" ht="15.75">
       <c r="C45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D45" t="s">
         <v>6</v>
@@ -17577,8 +18968,8 @@
       <c r="L45">
         <v>0.98702000000000001</v>
       </c>
-      <c r="O45" t="s">
-        <v>54</v>
+      <c r="O45" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="P45" t="s">
         <v>6</v>
@@ -17599,6 +18990,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Лист3"/>
   <dimension ref="A3:N460"/>
   <sheetViews>
     <sheetView topLeftCell="B218" workbookViewId="0">
@@ -17647,7 +19039,7 @@
         <v>12</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -17655,7 +19047,7 @@
         <v>160</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -17692,7 +19084,7 @@
         <f>J4/K4</f>
         <v>4.3918128654970756</v>
       </c>
-      <c r="N4" s="22">
+      <c r="N4" s="19">
         <v>0.98339707124478604</v>
       </c>
     </row>
@@ -17722,14 +19114,14 @@
         <v>17.3</v>
       </c>
       <c r="L5">
-        <f t="shared" ref="L5:L13" si="0">I5/K5</f>
+        <f t="shared" ref="L5:L10" si="0">I5/K5</f>
         <v>0.33930635838150286</v>
       </c>
       <c r="M5">
-        <f t="shared" ref="M5:M13" si="1">J5/K5</f>
+        <f t="shared" ref="M5:M10" si="1">J5/K5</f>
         <v>4.3410404624277454</v>
       </c>
-      <c r="N5" s="22">
+      <c r="N5" s="19">
         <v>0.99937400055257097</v>
       </c>
     </row>
@@ -17766,7 +19158,7 @@
         <f t="shared" si="1"/>
         <v>4.3410404624277454</v>
       </c>
-      <c r="N6" s="22">
+      <c r="N6" s="19">
         <v>0.96077000000000001</v>
       </c>
     </row>
@@ -17803,7 +19195,7 @@
         <f t="shared" si="1"/>
         <v>4.3410404624277454</v>
       </c>
-      <c r="N7" s="22">
+      <c r="N7" s="19">
         <v>0.99160948970301899</v>
       </c>
     </row>
@@ -17840,7 +19232,7 @@
         <f t="shared" si="1"/>
         <v>4.443786982248521</v>
       </c>
-      <c r="N8" s="22">
+      <c r="N8" s="19">
         <v>0.99778</v>
       </c>
     </row>
@@ -17877,7 +19269,7 @@
         <f t="shared" si="1"/>
         <v>4.3410404624277454</v>
       </c>
-      <c r="N9" s="22">
+      <c r="N9" s="19">
         <v>0.99755122823296305</v>
       </c>
     </row>
@@ -17914,7 +19306,7 @@
         <f t="shared" si="1"/>
         <v>4.443786982248521</v>
       </c>
-      <c r="N10" s="22">
+      <c r="N10" s="19">
         <v>0.99490160989667797</v>
       </c>
     </row>
@@ -18230,7 +19622,7 @@
         <v>12</v>
       </c>
       <c r="N38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="3:14">
@@ -18265,7 +19657,7 @@
         <f>I39/K39</f>
         <v>0.3394117647058823</v>
       </c>
-      <c r="M39" s="22">
+      <c r="M39" s="19">
         <f>J39/K39</f>
         <v>4.4176470588235288</v>
       </c>
@@ -18299,7 +19691,7 @@
         <v>17.3</v>
       </c>
       <c r="M40">
-        <f t="shared" ref="M40:M48" si="3">J40/K40</f>
+        <f t="shared" ref="M40:M45" si="3">J40/K40</f>
         <v>4.3410404624277454</v>
       </c>
       <c r="N40">
@@ -18783,7 +20175,7 @@
         <v>12</v>
       </c>
       <c r="N73" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="74" spans="3:14">
@@ -18852,7 +20244,7 @@
         <v>17.3</v>
       </c>
       <c r="M75">
-        <f t="shared" ref="M75:M83" si="5">J75/K75</f>
+        <f t="shared" ref="M75:M80" si="5">J75/K75</f>
         <v>4.3410404624277454</v>
       </c>
       <c r="N75">
@@ -19337,7 +20729,7 @@
         <v>12</v>
       </c>
       <c r="N113" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="114" spans="2:14">
@@ -19911,7 +21303,7 @@
         <v>12</v>
       </c>
       <c r="N148" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="149" spans="3:14">
@@ -20482,7 +21874,7 @@
         <v>12</v>
       </c>
       <c r="N184" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="185" spans="2:14">
@@ -21062,7 +22454,7 @@
         <v>12</v>
       </c>
       <c r="N223" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="224" spans="3:14">
@@ -21633,7 +23025,7 @@
         <v>12</v>
       </c>
       <c r="N258" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="259" spans="3:14">
@@ -22204,7 +23596,7 @@
         <v>12</v>
       </c>
       <c r="N294" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="295" spans="3:14">
@@ -22775,7 +24167,7 @@
         <v>12</v>
       </c>
       <c r="N334" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="335" spans="3:14">
@@ -23150,7 +24542,7 @@
     <row r="366" spans="5:14" s="2" customFormat="1"/>
     <row r="371" spans="2:14">
       <c r="B371" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="372" spans="2:14" ht="60">
@@ -23185,7 +24577,7 @@
         <v>12</v>
       </c>
       <c r="N372" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="373" spans="2:14">
@@ -23792,7 +25184,7 @@
         <v>12</v>
       </c>
       <c r="N435" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="436" spans="3:14">
@@ -24007,18 +25399,18 @@
         <v>24</v>
       </c>
       <c r="E458" t="s">
+        <v>50</v>
+      </c>
+      <c r="F458" t="s">
+        <v>45</v>
+      </c>
+      <c r="G458" t="s">
         <v>51</v>
-      </c>
-      <c r="F458" t="s">
-        <v>46</v>
-      </c>
-      <c r="G458" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="459" spans="3:13" ht="15.75">
       <c r="C459" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D459" s="3">
         <v>114.03</v>
@@ -24059,6 +25451,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Лист4"/>
   <dimension ref="A3:Z465"/>
   <sheetViews>
     <sheetView topLeftCell="B367" workbookViewId="0">
@@ -24108,7 +25501,7 @@
         <v>12</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -24116,7 +25509,7 @@
         <v>160</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -24646,7 +26039,7 @@
         <v>12</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="3:14">
@@ -25109,7 +26502,7 @@
         <v>12</v>
       </c>
       <c r="N73" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="74" spans="3:14">
@@ -25575,7 +26968,7 @@
     </row>
     <row r="113" spans="2:14" ht="60">
       <c r="B113" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C113" s="1"/>
       <c r="D113" s="1" t="s">
@@ -25609,7 +27002,7 @@
         <v>12</v>
       </c>
       <c r="N113" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="114" spans="2:14">
@@ -26063,7 +27456,7 @@
         <v>12</v>
       </c>
       <c r="N148" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="149" spans="3:14">
@@ -26516,8 +27909,8 @@
       <c r="M184" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N184" s="23" t="s">
-        <v>61</v>
+      <c r="N184" s="20" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="185" spans="3:14">
@@ -26968,7 +28361,7 @@
     </row>
     <row r="223" spans="1:26" ht="60">
       <c r="B223" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C223" s="1"/>
       <c r="D223" s="1" t="s">
@@ -27002,7 +28395,7 @@
         <v>12</v>
       </c>
       <c r="N223" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="224" spans="1:26">
@@ -27456,7 +28849,7 @@
         <v>12</v>
       </c>
       <c r="N258" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="259" spans="3:14">
@@ -27910,7 +29303,7 @@
         <v>12</v>
       </c>
       <c r="N294" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="295" spans="3:14">
@@ -28394,7 +29787,7 @@
         <v>12</v>
       </c>
       <c r="N334" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="335" spans="1:26">
@@ -28916,7 +30309,7 @@
         <v>12</v>
       </c>
       <c r="N372" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="373" spans="3:14">
@@ -29420,7 +30813,7 @@
         <v>12</v>
       </c>
       <c r="N439" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="440" spans="3:14">
@@ -29665,7 +31058,7 @@
         <v>44</v>
       </c>
       <c r="F463" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G463" t="s">
         <v>23</v>
@@ -29673,7 +31066,7 @@
     </row>
     <row r="464" spans="3:13" ht="15.75">
       <c r="C464" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D464" s="3">
         <v>224.04</v>
@@ -29721,6 +31114,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Лист5"/>
   <dimension ref="A3:Z503"/>
   <sheetViews>
     <sheetView topLeftCell="B402" workbookViewId="0">
@@ -29770,7 +31164,7 @@
         <v>12</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -29778,7 +31172,7 @@
         <v>160</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -30230,7 +31624,7 @@
         <v>12</v>
       </c>
       <c r="N38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="3:14">
@@ -30683,8 +32077,8 @@
       <c r="M73" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N73" s="23" t="s">
-        <v>61</v>
+      <c r="N73" s="20" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="74" spans="3:14">
@@ -31166,7 +32560,7 @@
         <v>12</v>
       </c>
       <c r="N113" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="114" spans="3:14">
@@ -31620,7 +33014,7 @@
         <v>12</v>
       </c>
       <c r="N148" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="149" spans="3:14">
@@ -32074,7 +33468,7 @@
         <v>12</v>
       </c>
       <c r="N184" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="185" spans="3:14">
@@ -32525,7 +33919,7 @@
     </row>
     <row r="223" spans="1:26" ht="60">
       <c r="B223" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C223" s="1"/>
       <c r="D223" s="1" t="s">
@@ -32559,7 +33953,7 @@
         <v>12</v>
       </c>
       <c r="N223" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="224" spans="1:26">
@@ -33460,7 +34854,7 @@
         <v>12</v>
       </c>
       <c r="N294" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="295" spans="3:14">
@@ -33944,7 +35338,7 @@
         <v>12</v>
       </c>
       <c r="N334" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="335" spans="1:26">
@@ -34466,7 +35860,7 @@
         <v>12</v>
       </c>
       <c r="N372" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="373" spans="3:14">
@@ -34911,7 +36305,7 @@
         <v>11</v>
       </c>
       <c r="J416" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K416" s="1"/>
       <c r="L416" s="1" t="s">
@@ -35594,18 +36988,18 @@
         <v>24</v>
       </c>
       <c r="E501" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F501" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G501" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="502" spans="3:7" ht="15.75">
       <c r="C502" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D502" s="3">
         <v>239.78</v>
@@ -35648,9 +37042,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Лист6"/>
   <dimension ref="A2:L65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="I71" sqref="I71"/>
     </sheetView>
   </sheetViews>
@@ -35658,7 +37053,7 @@
   <sheetData>
     <row r="2" spans="1:11">
       <c r="C2" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="60">
@@ -35678,7 +37073,7 @@
         <v>5</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>8</v>
@@ -35687,7 +37082,7 @@
         <v>12</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -35755,7 +37150,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -35912,7 +37307,7 @@
     <row r="23" spans="1:12" s="2" customFormat="1"/>
     <row r="25" spans="1:12" ht="60">
       <c r="A25" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>2</v>
@@ -35942,7 +37337,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -36047,7 +37442,7 @@
     <row r="33" spans="2:11" s="2" customFormat="1"/>
     <row r="36" spans="2:11">
       <c r="B36" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="2:11" ht="60">
@@ -36067,7 +37462,7 @@
         <v>5</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>8</v>
@@ -36076,7 +37471,7 @@
         <v>12</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="2:11">
@@ -36292,7 +37687,7 @@
     <row r="58" spans="2:12" s="2" customFormat="1"/>
     <row r="61" spans="2:12">
       <c r="B61" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62" spans="2:12" ht="60">
@@ -36324,7 +37719,7 @@
         <v>12</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="2:12">
@@ -36430,6 +37825,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Лист7"/>
   <dimension ref="B3:L83"/>
   <sheetViews>
     <sheetView topLeftCell="C62" workbookViewId="0">
@@ -37532,7 +38928,7 @@
     <row r="54" spans="2:12" s="2" customFormat="1"/>
     <row r="57" spans="2:12">
       <c r="B57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="59" spans="2:12" ht="45">
@@ -38034,6 +39430,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Лист8"/>
   <dimension ref="A2:AQ200"/>
   <sheetViews>
     <sheetView topLeftCell="Z3" workbookViewId="0">
@@ -38154,13 +39551,13 @@
         <v>29</v>
       </c>
       <c r="AI4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AJ4" t="s">
         <v>30</v>
       </c>
       <c r="AQ4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -39381,7 +40778,7 @@
     <row r="49" spans="1:11" s="2" customFormat="1"/>
     <row r="52" spans="1:11">
       <c r="B52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -39866,7 +41263,7 @@
     <row r="114" spans="1:11" s="2" customFormat="1"/>
     <row r="118" spans="1:11">
       <c r="B118" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -40359,7 +41756,7 @@
     <row r="175" s="2" customFormat="1"/>
     <row r="179" spans="1:11">
       <c r="B179" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="182" spans="1:11">
@@ -40796,6 +42193,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Лист9"/>
   <dimension ref="C3:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -40818,7 +42216,7 @@
       <c r="H4" s="10"/>
     </row>
     <row r="5" spans="3:10" ht="48" thickBot="1">
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="21" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="8" t="s">
@@ -40835,7 +42233,7 @@
       </c>
     </row>
     <row r="6" spans="3:10" ht="32.25" thickBot="1">
-      <c r="C6" s="20"/>
+      <c r="C6" s="22"/>
       <c r="D6" s="8" t="s">
         <v>27</v>
       </c>
@@ -40853,7 +42251,7 @@
       </c>
     </row>
     <row r="7" spans="3:10" ht="32.25" customHeight="1" thickBot="1">
-      <c r="C7" s="21"/>
+      <c r="C7" s="23"/>
       <c r="D7" s="8" t="s">
         <v>28</v>
       </c>
@@ -40871,7 +42269,7 @@
       </c>
     </row>
     <row r="8" spans="3:10" ht="16.5" thickBot="1">
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="21" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -40891,19 +42289,19 @@
       </c>
     </row>
     <row r="9" spans="3:10" ht="32.25" thickBot="1">
-      <c r="C9" s="20"/>
+      <c r="C9" s="22"/>
       <c r="D9" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="3:10" ht="95.25" thickBot="1">
-      <c r="C10" s="21"/>
+      <c r="C10" s="23"/>
       <c r="D10" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="11" spans="3:10" ht="16.5" thickBot="1">
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="21" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="8" t="s">
@@ -40911,13 +42309,13 @@
       </c>
     </row>
     <row r="12" spans="3:10" ht="32.25" thickBot="1">
-      <c r="C12" s="20"/>
+      <c r="C12" s="22"/>
       <c r="D12" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="3:10" ht="95.25" thickBot="1">
-      <c r="C13" s="21"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="8" t="s">
         <v>28</v>
       </c>

--- a/documents/исследования.xlsx
+++ b/documents/исследования.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="портрет" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2666" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2666" uniqueCount="77">
   <si>
     <t>первый (без разбиения)</t>
   </si>
@@ -159,13 +159,7 @@
     <t xml:space="preserve">эталонный </t>
   </si>
   <si>
-    <t>А2 + РГЗ</t>
-  </si>
-  <si>
     <t>Метод эталонного блока</t>
-  </si>
-  <si>
-    <t>Время сжатия</t>
   </si>
   <si>
     <t>мало деталей</t>
@@ -175,15 +169,6 @@
   </si>
   <si>
     <t>текст</t>
-  </si>
-  <si>
-    <t>А2 + ЦМ</t>
-  </si>
-  <si>
-    <t>А1+РГЗ</t>
-  </si>
-  <si>
-    <t>Б+ЦМ</t>
   </si>
   <si>
     <t>Эталон</t>
@@ -266,6 +251,12 @@
   <si>
     <t>кк</t>
   </si>
+  <si>
+    <t>Первый подходящий (с разбиением) + ЦМ</t>
+  </si>
+  <si>
+    <t>Доменный блок с минимальным СКО + РГЗ</t>
+  </si>
 </sst>
 </file>
 
@@ -275,7 +266,7 @@
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,14 +295,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -428,7 +411,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -456,7 +439,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -492,10 +474,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.17587167491231853"/>
+          <c:x val="0.1758716749123185"/>
           <c:y val="7.6778988485025221E-2"/>
           <c:w val="0.46429475765625361"/>
-          <c:h val="0.63291038115185083"/>
+          <c:h val="0.63291038115185072"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -716,11 +698,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="91728128"/>
-        <c:axId val="92013312"/>
+        <c:axId val="84453632"/>
+        <c:axId val="84738816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="91728128"/>
+        <c:axId val="84453632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -745,14 +727,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92013312"/>
+        <c:crossAx val="84738816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92013312"/>
+        <c:axId val="84738816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -787,7 +769,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91728128"/>
+        <c:crossAx val="84453632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -811,9 +793,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.66110883710840196"/>
+          <c:x val="0.66110883710840229"/>
           <c:y val="8.6460758061807932E-2"/>
-          <c:w val="0.32027569218952751"/>
+          <c:w val="0.32027569218952756"/>
           <c:h val="0.84250477857999795"/>
         </c:manualLayout>
       </c:layout>
@@ -827,7 +809,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -838,7 +820,17 @@
   <c:lang val="ru-RU"/>
   <c:chart>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17587167491231845"/>
+          <c:y val="7.6778988485025221E-2"/>
+          <c:w val="0.46429475765625361"/>
+          <c:h val="0.6329103811518505"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -851,11 +843,19 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>А1</c:v>
+                  <c:v>Первый подходящий (без разбиения)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:pattFill prst="wdUpDiag"/>
+            <a:ln w="15875">
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:cat>
             <c:strRef>
               <c:f>'мало деталей'!$D$410:$F$410</c:f>
@@ -865,10 +865,10 @@
                   <c:v>Без классификации</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Центром масс</c:v>
+                  <c:v>Центр масс</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Разницей граничных значений</c:v>
+                  <c:v>Разница граничных значений</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -880,20 +880,20 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>42.03</c:v>
+                  <c:v>2.12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.34</c:v>
+                  <c:v>1.04</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.55</c:v>
+                  <c:v>0.94</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
@@ -901,11 +901,19 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>А2</c:v>
+                  <c:v>Первый подходящий (с разбиением)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:pattFill prst="pct5"/>
+            <a:ln w="15875">
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:cat>
             <c:strRef>
               <c:f>'мало деталей'!$D$410:$F$410</c:f>
@@ -915,10 +923,10 @@
                   <c:v>Без классификации</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Центром масс</c:v>
+                  <c:v>Центр масс</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Разницей граничных значений</c:v>
+                  <c:v>Разница граничных значений</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -930,20 +938,20 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>114.03</c:v>
+                  <c:v>27.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>54.09</c:v>
+                  <c:v>8.84</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51.03</c:v>
+                  <c:v>8.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="1"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
@@ -951,11 +959,19 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Б</c:v>
+                  <c:v>Доменный блок с минимальным СКО</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:pattFill prst="dkHorz"/>
+            <a:ln w="15875" cmpd="sng">
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:cat>
             <c:strRef>
               <c:f>'мало деталей'!$D$410:$F$410</c:f>
@@ -965,10 +981,10 @@
                   <c:v>Без классификации</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Центром масс</c:v>
+                  <c:v>Центр масс</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Разницей граничных значений</c:v>
+                  <c:v>Разница граничных значений</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -980,56 +996,171 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>131.63999999999999</c:v>
+                  <c:v>46.89</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>76.53</c:v>
+                  <c:v>14.34</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>108.48</c:v>
+                  <c:v>30.45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="95003008"/>
-        <c:axId val="95004544"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'мало деталей'!$C$414</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'мало деталей'!$D$410:$F$410</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Без классификации</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Центр масс</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Разница граничных значений</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'мало деталей'!$D$414:$F$414</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="97757440"/>
+        <c:axId val="68551808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="95003008"/>
+        <c:axId val="97757440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t>Метод классификации</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95004544"/>
+        <c:crossAx val="68551808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95004544"/>
+        <c:axId val="68551808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t>t</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="-25000"/>
+                  <a:t>комп</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t>, сек</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95003008"/>
+        <c:crossAx val="97757440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000"/>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.66110883710840285"/>
+          <c:y val="8.6460758061807932E-2"/>
+          <c:w val="0.32027569218952767"/>
+          <c:h val="0.84250477857999795"/>
+        </c:manualLayout>
+      </c:layout>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1039,8 +1170,19 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1726071058590376"/>
+          <c:y val="5.1400554097404488E-2"/>
+          <c:w val="0.6035758740859738"/>
+          <c:h val="0.5445866624176815"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -1049,184 +1191,172 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'мало деталей'!$C$459</c:f>
+              <c:f>'мало деталей'!$C$465</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Время сжатия</c:v>
+                  <c:v>Время компрессии</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'мало деталей'!$D$458:$G$458</c:f>
+              <c:f>'мало деталей'!$D$464:$G$464</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>А2</c:v>
+                  <c:v>Первый подходящий (без разбиения) + РГЗ</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>А2 + ЦМ</c:v>
+                  <c:v>Первый подходящий (с разбиением)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Метод эталонного блока</c:v>
+                  <c:v>Первый подходящий (с разбиением) + ЦМ</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>А1+РГЗ</c:v>
+                  <c:v>Метод эталонного блока</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'мало деталей'!$D$459:$G$459</c:f>
+              <c:f>'мало деталей'!$D$465:$G$465</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>114.03</c:v>
+                  <c:v>0.94</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>54.09</c:v>
+                  <c:v>27.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>73.150000000000006</c:v>
+                  <c:v>8.84</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.55</c:v>
+                  <c:v>35.03</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="94911488"/>
-        <c:axId val="94921472"/>
+        <c:axId val="54689792"/>
+        <c:axId val="54692096"/>
       </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'мало деталей'!$C$460</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>СКО</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'мало деталей'!$D$458:$G$458</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>А2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>А2 + ЦМ</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Метод эталонного блока</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>А1+РГЗ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'мало деталей'!$D$460:$G$460</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>172.69</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>76.88</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>122.08</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>92.27</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="94924800"/>
-        <c:axId val="94923008"/>
-      </c:lineChart>
       <c:catAx>
-        <c:axId val="94911488"/>
+        <c:axId val="54689792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Алгоритм выбора доменного блока</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.29329681615884995"/>
+              <c:y val="0.89983141341320039"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94921472"/>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="54692096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94921472"/>
+        <c:axId val="54692096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="1" i="0" baseline="0"/>
+                  <a:t>t</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" b="1" i="0" baseline="-25000"/>
+                  <a:t>комп</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" b="1" i="0" baseline="0"/>
+                  <a:t>, сек</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94911488"/>
+        <c:crossAx val="54689792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:valAx>
-        <c:axId val="94923008"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94924800"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="94924800"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="none"/>
-        <c:crossAx val="94923008"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.78167276749269221"/>
+          <c:y val="0.26369685006901455"/>
+          <c:w val="0.20344147309199473"/>
+          <c:h val="0.13195137725382619"/>
+        </c:manualLayout>
+      </c:layout>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1237,7 +1367,17 @@
   <c:lang val="ru-RU"/>
   <c:chart>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17587167491231839"/>
+          <c:y val="7.6778988485025221E-2"/>
+          <c:w val="0.46429475765625361"/>
+          <c:h val="0.6329103811518505"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -1250,11 +1390,19 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>А1</c:v>
+                  <c:v>Первый подходящий (без разбиения)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:pattFill prst="wdUpDiag"/>
+            <a:ln w="15875">
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:cat>
             <c:strRef>
               <c:f>'много деталей'!$D$410:$F$410</c:f>
@@ -1264,10 +1412,10 @@
                   <c:v>Без классификации</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Центром масс</c:v>
+                  <c:v>Центр масс</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Разницей граничных значений</c:v>
+                  <c:v>Разница граничных значений</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1279,20 +1427,20 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>63.47</c:v>
+                  <c:v>131.24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42.71</c:v>
+                  <c:v>69.36</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60.79</c:v>
+                  <c:v>56.09</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
@@ -1300,11 +1448,19 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>А2</c:v>
+                  <c:v>Первый подходящий (с разбиением)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:pattFill prst="pct5"/>
+            <a:ln w="15875">
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:cat>
             <c:strRef>
               <c:f>'много деталей'!$D$410:$F$410</c:f>
@@ -1314,10 +1470,10 @@
                   <c:v>Без классификации</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Центром масс</c:v>
+                  <c:v>Центр масс</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Разницей граничных значений</c:v>
+                  <c:v>Разница граничных значений</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1329,20 +1485,20 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>224.04</c:v>
+                  <c:v>109.67</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>124.52</c:v>
+                  <c:v>43.27</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>82.51</c:v>
+                  <c:v>37.42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="1"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
@@ -1350,11 +1506,19 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Б</c:v>
+                  <c:v>Доменный блок с минимальным СКО</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:pattFill prst="dkHorz"/>
+            <a:ln w="15875" cmpd="sng">
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:cat>
             <c:strRef>
               <c:f>'много деталей'!$D$410:$F$410</c:f>
@@ -1364,10 +1528,10 @@
                   <c:v>Без классификации</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Центром масс</c:v>
+                  <c:v>Центр масс</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Разницей граничных значений</c:v>
+                  <c:v>Разница граничных значений</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1379,56 +1543,171 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>133.66</c:v>
+                  <c:v>225.11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>120.59</c:v>
+                  <c:v>57.06</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70.62</c:v>
+                  <c:v>31.31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="96539776"/>
-        <c:axId val="96541312"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'много деталей'!$C$414</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'много деталей'!$D$410:$F$410</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Без классификации</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Центр масс</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Разница граничных значений</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'много деталей'!$D$414:$F$414</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="54956416"/>
+        <c:axId val="54958336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="96539776"/>
+        <c:axId val="54956416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t>Метод классификации</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96541312"/>
+        <c:crossAx val="54958336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96541312"/>
+        <c:axId val="54958336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t>t</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="-25000"/>
+                  <a:t>комп</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t>, сек</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96539776"/>
+        <c:crossAx val="54956416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000"/>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.6611088371084034"/>
+          <c:y val="8.6460758061807932E-2"/>
+          <c:w val="0.32027569218952784"/>
+          <c:h val="0.84250477857999795"/>
+        </c:manualLayout>
+      </c:layout>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1438,8 +1717,19 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17260710585903766"/>
+          <c:y val="5.1400554097404488E-2"/>
+          <c:w val="0.60357587408597402"/>
+          <c:h val="0.5445866624176815"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -1448,184 +1738,172 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'много деталей'!$C$464</c:f>
+              <c:f>'много деталей'!$C$469</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Время сжатия</c:v>
+                  <c:v>Время компрессии</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'много деталей'!$D$463:$G$463</c:f>
+              <c:f>'много деталей'!$D$468:$G$468</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>А2</c:v>
+                  <c:v>Первый подходящий (с разбиением)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>А2 + РГЗ</c:v>
+                  <c:v>Первый подходящий (с разбиением) + РГЗ</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Метод эталонного блока</c:v>
+                  <c:v>Доменный блок с минимальным СКО + РГЗ</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>А1</c:v>
+                  <c:v>Метод эталонного блока</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'много деталей'!$D$464:$G$464</c:f>
+              <c:f>'много деталей'!$D$469:$G$469</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>224.04</c:v>
+                  <c:v>109.67</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>82.51</c:v>
+                  <c:v>37.42</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>140.87</c:v>
+                  <c:v>31.31</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>63.47</c:v>
+                  <c:v>103.77</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="96583680"/>
-        <c:axId val="96585216"/>
+        <c:axId val="69393024"/>
+        <c:axId val="70128768"/>
       </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'много деталей'!$C$465</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>СКО</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'много деталей'!$D$463:$G$463</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>А2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>А2 + РГЗ</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Метод эталонного блока</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>А1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'много деталей'!$D$465:$G$465</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>136.16999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>138.36000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>109.36</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>136.41999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="96588544"/>
-        <c:axId val="96586752"/>
-      </c:lineChart>
       <c:catAx>
-        <c:axId val="96583680"/>
+        <c:axId val="69393024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Алгоритм выбора доменного блока</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.29329681615885006"/>
+              <c:y val="0.89983141341320072"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96585216"/>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="70128768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96585216"/>
+        <c:axId val="70128768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="1" i="0" baseline="0"/>
+                  <a:t>t</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" b="1" i="0" baseline="-25000"/>
+                  <a:t>комп</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" b="1" i="0" baseline="0"/>
+                  <a:t>, сек</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96583680"/>
+        <c:crossAx val="69393024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:valAx>
-        <c:axId val="96586752"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96588544"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="96588544"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="none"/>
-        <c:crossAx val="96586752"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.78167276749269221"/>
+          <c:y val="0.26369685006901455"/>
+          <c:w val="0.20344147309199484"/>
+          <c:h val="0.13195137725382619"/>
+        </c:manualLayout>
+      </c:layout>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1636,7 +1914,17 @@
   <c:lang val="ru-RU"/>
   <c:chart>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17587167491231837"/>
+          <c:y val="7.6778988485025221E-2"/>
+          <c:w val="0.46429475765625361"/>
+          <c:h val="0.6329103811518505"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -1649,11 +1937,19 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>А1</c:v>
+                  <c:v>Первый подходящий (без разбиения)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:pattFill prst="wdUpDiag"/>
+            <a:ln w="15875">
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:cat>
             <c:strRef>
               <c:f>текст!$E$450:$G$450</c:f>
@@ -1663,10 +1959,10 @@
                   <c:v>Без классификации</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Центром масс</c:v>
+                  <c:v>Центр масс</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Разницей граничных значений</c:v>
+                  <c:v>Разница граничных значений</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1678,20 +1974,20 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>176.85</c:v>
+                  <c:v>148.96</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51.36</c:v>
+                  <c:v>64.17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>151.01</c:v>
+                  <c:v>43.26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
@@ -1699,11 +1995,19 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>А2</c:v>
+                  <c:v>Первый подходящий (с разбиением)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:pattFill prst="pct5"/>
+            <a:ln w="15875">
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:cat>
             <c:strRef>
               <c:f>текст!$E$450:$G$450</c:f>
@@ -1713,10 +2017,10 @@
                   <c:v>Без классификации</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Центром масс</c:v>
+                  <c:v>Центр масс</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Разницей граничных значений</c:v>
+                  <c:v>Разница граничных значений</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1728,20 +2032,20 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>239.78</c:v>
+                  <c:v>120.94</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>167.19</c:v>
+                  <c:v>71.209999999999994</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>126.72</c:v>
+                  <c:v>52.24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="1"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
@@ -1749,11 +2053,19 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Б</c:v>
+                  <c:v>Доменный блок с минимальным СКО</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:pattFill prst="dkHorz"/>
+            <a:ln w="15875" cmpd="sng">
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:cat>
             <c:strRef>
               <c:f>текст!$E$450:$G$450</c:f>
@@ -1763,10 +2075,10 @@
                   <c:v>Без классификации</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Центром масс</c:v>
+                  <c:v>Центр масс</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Разницей граничных значений</c:v>
+                  <c:v>Разница граничных значений</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1778,56 +2090,171 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>101.12</c:v>
+                  <c:v>136.16999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>154.02000000000001</c:v>
+                  <c:v>96.77</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>59.64</c:v>
+                  <c:v>37.19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="102188928"/>
-        <c:axId val="102190464"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>текст!$D$454</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>текст!$E$450:$G$450</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Без классификации</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Центр масс</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Разница граничных значений</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>текст!$E$454:$G$454</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="73602560"/>
+        <c:axId val="73604480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="102188928"/>
+        <c:axId val="73602560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t>Метод классификации</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102190464"/>
+        <c:crossAx val="73604480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102190464"/>
+        <c:axId val="73604480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t>t</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="-25000"/>
+                  <a:t>комп</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t>, сек</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102188928"/>
+        <c:crossAx val="73602560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000"/>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.66110883710840396"/>
+          <c:y val="8.6460758061807932E-2"/>
+          <c:w val="0.32027569218952795"/>
+          <c:h val="0.84250477857999795"/>
+        </c:manualLayout>
+      </c:layout>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1837,8 +2264,19 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17260710585903771"/>
+          <c:y val="5.1400554097404488E-2"/>
+          <c:w val="0.60357587408597424"/>
+          <c:h val="0.5445866624176815"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -1851,7 +2289,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Время сжатия</c:v>
+                  <c:v>Время компрессии</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1862,16 +2300,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>А2</c:v>
+                  <c:v>Первый подходящий (с разбиением)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>А2 + ЦМ</c:v>
+                  <c:v>Первый подходящий (с разбиением) + РГЗ</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Метод эталонного блока</c:v>
+                  <c:v>Доменный блок с минимальным СКО + РГЗ</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Б+ЦМ</c:v>
+                  <c:v>Метод эталонного блока</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1883,148 +2321,136 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>239.78</c:v>
+                  <c:v>120.94</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>167.19</c:v>
+                  <c:v>52.24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>174.35</c:v>
+                  <c:v>37.19</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>154.02000000000001</c:v>
+                  <c:v>119.01</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="102228736"/>
-        <c:axId val="102230272"/>
+        <c:axId val="74253824"/>
+        <c:axId val="74255744"/>
       </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>текст!$C$503</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>СКО</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>текст!$D$501:$G$501</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>А2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>А2 + ЦМ</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Метод эталонного блока</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Б+ЦМ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>текст!$D$503:$G$503</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>899.91</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>998.96</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>364.76</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>737.26</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="102368768"/>
-        <c:axId val="102367232"/>
-      </c:lineChart>
       <c:catAx>
-        <c:axId val="102228736"/>
+        <c:axId val="74253824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Алгоритм выбора доменного блока</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.29329681615885017"/>
+              <c:y val="0.89983141341320094"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102230272"/>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="74255744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102230272"/>
+        <c:axId val="74255744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="1" i="0" baseline="0"/>
+                  <a:t>t</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" b="1" i="0" baseline="-25000"/>
+                  <a:t>комп</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" b="1" i="0" baseline="0"/>
+                  <a:t>, сек</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102228736"/>
+        <c:crossAx val="74253824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:valAx>
-        <c:axId val="102367232"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102368768"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="102368768"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="none"/>
-        <c:crossAx val="102367232"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.78167276749269221"/>
+          <c:y val="0.26369685006901455"/>
+          <c:w val="0.20344147309199495"/>
+          <c:h val="0.13195137725382619"/>
+        </c:manualLayout>
+      </c:layout>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2219,8 +2645,8 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="104013184"/>
-        <c:axId val="104027264"/>
+        <c:axId val="94159232"/>
+        <c:axId val="94160768"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2297,25 +2723,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="104042880"/>
-        <c:axId val="104028800"/>
+        <c:axId val="94164096"/>
+        <c:axId val="94162304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="104013184"/>
+        <c:axId val="94159232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104027264"/>
+        <c:crossAx val="94160768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104027264"/>
+        <c:axId val="94160768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2323,32 +2749,32 @@
         <c:minorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104013184"/>
+        <c:crossAx val="94159232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="104028800"/>
+        <c:axId val="94162304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104042880"/>
+        <c:crossAx val="94164096"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="104042880"/>
+        <c:axId val="94164096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="t"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="104028800"/>
+        <c:crossAx val="94162304"/>
         <c:crosses val="max"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2363,7 +2789,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2502,11 +2928,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="104104704"/>
-        <c:axId val="104106624"/>
+        <c:axId val="94459392"/>
+        <c:axId val="94461312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="104104704"/>
+        <c:axId val="94459392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2529,14 +2955,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104106624"/>
+        <c:crossAx val="94461312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104106624"/>
+        <c:axId val="94461312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2561,7 +2987,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104104704"/>
+        <c:crossAx val="94459392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2573,7 +2999,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2712,24 +3138,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="104123392"/>
-        <c:axId val="104125184"/>
+        <c:axId val="94502912"/>
+        <c:axId val="94504448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="104123392"/>
+        <c:axId val="94502912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104125184"/>
+        <c:crossAx val="94504448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104125184"/>
+        <c:axId val="94504448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2737,7 +3163,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104123392"/>
+        <c:crossAx val="94502912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2749,7 +3175,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2888,24 +3314,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="104170240"/>
-        <c:axId val="104171776"/>
+        <c:axId val="94549504"/>
+        <c:axId val="94551040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="104170240"/>
+        <c:axId val="94549504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104171776"/>
+        <c:crossAx val="94551040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104171776"/>
+        <c:axId val="94551040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2913,7 +3339,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104170240"/>
+        <c:crossAx val="94549504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2925,7 +3351,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2935,9 +3361,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -3080,25 +3504,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="92041984"/>
-        <c:axId val="92043520"/>
+        <c:axId val="84763392"/>
+        <c:axId val="84764928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="92041984"/>
+        <c:axId val="84763392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92043520"/>
+        <c:crossAx val="84764928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92043520"/>
+        <c:axId val="84764928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3106,20 +3530,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92041984"/>
+        <c:crossAx val="84763392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3197,24 +3620,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="104183296"/>
-        <c:axId val="104184832"/>
+        <c:axId val="94566656"/>
+        <c:axId val="94584832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="104183296"/>
+        <c:axId val="94566656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104184832"/>
+        <c:crossAx val="94584832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104184832"/>
+        <c:axId val="94584832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3222,7 +3645,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104183296"/>
+        <c:crossAx val="94566656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3234,7 +3657,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3399,24 +3822,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="104338176"/>
-        <c:axId val="104339712"/>
+        <c:axId val="95823360"/>
+        <c:axId val="95824896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="104338176"/>
+        <c:axId val="95823360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104339712"/>
+        <c:crossAx val="95824896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104339712"/>
+        <c:axId val="95824896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3424,7 +3847,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104338176"/>
+        <c:crossAx val="95823360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3436,7 +3859,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3453,9 +3876,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.17260710585903752"/>
+          <c:x val="0.17260710585903755"/>
           <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.60357587408597335"/>
+          <c:w val="0.60357587408597346"/>
           <c:h val="0.5445866624176815"/>
         </c:manualLayout>
       </c:layout>
@@ -3518,11 +3941,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="92074368"/>
-        <c:axId val="92075904"/>
+        <c:axId val="84786560"/>
+        <c:axId val="85149184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="92074368"/>
+        <c:axId val="84786560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3547,8 +3970,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.29329681615884973"/>
-              <c:y val="0.89983141341319983"/>
+              <c:x val="0.29329681615884984"/>
+              <c:y val="0.89983141341320005"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -3563,14 +3986,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92075904"/>
+        <c:crossAx val="85149184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92075904"/>
+        <c:axId val="85149184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3604,7 +4027,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92074368"/>
+        <c:crossAx val="84786560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3617,7 +4040,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.78167276749269221"/>
           <c:y val="0.26369685006901455"/>
-          <c:w val="0.20344147309199453"/>
+          <c:w val="0.20344147309199459"/>
           <c:h val="0.13195137725382619"/>
         </c:manualLayout>
       </c:layout>
@@ -3632,7 +4055,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3642,9 +4065,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -3776,24 +4197,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="94575232"/>
-        <c:axId val="94577024"/>
+        <c:axId val="85078784"/>
+        <c:axId val="85080320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="94575232"/>
+        <c:axId val="85078784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94577024"/>
+        <c:crossAx val="85080320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94577024"/>
+        <c:axId val="85080320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3845,18 +4266,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94575232"/>
+        <c:crossAx val="85078784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -3868,7 +4287,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3878,9 +4297,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -4012,24 +4429,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="94597888"/>
-        <c:axId val="94599424"/>
+        <c:axId val="85100800"/>
+        <c:axId val="85106688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="94597888"/>
+        <c:axId val="85100800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94599424"/>
+        <c:crossAx val="85106688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94599424"/>
+        <c:axId val="85106688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4060,18 +4477,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94597888"/>
+        <c:crossAx val="85100800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -4083,7 +4498,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4100,9 +4515,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.18814270812302308"/>
-          <c:y val="4.0336129645919601E-2"/>
-          <c:w val="0.76312975301164276"/>
+          <c:x val="0.18814270812302311"/>
+          <c:y val="4.0336129645919615E-2"/>
+          <c:w val="0.76312975301164288"/>
           <c:h val="0.48806253441753028"/>
         </c:manualLayout>
       </c:layout>
@@ -4235,24 +4650,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="92416640"/>
-        <c:axId val="92422528"/>
+        <c:axId val="85463040"/>
+        <c:axId val="85464576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="92416640"/>
+        <c:axId val="85463040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92422528"/>
+        <c:crossAx val="85464576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92422528"/>
+        <c:axId val="85464576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4286,7 +4701,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92416640"/>
+        <c:crossAx val="85463040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4297,10 +4712,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.3230673329295376"/>
-          <c:y val="0.87768771410385693"/>
-          <c:w val="0.20898394912174439"/>
-          <c:h val="6.5696324744148132E-2"/>
+          <c:x val="0.32306733292953765"/>
+          <c:y val="0.87768771410385704"/>
+          <c:w val="0.20898394912174442"/>
+          <c:h val="6.5696324744148146E-2"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -4314,7 +4729,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4596,24 +5011,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="84408192"/>
-        <c:axId val="84409728"/>
+        <c:axId val="93459968"/>
+        <c:axId val="93461504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="84408192"/>
+        <c:axId val="93459968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84409728"/>
+        <c:crossAx val="93461504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84409728"/>
+        <c:axId val="93461504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4648,7 +5063,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84408192"/>
+        <c:crossAx val="93459968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4679,7 +5094,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4961,24 +5376,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="105925248"/>
-        <c:axId val="106095744"/>
+        <c:axId val="93595520"/>
+        <c:axId val="93597056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="105925248"/>
+        <c:axId val="93595520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106095744"/>
+        <c:crossAx val="93597056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106095744"/>
+        <c:axId val="93597056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5009,11 +5424,10 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105925248"/>
+        <c:crossAx val="93595520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5033,7 +5447,6 @@
           </a:p>
         </c:txPr>
       </c:legendEntry>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -5044,7 +5457,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5326,24 +5739,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="106790272"/>
-        <c:axId val="106833024"/>
+        <c:axId val="93624960"/>
+        <c:axId val="93639040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="106790272"/>
+        <c:axId val="93624960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106833024"/>
+        <c:crossAx val="93639040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106833024"/>
+        <c:axId val="93639040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5374,11 +5787,10 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106790272"/>
+        <c:crossAx val="93624960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5398,7 +5810,6 @@
           </a:p>
         </c:txPr>
       </c:legendEntry>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -5409,7 +5820,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5700,19 +6111,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:colOff>390525</xdr:colOff>
       <xdr:row>414</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>428</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>432</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5729,20 +6140,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>462</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>468</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>476</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>483</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvPr id="5" name="Диаграмма 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5765,19 +6176,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>413</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>414</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>427</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>432</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5795,19 +6206,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>466</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>473</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>480</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>488</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvPr id="5" name="Диаграмма 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5829,20 +6240,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>455</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>470</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>472</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5859,20 +6270,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>504</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>506</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>518</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>521</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvPr id="6" name="Диаграмма 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6373,8 +6784,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A3:AO434"/>
   <sheetViews>
-    <sheetView topLeftCell="A376" workbookViewId="0">
-      <selection activeCell="G433" sqref="G433:G434"/>
+    <sheetView topLeftCell="A429" workbookViewId="0">
+      <selection activeCell="C432" sqref="C432:G434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6411,7 +6822,7 @@
         <v>4</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>5</v>
@@ -6432,7 +6843,7 @@
         <v>12</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>2</v>
@@ -6500,7 +6911,7 @@
         <v>160</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -8094,7 +8505,7 @@
         <v>4</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>5</v>
@@ -8115,7 +8526,7 @@
         <v>12</v>
       </c>
       <c r="O38" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="3:15">
@@ -8810,7 +9221,7 @@
         <v>4</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>5</v>
@@ -8831,7 +9242,7 @@
         <v>12</v>
       </c>
       <c r="O72" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73" spans="3:15">
@@ -9527,7 +9938,7 @@
         <v>4</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I110" s="1" t="s">
         <v>5</v>
@@ -9548,7 +9959,7 @@
         <v>12</v>
       </c>
       <c r="O110" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="111" spans="1:15">
@@ -10312,7 +10723,7 @@
         <v>4</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I146" s="1" t="s">
         <v>5</v>
@@ -10333,7 +10744,7 @@
         <v>12</v>
       </c>
       <c r="O146" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="147" spans="3:15">
@@ -11031,7 +11442,7 @@
         <v>4</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I181" s="1" t="s">
         <v>5</v>
@@ -11052,7 +11463,7 @@
         <v>12</v>
       </c>
       <c r="O181" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="182" spans="3:15">
@@ -11800,7 +12211,7 @@
     </row>
     <row r="215" spans="3:15" s="2" customFormat="1"/>
     <row r="218" spans="3:15">
-      <c r="D218" s="17" t="s">
+      <c r="D218" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -11819,7 +12230,7 @@
         <v>4</v>
       </c>
       <c r="H219" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I219" s="1" t="s">
         <v>5</v>
@@ -11840,7 +12251,7 @@
         <v>12</v>
       </c>
       <c r="O219" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="220" spans="3:15">
@@ -12601,7 +13012,7 @@
         <v>4</v>
       </c>
       <c r="H255" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I255" s="1" t="s">
         <v>5</v>
@@ -12622,7 +13033,7 @@
         <v>12</v>
       </c>
       <c r="O255" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="256" spans="3:15">
@@ -13386,7 +13797,7 @@
         <v>4</v>
       </c>
       <c r="H290" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I290" s="1" t="s">
         <v>5</v>
@@ -13407,7 +13818,7 @@
         <v>12</v>
       </c>
       <c r="O290" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="291" spans="3:15">
@@ -14168,7 +14579,7 @@
         <v>4</v>
       </c>
       <c r="H328" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I328" s="1" t="s">
         <v>5</v>
@@ -14189,7 +14600,7 @@
         <v>12</v>
       </c>
       <c r="O328" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="S328" s="1" t="s">
         <v>2</v>
@@ -15700,7 +16111,7 @@
         <v>4</v>
       </c>
       <c r="H361" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I361" s="1" t="s">
         <v>5</v>
@@ -15721,7 +16132,7 @@
         <v>12</v>
       </c>
       <c r="O361" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="P361">
         <v>0.97996000000000005</v>
@@ -15765,7 +16176,7 @@
         <v>1</v>
       </c>
       <c r="D362" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E362">
         <v>4</v>
@@ -15966,7 +16377,7 @@
       <c r="E365">
         <v>4</v>
       </c>
-      <c r="F365" s="17">
+      <c r="F365" s="16">
         <v>150</v>
       </c>
       <c r="G365">
@@ -15992,7 +16403,7 @@
       <c r="O365">
         <v>0.97987000000000002</v>
       </c>
-      <c r="P365" s="16">
+      <c r="P365" s="15">
         <f>P361-O365</f>
         <v>9.0000000000034497E-5</v>
       </c>
@@ -16001,7 +16412,7 @@
       <c r="E366">
         <v>4</v>
       </c>
-      <c r="F366" s="18">
+      <c r="F366" s="17">
         <v>200</v>
       </c>
       <c r="G366">
@@ -16094,7 +16505,7 @@
       <c r="O367">
         <v>0.97299000000000002</v>
       </c>
-      <c r="Q367" s="14"/>
+      <c r="Q367" s="13"/>
       <c r="T367">
         <v>8</v>
       </c>
@@ -16255,11 +16666,11 @@
       </c>
     </row>
     <row r="370" spans="2:29">
-      <c r="B370" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D370" s="17" t="s">
-        <v>66</v>
+      <c r="B370" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D370" s="16" t="s">
+        <v>61</v>
       </c>
       <c r="T370">
         <v>8</v>
@@ -16295,7 +16706,7 @@
       </c>
     </row>
     <row r="371" spans="2:29">
-      <c r="B371" s="15"/>
+      <c r="B371" s="14"/>
       <c r="E371">
         <v>8</v>
       </c>
@@ -16313,7 +16724,7 @@
       </c>
     </row>
     <row r="372" spans="2:29">
-      <c r="B372" s="15"/>
+      <c r="B372" s="14"/>
       <c r="E372">
         <v>8</v>
       </c>
@@ -17185,15 +17596,15 @@
         <v>26</v>
       </c>
       <c r="E402" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F402" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="403" spans="3:6" ht="15.75">
       <c r="C403" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D403" s="3">
         <v>9.2100000000000009</v>
@@ -17207,7 +17618,7 @@
     </row>
     <row r="404" spans="3:6" ht="15.75">
       <c r="C404" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D404" s="3">
         <v>45.08</v>
@@ -17221,7 +17632,7 @@
     </row>
     <row r="405" spans="3:6" ht="15.75">
       <c r="C405" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D405" s="3">
         <v>35.72</v>
@@ -17259,21 +17670,21 @@
     </row>
     <row r="432" spans="2:7" ht="15.75">
       <c r="D432" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E432" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F432" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G432" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="433" spans="3:8" ht="15.75">
       <c r="C433" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D433" s="3">
         <v>2.95</v>
@@ -17291,7 +17702,7 @@
     </row>
     <row r="434" spans="3:8" ht="15.75">
       <c r="C434" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D434" s="11">
         <v>0.97729100000000002</v>
@@ -17319,7 +17730,7 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="B3:AT45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+    <sheetView topLeftCell="X1" workbookViewId="0">
       <selection activeCell="AE11" sqref="AE11"/>
     </sheetView>
   </sheetViews>
@@ -17327,7 +17738,7 @@
   <sheetData>
     <row r="3" spans="2:46">
       <c r="B3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="2:46" ht="60">
@@ -17359,7 +17770,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>2</v>
@@ -17368,20 +17779,20 @@
         <v>3</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA4" s="4"/>
       <c r="AB4" s="4" t="s">
         <v>26</v>
       </c>
       <c r="AC4" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AD4" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="2:46" ht="15.75">
@@ -17417,7 +17828,7 @@
         <v>0.98257000000000005</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="P5" t="s">
         <v>6</v>
@@ -17429,7 +17840,7 @@
         <v>0.98257000000000005</v>
       </c>
       <c r="AA5" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="AB5">
         <v>68.42</v>
@@ -17474,7 +17885,7 @@
         <v>0.98936000000000002</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="P6" s="3" t="s">
         <v>15</v>
@@ -17486,7 +17897,7 @@
         <v>0.98936000000000002</v>
       </c>
       <c r="AA6" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="AB6">
         <v>506.02</v>
@@ -17531,7 +17942,7 @@
         <v>0.98936999999999997</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>16</v>
@@ -17543,7 +17954,7 @@
         <v>0.98936999999999997</v>
       </c>
       <c r="AA7" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="AB7">
         <v>361.05</v>
@@ -17588,7 +17999,7 @@
         <v>0.98001000000000005</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="P8" t="s">
         <v>6</v>
@@ -17600,7 +18011,7 @@
         <v>0.98001000000000005</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AB8">
         <v>399.98</v>
@@ -17639,7 +18050,7 @@
         <v>0.98660999999999999</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>15</v>
@@ -17684,7 +18095,7 @@
         <v>0.98690999999999995</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>16</v>
@@ -17696,7 +18107,7 @@
         <v>0.98690999999999995</v>
       </c>
       <c r="AT10" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="2:46" ht="15.75">
@@ -17732,7 +18143,7 @@
         <v>0.98221999999999998</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="P11" t="s">
         <v>6</v>
@@ -17777,7 +18188,7 @@
         <v>0.97945000000000004</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>15</v>
@@ -17822,7 +18233,7 @@
         <v>0.97941</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="P13" s="3" t="s">
         <v>16</v>
@@ -17836,7 +18247,7 @@
     </row>
     <row r="14" spans="2:46" ht="15.75">
       <c r="C14" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
         <v>6</v>
@@ -17867,7 +18278,7 @@
         <v>0.98734</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P14" t="s">
         <v>6</v>
@@ -17881,7 +18292,7 @@
     </row>
     <row r="18" spans="2:30">
       <c r="B18" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="2:30" ht="60">
@@ -17913,7 +18324,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="O19" s="1" t="s">
         <v>2</v>
@@ -17922,20 +18333,20 @@
         <v>3</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA19" s="4"/>
       <c r="AB19" s="4" t="s">
         <v>26</v>
       </c>
       <c r="AC19" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AD19" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="2:30" ht="15.75">
@@ -17971,7 +18382,7 @@
         <v>0.9807742857142856</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>6</v>
@@ -17983,7 +18394,7 @@
         <v>0.9807742857142856</v>
       </c>
       <c r="AA20" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="AB20">
         <v>9.2028571428571393</v>
@@ -18028,7 +18439,7 @@
         <v>0.97650857142857128</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>15</v>
@@ -18040,7 +18451,7 @@
         <v>0.97650857142857128</v>
       </c>
       <c r="AA21" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="AB21">
         <v>45.081666666666671</v>
@@ -18085,7 +18496,7 @@
         <v>0.97729142857142848</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>16</v>
@@ -18097,7 +18508,7 @@
         <v>0.97729142857142848</v>
       </c>
       <c r="AA22" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="AB22">
         <v>35.724285714285713</v>
@@ -18142,7 +18553,7 @@
         <v>0.97934333333333334</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="P23" t="s">
         <v>6</v>
@@ -18154,7 +18565,7 @@
         <v>0.97934333333333334</v>
       </c>
       <c r="AA23" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AB23" s="3">
         <v>35.86</v>
@@ -18193,7 +18604,7 @@
         <v>0.97966000000000009</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>15</v>
@@ -18238,7 +18649,7 @@
         <v>0.98049428571428565</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="P25" s="3" t="s">
         <v>16</v>
@@ -18283,7 +18694,7 @@
         <v>0.97224142857142859</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="P26" t="s">
         <v>6</v>
@@ -18328,7 +18739,7 @@
         <v>0.96771285714285715</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>15</v>
@@ -18373,7 +18784,7 @@
         <v>0.96771285714285715</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="P28" s="3" t="s">
         <v>16</v>
@@ -18387,7 +18798,7 @@
     </row>
     <row r="29" spans="2:30" ht="15.75">
       <c r="C29" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D29" t="s">
         <v>6</v>
@@ -18418,7 +18829,7 @@
         <v>0.97767999999999999</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P29" t="s">
         <v>6</v>
@@ -18432,7 +18843,7 @@
     </row>
     <row r="34" spans="2:30">
       <c r="B34" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="2:30" ht="60">
@@ -18464,7 +18875,7 @@
         <v>12</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="O35" s="1" t="s">
         <v>2</v>
@@ -18473,20 +18884,20 @@
         <v>3</v>
       </c>
       <c r="Q35" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA35" s="4"/>
       <c r="AB35" s="4" t="s">
         <v>26</v>
       </c>
       <c r="AC35" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AD35" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="2:30" ht="15.75">
@@ -18522,7 +18933,7 @@
         <v>0.99041999999999997</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="P36" t="s">
         <v>6</v>
@@ -18534,7 +18945,7 @@
         <v>0.99041999999999997</v>
       </c>
       <c r="AA36" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="AB36">
         <v>7.71</v>
@@ -18579,7 +18990,7 @@
         <v>0.98321000000000003</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="P37" s="3" t="s">
         <v>15</v>
@@ -18591,7 +19002,7 @@
         <v>0.98321000000000003</v>
       </c>
       <c r="AA37" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="AB37">
         <v>142.16999999999999</v>
@@ -18636,7 +19047,7 @@
         <v>0.99063000000000001</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="P38" s="3" t="s">
         <v>16</v>
@@ -18648,7 +19059,7 @@
         <v>0.99063000000000001</v>
       </c>
       <c r="AA38" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="AB38">
         <v>31.34</v>
@@ -18693,7 +19104,7 @@
         <v>0.98436000000000001</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="P39" t="s">
         <v>6</v>
@@ -18705,7 +19116,7 @@
         <v>0.98436000000000001</v>
       </c>
       <c r="AA39" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AB39">
         <v>47.42</v>
@@ -18744,7 +19155,7 @@
         <v>0.96865000000000001</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="P40" s="3" t="s">
         <v>15</v>
@@ -18789,7 +19200,7 @@
         <v>0.97109000000000001</v>
       </c>
       <c r="O41" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="P41" s="3" t="s">
         <v>16</v>
@@ -18834,7 +19245,7 @@
         <v>0.98053999999999997</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="P42" t="s">
         <v>6</v>
@@ -18879,7 +19290,7 @@
         <v>0.97648000000000001</v>
       </c>
       <c r="O43" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>15</v>
@@ -18924,7 +19335,7 @@
         <v>0.97597</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="P44" s="3" t="s">
         <v>16</v>
@@ -18938,7 +19349,7 @@
     </row>
     <row r="45" spans="2:30" ht="15.75">
       <c r="C45" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D45" t="s">
         <v>6</v>
@@ -18969,7 +19380,7 @@
         <v>0.98702000000000001</v>
       </c>
       <c r="O45" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P45" t="s">
         <v>6</v>
@@ -18991,10 +19402,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист3"/>
-  <dimension ref="A3:N460"/>
+  <dimension ref="A3:N466"/>
   <sheetViews>
-    <sheetView topLeftCell="B218" workbookViewId="0">
-      <selection activeCell="N435" sqref="N435"/>
+    <sheetView topLeftCell="B460" workbookViewId="0">
+      <selection activeCell="G464" sqref="G464"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19039,7 +19450,7 @@
         <v>12</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -19047,7 +19458,7 @@
         <v>160</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -19084,7 +19495,7 @@
         <f>J4/K4</f>
         <v>4.3918128654970756</v>
       </c>
-      <c r="N4" s="19">
+      <c r="N4" s="18">
         <v>0.98339707124478604</v>
       </c>
     </row>
@@ -19121,7 +19532,7 @@
         <f t="shared" ref="M5:M10" si="1">J5/K5</f>
         <v>4.3410404624277454</v>
       </c>
-      <c r="N5" s="19">
+      <c r="N5" s="18">
         <v>0.99937400055257097</v>
       </c>
     </row>
@@ -19158,7 +19569,7 @@
         <f t="shared" si="1"/>
         <v>4.3410404624277454</v>
       </c>
-      <c r="N6" s="19">
+      <c r="N6" s="18">
         <v>0.96077000000000001</v>
       </c>
     </row>
@@ -19195,7 +19606,7 @@
         <f t="shared" si="1"/>
         <v>4.3410404624277454</v>
       </c>
-      <c r="N7" s="19">
+      <c r="N7" s="18">
         <v>0.99160948970301899</v>
       </c>
     </row>
@@ -19232,7 +19643,7 @@
         <f t="shared" si="1"/>
         <v>4.443786982248521</v>
       </c>
-      <c r="N8" s="19">
+      <c r="N8" s="18">
         <v>0.99778</v>
       </c>
     </row>
@@ -19269,7 +19680,7 @@
         <f t="shared" si="1"/>
         <v>4.3410404624277454</v>
       </c>
-      <c r="N9" s="19">
+      <c r="N9" s="18">
         <v>0.99755122823296305</v>
       </c>
     </row>
@@ -19306,7 +19717,7 @@
         <f t="shared" si="1"/>
         <v>4.443786982248521</v>
       </c>
-      <c r="N10" s="19">
+      <c r="N10" s="18">
         <v>0.99490160989667797</v>
       </c>
     </row>
@@ -19622,7 +20033,7 @@
         <v>12</v>
       </c>
       <c r="N38" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="3:14">
@@ -19657,7 +20068,7 @@
         <f>I39/K39</f>
         <v>0.3394117647058823</v>
       </c>
-      <c r="M39" s="19">
+      <c r="M39" s="18">
         <f>J39/K39</f>
         <v>4.4176470588235288</v>
       </c>
@@ -20175,7 +20586,7 @@
         <v>12</v>
       </c>
       <c r="N73" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="74" spans="3:14">
@@ -20729,7 +21140,7 @@
         <v>12</v>
       </c>
       <c r="N113" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="114" spans="2:14">
@@ -21303,7 +21714,7 @@
         <v>12</v>
       </c>
       <c r="N148" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="149" spans="3:14">
@@ -21874,7 +22285,7 @@
         <v>12</v>
       </c>
       <c r="N184" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="185" spans="2:14">
@@ -22417,7 +22828,7 @@
     </row>
     <row r="218" spans="3:14" s="2" customFormat="1"/>
     <row r="221" spans="3:14">
-      <c r="C221" s="17" t="s">
+      <c r="C221" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -22454,7 +22865,7 @@
         <v>12</v>
       </c>
       <c r="N223" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="224" spans="3:14">
@@ -23025,7 +23436,7 @@
         <v>12</v>
       </c>
       <c r="N258" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="259" spans="3:14">
@@ -23596,7 +24007,7 @@
         <v>12</v>
       </c>
       <c r="N294" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="295" spans="3:14">
@@ -24167,7 +24578,7 @@
         <v>12</v>
       </c>
       <c r="N334" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="335" spans="3:14">
@@ -24261,7 +24672,7 @@
       <c r="E339">
         <v>4</v>
       </c>
-      <c r="F339" s="17">
+      <c r="F339" s="16">
         <v>300</v>
       </c>
       <c r="G339">
@@ -24542,7 +24953,7 @@
     <row r="366" spans="5:14" s="2" customFormat="1"/>
     <row r="371" spans="2:14">
       <c r="B371" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="372" spans="2:14" ht="60">
@@ -24577,7 +24988,7 @@
         <v>12</v>
       </c>
       <c r="N372" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="373" spans="2:14">
@@ -24617,7 +25028,7 @@
         <v>0.98064649199429399</v>
       </c>
     </row>
-    <row r="374" spans="2:14" ht="15" hidden="1" customHeight="1">
+    <row r="374" spans="2:14" ht="15" customHeight="1">
       <c r="C374">
         <v>2</v>
       </c>
@@ -24647,7 +25058,7 @@
         <v>0.99851928003936796</v>
       </c>
     </row>
-    <row r="375" spans="2:14" ht="15" hidden="1" customHeight="1">
+    <row r="375" spans="2:14" ht="15" customHeight="1">
       <c r="C375">
         <v>3</v>
       </c>
@@ -24677,7 +25088,7 @@
         <v>0.99394059931455503</v>
       </c>
     </row>
-    <row r="376" spans="2:14" ht="15" hidden="1" customHeight="1">
+    <row r="376" spans="2:14" ht="15" customHeight="1">
       <c r="C376">
         <v>4</v>
       </c>
@@ -24707,7 +25118,7 @@
         <v>0.98986253951108305</v>
       </c>
     </row>
-    <row r="377" spans="2:14" ht="15" hidden="1" customHeight="1">
+    <row r="377" spans="2:14" ht="15" customHeight="1">
       <c r="C377">
         <v>5</v>
       </c>
@@ -24737,7 +25148,7 @@
         <v>0.99891815365189196</v>
       </c>
     </row>
-    <row r="378" spans="2:14" ht="15" hidden="1" customHeight="1">
+    <row r="378" spans="2:14" ht="15" customHeight="1">
       <c r="C378">
         <v>6</v>
       </c>
@@ -24767,7 +25178,7 @@
         <v>0.997952990245219</v>
       </c>
     </row>
-    <row r="379" spans="2:14" ht="15" hidden="1" customHeight="1">
+    <row r="379" spans="2:14" ht="15" customHeight="1">
       <c r="C379">
         <v>7</v>
       </c>
@@ -24797,7 +25208,7 @@
         <v>0.98282161291388104</v>
       </c>
     </row>
-    <row r="380" spans="2:14" ht="15" hidden="1" customHeight="1">
+    <row r="380" spans="2:14" ht="15" customHeight="1">
       <c r="C380">
         <v>8</v>
       </c>
@@ -24811,7 +25222,7 @@
         <v>75.099999999999994</v>
       </c>
     </row>
-    <row r="381" spans="2:14" ht="15" hidden="1" customHeight="1">
+    <row r="381" spans="2:14" ht="15" customHeight="1">
       <c r="C381">
         <v>9</v>
       </c>
@@ -24825,7 +25236,7 @@
         <v>75.099999999999994</v>
       </c>
     </row>
-    <row r="382" spans="2:14" ht="15" hidden="1" customHeight="1">
+    <row r="382" spans="2:14" ht="15" customHeight="1">
       <c r="C382">
         <v>10</v>
       </c>
@@ -24839,7 +25250,7 @@
         <v>75.099999999999994</v>
       </c>
     </row>
-    <row r="383" spans="2:14" ht="15" hidden="1" customHeight="1">
+    <row r="383" spans="2:14" ht="15" customHeight="1">
       <c r="C383">
         <v>11</v>
       </c>
@@ -24850,7 +25261,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="384" spans="2:14" ht="15" hidden="1" customHeight="1">
+    <row r="384" spans="2:14" ht="15" customHeight="1">
       <c r="C384">
         <v>12</v>
       </c>
@@ -24861,7 +25272,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="385" spans="3:6" ht="15" hidden="1" customHeight="1">
+    <row r="385" spans="3:6" ht="15" customHeight="1">
       <c r="C385">
         <v>13</v>
       </c>
@@ -24872,7 +25283,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="386" spans="3:6" ht="15" hidden="1" customHeight="1">
+    <row r="386" spans="3:6" ht="15" customHeight="1">
       <c r="C386">
         <v>14</v>
       </c>
@@ -24883,7 +25294,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="387" spans="3:6" ht="15" hidden="1" customHeight="1">
+    <row r="387" spans="3:6" ht="15" customHeight="1">
       <c r="C387">
         <v>15</v>
       </c>
@@ -24894,7 +25305,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="388" spans="3:6" ht="15" hidden="1" customHeight="1">
+    <row r="388" spans="3:6" ht="15" customHeight="1">
       <c r="C388">
         <v>16</v>
       </c>
@@ -24905,7 +25316,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="389" spans="3:6" ht="15" hidden="1" customHeight="1">
+    <row r="389" spans="3:6" ht="15" customHeight="1">
       <c r="C389">
         <v>17</v>
       </c>
@@ -24916,7 +25327,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="390" spans="3:6" ht="15" hidden="1" customHeight="1">
+    <row r="390" spans="3:6" ht="15" customHeight="1">
       <c r="C390">
         <v>18</v>
       </c>
@@ -24927,7 +25338,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="391" spans="3:6" ht="15" hidden="1" customHeight="1">
+    <row r="391" spans="3:6" ht="15" customHeight="1">
       <c r="C391">
         <v>19</v>
       </c>
@@ -24938,7 +25349,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="392" spans="3:6" ht="15" hidden="1" customHeight="1">
+    <row r="392" spans="3:6" ht="15" customHeight="1">
       <c r="C392">
         <v>20</v>
       </c>
@@ -24949,7 +25360,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="393" spans="3:6" ht="15" hidden="1" customHeight="1">
+    <row r="393" spans="3:6" ht="15" customHeight="1">
       <c r="C393">
         <v>21</v>
       </c>
@@ -24960,7 +25371,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="394" spans="3:6" ht="15" hidden="1" customHeight="1">
+    <row r="394" spans="3:6" ht="15" customHeight="1">
       <c r="C394">
         <v>22</v>
       </c>
@@ -24971,7 +25382,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="395" spans="3:6" ht="15" hidden="1" customHeight="1">
+    <row r="395" spans="3:6" ht="15" customHeight="1">
       <c r="C395">
         <v>23</v>
       </c>
@@ -24982,7 +25393,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="396" spans="3:6" ht="15" hidden="1" customHeight="1">
+    <row r="396" spans="3:6" ht="15" customHeight="1">
       <c r="C396">
         <v>24</v>
       </c>
@@ -24993,7 +25404,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="397" spans="3:6" ht="15" hidden="1" customHeight="1">
+    <row r="397" spans="3:6" ht="15" customHeight="1">
       <c r="C397">
         <v>25</v>
       </c>
@@ -25004,7 +25415,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="398" spans="3:6" ht="15" hidden="1" customHeight="1">
+    <row r="398" spans="3:6" ht="15" customHeight="1">
       <c r="C398">
         <v>26</v>
       </c>
@@ -25015,7 +25426,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="399" spans="3:6" ht="15" hidden="1" customHeight="1">
+    <row r="399" spans="3:6" ht="15" customHeight="1">
       <c r="C399">
         <v>27</v>
       </c>
@@ -25026,7 +25437,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="400" spans="3:6" ht="15" hidden="1" customHeight="1">
+    <row r="400" spans="3:6" ht="15" customHeight="1">
       <c r="C400">
         <v>28</v>
       </c>
@@ -25037,7 +25448,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="401" spans="3:14" ht="15" hidden="1" customHeight="1">
+    <row r="401" spans="3:14" ht="15" customHeight="1">
       <c r="C401">
         <v>29</v>
       </c>
@@ -25099,207 +25510,141 @@
       <c r="M407" s="12"/>
     </row>
     <row r="410" spans="3:14">
+      <c r="C410" s="4"/>
       <c r="D410" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E410" s="4" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="F410" s="4" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
     </row>
     <row r="411" spans="3:14" ht="15.75">
-      <c r="C411" t="s">
-        <v>23</v>
-      </c>
-      <c r="D411" s="3">
-        <v>42.03</v>
+      <c r="C411" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D411" s="11">
+        <v>2.12</v>
       </c>
       <c r="E411" s="3">
-        <v>22.34</v>
+        <v>1.04</v>
       </c>
       <c r="F411" s="3">
-        <v>19.55</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="412" spans="3:14" ht="15.75">
-      <c r="C412" t="s">
-        <v>24</v>
+      <c r="C412" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="D412" s="3">
-        <v>114.03</v>
+        <v>27.5</v>
       </c>
       <c r="E412" s="3">
-        <v>54.09</v>
+        <v>8.84</v>
       </c>
       <c r="F412" s="3">
-        <v>51.03</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="413" spans="3:14" ht="15.75">
-      <c r="C413" t="s">
-        <v>25</v>
+      <c r="C413" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="D413" s="3">
-        <v>131.63999999999999</v>
+        <v>46.89</v>
       </c>
       <c r="E413" s="3">
-        <v>76.53</v>
+        <v>14.34</v>
       </c>
       <c r="F413" s="3">
-        <v>108.48</v>
-      </c>
-    </row>
-    <row r="431" s="2" customFormat="1"/>
-    <row r="435" spans="3:14" ht="60">
-      <c r="D435" s="1" t="s">
+        <v>30.45</v>
+      </c>
+    </row>
+    <row r="437" spans="3:14" s="2" customFormat="1"/>
+    <row r="441" spans="3:14" ht="60">
+      <c r="D441" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E435" s="1" t="s">
+      <c r="E441" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F435" s="1" t="s">
+      <c r="F441" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G435" s="1" t="s">
+      <c r="G441" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H435" s="1" t="s">
+      <c r="H441" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I435" s="1" t="s">
+      <c r="I441" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J435" s="1" t="s">
+      <c r="J441" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K435" s="1" t="s">
+      <c r="K441" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L435" s="1" t="s">
+      <c r="L441" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M435" s="1" t="s">
+      <c r="M441" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N435" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="436" spans="3:14">
-      <c r="C436">
+      <c r="N441" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="442" spans="3:14">
+      <c r="C442">
         <v>1</v>
       </c>
-      <c r="D436" t="s">
+      <c r="D442" t="s">
         <v>19</v>
       </c>
-      <c r="E436">
-        <v>4</v>
-      </c>
-      <c r="L436" t="e">
-        <f>I436/K436</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M436" t="e">
-        <f>J436/K436</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="437" spans="3:14">
-      <c r="E437">
-        <v>4</v>
-      </c>
-      <c r="F437" s="17">
-        <v>300</v>
-      </c>
-      <c r="M437" t="e">
-        <f t="shared" ref="M437:M451" si="22">J437/K437</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N437">
-        <v>0.98064649199429399</v>
-      </c>
-    </row>
-    <row r="438" spans="3:14">
-      <c r="E438">
-        <v>4</v>
-      </c>
-      <c r="M438" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="439" spans="3:14">
-      <c r="E439">
-        <v>4</v>
-      </c>
-      <c r="M439" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="440" spans="3:14">
-      <c r="E440">
-        <v>4</v>
-      </c>
-      <c r="M440" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="441" spans="3:14">
-      <c r="E441">
-        <v>4</v>
-      </c>
-      <c r="M441" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="442" spans="3:14">
       <c r="E442">
         <v>4</v>
       </c>
+      <c r="L442" t="e">
+        <f>I442/K442</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="M442" t="e">
-        <f t="shared" si="22"/>
+        <f>J442/K442</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="443" spans="3:14">
-      <c r="C443" s="1"/>
-      <c r="D443" s="1"/>
-      <c r="G443" s="1"/>
-      <c r="H443" s="1"/>
-      <c r="I443" s="1"/>
-      <c r="K443" s="1"/>
-      <c r="L443" s="1"/>
+      <c r="E443">
+        <v>4</v>
+      </c>
+      <c r="F443" s="16">
+        <v>300</v>
+      </c>
       <c r="M443" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="M443:M457" si="22">J443/K443</f>
         <v>#DIV/0!</v>
+      </c>
+      <c r="N443">
+        <v>0.98064649199429399</v>
       </c>
     </row>
     <row r="444" spans="3:14">
       <c r="E444">
-        <v>8</v>
-      </c>
-      <c r="F444">
-        <v>3</v>
-      </c>
-      <c r="G444">
-        <v>40.19</v>
+        <v>4</v>
       </c>
       <c r="M444" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N444">
-        <v>0.97913368556609803</v>
-      </c>
     </row>
     <row r="445" spans="3:14">
       <c r="E445">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M445" t="e">
         <f t="shared" si="22"/>
@@ -25308,139 +25653,198 @@
     </row>
     <row r="446" spans="3:14">
       <c r="E446">
-        <v>8</v>
-      </c>
-      <c r="F446">
-        <v>200</v>
-      </c>
-      <c r="G446">
-        <v>21.73</v>
+        <v>4</v>
       </c>
       <c r="M446" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N446">
-        <v>0.97403617369878903</v>
-      </c>
     </row>
     <row r="447" spans="3:14">
       <c r="E447">
-        <v>8</v>
-      </c>
-      <c r="F447">
-        <v>300</v>
-      </c>
-      <c r="G447">
-        <v>19.420000000000002</v>
-      </c>
-      <c r="J447">
-        <v>75.099999999999994</v>
+        <v>4</v>
       </c>
       <c r="M447" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N447">
-        <v>0.97267999999999999</v>
-      </c>
     </row>
     <row r="448" spans="3:14">
       <c r="E448">
-        <v>8</v>
-      </c>
-      <c r="J448">
-        <v>75.099999999999994</v>
+        <v>4</v>
       </c>
       <c r="M448" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="449" spans="3:13">
-      <c r="E449">
-        <v>8</v>
-      </c>
-      <c r="J449">
-        <v>75.099999999999994</v>
-      </c>
+    <row r="449" spans="3:14">
+      <c r="C449" s="1"/>
+      <c r="D449" s="1"/>
+      <c r="G449" s="1"/>
+      <c r="H449" s="1"/>
+      <c r="I449" s="1"/>
+      <c r="K449" s="1"/>
+      <c r="L449" s="1"/>
       <c r="M449" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="450" spans="3:13">
+    <row r="450" spans="3:14">
       <c r="E450">
         <v>8</v>
       </c>
-      <c r="J450">
-        <v>75.099999999999994</v>
+      <c r="F450">
+        <v>3</v>
+      </c>
+      <c r="G450">
+        <v>40.19</v>
       </c>
       <c r="M450" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="451" spans="3:13">
+      <c r="N450">
+        <v>0.97913368556609803</v>
+      </c>
+    </row>
+    <row r="451" spans="3:14">
       <c r="E451">
         <v>8</v>
-      </c>
-      <c r="J451">
-        <v>75.099999999999994</v>
       </c>
       <c r="M451" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="454" spans="3:13" s="2" customFormat="1"/>
-    <row r="458" spans="3:13">
-      <c r="D458" t="s">
-        <v>24</v>
-      </c>
-      <c r="E458" t="s">
-        <v>50</v>
-      </c>
-      <c r="F458" t="s">
-        <v>45</v>
-      </c>
-      <c r="G458" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="459" spans="3:13" ht="15.75">
-      <c r="C459" t="s">
-        <v>46</v>
-      </c>
-      <c r="D459" s="3">
-        <v>114.03</v>
-      </c>
-      <c r="E459" s="3">
-        <v>54.09</v>
-      </c>
-      <c r="F459" s="11">
-        <v>73.150000000000006</v>
-      </c>
-      <c r="G459" s="3">
-        <v>19.55</v>
-      </c>
-    </row>
-    <row r="460" spans="3:13" ht="15.75">
-      <c r="C460" t="s">
-        <v>29</v>
-      </c>
-      <c r="D460" s="3">
-        <v>172.69</v>
-      </c>
-      <c r="E460" s="3">
-        <v>76.88</v>
-      </c>
-      <c r="F460" s="11">
-        <v>122.08</v>
-      </c>
-      <c r="G460" s="3">
-        <v>92.27</v>
-      </c>
+    <row r="452" spans="3:14">
+      <c r="E452">
+        <v>8</v>
+      </c>
+      <c r="F452">
+        <v>200</v>
+      </c>
+      <c r="G452">
+        <v>21.73</v>
+      </c>
+      <c r="M452" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N452">
+        <v>0.97403617369878903</v>
+      </c>
+    </row>
+    <row r="453" spans="3:14">
+      <c r="E453">
+        <v>8</v>
+      </c>
+      <c r="F453">
+        <v>300</v>
+      </c>
+      <c r="G453">
+        <v>19.420000000000002</v>
+      </c>
+      <c r="J453">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="M453" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N453">
+        <v>0.97267999999999999</v>
+      </c>
+    </row>
+    <row r="454" spans="3:14">
+      <c r="E454">
+        <v>8</v>
+      </c>
+      <c r="J454">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="M454" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="455" spans="3:14">
+      <c r="E455">
+        <v>8</v>
+      </c>
+      <c r="J455">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="M455" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="456" spans="3:14">
+      <c r="E456">
+        <v>8</v>
+      </c>
+      <c r="J456">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="M456" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="457" spans="3:14">
+      <c r="E457">
+        <v>8</v>
+      </c>
+      <c r="J457">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="M457" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="460" spans="3:14" s="2" customFormat="1"/>
+    <row r="464" spans="3:14" ht="15.75">
+      <c r="D464" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E464" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F464" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G464" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="465" spans="3:7" ht="15.75">
+      <c r="C465" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D465" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="E465" s="3">
+        <v>27.5</v>
+      </c>
+      <c r="F465" s="3">
+        <v>8.84</v>
+      </c>
+      <c r="G465" s="3">
+        <v>35.03</v>
+      </c>
+    </row>
+    <row r="466" spans="3:7" ht="15.75">
+      <c r="C466" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D466" s="11"/>
+      <c r="E466" s="11"/>
+      <c r="F466" s="11"/>
+      <c r="G466" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25452,10 +25856,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист4"/>
-  <dimension ref="A3:Z465"/>
+  <dimension ref="A3:Z470"/>
   <sheetViews>
-    <sheetView topLeftCell="B367" workbookViewId="0">
-      <selection activeCell="N372" sqref="N372"/>
+    <sheetView topLeftCell="B468" workbookViewId="0">
+      <selection activeCell="C468" sqref="C468:G470"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25501,7 +25905,7 @@
         <v>12</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -25509,7 +25913,7 @@
         <v>160</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -26039,7 +26443,7 @@
         <v>12</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="3:14">
@@ -26502,7 +26906,7 @@
         <v>12</v>
       </c>
       <c r="N73" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="74" spans="3:14">
@@ -26968,7 +27372,7 @@
     </row>
     <row r="113" spans="2:14" ht="60">
       <c r="B113" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C113" s="1"/>
       <c r="D113" s="1" t="s">
@@ -27002,7 +27406,7 @@
         <v>12</v>
       </c>
       <c r="N113" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="114" spans="2:14">
@@ -27456,7 +27860,7 @@
         <v>12</v>
       </c>
       <c r="N148" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="149" spans="3:14">
@@ -27909,8 +28313,8 @@
       <c r="M184" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N184" s="20" t="s">
-        <v>60</v>
+      <c r="N184" s="19" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="185" spans="3:14">
@@ -28360,8 +28764,8 @@
       <c r="Z218" s="2"/>
     </row>
     <row r="223" spans="1:26" ht="60">
-      <c r="B223" s="17" t="s">
-        <v>64</v>
+      <c r="B223" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="C223" s="1"/>
       <c r="D223" s="1" t="s">
@@ -28395,7 +28799,7 @@
         <v>12</v>
       </c>
       <c r="N223" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="224" spans="1:26">
@@ -28849,7 +29253,7 @@
         <v>12</v>
       </c>
       <c r="N258" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="259" spans="3:14">
@@ -29303,7 +29707,7 @@
         <v>12</v>
       </c>
       <c r="N294" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="295" spans="3:14">
@@ -29787,7 +30191,7 @@
         <v>12</v>
       </c>
       <c r="N334" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="335" spans="1:26">
@@ -29854,7 +30258,7 @@
       <c r="E338" t="s">
         <v>6</v>
       </c>
-      <c r="F338" s="17">
+      <c r="F338" s="16">
         <v>50</v>
       </c>
       <c r="G338">
@@ -30309,7 +30713,7 @@
         <v>12</v>
       </c>
       <c r="N372" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="373" spans="3:14">
@@ -30728,198 +31132,115 @@
     </row>
     <row r="406" spans="3:13" s="2" customFormat="1"/>
     <row r="410" spans="3:13">
+      <c r="C410" s="4"/>
       <c r="D410" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E410" s="4" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="F410" s="4" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
     </row>
     <row r="411" spans="3:13" ht="15.75">
-      <c r="C411" t="s">
-        <v>23</v>
+      <c r="C411" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="D411" s="11">
-        <v>63.47</v>
+        <v>131.24</v>
       </c>
       <c r="E411" s="3">
-        <v>42.71</v>
+        <v>69.36</v>
       </c>
       <c r="F411" s="3">
-        <v>60.79</v>
+        <v>56.09</v>
       </c>
     </row>
     <row r="412" spans="3:13" ht="15.75">
-      <c r="C412" t="s">
-        <v>24</v>
+      <c r="C412" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="D412" s="3">
-        <v>224.04</v>
+        <v>109.67</v>
       </c>
       <c r="E412" s="3">
-        <v>124.52</v>
+        <v>43.27</v>
       </c>
       <c r="F412" s="3">
-        <v>82.51</v>
+        <v>37.42</v>
       </c>
     </row>
     <row r="413" spans="3:13" ht="15.75">
-      <c r="C413" t="s">
-        <v>25</v>
+      <c r="C413" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="D413" s="3">
-        <v>133.66</v>
+        <v>225.11</v>
       </c>
       <c r="E413" s="3">
-        <v>120.59</v>
+        <v>57.06</v>
       </c>
       <c r="F413" s="3">
-        <v>70.62</v>
-      </c>
-    </row>
-    <row r="434" spans="3:14" s="2" customFormat="1"/>
-    <row r="439" spans="3:14" ht="60">
-      <c r="D439" s="1" t="s">
+        <v>31.31</v>
+      </c>
+    </row>
+    <row r="439" spans="3:14" s="2" customFormat="1"/>
+    <row r="444" spans="3:14" ht="60">
+      <c r="D444" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E439" s="1" t="s">
+      <c r="E444" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F439" s="1" t="s">
+      <c r="F444" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G439" s="1" t="s">
+      <c r="G444" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H439" s="1" t="s">
+      <c r="H444" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I439" s="1" t="s">
+      <c r="I444" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J439" s="1" t="s">
+      <c r="J444" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K439" s="1" t="s">
+      <c r="K444" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L439" s="1" t="s">
+      <c r="L444" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M439" s="1" t="s">
+      <c r="M444" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N439" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="440" spans="3:14">
-      <c r="C440">
+      <c r="N444" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="445" spans="3:14">
+      <c r="C445">
         <v>1</v>
       </c>
-      <c r="D440" t="s">
+      <c r="D445" t="s">
         <v>19</v>
       </c>
-      <c r="E440">
-        <v>4</v>
-      </c>
-      <c r="J440">
-        <v>75.099999999999994</v>
-      </c>
-      <c r="L440" t="e">
-        <f>I440/K440</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M440" t="e">
-        <f>J440/K440</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="441" spans="3:14">
-      <c r="E441">
-        <v>4</v>
-      </c>
-      <c r="J441">
-        <v>75.099999999999994</v>
-      </c>
-      <c r="M441" t="e">
-        <f t="shared" ref="M441:M455" si="13">J441/K441</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="442" spans="3:14">
-      <c r="E442">
-        <v>4</v>
-      </c>
-      <c r="J442">
-        <v>75.099999999999994</v>
-      </c>
-      <c r="M442" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="443" spans="3:14">
-      <c r="E443">
-        <v>4</v>
-      </c>
-      <c r="J443">
-        <v>75.099999999999994</v>
-      </c>
-      <c r="M443" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="444" spans="3:14">
-      <c r="E444">
-        <v>4</v>
-      </c>
-      <c r="F444">
-        <v>100</v>
-      </c>
-      <c r="G444">
-        <v>133.77000000000001</v>
-      </c>
-      <c r="J444">
-        <v>75.099999999999994</v>
-      </c>
-      <c r="K444">
-        <v>17.2</v>
-      </c>
-      <c r="M444">
-        <f t="shared" si="13"/>
-        <v>4.3662790697674421</v>
-      </c>
-      <c r="N444">
-        <v>0.97287472252639196</v>
-      </c>
-    </row>
-    <row r="445" spans="3:14">
       <c r="E445">
         <v>4</v>
       </c>
-      <c r="F445">
-        <v>150</v>
-      </c>
-      <c r="G445">
-        <v>122.74</v>
-      </c>
       <c r="J445">
         <v>75.099999999999994</v>
       </c>
-      <c r="K445">
-        <v>17.2</v>
-      </c>
-      <c r="M445">
-        <f t="shared" si="13"/>
-        <v>4.3662790697674421</v>
-      </c>
-      <c r="N445">
-        <v>0.96879010235899099</v>
+      <c r="L445" t="e">
+        <f>I445/K445</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M445" t="e">
+        <f>J445/K445</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="446" spans="3:14">
@@ -30930,24 +31251,17 @@
         <v>75.099999999999994</v>
       </c>
       <c r="M446" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="M446:M460" si="13">J446/K446</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="447" spans="3:14">
-      <c r="C447" s="1"/>
-      <c r="D447" s="1"/>
       <c r="E447">
         <v>4</v>
       </c>
-      <c r="G447" s="1"/>
-      <c r="H447" s="1"/>
-      <c r="I447" s="1"/>
       <c r="J447">
         <v>75.099999999999994</v>
       </c>
-      <c r="K447" s="1"/>
-      <c r="L447" s="1"/>
       <c r="M447" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
@@ -30955,7 +31269,7 @@
     </row>
     <row r="448" spans="3:14">
       <c r="E448">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J448">
         <v>75.099999999999994</v>
@@ -30965,33 +31279,57 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="449" spans="3:13">
+    <row r="449" spans="3:14">
       <c r="E449">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="F449">
+        <v>100</v>
+      </c>
+      <c r="G449">
+        <v>133.77000000000001</v>
       </c>
       <c r="J449">
         <v>75.099999999999994</v>
       </c>
-      <c r="M449" t="e">
+      <c r="K449">
+        <v>17.2</v>
+      </c>
+      <c r="M449">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="450" spans="3:13">
+        <v>4.3662790697674421</v>
+      </c>
+      <c r="N449">
+        <v>0.97287472252639196</v>
+      </c>
+    </row>
+    <row r="450" spans="3:14">
       <c r="E450">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="F450">
+        <v>150</v>
+      </c>
+      <c r="G450">
+        <v>122.74</v>
       </c>
       <c r="J450">
         <v>75.099999999999994</v>
       </c>
-      <c r="M450" t="e">
+      <c r="K450">
+        <v>17.2</v>
+      </c>
+      <c r="M450">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="451" spans="3:13">
+        <v>4.3662790697674421</v>
+      </c>
+      <c r="N450">
+        <v>0.96879010235899099</v>
+      </c>
+    </row>
+    <row r="451" spans="3:14">
       <c r="E451">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J451">
         <v>75.099999999999994</v>
@@ -31001,19 +31339,26 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="452" spans="3:13">
+    <row r="452" spans="3:14">
+      <c r="C452" s="1"/>
+      <c r="D452" s="1"/>
       <c r="E452">
-        <v>8</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="G452" s="1"/>
+      <c r="H452" s="1"/>
+      <c r="I452" s="1"/>
       <c r="J452">
         <v>75.099999999999994</v>
       </c>
+      <c r="K452" s="1"/>
+      <c r="L452" s="1"/>
       <c r="M452" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="453" spans="3:13">
+    <row r="453" spans="3:14">
       <c r="E453">
         <v>8</v>
       </c>
@@ -31025,7 +31370,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="454" spans="3:13">
+    <row r="454" spans="3:14">
       <c r="E454">
         <v>8</v>
       </c>
@@ -31037,7 +31382,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="455" spans="3:13">
+    <row r="455" spans="3:14">
       <c r="E455">
         <v>8</v>
       </c>
@@ -31049,58 +31394,110 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="459" spans="3:13" s="2" customFormat="1"/>
-    <row r="463" spans="3:13">
-      <c r="D463" t="s">
-        <v>24</v>
-      </c>
-      <c r="E463" t="s">
+    <row r="456" spans="3:14">
+      <c r="E456">
+        <v>8</v>
+      </c>
+      <c r="J456">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="M456" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="457" spans="3:14">
+      <c r="E457">
+        <v>8</v>
+      </c>
+      <c r="J457">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="M457" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="458" spans="3:14">
+      <c r="E458">
+        <v>8</v>
+      </c>
+      <c r="J458">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="M458" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="459" spans="3:14">
+      <c r="E459">
+        <v>8</v>
+      </c>
+      <c r="J459">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="M459" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="460" spans="3:14">
+      <c r="E460">
+        <v>8</v>
+      </c>
+      <c r="J460">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="M460" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="464" spans="3:14" s="2" customFormat="1"/>
+    <row r="468" spans="3:9" ht="15.75">
+      <c r="D468" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E468" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F468" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G468" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F463" t="s">
-        <v>45</v>
-      </c>
-      <c r="G463" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="464" spans="3:13" ht="15.75">
-      <c r="C464" t="s">
-        <v>46</v>
-      </c>
-      <c r="D464" s="3">
-        <v>224.04</v>
-      </c>
-      <c r="E464" s="3">
-        <v>82.51</v>
-      </c>
-      <c r="F464" s="11">
-        <v>140.87</v>
-      </c>
-      <c r="G464" s="11">
-        <v>63.47</v>
-      </c>
-      <c r="H464" s="11"/>
-      <c r="I464" s="3"/>
-    </row>
-    <row r="465" spans="3:9" ht="15.75">
-      <c r="C465" t="s">
-        <v>29</v>
-      </c>
-      <c r="D465" s="3">
-        <v>136.16999999999999</v>
-      </c>
-      <c r="E465" s="3">
-        <v>138.36000000000001</v>
-      </c>
-      <c r="F465" s="11">
-        <v>109.36</v>
-      </c>
-      <c r="G465" s="11">
-        <v>136.41999999999999</v>
-      </c>
-      <c r="H465" s="11"/>
-      <c r="I465" s="3"/>
+    </row>
+    <row r="469" spans="3:9" ht="15.75">
+      <c r="C469" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D469" s="3">
+        <v>109.67</v>
+      </c>
+      <c r="E469" s="3">
+        <v>37.42</v>
+      </c>
+      <c r="F469" s="3">
+        <v>31.31</v>
+      </c>
+      <c r="G469" s="11">
+        <v>103.77</v>
+      </c>
+      <c r="H469" s="11"/>
+      <c r="I469" s="3"/>
+    </row>
+    <row r="470" spans="3:9" ht="15.75">
+      <c r="C470" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D470" s="11"/>
+      <c r="E470" s="11"/>
+      <c r="F470" s="11"/>
+      <c r="G470" s="3"/>
+      <c r="H470" s="11"/>
+      <c r="I470" s="3"/>
     </row>
   </sheetData>
   <sortState ref="D411:J434">
@@ -31117,8 +31514,8 @@
   <sheetPr codeName="Лист5"/>
   <dimension ref="A3:Z503"/>
   <sheetViews>
-    <sheetView topLeftCell="B402" workbookViewId="0">
-      <selection activeCell="J416" sqref="J416"/>
+    <sheetView topLeftCell="B510" workbookViewId="0">
+      <selection activeCell="M505" sqref="M505"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -31164,15 +31561,15 @@
         <v>12</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4">
         <v>160</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>64</v>
+      <c r="B4" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -31624,7 +32021,7 @@
         <v>12</v>
       </c>
       <c r="N38" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="3:14">
@@ -32077,8 +32474,8 @@
       <c r="M73" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N73" s="20" t="s">
-        <v>60</v>
+      <c r="N73" s="19" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="74" spans="3:14">
@@ -32560,7 +32957,7 @@
         <v>12</v>
       </c>
       <c r="N113" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="114" spans="3:14">
@@ -33014,7 +33411,7 @@
         <v>12</v>
       </c>
       <c r="N148" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="149" spans="3:14">
@@ -33468,7 +33865,7 @@
         <v>12</v>
       </c>
       <c r="N184" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="185" spans="3:14">
@@ -33918,8 +34315,8 @@
       <c r="Z218" s="2"/>
     </row>
     <row r="223" spans="1:26" ht="60">
-      <c r="B223" s="17" t="s">
-        <v>64</v>
+      <c r="B223" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="C223" s="1"/>
       <c r="D223" s="1" t="s">
@@ -33953,7 +34350,7 @@
         <v>12</v>
       </c>
       <c r="N223" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="224" spans="1:26">
@@ -34854,7 +35251,7 @@
         <v>12</v>
       </c>
       <c r="N294" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="295" spans="3:14">
@@ -35338,7 +35735,7 @@
         <v>12</v>
       </c>
       <c r="N334" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="335" spans="1:26">
@@ -35860,7 +36257,7 @@
         <v>12</v>
       </c>
       <c r="N372" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="373" spans="3:14">
@@ -36305,7 +36702,7 @@
         <v>11</v>
       </c>
       <c r="J416" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K416" s="1"/>
       <c r="L416" s="1" t="s">
@@ -36412,7 +36809,7 @@
       <c r="D423">
         <v>4</v>
       </c>
-      <c r="E423" s="17">
+      <c r="E423" s="16">
         <v>200</v>
       </c>
       <c r="F423">
@@ -36617,56 +37014,57 @@
     </row>
     <row r="445" spans="4:8" s="2" customFormat="1"/>
     <row r="450" spans="4:7">
+      <c r="D450" s="4"/>
       <c r="E450" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F450" s="4" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="G450" s="4" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
     </row>
     <row r="451" spans="4:7" ht="15.75">
-      <c r="D451" t="s">
-        <v>23</v>
-      </c>
-      <c r="E451" s="13">
-        <v>176.85</v>
+      <c r="D451" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E451" s="11">
+        <v>148.96</v>
       </c>
       <c r="F451" s="3">
-        <v>51.36</v>
+        <v>64.17</v>
       </c>
       <c r="G451" s="3">
-        <v>151.01</v>
+        <v>43.26</v>
       </c>
     </row>
     <row r="452" spans="4:7" ht="15.75">
-      <c r="D452" t="s">
-        <v>24</v>
+      <c r="D452" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="E452" s="3">
-        <v>239.78</v>
+        <v>120.94</v>
       </c>
       <c r="F452" s="3">
-        <v>167.19</v>
+        <v>71.209999999999994</v>
       </c>
       <c r="G452" s="3">
-        <v>126.72</v>
+        <v>52.24</v>
       </c>
     </row>
     <row r="453" spans="4:7" ht="15.75">
-      <c r="D453" t="s">
-        <v>25</v>
+      <c r="D453" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="E453" s="3">
-        <v>101.12</v>
+        <v>136.16999999999999</v>
       </c>
       <c r="F453" s="3">
-        <v>154.02000000000001</v>
+        <v>96.77</v>
       </c>
       <c r="G453" s="3">
-        <v>59.64</v>
+        <v>37.19</v>
       </c>
     </row>
     <row r="475" spans="4:14" s="2" customFormat="1"/>
@@ -36983,53 +37381,45 @@
       </c>
     </row>
     <row r="497" spans="3:7" s="2" customFormat="1"/>
-    <row r="501" spans="3:7">
-      <c r="D501" t="s">
-        <v>24</v>
-      </c>
-      <c r="E501" t="s">
-        <v>50</v>
-      </c>
-      <c r="F501" t="s">
-        <v>45</v>
-      </c>
-      <c r="G501" t="s">
-        <v>52</v>
+    <row r="501" spans="3:7" ht="15.75">
+      <c r="D501" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E501" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F501" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G501" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="502" spans="3:7" ht="15.75">
-      <c r="C502" t="s">
-        <v>46</v>
+      <c r="C502" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="D502" s="3">
-        <v>239.78</v>
+        <v>120.94</v>
       </c>
       <c r="E502" s="3">
-        <v>167.19</v>
-      </c>
-      <c r="F502" s="13">
-        <v>174.35</v>
-      </c>
-      <c r="G502" s="3">
-        <v>154.02000000000001</v>
+        <v>52.24</v>
+      </c>
+      <c r="F502" s="3">
+        <v>37.19</v>
+      </c>
+      <c r="G502" s="11">
+        <v>119.01</v>
       </c>
     </row>
     <row r="503" spans="3:7" ht="15.75">
-      <c r="C503" t="s">
-        <v>29</v>
-      </c>
-      <c r="D503" s="3">
-        <v>899.91</v>
-      </c>
-      <c r="E503" s="3">
-        <v>998.96</v>
-      </c>
-      <c r="F503" s="13">
-        <v>364.76</v>
-      </c>
-      <c r="G503" s="3">
-        <v>737.26</v>
-      </c>
+      <c r="C503" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D503" s="11"/>
+      <c r="E503" s="11"/>
+      <c r="F503" s="11"/>
+      <c r="G503" s="3"/>
     </row>
   </sheetData>
   <sortState ref="D417:H440">
@@ -37045,15 +37435,15 @@
   <sheetPr codeName="Лист6"/>
   <dimension ref="A2:L65"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I71" sqref="I71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="1:11">
-      <c r="C2" s="17" t="s">
-        <v>69</v>
+      <c r="C2" s="16" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="60">
@@ -37073,7 +37463,7 @@
         <v>5</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>8</v>
@@ -37082,7 +37472,7 @@
         <v>12</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -37128,7 +37518,7 @@
       <c r="D8">
         <v>4</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="16">
         <v>200</v>
       </c>
       <c r="F8">
@@ -37150,7 +37540,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -37306,8 +37696,8 @@
     </row>
     <row r="23" spans="1:12" s="2" customFormat="1"/>
     <row r="25" spans="1:12" ht="60">
-      <c r="A25" s="17" t="s">
-        <v>69</v>
+      <c r="A25" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>2</v>
@@ -37337,7 +37727,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -37441,8 +37831,8 @@
     </row>
     <row r="33" spans="2:11" s="2" customFormat="1"/>
     <row r="36" spans="2:11">
-      <c r="B36" s="17" t="s">
-        <v>70</v>
+      <c r="B36" s="16" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="2:11" ht="60">
@@ -37462,7 +37852,7 @@
         <v>5</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>8</v>
@@ -37471,7 +37861,7 @@
         <v>12</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="2:11">
@@ -37686,8 +38076,8 @@
     </row>
     <row r="58" spans="2:12" s="2" customFormat="1"/>
     <row r="61" spans="2:12">
-      <c r="B61" s="17" t="s">
-        <v>70</v>
+      <c r="B61" s="16" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="2:12" ht="60">
@@ -37719,7 +38109,7 @@
         <v>12</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63" spans="2:12">
@@ -38928,7 +39318,7 @@
     <row r="54" spans="2:12" s="2" customFormat="1"/>
     <row r="57" spans="2:12">
       <c r="B57" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="2:12" ht="45">
@@ -39551,13 +39941,13 @@
         <v>29</v>
       </c>
       <c r="AI4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AJ4" t="s">
         <v>30</v>
       </c>
       <c r="AQ4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -40778,7 +41168,7 @@
     <row r="49" spans="1:11" s="2" customFormat="1"/>
     <row r="52" spans="1:11">
       <c r="B52" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -41263,7 +41653,7 @@
     <row r="114" spans="1:11" s="2" customFormat="1"/>
     <row r="118" spans="1:11">
       <c r="B118" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -41756,7 +42146,7 @@
     <row r="175" s="2" customFormat="1"/>
     <row r="179" spans="1:11">
       <c r="B179" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="182" spans="1:11">
@@ -42216,7 +42606,7 @@
       <c r="H4" s="10"/>
     </row>
     <row r="5" spans="3:10" ht="48" thickBot="1">
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="20" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="8" t="s">
@@ -42233,7 +42623,7 @@
       </c>
     </row>
     <row r="6" spans="3:10" ht="32.25" thickBot="1">
-      <c r="C6" s="22"/>
+      <c r="C6" s="21"/>
       <c r="D6" s="8" t="s">
         <v>27</v>
       </c>
@@ -42251,7 +42641,7 @@
       </c>
     </row>
     <row r="7" spans="3:10" ht="32.25" customHeight="1" thickBot="1">
-      <c r="C7" s="23"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="8" t="s">
         <v>28</v>
       </c>
@@ -42269,7 +42659,7 @@
       </c>
     </row>
     <row r="8" spans="3:10" ht="16.5" thickBot="1">
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="20" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -42289,19 +42679,19 @@
       </c>
     </row>
     <row r="9" spans="3:10" ht="32.25" thickBot="1">
-      <c r="C9" s="22"/>
+      <c r="C9" s="21"/>
       <c r="D9" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="3:10" ht="95.25" thickBot="1">
-      <c r="C10" s="23"/>
+      <c r="C10" s="22"/>
       <c r="D10" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="11" spans="3:10" ht="16.5" thickBot="1">
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="20" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="8" t="s">
@@ -42309,13 +42699,13 @@
       </c>
     </row>
     <row r="12" spans="3:10" ht="32.25" thickBot="1">
-      <c r="C12" s="22"/>
+      <c r="C12" s="21"/>
       <c r="D12" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="3:10" ht="95.25" thickBot="1">
-      <c r="C13" s="23"/>
+      <c r="C13" s="22"/>
       <c r="D13" s="8" t="s">
         <v>28</v>
       </c>

--- a/documents/исследования.xlsx
+++ b/documents/исследования.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="портрет" sheetId="1" r:id="rId1"/>
@@ -480,7 +480,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.17587167491231842"/>
+          <c:x val="0.17587167491231839"/>
           <c:y val="7.6778988485025221E-2"/>
           <c:w val="0.46429475765625361"/>
           <c:h val="0.6329103811518505"/>
@@ -704,11 +704,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="83142912"/>
-        <c:axId val="83235584"/>
+        <c:axId val="61319424"/>
+        <c:axId val="60232448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="83142912"/>
+        <c:axId val="61319424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -733,14 +733,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83235584"/>
+        <c:crossAx val="60232448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83235584"/>
+        <c:axId val="60232448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -775,7 +775,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83142912"/>
+        <c:crossAx val="61319424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -799,9 +799,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.66110883710840307"/>
+          <c:x val="0.6611088371084034"/>
           <c:y val="8.6460758061807932E-2"/>
-          <c:w val="0.32027569218952773"/>
+          <c:w val="0.32027569218952784"/>
           <c:h val="0.84250477857999795"/>
         </c:manualLayout>
       </c:layout>
@@ -815,7 +815,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1055,11 +1055,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="96160768"/>
-        <c:axId val="96171136"/>
+        <c:axId val="78597120"/>
+        <c:axId val="78607488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="96160768"/>
+        <c:axId val="78597120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1084,14 +1084,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96171136"/>
+        <c:crossAx val="78607488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96171136"/>
+        <c:axId val="78607488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1126,7 +1126,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96160768"/>
+        <c:crossAx val="78597120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1150,9 +1150,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.66110883710840374"/>
+          <c:x val="0.66110883710840396"/>
           <c:y val="8.6460758061807932E-2"/>
-          <c:w val="0.32027569218952789"/>
+          <c:w val="0.32027569218952795"/>
           <c:h val="0.84250477857999795"/>
         </c:manualLayout>
       </c:layout>
@@ -1166,7 +1166,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1183,9 +1183,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.17260710585903768"/>
+          <c:x val="0.17260710585903771"/>
           <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.60357587408597413"/>
+          <c:w val="0.60357587408597424"/>
           <c:h val="0.5445866624176815"/>
         </c:manualLayout>
       </c:layout>
@@ -1248,11 +1248,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="96195712"/>
-        <c:axId val="96197632"/>
+        <c:axId val="78627968"/>
+        <c:axId val="78629888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="96195712"/>
+        <c:axId val="78627968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1277,8 +1277,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.29329681615885012"/>
-              <c:y val="0.89983141341320083"/>
+              <c:x val="0.29329681615885017"/>
+              <c:y val="0.89983141341320094"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -1293,14 +1293,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96197632"/>
+        <c:crossAx val="78629888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96197632"/>
+        <c:axId val="78629888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1334,7 +1334,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96195712"/>
+        <c:crossAx val="78627968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1347,7 +1347,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.78167276749269221"/>
           <c:y val="0.26369685006901455"/>
-          <c:w val="0.2034414730919949"/>
+          <c:w val="0.20344147309199495"/>
           <c:h val="0.13195137725382619"/>
         </c:manualLayout>
       </c:layout>
@@ -1362,7 +1362,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1602,11 +1602,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="96351744"/>
-        <c:axId val="96353664"/>
+        <c:axId val="78718464"/>
+        <c:axId val="78720384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="96351744"/>
+        <c:axId val="78718464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1631,14 +1631,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96353664"/>
+        <c:crossAx val="78720384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96353664"/>
+        <c:axId val="78720384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1673,7 +1673,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96351744"/>
+        <c:crossAx val="78718464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1697,9 +1697,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.66110883710840429"/>
+          <c:x val="0.66110883710840462"/>
           <c:y val="8.6460758061807932E-2"/>
-          <c:w val="0.32027569218952801"/>
+          <c:w val="0.32027569218952806"/>
           <c:h val="0.84250477857999795"/>
         </c:manualLayout>
       </c:layout>
@@ -1713,7 +1713,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1732,7 +1732,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.17260710585903771"/>
           <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.60357587408597435"/>
+          <c:w val="0.60357587408597446"/>
           <c:h val="0.5445866624176815"/>
         </c:manualLayout>
       </c:layout>
@@ -1795,11 +1795,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="96374144"/>
-        <c:axId val="96388608"/>
+        <c:axId val="78740864"/>
+        <c:axId val="78755328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="96374144"/>
+        <c:axId val="78740864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1824,8 +1824,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.29329681615885023"/>
-              <c:y val="0.89983141341320105"/>
+              <c:x val="0.29329681615885034"/>
+              <c:y val="0.89983141341320116"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -1840,14 +1840,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96388608"/>
+        <c:crossAx val="78755328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96388608"/>
+        <c:axId val="78755328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1881,7 +1881,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96374144"/>
+        <c:crossAx val="78740864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1894,7 +1894,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.78167276749269221"/>
           <c:y val="0.26369685006901455"/>
-          <c:w val="0.20344147309199501"/>
+          <c:w val="0.20344147309199506"/>
           <c:h val="0.13195137725382619"/>
         </c:manualLayout>
       </c:layout>
@@ -1909,7 +1909,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2149,11 +2149,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="96440320"/>
-        <c:axId val="96442240"/>
+        <c:axId val="79003648"/>
+        <c:axId val="79005568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="96440320"/>
+        <c:axId val="79003648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2177,14 +2177,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96442240"/>
+        <c:crossAx val="79005568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96442240"/>
+        <c:axId val="79005568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2218,7 +2218,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96440320"/>
+        <c:crossAx val="79003648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2242,9 +2242,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.66110883710840485"/>
+          <c:x val="0.66110883710840507"/>
           <c:y val="8.6460758061807932E-2"/>
-          <c:w val="0.32027569218952812"/>
+          <c:w val="0.32027569218952817"/>
           <c:h val="0.84250477857999795"/>
         </c:manualLayout>
       </c:layout>
@@ -2258,7 +2258,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2277,7 +2277,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.17260710585903771"/>
           <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.60357587408597468"/>
+          <c:w val="0.6035758740859748"/>
           <c:h val="0.5445866624176815"/>
         </c:manualLayout>
       </c:layout>
@@ -2340,11 +2340,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="96536448"/>
-        <c:axId val="96546816"/>
+        <c:axId val="79034240"/>
+        <c:axId val="78848000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="96536448"/>
+        <c:axId val="79034240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2369,8 +2369,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.29329681615885039"/>
-              <c:y val="0.89983141341320139"/>
+              <c:x val="0.29329681615885045"/>
+              <c:y val="0.89983141341320161"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -2385,14 +2385,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96546816"/>
+        <c:crossAx val="78848000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96546816"/>
+        <c:axId val="78848000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2425,7 +2425,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96536448"/>
+        <c:crossAx val="79034240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2438,7 +2438,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.78167276749269221"/>
           <c:y val="0.26369685006901455"/>
-          <c:w val="0.20344147309199512"/>
+          <c:w val="0.2034414730919952"/>
           <c:h val="0.13195137725382619"/>
         </c:manualLayout>
       </c:layout>
@@ -2453,7 +2453,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2472,8 +2472,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.17260710585903771"/>
           <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.60357587408597491"/>
-          <c:h val="0.66445744865549439"/>
+          <c:w val="0.60357587408597502"/>
+          <c:h val="0.66445744865549461"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2529,11 +2529,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="96591872"/>
-        <c:axId val="96593792"/>
+        <c:axId val="78880768"/>
+        <c:axId val="78882688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="96591872"/>
+        <c:axId val="78880768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2558,7 +2558,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.29552647056241738"/>
+              <c:x val="0.29552647056241743"/>
               <c:y val="0.89001337867785957"/>
             </c:manualLayout>
           </c:layout>
@@ -2574,14 +2574,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96593792"/>
+        <c:crossAx val="78882688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96593792"/>
+        <c:axId val="78882688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2614,7 +2614,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96591872"/>
+        <c:crossAx val="78880768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2627,7 +2627,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.78167276749269221"/>
           <c:y val="0.26369685006901455"/>
-          <c:w val="0.20344147309199526"/>
+          <c:w val="0.20344147309199531"/>
           <c:h val="0.13195137725382619"/>
         </c:manualLayout>
       </c:layout>
@@ -2642,7 +2642,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2661,8 +2661,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.17260710585903771"/>
           <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.60357587408597513"/>
-          <c:h val="0.66445744865549472"/>
+          <c:w val="0.60357587408597524"/>
+          <c:h val="0.66445744865549483"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2718,11 +2718,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="96626176"/>
-        <c:axId val="96628096"/>
+        <c:axId val="79054336"/>
+        <c:axId val="79056256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="96626176"/>
+        <c:axId val="79054336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2747,7 +2747,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.29552647056241754"/>
+              <c:x val="0.29552647056241765"/>
               <c:y val="0.89001337867785957"/>
             </c:manualLayout>
           </c:layout>
@@ -2763,14 +2763,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96628096"/>
+        <c:crossAx val="79056256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96628096"/>
+        <c:axId val="79056256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2803,7 +2803,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96626176"/>
+        <c:crossAx val="79054336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2816,7 +2816,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.78167276749269221"/>
           <c:y val="0.26369685006901455"/>
-          <c:w val="0.20344147309199537"/>
+          <c:w val="0.20344147309199545"/>
           <c:h val="0.13195137725382619"/>
         </c:manualLayout>
       </c:layout>
@@ -2831,7 +2831,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3071,11 +3071,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="96671232"/>
-        <c:axId val="96673152"/>
+        <c:axId val="80156160"/>
+        <c:axId val="80158080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="96671232"/>
+        <c:axId val="80156160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3099,14 +3099,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96673152"/>
+        <c:crossAx val="80158080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96673152"/>
+        <c:axId val="80158080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3140,7 +3140,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96671232"/>
+        <c:crossAx val="80156160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3164,9 +3164,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.6611088371084054"/>
+          <c:x val="0.66110883710840573"/>
           <c:y val="8.6460758061807932E-2"/>
-          <c:w val="0.32027569218952823"/>
+          <c:w val="0.32027569218952834"/>
           <c:h val="0.84250477857999795"/>
         </c:manualLayout>
       </c:layout>
@@ -3180,7 +3180,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3375,8 +3375,8 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="96744576"/>
-        <c:axId val="96746112"/>
+        <c:axId val="80229504"/>
+        <c:axId val="80231040"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3453,25 +3453,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="96757632"/>
-        <c:axId val="96756096"/>
+        <c:axId val="80242560"/>
+        <c:axId val="80241024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96744576"/>
+        <c:axId val="80229504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96746112"/>
+        <c:crossAx val="80231040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96746112"/>
+        <c:axId val="80231040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3479,32 +3479,32 @@
         <c:minorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96744576"/>
+        <c:crossAx val="80229504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="96756096"/>
+        <c:axId val="80241024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96757632"/>
+        <c:crossAx val="80242560"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="96757632"/>
+        <c:axId val="80242560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="t"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="96756096"/>
+        <c:crossAx val="80241024"/>
         <c:crosses val="max"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3519,7 +3519,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3672,25 +3672,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="83264256"/>
-        <c:axId val="83265792"/>
+        <c:axId val="60269312"/>
+        <c:axId val="60270848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="83264256"/>
+        <c:axId val="60269312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83265792"/>
+        <c:crossAx val="60270848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83265792"/>
+        <c:axId val="60270848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3698,7 +3698,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83264256"/>
+        <c:crossAx val="60269312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3710,7 +3710,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3849,11 +3849,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="96803072"/>
-        <c:axId val="96809344"/>
+        <c:axId val="81332480"/>
+        <c:axId val="81338752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="96803072"/>
+        <c:axId val="81332480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3876,14 +3876,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96809344"/>
+        <c:crossAx val="81338752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96809344"/>
+        <c:axId val="81338752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3908,7 +3908,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96803072"/>
+        <c:crossAx val="81332480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3920,7 +3920,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4059,24 +4059,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="96826112"/>
-        <c:axId val="96827648"/>
+        <c:axId val="81355520"/>
+        <c:axId val="81357056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="96826112"/>
+        <c:axId val="81355520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96827648"/>
+        <c:crossAx val="81357056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96827648"/>
+        <c:axId val="81357056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4084,7 +4084,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96826112"/>
+        <c:crossAx val="81355520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4096,7 +4096,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4235,24 +4235,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="96856320"/>
-        <c:axId val="104615936"/>
+        <c:axId val="81381632"/>
+        <c:axId val="84885504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="96856320"/>
+        <c:axId val="81381632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104615936"/>
+        <c:crossAx val="84885504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104615936"/>
+        <c:axId val="84885504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4260,7 +4260,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96856320"/>
+        <c:crossAx val="81381632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4272,7 +4272,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4350,24 +4350,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="104627200"/>
-        <c:axId val="104633088"/>
+        <c:axId val="84896768"/>
+        <c:axId val="84902656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="104627200"/>
+        <c:axId val="84896768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104633088"/>
+        <c:crossAx val="84902656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104633088"/>
+        <c:axId val="84902656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4375,7 +4375,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104627200"/>
+        <c:crossAx val="84896768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4387,7 +4387,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4552,24 +4552,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="104581376"/>
-        <c:axId val="104726528"/>
+        <c:axId val="84982016"/>
+        <c:axId val="84996096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="104581376"/>
+        <c:axId val="84982016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104726528"/>
+        <c:crossAx val="84996096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104726528"/>
+        <c:axId val="84996096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4577,7 +4577,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104581376"/>
+        <c:crossAx val="84982016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4589,7 +4589,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4606,9 +4606,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.17260710585903763"/>
+          <c:x val="0.17260710585903766"/>
           <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.60357587408597391"/>
+          <c:w val="0.60357587408597402"/>
           <c:h val="0.5445866624176815"/>
         </c:manualLayout>
       </c:layout>
@@ -4671,11 +4671,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="83291520"/>
-        <c:axId val="83654144"/>
+        <c:axId val="60288384"/>
+        <c:axId val="76637696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="83291520"/>
+        <c:axId val="60288384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4700,8 +4700,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.29329681615885"/>
-              <c:y val="0.89983141341320061"/>
+              <c:x val="0.29329681615885006"/>
+              <c:y val="0.89983141341320072"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -4716,14 +4716,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83654144"/>
+        <c:crossAx val="76637696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83654144"/>
+        <c:axId val="76637696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4757,7 +4757,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83291520"/>
+        <c:crossAx val="60288384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4770,7 +4770,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.78167276749269221"/>
           <c:y val="0.26369685006901455"/>
-          <c:w val="0.20344147309199478"/>
+          <c:w val="0.20344147309199484"/>
           <c:h val="0.13195137725382619"/>
         </c:manualLayout>
       </c:layout>
@@ -4785,7 +4785,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4927,24 +4927,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="83571456"/>
-        <c:axId val="83572992"/>
+        <c:axId val="78189312"/>
+        <c:axId val="78190848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="83571456"/>
+        <c:axId val="78189312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83572992"/>
+        <c:crossAx val="78190848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83572992"/>
+        <c:axId val="78190848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4999,7 +4999,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83571456"/>
+        <c:crossAx val="78189312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5017,7 +5017,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5159,24 +5159,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="83593472"/>
-        <c:axId val="83599360"/>
+        <c:axId val="78211328"/>
+        <c:axId val="78225408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="83593472"/>
+        <c:axId val="78211328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83599360"/>
+        <c:crossAx val="78225408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83599360"/>
+        <c:axId val="78225408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5210,7 +5210,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83593472"/>
+        <c:crossAx val="78211328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5228,7 +5228,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5245,9 +5245,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.18814270812302322"/>
-          <c:y val="4.0336129645919649E-2"/>
-          <c:w val="0.76312975301164321"/>
+          <c:x val="0.18814270812302325"/>
+          <c:y val="4.0336129645919663E-2"/>
+          <c:w val="0.76312975301164332"/>
           <c:h val="0.48806253441753028"/>
         </c:manualLayout>
       </c:layout>
@@ -5380,24 +5380,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="93986816"/>
-        <c:axId val="93988352"/>
+        <c:axId val="78258176"/>
+        <c:axId val="78259712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="93986816"/>
+        <c:axId val="78258176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93988352"/>
+        <c:crossAx val="78259712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93988352"/>
+        <c:axId val="78259712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5427,10 +5427,11 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93986816"/>
+        <c:crossAx val="78258176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5442,9 +5443,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.32306733292953782"/>
-          <c:y val="0.87768771410385749"/>
-          <c:w val="0.20898394912174451"/>
-          <c:h val="6.5696324744148202E-2"/>
+          <c:y val="0.87768771410385771"/>
+          <c:w val="0.20898394912174453"/>
+          <c:h val="6.569632474414823E-2"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -5458,7 +5459,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5740,24 +5741,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="94320128"/>
-        <c:axId val="94321664"/>
+        <c:axId val="78317056"/>
+        <c:axId val="78318592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="94320128"/>
+        <c:axId val="78317056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94321664"/>
+        <c:crossAx val="78318592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94321664"/>
+        <c:axId val="78318592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5788,10 +5789,11 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94320128"/>
+        <c:crossAx val="78317056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5811,6 +5813,7 @@
           </a:p>
         </c:txPr>
       </c:legendEntry>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -5821,7 +5824,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6103,24 +6106,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="95762304"/>
-        <c:axId val="95763840"/>
+        <c:axId val="78387072"/>
+        <c:axId val="78388608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="95762304"/>
+        <c:axId val="78387072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95763840"/>
+        <c:crossAx val="78388608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95763840"/>
+        <c:axId val="78388608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6154,7 +6157,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95762304"/>
+        <c:crossAx val="78387072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6184,7 +6187,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6466,24 +6469,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="95791744"/>
-        <c:axId val="95809920"/>
+        <c:axId val="78424704"/>
+        <c:axId val="78442880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="95791744"/>
+        <c:axId val="78424704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95809920"/>
+        <c:crossAx val="78442880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95809920"/>
+        <c:axId val="78442880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6517,7 +6520,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95791744"/>
+        <c:crossAx val="78424704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6547,7 +6550,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7606,8 +7609,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A3:AO435"/>
   <sheetViews>
-    <sheetView topLeftCell="B367" workbookViewId="0">
-      <selection activeCell="T379" sqref="T379"/>
+    <sheetView tabSelected="1" topLeftCell="E324" workbookViewId="0">
+      <selection activeCell="E330" sqref="A330:XFD357"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15475,7 +15478,7 @@
         <v>300</v>
       </c>
       <c r="G329">
-        <v>85.57</v>
+        <v>35.21</v>
       </c>
       <c r="I329">
         <v>1.75</v>
@@ -15498,7 +15501,7 @@
         <v>4.4117647058823533</v>
       </c>
       <c r="O329">
-        <v>0.97792999999999997</v>
+        <v>0.96987585439300095</v>
       </c>
       <c r="S329" t="s">
         <v>21</v>
@@ -15547,7 +15550,7 @@
         <v>300</v>
       </c>
       <c r="G330">
-        <v>108.32</v>
+        <v>41.01</v>
       </c>
       <c r="I330">
         <v>2.1800000000000002</v>
@@ -15559,15 +15562,15 @@
         <v>75.099999999999994</v>
       </c>
       <c r="L330">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="M330">
         <f t="shared" ref="M330:M335" si="34">J330/L330</f>
-        <v>0.70625000000000004</v>
+        <v>0.71069182389937113</v>
       </c>
       <c r="N330">
         <f t="shared" ref="N330:N335" si="35">K330/L330</f>
-        <v>4.6937499999999996</v>
+        <v>4.7232704402515715</v>
       </c>
       <c r="O330">
         <v>0.97028999999999999</v>
@@ -15616,7 +15619,7 @@
         <v>300</v>
       </c>
       <c r="G331">
-        <v>78.209999999999994</v>
+        <v>33.21</v>
       </c>
       <c r="I331">
         <v>2.71</v>
@@ -15685,7 +15688,7 @@
         <v>300</v>
       </c>
       <c r="G332">
-        <v>37.51</v>
+        <v>32.85</v>
       </c>
       <c r="I332">
         <v>2.73</v>
@@ -15708,7 +15711,7 @@
         <v>4.8141025641025639</v>
       </c>
       <c r="O332">
-        <v>0.97767999999999999</v>
+        <v>0.98310055435032095</v>
       </c>
       <c r="T332">
         <v>4</v>
@@ -15823,7 +15826,7 @@
         <v>300</v>
       </c>
       <c r="G334">
-        <v>43.79</v>
+        <v>32.909999999999997</v>
       </c>
       <c r="I334">
         <v>2.78</v>
@@ -15846,7 +15849,7 @@
         <v>4.7834394904458595</v>
       </c>
       <c r="O334">
-        <v>0.97214</v>
+        <v>0.98310055435032095</v>
       </c>
       <c r="T334">
         <v>16</v>
@@ -15892,7 +15895,7 @@
         <v>300</v>
       </c>
       <c r="G335">
-        <v>44.37</v>
+        <v>33.869999999999997</v>
       </c>
       <c r="I335">
         <v>2.34</v>
@@ -16891,7 +16894,7 @@
       </c>
       <c r="G358">
         <f t="shared" si="38"/>
-        <v>61.947142857142858</v>
+        <v>34.988571428571426</v>
       </c>
       <c r="I358">
         <f t="shared" si="38"/>
@@ -16907,19 +16910,19 @@
       </c>
       <c r="L358">
         <f t="shared" si="38"/>
-        <v>16.028571428571428</v>
+        <v>16.014285714285712</v>
       </c>
       <c r="M358">
         <f>AVERAGE(M329:M357)</f>
-        <v>0.69786644486778115</v>
+        <v>0.69850099113912001</v>
       </c>
       <c r="N358">
         <f t="shared" si="38"/>
-        <v>4.6888341475729316</v>
+        <v>4.6930513533231544</v>
       </c>
       <c r="O358">
         <f t="shared" si="38"/>
-        <v>0.97703714285714294</v>
+        <v>0.97822670901337749</v>
       </c>
     </row>
     <row r="362" spans="3:30" s="2" customFormat="1"/>
@@ -17972,8 +17975,8 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="B3:AT45"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AE11" sqref="AE11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AB13" sqref="AB13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19646,8 +19649,8 @@
   <sheetPr codeName="Лист3"/>
   <dimension ref="A3:N459"/>
   <sheetViews>
-    <sheetView topLeftCell="B462" workbookViewId="0">
-      <selection activeCell="D447" sqref="D447"/>
+    <sheetView topLeftCell="B361" workbookViewId="0">
+      <selection activeCell="F401" sqref="F401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25298,7 +25301,7 @@
         <v>300</v>
       </c>
       <c r="G369">
-        <v>104.09</v>
+        <v>42.65</v>
       </c>
       <c r="H369">
         <v>2.15</v>
@@ -25318,10 +25321,10 @@
         <v>4.7232704402515715</v>
       </c>
       <c r="N369">
-        <v>0.98064649199429399</v>
-      </c>
-    </row>
-    <row r="370" spans="3:14" ht="15" customHeight="1">
+        <v>0.97901659917184303</v>
+      </c>
+    </row>
+    <row r="370" spans="3:14" ht="15" hidden="1" customHeight="1">
       <c r="C370">
         <v>2</v>
       </c>
@@ -25332,7 +25335,7 @@
         <v>300</v>
       </c>
       <c r="G370">
-        <v>47.66</v>
+        <v>44.44</v>
       </c>
       <c r="H370">
         <v>2.4300000000000002</v>
@@ -25351,7 +25354,7 @@
         <v>0.99851928003936796</v>
       </c>
     </row>
-    <row r="371" spans="3:14" ht="15" customHeight="1">
+    <row r="371" spans="3:14" ht="15" hidden="1" customHeight="1">
       <c r="C371">
         <v>3</v>
       </c>
@@ -25362,7 +25365,7 @@
         <v>300</v>
       </c>
       <c r="G371">
-        <v>59.61</v>
+        <v>42.75</v>
       </c>
       <c r="H371">
         <v>2.12</v>
@@ -25378,10 +25381,10 @@
         <v>4.7834394904458595</v>
       </c>
       <c r="N371">
-        <v>0.99394059931455503</v>
-      </c>
-    </row>
-    <row r="372" spans="3:14" ht="15" customHeight="1">
+        <v>0.99169393654483495</v>
+      </c>
+    </row>
+    <row r="372" spans="3:14" ht="15" hidden="1" customHeight="1">
       <c r="C372">
         <v>4</v>
       </c>
@@ -25392,7 +25395,7 @@
         <v>300</v>
       </c>
       <c r="G372">
-        <v>56.69</v>
+        <v>46.92</v>
       </c>
       <c r="H372">
         <v>2.65</v>
@@ -25408,10 +25411,10 @@
         <v>4.7834394904458595</v>
       </c>
       <c r="N372">
-        <v>0.98986253951108305</v>
-      </c>
-    </row>
-    <row r="373" spans="3:14" ht="15" customHeight="1">
+        <v>0.98827015989376699</v>
+      </c>
+    </row>
+    <row r="373" spans="3:14" ht="15" hidden="1" customHeight="1">
       <c r="C373">
         <v>5</v>
       </c>
@@ -25441,7 +25444,7 @@
         <v>0.99891815365189196</v>
       </c>
     </row>
-    <row r="374" spans="3:14" ht="15" customHeight="1">
+    <row r="374" spans="3:14" ht="15" hidden="1" customHeight="1">
       <c r="C374">
         <v>6</v>
       </c>
@@ -25471,7 +25474,7 @@
         <v>0.997952990245219</v>
       </c>
     </row>
-    <row r="375" spans="3:14" ht="15" customHeight="1">
+    <row r="375" spans="3:14" ht="15" hidden="1" customHeight="1">
       <c r="C375">
         <v>7</v>
       </c>
@@ -25501,7 +25504,7 @@
         <v>0.98282161291388104</v>
       </c>
     </row>
-    <row r="376" spans="3:14" ht="15" customHeight="1">
+    <row r="376" spans="3:14" ht="15" hidden="1" customHeight="1">
       <c r="C376">
         <v>8</v>
       </c>
@@ -25515,7 +25518,7 @@
         <v>75.099999999999994</v>
       </c>
     </row>
-    <row r="377" spans="3:14" ht="15" customHeight="1">
+    <row r="377" spans="3:14" ht="15" hidden="1" customHeight="1">
       <c r="C377">
         <v>9</v>
       </c>
@@ -25529,7 +25532,7 @@
         <v>75.099999999999994</v>
       </c>
     </row>
-    <row r="378" spans="3:14" ht="15" customHeight="1">
+    <row r="378" spans="3:14" ht="15" hidden="1" customHeight="1">
       <c r="C378">
         <v>10</v>
       </c>
@@ -25543,7 +25546,7 @@
         <v>75.099999999999994</v>
       </c>
     </row>
-    <row r="379" spans="3:14" ht="15" customHeight="1">
+    <row r="379" spans="3:14" ht="15" hidden="1" customHeight="1">
       <c r="C379">
         <v>11</v>
       </c>
@@ -25554,7 +25557,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="380" spans="3:14" ht="15" customHeight="1">
+    <row r="380" spans="3:14" ht="15" hidden="1" customHeight="1">
       <c r="C380">
         <v>12</v>
       </c>
@@ -25565,7 +25568,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="381" spans="3:14" ht="15" customHeight="1">
+    <row r="381" spans="3:14" ht="15" hidden="1" customHeight="1">
       <c r="C381">
         <v>13</v>
       </c>
@@ -25576,7 +25579,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="382" spans="3:14" ht="15" customHeight="1">
+    <row r="382" spans="3:14" ht="15" hidden="1" customHeight="1">
       <c r="C382">
         <v>14</v>
       </c>
@@ -25587,7 +25590,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="383" spans="3:14" ht="15" customHeight="1">
+    <row r="383" spans="3:14" ht="15" hidden="1" customHeight="1">
       <c r="C383">
         <v>15</v>
       </c>
@@ -25598,7 +25601,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="384" spans="3:14" ht="15" customHeight="1">
+    <row r="384" spans="3:14" ht="15" hidden="1" customHeight="1">
       <c r="C384">
         <v>16</v>
       </c>
@@ -25609,7 +25612,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="385" spans="3:14" ht="15" customHeight="1">
+    <row r="385" spans="3:14" ht="15" hidden="1" customHeight="1">
       <c r="C385">
         <v>17</v>
       </c>
@@ -25620,7 +25623,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="386" spans="3:14" ht="15" customHeight="1">
+    <row r="386" spans="3:14" ht="15" hidden="1" customHeight="1">
       <c r="C386">
         <v>18</v>
       </c>
@@ -25631,7 +25634,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="387" spans="3:14" ht="15" customHeight="1">
+    <row r="387" spans="3:14" ht="15" hidden="1" customHeight="1">
       <c r="C387">
         <v>19</v>
       </c>
@@ -25642,7 +25645,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="388" spans="3:14" ht="15" customHeight="1">
+    <row r="388" spans="3:14" ht="15" hidden="1" customHeight="1">
       <c r="C388">
         <v>20</v>
       </c>
@@ -25653,7 +25656,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="389" spans="3:14" ht="15" customHeight="1">
+    <row r="389" spans="3:14" ht="15" hidden="1" customHeight="1">
       <c r="C389">
         <v>21</v>
       </c>
@@ -25664,7 +25667,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="390" spans="3:14" ht="15" customHeight="1">
+    <row r="390" spans="3:14" ht="15" hidden="1" customHeight="1">
       <c r="C390">
         <v>22</v>
       </c>
@@ -25675,7 +25678,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="391" spans="3:14" ht="15" customHeight="1">
+    <row r="391" spans="3:14" ht="15" hidden="1" customHeight="1">
       <c r="C391">
         <v>23</v>
       </c>
@@ -25686,7 +25689,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="392" spans="3:14" ht="15" customHeight="1">
+    <row r="392" spans="3:14" ht="15" hidden="1" customHeight="1">
       <c r="C392">
         <v>24</v>
       </c>
@@ -25697,7 +25700,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="393" spans="3:14" ht="15" customHeight="1">
+    <row r="393" spans="3:14" ht="15" hidden="1" customHeight="1">
       <c r="C393">
         <v>25</v>
       </c>
@@ -25708,7 +25711,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="394" spans="3:14" ht="15" customHeight="1">
+    <row r="394" spans="3:14" ht="15" hidden="1" customHeight="1">
       <c r="C394">
         <v>26</v>
       </c>
@@ -25719,7 +25722,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="395" spans="3:14" ht="15" customHeight="1">
+    <row r="395" spans="3:14" ht="15" hidden="1" customHeight="1">
       <c r="C395">
         <v>27</v>
       </c>
@@ -25730,7 +25733,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="396" spans="3:14" ht="15" customHeight="1">
+    <row r="396" spans="3:14" ht="15" hidden="1" customHeight="1">
       <c r="C396">
         <v>28</v>
       </c>
@@ -25741,7 +25744,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="397" spans="3:14" ht="15" customHeight="1">
+    <row r="397" spans="3:14" ht="15" hidden="1" customHeight="1">
       <c r="C397">
         <v>29</v>
       </c>
@@ -25758,7 +25761,7 @@
       </c>
       <c r="G398">
         <f>AVERAGE(G369:G397)</f>
-        <v>53.027142857142863</v>
+        <v>39.98571428571428</v>
       </c>
       <c r="H398">
         <f t="shared" ref="H398:N398" si="21">AVERAGE(H369:H397)</f>
@@ -25786,7 +25789,7 @@
       </c>
       <c r="N398">
         <f t="shared" si="21"/>
-        <v>0.99180880966718454</v>
+        <v>0.99102753320868653</v>
       </c>
     </row>
     <row r="403" spans="3:13" s="2" customFormat="1">
@@ -26295,8 +26298,8 @@
   <sheetPr codeName="Лист4"/>
   <dimension ref="A3:Z464"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B217" workbookViewId="0">
-      <selection activeCell="G227" sqref="G227"/>
+    <sheetView topLeftCell="B439" workbookViewId="0">
+      <selection activeCell="D450" sqref="D450"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -29643,10 +29646,10 @@
         <v>6</v>
       </c>
       <c r="G224">
-        <v>225.11</v>
+        <v>127.59</v>
       </c>
       <c r="H224">
-        <v>2.0699999999999998</v>
+        <v>1.74</v>
       </c>
       <c r="J224">
         <v>75.099999999999994</v>
@@ -29663,10 +29666,10 @@
         <v>4.4176470588235288</v>
       </c>
       <c r="N224">
-        <v>0.98812500729446995</v>
-      </c>
-    </row>
-    <row r="225" spans="3:10">
+        <v>0.97811622949570298</v>
+      </c>
+    </row>
+    <row r="225" spans="3:14" hidden="1">
       <c r="C225">
         <v>2</v>
       </c>
@@ -29676,14 +29679,27 @@
       <c r="F225" t="s">
         <v>6</v>
       </c>
+      <c r="G225">
+        <v>123.22</v>
+      </c>
       <c r="H225">
         <v>2.29</v>
       </c>
       <c r="J225">
         <v>75.099999999999994</v>
       </c>
-    </row>
-    <row r="226" spans="3:10">
+      <c r="K225">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="M225">
+        <f t="shared" ref="M225:M230" si="13">J225/K225</f>
+        <v>4.3918128654970756</v>
+      </c>
+      <c r="N225">
+        <v>0.98235903940783298</v>
+      </c>
+    </row>
+    <row r="226" spans="3:14" hidden="1">
       <c r="C226">
         <v>3</v>
       </c>
@@ -29693,14 +29709,27 @@
       <c r="F226" t="s">
         <v>6</v>
       </c>
+      <c r="G226">
+        <v>124.81</v>
+      </c>
       <c r="H226">
-        <v>2.23</v>
+        <v>1.78</v>
       </c>
       <c r="J226">
         <v>75.099999999999994</v>
       </c>
-    </row>
-    <row r="227" spans="3:10">
+      <c r="K226">
+        <v>17.2</v>
+      </c>
+      <c r="M226">
+        <f t="shared" si="13"/>
+        <v>4.3662790697674421</v>
+      </c>
+      <c r="N226">
+        <v>0.98039208718307003</v>
+      </c>
+    </row>
+    <row r="227" spans="3:14" hidden="1">
       <c r="C227">
         <v>4</v>
       </c>
@@ -29710,14 +29739,27 @@
       <c r="F227" t="s">
         <v>6</v>
       </c>
+      <c r="G227">
+        <v>123.92</v>
+      </c>
       <c r="H227">
         <v>2.2599999999999998</v>
       </c>
       <c r="J227">
         <v>75.099999999999994</v>
       </c>
-    </row>
-    <row r="228" spans="3:10">
+      <c r="K227">
+        <v>17.2</v>
+      </c>
+      <c r="M227">
+        <f t="shared" si="13"/>
+        <v>4.3662790697674421</v>
+      </c>
+      <c r="N227">
+        <v>0.98419738087100495</v>
+      </c>
+    </row>
+    <row r="228" spans="3:14" hidden="1">
       <c r="C228">
         <v>5</v>
       </c>
@@ -29727,14 +29769,27 @@
       <c r="F228" t="s">
         <v>6</v>
       </c>
+      <c r="G228">
+        <v>127.99</v>
+      </c>
       <c r="H228">
-        <v>2.34</v>
+        <v>1.69</v>
       </c>
       <c r="J228">
         <v>75.099999999999994</v>
       </c>
-    </row>
-    <row r="229" spans="3:10">
+      <c r="K228">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="M228">
+        <f t="shared" si="13"/>
+        <v>4.3918128654970756</v>
+      </c>
+      <c r="N228">
+        <v>0.97244660162630503</v>
+      </c>
+    </row>
+    <row r="229" spans="3:14" hidden="1">
       <c r="C229">
         <v>6</v>
       </c>
@@ -29743,6 +29798,9 @@
       </c>
       <c r="F229" t="s">
         <v>6</v>
+      </c>
+      <c r="G229">
+        <v>127.97</v>
       </c>
       <c r="H229">
         <v>2.39</v>
@@ -29750,8 +29808,18 @@
       <c r="J229">
         <v>75.099999999999994</v>
       </c>
-    </row>
-    <row r="230" spans="3:10">
+      <c r="K229">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="M229">
+        <f t="shared" si="13"/>
+        <v>4.3918128654970756</v>
+      </c>
+      <c r="N229">
+        <v>0.96293267204910904</v>
+      </c>
+    </row>
+    <row r="230" spans="3:14" hidden="1">
       <c r="C230">
         <v>7</v>
       </c>
@@ -29761,14 +29829,27 @@
       <c r="F230" t="s">
         <v>6</v>
       </c>
+      <c r="G230">
+        <v>128.21</v>
+      </c>
       <c r="H230">
-        <v>2.64</v>
+        <v>1.96</v>
       </c>
       <c r="J230">
         <v>75.099999999999994</v>
       </c>
-    </row>
-    <row r="231" spans="3:10">
+      <c r="K230">
+        <v>17</v>
+      </c>
+      <c r="M230">
+        <f t="shared" si="13"/>
+        <v>4.4176470588235288</v>
+      </c>
+      <c r="N230">
+        <v>0.98027243147062304</v>
+      </c>
+    </row>
+    <row r="231" spans="3:14" hidden="1">
       <c r="C231">
         <v>8</v>
       </c>
@@ -29779,7 +29860,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="232" spans="3:10">
+    <row r="232" spans="3:14" hidden="1">
       <c r="C232">
         <v>9</v>
       </c>
@@ -29790,7 +29871,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="233" spans="3:10">
+    <row r="233" spans="3:14" hidden="1">
       <c r="C233">
         <v>10</v>
       </c>
@@ -29801,7 +29882,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="234" spans="3:10">
+    <row r="234" spans="3:14" hidden="1">
       <c r="C234">
         <v>11</v>
       </c>
@@ -29812,7 +29893,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="235" spans="3:10">
+    <row r="235" spans="3:14" hidden="1">
       <c r="C235">
         <v>12</v>
       </c>
@@ -29823,7 +29904,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="236" spans="3:10">
+    <row r="236" spans="3:14" hidden="1">
       <c r="C236">
         <v>13</v>
       </c>
@@ -29834,7 +29915,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="237" spans="3:10">
+    <row r="237" spans="3:14" hidden="1">
       <c r="C237">
         <v>14</v>
       </c>
@@ -29845,7 +29926,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="238" spans="3:10">
+    <row r="238" spans="3:14" hidden="1">
       <c r="C238">
         <v>15</v>
       </c>
@@ -29856,7 +29937,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="239" spans="3:10">
+    <row r="239" spans="3:14" hidden="1">
       <c r="C239">
         <v>16</v>
       </c>
@@ -29867,7 +29948,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="240" spans="3:10">
+    <row r="240" spans="3:14" hidden="1">
       <c r="C240">
         <v>17</v>
       </c>
@@ -29878,7 +29959,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="241" spans="3:14">
+    <row r="241" spans="3:14" hidden="1">
       <c r="C241">
         <v>18</v>
       </c>
@@ -29889,7 +29970,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="242" spans="3:14">
+    <row r="242" spans="3:14" hidden="1">
       <c r="C242">
         <v>19</v>
       </c>
@@ -29900,7 +29981,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="243" spans="3:14">
+    <row r="243" spans="3:14" hidden="1">
       <c r="C243">
         <v>20</v>
       </c>
@@ -29911,7 +29992,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="244" spans="3:14">
+    <row r="244" spans="3:14" hidden="1">
       <c r="C244">
         <v>21</v>
       </c>
@@ -29922,7 +30003,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="245" spans="3:14">
+    <row r="245" spans="3:14" hidden="1">
       <c r="C245">
         <v>22</v>
       </c>
@@ -29933,7 +30014,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="246" spans="3:14">
+    <row r="246" spans="3:14" hidden="1">
       <c r="C246">
         <v>23</v>
       </c>
@@ -29944,7 +30025,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="247" spans="3:14">
+    <row r="247" spans="3:14" hidden="1">
       <c r="C247">
         <v>24</v>
       </c>
@@ -29955,7 +30036,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="248" spans="3:14">
+    <row r="248" spans="3:14" hidden="1">
       <c r="C248">
         <v>25</v>
       </c>
@@ -29966,7 +30047,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="249" spans="3:14">
+    <row r="249" spans="3:14" hidden="1">
       <c r="C249">
         <v>26</v>
       </c>
@@ -29977,7 +30058,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="250" spans="3:14">
+    <row r="250" spans="3:14" hidden="1">
       <c r="C250">
         <v>27</v>
       </c>
@@ -29988,7 +30069,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="251" spans="3:14">
+    <row r="251" spans="3:14" hidden="1">
       <c r="C251">
         <v>28</v>
       </c>
@@ -29999,7 +30080,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="252" spans="3:14">
+    <row r="252" spans="3:14" hidden="1">
       <c r="C252">
         <v>29</v>
       </c>
@@ -30016,35 +30097,35 @@
       </c>
       <c r="G253">
         <f>AVERAGE(G224:G252)</f>
-        <v>225.11</v>
+        <v>126.24428571428572</v>
       </c>
       <c r="H253">
-        <f t="shared" ref="H253:N253" si="13">AVERAGE(H224:H252)</f>
-        <v>2.3171428571428572</v>
+        <f t="shared" ref="H253:N253" si="14">AVERAGE(H224:H252)</f>
+        <v>2.0157142857142856</v>
       </c>
       <c r="I253" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J253">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>75.100000000000009</v>
       </c>
       <c r="K253">
-        <f t="shared" si="13"/>
-        <v>17</v>
+        <f t="shared" si="14"/>
+        <v>17.099999999999998</v>
       </c>
       <c r="L253">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M253">
-        <f t="shared" si="13"/>
-        <v>4.4176470588235288</v>
+        <f t="shared" si="14"/>
+        <v>4.3918986933818811</v>
       </c>
       <c r="N253">
-        <f t="shared" si="13"/>
-        <v>0.98812500729446995</v>
+        <f t="shared" si="14"/>
+        <v>0.97724520601480691</v>
       </c>
     </row>
     <row r="258" spans="3:14" ht="60">
@@ -30097,7 +30178,7 @@
         <v>6</v>
       </c>
       <c r="G259">
-        <v>57.06</v>
+        <v>55.64</v>
       </c>
       <c r="H259">
         <v>1.62</v>
@@ -30117,7 +30198,7 @@
         <v>4.3918128654970756</v>
       </c>
       <c r="N259">
-        <v>0.97748397527978803</v>
+        <v>0.94746737834717798</v>
       </c>
     </row>
     <row r="260" spans="3:14" hidden="1">
@@ -30130,11 +30211,24 @@
       <c r="F260" t="s">
         <v>6</v>
       </c>
+      <c r="G260">
+        <v>50.21</v>
+      </c>
       <c r="H260">
         <v>1.87</v>
       </c>
       <c r="J260">
         <v>75.099999999999994</v>
+      </c>
+      <c r="K260">
+        <v>17.2</v>
+      </c>
+      <c r="M260">
+        <f t="shared" ref="M260:M265" si="15">J260/K260</f>
+        <v>4.3662790697674421</v>
+      </c>
+      <c r="N260">
+        <v>0.978770543466428</v>
       </c>
     </row>
     <row r="261" spans="3:14" hidden="1">
@@ -30147,11 +30241,24 @@
       <c r="F261" t="s">
         <v>6</v>
       </c>
+      <c r="G261">
+        <v>49.51</v>
+      </c>
       <c r="H261">
         <v>2.37</v>
       </c>
       <c r="J261">
         <v>75.099999999999994</v>
+      </c>
+      <c r="K261">
+        <v>17.2</v>
+      </c>
+      <c r="M261">
+        <f t="shared" si="15"/>
+        <v>4.3662790697674421</v>
+      </c>
+      <c r="N261">
+        <v>0.95764854272988198</v>
       </c>
     </row>
     <row r="262" spans="3:14" hidden="1">
@@ -30164,11 +30271,24 @@
       <c r="F262" t="s">
         <v>6</v>
       </c>
+      <c r="G262">
+        <v>38.71</v>
+      </c>
       <c r="H262">
         <v>1.93</v>
       </c>
       <c r="J262">
         <v>75.099999999999994</v>
+      </c>
+      <c r="K262">
+        <v>17.2</v>
+      </c>
+      <c r="M262">
+        <f t="shared" si="15"/>
+        <v>4.3662790697674421</v>
+      </c>
+      <c r="N262">
+        <v>0.98117231133618699</v>
       </c>
     </row>
     <row r="263" spans="3:14" hidden="1">
@@ -30181,12 +30301,25 @@
       <c r="F263" t="s">
         <v>6</v>
       </c>
+      <c r="G263">
+        <v>55.79</v>
+      </c>
       <c r="H263">
         <v>2.63</v>
       </c>
       <c r="J263">
         <v>75.099999999999994</v>
       </c>
+      <c r="K263">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="M263">
+        <f t="shared" si="15"/>
+        <v>4.3918128654970756</v>
+      </c>
+      <c r="N263">
+        <v>0.923541755836916</v>
+      </c>
     </row>
     <row r="264" spans="3:14" hidden="1">
       <c r="C264">
@@ -30198,11 +30331,24 @@
       <c r="F264" t="s">
         <v>6</v>
       </c>
+      <c r="G264">
+        <v>59.69</v>
+      </c>
       <c r="H264">
         <v>1.84</v>
       </c>
       <c r="J264">
         <v>75.099999999999994</v>
+      </c>
+      <c r="K264">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="M264">
+        <f t="shared" si="15"/>
+        <v>4.3918128654970756</v>
+      </c>
+      <c r="N264">
+        <v>0.95345865926880802</v>
       </c>
     </row>
     <row r="265" spans="3:14" hidden="1">
@@ -30215,11 +30361,24 @@
       <c r="F265" t="s">
         <v>6</v>
       </c>
+      <c r="G265">
+        <v>60.54</v>
+      </c>
       <c r="H265">
         <v>2.06</v>
       </c>
       <c r="J265">
         <v>75.099999999999994</v>
+      </c>
+      <c r="K265">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="M265">
+        <f t="shared" si="15"/>
+        <v>4.443786982248521</v>
+      </c>
+      <c r="N265">
+        <v>0.97713597990915801</v>
       </c>
     </row>
     <row r="266" spans="3:14" hidden="1">
@@ -30470,35 +30629,35 @@
       </c>
       <c r="G288">
         <f>AVERAGE(G259:G287)</f>
-        <v>57.06</v>
+        <v>52.87</v>
       </c>
       <c r="H288">
-        <f t="shared" ref="H288:N288" si="14">AVERAGE(H259:H287)</f>
+        <f t="shared" ref="H288:N288" si="16">AVERAGE(H259:H287)</f>
         <v>2.0457142857142858</v>
       </c>
       <c r="I288" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J288">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>75.100000000000009</v>
       </c>
       <c r="K288">
-        <f t="shared" si="14"/>
-        <v>17.100000000000001</v>
+        <f t="shared" si="16"/>
+        <v>17.114285714285717</v>
       </c>
       <c r="L288">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M288">
-        <f t="shared" si="14"/>
-        <v>4.3918128654970756</v>
+        <f t="shared" si="16"/>
+        <v>4.3882946840060111</v>
       </c>
       <c r="N288">
-        <f t="shared" si="14"/>
-        <v>0.97748397527978803</v>
+        <f t="shared" si="16"/>
+        <v>0.95988502441350809</v>
       </c>
     </row>
     <row r="294" spans="3:14" ht="60">
@@ -30551,7 +30710,7 @@
         <v>6</v>
       </c>
       <c r="G295">
-        <v>33.31</v>
+        <v>32.76</v>
       </c>
       <c r="H295">
         <v>2.73</v>
@@ -30571,7 +30730,7 @@
         <v>4.3918128654970756</v>
       </c>
       <c r="N295">
-        <v>0.97232696324183199</v>
+        <v>0.97233582297021304</v>
       </c>
     </row>
     <row r="296" spans="3:14" hidden="1">
@@ -30584,11 +30743,24 @@
       <c r="F296" t="s">
         <v>6</v>
       </c>
+      <c r="G296">
+        <v>29.96</v>
+      </c>
       <c r="H296">
         <v>2.14</v>
       </c>
       <c r="J296">
         <v>75.099999999999994</v>
+      </c>
+      <c r="K296">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="M296">
+        <f t="shared" ref="M296:M301" si="17">J296/K296</f>
+        <v>4.3918128654970756</v>
+      </c>
+      <c r="N296">
+        <v>0.97609504908511002</v>
       </c>
     </row>
     <row r="297" spans="3:14" hidden="1">
@@ -30601,11 +30773,24 @@
       <c r="F297" t="s">
         <v>6</v>
       </c>
+      <c r="G297">
+        <v>28.75</v>
+      </c>
       <c r="H297">
         <v>2.36</v>
       </c>
       <c r="J297">
         <v>75.099999999999994</v>
+      </c>
+      <c r="K297">
+        <v>17.2</v>
+      </c>
+      <c r="M297">
+        <f t="shared" si="17"/>
+        <v>4.3662790697674421</v>
+      </c>
+      <c r="N297">
+        <v>0.97140597292701902</v>
       </c>
     </row>
     <row r="298" spans="3:14" hidden="1">
@@ -30618,11 +30803,24 @@
       <c r="F298" t="s">
         <v>6</v>
       </c>
+      <c r="G298">
+        <v>25.63</v>
+      </c>
       <c r="H298">
         <v>2.59</v>
       </c>
       <c r="J298">
         <v>75.099999999999994</v>
+      </c>
+      <c r="K298">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="M298">
+        <f t="shared" si="17"/>
+        <v>4.3918128654970756</v>
+      </c>
+      <c r="N298">
+        <v>0.98105185957367702</v>
       </c>
     </row>
     <row r="299" spans="3:14" hidden="1">
@@ -30635,12 +30833,25 @@
       <c r="F299" t="s">
         <v>6</v>
       </c>
+      <c r="G299">
+        <v>32.85</v>
+      </c>
       <c r="H299">
         <v>1.87</v>
       </c>
       <c r="J299">
         <v>75.099999999999994</v>
       </c>
+      <c r="K299">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="M299">
+        <f t="shared" si="17"/>
+        <v>4.3918128654970756</v>
+      </c>
+      <c r="N299">
+        <v>0.96462978914922004</v>
+      </c>
     </row>
     <row r="300" spans="3:14" hidden="1">
       <c r="C300">
@@ -30652,11 +30863,24 @@
       <c r="F300" t="s">
         <v>6</v>
       </c>
+      <c r="G300">
+        <v>31.47</v>
+      </c>
       <c r="H300">
         <v>2.71</v>
       </c>
       <c r="J300">
         <v>75.099999999999994</v>
+      </c>
+      <c r="K300">
+        <v>17.2</v>
+      </c>
+      <c r="M300">
+        <f t="shared" si="17"/>
+        <v>4.3662790697674421</v>
+      </c>
+      <c r="N300">
+        <v>0.94987132252002704</v>
       </c>
     </row>
     <row r="301" spans="3:14" hidden="1">
@@ -30669,11 +30893,24 @@
       <c r="F301" t="s">
         <v>6</v>
       </c>
+      <c r="G301">
+        <v>42.91</v>
+      </c>
       <c r="H301">
         <v>2.95</v>
       </c>
       <c r="J301">
         <v>75.099999999999994</v>
+      </c>
+      <c r="K301">
+        <v>17</v>
+      </c>
+      <c r="M301">
+        <f t="shared" si="17"/>
+        <v>4.4176470588235288</v>
+      </c>
+      <c r="N301">
+        <v>0.968506642369385</v>
       </c>
     </row>
     <row r="302" spans="3:14" hidden="1">
@@ -30924,35 +31161,35 @@
       </c>
       <c r="G324">
         <f>AVERAGE(G295:G323)</f>
-        <v>33.31</v>
+        <v>32.047142857142852</v>
       </c>
       <c r="H324">
-        <f t="shared" ref="H324:N324" si="15">AVERAGE(H295:H323)</f>
+        <f t="shared" ref="H324:N324" si="18">AVERAGE(H295:H323)</f>
         <v>2.4785714285714286</v>
       </c>
       <c r="I324" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J324">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>75.100000000000009</v>
       </c>
       <c r="K324">
-        <f t="shared" si="15"/>
-        <v>17.100000000000001</v>
+        <f t="shared" si="18"/>
+        <v>17.114285714285714</v>
       </c>
       <c r="L324">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M324">
-        <f t="shared" si="15"/>
-        <v>4.3918128654970756</v>
+        <f t="shared" si="18"/>
+        <v>4.3882080943352451</v>
       </c>
       <c r="N324">
-        <f t="shared" si="15"/>
-        <v>0.97232696324183199</v>
+        <f t="shared" si="18"/>
+        <v>0.9691280655135216</v>
       </c>
     </row>
     <row r="329" spans="1:26">
@@ -31077,7 +31314,7 @@
         <v>17</v>
       </c>
       <c r="M336">
-        <f t="shared" ref="M336:M356" si="16">J336/K336</f>
+        <f t="shared" ref="M336:M356" si="19">J336/K336</f>
         <v>4.4176470588235288</v>
       </c>
       <c r="N336">
@@ -31107,7 +31344,7 @@
         <v>17</v>
       </c>
       <c r="M337">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>4.4176470588235288</v>
       </c>
       <c r="N337">
@@ -31137,7 +31374,7 @@
         <v>17</v>
       </c>
       <c r="M338">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>4.4176470588235288</v>
       </c>
       <c r="N338">
@@ -31167,7 +31404,7 @@
         <v>17</v>
       </c>
       <c r="M339">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>4.4176470588235288</v>
       </c>
       <c r="N339">
@@ -31197,7 +31434,7 @@
         <v>17</v>
       </c>
       <c r="M340">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>4.4176470588235288</v>
       </c>
       <c r="N340">
@@ -31215,7 +31452,7 @@
         <v>75.099999999999994</v>
       </c>
       <c r="M341" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -31242,7 +31479,7 @@
         <v>4.28</v>
       </c>
       <c r="M342">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>17.546728971962615</v>
       </c>
       <c r="N342">
@@ -31272,7 +31509,7 @@
         <v>4.29</v>
       </c>
       <c r="M343">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>17.505827505827504</v>
       </c>
       <c r="N343">
@@ -31302,7 +31539,7 @@
         <v>4.28</v>
       </c>
       <c r="M344">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>17.546728971962615</v>
       </c>
       <c r="N344">
@@ -31332,7 +31569,7 @@
         <v>4.29</v>
       </c>
       <c r="M345">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>17.505827505827504</v>
       </c>
       <c r="N345">
@@ -31362,7 +31599,7 @@
         <v>4.3</v>
       </c>
       <c r="M346">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>17.465116279069768</v>
       </c>
       <c r="N346">
@@ -31392,7 +31629,7 @@
         <v>4.29</v>
       </c>
       <c r="M347">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>17.505827505827504</v>
       </c>
       <c r="N347">
@@ -31410,7 +31647,7 @@
         <v>75.099999999999994</v>
       </c>
       <c r="M348" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -31428,7 +31665,7 @@
         <v>75.099999999999994</v>
       </c>
       <c r="M349" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -31446,7 +31683,7 @@
         <v>75.099999999999994</v>
       </c>
       <c r="M350" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -31464,7 +31701,7 @@
         <v>75.099999999999994</v>
       </c>
       <c r="M351" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -31482,7 +31719,7 @@
         <v>75.099999999999994</v>
       </c>
       <c r="M352" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -31500,7 +31737,7 @@
         <v>75.099999999999994</v>
       </c>
       <c r="M353" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -31518,7 +31755,7 @@
         <v>75.099999999999994</v>
       </c>
       <c r="M354" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -31536,7 +31773,7 @@
         <v>75.099999999999994</v>
       </c>
       <c r="M355" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -31554,7 +31791,7 @@
         <v>75.099999999999994</v>
       </c>
       <c r="M356" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -31635,10 +31872,10 @@
         <v>100</v>
       </c>
       <c r="G371">
-        <v>133.77000000000001</v>
+        <v>85.21</v>
       </c>
       <c r="H371">
-        <v>2.62</v>
+        <v>1.98</v>
       </c>
       <c r="J371">
         <v>75.099999999999994</v>
@@ -31655,7 +31892,7 @@
         <v>4.3662790697674421</v>
       </c>
       <c r="N371">
-        <v>0.97287472252639196</v>
+        <v>0.96470519349844996</v>
       </c>
     </row>
     <row r="372" spans="3:14" hidden="1">
@@ -31668,11 +31905,24 @@
       <c r="F372">
         <v>100</v>
       </c>
+      <c r="G372">
+        <v>113.29</v>
+      </c>
       <c r="H372">
         <v>2.4300000000000002</v>
       </c>
       <c r="J372">
         <v>75.099999999999994</v>
+      </c>
+      <c r="K372">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="M372">
+        <f t="shared" ref="M372:M377" si="20">J372/K372</f>
+        <v>4.3918128654970756</v>
+      </c>
+      <c r="N372">
+        <v>0.97313018899716097</v>
       </c>
     </row>
     <row r="373" spans="3:14" hidden="1">
@@ -31685,11 +31935,24 @@
       <c r="F373">
         <v>100</v>
       </c>
+      <c r="G373">
+        <v>121.48</v>
+      </c>
       <c r="H373">
         <v>2.29</v>
       </c>
       <c r="J373">
         <v>75.099999999999994</v>
+      </c>
+      <c r="K373">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="M373">
+        <f t="shared" si="20"/>
+        <v>4.3918128654970756</v>
+      </c>
+      <c r="N373">
+        <v>0.97444327402652098</v>
       </c>
     </row>
     <row r="374" spans="3:14" hidden="1">
@@ -31702,11 +31965,24 @@
       <c r="F374">
         <v>100</v>
       </c>
+      <c r="G374">
+        <v>117.23</v>
+      </c>
       <c r="H374">
-        <v>2.4900000000000002</v>
+        <v>1.85</v>
       </c>
       <c r="J374">
         <v>75.099999999999994</v>
+      </c>
+      <c r="K374">
+        <v>17</v>
+      </c>
+      <c r="M374">
+        <f t="shared" si="20"/>
+        <v>4.4176470588235288</v>
+      </c>
+      <c r="N374">
+        <v>0.97656950083174798</v>
       </c>
     </row>
     <row r="375" spans="3:14" hidden="1">
@@ -31719,11 +31995,24 @@
       <c r="F375">
         <v>100</v>
       </c>
+      <c r="G375">
+        <v>112.05</v>
+      </c>
       <c r="H375">
-        <v>2.2200000000000002</v>
+        <v>1.78</v>
       </c>
       <c r="J375">
         <v>75.099999999999994</v>
+      </c>
+      <c r="K375">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="M375">
+        <f t="shared" si="20"/>
+        <v>4.443786982248521</v>
+      </c>
+      <c r="N375">
+        <v>0.95903946442912402</v>
       </c>
     </row>
     <row r="376" spans="3:14" hidden="1">
@@ -31736,11 +32025,24 @@
       <c r="F376">
         <v>100</v>
       </c>
+      <c r="G376">
+        <v>144.59</v>
+      </c>
       <c r="H376">
         <v>2.19</v>
       </c>
       <c r="J376">
         <v>75.099999999999994</v>
+      </c>
+      <c r="K376">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="M376">
+        <f t="shared" si="20"/>
+        <v>4.3918128654970756</v>
+      </c>
+      <c r="N376">
+        <v>0.95047704195886895</v>
       </c>
     </row>
     <row r="377" spans="3:14" hidden="1">
@@ -31753,11 +32055,24 @@
       <c r="F377">
         <v>100</v>
       </c>
+      <c r="G377">
+        <v>68.25</v>
+      </c>
       <c r="H377">
-        <v>2.23</v>
+        <v>1.68</v>
       </c>
       <c r="J377">
         <v>75.099999999999994</v>
+      </c>
+      <c r="K377">
+        <v>16.5</v>
+      </c>
+      <c r="M377">
+        <f t="shared" si="20"/>
+        <v>4.5515151515151508</v>
+      </c>
+      <c r="N377">
+        <v>0.96748470897055305</v>
       </c>
     </row>
     <row r="378" spans="3:14" hidden="1">
@@ -32008,31 +32323,31 @@
       </c>
       <c r="G400">
         <f>AVERAGE(G371:G399)</f>
-        <v>133.77000000000001</v>
+        <v>108.87142857142858</v>
       </c>
       <c r="H400">
-        <f t="shared" ref="H400:M400" si="17">AVERAGE(H371:H399)</f>
-        <v>2.3528571428571432</v>
+        <f t="shared" ref="H400:M400" si="21">AVERAGE(H371:H399)</f>
+        <v>2.0285714285714285</v>
       </c>
       <c r="I400" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J400">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>75.100000000000009</v>
       </c>
       <c r="K400">
-        <f t="shared" si="17"/>
-        <v>17.2</v>
+        <f t="shared" si="21"/>
+        <v>16.985714285714288</v>
       </c>
       <c r="L400">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M400">
-        <f t="shared" si="17"/>
-        <v>4.3662790697674421</v>
+        <f t="shared" si="21"/>
+        <v>4.4220952655494106</v>
       </c>
     </row>
     <row r="404" spans="3:6" s="2" customFormat="1"/>
@@ -32183,7 +32498,7 @@
         <v>17.100000000000001</v>
       </c>
       <c r="M444">
-        <f t="shared" ref="M444:M454" si="18">J444/K444</f>
+        <f t="shared" ref="M444:M454" si="22">J444/K444</f>
         <v>4.3918128654970756</v>
       </c>
       <c r="N444">
@@ -32213,7 +32528,7 @@
         <v>17.100000000000001</v>
       </c>
       <c r="M445">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>4.3918128654970756</v>
       </c>
       <c r="N445">
@@ -32240,7 +32555,7 @@
         <v>17.2</v>
       </c>
       <c r="M446">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>4.3662790697674421</v>
       </c>
       <c r="N446">
@@ -32267,7 +32582,7 @@
         <v>17.3</v>
       </c>
       <c r="M447">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>4.3410404624277454</v>
       </c>
       <c r="N447">
@@ -32294,7 +32609,7 @@
         <v>17.399999999999999</v>
       </c>
       <c r="M448">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>4.3160919540229887</v>
       </c>
       <c r="N448">
@@ -32321,7 +32636,7 @@
         <v>4.28</v>
       </c>
       <c r="M449">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>17.546728971962615</v>
       </c>
       <c r="N449">
@@ -32348,7 +32663,7 @@
         <v>4.28</v>
       </c>
       <c r="M450">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>17.546728971962615</v>
       </c>
       <c r="N450">
@@ -32375,7 +32690,7 @@
         <v>4.28</v>
       </c>
       <c r="M451">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>17.546728971962615</v>
       </c>
       <c r="N451">
@@ -32402,7 +32717,7 @@
         <v>4.28</v>
       </c>
       <c r="M452">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>17.546728971962615</v>
       </c>
       <c r="N452">
@@ -32429,7 +32744,7 @@
         <v>4.28</v>
       </c>
       <c r="M453">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>17.546728971962615</v>
       </c>
       <c r="N453">
@@ -32456,7 +32771,7 @@
         <v>4.26</v>
       </c>
       <c r="M454">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>17.629107981220656</v>
       </c>
       <c r="N454">

--- a/documents/исследования.xlsx
+++ b/documents/исследования.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="портрет" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2643" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2654" uniqueCount="80">
   <si>
     <t>первый (без разбиения)</t>
   </si>
@@ -263,14 +263,18 @@
   <si>
     <t>50?</t>
   </si>
+  <si>
+    <t>Тип изображения</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -417,7 +421,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -461,6 +465,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -480,10 +486,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.17587167491231839"/>
+          <c:x val="0.17587167491231837"/>
           <c:y val="7.6778988485025221E-2"/>
           <c:w val="0.46429475765625361"/>
-          <c:h val="0.6329103811518505"/>
+          <c:h val="0.66145274821522371"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -704,11 +710,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="61319424"/>
-        <c:axId val="60232448"/>
+        <c:axId val="66234624"/>
+        <c:axId val="66523904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="61319424"/>
+        <c:axId val="66234624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -730,17 +736,24 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.29266121712198229"/>
+              <c:y val="0.91952292951176939"/>
+            </c:manualLayout>
+          </c:layout>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60232448"/>
+        <c:crossAx val="66523904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60232448"/>
+        <c:axId val="66523904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -775,7 +788,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61319424"/>
+        <c:crossAx val="66234624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -799,9 +812,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.6611088371084034"/>
+          <c:x val="0.66110883710840396"/>
           <c:y val="8.6460758061807932E-2"/>
-          <c:w val="0.32027569218952784"/>
+          <c:w val="0.32027569218952795"/>
           <c:h val="0.84250477857999795"/>
         </c:manualLayout>
       </c:layout>
@@ -815,7 +828,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -834,7 +847,7 @@
           <c:x val="0.17587167491231837"/>
           <c:y val="7.6778988485025221E-2"/>
           <c:w val="0.46429475765625361"/>
-          <c:h val="0.6329103811518505"/>
+          <c:h val="0.66972030336698707"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1055,11 +1068,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="78597120"/>
-        <c:axId val="78607488"/>
+        <c:axId val="69225472"/>
+        <c:axId val="69235840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="78597120"/>
+        <c:axId val="69225472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1081,17 +1094,24 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.28568046795197721"/>
+              <c:y val="0.92425647714281112"/>
+            </c:manualLayout>
+          </c:layout>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78607488"/>
+        <c:crossAx val="69235840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78607488"/>
+        <c:axId val="69235840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1126,7 +1146,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78597120"/>
+        <c:crossAx val="69225472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1150,9 +1170,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.66110883710840396"/>
+          <c:x val="0.66110883710840462"/>
           <c:y val="8.6460758061807932E-2"/>
-          <c:w val="0.32027569218952795"/>
+          <c:w val="0.32027569218952806"/>
           <c:h val="0.84250477857999795"/>
         </c:manualLayout>
       </c:layout>
@@ -1166,7 +1186,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1185,7 +1205,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.17260710585903771"/>
           <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.60357587408597424"/>
+          <c:w val="0.60357587408597446"/>
           <c:h val="0.5445866624176815"/>
         </c:manualLayout>
       </c:layout>
@@ -1248,11 +1268,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="78627968"/>
-        <c:axId val="78629888"/>
+        <c:axId val="69260416"/>
+        <c:axId val="69262336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="78627968"/>
+        <c:axId val="69260416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1277,8 +1297,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.29329681615885017"/>
-              <c:y val="0.89983141341320094"/>
+              <c:x val="0.29329681615885034"/>
+              <c:y val="0.89983141341320116"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -1293,14 +1313,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78629888"/>
+        <c:crossAx val="69262336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78629888"/>
+        <c:axId val="69262336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1334,7 +1354,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78627968"/>
+        <c:crossAx val="69260416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1347,7 +1367,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.78167276749269221"/>
           <c:y val="0.26369685006901455"/>
-          <c:w val="0.20344147309199495"/>
+          <c:w val="0.20344147309199506"/>
           <c:h val="0.13195137725382619"/>
         </c:manualLayout>
       </c:layout>
@@ -1362,7 +1382,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1602,11 +1622,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="78718464"/>
-        <c:axId val="78720384"/>
+        <c:axId val="69420544"/>
+        <c:axId val="69422464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="78718464"/>
+        <c:axId val="69420544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1628,17 +1648,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78720384"/>
+        <c:crossAx val="69422464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78720384"/>
+        <c:axId val="69422464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1669,11 +1688,10 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78718464"/>
+        <c:crossAx val="69420544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1697,9 +1715,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.66110883710840462"/>
+          <c:x val="0.66110883710840507"/>
           <c:y val="8.6460758061807932E-2"/>
-          <c:w val="0.32027569218952806"/>
+          <c:w val="0.32027569218952817"/>
           <c:h val="0.84250477857999795"/>
         </c:manualLayout>
       </c:layout>
@@ -1713,7 +1731,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1732,7 +1750,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.17260710585903771"/>
           <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.60357587408597446"/>
+          <c:w val="0.6035758740859748"/>
           <c:h val="0.5445866624176815"/>
         </c:manualLayout>
       </c:layout>
@@ -1795,11 +1813,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="78740864"/>
-        <c:axId val="78755328"/>
+        <c:axId val="69438848"/>
+        <c:axId val="69453312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="78740864"/>
+        <c:axId val="69438848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1824,8 +1842,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.29329681615885034"/>
-              <c:y val="0.89983141341320116"/>
+              <c:x val="0.29329681615885045"/>
+              <c:y val="0.89983141341320161"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -1840,14 +1858,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78755328"/>
+        <c:crossAx val="69453312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78755328"/>
+        <c:axId val="69453312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1877,11 +1895,10 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78740864"/>
+        <c:crossAx val="69438848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1894,7 +1911,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.78167276749269221"/>
           <c:y val="0.26369685006901455"/>
-          <c:w val="0.20344147309199506"/>
+          <c:w val="0.2034414730919952"/>
           <c:h val="0.13195137725382619"/>
         </c:manualLayout>
       </c:layout>
@@ -1909,7 +1926,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2149,11 +2166,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="79003648"/>
-        <c:axId val="79005568"/>
+        <c:axId val="69505024"/>
+        <c:axId val="69506944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="79003648"/>
+        <c:axId val="69505024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2177,14 +2194,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79005568"/>
+        <c:crossAx val="69506944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79005568"/>
+        <c:axId val="69506944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2218,7 +2235,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79003648"/>
+        <c:crossAx val="69505024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2242,9 +2259,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.66110883710840507"/>
+          <c:x val="0.66110883710840573"/>
           <c:y val="8.6460758061807932E-2"/>
-          <c:w val="0.32027569218952817"/>
+          <c:w val="0.32027569218952834"/>
           <c:h val="0.84250477857999795"/>
         </c:manualLayout>
       </c:layout>
@@ -2258,7 +2275,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2277,7 +2294,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.17260710585903771"/>
           <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.6035758740859748"/>
+          <c:w val="0.60357587408597502"/>
           <c:h val="0.5445866624176815"/>
         </c:manualLayout>
       </c:layout>
@@ -2340,11 +2357,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="79034240"/>
-        <c:axId val="78848000"/>
+        <c:axId val="69601152"/>
+        <c:axId val="69611520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="79034240"/>
+        <c:axId val="69601152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2369,8 +2386,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.29329681615885045"/>
-              <c:y val="0.89983141341320161"/>
+              <c:x val="0.29329681615885056"/>
+              <c:y val="0.89983141341320183"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -2385,14 +2402,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78848000"/>
+        <c:crossAx val="69611520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78848000"/>
+        <c:axId val="69611520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2425,7 +2442,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79034240"/>
+        <c:crossAx val="69601152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2438,7 +2455,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.78167276749269221"/>
           <c:y val="0.26369685006901455"/>
-          <c:w val="0.2034414730919952"/>
+          <c:w val="0.20344147309199531"/>
           <c:h val="0.13195137725382619"/>
         </c:manualLayout>
       </c:layout>
@@ -2453,7 +2470,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2472,8 +2489,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.17260710585903771"/>
           <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.60357587408597502"/>
-          <c:h val="0.66445744865549461"/>
+          <c:w val="0.60357587408597524"/>
+          <c:h val="0.66445744865549483"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2529,11 +2546,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="78880768"/>
-        <c:axId val="78882688"/>
+        <c:axId val="69656576"/>
+        <c:axId val="69658496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="78880768"/>
+        <c:axId val="69656576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2558,7 +2575,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.29552647056241743"/>
+              <c:x val="0.29552647056241765"/>
               <c:y val="0.89001337867785957"/>
             </c:manualLayout>
           </c:layout>
@@ -2574,14 +2591,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78882688"/>
+        <c:crossAx val="69658496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78882688"/>
+        <c:axId val="69658496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2614,7 +2631,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78880768"/>
+        <c:crossAx val="69656576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2627,7 +2644,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.78167276749269221"/>
           <c:y val="0.26369685006901455"/>
-          <c:w val="0.20344147309199531"/>
+          <c:w val="0.20344147309199545"/>
           <c:h val="0.13195137725382619"/>
         </c:manualLayout>
       </c:layout>
@@ -2642,7 +2659,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2661,8 +2678,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.17260710585903771"/>
           <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.60357587408597524"/>
-          <c:h val="0.66445744865549483"/>
+          <c:w val="0.60357587408597546"/>
+          <c:h val="0.66445744865549505"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2718,11 +2735,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="79054336"/>
-        <c:axId val="79056256"/>
+        <c:axId val="88565248"/>
+        <c:axId val="88567168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="79054336"/>
+        <c:axId val="88565248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2747,7 +2764,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.29552647056241765"/>
+              <c:x val="0.29552647056241788"/>
               <c:y val="0.89001337867785957"/>
             </c:manualLayout>
           </c:layout>
@@ -2763,14 +2780,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79056256"/>
+        <c:crossAx val="88567168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79056256"/>
+        <c:axId val="88567168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2803,7 +2820,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79054336"/>
+        <c:crossAx val="88565248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2816,7 +2833,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.78167276749269221"/>
           <c:y val="0.26369685006901455"/>
-          <c:w val="0.20344147309199545"/>
+          <c:w val="0.20344147309199556"/>
           <c:h val="0.13195137725382619"/>
         </c:manualLayout>
       </c:layout>
@@ -2831,7 +2848,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3071,11 +3088,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="80156160"/>
-        <c:axId val="80158080"/>
+        <c:axId val="88610304"/>
+        <c:axId val="88612224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="80156160"/>
+        <c:axId val="88610304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3099,14 +3116,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80158080"/>
+        <c:crossAx val="88612224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80158080"/>
+        <c:axId val="88612224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3140,7 +3157,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80156160"/>
+        <c:crossAx val="88610304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3164,9 +3181,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.66110883710840573"/>
+          <c:x val="0.66110883710840629"/>
           <c:y val="8.6460758061807932E-2"/>
-          <c:w val="0.32027569218952834"/>
+          <c:w val="0.32027569218952845"/>
           <c:h val="0.84250477857999795"/>
         </c:manualLayout>
       </c:layout>
@@ -3180,7 +3197,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3375,8 +3392,8 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="80229504"/>
-        <c:axId val="80231040"/>
+        <c:axId val="88691840"/>
+        <c:axId val="88693376"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3453,25 +3470,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="80242560"/>
-        <c:axId val="80241024"/>
+        <c:axId val="88704896"/>
+        <c:axId val="88703360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="80229504"/>
+        <c:axId val="88691840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80231040"/>
+        <c:crossAx val="88693376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80231040"/>
+        <c:axId val="88693376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3479,32 +3496,32 @@
         <c:minorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80229504"/>
+        <c:crossAx val="88691840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80241024"/>
+        <c:axId val="88703360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80242560"/>
+        <c:crossAx val="88704896"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="80242560"/>
+        <c:axId val="88704896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="t"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="80241024"/>
+        <c:crossAx val="88703360"/>
         <c:crosses val="max"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3519,7 +3536,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3529,7 +3546,9 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
   <c:chart>
-    <c:title/>
+    <c:title>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -3672,25 +3691,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="60269312"/>
-        <c:axId val="60270848"/>
+        <c:axId val="66552576"/>
+        <c:axId val="66554112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="60269312"/>
+        <c:axId val="66552576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60270848"/>
+        <c:crossAx val="66554112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60270848"/>
+        <c:axId val="66554112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3698,19 +3717,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60269312"/>
+        <c:crossAx val="66552576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3849,11 +3869,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="81332480"/>
-        <c:axId val="81338752"/>
+        <c:axId val="89004288"/>
+        <c:axId val="89010560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="81332480"/>
+        <c:axId val="89004288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3876,14 +3896,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81338752"/>
+        <c:crossAx val="89010560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81338752"/>
+        <c:axId val="89010560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3908,7 +3928,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81332480"/>
+        <c:crossAx val="89004288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3920,7 +3940,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4059,24 +4079,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="81355520"/>
-        <c:axId val="81357056"/>
+        <c:axId val="89027328"/>
+        <c:axId val="89028864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="81355520"/>
+        <c:axId val="89027328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81357056"/>
+        <c:crossAx val="89028864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81357056"/>
+        <c:axId val="89028864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4084,7 +4104,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81355520"/>
+        <c:crossAx val="89027328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4096,7 +4116,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4235,24 +4255,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="81381632"/>
-        <c:axId val="84885504"/>
+        <c:axId val="89057536"/>
+        <c:axId val="89149440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="81381632"/>
+        <c:axId val="89057536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84885504"/>
+        <c:crossAx val="89149440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84885504"/>
+        <c:axId val="89149440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4260,7 +4280,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81381632"/>
+        <c:crossAx val="89057536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4272,7 +4292,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4350,24 +4370,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="84896768"/>
-        <c:axId val="84902656"/>
+        <c:axId val="89160704"/>
+        <c:axId val="89170688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="84896768"/>
+        <c:axId val="89160704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84902656"/>
+        <c:crossAx val="89170688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84902656"/>
+        <c:axId val="89170688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4375,7 +4395,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84896768"/>
+        <c:crossAx val="89160704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4387,7 +4407,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4552,24 +4572,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="84982016"/>
-        <c:axId val="84996096"/>
+        <c:axId val="89245952"/>
+        <c:axId val="90898432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="84982016"/>
+        <c:axId val="89245952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84996096"/>
+        <c:crossAx val="90898432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84996096"/>
+        <c:axId val="90898432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4577,7 +4597,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84982016"/>
+        <c:crossAx val="89245952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4589,7 +4609,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4606,9 +4626,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.17260710585903766"/>
+          <c:x val="0.17260710585903771"/>
           <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.60357587408597402"/>
+          <c:w val="0.60357587408597424"/>
           <c:h val="0.5445866624176815"/>
         </c:manualLayout>
       </c:layout>
@@ -4671,11 +4691,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="60288384"/>
-        <c:axId val="76637696"/>
+        <c:axId val="66583936"/>
+        <c:axId val="67069440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="60288384"/>
+        <c:axId val="66583936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4700,8 +4720,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.29329681615885006"/>
-              <c:y val="0.89983141341320072"/>
+              <c:x val="0.29329681615885017"/>
+              <c:y val="0.89983141341320094"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -4716,14 +4736,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76637696"/>
+        <c:crossAx val="67069440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76637696"/>
+        <c:axId val="67069440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4757,7 +4777,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60288384"/>
+        <c:crossAx val="66583936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4770,7 +4790,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.78167276749269221"/>
           <c:y val="0.26369685006901455"/>
-          <c:w val="0.20344147309199484"/>
+          <c:w val="0.20344147309199495"/>
           <c:h val="0.13195137725382619"/>
         </c:manualLayout>
       </c:layout>
@@ -4785,7 +4805,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4927,24 +4947,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="78189312"/>
-        <c:axId val="78190848"/>
+        <c:axId val="67838720"/>
+        <c:axId val="67840256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="78189312"/>
+        <c:axId val="67838720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78190848"/>
+        <c:crossAx val="67840256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78190848"/>
+        <c:axId val="67840256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4999,7 +5019,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78189312"/>
+        <c:crossAx val="67838720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5017,7 +5037,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5159,24 +5179,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="78211328"/>
-        <c:axId val="78225408"/>
+        <c:axId val="67860736"/>
+        <c:axId val="67866624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="78211328"/>
+        <c:axId val="67860736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78225408"/>
+        <c:crossAx val="67866624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78225408"/>
+        <c:axId val="67866624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5210,7 +5230,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78211328"/>
+        <c:crossAx val="67860736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5228,7 +5248,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5245,9 +5265,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.18814270812302325"/>
-          <c:y val="4.0336129645919663E-2"/>
-          <c:w val="0.76312975301164332"/>
+          <c:x val="0.18814270812302331"/>
+          <c:y val="4.0336129645919691E-2"/>
+          <c:w val="0.76312975301164354"/>
           <c:h val="0.48806253441753028"/>
         </c:manualLayout>
       </c:layout>
@@ -5380,24 +5400,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="78258176"/>
-        <c:axId val="78259712"/>
+        <c:axId val="67117056"/>
+        <c:axId val="67118592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="78258176"/>
+        <c:axId val="67117056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78259712"/>
+        <c:crossAx val="67118592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78259712"/>
+        <c:axId val="67118592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5427,11 +5447,10 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78258176"/>
+        <c:crossAx val="67117056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5443,9 +5462,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.32306733292953782"/>
-          <c:y val="0.87768771410385771"/>
-          <c:w val="0.20898394912174453"/>
-          <c:h val="6.569632474414823E-2"/>
+          <c:y val="0.87768771410385793"/>
+          <c:w val="0.20898394912174459"/>
+          <c:h val="6.5696324744148271E-2"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -5459,7 +5478,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5741,24 +5760,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="78317056"/>
-        <c:axId val="78318592"/>
+        <c:axId val="67905024"/>
+        <c:axId val="67906560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="78317056"/>
+        <c:axId val="67905024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78318592"/>
+        <c:crossAx val="67906560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78318592"/>
+        <c:axId val="67906560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5789,11 +5808,10 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78317056"/>
+        <c:crossAx val="67905024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5813,7 +5831,6 @@
           </a:p>
         </c:txPr>
       </c:legendEntry>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -5824,7 +5841,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6106,24 +6123,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="78387072"/>
-        <c:axId val="78388608"/>
+        <c:axId val="67970944"/>
+        <c:axId val="67972480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="78387072"/>
+        <c:axId val="67970944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78388608"/>
+        <c:crossAx val="67972480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78388608"/>
+        <c:axId val="67972480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6157,7 +6174,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78387072"/>
+        <c:crossAx val="67970944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6187,7 +6204,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6469,24 +6486,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="78424704"/>
-        <c:axId val="78442880"/>
+        <c:axId val="68004480"/>
+        <c:axId val="68022656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="78424704"/>
+        <c:axId val="68004480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78442880"/>
+        <c:crossAx val="68022656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78442880"/>
+        <c:axId val="68022656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6520,7 +6537,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78424704"/>
+        <c:crossAx val="68004480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6550,7 +6567,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6563,13 +6580,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>342899</xdr:colOff>
       <xdr:row>408</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>425</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>424</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6843,13 +6860,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
       <xdr:row>410</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>161926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>428</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>427</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7609,8 +7626,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A3:AO435"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E324" workbookViewId="0">
-      <selection activeCell="E330" sqref="A330:XFD357"/>
+    <sheetView topLeftCell="A409" workbookViewId="0">
+      <selection activeCell="I442" sqref="I442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17032,11 +17049,11 @@
         <f>J368/H368</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N368">
+      <c r="N368" s="23">
         <f>K368/L368</f>
         <v>4.3918128654970756</v>
       </c>
-      <c r="O368">
+      <c r="O368" s="24">
         <v>0.99007000000000001</v>
       </c>
       <c r="S368" t="s">
@@ -17060,11 +17077,11 @@
       <c r="AA368">
         <v>17.100000000000001</v>
       </c>
-      <c r="AC368">
+      <c r="AC368" s="23">
         <f>Z368/AA368</f>
         <v>4.3918128654970756</v>
       </c>
-      <c r="AD368">
+      <c r="AD368" s="24">
         <v>0.98977089981571797</v>
       </c>
     </row>
@@ -17091,11 +17108,11 @@
         <f>J369/L369</f>
         <v>0</v>
       </c>
-      <c r="N369">
+      <c r="N369" s="23">
         <f t="shared" ref="N369:N373" si="39">K369/L369</f>
         <v>4.3918128654970756</v>
       </c>
-      <c r="O369">
+      <c r="O369" s="24">
         <v>0.98716000000000004</v>
       </c>
       <c r="T369">
@@ -17116,11 +17133,11 @@
       <c r="AA369">
         <v>17.100000000000001</v>
       </c>
-      <c r="AC369">
+      <c r="AC369" s="23">
         <f t="shared" ref="AC369:AC379" si="40">Z369/AA369</f>
         <v>4.3918128654970756</v>
       </c>
-      <c r="AD369">
+      <c r="AD369" s="24">
         <v>0.98602654374123999</v>
       </c>
     </row>
@@ -17147,11 +17164,11 @@
         <f t="shared" ref="M370:M378" si="41">J370/L370</f>
         <v>0</v>
       </c>
-      <c r="N370">
+      <c r="N370" s="23">
         <f t="shared" si="39"/>
         <v>4.3662790697674421</v>
       </c>
-      <c r="O370">
+      <c r="O370" s="24">
         <v>0.98333999999999999</v>
       </c>
       <c r="P370">
@@ -17176,11 +17193,11 @@
       <c r="AA370">
         <v>17</v>
       </c>
-      <c r="AC370">
+      <c r="AC370" s="23">
         <f t="shared" si="40"/>
         <v>4.4176470588235288</v>
       </c>
-      <c r="AD370">
+      <c r="AD370" s="24">
         <v>0.98179714252304295</v>
       </c>
     </row>
@@ -17207,11 +17224,11 @@
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="N371">
+      <c r="N371" s="23">
         <f t="shared" si="39"/>
         <v>4.3662790697674421</v>
       </c>
-      <c r="O371">
+      <c r="O371" s="24">
         <v>0.97987000000000002</v>
       </c>
       <c r="P371" s="15">
@@ -17236,11 +17253,11 @@
       <c r="AA371">
         <v>17</v>
       </c>
-      <c r="AC371">
+      <c r="AC371" s="23">
         <f t="shared" si="40"/>
         <v>4.4176470588235288</v>
       </c>
-      <c r="AD371">
+      <c r="AD371" s="24">
         <v>0.97537460764899198</v>
       </c>
     </row>
@@ -17267,11 +17284,11 @@
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="N372">
+      <c r="N372" s="23">
         <f t="shared" si="39"/>
         <v>4.3662790697674421</v>
       </c>
-      <c r="O372">
+      <c r="O372" s="24">
         <v>0.97777000000000003</v>
       </c>
       <c r="P372">
@@ -17296,11 +17313,11 @@
       <c r="AA372">
         <v>17</v>
       </c>
-      <c r="AC372">
+      <c r="AC372" s="23">
         <f t="shared" si="40"/>
         <v>4.4176470588235288</v>
       </c>
-      <c r="AD372">
+      <c r="AD372" s="24">
         <v>0.97187585439300095</v>
       </c>
     </row>
@@ -17327,11 +17344,11 @@
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="N373">
+      <c r="N373" s="23">
         <f t="shared" si="39"/>
         <v>4.3662790697674421</v>
       </c>
-      <c r="O373">
+      <c r="O373" s="24">
         <v>0.97299000000000002</v>
       </c>
       <c r="Q373" s="13"/>
@@ -17353,11 +17370,11 @@
       <c r="AA373">
         <v>17</v>
       </c>
-      <c r="AC373">
+      <c r="AC373" s="23">
         <f t="shared" si="40"/>
         <v>4.4176470588235288</v>
       </c>
-      <c r="AD373">
+      <c r="AD373" s="24">
         <v>0.96626157152576198</v>
       </c>
     </row>
@@ -17368,6 +17385,8 @@
       <c r="D374" s="16" t="s">
         <v>61</v>
       </c>
+      <c r="N374" s="23"/>
+      <c r="O374" s="24"/>
       <c r="T374">
         <v>8</v>
       </c>
@@ -17386,11 +17405,11 @@
       <c r="AA374">
         <v>4.29</v>
       </c>
-      <c r="AC374">
+      <c r="AC374" s="23">
         <f t="shared" si="40"/>
         <v>17.505827505827504</v>
       </c>
-      <c r="AD374">
+      <c r="AD374" s="24">
         <v>0.95639001286863901</v>
       </c>
     </row>
@@ -17414,11 +17433,11 @@
       <c r="L375">
         <v>4.29</v>
       </c>
-      <c r="N375">
+      <c r="N375" s="23">
         <f>K375/L375</f>
         <v>17.505827505827504</v>
       </c>
-      <c r="O375">
+      <c r="O375" s="24">
         <v>0.95664000000000005</v>
       </c>
       <c r="T375">
@@ -17439,11 +17458,11 @@
       <c r="AA375">
         <v>4.29</v>
       </c>
-      <c r="AC375">
+      <c r="AC375" s="23">
         <f t="shared" si="40"/>
         <v>17.505827505827504</v>
       </c>
-      <c r="AD375">
+      <c r="AD375" s="24">
         <v>0.95604426823803301</v>
       </c>
     </row>
@@ -17467,11 +17486,11 @@
       <c r="L376">
         <v>4.28</v>
       </c>
-      <c r="N376">
+      <c r="N376" s="23">
         <f t="shared" ref="N376:N380" si="42">K376/L376</f>
         <v>17.546728971962615</v>
       </c>
-      <c r="O376">
+      <c r="O376" s="24">
         <v>0.95637000000000005</v>
       </c>
       <c r="T376">
@@ -17492,11 +17511,11 @@
       <c r="AA376">
         <v>4.29</v>
       </c>
-      <c r="AC376">
+      <c r="AC376" s="23">
         <f t="shared" si="40"/>
         <v>17.505827505827504</v>
       </c>
-      <c r="AD376">
+      <c r="AD376" s="24">
         <v>0.95283437505964996</v>
       </c>
     </row>
@@ -17529,11 +17548,11 @@
         <f t="shared" si="41"/>
         <v>2.3364485981308412</v>
       </c>
-      <c r="N377">
+      <c r="N377" s="23">
         <f t="shared" si="42"/>
         <v>17.546728971962615</v>
       </c>
-      <c r="O377">
+      <c r="O377" s="24">
         <v>0.95601999999999998</v>
       </c>
       <c r="T377">
@@ -17554,11 +17573,11 @@
       <c r="AA377">
         <v>4.29</v>
       </c>
-      <c r="AC377">
+      <c r="AC377" s="23">
         <f t="shared" si="40"/>
         <v>17.505827505827504</v>
       </c>
-      <c r="AD377">
+      <c r="AD377" s="24">
         <v>0.95026303452094896</v>
       </c>
     </row>
@@ -17588,11 +17607,11 @@
         <f t="shared" si="41"/>
         <v>2.8971962616822431</v>
       </c>
-      <c r="N378">
+      <c r="N378" s="23">
         <f t="shared" si="42"/>
         <v>17.546728971962615</v>
       </c>
-      <c r="O378">
+      <c r="O378" s="24">
         <v>0.95428000000000002</v>
       </c>
       <c r="T378">
@@ -17613,11 +17632,11 @@
       <c r="AA378">
         <v>4.28</v>
       </c>
-      <c r="AC378">
+      <c r="AC378" s="23">
         <f t="shared" si="40"/>
         <v>17.546728971962615</v>
       </c>
-      <c r="AD378">
+      <c r="AD378" s="24">
         <v>0.94729980866298502</v>
       </c>
     </row>
@@ -17643,11 +17662,11 @@
       <c r="L379">
         <v>4.28</v>
       </c>
-      <c r="N379">
+      <c r="N379" s="23">
         <f t="shared" si="42"/>
         <v>17.546728971962615</v>
       </c>
-      <c r="O379">
+      <c r="O379" s="24">
         <v>0.95172000000000001</v>
       </c>
       <c r="T379">
@@ -17668,11 +17687,11 @@
       <c r="AA379">
         <v>4.29</v>
       </c>
-      <c r="AC379">
+      <c r="AC379" s="23">
         <f t="shared" si="40"/>
         <v>17.505827505827504</v>
       </c>
-      <c r="AD379">
+      <c r="AD379" s="24">
         <v>0.94535281893078105</v>
       </c>
     </row>
@@ -17698,11 +17717,11 @@
       <c r="L380">
         <v>4.28</v>
       </c>
-      <c r="N380">
+      <c r="N380" s="23">
         <f t="shared" si="42"/>
         <v>17.546728971962615</v>
       </c>
-      <c r="O380">
+      <c r="O380" s="24">
         <v>0.94911999999999996</v>
       </c>
     </row>
@@ -19649,8 +19668,8 @@
   <sheetPr codeName="Лист3"/>
   <dimension ref="A3:N459"/>
   <sheetViews>
-    <sheetView topLeftCell="B361" workbookViewId="0">
-      <selection activeCell="F401" sqref="F401"/>
+    <sheetView tabSelected="1" topLeftCell="A446" workbookViewId="0">
+      <selection activeCell="F445" sqref="F445:H450"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24848,11 +24867,11 @@
       <c r="K335">
         <v>17.100000000000001</v>
       </c>
-      <c r="M335">
+      <c r="M335" s="23">
         <f>J335/K335</f>
         <v>4.3918128654970756</v>
       </c>
-      <c r="N335">
+      <c r="N335" s="24">
         <v>0.98538999999999999</v>
       </c>
     </row>
@@ -24875,11 +24894,11 @@
       <c r="K336">
         <v>17.100000000000001</v>
       </c>
-      <c r="M336">
+      <c r="M336" s="23">
         <f t="shared" ref="M336:M354" si="19">J336/K336</f>
         <v>4.3918128654970756</v>
       </c>
-      <c r="N336">
+      <c r="N336" s="24">
         <v>0.98543999999999998</v>
       </c>
     </row>
@@ -24902,11 +24921,11 @@
       <c r="K337">
         <v>17.100000000000001</v>
       </c>
-      <c r="M337">
+      <c r="M337" s="23">
         <f t="shared" si="19"/>
         <v>4.3918128654970756</v>
       </c>
-      <c r="N337">
+      <c r="N337" s="24">
         <v>0.98511000000000004</v>
       </c>
     </row>
@@ -24929,11 +24948,11 @@
       <c r="K338">
         <v>17.100000000000001</v>
       </c>
-      <c r="M338">
+      <c r="M338" s="23">
         <f t="shared" si="19"/>
         <v>4.3918128654970756</v>
       </c>
-      <c r="N338">
+      <c r="N338" s="24">
         <v>0.98411000000000004</v>
       </c>
     </row>
@@ -24956,11 +24975,11 @@
       <c r="K339">
         <v>17.100000000000001</v>
       </c>
-      <c r="M339">
+      <c r="M339" s="23">
         <f t="shared" si="19"/>
         <v>4.3918128654970756</v>
       </c>
-      <c r="N339">
+      <c r="N339" s="24">
         <v>0.98338999999999999</v>
       </c>
     </row>
@@ -24983,11 +25002,11 @@
       <c r="K340">
         <v>17.100000000000001</v>
       </c>
-      <c r="M340">
+      <c r="M340" s="23">
         <f t="shared" si="19"/>
         <v>4.3918128654970756</v>
       </c>
-      <c r="N340">
+      <c r="N340" s="24">
         <v>0.98241000000000001</v>
       </c>
     </row>
@@ -24995,10 +25014,11 @@
       <c r="J341">
         <v>75.099999999999994</v>
       </c>
-      <c r="M341" t="e">
+      <c r="M341" s="23" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="N341" s="24"/>
     </row>
     <row r="342" spans="5:14">
       <c r="E342">
@@ -25019,11 +25039,11 @@
       <c r="K342">
         <v>4.29</v>
       </c>
-      <c r="M342">
+      <c r="M342" s="23">
         <f t="shared" si="19"/>
         <v>17.505827505827504</v>
       </c>
-      <c r="N342">
+      <c r="N342" s="24">
         <v>0.97862401299172797</v>
       </c>
     </row>
@@ -25046,11 +25066,11 @@
       <c r="K343">
         <v>4.28</v>
       </c>
-      <c r="M343">
+      <c r="M343" s="23">
         <f t="shared" si="19"/>
         <v>17.546728971962615</v>
       </c>
-      <c r="N343">
+      <c r="N343" s="24">
         <v>0.97829799653377103</v>
       </c>
     </row>
@@ -25073,11 +25093,11 @@
       <c r="K344">
         <v>4.2699999999999996</v>
       </c>
-      <c r="M344">
+      <c r="M344" s="23">
         <f t="shared" si="19"/>
         <v>17.587822014051522</v>
       </c>
-      <c r="N344">
+      <c r="N344" s="24">
         <v>0.97710243309220302</v>
       </c>
     </row>
@@ -25100,11 +25120,11 @@
       <c r="K345">
         <v>4.28</v>
       </c>
-      <c r="M345">
+      <c r="M345" s="23">
         <f t="shared" si="19"/>
         <v>17.546728971962615</v>
       </c>
-      <c r="N345">
+      <c r="N345" s="24">
         <v>0.97497656785461095</v>
       </c>
     </row>
@@ -25127,11 +25147,11 @@
       <c r="K346">
         <v>4.29</v>
       </c>
-      <c r="M346">
+      <c r="M346" s="23">
         <f t="shared" si="19"/>
         <v>17.505827505827504</v>
       </c>
-      <c r="N346">
+      <c r="N346" s="24">
         <v>0.974620885037083</v>
       </c>
     </row>
@@ -25154,11 +25174,11 @@
       <c r="K347">
         <v>4.29</v>
       </c>
-      <c r="M347">
+      <c r="M347" s="23">
         <f t="shared" si="19"/>
         <v>17.505827505827504</v>
       </c>
-      <c r="N347">
+      <c r="N347" s="24">
         <v>0.97452901887099197</v>
       </c>
     </row>
@@ -25924,11 +25944,11 @@
         <f>I438/K438</f>
         <v>0</v>
       </c>
-      <c r="M438">
+      <c r="M438" s="23">
         <f>J438/K438</f>
         <v>4.3918128654970756</v>
       </c>
-      <c r="N438">
+      <c r="N438" s="24">
         <v>0.98492135275992099</v>
       </c>
     </row>
@@ -25951,11 +25971,11 @@
       <c r="K439">
         <v>17.100000000000001</v>
       </c>
-      <c r="M439">
+      <c r="M439" s="23">
         <f t="shared" ref="M439:M450" si="22">J439/K439</f>
         <v>4.3918128654970756</v>
       </c>
-      <c r="N439">
+      <c r="N439" s="24">
         <v>0.98538983065854702</v>
       </c>
     </row>
@@ -25978,11 +25998,11 @@
       <c r="K440">
         <v>17.100000000000001</v>
       </c>
-      <c r="M440">
+      <c r="M440" s="23">
         <f t="shared" si="22"/>
         <v>4.3918128654970756</v>
       </c>
-      <c r="N440">
+      <c r="N440" s="24">
         <v>0.98544049654124799</v>
       </c>
     </row>
@@ -26005,11 +26025,11 @@
       <c r="K441">
         <v>17.100000000000001</v>
       </c>
-      <c r="M441">
+      <c r="M441" s="23">
         <f t="shared" si="22"/>
         <v>4.3918128654970756</v>
       </c>
-      <c r="N441">
+      <c r="N441" s="24">
         <v>0.98511477487641697</v>
       </c>
     </row>
@@ -26032,11 +26052,11 @@
       <c r="K442">
         <v>17.100000000000001</v>
       </c>
-      <c r="M442">
-        <f t="shared" si="22"/>
+      <c r="M442" s="23">
+        <f>J442/K442</f>
         <v>4.3918128654970756</v>
       </c>
-      <c r="N442">
+      <c r="N442" s="24">
         <v>0.98411617793956296</v>
       </c>
     </row>
@@ -26059,11 +26079,11 @@
       <c r="K443">
         <v>17.100000000000001</v>
       </c>
-      <c r="M443">
+      <c r="M443" s="23">
         <f t="shared" si="22"/>
         <v>4.3918128654970756</v>
       </c>
-      <c r="N443">
+      <c r="N443" s="24">
         <v>0.98339707124478604</v>
       </c>
     </row>
@@ -26078,10 +26098,11 @@
       </c>
       <c r="K444" s="1"/>
       <c r="L444" s="1"/>
-      <c r="M444" t="e">
+      <c r="M444" s="23" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="N444" s="24"/>
     </row>
     <row r="445" spans="3:14">
       <c r="E445">
@@ -26102,11 +26123,11 @@
       <c r="K445">
         <v>4.29</v>
       </c>
-      <c r="M445">
+      <c r="M445" s="23">
         <f t="shared" si="22"/>
         <v>17.505827505827504</v>
       </c>
-      <c r="N445">
+      <c r="N445" s="24">
         <v>0.97862401299172797</v>
       </c>
     </row>
@@ -26129,11 +26150,11 @@
       <c r="K446">
         <v>4.28</v>
       </c>
-      <c r="M446">
+      <c r="M446" s="23">
         <f t="shared" si="22"/>
         <v>17.546728971962615</v>
       </c>
-      <c r="N446">
+      <c r="N446" s="24">
         <v>0.97829799653377103</v>
       </c>
     </row>
@@ -26156,11 +26177,11 @@
       <c r="K447">
         <v>4.2699999999999996</v>
       </c>
-      <c r="M447">
+      <c r="M447" s="23">
         <f t="shared" si="22"/>
         <v>17.587822014051522</v>
       </c>
-      <c r="N447">
+      <c r="N447" s="24">
         <v>0.97710243309220302</v>
       </c>
     </row>
@@ -26183,11 +26204,11 @@
       <c r="K448">
         <v>4.28</v>
       </c>
-      <c r="M448">
+      <c r="M448" s="23">
         <f t="shared" si="22"/>
         <v>17.546728971962615</v>
       </c>
-      <c r="N448">
+      <c r="N448" s="24">
         <v>0.97497656785461095</v>
       </c>
     </row>
@@ -26210,11 +26231,11 @@
       <c r="K449">
         <v>4.29</v>
       </c>
-      <c r="M449">
+      <c r="M449" s="23">
         <f t="shared" si="22"/>
         <v>17.505827505827504</v>
       </c>
-      <c r="N449">
+      <c r="N449" s="24">
         <v>0.97452901887099197</v>
       </c>
     </row>
@@ -26237,11 +26258,11 @@
       <c r="K450">
         <v>4.28</v>
       </c>
-      <c r="M450">
+      <c r="M450" s="23">
         <f t="shared" si="22"/>
         <v>17.546728971962615</v>
       </c>
-      <c r="N450">
+      <c r="N450" s="24">
         <v>0.97422926271107002</v>
       </c>
     </row>
@@ -39486,10 +39507,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист6"/>
-  <dimension ref="A2:L121"/>
+  <dimension ref="A2:L159"/>
   <sheetViews>
-    <sheetView topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="B132" sqref="B132"/>
+    <sheetView topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="H154" sqref="H154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -40364,6 +40385,258 @@
       </c>
       <c r="G121">
         <v>200.37</v>
+      </c>
+    </row>
+    <row r="145" spans="3:10" s="2" customFormat="1"/>
+    <row r="150" spans="3:10" ht="60">
+      <c r="C150" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J150" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="151" spans="3:10">
+      <c r="C151" t="s">
+        <v>77</v>
+      </c>
+      <c r="D151">
+        <v>4</v>
+      </c>
+      <c r="E151">
+        <v>136.96</v>
+      </c>
+      <c r="F151">
+        <v>1.68</v>
+      </c>
+      <c r="G151">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="H151">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="I151">
+        <f>G151/H151</f>
+        <v>4.3918128654970756</v>
+      </c>
+      <c r="J151">
+        <v>0.99583323057418205</v>
+      </c>
+    </row>
+    <row r="152" spans="3:10">
+      <c r="D152">
+        <v>8</v>
+      </c>
+      <c r="E152">
+        <v>31.26</v>
+      </c>
+      <c r="F152">
+        <v>1.75</v>
+      </c>
+      <c r="G152">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="H152">
+        <v>4.28</v>
+      </c>
+      <c r="I152">
+        <f t="shared" ref="I152:I159" si="4">G152/H152</f>
+        <v>17.546728971962615</v>
+      </c>
+      <c r="J152">
+        <v>0.97213888521849501</v>
+      </c>
+    </row>
+    <row r="153" spans="3:10">
+      <c r="D153">
+        <v>16</v>
+      </c>
+      <c r="E153">
+        <v>6.81</v>
+      </c>
+      <c r="F153">
+        <v>1.62</v>
+      </c>
+      <c r="G153">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="H153">
+        <v>1.07</v>
+      </c>
+      <c r="I153">
+        <f t="shared" si="4"/>
+        <v>70.186915887850461</v>
+      </c>
+      <c r="J153">
+        <v>0.90304123805610803</v>
+      </c>
+    </row>
+    <row r="154" spans="3:10">
+      <c r="C154" t="s">
+        <v>64</v>
+      </c>
+      <c r="D154">
+        <v>4</v>
+      </c>
+      <c r="E154">
+        <v>337.02</v>
+      </c>
+      <c r="F154">
+        <v>5.28</v>
+      </c>
+      <c r="G154">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="H154">
+        <v>51.4</v>
+      </c>
+      <c r="I154">
+        <f t="shared" si="4"/>
+        <v>1.461089494163424</v>
+      </c>
+      <c r="J154">
+        <v>0.99565549834526501</v>
+      </c>
+    </row>
+    <row r="155" spans="3:10">
+      <c r="D155">
+        <v>8</v>
+      </c>
+      <c r="E155">
+        <v>51.53</v>
+      </c>
+      <c r="F155">
+        <v>7.75</v>
+      </c>
+      <c r="G155">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="H155">
+        <v>12.8</v>
+      </c>
+      <c r="I155">
+        <f t="shared" si="4"/>
+        <v>5.8671874999999991</v>
+      </c>
+      <c r="J155">
+        <v>0.97158527965215902</v>
+      </c>
+    </row>
+    <row r="156" spans="3:10">
+      <c r="D156">
+        <v>16</v>
+      </c>
+      <c r="E156">
+        <v>10.58</v>
+      </c>
+      <c r="F156">
+        <v>6.52</v>
+      </c>
+      <c r="G156">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="H156">
+        <v>3.2</v>
+      </c>
+      <c r="I156">
+        <f t="shared" si="4"/>
+        <v>23.468749999999996</v>
+      </c>
+      <c r="J156">
+        <v>0.90485396421215403</v>
+      </c>
+    </row>
+    <row r="157" spans="3:10">
+      <c r="C157" t="s">
+        <v>65</v>
+      </c>
+      <c r="D157">
+        <v>4</v>
+      </c>
+      <c r="E157">
+        <v>536.66999999999996</v>
+      </c>
+      <c r="F157">
+        <v>10.23</v>
+      </c>
+      <c r="G157">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="H157">
+        <v>51.4</v>
+      </c>
+      <c r="I157">
+        <f t="shared" si="4"/>
+        <v>1.461089494163424</v>
+      </c>
+      <c r="J157">
+        <v>0.98438549834526501</v>
+      </c>
+    </row>
+    <row r="158" spans="3:10">
+      <c r="D158">
+        <v>8</v>
+      </c>
+      <c r="E158">
+        <v>170.18</v>
+      </c>
+      <c r="F158">
+        <v>9.89</v>
+      </c>
+      <c r="G158">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="H158">
+        <v>12.8</v>
+      </c>
+      <c r="I158">
+        <f t="shared" si="4"/>
+        <v>5.8671874999999991</v>
+      </c>
+      <c r="J158">
+        <v>0.968800507279861</v>
+      </c>
+    </row>
+    <row r="159" spans="3:10">
+      <c r="D159">
+        <v>16</v>
+      </c>
+      <c r="E159">
+        <v>37.880000000000003</v>
+      </c>
+      <c r="F159">
+        <v>9.69</v>
+      </c>
+      <c r="G159">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="H159">
+        <v>3.2</v>
+      </c>
+      <c r="I159">
+        <f t="shared" si="4"/>
+        <v>23.468749999999996</v>
+      </c>
+      <c r="J159">
+        <v>0.90075150924258296</v>
       </c>
     </row>
   </sheetData>

--- a/documents/исследования.xlsx
+++ b/documents/исследования.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="портрет" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <sheet name="Лист1" sheetId="5" r:id="rId7"/>
     <sheet name="распределение классов" sheetId="6" r:id="rId8"/>
     <sheet name="Лист3" sheetId="7" r:id="rId9"/>
+    <sheet name="Лист2" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Лист1!$E$5:$H$29</definedName>
@@ -456,6 +457,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -465,8 +468,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -489,7 +490,7 @@
           <c:x val="0.17587167491231837"/>
           <c:y val="7.6778988485025221E-2"/>
           <c:w val="0.46429475765625361"/>
-          <c:h val="0.66145274821522371"/>
+          <c:h val="0.66145274821522348"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -710,11 +711,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="66234624"/>
-        <c:axId val="66523904"/>
+        <c:axId val="81508992"/>
+        <c:axId val="83301504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="66234624"/>
+        <c:axId val="81508992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -740,20 +741,20 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.29266121712198229"/>
-              <c:y val="0.91952292951176939"/>
+              <c:x val="0.29266121712198234"/>
+              <c:y val="0.91952292951176906"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66523904"/>
+        <c:crossAx val="83301504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66523904"/>
+        <c:axId val="83301504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -784,11 +785,10 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66234624"/>
+        <c:crossAx val="81508992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -812,9 +812,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.66110883710840396"/>
+          <c:x val="0.66110883710840485"/>
           <c:y val="8.6460758061807932E-2"/>
-          <c:w val="0.32027569218952795"/>
+          <c:w val="0.32027569218952812"/>
           <c:h val="0.84250477857999795"/>
         </c:manualLayout>
       </c:layout>
@@ -828,7 +828,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -847,7 +847,7 @@
           <c:x val="0.17587167491231837"/>
           <c:y val="7.6778988485025221E-2"/>
           <c:w val="0.46429475765625361"/>
-          <c:h val="0.66972030336698707"/>
+          <c:h val="0.66972030336698773"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1068,11 +1068,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="69225472"/>
-        <c:axId val="69235840"/>
+        <c:axId val="89673088"/>
+        <c:axId val="89679360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="69225472"/>
+        <c:axId val="89673088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1098,20 +1098,20 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.28568046795197721"/>
+              <c:x val="0.28568046795197743"/>
               <c:y val="0.92425647714281112"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69235840"/>
+        <c:crossAx val="89679360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69235840"/>
+        <c:axId val="89679360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1142,11 +1142,10 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69225472"/>
+        <c:crossAx val="89673088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1170,9 +1169,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.66110883710840462"/>
+          <c:x val="0.6611088371084054"/>
           <c:y val="8.6460758061807932E-2"/>
-          <c:w val="0.32027569218952806"/>
+          <c:w val="0.32027569218952823"/>
           <c:h val="0.84250477857999795"/>
         </c:manualLayout>
       </c:layout>
@@ -1186,7 +1185,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1205,7 +1204,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.17260710585903771"/>
           <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.60357587408597446"/>
+          <c:w val="0.60357587408597491"/>
           <c:h val="0.5445866624176815"/>
         </c:manualLayout>
       </c:layout>
@@ -1268,11 +1267,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="69260416"/>
-        <c:axId val="69262336"/>
+        <c:axId val="89708032"/>
+        <c:axId val="89709952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="69260416"/>
+        <c:axId val="89708032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1297,8 +1296,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.29329681615885034"/>
-              <c:y val="0.89983141341320116"/>
+              <c:x val="0.2932968161588505"/>
+              <c:y val="0.89983141341320172"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -1313,14 +1312,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69262336"/>
+        <c:crossAx val="89709952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69262336"/>
+        <c:axId val="89709952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1350,11 +1349,10 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69260416"/>
+        <c:crossAx val="89708032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1367,7 +1365,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.78167276749269221"/>
           <c:y val="0.26369685006901455"/>
-          <c:w val="0.20344147309199506"/>
+          <c:w val="0.20344147309199526"/>
           <c:h val="0.13195137725382619"/>
         </c:manualLayout>
       </c:layout>
@@ -1382,7 +1380,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1401,7 +1399,7 @@
           <c:x val="0.17587167491231837"/>
           <c:y val="7.6778988485025221E-2"/>
           <c:w val="0.46429475765625361"/>
-          <c:h val="0.6329103811518505"/>
+          <c:h val="0.6813953710331665"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1622,11 +1620,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="69420544"/>
-        <c:axId val="69422464"/>
+        <c:axId val="89794432"/>
+        <c:axId val="89808896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="69420544"/>
+        <c:axId val="89794432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1648,16 +1646,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.28568046795197738"/>
+              <c:y val="0.92569633341286883"/>
+            </c:manualLayout>
+          </c:layout>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69422464"/>
+        <c:crossAx val="89808896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69422464"/>
+        <c:axId val="89808896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1691,7 +1697,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69420544"/>
+        <c:crossAx val="89794432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1715,9 +1721,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.66110883710840507"/>
+          <c:x val="0.66110883710840596"/>
           <c:y val="8.6460758061807932E-2"/>
-          <c:w val="0.32027569218952817"/>
+          <c:w val="0.32027569218952839"/>
           <c:h val="0.84250477857999795"/>
         </c:manualLayout>
       </c:layout>
@@ -1731,7 +1737,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1750,7 +1756,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.17260710585903771"/>
           <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.6035758740859748"/>
+          <c:w val="0.60357587408597513"/>
           <c:h val="0.5445866624176815"/>
         </c:manualLayout>
       </c:layout>
@@ -1813,11 +1819,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="69438848"/>
-        <c:axId val="69453312"/>
+        <c:axId val="89841664"/>
+        <c:axId val="89843584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="69438848"/>
+        <c:axId val="89841664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1842,8 +1848,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.29329681615885045"/>
-              <c:y val="0.89983141341320161"/>
+              <c:x val="0.29329681615885062"/>
+              <c:y val="0.89983141341320194"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -1858,14 +1864,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69453312"/>
+        <c:crossAx val="89843584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69453312"/>
+        <c:axId val="89843584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1898,7 +1904,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69438848"/>
+        <c:crossAx val="89841664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1911,7 +1917,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.78167276749269221"/>
           <c:y val="0.26369685006901455"/>
-          <c:w val="0.2034414730919952"/>
+          <c:w val="0.20344147309199537"/>
           <c:h val="0.13195137725382619"/>
         </c:manualLayout>
       </c:layout>
@@ -1926,7 +1932,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1945,7 +1951,7 @@
           <c:x val="0.17587167491231837"/>
           <c:y val="7.6778988485025221E-2"/>
           <c:w val="0.46429475765625361"/>
-          <c:h val="0.6329103811518505"/>
+          <c:h val="0.67803852210781379"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2166,11 +2172,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="69505024"/>
-        <c:axId val="69506944"/>
+        <c:axId val="90083712"/>
+        <c:axId val="90085632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="69505024"/>
+        <c:axId val="90083712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2192,16 +2198,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.2936633654887757"/>
+              <c:y val="0.92901918029477082"/>
+            </c:manualLayout>
+          </c:layout>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69506944"/>
+        <c:crossAx val="90085632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69506944"/>
+        <c:axId val="90085632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2235,7 +2249,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69505024"/>
+        <c:crossAx val="90083712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2259,9 +2273,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.66110883710840573"/>
+          <c:x val="0.66110883710840662"/>
           <c:y val="8.6460758061807932E-2"/>
-          <c:w val="0.32027569218952834"/>
+          <c:w val="0.3202756921895285"/>
           <c:h val="0.84250477857999795"/>
         </c:manualLayout>
       </c:layout>
@@ -2275,7 +2289,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2294,8 +2308,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.17260710585903771"/>
           <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.60357587408597502"/>
-          <c:h val="0.5445866624176815"/>
+          <c:w val="0.65162384431675802"/>
+          <c:h val="0.53979040389735455"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2357,11 +2371,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="69601152"/>
-        <c:axId val="69611520"/>
+        <c:axId val="90110208"/>
+        <c:axId val="89919872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="69601152"/>
+        <c:axId val="90110208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2386,8 +2400,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.29329681615885056"/>
-              <c:y val="0.89983141341320183"/>
+              <c:x val="0.29329681615885073"/>
+              <c:y val="0.89983141341320216"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -2402,14 +2416,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69611520"/>
+        <c:crossAx val="89919872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69611520"/>
+        <c:axId val="89919872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2442,7 +2456,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69601152"/>
+        <c:crossAx val="90110208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2455,7 +2469,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.78167276749269221"/>
           <c:y val="0.26369685006901455"/>
-          <c:w val="0.20344147309199531"/>
+          <c:w val="0.20344147309199551"/>
           <c:h val="0.13195137725382619"/>
         </c:manualLayout>
       </c:layout>
@@ -2470,7 +2484,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2489,8 +2503,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.17260710585903771"/>
           <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.60357587408597524"/>
-          <c:h val="0.66445744865549483"/>
+          <c:w val="0.60357587408597568"/>
+          <c:h val="0.66445744865549516"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2546,11 +2560,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="69656576"/>
-        <c:axId val="69658496"/>
+        <c:axId val="89948544"/>
+        <c:axId val="89950464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="69656576"/>
+        <c:axId val="89948544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2575,7 +2589,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.29552647056241765"/>
+              <c:x val="0.29552647056241793"/>
               <c:y val="0.89001337867785957"/>
             </c:manualLayout>
           </c:layout>
@@ -2591,14 +2605,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69658496"/>
+        <c:crossAx val="89950464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69658496"/>
+        <c:axId val="89950464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2631,7 +2645,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69656576"/>
+        <c:crossAx val="89948544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2644,7 +2658,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.78167276749269221"/>
           <c:y val="0.26369685006901455"/>
-          <c:w val="0.20344147309199545"/>
+          <c:w val="0.20344147309199562"/>
           <c:h val="0.13195137725382619"/>
         </c:manualLayout>
       </c:layout>
@@ -2659,7 +2673,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2678,8 +2692,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.17260710585903771"/>
           <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.60357587408597546"/>
-          <c:h val="0.66445744865549505"/>
+          <c:w val="0.60357587408597591"/>
+          <c:h val="0.66445744865549561"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2735,11 +2749,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="88565248"/>
-        <c:axId val="88567168"/>
+        <c:axId val="90130304"/>
+        <c:axId val="90136576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="88565248"/>
+        <c:axId val="90130304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2764,7 +2778,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.29552647056241788"/>
+              <c:x val="0.29552647056241815"/>
               <c:y val="0.89001337867785957"/>
             </c:manualLayout>
           </c:layout>
@@ -2780,14 +2794,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88567168"/>
+        <c:crossAx val="90136576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88567168"/>
+        <c:axId val="90136576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2820,7 +2834,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88565248"/>
+        <c:crossAx val="90130304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2833,7 +2847,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.78167276749269221"/>
           <c:y val="0.26369685006901455"/>
-          <c:w val="0.20344147309199556"/>
+          <c:w val="0.20344147309199576"/>
           <c:h val="0.13195137725382619"/>
         </c:manualLayout>
       </c:layout>
@@ -2848,7 +2862,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000311" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000311" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3088,11 +3102,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="88610304"/>
-        <c:axId val="88612224"/>
+        <c:axId val="90183552"/>
+        <c:axId val="90193920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="88610304"/>
+        <c:axId val="90183552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3116,14 +3130,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88612224"/>
+        <c:crossAx val="90193920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88612224"/>
+        <c:axId val="90193920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3157,7 +3171,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88610304"/>
+        <c:crossAx val="90183552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3181,9 +3195,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.66110883710840629"/>
+          <c:x val="0.66110883710840707"/>
           <c:y val="8.6460758061807932E-2"/>
-          <c:w val="0.32027569218952845"/>
+          <c:w val="0.32027569218952862"/>
           <c:h val="0.84250477857999795"/>
         </c:manualLayout>
       </c:layout>
@@ -3197,7 +3211,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000003" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3392,8 +3406,8 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="88691840"/>
-        <c:axId val="88693376"/>
+        <c:axId val="90265088"/>
+        <c:axId val="90266624"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3470,25 +3484,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="88704896"/>
-        <c:axId val="88703360"/>
+        <c:axId val="90278144"/>
+        <c:axId val="90276608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="88691840"/>
+        <c:axId val="90265088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88693376"/>
+        <c:crossAx val="90266624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88693376"/>
+        <c:axId val="90266624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3496,32 +3510,32 @@
         <c:minorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88691840"/>
+        <c:crossAx val="90265088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="88703360"/>
+        <c:axId val="90276608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88704896"/>
+        <c:crossAx val="90278144"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="88704896"/>
+        <c:axId val="90278144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="t"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="88703360"/>
+        <c:crossAx val="90276608"/>
         <c:crosses val="max"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3536,7 +3550,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3546,9 +3560,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -3691,25 +3703,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="66552576"/>
-        <c:axId val="66554112"/>
+        <c:axId val="83334272"/>
+        <c:axId val="83335808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="66552576"/>
+        <c:axId val="83334272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66554112"/>
+        <c:crossAx val="83335808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66554112"/>
+        <c:axId val="83335808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3717,20 +3729,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66552576"/>
+        <c:crossAx val="83334272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3869,11 +3880,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="89004288"/>
-        <c:axId val="89010560"/>
+        <c:axId val="90573440"/>
+        <c:axId val="90579712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="89004288"/>
+        <c:axId val="90573440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3896,14 +3907,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89010560"/>
+        <c:crossAx val="90579712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89010560"/>
+        <c:axId val="90579712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3928,7 +3939,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89004288"/>
+        <c:crossAx val="90573440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3940,7 +3951,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4079,24 +4090,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="89027328"/>
-        <c:axId val="89028864"/>
+        <c:axId val="90600576"/>
+        <c:axId val="90602112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="89027328"/>
+        <c:axId val="90600576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89028864"/>
+        <c:crossAx val="90602112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89028864"/>
+        <c:axId val="90602112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4104,7 +4115,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89027328"/>
+        <c:crossAx val="90600576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4116,7 +4127,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4255,24 +4266,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="89057536"/>
-        <c:axId val="89149440"/>
+        <c:axId val="90622592"/>
+        <c:axId val="90722688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="89057536"/>
+        <c:axId val="90622592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89149440"/>
+        <c:crossAx val="90722688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89149440"/>
+        <c:axId val="90722688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4280,7 +4291,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89057536"/>
+        <c:crossAx val="90622592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4292,7 +4303,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4370,24 +4381,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="89160704"/>
-        <c:axId val="89170688"/>
+        <c:axId val="90733952"/>
+        <c:axId val="90739840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="89160704"/>
+        <c:axId val="90733952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89170688"/>
+        <c:crossAx val="90739840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89170688"/>
+        <c:axId val="90739840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4395,7 +4406,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89160704"/>
+        <c:crossAx val="90733952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4407,7 +4418,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4572,24 +4583,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="89245952"/>
-        <c:axId val="90898432"/>
+        <c:axId val="90811008"/>
+        <c:axId val="90829184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="89245952"/>
+        <c:axId val="90811008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90898432"/>
+        <c:crossAx val="90829184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90898432"/>
+        <c:axId val="90829184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4597,19 +4608,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89245952"/>
+        <c:crossAx val="90811008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4628,7 +4640,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.17260710585903771"/>
           <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.60357587408597424"/>
+          <c:w val="0.60357587408597468"/>
           <c:h val="0.5445866624176815"/>
         </c:manualLayout>
       </c:layout>
@@ -4691,11 +4703,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="66583936"/>
-        <c:axId val="67069440"/>
+        <c:axId val="87515136"/>
+        <c:axId val="87517056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="66583936"/>
+        <c:axId val="87515136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4720,8 +4732,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.29329681615885017"/>
-              <c:y val="0.89983141341320094"/>
+              <c:x val="0.29329681615885039"/>
+              <c:y val="0.89983141341320139"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -4736,14 +4748,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67069440"/>
+        <c:crossAx val="87517056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67069440"/>
+        <c:axId val="87517056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4773,11 +4785,10 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66583936"/>
+        <c:crossAx val="87515136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4790,7 +4801,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.78167276749269221"/>
           <c:y val="0.26369685006901455"/>
-          <c:w val="0.20344147309199495"/>
+          <c:w val="0.20344147309199512"/>
           <c:h val="0.13195137725382619"/>
         </c:manualLayout>
       </c:layout>
@@ -4805,7 +4816,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4947,24 +4958,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="67838720"/>
-        <c:axId val="67840256"/>
+        <c:axId val="87557248"/>
+        <c:axId val="87558784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="67838720"/>
+        <c:axId val="87557248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67840256"/>
+        <c:crossAx val="87558784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67840256"/>
+        <c:axId val="87558784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5019,7 +5030,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67838720"/>
+        <c:crossAx val="87557248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5037,7 +5048,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5179,24 +5190,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="67860736"/>
-        <c:axId val="67866624"/>
+        <c:axId val="87591552"/>
+        <c:axId val="87601536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="67860736"/>
+        <c:axId val="87591552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67866624"/>
+        <c:crossAx val="87601536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67866624"/>
+        <c:axId val="87601536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5230,7 +5241,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67860736"/>
+        <c:crossAx val="87591552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5248,7 +5259,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5265,9 +5276,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.18814270812302331"/>
-          <c:y val="4.0336129645919691E-2"/>
-          <c:w val="0.76312975301164354"/>
+          <c:x val="0.18814270812302339"/>
+          <c:y val="4.0336129645919719E-2"/>
+          <c:w val="0.76312975301164365"/>
           <c:h val="0.48806253441753028"/>
         </c:manualLayout>
       </c:layout>
@@ -5400,24 +5411,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="67117056"/>
-        <c:axId val="67118592"/>
+        <c:axId val="89403776"/>
+        <c:axId val="89405312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="67117056"/>
+        <c:axId val="89403776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67118592"/>
+        <c:crossAx val="89405312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67118592"/>
+        <c:axId val="89405312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5450,7 +5461,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67117056"/>
+        <c:crossAx val="89403776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5462,9 +5473,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.32306733292953782"/>
-          <c:y val="0.87768771410385793"/>
-          <c:w val="0.20898394912174459"/>
-          <c:h val="6.5696324744148271E-2"/>
+          <c:y val="0.87768771410385826"/>
+          <c:w val="0.20898394912174473"/>
+          <c:h val="6.5696324744148341E-2"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -5478,7 +5489,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5760,24 +5771,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="67905024"/>
-        <c:axId val="67906560"/>
+        <c:axId val="89327488"/>
+        <c:axId val="89329024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="67905024"/>
+        <c:axId val="89327488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67906560"/>
+        <c:crossAx val="89329024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67906560"/>
+        <c:axId val="89329024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5811,7 +5822,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67905024"/>
+        <c:crossAx val="89327488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5841,7 +5852,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6123,24 +6134,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="67970944"/>
-        <c:axId val="67972480"/>
+        <c:axId val="89463040"/>
+        <c:axId val="89468928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="67970944"/>
+        <c:axId val="89463040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67972480"/>
+        <c:crossAx val="89468928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67972480"/>
+        <c:axId val="89468928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6174,7 +6185,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67970944"/>
+        <c:crossAx val="89463040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6204,7 +6215,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6486,24 +6497,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="68004480"/>
-        <c:axId val="68022656"/>
+        <c:axId val="89500672"/>
+        <c:axId val="89592576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="68004480"/>
+        <c:axId val="89500672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68022656"/>
+        <c:crossAx val="89592576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68022656"/>
+        <c:axId val="89592576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6537,7 +6548,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68004480"/>
+        <c:crossAx val="89500672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6567,7 +6578,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6663,6 +6674,5014 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6829425" y="1362075"/>
+          <a:ext cx="4476750" cy="4448175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>537038</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>51263</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Рисунок 3" descr="8bpp312_lena - копия.bmp"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:duotone>
+            <a:schemeClr val="bg2">
+              <a:shade val="45000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+            <a:prstClr val="white"/>
+          </a:duotone>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1552575" y="1638300"/>
+          <a:ext cx="2032463" cy="2032463"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>262205</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6915151" y="6324600"/>
+          <a:ext cx="2491054" cy="2543175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>314326</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1533526" y="1628776"/>
+          <a:ext cx="2076449" cy="2038350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>527513</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>3638</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Рисунок 7" descr="8bpp312_lena - копия.bmp"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:duotone>
+            <a:schemeClr val="bg2">
+              <a:shade val="45000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+            <a:prstClr val="white"/>
+          </a:duotone>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1543050" y="4257675"/>
+          <a:ext cx="2032463" cy="2032463"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>204073</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>447674</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1027" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6300073" y="4124325"/>
+          <a:ext cx="3291601" cy="3314700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1029" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5734050" y="7524750"/>
+          <a:ext cx="4086225" cy="4305300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>572386</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1504951" y="4238625"/>
+          <a:ext cx="2115435" cy="2085975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1031" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6086475" y="3390900"/>
+          <a:ext cx="438150" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4505325" y="4638675"/>
+          <a:ext cx="438150" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>180973</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4686300" y="5514973"/>
+          <a:ext cx="219076" cy="238128"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>104773</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4286250" y="5438773"/>
+          <a:ext cx="219076" cy="238128"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>161870</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:srcRect l="7608" t="6500" r="7065" b="7000"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5648270" y="4514850"/>
+          <a:ext cx="466780" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>534611</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect l="7608" t="6500" r="7065" b="7000"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1753811" y="4257674"/>
+          <a:ext cx="198814" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>325061</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect l="7608" t="6500" r="7065" b="7000"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3982661" y="5276849"/>
+          <a:ext cx="198814" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>534611</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect l="7608" t="6500" r="7065" b="7000"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1753811" y="4457699"/>
+          <a:ext cx="198814" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>125036</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect l="7608" t="6500" r="7065" b="7000"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1953836" y="4457699"/>
+          <a:ext cx="198814" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>125036</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect l="7608" t="6500" r="7065" b="7000"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3173036" y="4457699"/>
+          <a:ext cx="198814" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>334586</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect l="7608" t="6500" r="7065" b="7000"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2772986" y="4457699"/>
+          <a:ext cx="198814" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>125036</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect l="7608" t="6500" r="7065" b="7000"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2563436" y="4457699"/>
+          <a:ext cx="198814" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>334586</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect l="7608" t="6500" r="7065" b="7000"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1553786" y="4657724"/>
+          <a:ext cx="198814" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>534611</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect l="7608" t="6500" r="7065" b="7000"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1753811" y="4657724"/>
+          <a:ext cx="198814" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>534611</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect l="7608" t="6500" r="7065" b="7000"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2973011" y="4457699"/>
+          <a:ext cx="198814" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>325061</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect l="7608" t="6500" r="7065" b="7000"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2153861" y="4657724"/>
+          <a:ext cx="198814" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>325061</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect l="7608" t="6500" r="7065" b="7000"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2763461" y="4657724"/>
+          <a:ext cx="198814" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>125036</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect l="7608" t="6500" r="7065" b="7000"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2563436" y="4657724"/>
+          <a:ext cx="198814" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>334586</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect l="7608" t="6500" r="7065" b="7000"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1553786" y="5267324"/>
+          <a:ext cx="198814" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>534611</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect l="7608" t="6500" r="7065" b="7000"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2363411" y="4657724"/>
+          <a:ext cx="198814" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>325061</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect l="7608" t="6500" r="7065" b="7000"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3373061" y="4657724"/>
+          <a:ext cx="198814" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>125036</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect l="7608" t="6500" r="7065" b="7000"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3173036" y="4657724"/>
+          <a:ext cx="198814" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>534611</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect l="7608" t="6500" r="7065" b="7000"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2973011" y="4657724"/>
+          <a:ext cx="198814" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>325061</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>433061</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>23756</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect l="7608" t="6500" r="7065" b="7000"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2763461" y="4667250"/>
+          <a:ext cx="108000" cy="119006"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>334586</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect l="7608" t="6500" r="7065" b="7000"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1553786" y="5457824"/>
+          <a:ext cx="198814" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>429836</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>537836</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>71381</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect l="7608" t="6500" r="7065" b="7000"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2258636" y="5857875"/>
+          <a:ext cx="108000" cy="119006"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>20261</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>128261</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>157106</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect l="7608" t="6500" r="7065" b="7000"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2458661" y="5562600"/>
+          <a:ext cx="108000" cy="119006"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1211</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>109211</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>128531</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect l="7608" t="6500" r="7065" b="7000"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4878011" y="6105525"/>
+          <a:ext cx="108000" cy="119006"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>334586</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect l="7608" t="6500" r="7065" b="7000"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1553786" y="5657849"/>
+          <a:ext cx="198814" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>334586</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect l="7608" t="6500" r="7065" b="7000"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1553786" y="5857874"/>
+          <a:ext cx="198814" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>334586</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect l="7608" t="6500" r="7065" b="7000"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1553786" y="6067424"/>
+          <a:ext cx="198814" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>325061</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect l="7608" t="6500" r="7065" b="7000"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3373061" y="6067424"/>
+          <a:ext cx="198814" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>334586</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect l="7608" t="6500" r="7065" b="7000"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2163386" y="6067424"/>
+          <a:ext cx="198814" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>534611</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect l="7608" t="6500" r="7065" b="7000"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1753811" y="5857874"/>
+          <a:ext cx="198814" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>125036</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect l="7608" t="6500" r="7065" b="7000"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1953836" y="5857874"/>
+          <a:ext cx="198814" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>534611</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect l="7608" t="6500" r="7065" b="7000"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1753811" y="6067424"/>
+          <a:ext cx="198814" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>125036</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect l="7608" t="6500" r="7065" b="7000"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1953836" y="6067424"/>
+          <a:ext cx="198814" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>334586</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect l="7608" t="6500" r="7065" b="7000"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2163386" y="5857874"/>
+          <a:ext cx="198814" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>134561</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect l="7608" t="6500" r="7065" b="7000"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3182561" y="5867399"/>
+          <a:ext cx="198814" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>325061</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect l="7608" t="6500" r="7065" b="7000"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3373061" y="5867399"/>
+          <a:ext cx="198814" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>325061</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect l="7608" t="6500" r="7065" b="7000"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3373061" y="5267324"/>
+          <a:ext cx="198814" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>325061</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect l="7608" t="6500" r="7065" b="7000"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3373061" y="5067299"/>
+          <a:ext cx="198814" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>325061</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect l="7608" t="6500" r="7065" b="7000"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3373061" y="5467349"/>
+          <a:ext cx="198814" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>534611</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect l="7608" t="6500" r="7065" b="7000"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1753811" y="5067299"/>
+          <a:ext cx="198814" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>325061</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect l="7608" t="6500" r="7065" b="7000"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3373061" y="5667374"/>
+          <a:ext cx="198814" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>115511</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect l="7608" t="6500" r="7065" b="7000"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1944311" y="5657849"/>
+          <a:ext cx="198814" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>334586</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect l="7608" t="6500" r="7065" b="7000"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2163386" y="5457824"/>
+          <a:ext cx="198814" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>125036</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect l="7608" t="6500" r="7065" b="7000"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1953836" y="4867274"/>
+          <a:ext cx="198814" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>134561</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect l="7608" t="6500" r="7065" b="7000"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4401761" y="6638924"/>
+          <a:ext cx="198814" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>534611</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect l="7608" t="6500" r="7065" b="7000"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1753811" y="5267324"/>
+          <a:ext cx="198814" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>534611</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect l="7608" t="6500" r="7065" b="7000"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1753811" y="5457824"/>
+          <a:ext cx="198814" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>534611</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect l="7608" t="6500" r="7065" b="7000"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1753811" y="5657849"/>
+          <a:ext cx="198814" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>334586</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect l="7608" t="6500" r="7065" b="7000"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2163386" y="5657849"/>
+          <a:ext cx="198814" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>534611</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect l="7608" t="6500" r="7065" b="7000"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2363411" y="5657849"/>
+          <a:ext cx="198814" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>125036</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="77" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect l="7608" t="6500" r="7065" b="7000"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2563436" y="5657849"/>
+          <a:ext cx="198814" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>134561</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="78" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect l="7608" t="6500" r="7065" b="7000"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3182561" y="5667374"/>
+          <a:ext cx="198814" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>125036</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="79" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect l="7608" t="6500" r="7065" b="7000"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2563436" y="5457824"/>
+          <a:ext cx="198814" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>125036</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="80" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect l="7608" t="6500" r="7065" b="7000"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2563436" y="5267324"/>
+          <a:ext cx="198814" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>325061</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="81" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect l="7608" t="6500" r="7065" b="7000"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2763461" y="5267324"/>
+          <a:ext cx="198814" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>534611</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="82" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect l="7608" t="6500" r="7065" b="7000"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2973011" y="5267324"/>
+          <a:ext cx="198814" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>534611</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="83" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect l="7608" t="6500" r="7065" b="7000"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2973011" y="5067299"/>
+          <a:ext cx="198814" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>125036</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="84" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect l="7608" t="6500" r="7065" b="7000"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3173036" y="5067299"/>
+          <a:ext cx="198814" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>534611</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="85" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect l="7608" t="6500" r="7065" b="7000"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2973011" y="4857749"/>
+          <a:ext cx="198814" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>534611</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="86" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect l="7608" t="6500" r="7065" b="7000"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2363411" y="5457824"/>
+          <a:ext cx="198814" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>125036</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="87" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect l="7608" t="6500" r="7065" b="7000"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1953836" y="5457824"/>
+          <a:ext cx="198814" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>20261</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>128261</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>147581</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="88" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect l="7608" t="6500" r="7065" b="7000"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3068261" y="5172075"/>
+          <a:ext cx="108000" cy="119006"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>325061</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="89" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect l="7608" t="6500" r="7065" b="7000"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2153861" y="4867274"/>
+          <a:ext cx="198814" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>125036</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="90" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect l="7608" t="6500" r="7065" b="7000"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2563436" y="4857749"/>
+          <a:ext cx="198814" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>325061</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="91" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect l="7608" t="6500" r="7065" b="7000"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2763461" y="4857749"/>
+          <a:ext cx="198814" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>325061</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="92" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect l="7608" t="6500" r="7065" b="7000"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2763461" y="5067299"/>
+          <a:ext cx="198814" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>125036</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="93" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect l="7608" t="6500" r="7065" b="7000"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1953836" y="5267324"/>
+          <a:ext cx="198814" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>325061</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="94" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect l="7608" t="6500" r="7065" b="7000"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2153861" y="5267324"/>
+          <a:ext cx="198814" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>534611</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="95" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect l="7608" t="6500" r="7065" b="7000"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2363411" y="5267324"/>
+          <a:ext cx="198814" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>125036</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="96" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect l="7608" t="6500" r="7065" b="7000"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2563436" y="5067299"/>
+          <a:ext cx="198814" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>125036</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="97" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect l="7608" t="6500" r="7065" b="7000"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1953836" y="5067299"/>
+          <a:ext cx="198814" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>325061</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="98" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect l="7608" t="6500" r="7065" b="7000"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2153861" y="5067299"/>
+          <a:ext cx="198814" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>534611</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="99" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect l="7608" t="6500" r="7065" b="7000"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2363411" y="5067299"/>
+          <a:ext cx="198814" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1032" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1219200" y="7810500"/>
+          <a:ext cx="5429250" cy="2609850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1033" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2438400" y="11049000"/>
+          <a:ext cx="5114925" cy="2609850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1034" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2438400" y="14859000"/>
+          <a:ext cx="6000750" cy="4057650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6925,13 +11944,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>412</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>152401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>430</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>429</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6987,16 +12006,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>952499</xdr:colOff>
       <xdr:row>415</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>432</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>542924</xdr:colOff>
+      <xdr:row>431</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7025,8 +12044,8 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>477</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
+      <xdr:row>475</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17049,11 +22068,11 @@
         <f>J368/H368</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N368" s="23">
+      <c r="N368" s="20">
         <f>K368/L368</f>
         <v>4.3918128654970756</v>
       </c>
-      <c r="O368" s="24">
+      <c r="O368" s="21">
         <v>0.99007000000000001</v>
       </c>
       <c r="S368" t="s">
@@ -17077,11 +22096,11 @@
       <c r="AA368">
         <v>17.100000000000001</v>
       </c>
-      <c r="AC368" s="23">
+      <c r="AC368" s="20">
         <f>Z368/AA368</f>
         <v>4.3918128654970756</v>
       </c>
-      <c r="AD368" s="24">
+      <c r="AD368" s="21">
         <v>0.98977089981571797</v>
       </c>
     </row>
@@ -17108,11 +22127,11 @@
         <f>J369/L369</f>
         <v>0</v>
       </c>
-      <c r="N369" s="23">
+      <c r="N369" s="20">
         <f t="shared" ref="N369:N373" si="39">K369/L369</f>
         <v>4.3918128654970756</v>
       </c>
-      <c r="O369" s="24">
+      <c r="O369" s="21">
         <v>0.98716000000000004</v>
       </c>
       <c r="T369">
@@ -17133,11 +22152,11 @@
       <c r="AA369">
         <v>17.100000000000001</v>
       </c>
-      <c r="AC369" s="23">
+      <c r="AC369" s="20">
         <f t="shared" ref="AC369:AC379" si="40">Z369/AA369</f>
         <v>4.3918128654970756</v>
       </c>
-      <c r="AD369" s="24">
+      <c r="AD369" s="21">
         <v>0.98602654374123999</v>
       </c>
     </row>
@@ -17164,11 +22183,11 @@
         <f t="shared" ref="M370:M378" si="41">J370/L370</f>
         <v>0</v>
       </c>
-      <c r="N370" s="23">
+      <c r="N370" s="20">
         <f t="shared" si="39"/>
         <v>4.3662790697674421</v>
       </c>
-      <c r="O370" s="24">
+      <c r="O370" s="21">
         <v>0.98333999999999999</v>
       </c>
       <c r="P370">
@@ -17193,11 +22212,11 @@
       <c r="AA370">
         <v>17</v>
       </c>
-      <c r="AC370" s="23">
+      <c r="AC370" s="20">
         <f t="shared" si="40"/>
         <v>4.4176470588235288</v>
       </c>
-      <c r="AD370" s="24">
+      <c r="AD370" s="21">
         <v>0.98179714252304295</v>
       </c>
     </row>
@@ -17224,11 +22243,11 @@
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="N371" s="23">
+      <c r="N371" s="20">
         <f t="shared" si="39"/>
         <v>4.3662790697674421</v>
       </c>
-      <c r="O371" s="24">
+      <c r="O371" s="21">
         <v>0.97987000000000002</v>
       </c>
       <c r="P371" s="15">
@@ -17253,11 +22272,11 @@
       <c r="AA371">
         <v>17</v>
       </c>
-      <c r="AC371" s="23">
+      <c r="AC371" s="20">
         <f t="shared" si="40"/>
         <v>4.4176470588235288</v>
       </c>
-      <c r="AD371" s="24">
+      <c r="AD371" s="21">
         <v>0.97537460764899198</v>
       </c>
     </row>
@@ -17284,11 +22303,11 @@
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="N372" s="23">
+      <c r="N372" s="20">
         <f t="shared" si="39"/>
         <v>4.3662790697674421</v>
       </c>
-      <c r="O372" s="24">
+      <c r="O372" s="21">
         <v>0.97777000000000003</v>
       </c>
       <c r="P372">
@@ -17313,11 +22332,11 @@
       <c r="AA372">
         <v>17</v>
       </c>
-      <c r="AC372" s="23">
+      <c r="AC372" s="20">
         <f t="shared" si="40"/>
         <v>4.4176470588235288</v>
       </c>
-      <c r="AD372" s="24">
+      <c r="AD372" s="21">
         <v>0.97187585439300095</v>
       </c>
     </row>
@@ -17344,11 +22363,11 @@
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="N373" s="23">
+      <c r="N373" s="20">
         <f t="shared" si="39"/>
         <v>4.3662790697674421</v>
       </c>
-      <c r="O373" s="24">
+      <c r="O373" s="21">
         <v>0.97299000000000002</v>
       </c>
       <c r="Q373" s="13"/>
@@ -17370,11 +22389,11 @@
       <c r="AA373">
         <v>17</v>
       </c>
-      <c r="AC373" s="23">
+      <c r="AC373" s="20">
         <f t="shared" si="40"/>
         <v>4.4176470588235288</v>
       </c>
-      <c r="AD373" s="24">
+      <c r="AD373" s="21">
         <v>0.96626157152576198</v>
       </c>
     </row>
@@ -17385,8 +22404,8 @@
       <c r="D374" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="N374" s="23"/>
-      <c r="O374" s="24"/>
+      <c r="N374" s="20"/>
+      <c r="O374" s="21"/>
       <c r="T374">
         <v>8</v>
       </c>
@@ -17405,11 +22424,11 @@
       <c r="AA374">
         <v>4.29</v>
       </c>
-      <c r="AC374" s="23">
+      <c r="AC374" s="20">
         <f t="shared" si="40"/>
         <v>17.505827505827504</v>
       </c>
-      <c r="AD374" s="24">
+      <c r="AD374" s="21">
         <v>0.95639001286863901</v>
       </c>
     </row>
@@ -17433,11 +22452,11 @@
       <c r="L375">
         <v>4.29</v>
       </c>
-      <c r="N375" s="23">
+      <c r="N375" s="20">
         <f>K375/L375</f>
         <v>17.505827505827504</v>
       </c>
-      <c r="O375" s="24">
+      <c r="O375" s="21">
         <v>0.95664000000000005</v>
       </c>
       <c r="T375">
@@ -17458,11 +22477,11 @@
       <c r="AA375">
         <v>4.29</v>
       </c>
-      <c r="AC375" s="23">
+      <c r="AC375" s="20">
         <f t="shared" si="40"/>
         <v>17.505827505827504</v>
       </c>
-      <c r="AD375" s="24">
+      <c r="AD375" s="21">
         <v>0.95604426823803301</v>
       </c>
     </row>
@@ -17486,11 +22505,11 @@
       <c r="L376">
         <v>4.28</v>
       </c>
-      <c r="N376" s="23">
+      <c r="N376" s="20">
         <f t="shared" ref="N376:N380" si="42">K376/L376</f>
         <v>17.546728971962615</v>
       </c>
-      <c r="O376" s="24">
+      <c r="O376" s="21">
         <v>0.95637000000000005</v>
       </c>
       <c r="T376">
@@ -17511,11 +22530,11 @@
       <c r="AA376">
         <v>4.29</v>
       </c>
-      <c r="AC376" s="23">
+      <c r="AC376" s="20">
         <f t="shared" si="40"/>
         <v>17.505827505827504</v>
       </c>
-      <c r="AD376" s="24">
+      <c r="AD376" s="21">
         <v>0.95283437505964996</v>
       </c>
     </row>
@@ -17548,11 +22567,11 @@
         <f t="shared" si="41"/>
         <v>2.3364485981308412</v>
       </c>
-      <c r="N377" s="23">
+      <c r="N377" s="20">
         <f t="shared" si="42"/>
         <v>17.546728971962615</v>
       </c>
-      <c r="O377" s="24">
+      <c r="O377" s="21">
         <v>0.95601999999999998</v>
       </c>
       <c r="T377">
@@ -17573,11 +22592,11 @@
       <c r="AA377">
         <v>4.29</v>
       </c>
-      <c r="AC377" s="23">
+      <c r="AC377" s="20">
         <f t="shared" si="40"/>
         <v>17.505827505827504</v>
       </c>
-      <c r="AD377" s="24">
+      <c r="AD377" s="21">
         <v>0.95026303452094896</v>
       </c>
     </row>
@@ -17607,11 +22626,11 @@
         <f t="shared" si="41"/>
         <v>2.8971962616822431</v>
       </c>
-      <c r="N378" s="23">
+      <c r="N378" s="20">
         <f t="shared" si="42"/>
         <v>17.546728971962615</v>
       </c>
-      <c r="O378" s="24">
+      <c r="O378" s="21">
         <v>0.95428000000000002</v>
       </c>
       <c r="T378">
@@ -17632,11 +22651,11 @@
       <c r="AA378">
         <v>4.28</v>
       </c>
-      <c r="AC378" s="23">
+      <c r="AC378" s="20">
         <f t="shared" si="40"/>
         <v>17.546728971962615</v>
       </c>
-      <c r="AD378" s="24">
+      <c r="AD378" s="21">
         <v>0.94729980866298502</v>
       </c>
     </row>
@@ -17662,11 +22681,11 @@
       <c r="L379">
         <v>4.28</v>
       </c>
-      <c r="N379" s="23">
+      <c r="N379" s="20">
         <f t="shared" si="42"/>
         <v>17.546728971962615</v>
       </c>
-      <c r="O379" s="24">
+      <c r="O379" s="21">
         <v>0.95172000000000001</v>
       </c>
       <c r="T379">
@@ -17687,11 +22706,11 @@
       <c r="AA379">
         <v>4.29</v>
       </c>
-      <c r="AC379" s="23">
+      <c r="AC379" s="20">
         <f t="shared" si="40"/>
         <v>17.505827505827504</v>
       </c>
-      <c r="AD379" s="24">
+      <c r="AD379" s="21">
         <v>0.94535281893078105</v>
       </c>
     </row>
@@ -17717,11 +22736,11 @@
       <c r="L380">
         <v>4.28</v>
       </c>
-      <c r="N380" s="23">
+      <c r="N380" s="20">
         <f t="shared" si="42"/>
         <v>17.546728971962615</v>
       </c>
-      <c r="O380" s="24">
+      <c r="O380" s="21">
         <v>0.94911999999999996</v>
       </c>
     </row>
@@ -17985,6 +23004,22 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B67" workbookViewId="0">
+      <selection activeCell="E79" sqref="E79"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -19668,8 +24703,8 @@
   <sheetPr codeName="Лист3"/>
   <dimension ref="A3:N459"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A446" workbookViewId="0">
-      <selection activeCell="F445" sqref="F445:H450"/>
+    <sheetView topLeftCell="A446" workbookViewId="0">
+      <selection activeCell="K460" sqref="K460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24867,11 +29902,11 @@
       <c r="K335">
         <v>17.100000000000001</v>
       </c>
-      <c r="M335" s="23">
+      <c r="M335" s="20">
         <f>J335/K335</f>
         <v>4.3918128654970756</v>
       </c>
-      <c r="N335" s="24">
+      <c r="N335" s="21">
         <v>0.98538999999999999</v>
       </c>
     </row>
@@ -24894,11 +29929,11 @@
       <c r="K336">
         <v>17.100000000000001</v>
       </c>
-      <c r="M336" s="23">
+      <c r="M336" s="20">
         <f t="shared" ref="M336:M354" si="19">J336/K336</f>
         <v>4.3918128654970756</v>
       </c>
-      <c r="N336" s="24">
+      <c r="N336" s="21">
         <v>0.98543999999999998</v>
       </c>
     </row>
@@ -24921,11 +29956,11 @@
       <c r="K337">
         <v>17.100000000000001</v>
       </c>
-      <c r="M337" s="23">
+      <c r="M337" s="20">
         <f t="shared" si="19"/>
         <v>4.3918128654970756</v>
       </c>
-      <c r="N337" s="24">
+      <c r="N337" s="21">
         <v>0.98511000000000004</v>
       </c>
     </row>
@@ -24948,11 +29983,11 @@
       <c r="K338">
         <v>17.100000000000001</v>
       </c>
-      <c r="M338" s="23">
+      <c r="M338" s="20">
         <f t="shared" si="19"/>
         <v>4.3918128654970756</v>
       </c>
-      <c r="N338" s="24">
+      <c r="N338" s="21">
         <v>0.98411000000000004</v>
       </c>
     </row>
@@ -24975,11 +30010,11 @@
       <c r="K339">
         <v>17.100000000000001</v>
       </c>
-      <c r="M339" s="23">
+      <c r="M339" s="20">
         <f t="shared" si="19"/>
         <v>4.3918128654970756</v>
       </c>
-      <c r="N339" s="24">
+      <c r="N339" s="21">
         <v>0.98338999999999999</v>
       </c>
     </row>
@@ -25002,11 +30037,11 @@
       <c r="K340">
         <v>17.100000000000001</v>
       </c>
-      <c r="M340" s="23">
+      <c r="M340" s="20">
         <f t="shared" si="19"/>
         <v>4.3918128654970756</v>
       </c>
-      <c r="N340" s="24">
+      <c r="N340" s="21">
         <v>0.98241000000000001</v>
       </c>
     </row>
@@ -25014,11 +30049,11 @@
       <c r="J341">
         <v>75.099999999999994</v>
       </c>
-      <c r="M341" s="23" t="e">
+      <c r="M341" s="20" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N341" s="24"/>
+      <c r="N341" s="21"/>
     </row>
     <row r="342" spans="5:14">
       <c r="E342">
@@ -25039,11 +30074,11 @@
       <c r="K342">
         <v>4.29</v>
       </c>
-      <c r="M342" s="23">
+      <c r="M342" s="20">
         <f t="shared" si="19"/>
         <v>17.505827505827504</v>
       </c>
-      <c r="N342" s="24">
+      <c r="N342" s="21">
         <v>0.97862401299172797</v>
       </c>
     </row>
@@ -25066,11 +30101,11 @@
       <c r="K343">
         <v>4.28</v>
       </c>
-      <c r="M343" s="23">
+      <c r="M343" s="20">
         <f t="shared" si="19"/>
         <v>17.546728971962615</v>
       </c>
-      <c r="N343" s="24">
+      <c r="N343" s="21">
         <v>0.97829799653377103</v>
       </c>
     </row>
@@ -25093,11 +30128,11 @@
       <c r="K344">
         <v>4.2699999999999996</v>
       </c>
-      <c r="M344" s="23">
+      <c r="M344" s="20">
         <f t="shared" si="19"/>
         <v>17.587822014051522</v>
       </c>
-      <c r="N344" s="24">
+      <c r="N344" s="21">
         <v>0.97710243309220302</v>
       </c>
     </row>
@@ -25120,11 +30155,11 @@
       <c r="K345">
         <v>4.28</v>
       </c>
-      <c r="M345" s="23">
+      <c r="M345" s="20">
         <f t="shared" si="19"/>
         <v>17.546728971962615</v>
       </c>
-      <c r="N345" s="24">
+      <c r="N345" s="21">
         <v>0.97497656785461095</v>
       </c>
     </row>
@@ -25147,11 +30182,11 @@
       <c r="K346">
         <v>4.29</v>
       </c>
-      <c r="M346" s="23">
+      <c r="M346" s="20">
         <f t="shared" si="19"/>
         <v>17.505827505827504</v>
       </c>
-      <c r="N346" s="24">
+      <c r="N346" s="21">
         <v>0.974620885037083</v>
       </c>
     </row>
@@ -25174,11 +30209,11 @@
       <c r="K347">
         <v>4.29</v>
       </c>
-      <c r="M347" s="23">
+      <c r="M347" s="20">
         <f t="shared" si="19"/>
         <v>17.505827505827504</v>
       </c>
-      <c r="N347" s="24">
+      <c r="N347" s="21">
         <v>0.97452901887099197</v>
       </c>
     </row>
@@ -25944,11 +30979,11 @@
         <f>I438/K438</f>
         <v>0</v>
       </c>
-      <c r="M438" s="23">
+      <c r="M438" s="20">
         <f>J438/K438</f>
         <v>4.3918128654970756</v>
       </c>
-      <c r="N438" s="24">
+      <c r="N438" s="21">
         <v>0.98492135275992099</v>
       </c>
     </row>
@@ -25971,11 +31006,11 @@
       <c r="K439">
         <v>17.100000000000001</v>
       </c>
-      <c r="M439" s="23">
+      <c r="M439" s="20">
         <f t="shared" ref="M439:M450" si="22">J439/K439</f>
         <v>4.3918128654970756</v>
       </c>
-      <c r="N439" s="24">
+      <c r="N439" s="21">
         <v>0.98538983065854702</v>
       </c>
     </row>
@@ -25998,11 +31033,11 @@
       <c r="K440">
         <v>17.100000000000001</v>
       </c>
-      <c r="M440" s="23">
+      <c r="M440" s="20">
         <f t="shared" si="22"/>
         <v>4.3918128654970756</v>
       </c>
-      <c r="N440" s="24">
+      <c r="N440" s="21">
         <v>0.98544049654124799</v>
       </c>
     </row>
@@ -26025,11 +31060,11 @@
       <c r="K441">
         <v>17.100000000000001</v>
       </c>
-      <c r="M441" s="23">
+      <c r="M441" s="20">
         <f t="shared" si="22"/>
         <v>4.3918128654970756</v>
       </c>
-      <c r="N441" s="24">
+      <c r="N441" s="21">
         <v>0.98511477487641697</v>
       </c>
     </row>
@@ -26052,11 +31087,11 @@
       <c r="K442">
         <v>17.100000000000001</v>
       </c>
-      <c r="M442" s="23">
+      <c r="M442" s="20">
         <f>J442/K442</f>
         <v>4.3918128654970756</v>
       </c>
-      <c r="N442" s="24">
+      <c r="N442" s="21">
         <v>0.98411617793956296</v>
       </c>
     </row>
@@ -26079,11 +31114,11 @@
       <c r="K443">
         <v>17.100000000000001</v>
       </c>
-      <c r="M443" s="23">
+      <c r="M443" s="20">
         <f t="shared" si="22"/>
         <v>4.3918128654970756</v>
       </c>
-      <c r="N443" s="24">
+      <c r="N443" s="21">
         <v>0.98339707124478604</v>
       </c>
     </row>
@@ -26098,11 +31133,11 @@
       </c>
       <c r="K444" s="1"/>
       <c r="L444" s="1"/>
-      <c r="M444" s="23" t="e">
+      <c r="M444" s="20" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N444" s="24"/>
+      <c r="N444" s="21"/>
     </row>
     <row r="445" spans="3:14">
       <c r="E445">
@@ -26123,11 +31158,11 @@
       <c r="K445">
         <v>4.29</v>
       </c>
-      <c r="M445" s="23">
+      <c r="M445" s="20">
         <f t="shared" si="22"/>
         <v>17.505827505827504</v>
       </c>
-      <c r="N445" s="24">
+      <c r="N445" s="21">
         <v>0.97862401299172797</v>
       </c>
     </row>
@@ -26150,11 +31185,11 @@
       <c r="K446">
         <v>4.28</v>
       </c>
-      <c r="M446" s="23">
+      <c r="M446" s="20">
         <f t="shared" si="22"/>
         <v>17.546728971962615</v>
       </c>
-      <c r="N446" s="24">
+      <c r="N446" s="21">
         <v>0.97829799653377103</v>
       </c>
     </row>
@@ -26177,11 +31212,11 @@
       <c r="K447">
         <v>4.2699999999999996</v>
       </c>
-      <c r="M447" s="23">
+      <c r="M447" s="20">
         <f t="shared" si="22"/>
         <v>17.587822014051522</v>
       </c>
-      <c r="N447" s="24">
+      <c r="N447" s="21">
         <v>0.97710243309220302</v>
       </c>
     </row>
@@ -26204,11 +31239,11 @@
       <c r="K448">
         <v>4.28</v>
       </c>
-      <c r="M448" s="23">
+      <c r="M448" s="20">
         <f t="shared" si="22"/>
         <v>17.546728971962615</v>
       </c>
-      <c r="N448" s="24">
+      <c r="N448" s="21">
         <v>0.97497656785461095</v>
       </c>
     </row>
@@ -26231,11 +31266,11 @@
       <c r="K449">
         <v>4.29</v>
       </c>
-      <c r="M449" s="23">
+      <c r="M449" s="20">
         <f t="shared" si="22"/>
         <v>17.505827505827504</v>
       </c>
-      <c r="N449" s="24">
+      <c r="N449" s="21">
         <v>0.97452901887099197</v>
       </c>
     </row>
@@ -26258,11 +31293,11 @@
       <c r="K450">
         <v>4.28</v>
       </c>
-      <c r="M450" s="23">
+      <c r="M450" s="20">
         <f t="shared" si="22"/>
         <v>17.546728971962615</v>
       </c>
-      <c r="N450" s="24">
+      <c r="N450" s="21">
         <v>0.97422926271107002</v>
       </c>
     </row>
@@ -26319,8 +31354,8 @@
   <sheetPr codeName="Лист4"/>
   <dimension ref="A3:Z464"/>
   <sheetViews>
-    <sheetView topLeftCell="B439" workbookViewId="0">
-      <selection activeCell="D450" sqref="D450"/>
+    <sheetView topLeftCell="C472" workbookViewId="0">
+      <selection activeCell="M402" sqref="M402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -31304,11 +36339,11 @@
       <c r="K335">
         <v>17</v>
       </c>
-      <c r="M335">
+      <c r="M335" s="20">
         <f>J335/K335</f>
         <v>4.4176470588235288</v>
       </c>
-      <c r="N335">
+      <c r="N335" s="21">
         <v>0.97797824036783199</v>
       </c>
     </row>
@@ -31334,11 +36369,11 @@
       <c r="K336">
         <v>17</v>
       </c>
-      <c r="M336">
+      <c r="M336" s="20">
         <f t="shared" ref="M336:M356" si="19">J336/K336</f>
         <v>4.4176470588235288</v>
       </c>
-      <c r="N336">
+      <c r="N336" s="21">
         <v>0.97787615853923204</v>
       </c>
     </row>
@@ -31364,11 +36399,11 @@
       <c r="K337">
         <v>17</v>
       </c>
-      <c r="M337">
+      <c r="M337" s="20">
         <f t="shared" si="19"/>
         <v>4.4176470588235288</v>
       </c>
-      <c r="N337">
+      <c r="N337" s="21">
         <v>0.97425934508971102</v>
       </c>
     </row>
@@ -31394,11 +36429,11 @@
       <c r="K338">
         <v>17</v>
       </c>
-      <c r="M338">
+      <c r="M338" s="20">
         <f t="shared" si="19"/>
         <v>4.4176470588235288</v>
       </c>
-      <c r="N338">
+      <c r="N338" s="21">
         <v>0.96815471433436495</v>
       </c>
     </row>
@@ -31424,11 +36459,11 @@
       <c r="K339">
         <v>17</v>
       </c>
-      <c r="M339">
+      <c r="M339" s="20">
         <f t="shared" si="19"/>
         <v>4.4176470588235288</v>
       </c>
-      <c r="N339">
+      <c r="N339" s="21">
         <v>0.96244239055112701</v>
       </c>
     </row>
@@ -31454,11 +36489,11 @@
       <c r="K340">
         <v>17</v>
       </c>
-      <c r="M340">
+      <c r="M340" s="20">
         <f t="shared" si="19"/>
         <v>4.4176470588235288</v>
       </c>
-      <c r="N340">
+      <c r="N340" s="21">
         <v>0.95476389745021495</v>
       </c>
     </row>
@@ -31472,10 +36507,11 @@
       <c r="J341">
         <v>75.099999999999994</v>
       </c>
-      <c r="M341" t="e">
+      <c r="M341" s="20" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="N341" s="21"/>
     </row>
     <row r="342" spans="4:14">
       <c r="D342">
@@ -31499,11 +36535,11 @@
       <c r="K342">
         <v>4.28</v>
       </c>
-      <c r="M342">
+      <c r="M342" s="20">
         <f t="shared" si="19"/>
         <v>17.546728971962615</v>
       </c>
-      <c r="N342">
+      <c r="N342" s="21">
         <v>0.87865071640733805</v>
       </c>
     </row>
@@ -31529,11 +36565,11 @@
       <c r="K343">
         <v>4.29</v>
       </c>
-      <c r="M343">
+      <c r="M343" s="20">
         <f t="shared" si="19"/>
         <v>17.505827505827504</v>
       </c>
-      <c r="N343">
+      <c r="N343" s="21">
         <v>0.87793271201496803</v>
       </c>
     </row>
@@ -31559,11 +36595,11 @@
       <c r="K344">
         <v>4.28</v>
       </c>
-      <c r="M344">
+      <c r="M344" s="20">
         <f t="shared" si="19"/>
         <v>17.546728971962615</v>
       </c>
-      <c r="N344">
+      <c r="N344" s="21">
         <v>0.87570962610500402</v>
       </c>
     </row>
@@ -31589,11 +36625,11 @@
       <c r="K345">
         <v>4.29</v>
       </c>
-      <c r="M345">
+      <c r="M345" s="20">
         <f t="shared" si="19"/>
         <v>17.505827505827504</v>
       </c>
-      <c r="N345">
+      <c r="N345" s="21">
         <v>0.87468526132477897</v>
       </c>
     </row>
@@ -31619,11 +36655,11 @@
       <c r="K346">
         <v>4.3</v>
       </c>
-      <c r="M346">
+      <c r="M346" s="20">
         <f t="shared" si="19"/>
         <v>17.465116279069768</v>
       </c>
-      <c r="N346">
+      <c r="N346" s="21">
         <v>0.86980245420195001</v>
       </c>
     </row>
@@ -31649,11 +36685,11 @@
       <c r="K347">
         <v>4.29</v>
       </c>
-      <c r="M347">
+      <c r="M347" s="20">
         <f t="shared" si="19"/>
         <v>17.505827505827504</v>
       </c>
-      <c r="N347">
+      <c r="N347" s="21">
         <v>0.86637623442054201</v>
       </c>
     </row>
@@ -32173,7 +37209,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="385" spans="3:13" hidden="1">
+    <row r="385" spans="3:14" hidden="1">
       <c r="C385">
         <v>15</v>
       </c>
@@ -32184,7 +37220,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="386" spans="3:13" hidden="1">
+    <row r="386" spans="3:14" hidden="1">
       <c r="C386">
         <v>16</v>
       </c>
@@ -32195,7 +37231,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="387" spans="3:13" hidden="1">
+    <row r="387" spans="3:14" hidden="1">
       <c r="C387">
         <v>17</v>
       </c>
@@ -32206,7 +37242,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="388" spans="3:13" hidden="1">
+    <row r="388" spans="3:14" hidden="1">
       <c r="C388">
         <v>18</v>
       </c>
@@ -32217,7 +37253,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="389" spans="3:13" hidden="1">
+    <row r="389" spans="3:14" hidden="1">
       <c r="C389">
         <v>19</v>
       </c>
@@ -32228,7 +37264,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="390" spans="3:13" hidden="1">
+    <row r="390" spans="3:14" hidden="1">
       <c r="C390">
         <v>20</v>
       </c>
@@ -32239,7 +37275,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="391" spans="3:13" hidden="1">
+    <row r="391" spans="3:14" hidden="1">
       <c r="C391">
         <v>21</v>
       </c>
@@ -32250,7 +37286,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="392" spans="3:13" hidden="1">
+    <row r="392" spans="3:14" hidden="1">
       <c r="C392">
         <v>22</v>
       </c>
@@ -32261,7 +37297,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="393" spans="3:13" hidden="1">
+    <row r="393" spans="3:14" hidden="1">
       <c r="C393">
         <v>23</v>
       </c>
@@ -32272,7 +37308,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="394" spans="3:13" hidden="1">
+    <row r="394" spans="3:14" hidden="1">
       <c r="C394">
         <v>24</v>
       </c>
@@ -32283,7 +37319,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="395" spans="3:13" hidden="1">
+    <row r="395" spans="3:14" hidden="1">
       <c r="C395">
         <v>25</v>
       </c>
@@ -32294,7 +37330,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="396" spans="3:13" hidden="1">
+    <row r="396" spans="3:14" hidden="1">
       <c r="C396">
         <v>26</v>
       </c>
@@ -32305,7 +37341,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="397" spans="3:13" hidden="1">
+    <row r="397" spans="3:14" hidden="1">
       <c r="C397">
         <v>27</v>
       </c>
@@ -32316,7 +37352,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="398" spans="3:13" hidden="1">
+    <row r="398" spans="3:14" hidden="1">
       <c r="C398">
         <v>28</v>
       </c>
@@ -32327,7 +37363,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="399" spans="3:13" hidden="1">
+    <row r="399" spans="3:14" hidden="1">
       <c r="C399">
         <v>29</v>
       </c>
@@ -32338,7 +37374,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="400" spans="3:13">
+    <row r="400" spans="3:14">
       <c r="C400" t="s">
         <v>14</v>
       </c>
@@ -32347,7 +37383,7 @@
         <v>108.87142857142858</v>
       </c>
       <c r="H400">
-        <f t="shared" ref="H400:M400" si="21">AVERAGE(H371:H399)</f>
+        <f t="shared" ref="H400:N400" si="21">AVERAGE(H371:H399)</f>
         <v>2.0285714285714285</v>
       </c>
       <c r="I400" t="e">
@@ -32369,6 +37405,10 @@
       <c r="M400">
         <f t="shared" si="21"/>
         <v>4.4220952655494106</v>
+      </c>
+      <c r="N400">
+        <f t="shared" si="21"/>
+        <v>0.96654991038748939</v>
       </c>
     </row>
     <row r="404" spans="3:6" s="2" customFormat="1"/>
@@ -32491,11 +37531,11 @@
         <f>I443/K443</f>
         <v>0</v>
       </c>
-      <c r="M443">
+      <c r="M443" s="20">
         <f>J443/K443</f>
         <v>4.3918128654970756</v>
       </c>
-      <c r="N443">
+      <c r="N443" s="21">
         <v>0.97733071511652103</v>
       </c>
     </row>
@@ -32518,11 +37558,11 @@
       <c r="K444">
         <v>17.100000000000001</v>
       </c>
-      <c r="M444">
+      <c r="M444" s="20">
         <f t="shared" ref="M444:M454" si="22">J444/K444</f>
         <v>4.3918128654970756</v>
       </c>
-      <c r="N444">
+      <c r="N444" s="21">
         <v>0.97717945301197195</v>
       </c>
     </row>
@@ -32548,11 +37588,11 @@
       <c r="K445">
         <v>17.100000000000001</v>
       </c>
-      <c r="M445">
+      <c r="M445" s="20">
         <f t="shared" si="22"/>
         <v>4.3918128654970756</v>
       </c>
-      <c r="N445">
+      <c r="N445" s="21">
         <v>0.97253339764742397</v>
       </c>
     </row>
@@ -32575,11 +37615,11 @@
       <c r="K446">
         <v>17.2</v>
       </c>
-      <c r="M446">
+      <c r="M446" s="20">
         <f t="shared" si="22"/>
         <v>4.3662790697674421</v>
       </c>
-      <c r="N446">
+      <c r="N446" s="21">
         <v>0.96470653808929896</v>
       </c>
     </row>
@@ -32602,11 +37642,11 @@
       <c r="K447">
         <v>17.3</v>
       </c>
-      <c r="M447">
+      <c r="M447" s="20">
         <f t="shared" si="22"/>
         <v>4.3410404624277454</v>
       </c>
-      <c r="N447">
+      <c r="N447" s="21">
         <v>0.95677104612113195</v>
       </c>
     </row>
@@ -32629,11 +37669,11 @@
       <c r="K448">
         <v>17.399999999999999</v>
       </c>
-      <c r="M448">
+      <c r="M448" s="20">
         <f t="shared" si="22"/>
         <v>4.3160919540229887</v>
       </c>
-      <c r="N448">
+      <c r="N448" s="21">
         <v>0.94848510588546897</v>
       </c>
     </row>
@@ -32656,11 +37696,11 @@
       <c r="K449">
         <v>4.28</v>
       </c>
-      <c r="M449">
+      <c r="M449" s="20">
         <f t="shared" si="22"/>
         <v>17.546728971962615</v>
       </c>
-      <c r="N449">
+      <c r="N449" s="21">
         <v>0.87864255304925298</v>
       </c>
     </row>
@@ -32683,11 +37723,11 @@
       <c r="K450">
         <v>4.28</v>
       </c>
-      <c r="M450">
+      <c r="M450" s="20">
         <f t="shared" si="22"/>
         <v>17.546728971962615</v>
       </c>
-      <c r="N450">
+      <c r="N450" s="21">
         <v>0.87835317294897697</v>
       </c>
     </row>
@@ -32710,11 +37750,11 @@
       <c r="K451">
         <v>4.28</v>
       </c>
-      <c r="M451">
+      <c r="M451" s="20">
         <f t="shared" si="22"/>
         <v>17.546728971962615</v>
       </c>
-      <c r="N451">
+      <c r="N451" s="21">
         <v>0.87645298255691795</v>
       </c>
     </row>
@@ -32737,11 +37777,11 @@
       <c r="K452">
         <v>4.28</v>
       </c>
-      <c r="M452">
+      <c r="M452" s="20">
         <f t="shared" si="22"/>
         <v>17.546728971962615</v>
       </c>
-      <c r="N452">
+      <c r="N452" s="21">
         <v>0.87564054039014705</v>
       </c>
     </row>
@@ -32764,11 +37804,11 @@
       <c r="K453">
         <v>4.28</v>
       </c>
-      <c r="M453">
+      <c r="M453" s="20">
         <f t="shared" si="22"/>
         <v>17.546728971962615</v>
       </c>
-      <c r="N453">
+      <c r="N453" s="21">
         <v>0.87038979761489899</v>
       </c>
     </row>
@@ -32791,11 +37831,11 @@
       <c r="K454">
         <v>4.26</v>
       </c>
-      <c r="M454">
+      <c r="M454" s="20">
         <f t="shared" si="22"/>
         <v>17.629107981220656</v>
       </c>
-      <c r="N454">
+      <c r="N454" s="21">
         <v>0.867679216187073</v>
       </c>
     </row>
@@ -32859,8 +37899,8 @@
   <sheetPr codeName="Лист5"/>
   <dimension ref="A3:Z459"/>
   <sheetViews>
-    <sheetView topLeftCell="B441" workbookViewId="0">
-      <selection activeCell="H448" sqref="H448"/>
+    <sheetView topLeftCell="B462" workbookViewId="0">
+      <selection activeCell="M479" sqref="M479"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -38159,11 +43199,11 @@
       <c r="K341">
         <v>16.8</v>
       </c>
-      <c r="M341">
+      <c r="M341" s="20">
         <f>J341/K341</f>
         <v>4.4702380952380949</v>
       </c>
-      <c r="N341">
+      <c r="N341" s="21">
         <v>0.92910885296456303</v>
       </c>
     </row>
@@ -38189,11 +43229,11 @@
       <c r="K342">
         <v>16.8</v>
       </c>
-      <c r="M342">
+      <c r="M342" s="20">
         <f t="shared" ref="M342:M346" si="16">J342/K342</f>
         <v>4.4702380952380949</v>
       </c>
-      <c r="N342">
+      <c r="N342" s="21">
         <v>0.92997331451940002</v>
       </c>
     </row>
@@ -38219,11 +43259,11 @@
       <c r="K343">
         <v>16.7</v>
       </c>
-      <c r="M343">
+      <c r="M343" s="20">
         <f t="shared" si="16"/>
         <v>4.4970059880239521</v>
       </c>
-      <c r="N343">
+      <c r="N343" s="21">
         <v>0.92641394923670295</v>
       </c>
     </row>
@@ -38249,11 +43289,11 @@
       <c r="K344">
         <v>16.600000000000001</v>
       </c>
-      <c r="M344">
+      <c r="M344" s="20">
         <f t="shared" si="16"/>
         <v>4.5240963855421681</v>
       </c>
-      <c r="N344">
+      <c r="N344" s="21">
         <v>0.92896134941094499</v>
       </c>
     </row>
@@ -38279,11 +43319,11 @@
       <c r="K345">
         <v>16.600000000000001</v>
       </c>
-      <c r="M345">
+      <c r="M345" s="20">
         <f t="shared" si="16"/>
         <v>4.5240963855421681</v>
       </c>
-      <c r="N345">
+      <c r="N345" s="21">
         <v>0.92651077773111101</v>
       </c>
     </row>
@@ -38309,11 +43349,11 @@
       <c r="K346">
         <v>16.5</v>
       </c>
-      <c r="M346">
+      <c r="M346" s="20">
         <f t="shared" si="16"/>
         <v>4.5515151515151508</v>
       </c>
-      <c r="N346">
+      <c r="N346" s="21">
         <v>0.92444671707927295</v>
       </c>
     </row>
@@ -38339,11 +43379,11 @@
       <c r="K347">
         <v>4.24</v>
       </c>
-      <c r="M347">
+      <c r="M347" s="20">
         <f t="shared" ref="M347:M355" si="17">J347/K347</f>
         <v>17.712264150943394</v>
       </c>
-      <c r="N347">
+      <c r="N347" s="21">
         <v>0.63868802439732897</v>
       </c>
     </row>
@@ -38369,11 +43409,11 @@
       <c r="K348">
         <v>4.25</v>
       </c>
-      <c r="M348">
+      <c r="M348" s="20">
         <f t="shared" si="17"/>
         <v>17.670588235294115</v>
       </c>
-      <c r="N348">
+      <c r="N348" s="21">
         <v>0.63829134971480395</v>
       </c>
     </row>
@@ -38399,11 +43439,11 @@
       <c r="K349">
         <v>4.24</v>
       </c>
-      <c r="M349">
+      <c r="M349" s="20">
         <f t="shared" si="17"/>
         <v>17.712264150943394</v>
       </c>
-      <c r="N349">
+      <c r="N349" s="21">
         <v>0.63796697783511302</v>
       </c>
     </row>
@@ -38429,11 +43469,11 @@
       <c r="K350">
         <v>4.24</v>
       </c>
-      <c r="M350">
+      <c r="M350" s="20">
         <f t="shared" si="17"/>
         <v>17.712264150943394</v>
       </c>
-      <c r="N350">
+      <c r="N350" s="21">
         <v>0.63429352482775703</v>
       </c>
     </row>
@@ -38459,11 +43499,11 @@
       <c r="K351">
         <v>4.24</v>
       </c>
-      <c r="M351">
+      <c r="M351" s="20">
         <f t="shared" si="17"/>
         <v>17.712264150943394</v>
       </c>
-      <c r="N351">
+      <c r="N351" s="21">
         <v>0.63997549553861</v>
       </c>
     </row>
@@ -38489,11 +43529,11 @@
       <c r="K352">
         <v>4.24</v>
       </c>
-      <c r="M352">
+      <c r="M352" s="20">
         <f t="shared" si="17"/>
         <v>17.712264150943394</v>
       </c>
-      <c r="N352">
+      <c r="N352" s="21">
         <v>0.64264090048871503</v>
       </c>
     </row>
@@ -39149,11 +44189,11 @@
         <f>I440/K440</f>
         <v>0</v>
       </c>
-      <c r="M440">
+      <c r="M440" s="20">
         <f>J440/K440</f>
         <v>4.4702380952380949</v>
       </c>
-      <c r="N440">
+      <c r="N440" s="21">
         <v>0.93168759465046103</v>
       </c>
     </row>
@@ -39176,11 +44216,11 @@
       <c r="K441">
         <v>16.7</v>
       </c>
-      <c r="M441">
+      <c r="M441" s="20">
         <f t="shared" ref="M441:M451" si="19">J441/K441</f>
         <v>4.4970059880239521</v>
       </c>
-      <c r="N441">
+      <c r="N441" s="21">
         <v>0.930647333842749</v>
       </c>
     </row>
@@ -39203,11 +44243,11 @@
       <c r="K442">
         <v>16.7</v>
       </c>
-      <c r="M442">
+      <c r="M442" s="20">
         <f t="shared" si="19"/>
         <v>4.4970059880239521</v>
       </c>
-      <c r="N442">
+      <c r="N442" s="21">
         <v>0.92651077773111101</v>
       </c>
     </row>
@@ -39230,11 +44270,11 @@
       <c r="K443">
         <v>16.7</v>
       </c>
-      <c r="M443">
+      <c r="M443" s="20">
         <f t="shared" si="19"/>
         <v>4.4970059880239521</v>
       </c>
-      <c r="N443">
+      <c r="N443" s="21">
         <v>0.92321466437187005</v>
       </c>
     </row>
@@ -39257,11 +44297,11 @@
       <c r="K444">
         <v>16.7</v>
       </c>
-      <c r="M444">
+      <c r="M444" s="20">
         <f t="shared" si="19"/>
         <v>4.4970059880239521</v>
       </c>
-      <c r="N444">
+      <c r="N444" s="21">
         <v>0.91790240963897995</v>
       </c>
     </row>
@@ -39284,11 +44324,11 @@
       <c r="K445">
         <v>16.600000000000001</v>
       </c>
-      <c r="M445">
+      <c r="M445" s="20">
         <f t="shared" si="19"/>
         <v>4.5240963855421681</v>
       </c>
-      <c r="N445">
+      <c r="N445" s="21">
         <v>0.91443845529109902</v>
       </c>
     </row>
@@ -39311,11 +44351,11 @@
       <c r="K446">
         <v>4.26</v>
       </c>
-      <c r="M446">
+      <c r="M446" s="20">
         <f t="shared" si="19"/>
         <v>17.629107981220656</v>
       </c>
-      <c r="N446">
+      <c r="N446" s="21">
         <v>0.63810595719201502</v>
       </c>
     </row>
@@ -39338,11 +44378,11 @@
       <c r="K447">
         <v>4.26</v>
       </c>
-      <c r="M447">
+      <c r="M447" s="20">
         <f t="shared" si="19"/>
         <v>17.629107981220656</v>
       </c>
-      <c r="N447">
+      <c r="N447" s="21">
         <v>0.63720317443644003</v>
       </c>
     </row>
@@ -39365,11 +44405,11 @@
       <c r="K448">
         <v>4.25</v>
       </c>
-      <c r="M448">
-        <f t="shared" si="19"/>
+      <c r="M448" s="20">
+        <f>J448/K448</f>
         <v>17.670588235294115</v>
       </c>
-      <c r="N448">
+      <c r="N448" s="21">
         <v>0.63244060337959096</v>
       </c>
     </row>
@@ -39392,11 +44432,11 @@
       <c r="K449">
         <v>4.25</v>
       </c>
-      <c r="M449">
+      <c r="M449" s="20">
         <f t="shared" si="19"/>
         <v>17.670588235294115</v>
       </c>
-      <c r="N449">
+      <c r="N449" s="21">
         <v>0.63573988137889004</v>
       </c>
     </row>
@@ -39419,11 +44459,11 @@
       <c r="K450">
         <v>4.24</v>
       </c>
-      <c r="M450">
+      <c r="M450" s="20">
         <f t="shared" si="19"/>
         <v>17.712264150943394</v>
       </c>
-      <c r="N450">
+      <c r="N450" s="21">
         <v>0.63430096840905104</v>
       </c>
     </row>
@@ -39446,11 +44486,11 @@
       <c r="K451">
         <v>4.25</v>
       </c>
-      <c r="M451">
+      <c r="M451" s="20">
         <f t="shared" si="19"/>
         <v>17.670588235294115</v>
       </c>
-      <c r="N451">
+      <c r="N451" s="21">
         <v>0.632447617130248</v>
       </c>
     </row>
@@ -39509,8 +44549,8 @@
   <sheetPr codeName="Лист6"/>
   <dimension ref="A2:L159"/>
   <sheetViews>
-    <sheetView topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="H154" sqref="H154"/>
+    <sheetView topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="F161" sqref="F161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -40433,11 +45473,11 @@
       <c r="H151">
         <v>17.100000000000001</v>
       </c>
-      <c r="I151">
+      <c r="I151" s="20">
         <f>G151/H151</f>
         <v>4.3918128654970756</v>
       </c>
-      <c r="J151">
+      <c r="J151" s="21">
         <v>0.99583323057418205</v>
       </c>
     </row>
@@ -40457,11 +45497,11 @@
       <c r="H152">
         <v>4.28</v>
       </c>
-      <c r="I152">
+      <c r="I152" s="20">
         <f t="shared" ref="I152:I159" si="4">G152/H152</f>
         <v>17.546728971962615</v>
       </c>
-      <c r="J152">
+      <c r="J152" s="21">
         <v>0.97213888521849501</v>
       </c>
     </row>
@@ -40481,11 +45521,11 @@
       <c r="H153">
         <v>1.07</v>
       </c>
-      <c r="I153">
+      <c r="I153" s="20">
         <f t="shared" si="4"/>
         <v>70.186915887850461</v>
       </c>
-      <c r="J153">
+      <c r="J153" s="21">
         <v>0.90304123805610803</v>
       </c>
     </row>
@@ -40508,11 +45548,11 @@
       <c r="H154">
         <v>51.4</v>
       </c>
-      <c r="I154">
+      <c r="I154" s="20">
         <f t="shared" si="4"/>
         <v>1.461089494163424</v>
       </c>
-      <c r="J154">
+      <c r="J154" s="21">
         <v>0.99565549834526501</v>
       </c>
     </row>
@@ -40532,11 +45572,11 @@
       <c r="H155">
         <v>12.8</v>
       </c>
-      <c r="I155">
+      <c r="I155" s="20">
         <f t="shared" si="4"/>
         <v>5.8671874999999991</v>
       </c>
-      <c r="J155">
+      <c r="J155" s="21">
         <v>0.97158527965215902</v>
       </c>
     </row>
@@ -40556,11 +45596,11 @@
       <c r="H156">
         <v>3.2</v>
       </c>
-      <c r="I156">
+      <c r="I156" s="20">
         <f t="shared" si="4"/>
         <v>23.468749999999996</v>
       </c>
-      <c r="J156">
+      <c r="J156" s="21">
         <v>0.90485396421215403</v>
       </c>
     </row>
@@ -40583,11 +45623,11 @@
       <c r="H157">
         <v>51.4</v>
       </c>
-      <c r="I157">
+      <c r="I157" s="20">
         <f t="shared" si="4"/>
         <v>1.461089494163424</v>
       </c>
-      <c r="J157">
+      <c r="J157" s="21">
         <v>0.98438549834526501</v>
       </c>
     </row>
@@ -40607,11 +45647,11 @@
       <c r="H158">
         <v>12.8</v>
       </c>
-      <c r="I158">
+      <c r="I158" s="20">
         <f t="shared" si="4"/>
         <v>5.8671874999999991</v>
       </c>
-      <c r="J158">
+      <c r="J158" s="21">
         <v>0.968800507279861</v>
       </c>
     </row>
@@ -40631,17 +45671,18 @@
       <c r="H159">
         <v>3.2</v>
       </c>
-      <c r="I159">
+      <c r="I159" s="20">
         <f t="shared" si="4"/>
         <v>23.468749999999996</v>
       </c>
-      <c r="J159">
+      <c r="J159" s="21">
         <v>0.90075150924258296</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -45038,7 +50079,7 @@
       <c r="H4" s="10"/>
     </row>
     <row r="5" spans="3:10" ht="48" thickBot="1">
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="22" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="8" t="s">
@@ -45055,7 +50096,7 @@
       </c>
     </row>
     <row r="6" spans="3:10" ht="32.25" thickBot="1">
-      <c r="C6" s="21"/>
+      <c r="C6" s="23"/>
       <c r="D6" s="8" t="s">
         <v>27</v>
       </c>
@@ -45073,7 +50114,7 @@
       </c>
     </row>
     <row r="7" spans="3:10" ht="32.25" customHeight="1" thickBot="1">
-      <c r="C7" s="22"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="8" t="s">
         <v>28</v>
       </c>
@@ -45091,7 +50132,7 @@
       </c>
     </row>
     <row r="8" spans="3:10" ht="16.5" thickBot="1">
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="22" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -45111,19 +50152,19 @@
       </c>
     </row>
     <row r="9" spans="3:10" ht="32.25" thickBot="1">
-      <c r="C9" s="21"/>
+      <c r="C9" s="23"/>
       <c r="D9" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="3:10" ht="95.25" thickBot="1">
-      <c r="C10" s="22"/>
+      <c r="C10" s="24"/>
       <c r="D10" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="11" spans="3:10" ht="16.5" thickBot="1">
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="22" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="8" t="s">
@@ -45131,13 +50172,13 @@
       </c>
     </row>
     <row r="12" spans="3:10" ht="32.25" thickBot="1">
-      <c r="C12" s="21"/>
+      <c r="C12" s="23"/>
       <c r="D12" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="3:10" ht="95.25" thickBot="1">
-      <c r="C13" s="22"/>
+      <c r="C13" s="24"/>
       <c r="D13" s="8" t="s">
         <v>28</v>
       </c>

--- a/documents/исследования.xlsx
+++ b/documents/исследования.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" firstSheet="5" activeTab="9"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="портрет" sheetId="1" r:id="rId1"/>
@@ -711,11 +711,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="81508992"/>
-        <c:axId val="83301504"/>
+        <c:axId val="75303552"/>
+        <c:axId val="75318400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="81508992"/>
+        <c:axId val="75303552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -742,19 +742,19 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="0.29266121712198234"/>
-              <c:y val="0.91952292951176906"/>
+              <c:y val="0.91952292951176895"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83301504"/>
+        <c:crossAx val="75318400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83301504"/>
+        <c:axId val="75318400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -788,7 +788,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81508992"/>
+        <c:crossAx val="75303552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -812,9 +812,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.66110883710840485"/>
+          <c:x val="0.66110883710840507"/>
           <c:y val="8.6460758061807932E-2"/>
-          <c:w val="0.32027569218952812"/>
+          <c:w val="0.32027569218952817"/>
           <c:h val="0.84250477857999795"/>
         </c:manualLayout>
       </c:layout>
@@ -828,7 +828,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -847,7 +847,7 @@
           <c:x val="0.17587167491231837"/>
           <c:y val="7.6778988485025221E-2"/>
           <c:w val="0.46429475765625361"/>
-          <c:h val="0.66972030336698773"/>
+          <c:h val="0.66972030336698785"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1068,11 +1068,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="89673088"/>
-        <c:axId val="89679360"/>
+        <c:axId val="84630912"/>
+        <c:axId val="84637184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="89673088"/>
+        <c:axId val="84630912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1098,20 +1098,20 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.28568046795197743"/>
+              <c:x val="0.28568046795197755"/>
               <c:y val="0.92425647714281112"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89679360"/>
+        <c:crossAx val="84637184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89679360"/>
+        <c:axId val="84637184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1145,7 +1145,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89673088"/>
+        <c:crossAx val="84630912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1169,9 +1169,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.6611088371084054"/>
+          <c:x val="0.66110883710840573"/>
           <c:y val="8.6460758061807932E-2"/>
-          <c:w val="0.32027569218952823"/>
+          <c:w val="0.32027569218952834"/>
           <c:h val="0.84250477857999795"/>
         </c:manualLayout>
       </c:layout>
@@ -1185,7 +1185,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1204,7 +1204,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.17260710585903771"/>
           <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.60357587408597491"/>
+          <c:w val="0.60357587408597502"/>
           <c:h val="0.5445866624176815"/>
         </c:manualLayout>
       </c:layout>
@@ -1267,11 +1267,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="89708032"/>
-        <c:axId val="89709952"/>
+        <c:axId val="84669952"/>
+        <c:axId val="84671872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="89708032"/>
+        <c:axId val="84669952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1296,8 +1296,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.2932968161588505"/>
-              <c:y val="0.89983141341320172"/>
+              <c:x val="0.29329681615885056"/>
+              <c:y val="0.89983141341320183"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -1312,14 +1312,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89709952"/>
+        <c:crossAx val="84671872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89709952"/>
+        <c:axId val="84671872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1352,7 +1352,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89708032"/>
+        <c:crossAx val="84669952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1365,7 +1365,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.78167276749269221"/>
           <c:y val="0.26369685006901455"/>
-          <c:w val="0.20344147309199526"/>
+          <c:w val="0.20344147309199531"/>
           <c:h val="0.13195137725382619"/>
         </c:manualLayout>
       </c:layout>
@@ -1380,7 +1380,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1399,7 +1399,7 @@
           <c:x val="0.17587167491231837"/>
           <c:y val="7.6778988485025221E-2"/>
           <c:w val="0.46429475765625361"/>
-          <c:h val="0.6813953710331665"/>
+          <c:h val="0.68139537103316661"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1620,11 +1620,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="89794432"/>
-        <c:axId val="89808896"/>
+        <c:axId val="84768640"/>
+        <c:axId val="84770816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="89794432"/>
+        <c:axId val="84768640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1650,20 +1650,20 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.28568046795197738"/>
+              <c:x val="0.28568046795197743"/>
               <c:y val="0.92569633341286883"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89808896"/>
+        <c:crossAx val="84770816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89808896"/>
+        <c:axId val="84770816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1697,7 +1697,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89794432"/>
+        <c:crossAx val="84768640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1721,9 +1721,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.66110883710840596"/>
+          <c:x val="0.66110883710840629"/>
           <c:y val="8.6460758061807932E-2"/>
-          <c:w val="0.32027569218952839"/>
+          <c:w val="0.32027569218952845"/>
           <c:h val="0.84250477857999795"/>
         </c:manualLayout>
       </c:layout>
@@ -1737,7 +1737,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1756,7 +1756,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.17260710585903771"/>
           <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.60357587408597513"/>
+          <c:w val="0.60357587408597524"/>
           <c:h val="0.5445866624176815"/>
         </c:manualLayout>
       </c:layout>
@@ -1819,11 +1819,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="89841664"/>
-        <c:axId val="89843584"/>
+        <c:axId val="84676608"/>
+        <c:axId val="84678528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="89841664"/>
+        <c:axId val="84676608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1848,8 +1848,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.29329681615885062"/>
-              <c:y val="0.89983141341320194"/>
+              <c:x val="0.29329681615885067"/>
+              <c:y val="0.89983141341320205"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -1864,14 +1864,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89843584"/>
+        <c:crossAx val="84678528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89843584"/>
+        <c:axId val="84678528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1904,7 +1904,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89841664"/>
+        <c:crossAx val="84676608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1917,7 +1917,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.78167276749269221"/>
           <c:y val="0.26369685006901455"/>
-          <c:w val="0.20344147309199537"/>
+          <c:w val="0.20344147309199545"/>
           <c:h val="0.13195137725382619"/>
         </c:manualLayout>
       </c:layout>
@@ -1932,7 +1932,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1951,7 +1951,7 @@
           <c:x val="0.17587167491231837"/>
           <c:y val="7.6778988485025221E-2"/>
           <c:w val="0.46429475765625361"/>
-          <c:h val="0.67803852210781379"/>
+          <c:h val="0.6780385221078139"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2172,11 +2172,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="90083712"/>
-        <c:axId val="90085632"/>
+        <c:axId val="84906368"/>
+        <c:axId val="84908288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="90083712"/>
+        <c:axId val="84906368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2202,20 +2202,20 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.2936633654887757"/>
+              <c:x val="0.29366336548877575"/>
               <c:y val="0.92901918029477082"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90085632"/>
+        <c:crossAx val="84908288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90085632"/>
+        <c:axId val="84908288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2249,7 +2249,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90083712"/>
+        <c:crossAx val="84906368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2273,9 +2273,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.66110883710840662"/>
+          <c:x val="0.66110883710840684"/>
           <c:y val="8.6460758061807932E-2"/>
-          <c:w val="0.3202756921895285"/>
+          <c:w val="0.32027569218952856"/>
           <c:h val="0.84250477857999795"/>
         </c:manualLayout>
       </c:layout>
@@ -2289,7 +2289,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2308,7 +2308,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.17260710585903771"/>
           <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.65162384431675802"/>
+          <c:w val="0.65162384431675813"/>
           <c:h val="0.53979040389735455"/>
         </c:manualLayout>
       </c:layout>
@@ -2371,11 +2371,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="90110208"/>
-        <c:axId val="89919872"/>
+        <c:axId val="84932864"/>
+        <c:axId val="84808064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="90110208"/>
+        <c:axId val="84932864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2400,8 +2400,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.29329681615885073"/>
-              <c:y val="0.89983141341320216"/>
+              <c:x val="0.29329681615885084"/>
+              <c:y val="0.89983141341320239"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -2416,14 +2416,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89919872"/>
+        <c:crossAx val="84808064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89919872"/>
+        <c:axId val="84808064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2456,7 +2456,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90110208"/>
+        <c:crossAx val="84932864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2469,7 +2469,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.78167276749269221"/>
           <c:y val="0.26369685006901455"/>
-          <c:w val="0.20344147309199551"/>
+          <c:w val="0.20344147309199556"/>
           <c:h val="0.13195137725382619"/>
         </c:manualLayout>
       </c:layout>
@@ -2484,7 +2484,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2503,8 +2503,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.17260710585903771"/>
           <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.60357587408597568"/>
-          <c:h val="0.66445744865549516"/>
+          <c:w val="0.60357587408597579"/>
+          <c:h val="0.66445744865549539"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2515,7 +2515,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>цвет!$C$34</c:f>
+              <c:f>цвет!$C$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2526,7 +2526,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>цвет!$D$33:$F$33</c:f>
+              <c:f>цвет!$D$29:$F$29</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2543,7 +2543,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>цвет!$D$34:$F$34</c:f>
+              <c:f>цвет!$D$30:$F$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2560,11 +2560,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="89948544"/>
-        <c:axId val="89950464"/>
+        <c:axId val="84857216"/>
+        <c:axId val="84859136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="89948544"/>
+        <c:axId val="84857216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2589,7 +2589,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.29552647056241793"/>
+              <c:x val="0.29552647056241804"/>
               <c:y val="0.89001337867785957"/>
             </c:manualLayout>
           </c:layout>
@@ -2605,14 +2605,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89950464"/>
+        <c:crossAx val="84859136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89950464"/>
+        <c:axId val="84859136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2642,10 +2642,11 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89948544"/>
+        <c:crossAx val="84857216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2658,7 +2659,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.78167276749269221"/>
           <c:y val="0.26369685006901455"/>
-          <c:w val="0.20344147309199562"/>
+          <c:w val="0.2034414730919957"/>
           <c:h val="0.13195137725382619"/>
         </c:manualLayout>
       </c:layout>
@@ -2673,7 +2674,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000003" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2692,8 +2693,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.17260710585903771"/>
           <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.60357587408597591"/>
-          <c:h val="0.66445744865549561"/>
+          <c:w val="0.60357587408597602"/>
+          <c:h val="0.66445744865549572"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2704,7 +2705,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>цвет!$C$93</c:f>
+              <c:f>цвет!$C$85</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2715,7 +2716,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>цвет!$D$92:$F$92</c:f>
+              <c:f>цвет!$D$84:$F$84</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2732,7 +2733,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>цвет!$D$93:$F$93</c:f>
+              <c:f>цвет!$D$85:$F$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2749,11 +2750,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="90130304"/>
-        <c:axId val="90136576"/>
+        <c:axId val="95786880"/>
+        <c:axId val="95789056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="90130304"/>
+        <c:axId val="95786880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2778,7 +2779,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.29552647056241815"/>
+              <c:x val="0.29552647056241826"/>
               <c:y val="0.89001337867785957"/>
             </c:manualLayout>
           </c:layout>
@@ -2794,14 +2795,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90136576"/>
+        <c:crossAx val="95789056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90136576"/>
+        <c:axId val="95789056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2831,10 +2832,11 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90130304"/>
+        <c:crossAx val="95786880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2847,7 +2849,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.78167276749269221"/>
           <c:y val="0.26369685006901455"/>
-          <c:w val="0.20344147309199576"/>
+          <c:w val="0.20344147309199581"/>
           <c:h val="0.13195137725382619"/>
         </c:manualLayout>
       </c:layout>
@@ -2862,7 +2864,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000311" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000311" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000322" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000322" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2892,7 +2894,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>цвет!$D$119</c:f>
+              <c:f>цвет!$D$111</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2911,7 +2913,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>цвет!$E$118:$G$118</c:f>
+              <c:f>цвет!$E$110:$G$110</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2928,7 +2930,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>цвет!$E$119:$G$119</c:f>
+              <c:f>цвет!$E$111:$G$111</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2950,7 +2952,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>цвет!$D$120</c:f>
+              <c:f>цвет!$D$112</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2969,7 +2971,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>цвет!$E$118:$G$118</c:f>
+              <c:f>цвет!$E$110:$G$110</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2986,7 +2988,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>цвет!$E$120:$G$120</c:f>
+              <c:f>цвет!$E$112:$G$112</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3008,7 +3010,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>цвет!$D$121</c:f>
+              <c:f>цвет!$D$113</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3027,7 +3029,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>цвет!$E$118:$G$118</c:f>
+              <c:f>цвет!$E$110:$G$110</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3044,7 +3046,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>цвет!$E$121:$G$121</c:f>
+              <c:f>цвет!$E$113:$G$113</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3066,7 +3068,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>цвет!$D$122</c:f>
+              <c:f>цвет!$D$114</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -3077,7 +3079,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>цвет!$E$118:$G$118</c:f>
+              <c:f>цвет!$E$110:$G$110</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3094,7 +3096,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>цвет!$E$122:$G$122</c:f>
+              <c:f>цвет!$E$114:$G$114</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3102,11 +3104,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="90183552"/>
-        <c:axId val="90193920"/>
+        <c:axId val="97208192"/>
+        <c:axId val="97214464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="90183552"/>
+        <c:axId val="97208192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3128,16 +3130,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90193920"/>
+        <c:crossAx val="97214464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90193920"/>
+        <c:axId val="97214464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3168,10 +3171,11 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90183552"/>
+        <c:crossAx val="97208192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3195,9 +3199,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.66110883710840707"/>
+          <c:x val="0.6611088371084074"/>
           <c:y val="8.6460758061807932E-2"/>
-          <c:w val="0.32027569218952862"/>
+          <c:w val="0.32027569218952867"/>
           <c:h val="0.84250477857999795"/>
         </c:manualLayout>
       </c:layout>
@@ -3211,7 +3215,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000003" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000311" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000311" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3406,8 +3410,8 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="90265088"/>
-        <c:axId val="90266624"/>
+        <c:axId val="95843840"/>
+        <c:axId val="95845376"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3484,25 +3488,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="90278144"/>
-        <c:axId val="90276608"/>
+        <c:axId val="95856896"/>
+        <c:axId val="95855360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="90265088"/>
+        <c:axId val="95843840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90266624"/>
+        <c:crossAx val="95845376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90266624"/>
+        <c:axId val="95845376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3510,32 +3514,32 @@
         <c:minorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90265088"/>
+        <c:crossAx val="95843840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="90276608"/>
+        <c:axId val="95855360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90278144"/>
+        <c:crossAx val="95856896"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="90278144"/>
+        <c:axId val="95856896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="t"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="90276608"/>
+        <c:crossAx val="95855360"/>
         <c:crosses val="max"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3550,7 +3554,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3703,25 +3707,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="83334272"/>
-        <c:axId val="83335808"/>
+        <c:axId val="75351168"/>
+        <c:axId val="75352704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="83334272"/>
+        <c:axId val="75351168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83335808"/>
+        <c:crossAx val="75352704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83335808"/>
+        <c:axId val="75352704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3729,7 +3733,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83334272"/>
+        <c:crossAx val="75351168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3741,7 +3745,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3880,11 +3884,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="90573440"/>
-        <c:axId val="90579712"/>
+        <c:axId val="97270400"/>
+        <c:axId val="97276672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="90573440"/>
+        <c:axId val="97270400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3907,14 +3911,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90579712"/>
+        <c:crossAx val="97276672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90579712"/>
+        <c:axId val="97276672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3939,7 +3943,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90573440"/>
+        <c:crossAx val="97270400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3951,7 +3955,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4090,24 +4094,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="90600576"/>
-        <c:axId val="90602112"/>
+        <c:axId val="97293440"/>
+        <c:axId val="97294976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="90600576"/>
+        <c:axId val="97293440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90602112"/>
+        <c:crossAx val="97294976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90602112"/>
+        <c:axId val="97294976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4115,7 +4119,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90600576"/>
+        <c:crossAx val="97293440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4127,7 +4131,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4266,24 +4270,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="90622592"/>
-        <c:axId val="90722688"/>
+        <c:axId val="97327744"/>
+        <c:axId val="97354112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="90622592"/>
+        <c:axId val="97327744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90722688"/>
+        <c:crossAx val="97354112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90722688"/>
+        <c:axId val="97354112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4291,7 +4295,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90622592"/>
+        <c:crossAx val="97327744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4303,7 +4307,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4381,24 +4385,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="90733952"/>
-        <c:axId val="90739840"/>
+        <c:axId val="97361280"/>
+        <c:axId val="97367168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="90733952"/>
+        <c:axId val="97361280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90739840"/>
+        <c:crossAx val="97367168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90739840"/>
+        <c:axId val="97367168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4406,7 +4410,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90733952"/>
+        <c:crossAx val="97361280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4418,7 +4422,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4583,24 +4587,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="90811008"/>
-        <c:axId val="90829184"/>
+        <c:axId val="97585792"/>
+        <c:axId val="97591680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="90811008"/>
+        <c:axId val="97585792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90829184"/>
+        <c:crossAx val="97591680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90829184"/>
+        <c:axId val="97591680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4608,20 +4612,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90811008"/>
+        <c:crossAx val="97585792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4640,7 +4643,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.17260710585903771"/>
           <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.60357587408597468"/>
+          <c:w val="0.6035758740859748"/>
           <c:h val="0.5445866624176815"/>
         </c:manualLayout>
       </c:layout>
@@ -4703,11 +4706,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="87515136"/>
-        <c:axId val="87517056"/>
+        <c:axId val="76517376"/>
+        <c:axId val="76519296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="87515136"/>
+        <c:axId val="76517376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4732,8 +4735,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.29329681615885039"/>
-              <c:y val="0.89983141341320139"/>
+              <c:x val="0.29329681615885045"/>
+              <c:y val="0.89983141341320161"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -4748,14 +4751,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87517056"/>
+        <c:crossAx val="76519296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87517056"/>
+        <c:axId val="76519296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4788,7 +4791,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87515136"/>
+        <c:crossAx val="76517376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4801,7 +4804,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.78167276749269221"/>
           <c:y val="0.26369685006901455"/>
-          <c:w val="0.20344147309199512"/>
+          <c:w val="0.2034414730919952"/>
           <c:h val="0.13195137725382619"/>
         </c:manualLayout>
       </c:layout>
@@ -4816,7 +4819,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4958,24 +4961,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="87557248"/>
-        <c:axId val="87558784"/>
+        <c:axId val="76567680"/>
+        <c:axId val="76569216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="87557248"/>
+        <c:axId val="76567680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87558784"/>
+        <c:crossAx val="76569216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87558784"/>
+        <c:axId val="76569216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5030,7 +5033,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87557248"/>
+        <c:crossAx val="76567680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5048,7 +5051,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5190,24 +5193,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="87591552"/>
-        <c:axId val="87601536"/>
+        <c:axId val="76581504"/>
+        <c:axId val="76595584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="87591552"/>
+        <c:axId val="76581504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87601536"/>
+        <c:crossAx val="76595584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87601536"/>
+        <c:axId val="76595584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5241,7 +5244,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87591552"/>
+        <c:crossAx val="76581504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5259,7 +5262,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5276,8 +5279,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.18814270812302339"/>
-          <c:y val="4.0336129645919719E-2"/>
+          <c:x val="0.18814270812302342"/>
+          <c:y val="4.0336129645919726E-2"/>
           <c:w val="0.76312975301164365"/>
           <c:h val="0.48806253441753028"/>
         </c:manualLayout>
@@ -5411,24 +5414,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="89403776"/>
-        <c:axId val="89405312"/>
+        <c:axId val="77091200"/>
+        <c:axId val="77092736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="89403776"/>
+        <c:axId val="77091200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89405312"/>
+        <c:crossAx val="77092736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89405312"/>
+        <c:axId val="77092736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5461,7 +5464,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89403776"/>
+        <c:crossAx val="77091200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5473,9 +5476,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.32306733292953782"/>
-          <c:y val="0.87768771410385826"/>
-          <c:w val="0.20898394912174473"/>
-          <c:h val="6.5696324744148341E-2"/>
+          <c:y val="0.87768771410385849"/>
+          <c:w val="0.20898394912174476"/>
+          <c:h val="6.5696324744148368E-2"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -5489,7 +5492,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5771,24 +5774,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="89327488"/>
-        <c:axId val="89329024"/>
+        <c:axId val="77145984"/>
+        <c:axId val="77147520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="89327488"/>
+        <c:axId val="77145984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89329024"/>
+        <c:crossAx val="77147520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89329024"/>
+        <c:axId val="77147520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5822,7 +5825,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89327488"/>
+        <c:crossAx val="77145984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5852,7 +5855,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6134,24 +6137,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="89463040"/>
-        <c:axId val="89468928"/>
+        <c:axId val="84486400"/>
+        <c:axId val="84492288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="89463040"/>
+        <c:axId val="84486400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89468928"/>
+        <c:crossAx val="84492288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89468928"/>
+        <c:axId val="84492288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6185,7 +6188,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89463040"/>
+        <c:crossAx val="84486400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6215,7 +6218,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6497,24 +6500,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="89500672"/>
-        <c:axId val="89592576"/>
+        <c:axId val="84528128"/>
+        <c:axId val="78455552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="89500672"/>
+        <c:axId val="84528128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89592576"/>
+        <c:crossAx val="78455552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89592576"/>
+        <c:axId val="78455552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6548,7 +6551,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89500672"/>
+        <c:crossAx val="84528128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6578,7 +6581,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -12073,13 +12076,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -12103,13 +12106,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -12133,13 +12136,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -23012,7 +23015,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B67" workbookViewId="0">
+    <sheetView topLeftCell="B67" workbookViewId="0">
       <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
@@ -44547,10 +44550,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист6"/>
-  <dimension ref="A2:L159"/>
+  <dimension ref="A2:L151"/>
   <sheetViews>
-    <sheetView topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="F161" sqref="F161"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -44596,36 +44599,81 @@
       <c r="D5">
         <v>4</v>
       </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>211.45</v>
+      </c>
+      <c r="G5">
+        <v>6.69</v>
+      </c>
       <c r="H5">
         <v>75.099999999999994</v>
       </c>
-      <c r="J5" t="e">
+      <c r="I5">
+        <v>51.4</v>
+      </c>
+      <c r="J5" s="20">
         <f>H5/I5</f>
-        <v>#DIV/0!</v>
+        <v>1.461089494163424</v>
+      </c>
+      <c r="K5" s="21">
+        <v>0.99526790876598203</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="D6">
         <v>4</v>
       </c>
+      <c r="E6">
+        <v>50</v>
+      </c>
+      <c r="F6">
+        <v>163.12</v>
+      </c>
+      <c r="G6">
+        <v>8.31</v>
+      </c>
       <c r="H6">
         <v>75.099999999999994</v>
       </c>
-      <c r="J6" t="e">
-        <f t="shared" ref="J6:J20" si="0">H6/I6</f>
-        <v>#DIV/0!</v>
+      <c r="I6">
+        <v>51.3</v>
+      </c>
+      <c r="J6" s="20">
+        <f t="shared" ref="J6:J16" si="0">H6/I6</f>
+        <v>1.4639376218323585</v>
+      </c>
+      <c r="K6" s="21">
+        <v>0.99269407540098198</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="D7">
         <v>4</v>
       </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7">
+        <v>60.78</v>
+      </c>
+      <c r="G7">
+        <v>8.2799999999999994</v>
+      </c>
       <c r="H7">
         <v>75.099999999999994</v>
       </c>
-      <c r="J7" t="e">
+      <c r="I7">
+        <v>51.2</v>
+      </c>
+      <c r="J7" s="20">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>1.4667968749999998</v>
+      </c>
+      <c r="K7" s="21">
+        <v>0.98937948440353196</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -44639,17 +44687,20 @@
         <v>31.31</v>
       </c>
       <c r="G8">
-        <v>7.78</v>
+        <v>8.18</v>
       </c>
       <c r="H8">
         <v>75.099999999999994</v>
       </c>
-      <c r="J8" t="e">
+      <c r="I8">
+        <v>51.1</v>
+      </c>
+      <c r="J8" s="20">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K8">
-        <v>0.982477032651487</v>
+        <v>1.4696673189823872</v>
+      </c>
+      <c r="K8" s="21">
+        <v>0.98491038318778501</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -44665,1017 +44716,1200 @@
       <c r="F9">
         <v>18.989999999999998</v>
       </c>
+      <c r="G9">
+        <v>7.59</v>
+      </c>
       <c r="H9">
         <v>75.099999999999994</v>
       </c>
-      <c r="J9" t="e">
+      <c r="I9">
+        <v>51</v>
+      </c>
+      <c r="J9" s="20">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K9">
-        <v>0.97979028079888097</v>
+        <v>1.472549019607843</v>
+      </c>
+      <c r="K9" s="21">
+        <v>0.98179541591753705</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="D10">
         <v>4</v>
       </c>
+      <c r="E10">
+        <v>400</v>
+      </c>
+      <c r="F10">
+        <v>6.29</v>
+      </c>
+      <c r="G10">
+        <v>8.0299999999999994</v>
+      </c>
       <c r="H10">
         <v>75.099999999999994</v>
       </c>
-      <c r="J10" t="e">
+      <c r="I10">
+        <v>51</v>
+      </c>
+      <c r="J10" s="20">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>1.472549019607843</v>
+      </c>
+      <c r="K10" s="21">
+        <v>0.98012159758663397</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="D11">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>68.86</v>
+      </c>
+      <c r="G11">
+        <v>10.34</v>
       </c>
       <c r="H11">
         <v>75.099999999999994</v>
       </c>
-      <c r="J11" t="e">
+      <c r="I11">
+        <v>12.8</v>
+      </c>
+      <c r="J11" s="20">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>5.8671874999999991</v>
+      </c>
+      <c r="K11" s="21">
+        <v>0.97152420552133201</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="D12">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>50</v>
+      </c>
+      <c r="F12">
+        <v>61.09</v>
+      </c>
+      <c r="G12">
+        <v>7.64</v>
       </c>
       <c r="H12">
         <v>75.099999999999994</v>
       </c>
-      <c r="J12" t="e">
+      <c r="I12">
+        <v>12.8</v>
+      </c>
+      <c r="J12" s="20">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>5.8671874999999991</v>
+      </c>
+      <c r="K12" s="21">
+        <v>0.97080037378250095</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="D13">
         <v>8</v>
       </c>
+      <c r="E13">
+        <v>100</v>
+      </c>
+      <c r="F13">
+        <v>49.33</v>
+      </c>
+      <c r="G13">
+        <v>6.77</v>
+      </c>
       <c r="H13">
         <v>75.099999999999994</v>
       </c>
-      <c r="J13" t="e">
+      <c r="I13">
+        <v>12.9</v>
+      </c>
+      <c r="J13" s="20">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>5.8217054263565888</v>
+      </c>
+      <c r="K13" s="21">
+        <v>0.96901680123008305</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="D14">
         <v>8</v>
       </c>
+      <c r="E14">
+        <v>200</v>
+      </c>
+      <c r="F14">
+        <v>21.93</v>
+      </c>
+      <c r="G14">
+        <v>6.88</v>
+      </c>
       <c r="H14">
         <v>75.099999999999994</v>
       </c>
-      <c r="J14" t="e">
+      <c r="I14">
+        <v>12.9</v>
+      </c>
+      <c r="J14" s="20">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>5.8217054263565888</v>
+      </c>
+      <c r="K14" s="21">
+        <v>0.96374954139246005</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="D15">
         <v>8</v>
       </c>
+      <c r="E15">
+        <v>300</v>
+      </c>
+      <c r="F15">
+        <v>13.85</v>
+      </c>
+      <c r="G15">
+        <v>6.58</v>
+      </c>
       <c r="H15">
         <v>75.099999999999994</v>
       </c>
-      <c r="J15" t="e">
+      <c r="I15">
+        <v>12.9</v>
+      </c>
+      <c r="J15" s="20">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>5.8217054263565888</v>
+      </c>
+      <c r="K15" s="21">
+        <v>0.95851647810937601</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="D16">
         <v>8</v>
       </c>
+      <c r="E16">
+        <v>400</v>
+      </c>
+      <c r="F16">
+        <v>9.75</v>
+      </c>
+      <c r="G16">
+        <v>6.52</v>
+      </c>
       <c r="H16">
         <v>75.099999999999994</v>
       </c>
-      <c r="J16" t="e">
+      <c r="I16">
+        <v>12.8</v>
+      </c>
+      <c r="J16" s="20">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="D17">
+        <v>5.8671874999999991</v>
+      </c>
+      <c r="K16" s="21">
+        <v>0.953986974836323</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="2" customFormat="1"/>
+    <row r="21" spans="1:12" ht="60">
+      <c r="A21" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H17">
-        <v>75.099999999999994</v>
-      </c>
-      <c r="J17" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="D18">
+      <c r="K21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22">
+        <v>300</v>
+      </c>
+      <c r="G22">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="H22">
+        <v>7.78</v>
+      </c>
+      <c r="I22">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="J22">
+        <v>51.4</v>
+      </c>
+      <c r="K22">
+        <f>I22/J22</f>
+        <v>1.461089494163424</v>
+      </c>
+      <c r="L22">
+        <v>0.979791280798881</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23">
+        <v>16</v>
+      </c>
+      <c r="E23" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23">
+        <v>10</v>
+      </c>
+      <c r="G23">
+        <v>154.74</v>
+      </c>
+      <c r="H23">
+        <v>8.51</v>
+      </c>
+      <c r="I23">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="J23">
+        <v>32.9</v>
+      </c>
+      <c r="K23">
+        <f t="shared" ref="K23:K24" si="1">I23/J23</f>
+        <v>2.282674772036474</v>
+      </c>
+      <c r="L23">
+        <v>0.97253947754844305</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24">
         <v>8</v>
       </c>
-      <c r="H18">
-        <v>75.099999999999994</v>
-      </c>
-      <c r="J18" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="D19">
-        <v>8</v>
-      </c>
-      <c r="H19">
-        <v>75.099999999999994</v>
-      </c>
-      <c r="J19" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="D20">
-        <v>8</v>
-      </c>
-      <c r="H20">
-        <v>75.099999999999994</v>
-      </c>
-      <c r="J20" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" s="2" customFormat="1"/>
-    <row r="25" spans="1:12" ht="60">
-      <c r="A25" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="C26" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26">
-        <v>4</v>
-      </c>
-      <c r="E26" t="s">
-        <v>6</v>
-      </c>
-      <c r="F26">
-        <v>300</v>
-      </c>
-      <c r="G26">
-        <v>18.989999999999998</v>
-      </c>
-      <c r="H26">
-        <v>7.78</v>
-      </c>
-      <c r="I26">
-        <v>75.099999999999994</v>
-      </c>
-      <c r="J26">
-        <v>51.4</v>
-      </c>
-      <c r="K26">
-        <f>I26/J26</f>
-        <v>1.461089494163424</v>
-      </c>
-      <c r="L26">
-        <v>0.979791280798881</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="C27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27">
-        <v>16</v>
-      </c>
-      <c r="E27" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27">
-        <v>10</v>
-      </c>
-      <c r="G27">
-        <v>154.74</v>
-      </c>
-      <c r="H27">
-        <v>8.51</v>
-      </c>
-      <c r="I27">
-        <v>75.099999999999994</v>
-      </c>
-      <c r="J27">
-        <v>32.9</v>
-      </c>
-      <c r="K27">
-        <f t="shared" ref="K27:K28" si="1">I27/J27</f>
-        <v>2.282674772036474</v>
-      </c>
-      <c r="L27">
-        <v>0.97253947754844305</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="C28" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28">
-        <v>8</v>
-      </c>
-      <c r="E28" t="s">
-        <v>6</v>
-      </c>
-      <c r="F28" t="s">
-        <v>6</v>
-      </c>
-      <c r="G28">
+      <c r="E24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24">
         <v>55.91</v>
       </c>
-      <c r="H28">
+      <c r="H24">
         <v>6.61</v>
       </c>
-      <c r="I28">
-        <v>75.099999999999994</v>
-      </c>
-      <c r="J28">
+      <c r="I24">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="J24">
         <v>12.8</v>
       </c>
-      <c r="K28">
+      <c r="K24">
         <f t="shared" si="1"/>
         <v>5.8671874999999991</v>
       </c>
-      <c r="L28">
+      <c r="L24">
         <v>0.97211813184307105</v>
       </c>
     </row>
-    <row r="33" spans="3:6" ht="15.75">
-      <c r="D33" s="3" t="s">
+    <row r="29" spans="1:12" ht="15.75">
+      <c r="D29" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="3:6" ht="15.75">
-      <c r="C34" s="3" t="s">
+    <row r="30" spans="1:12" ht="15.75">
+      <c r="C30" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D34">
+      <c r="D30">
         <v>18.989999999999998</v>
       </c>
-      <c r="E34">
+      <c r="E30">
         <v>154.74</v>
       </c>
-      <c r="F34">
+      <c r="F30">
         <v>55.91</v>
       </c>
     </row>
-    <row r="55" spans="2:11" s="2" customFormat="1"/>
+    <row r="51" spans="2:11" s="2" customFormat="1"/>
+    <row r="54" spans="2:11">
+      <c r="B54" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" ht="60">
+      <c r="C57" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
     <row r="58" spans="2:11">
-      <c r="B58" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="61" spans="2:11" ht="60">
-      <c r="C61" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F61" s="1" t="s">
+      <c r="C58" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58">
         <v>4</v>
       </c>
-      <c r="G61" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K61" s="1" t="s">
-        <v>55</v>
+      <c r="E58">
+        <v>10</v>
+      </c>
+      <c r="F58">
+        <v>498.23</v>
+      </c>
+      <c r="G58">
+        <v>11.73</v>
+      </c>
+      <c r="H58">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="I58">
+        <v>51.4</v>
+      </c>
+      <c r="J58" s="20">
+        <f>H58/I58</f>
+        <v>1.461089494163424</v>
+      </c>
+      <c r="K58" s="21">
+        <v>0.88937008022410502</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11">
+      <c r="D59">
+        <v>4</v>
+      </c>
+      <c r="E59">
+        <v>50</v>
+      </c>
+      <c r="F59">
+        <v>178.73</v>
+      </c>
+      <c r="G59">
+        <v>11.09</v>
+      </c>
+      <c r="H59">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="I59">
+        <v>51.4</v>
+      </c>
+      <c r="J59" s="20">
+        <f t="shared" ref="J59:J69" si="2">H59/I59</f>
+        <v>1.461089494163424</v>
+      </c>
+      <c r="K59" s="21">
+        <v>0.90849453253184498</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11">
+      <c r="D60">
+        <v>4</v>
+      </c>
+      <c r="E60">
+        <v>100</v>
+      </c>
+      <c r="F60">
+        <v>108.17</v>
+      </c>
+      <c r="G60">
+        <v>10.98</v>
+      </c>
+      <c r="H60">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="I60">
+        <v>51.4</v>
+      </c>
+      <c r="J60" s="20">
+        <f t="shared" si="2"/>
+        <v>1.461089494163424</v>
+      </c>
+      <c r="K60" s="21">
+        <v>0.91432969774053996</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11">
+      <c r="C61">
+        <v>82.96</v>
+      </c>
+      <c r="D61">
+        <v>4</v>
+      </c>
+      <c r="E61" s="16">
+        <v>200</v>
+      </c>
+      <c r="F61">
+        <v>96.38</v>
+      </c>
+      <c r="G61">
+        <v>12.76</v>
+      </c>
+      <c r="H61">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="I61">
+        <v>51.4</v>
+      </c>
+      <c r="J61" s="20">
+        <f t="shared" si="2"/>
+        <v>1.461089494163424</v>
+      </c>
+      <c r="K61" s="21">
+        <v>0.91277493569325696</v>
       </c>
     </row>
     <row r="62" spans="2:11">
-      <c r="C62" t="s">
-        <v>0</v>
-      </c>
       <c r="D62">
         <v>4</v>
       </c>
+      <c r="E62">
+        <v>300</v>
+      </c>
+      <c r="F62">
+        <v>32.51</v>
+      </c>
+      <c r="G62">
+        <v>12.65</v>
+      </c>
       <c r="H62">
         <v>75.099999999999994</v>
       </c>
-      <c r="J62" t="e">
-        <f>H62/I62</f>
-        <v>#DIV/0!</v>
+      <c r="I62">
+        <v>51.4</v>
+      </c>
+      <c r="J62" s="20">
+        <f t="shared" si="2"/>
+        <v>1.461089494163424</v>
+      </c>
+      <c r="K62" s="21">
+        <v>0.91013775961547905</v>
       </c>
     </row>
     <row r="63" spans="2:11">
       <c r="D63">
         <v>4</v>
       </c>
+      <c r="E63">
+        <v>400</v>
+      </c>
+      <c r="F63">
+        <v>16.559999999999999</v>
+      </c>
+      <c r="G63">
+        <v>10.97</v>
+      </c>
       <c r="H63">
         <v>75.099999999999994</v>
       </c>
-      <c r="J63" t="e">
-        <f t="shared" ref="J63:J77" si="2">H63/I63</f>
-        <v>#DIV/0!</v>
+      <c r="I63">
+        <v>51.4</v>
+      </c>
+      <c r="J63" s="20">
+        <f t="shared" si="2"/>
+        <v>1.461089494163424</v>
+      </c>
+      <c r="K63" s="21">
+        <v>0.90782722828187201</v>
       </c>
     </row>
     <row r="64" spans="2:11">
       <c r="D64">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="E64">
+        <v>10</v>
+      </c>
+      <c r="F64">
+        <v>209.59</v>
+      </c>
+      <c r="G64">
+        <v>13.02</v>
       </c>
       <c r="H64">
         <v>75.099999999999994</v>
       </c>
-      <c r="J64" t="e">
+      <c r="I64">
+        <v>12.8</v>
+      </c>
+      <c r="J64" s="20">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="65" spans="4:11">
+        <v>5.8671874999999991</v>
+      </c>
+      <c r="K64" s="21">
+        <v>0.87887796110133998</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12">
       <c r="D65">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="E65">
+        <v>50</v>
+      </c>
+      <c r="F65">
+        <v>108.41</v>
+      </c>
+      <c r="G65">
+        <v>10.87</v>
       </c>
       <c r="H65">
         <v>75.099999999999994</v>
       </c>
-      <c r="J65" t="e">
+      <c r="I65">
+        <v>12.8</v>
+      </c>
+      <c r="J65" s="20">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="66" spans="4:11">
+        <v>5.8671874999999991</v>
+      </c>
+      <c r="K65" s="21">
+        <v>0.853458648194935</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12">
       <c r="D66">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="E66">
+        <v>100</v>
+      </c>
+      <c r="F66">
+        <v>67.89</v>
+      </c>
+      <c r="G66">
+        <v>10.61</v>
       </c>
       <c r="H66">
         <v>75.099999999999994</v>
       </c>
-      <c r="J66" t="e">
+      <c r="I66">
+        <v>12.8</v>
+      </c>
+      <c r="J66" s="20">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="67" spans="4:11">
+        <v>5.8671874999999991</v>
+      </c>
+      <c r="K66" s="21">
+        <v>0.82560559055679505</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12">
       <c r="D67">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E67">
         <v>200</v>
       </c>
       <c r="F67">
+        <v>52.29</v>
+      </c>
+      <c r="G67">
+        <v>10.64</v>
+      </c>
+      <c r="H67">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="I67">
+        <v>12.8</v>
+      </c>
+      <c r="J67" s="20">
+        <f t="shared" si="2"/>
+        <v>5.8671874999999991</v>
+      </c>
+      <c r="K67" s="21">
+        <v>0.82600902907205398</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12">
+      <c r="D68">
+        <v>8</v>
+      </c>
+      <c r="E68">
+        <v>300</v>
+      </c>
+      <c r="F68">
+        <v>40.369999999999997</v>
+      </c>
+      <c r="G68">
+        <v>10.55</v>
+      </c>
+      <c r="H68">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="I68">
+        <v>12.8</v>
+      </c>
+      <c r="J68" s="20">
+        <f t="shared" si="2"/>
+        <v>5.8671874999999991</v>
+      </c>
+      <c r="K68" s="21">
+        <v>0.81815972502617396</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12">
+      <c r="D69">
+        <v>8</v>
+      </c>
+      <c r="E69">
+        <v>400</v>
+      </c>
+      <c r="F69">
+        <v>33.07</v>
+      </c>
+      <c r="G69">
+        <v>10.53</v>
+      </c>
+      <c r="H69">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="I69">
+        <v>12.8</v>
+      </c>
+      <c r="J69" s="20">
+        <f t="shared" si="2"/>
+        <v>5.8671874999999991</v>
+      </c>
+      <c r="K69" s="21">
+        <v>0.80871904121140803</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" s="2" customFormat="1"/>
+    <row r="75" spans="2:12">
+      <c r="B75" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" ht="60">
+      <c r="C76" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12">
+      <c r="C77" t="s">
+        <v>23</v>
+      </c>
+      <c r="D77">
+        <v>4</v>
+      </c>
+      <c r="E77" t="s">
+        <v>6</v>
+      </c>
+      <c r="F77">
+        <v>200</v>
+      </c>
+      <c r="G77">
         <v>96.38</v>
       </c>
-      <c r="G67">
+      <c r="H77">
         <v>12.76</v>
       </c>
-      <c r="H67">
-        <v>75.099999999999994</v>
-      </c>
-      <c r="I67">
+      <c r="I77">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="J77">
         <v>51.4</v>
       </c>
-      <c r="J67">
-        <f t="shared" si="2"/>
+      <c r="K77">
+        <f>I77/J77</f>
         <v>1.461089494163424</v>
       </c>
-      <c r="K67">
+      <c r="L77">
         <v>0.912760184093385</v>
       </c>
     </row>
-    <row r="68" spans="4:11">
-      <c r="D68">
-        <v>4</v>
-      </c>
-      <c r="H68">
-        <v>75.099999999999994</v>
-      </c>
-      <c r="J68" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="69" spans="4:11">
-      <c r="D69">
-        <v>4</v>
-      </c>
-      <c r="H69">
-        <v>75.099999999999994</v>
-      </c>
-      <c r="J69" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="70" spans="4:11">
-      <c r="D70">
+    <row r="78" spans="2:12">
+      <c r="C78" t="s">
+        <v>24</v>
+      </c>
+      <c r="D78">
+        <v>16</v>
+      </c>
+      <c r="E78" t="s">
+        <v>6</v>
+      </c>
+      <c r="F78">
+        <v>10</v>
+      </c>
+      <c r="G78">
+        <v>220.31</v>
+      </c>
+      <c r="H78">
+        <v>10.42</v>
+      </c>
+      <c r="I78">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="J78">
+        <v>16.3</v>
+      </c>
+      <c r="K78">
+        <f t="shared" ref="K78:K79" si="3">I78/J78</f>
+        <v>4.6073619631901837</v>
+      </c>
+      <c r="L78">
+        <v>0.90312679770938797</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12">
+      <c r="C79" t="s">
+        <v>25</v>
+      </c>
+      <c r="D79">
         <v>8</v>
       </c>
-      <c r="H70">
-        <v>75.099999999999994</v>
-      </c>
-      <c r="J70" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="71" spans="4:11">
-      <c r="D71">
-        <v>8</v>
-      </c>
-      <c r="H71">
-        <v>75.099999999999994</v>
-      </c>
-      <c r="J71" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="72" spans="4:11">
-      <c r="D72">
-        <v>8</v>
-      </c>
-      <c r="H72">
-        <v>75.099999999999994</v>
-      </c>
-      <c r="J72" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="73" spans="4:11">
-      <c r="D73">
-        <v>8</v>
-      </c>
-      <c r="H73">
-        <v>75.099999999999994</v>
-      </c>
-      <c r="J73" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="74" spans="4:11">
-      <c r="D74">
-        <v>8</v>
-      </c>
-      <c r="H74">
-        <v>75.099999999999994</v>
-      </c>
-      <c r="J74" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="75" spans="4:11">
-      <c r="D75">
-        <v>8</v>
-      </c>
-      <c r="H75">
-        <v>75.099999999999994</v>
-      </c>
-      <c r="J75" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="76" spans="4:11">
-      <c r="D76">
-        <v>8</v>
-      </c>
-      <c r="H76">
-        <v>75.099999999999994</v>
-      </c>
-      <c r="J76" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="77" spans="4:11">
-      <c r="D77">
-        <v>8</v>
-      </c>
-      <c r="H77">
-        <v>75.099999999999994</v>
-      </c>
-      <c r="J77" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="80" spans="4:11" s="2" customFormat="1"/>
-    <row r="83" spans="2:12">
-      <c r="B83" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="84" spans="2:12" ht="60">
-      <c r="C84" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I84" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J84" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K84" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L84" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="85" spans="2:12">
-      <c r="C85" t="s">
-        <v>23</v>
-      </c>
-      <c r="D85">
-        <v>4</v>
-      </c>
-      <c r="E85" t="s">
-        <v>6</v>
-      </c>
-      <c r="F85">
-        <v>200</v>
-      </c>
-      <c r="G85">
-        <v>96.38</v>
-      </c>
-      <c r="H85">
-        <v>12.76</v>
-      </c>
-      <c r="I85">
-        <v>75.099999999999994</v>
-      </c>
-      <c r="J85">
-        <v>51.4</v>
-      </c>
-      <c r="K85">
-        <f>I85/J85</f>
-        <v>1.461089494163424</v>
-      </c>
-      <c r="L85">
-        <v>0.912760184093385</v>
-      </c>
-    </row>
-    <row r="86" spans="2:12">
-      <c r="C86" t="s">
-        <v>24</v>
-      </c>
-      <c r="D86">
-        <v>16</v>
-      </c>
-      <c r="E86" t="s">
-        <v>6</v>
-      </c>
-      <c r="F86">
-        <v>10</v>
-      </c>
-      <c r="G86">
-        <v>220.31</v>
-      </c>
-      <c r="H86">
-        <v>10.42</v>
-      </c>
-      <c r="I86">
-        <v>75.099999999999994</v>
-      </c>
-      <c r="J86">
-        <v>16.3</v>
-      </c>
-      <c r="K86">
-        <f t="shared" ref="K86:K87" si="3">I86/J86</f>
-        <v>4.6073619631901837</v>
-      </c>
-      <c r="L86">
-        <v>0.90312679770938797</v>
-      </c>
-    </row>
-    <row r="87" spans="2:12">
-      <c r="C87" t="s">
-        <v>25</v>
-      </c>
-      <c r="D87">
-        <v>8</v>
-      </c>
-      <c r="E87" t="s">
-        <v>6</v>
-      </c>
-      <c r="F87" t="s">
-        <v>6</v>
-      </c>
-      <c r="G87">
+      <c r="E79" t="s">
+        <v>6</v>
+      </c>
+      <c r="F79" t="s">
+        <v>6</v>
+      </c>
+      <c r="G79">
         <v>200.37</v>
       </c>
-      <c r="I87">
-        <v>75.099999999999994</v>
-      </c>
-      <c r="J87">
+      <c r="I79">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="J79">
         <v>12.8</v>
       </c>
-      <c r="K87">
+      <c r="K79">
         <f t="shared" si="3"/>
         <v>5.8671874999999991</v>
       </c>
-      <c r="L87">
+      <c r="L79">
         <v>0.91323910816278098</v>
       </c>
     </row>
-    <row r="92" spans="2:12" ht="15.75">
-      <c r="D92" s="3" t="s">
+    <row r="84" spans="3:6" ht="15.75">
+      <c r="D84" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E92" s="3" t="s">
+      <c r="E84" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F92" s="3" t="s">
+      <c r="F84" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="93" spans="2:12" ht="15.75">
-      <c r="C93" s="3" t="s">
+    <row r="85" spans="3:6" ht="15.75">
+      <c r="C85" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D93">
+      <c r="D85">
         <v>96.38</v>
       </c>
-      <c r="E93">
+      <c r="E85">
         <v>220.31</v>
       </c>
-      <c r="F93">
+      <c r="F85">
         <v>200.37</v>
       </c>
     </row>
-    <row r="114" spans="4:7" s="2" customFormat="1"/>
-    <row r="118" spans="4:7" ht="15.75">
-      <c r="D118" s="4"/>
-      <c r="E118" s="3" t="s">
+    <row r="106" spans="4:7" s="2" customFormat="1"/>
+    <row r="110" spans="4:7" ht="15.75">
+      <c r="D110" s="4"/>
+      <c r="E110" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F118" s="3" t="s">
+      <c r="F110" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G118" s="3" t="s">
+      <c r="G110" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="119" spans="4:7" ht="15.75">
-      <c r="D119" s="3" t="s">
+    <row r="111" spans="4:7" ht="15.75">
+      <c r="D111" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E119" s="3">
+      <c r="E111" s="3">
         <v>9.2100000000000009</v>
       </c>
-      <c r="F119" s="3">
+      <c r="F111" s="3">
         <v>45.08</v>
       </c>
-      <c r="G119" s="3">
+      <c r="G111" s="3">
         <v>35.72</v>
       </c>
     </row>
-    <row r="120" spans="4:7" ht="15.75">
-      <c r="D120" s="3" t="s">
+    <row r="112" spans="4:7" ht="15.75">
+      <c r="D112" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E120">
+      <c r="E112">
         <v>18.989999999999998</v>
       </c>
-      <c r="F120">
+      <c r="F112">
         <v>154.74</v>
       </c>
-      <c r="G120">
+      <c r="G112">
         <v>55.91</v>
       </c>
     </row>
-    <row r="121" spans="4:7" ht="15.75">
-      <c r="D121" s="3" t="s">
+    <row r="113" spans="4:7" ht="15.75">
+      <c r="D113" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E121">
+      <c r="E113">
         <v>96.38</v>
       </c>
-      <c r="F121">
+      <c r="F113">
         <v>220.31</v>
       </c>
-      <c r="G121">
+      <c r="G113">
         <v>200.37</v>
       </c>
     </row>
-    <row r="145" spans="3:10" s="2" customFormat="1"/>
-    <row r="150" spans="3:10" ht="60">
-      <c r="C150" s="1" t="s">
+    <row r="137" spans="3:10" s="2" customFormat="1"/>
+    <row r="142" spans="3:10" ht="60">
+      <c r="C142" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D150" s="1" t="s">
+      <c r="D142" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E150" s="1" t="s">
+      <c r="E142" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F150" s="1" t="s">
+      <c r="F142" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G150" s="1" t="s">
+      <c r="G142" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H150" s="1" t="s">
+      <c r="H142" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I150" s="1" t="s">
+      <c r="I142" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J150" s="1" t="s">
+      <c r="J142" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="151" spans="3:10">
-      <c r="C151" t="s">
+    <row r="143" spans="3:10">
+      <c r="C143" t="s">
         <v>77</v>
       </c>
-      <c r="D151">
+      <c r="D143">
         <v>4</v>
       </c>
-      <c r="E151">
+      <c r="E143">
         <v>136.96</v>
       </c>
-      <c r="F151">
+      <c r="F143">
         <v>1.68</v>
       </c>
-      <c r="G151">
-        <v>75.099999999999994</v>
-      </c>
-      <c r="H151">
+      <c r="G143">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="H143">
         <v>17.100000000000001</v>
       </c>
-      <c r="I151" s="20">
-        <f>G151/H151</f>
+      <c r="I143" s="20">
+        <f>G143/H143</f>
         <v>4.3918128654970756</v>
       </c>
-      <c r="J151" s="21">
+      <c r="J143" s="21">
         <v>0.99583323057418205</v>
       </c>
     </row>
-    <row r="152" spans="3:10">
-      <c r="D152">
+    <row r="144" spans="3:10">
+      <c r="D144">
         <v>8</v>
       </c>
-      <c r="E152">
+      <c r="E144">
         <v>31.26</v>
       </c>
-      <c r="F152">
+      <c r="F144">
         <v>1.75</v>
       </c>
-      <c r="G152">
-        <v>75.099999999999994</v>
-      </c>
-      <c r="H152">
+      <c r="G144">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="H144">
         <v>4.28</v>
       </c>
-      <c r="I152" s="20">
-        <f t="shared" ref="I152:I159" si="4">G152/H152</f>
+      <c r="I144" s="20">
+        <f t="shared" ref="I144:I151" si="4">G144/H144</f>
         <v>17.546728971962615</v>
       </c>
-      <c r="J152" s="21">
+      <c r="J144" s="21">
         <v>0.97213888521849501</v>
       </c>
     </row>
-    <row r="153" spans="3:10">
-      <c r="D153">
+    <row r="145" spans="3:10">
+      <c r="D145">
         <v>16</v>
       </c>
-      <c r="E153">
+      <c r="E145">
         <v>6.81</v>
       </c>
-      <c r="F153">
+      <c r="F145">
         <v>1.62</v>
       </c>
-      <c r="G153">
-        <v>75.099999999999994</v>
-      </c>
-      <c r="H153">
+      <c r="G145">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="H145">
         <v>1.07</v>
       </c>
-      <c r="I153" s="20">
+      <c r="I145" s="20">
         <f t="shared" si="4"/>
         <v>70.186915887850461</v>
       </c>
-      <c r="J153" s="21">
+      <c r="J145" s="21">
         <v>0.90304123805610803</v>
       </c>
     </row>
-    <row r="154" spans="3:10">
-      <c r="C154" t="s">
+    <row r="146" spans="3:10">
+      <c r="C146" t="s">
         <v>64</v>
       </c>
-      <c r="D154">
+      <c r="D146">
         <v>4</v>
       </c>
-      <c r="E154">
+      <c r="E146">
         <v>337.02</v>
       </c>
-      <c r="F154">
+      <c r="F146">
         <v>5.28</v>
       </c>
-      <c r="G154">
-        <v>75.099999999999994</v>
-      </c>
-      <c r="H154">
+      <c r="G146">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="H146">
         <v>51.4</v>
       </c>
-      <c r="I154" s="20">
+      <c r="I146" s="20">
         <f t="shared" si="4"/>
         <v>1.461089494163424</v>
       </c>
-      <c r="J154" s="21">
+      <c r="J146" s="21">
         <v>0.99565549834526501</v>
       </c>
     </row>
-    <row r="155" spans="3:10">
-      <c r="D155">
+    <row r="147" spans="3:10">
+      <c r="D147">
         <v>8</v>
       </c>
-      <c r="E155">
+      <c r="E147">
         <v>51.53</v>
       </c>
-      <c r="F155">
+      <c r="F147">
         <v>7.75</v>
       </c>
-      <c r="G155">
-        <v>75.099999999999994</v>
-      </c>
-      <c r="H155">
+      <c r="G147">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="H147">
         <v>12.8</v>
       </c>
-      <c r="I155" s="20">
+      <c r="I147" s="20">
         <f t="shared" si="4"/>
         <v>5.8671874999999991</v>
       </c>
-      <c r="J155" s="21">
+      <c r="J147" s="21">
         <v>0.97158527965215902</v>
       </c>
     </row>
-    <row r="156" spans="3:10">
-      <c r="D156">
+    <row r="148" spans="3:10">
+      <c r="D148">
         <v>16</v>
       </c>
-      <c r="E156">
+      <c r="E148">
         <v>10.58</v>
       </c>
-      <c r="F156">
+      <c r="F148">
         <v>6.52</v>
       </c>
-      <c r="G156">
-        <v>75.099999999999994</v>
-      </c>
-      <c r="H156">
+      <c r="G148">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="H148">
         <v>3.2</v>
       </c>
-      <c r="I156" s="20">
+      <c r="I148" s="20">
         <f t="shared" si="4"/>
         <v>23.468749999999996</v>
       </c>
-      <c r="J156" s="21">
+      <c r="J148" s="21">
         <v>0.90485396421215403</v>
       </c>
     </row>
-    <row r="157" spans="3:10">
-      <c r="C157" t="s">
+    <row r="149" spans="3:10">
+      <c r="C149" t="s">
         <v>65</v>
       </c>
-      <c r="D157">
+      <c r="D149">
         <v>4</v>
       </c>
-      <c r="E157">
+      <c r="E149">
         <v>536.66999999999996</v>
       </c>
-      <c r="F157">
+      <c r="F149">
         <v>10.23</v>
       </c>
-      <c r="G157">
-        <v>75.099999999999994</v>
-      </c>
-      <c r="H157">
+      <c r="G149">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="H149">
         <v>51.4</v>
       </c>
-      <c r="I157" s="20">
+      <c r="I149" s="20">
         <f t="shared" si="4"/>
         <v>1.461089494163424</v>
       </c>
-      <c r="J157" s="21">
+      <c r="J149" s="21">
         <v>0.98438549834526501</v>
       </c>
     </row>
-    <row r="158" spans="3:10">
-      <c r="D158">
+    <row r="150" spans="3:10">
+      <c r="D150">
         <v>8</v>
       </c>
-      <c r="E158">
+      <c r="E150">
         <v>170.18</v>
       </c>
-      <c r="F158">
+      <c r="F150">
         <v>9.89</v>
       </c>
-      <c r="G158">
-        <v>75.099999999999994</v>
-      </c>
-      <c r="H158">
+      <c r="G150">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="H150">
         <v>12.8</v>
       </c>
-      <c r="I158" s="20">
+      <c r="I150" s="20">
         <f t="shared" si="4"/>
         <v>5.8671874999999991</v>
       </c>
-      <c r="J158" s="21">
+      <c r="J150" s="21">
         <v>0.968800507279861</v>
       </c>
     </row>
-    <row r="159" spans="3:10">
-      <c r="D159">
+    <row r="151" spans="3:10">
+      <c r="D151">
         <v>16</v>
       </c>
-      <c r="E159">
+      <c r="E151">
         <v>37.880000000000003</v>
       </c>
-      <c r="F159">
+      <c r="F151">
         <v>9.69</v>
       </c>
-      <c r="G159">
-        <v>75.099999999999994</v>
-      </c>
-      <c r="H159">
+      <c r="G151">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="H151">
         <v>3.2</v>
       </c>
-      <c r="I159" s="20">
+      <c r="I151" s="20">
         <f t="shared" si="4"/>
         <v>23.468749999999996</v>
       </c>
-      <c r="J159" s="21">
+      <c r="J151" s="21">
         <v>0.90075150924258296</v>
       </c>
     </row>

--- a/documents/исследования.xlsx
+++ b/documents/исследования.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="портрет" sheetId="1" r:id="rId1"/>
@@ -711,11 +711,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="75303552"/>
-        <c:axId val="75318400"/>
+        <c:axId val="86850560"/>
+        <c:axId val="86865408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="75303552"/>
+        <c:axId val="86850560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -742,19 +742,19 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="0.29266121712198234"/>
-              <c:y val="0.91952292951176895"/>
+              <c:y val="0.91952292951176851"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75318400"/>
+        <c:crossAx val="86865408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75318400"/>
+        <c:axId val="86865408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -788,7 +788,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75303552"/>
+        <c:crossAx val="86850560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -812,9 +812,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.66110883710840507"/>
+          <c:x val="0.66110883710840573"/>
           <c:y val="8.6460758061807932E-2"/>
-          <c:w val="0.32027569218952817"/>
+          <c:w val="0.32027569218952834"/>
           <c:h val="0.84250477857999795"/>
         </c:manualLayout>
       </c:layout>
@@ -828,7 +828,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -847,7 +847,7 @@
           <c:x val="0.17587167491231837"/>
           <c:y val="7.6778988485025221E-2"/>
           <c:w val="0.46429475765625361"/>
-          <c:h val="0.66972030336698785"/>
+          <c:h val="0.66972030336698818"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1068,11 +1068,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="84630912"/>
-        <c:axId val="84637184"/>
+        <c:axId val="89886720"/>
+        <c:axId val="89888640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="84630912"/>
+        <c:axId val="89886720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1098,20 +1098,20 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.28568046795197755"/>
+              <c:x val="0.28568046795197777"/>
               <c:y val="0.92425647714281112"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84637184"/>
+        <c:crossAx val="89888640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84637184"/>
+        <c:axId val="89888640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1145,7 +1145,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84630912"/>
+        <c:crossAx val="89886720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1169,9 +1169,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.66110883710840573"/>
+          <c:x val="0.66110883710840629"/>
           <c:y val="8.6460758061807932E-2"/>
-          <c:w val="0.32027569218952834"/>
+          <c:w val="0.32027569218952845"/>
           <c:h val="0.84250477857999795"/>
         </c:manualLayout>
       </c:layout>
@@ -1185,7 +1185,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1204,7 +1204,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.17260710585903771"/>
           <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.60357587408597502"/>
+          <c:w val="0.60357587408597524"/>
           <c:h val="0.5445866624176815"/>
         </c:manualLayout>
       </c:layout>
@@ -1267,11 +1267,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="84669952"/>
-        <c:axId val="84671872"/>
+        <c:axId val="89458560"/>
+        <c:axId val="89468928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="84669952"/>
+        <c:axId val="89458560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1296,8 +1296,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.29329681615885056"/>
-              <c:y val="0.89983141341320183"/>
+              <c:x val="0.29329681615885067"/>
+              <c:y val="0.89983141341320205"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -1312,14 +1312,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84671872"/>
+        <c:crossAx val="89468928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84671872"/>
+        <c:axId val="89468928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1352,7 +1352,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84669952"/>
+        <c:crossAx val="89458560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1365,7 +1365,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.78167276749269221"/>
           <c:y val="0.26369685006901455"/>
-          <c:w val="0.20344147309199531"/>
+          <c:w val="0.20344147309199545"/>
           <c:h val="0.13195137725382619"/>
         </c:manualLayout>
       </c:layout>
@@ -1380,7 +1380,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1620,11 +1620,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="84768640"/>
-        <c:axId val="84770816"/>
+        <c:axId val="89934080"/>
+        <c:axId val="89952640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="84768640"/>
+        <c:axId val="89934080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1650,20 +1650,20 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.28568046795197743"/>
+              <c:x val="0.28568046795197766"/>
               <c:y val="0.92569633341286883"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84770816"/>
+        <c:crossAx val="89952640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84770816"/>
+        <c:axId val="89952640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1697,7 +1697,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84768640"/>
+        <c:crossAx val="89934080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1721,9 +1721,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.66110883710840629"/>
+          <c:x val="0.66110883710840684"/>
           <c:y val="8.6460758061807932E-2"/>
-          <c:w val="0.32027569218952845"/>
+          <c:w val="0.32027569218952856"/>
           <c:h val="0.84250477857999795"/>
         </c:manualLayout>
       </c:layout>
@@ -1737,7 +1737,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1756,7 +1756,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.17260710585903771"/>
           <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.60357587408597524"/>
+          <c:w val="0.60357587408597546"/>
           <c:h val="0.5445866624176815"/>
         </c:manualLayout>
       </c:layout>
@@ -1819,11 +1819,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="84676608"/>
-        <c:axId val="84678528"/>
+        <c:axId val="89969024"/>
+        <c:axId val="89970944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="84676608"/>
+        <c:axId val="89969024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1848,8 +1848,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.29329681615885067"/>
-              <c:y val="0.89983141341320205"/>
+              <c:x val="0.29329681615885084"/>
+              <c:y val="0.89983141341320239"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -1864,14 +1864,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84678528"/>
+        <c:crossAx val="89970944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84678528"/>
+        <c:axId val="89970944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1904,7 +1904,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84676608"/>
+        <c:crossAx val="89969024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1917,7 +1917,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.78167276749269221"/>
           <c:y val="0.26369685006901455"/>
-          <c:w val="0.20344147309199545"/>
+          <c:w val="0.20344147309199556"/>
           <c:h val="0.13195137725382619"/>
         </c:manualLayout>
       </c:layout>
@@ -1932,7 +1932,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1951,7 +1951,7 @@
           <c:x val="0.17587167491231837"/>
           <c:y val="7.6778988485025221E-2"/>
           <c:w val="0.46429475765625361"/>
-          <c:h val="0.6780385221078139"/>
+          <c:h val="0.67803852210781412"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2172,11 +2172,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="84906368"/>
-        <c:axId val="84908288"/>
+        <c:axId val="90014464"/>
+        <c:axId val="90016384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="84906368"/>
+        <c:axId val="90014464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2202,20 +2202,20 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.29366336548877575"/>
+              <c:x val="0.29366336548877581"/>
               <c:y val="0.92901918029477082"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84908288"/>
+        <c:crossAx val="90016384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84908288"/>
+        <c:axId val="90016384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2249,7 +2249,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84906368"/>
+        <c:crossAx val="90014464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2273,9 +2273,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.66110883710840684"/>
+          <c:x val="0.6611088371084074"/>
           <c:y val="8.6460758061807932E-2"/>
-          <c:w val="0.32027569218952856"/>
+          <c:w val="0.32027569218952867"/>
           <c:h val="0.84250477857999795"/>
         </c:manualLayout>
       </c:layout>
@@ -2289,7 +2289,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000311" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000311" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2308,7 +2308,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.17260710585903771"/>
           <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.65162384431675813"/>
+          <c:w val="0.65162384431675835"/>
           <c:h val="0.53979040389735455"/>
         </c:manualLayout>
       </c:layout>
@@ -2371,11 +2371,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="84932864"/>
-        <c:axId val="84808064"/>
+        <c:axId val="90040960"/>
+        <c:axId val="90051328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="84932864"/>
+        <c:axId val="90040960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2400,8 +2400,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.29329681615885084"/>
-              <c:y val="0.89983141341320239"/>
+              <c:x val="0.29329681615885095"/>
+              <c:y val="0.89983141341320272"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -2416,14 +2416,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84808064"/>
+        <c:crossAx val="90051328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84808064"/>
+        <c:axId val="90051328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2456,7 +2456,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84932864"/>
+        <c:crossAx val="90040960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2469,7 +2469,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.78167276749269221"/>
           <c:y val="0.26369685006901455"/>
-          <c:w val="0.20344147309199556"/>
+          <c:w val="0.2034414730919957"/>
           <c:h val="0.13195137725382619"/>
         </c:manualLayout>
       </c:layout>
@@ -2484,7 +2484,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000003" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2503,8 +2503,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.17260710585903771"/>
           <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.60357587408597579"/>
-          <c:h val="0.66445744865549539"/>
+          <c:w val="0.60357587408597602"/>
+          <c:h val="0.66445744865549572"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2560,11 +2560,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="84857216"/>
-        <c:axId val="84859136"/>
+        <c:axId val="90084096"/>
+        <c:axId val="90086016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="84857216"/>
+        <c:axId val="90084096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2589,7 +2589,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.29552647056241804"/>
+              <c:x val="0.29552647056241826"/>
               <c:y val="0.89001337867785957"/>
             </c:manualLayout>
           </c:layout>
@@ -2605,14 +2605,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84859136"/>
+        <c:crossAx val="90086016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84859136"/>
+        <c:axId val="90086016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2642,11 +2642,10 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84857216"/>
+        <c:crossAx val="90084096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2659,7 +2658,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.78167276749269221"/>
           <c:y val="0.26369685006901455"/>
-          <c:w val="0.2034414730919957"/>
+          <c:w val="0.20344147309199581"/>
           <c:h val="0.13195137725382619"/>
         </c:manualLayout>
       </c:layout>
@@ -2674,7 +2673,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000003" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000322" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000322" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2693,8 +2692,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.17260710585903771"/>
           <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.60357587408597602"/>
-          <c:h val="0.66445744865549572"/>
+          <c:w val="0.60357587408597624"/>
+          <c:h val="0.66445744865549594"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2750,11 +2749,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="95786880"/>
-        <c:axId val="95789056"/>
+        <c:axId val="90204416"/>
+        <c:axId val="90214784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="95786880"/>
+        <c:axId val="90204416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2779,7 +2778,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.29552647056241826"/>
+              <c:x val="0.29552647056241843"/>
               <c:y val="0.89001337867785957"/>
             </c:manualLayout>
           </c:layout>
@@ -2795,14 +2794,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95789056"/>
+        <c:crossAx val="90214784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95789056"/>
+        <c:axId val="90214784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2832,11 +2831,10 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95786880"/>
+        <c:crossAx val="90204416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2849,7 +2847,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.78167276749269221"/>
           <c:y val="0.26369685006901455"/>
-          <c:w val="0.20344147309199581"/>
+          <c:w val="0.20344147309199595"/>
           <c:h val="0.13195137725382619"/>
         </c:manualLayout>
       </c:layout>
@@ -2864,7 +2862,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000322" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000322" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000344" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000344" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3104,11 +3102,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="97208192"/>
-        <c:axId val="97214464"/>
+        <c:axId val="95627520"/>
+        <c:axId val="95633792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97208192"/>
+        <c:axId val="95627520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3130,17 +3128,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97214464"/>
+        <c:crossAx val="95633792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97214464"/>
+        <c:axId val="95633792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3171,11 +3168,10 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97208192"/>
+        <c:crossAx val="95627520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3199,9 +3195,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.6611088371084074"/>
+          <c:x val="0.66110883710840795"/>
           <c:y val="8.6460758061807932E-2"/>
-          <c:w val="0.32027569218952867"/>
+          <c:w val="0.32027569218952884"/>
           <c:h val="0.84250477857999795"/>
         </c:manualLayout>
       </c:layout>
@@ -3215,7 +3211,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000311" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000311" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000333" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000333" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3410,8 +3406,8 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="95843840"/>
-        <c:axId val="95845376"/>
+        <c:axId val="95709056"/>
+        <c:axId val="95710592"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3488,25 +3484,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="95856896"/>
-        <c:axId val="95855360"/>
+        <c:axId val="95722112"/>
+        <c:axId val="95720576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95843840"/>
+        <c:axId val="95709056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95845376"/>
+        <c:crossAx val="95710592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95845376"/>
+        <c:axId val="95710592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3514,32 +3510,32 @@
         <c:minorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95843840"/>
+        <c:crossAx val="95709056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="95855360"/>
+        <c:axId val="95720576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95856896"/>
+        <c:crossAx val="95722112"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="95856896"/>
+        <c:axId val="95722112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="t"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="95855360"/>
+        <c:crossAx val="95720576"/>
         <c:crosses val="max"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3554,7 +3550,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3707,25 +3703,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="75351168"/>
-        <c:axId val="75352704"/>
+        <c:axId val="86885888"/>
+        <c:axId val="86887424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="75351168"/>
+        <c:axId val="86885888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75352704"/>
+        <c:crossAx val="86887424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75352704"/>
+        <c:axId val="86887424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3733,7 +3729,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75351168"/>
+        <c:crossAx val="86885888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3745,7 +3741,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3884,11 +3880,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="97270400"/>
-        <c:axId val="97276672"/>
+        <c:axId val="95742976"/>
+        <c:axId val="95769728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97270400"/>
+        <c:axId val="95742976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3911,14 +3907,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97276672"/>
+        <c:crossAx val="95769728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97276672"/>
+        <c:axId val="95769728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3943,7 +3939,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97270400"/>
+        <c:crossAx val="95742976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3955,7 +3951,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4094,24 +4090,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="97293440"/>
-        <c:axId val="97294976"/>
+        <c:axId val="95806976"/>
+        <c:axId val="95808512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97293440"/>
+        <c:axId val="95806976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97294976"/>
+        <c:crossAx val="95808512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97294976"/>
+        <c:axId val="95808512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4119,7 +4115,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97293440"/>
+        <c:crossAx val="95806976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4131,7 +4127,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4270,24 +4266,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="97327744"/>
-        <c:axId val="97354112"/>
+        <c:axId val="95570944"/>
+        <c:axId val="95585024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97327744"/>
+        <c:axId val="95570944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97354112"/>
+        <c:crossAx val="95585024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97354112"/>
+        <c:axId val="95585024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4295,7 +4291,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97327744"/>
+        <c:crossAx val="95570944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4307,7 +4303,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4385,24 +4381,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="97361280"/>
-        <c:axId val="97367168"/>
+        <c:axId val="95600640"/>
+        <c:axId val="95602176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="97361280"/>
+        <c:axId val="95600640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97367168"/>
+        <c:crossAx val="95602176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97367168"/>
+        <c:axId val="95602176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4410,7 +4406,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97361280"/>
+        <c:crossAx val="95600640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4422,7 +4418,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4587,24 +4583,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="97585792"/>
-        <c:axId val="97591680"/>
+        <c:axId val="95939584"/>
+        <c:axId val="95945472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97585792"/>
+        <c:axId val="95939584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97591680"/>
+        <c:crossAx val="95945472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97591680"/>
+        <c:axId val="95945472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4612,7 +4608,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97585792"/>
+        <c:crossAx val="95939584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4624,7 +4620,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4643,7 +4639,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.17260710585903771"/>
           <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.6035758740859748"/>
+          <c:w val="0.60357587408597502"/>
           <c:h val="0.5445866624176815"/>
         </c:manualLayout>
       </c:layout>
@@ -4706,11 +4702,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="76517376"/>
-        <c:axId val="76519296"/>
+        <c:axId val="86806912"/>
+        <c:axId val="86808832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="76517376"/>
+        <c:axId val="86806912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4735,8 +4731,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.29329681615885045"/>
-              <c:y val="0.89983141341320161"/>
+              <c:x val="0.29329681615885056"/>
+              <c:y val="0.89983141341320183"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -4751,14 +4747,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76519296"/>
+        <c:crossAx val="86808832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76519296"/>
+        <c:axId val="86808832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4791,7 +4787,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76517376"/>
+        <c:crossAx val="86806912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4804,7 +4800,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.78167276749269221"/>
           <c:y val="0.26369685006901455"/>
-          <c:w val="0.2034414730919952"/>
+          <c:w val="0.20344147309199531"/>
           <c:h val="0.13195137725382619"/>
         </c:manualLayout>
       </c:layout>
@@ -4819,7 +4815,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4829,7 +4825,9 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
   <c:chart>
-    <c:title/>
+    <c:title>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -4961,24 +4959,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="76567680"/>
-        <c:axId val="76569216"/>
+        <c:axId val="86828928"/>
+        <c:axId val="87714816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="76567680"/>
+        <c:axId val="86828928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76569216"/>
+        <c:crossAx val="87714816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76569216"/>
+        <c:axId val="87714816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5030,16 +5028,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76567680"/>
+        <c:crossAx val="86828928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -5051,7 +5051,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5061,7 +5061,9 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
   <c:chart>
-    <c:title/>
+    <c:title>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -5193,24 +5195,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="76581504"/>
-        <c:axId val="76595584"/>
+        <c:axId val="87727488"/>
+        <c:axId val="87749376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="76581504"/>
+        <c:axId val="87727488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76595584"/>
+        <c:crossAx val="87749376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76595584"/>
+        <c:axId val="87749376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5241,16 +5243,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76581504"/>
+        <c:crossAx val="87727488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -5262,7 +5266,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5279,8 +5283,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.18814270812302342"/>
-          <c:y val="4.0336129645919726E-2"/>
+          <c:x val="0.18814270812302344"/>
+          <c:y val="4.0336129645919733E-2"/>
           <c:w val="0.76312975301164365"/>
           <c:h val="0.48806253441753028"/>
         </c:manualLayout>
@@ -5414,24 +5418,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="77091200"/>
-        <c:axId val="77092736"/>
+        <c:axId val="86999808"/>
+        <c:axId val="87001344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="77091200"/>
+        <c:axId val="86999808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77092736"/>
+        <c:crossAx val="87001344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77092736"/>
+        <c:axId val="87001344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5461,10 +5465,11 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77091200"/>
+        <c:crossAx val="86999808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5476,9 +5481,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.32306733292953782"/>
-          <c:y val="0.87768771410385849"/>
-          <c:w val="0.20898394912174476"/>
-          <c:h val="6.5696324744148368E-2"/>
+          <c:y val="0.87768771410385882"/>
+          <c:w val="0.20898394912174481"/>
+          <c:h val="6.5696324744148424E-2"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -5492,7 +5497,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5774,24 +5779,42 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="77145984"/>
-        <c:axId val="77147520"/>
+        <c:axId val="89262336"/>
+        <c:axId val="89284608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="77145984"/>
+        <c:axId val="89262336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Метод классификации</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77147520"/>
+        <c:crossAx val="89284608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77147520"/>
+        <c:axId val="89284608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5822,10 +5845,11 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77145984"/>
+        <c:crossAx val="89262336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5845,6 +5869,7 @@
           </a:p>
         </c:txPr>
       </c:legendEntry>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -5855,7 +5880,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6137,24 +6162,42 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="84486400"/>
-        <c:axId val="84492288"/>
+        <c:axId val="89410176"/>
+        <c:axId val="89416064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="84486400"/>
+        <c:axId val="89410176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Метод классификации</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84492288"/>
+        <c:crossAx val="89416064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84492288"/>
+        <c:axId val="89416064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6185,10 +6228,11 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84486400"/>
+        <c:crossAx val="89410176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6208,6 +6252,7 @@
           </a:p>
         </c:txPr>
       </c:legendEntry>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -6218,7 +6263,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6500,24 +6545,42 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="84528128"/>
-        <c:axId val="78455552"/>
+        <c:axId val="89447808"/>
+        <c:axId val="89339008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="84528128"/>
+        <c:axId val="89447808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Метод классификации</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78455552"/>
+        <c:crossAx val="89339008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78455552"/>
+        <c:axId val="89339008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6548,10 +6611,11 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84528128"/>
+        <c:crossAx val="89447808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6571,6 +6635,7 @@
           </a:p>
         </c:txPr>
       </c:legendEntry>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -6581,7 +6646,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6686,6 +6751,47 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>537038</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>3638</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="102" name="Рисунок 101" descr="8bpp312_lena - копия.bmp"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:grayscl/>
+          <a:lum bright="30000" contrast="10000"/>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1552575" y="4257675"/>
+          <a:ext cx="2032463" cy="2032463"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
       <xdr:row>7</xdr:row>
@@ -6705,7 +6811,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:clrChange>
             <a:clrFrom>
               <a:srgbClr val="FFFFFF"/>
@@ -6763,14 +6869,9 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:duotone>
-            <a:schemeClr val="bg2">
-              <a:shade val="45000"/>
-              <a:satMod val="135000"/>
-            </a:schemeClr>
-            <a:prstClr val="white"/>
-          </a:duotone>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:grayscl/>
+          <a:lum bright="30000" contrast="10000"/>
         </a:blip>
         <a:stretch>
           <a:fillRect/>
@@ -6838,13 +6939,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>314326</xdr:colOff>
+      <xdr:colOff>333376</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
+      <xdr:colOff>581025</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:to>
@@ -6875,7 +6976,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1533526" y="1628776"/>
+          <a:off x="1552576" y="1628776"/>
           <a:ext cx="2076449" cy="2038350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6895,16 +6996,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>527513</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>3638</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>422738</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>136988</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6914,7 +7015,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:duotone>
             <a:schemeClr val="bg2">
               <a:shade val="45000"/>
@@ -6929,7 +7030,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1543050" y="4257675"/>
+          <a:off x="4486275" y="5343525"/>
           <a:ext cx="2032463" cy="2032463"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7049,13 +7150,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>285751</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>572386</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7084,7 +7185,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1504951" y="4238625"/>
+          <a:off x="1504951" y="4229100"/>
           <a:ext cx="2115435" cy="2085975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11687,6 +11788,137 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>298913</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>146513</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="100" name="Рисунок 99" descr="8bpp312_lena - копия.bmp"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4972050" y="1543050"/>
+          <a:ext cx="2032463" cy="2032463"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>508463</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>22688</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="101" name="Рисунок 100" descr="8bpp312_lena - копия.bmp"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:duotone>
+            <a:schemeClr val="bg2">
+              <a:shade val="45000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+            <a:prstClr val="white"/>
+          </a:duotone>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6400800" y="2562225"/>
+          <a:ext cx="2032463" cy="2032463"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1219200" y="10763250"/>
+          <a:ext cx="5362575" cy="2809875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -23015,8 +23247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="B67" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+    <sheetView topLeftCell="B52" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23032,8 +23264,8 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="B3:AT45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AB13" sqref="AB13"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AM35" sqref="AM35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -44552,8 +44784,8 @@
   <sheetPr codeName="Лист6"/>
   <dimension ref="A2:L151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G70" sqref="G70"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="L56" sqref="L56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/documents/исследования.xlsx
+++ b/documents/исследования.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="портрет" sheetId="1" r:id="rId1"/>
@@ -711,11 +711,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="86850560"/>
-        <c:axId val="86865408"/>
+        <c:axId val="92928640"/>
+        <c:axId val="93144192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="86850560"/>
+        <c:axId val="92928640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -742,19 +742,19 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="0.29266121712198234"/>
-              <c:y val="0.91952292951176851"/>
+              <c:y val="0.91952292951176839"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86865408"/>
+        <c:crossAx val="93144192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86865408"/>
+        <c:axId val="93144192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -788,7 +788,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86850560"/>
+        <c:crossAx val="92928640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -812,9 +812,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.66110883710840573"/>
+          <c:x val="0.66110883710840596"/>
           <c:y val="8.6460758061807932E-2"/>
-          <c:w val="0.32027569218952834"/>
+          <c:w val="0.32027569218952839"/>
           <c:h val="0.84250477857999795"/>
         </c:manualLayout>
       </c:layout>
@@ -828,7 +828,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -847,7 +847,7 @@
           <c:x val="0.17587167491231837"/>
           <c:y val="7.6778988485025221E-2"/>
           <c:w val="0.46429475765625361"/>
-          <c:h val="0.66972030336698818"/>
+          <c:h val="0.6697203033669884"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1068,11 +1068,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="89886720"/>
-        <c:axId val="89888640"/>
+        <c:axId val="94925568"/>
+        <c:axId val="94927488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="89886720"/>
+        <c:axId val="94925568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1098,20 +1098,20 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.28568046795197777"/>
+              <c:x val="0.28568046795197788"/>
               <c:y val="0.92425647714281112"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89888640"/>
+        <c:crossAx val="94927488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89888640"/>
+        <c:axId val="94927488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1145,7 +1145,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89886720"/>
+        <c:crossAx val="94925568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1169,9 +1169,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.66110883710840629"/>
+          <c:x val="0.66110883710840662"/>
           <c:y val="8.6460758061807932E-2"/>
-          <c:w val="0.32027569218952845"/>
+          <c:w val="0.3202756921895285"/>
           <c:h val="0.84250477857999795"/>
         </c:manualLayout>
       </c:layout>
@@ -1185,7 +1185,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1204,7 +1204,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.17260710585903771"/>
           <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.60357587408597524"/>
+          <c:w val="0.60357587408597535"/>
           <c:h val="0.5445866624176815"/>
         </c:manualLayout>
       </c:layout>
@@ -1267,11 +1267,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="89458560"/>
-        <c:axId val="89468928"/>
+        <c:axId val="94845568"/>
+        <c:axId val="94851840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="89458560"/>
+        <c:axId val="94845568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1296,8 +1296,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.29329681615885067"/>
-              <c:y val="0.89983141341320205"/>
+              <c:x val="0.29329681615885073"/>
+              <c:y val="0.89983141341320216"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -1312,14 +1312,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89468928"/>
+        <c:crossAx val="94851840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89468928"/>
+        <c:axId val="94851840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1352,7 +1352,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89458560"/>
+        <c:crossAx val="94845568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1365,7 +1365,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.78167276749269221"/>
           <c:y val="0.26369685006901455"/>
-          <c:w val="0.20344147309199545"/>
+          <c:w val="0.20344147309199551"/>
           <c:h val="0.13195137725382619"/>
         </c:manualLayout>
       </c:layout>
@@ -1380,7 +1380,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1620,11 +1620,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="89934080"/>
-        <c:axId val="89952640"/>
+        <c:axId val="95054848"/>
+        <c:axId val="95065216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="89934080"/>
+        <c:axId val="95054848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1650,20 +1650,20 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.28568046795197766"/>
+              <c:x val="0.28568046795197777"/>
               <c:y val="0.92569633341286883"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89952640"/>
+        <c:crossAx val="95065216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89952640"/>
+        <c:axId val="95065216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1697,7 +1697,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89934080"/>
+        <c:crossAx val="95054848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1721,9 +1721,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.66110883710840684"/>
+          <c:x val="0.66110883710840707"/>
           <c:y val="8.6460758061807932E-2"/>
-          <c:w val="0.32027569218952856"/>
+          <c:w val="0.32027569218952862"/>
           <c:h val="0.84250477857999795"/>
         </c:manualLayout>
       </c:layout>
@@ -1737,7 +1737,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000003" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1756,7 +1756,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.17260710585903771"/>
           <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.60357587408597546"/>
+          <c:w val="0.60357587408597568"/>
           <c:h val="0.5445866624176815"/>
         </c:manualLayout>
       </c:layout>
@@ -1819,11 +1819,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="89969024"/>
-        <c:axId val="89970944"/>
+        <c:axId val="94966912"/>
+        <c:axId val="94968832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="89969024"/>
+        <c:axId val="94966912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1848,8 +1848,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.29329681615885084"/>
-              <c:y val="0.89983141341320239"/>
+              <c:x val="0.29329681615885089"/>
+              <c:y val="0.89983141341320261"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -1864,14 +1864,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89970944"/>
+        <c:crossAx val="94968832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89970944"/>
+        <c:axId val="94968832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1904,7 +1904,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89969024"/>
+        <c:crossAx val="94966912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1917,7 +1917,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.78167276749269221"/>
           <c:y val="0.26369685006901455"/>
-          <c:w val="0.20344147309199556"/>
+          <c:w val="0.20344147309199562"/>
           <c:h val="0.13195137725382619"/>
         </c:manualLayout>
       </c:layout>
@@ -1932,7 +1932,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1951,7 +1951,7 @@
           <c:x val="0.17587167491231837"/>
           <c:y val="7.6778988485025221E-2"/>
           <c:w val="0.46429475765625361"/>
-          <c:h val="0.67803852210781412"/>
+          <c:h val="0.67803852210781423"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2172,11 +2172,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="90014464"/>
-        <c:axId val="90016384"/>
+        <c:axId val="95196672"/>
+        <c:axId val="95198592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="90014464"/>
+        <c:axId val="95196672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2208,14 +2208,14 @@
           </c:layout>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90016384"/>
+        <c:crossAx val="95198592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90016384"/>
+        <c:axId val="95198592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2249,7 +2249,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90014464"/>
+        <c:crossAx val="95196672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2273,9 +2273,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.6611088371084074"/>
+          <c:x val="0.66110883710840773"/>
           <c:y val="8.6460758061807932E-2"/>
-          <c:w val="0.32027569218952867"/>
+          <c:w val="0.32027569218952873"/>
           <c:h val="0.84250477857999795"/>
         </c:manualLayout>
       </c:layout>
@@ -2289,7 +2289,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000311" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000311" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000322" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000322" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2308,7 +2308,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.17260710585903771"/>
           <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.65162384431675835"/>
+          <c:w val="0.65162384431675846"/>
           <c:h val="0.53979040389735455"/>
         </c:manualLayout>
       </c:layout>
@@ -2371,11 +2371,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="90040960"/>
-        <c:axId val="90051328"/>
+        <c:axId val="95223168"/>
+        <c:axId val="95110656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="90040960"/>
+        <c:axId val="95223168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2400,8 +2400,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.29329681615885095"/>
-              <c:y val="0.89983141341320272"/>
+              <c:x val="0.293296816158851"/>
+              <c:y val="0.89983141341320283"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -2416,14 +2416,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90051328"/>
+        <c:crossAx val="95110656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90051328"/>
+        <c:axId val="95110656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2456,7 +2456,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90040960"/>
+        <c:crossAx val="95223168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2469,7 +2469,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.78167276749269221"/>
           <c:y val="0.26369685006901455"/>
-          <c:w val="0.2034414730919957"/>
+          <c:w val="0.20344147309199576"/>
           <c:h val="0.13195137725382619"/>
         </c:manualLayout>
       </c:layout>
@@ -2484,7 +2484,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000003" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000311" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000311" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2503,8 +2503,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.17260710585903771"/>
           <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.60357587408597602"/>
-          <c:h val="0.66445744865549572"/>
+          <c:w val="0.60357587408597613"/>
+          <c:h val="0.66445744865549583"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2560,11 +2560,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="90084096"/>
-        <c:axId val="90086016"/>
+        <c:axId val="95155712"/>
+        <c:axId val="95157632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="90084096"/>
+        <c:axId val="95155712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2589,7 +2589,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.29552647056241826"/>
+              <c:x val="0.29552647056241838"/>
               <c:y val="0.89001337867785957"/>
             </c:manualLayout>
           </c:layout>
@@ -2605,14 +2605,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90086016"/>
+        <c:crossAx val="95157632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90086016"/>
+        <c:axId val="95157632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2645,7 +2645,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90084096"/>
+        <c:crossAx val="95155712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2658,7 +2658,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.78167276749269221"/>
           <c:y val="0.26369685006901455"/>
-          <c:w val="0.20344147309199581"/>
+          <c:w val="0.20344147309199587"/>
           <c:h val="0.13195137725382619"/>
         </c:manualLayout>
       </c:layout>
@@ -2673,7 +2673,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000322" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000322" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000333" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000333" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2692,8 +2692,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.17260710585903771"/>
           <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.60357587408597624"/>
-          <c:h val="0.66445744865549594"/>
+          <c:w val="0.60357587408597635"/>
+          <c:h val="0.66445744865549605"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2749,11 +2749,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="90204416"/>
-        <c:axId val="90214784"/>
+        <c:axId val="95591424"/>
+        <c:axId val="95601792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="90204416"/>
+        <c:axId val="95591424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2778,7 +2778,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.29552647056241843"/>
+              <c:x val="0.29552647056241854"/>
               <c:y val="0.89001337867785957"/>
             </c:manualLayout>
           </c:layout>
@@ -2794,14 +2794,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90214784"/>
+        <c:crossAx val="95601792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90214784"/>
+        <c:axId val="95601792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2834,7 +2834,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90204416"/>
+        <c:crossAx val="95591424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2847,7 +2847,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.78167276749269221"/>
           <c:y val="0.26369685006901455"/>
-          <c:w val="0.20344147309199595"/>
+          <c:w val="0.20344147309199601"/>
           <c:h val="0.13195137725382619"/>
         </c:manualLayout>
       </c:layout>
@@ -2862,7 +2862,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000344" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000344" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000355" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000355" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3102,11 +3102,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="95627520"/>
-        <c:axId val="95633792"/>
+        <c:axId val="95964160"/>
+        <c:axId val="95974528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="95627520"/>
+        <c:axId val="95964160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3130,14 +3130,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95633792"/>
+        <c:crossAx val="95974528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95633792"/>
+        <c:axId val="95974528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3171,7 +3171,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95627520"/>
+        <c:crossAx val="95964160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3195,9 +3195,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.66110883710840795"/>
+          <c:x val="0.66110883710840818"/>
           <c:y val="8.6460758061807932E-2"/>
-          <c:w val="0.32027569218952884"/>
+          <c:w val="0.32027569218952889"/>
           <c:h val="0.84250477857999795"/>
         </c:manualLayout>
       </c:layout>
@@ -3211,7 +3211,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000333" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000333" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000344" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000344" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3406,8 +3406,8 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="95709056"/>
-        <c:axId val="95710592"/>
+        <c:axId val="95652480"/>
+        <c:axId val="95662464"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3484,25 +3484,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="95722112"/>
-        <c:axId val="95720576"/>
+        <c:axId val="95665536"/>
+        <c:axId val="95664000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95709056"/>
+        <c:axId val="95652480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95710592"/>
+        <c:crossAx val="95662464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95710592"/>
+        <c:axId val="95662464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3510,32 +3510,32 @@
         <c:minorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95709056"/>
+        <c:crossAx val="95652480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="95720576"/>
+        <c:axId val="95664000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95722112"/>
+        <c:crossAx val="95665536"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="95722112"/>
+        <c:axId val="95665536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="t"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="95720576"/>
+        <c:crossAx val="95664000"/>
         <c:crosses val="max"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3550,7 +3550,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3703,25 +3703,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="86885888"/>
-        <c:axId val="86887424"/>
+        <c:axId val="93176960"/>
+        <c:axId val="93178496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="86885888"/>
+        <c:axId val="93176960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86887424"/>
+        <c:crossAx val="93178496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86887424"/>
+        <c:axId val="93178496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3729,7 +3729,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86885888"/>
+        <c:crossAx val="93176960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3741,7 +3741,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3880,11 +3880,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="95742976"/>
-        <c:axId val="95769728"/>
+        <c:axId val="96030720"/>
+        <c:axId val="96032640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="95742976"/>
+        <c:axId val="96030720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3907,14 +3907,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95769728"/>
+        <c:crossAx val="96032640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95769728"/>
+        <c:axId val="96032640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3939,7 +3939,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95742976"/>
+        <c:crossAx val="96030720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3951,7 +3951,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4090,24 +4090,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="95806976"/>
-        <c:axId val="95808512"/>
+        <c:axId val="96061696"/>
+        <c:axId val="96350208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="95806976"/>
+        <c:axId val="96061696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95808512"/>
+        <c:crossAx val="96350208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95808512"/>
+        <c:axId val="96350208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4115,7 +4115,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95806976"/>
+        <c:crossAx val="96061696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4127,7 +4127,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4266,24 +4266,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="95570944"/>
-        <c:axId val="95585024"/>
+        <c:axId val="96370688"/>
+        <c:axId val="96372224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="95570944"/>
+        <c:axId val="96370688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95585024"/>
+        <c:crossAx val="96372224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95585024"/>
+        <c:axId val="96372224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4291,7 +4291,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95570944"/>
+        <c:crossAx val="96370688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4303,7 +4303,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4381,24 +4381,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="95600640"/>
-        <c:axId val="95602176"/>
+        <c:axId val="96383744"/>
+        <c:axId val="96385280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95600640"/>
+        <c:axId val="96383744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95602176"/>
+        <c:crossAx val="96385280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95602176"/>
+        <c:axId val="96385280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4406,7 +4406,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95600640"/>
+        <c:crossAx val="96383744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4418,7 +4418,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4583,24 +4583,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="95939584"/>
-        <c:axId val="95945472"/>
+        <c:axId val="102113280"/>
+        <c:axId val="102114816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="95939584"/>
+        <c:axId val="102113280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95945472"/>
+        <c:crossAx val="102114816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95945472"/>
+        <c:axId val="102114816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4608,19 +4608,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95939584"/>
+        <c:crossAx val="102113280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4639,7 +4640,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.17260710585903771"/>
           <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.60357587408597502"/>
+          <c:w val="0.60357587408597513"/>
           <c:h val="0.5445866624176815"/>
         </c:manualLayout>
       </c:layout>
@@ -4702,11 +4703,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="86806912"/>
-        <c:axId val="86808832"/>
+        <c:axId val="93945856"/>
+        <c:axId val="93947776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="86806912"/>
+        <c:axId val="93945856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4731,8 +4732,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.29329681615885056"/>
-              <c:y val="0.89983141341320183"/>
+              <c:x val="0.29329681615885062"/>
+              <c:y val="0.89983141341320194"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -4747,14 +4748,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86808832"/>
+        <c:crossAx val="93947776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86808832"/>
+        <c:axId val="93947776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4787,7 +4788,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86806912"/>
+        <c:crossAx val="93945856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4800,7 +4801,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.78167276749269221"/>
           <c:y val="0.26369685006901455"/>
-          <c:w val="0.20344147309199531"/>
+          <c:w val="0.20344147309199537"/>
           <c:h val="0.13195137725382619"/>
         </c:manualLayout>
       </c:layout>
@@ -4815,7 +4816,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4825,9 +4826,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -4959,24 +4958,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="86828928"/>
-        <c:axId val="87714816"/>
+        <c:axId val="94200960"/>
+        <c:axId val="94202496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="86828928"/>
+        <c:axId val="94200960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87714816"/>
+        <c:crossAx val="94202496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87714816"/>
+        <c:axId val="94202496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5028,18 +5027,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86828928"/>
+        <c:crossAx val="94200960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -5051,7 +5048,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5061,9 +5058,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -5195,24 +5190,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="87727488"/>
-        <c:axId val="87749376"/>
+        <c:axId val="94218880"/>
+        <c:axId val="94228864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="87727488"/>
+        <c:axId val="94218880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87749376"/>
+        <c:crossAx val="94228864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87749376"/>
+        <c:axId val="94228864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5243,18 +5238,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87727488"/>
+        <c:crossAx val="94218880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -5266,7 +5259,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5418,24 +5411,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="86999808"/>
-        <c:axId val="87001344"/>
+        <c:axId val="94269824"/>
+        <c:axId val="94271360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="86999808"/>
+        <c:axId val="94269824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87001344"/>
+        <c:crossAx val="94271360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87001344"/>
+        <c:axId val="94271360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5465,11 +5458,10 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86999808"/>
+        <c:crossAx val="94269824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5481,9 +5473,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.32306733292953782"/>
-          <c:y val="0.87768771410385882"/>
-          <c:w val="0.20898394912174481"/>
-          <c:h val="6.5696324744148424E-2"/>
+          <c:y val="0.87768771410385893"/>
+          <c:w val="0.20898394912174484"/>
+          <c:h val="6.5696324744148438E-2"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -5497,7 +5489,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5779,11 +5771,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="89262336"/>
-        <c:axId val="89284608"/>
+        <c:axId val="94324608"/>
+        <c:axId val="94326784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="89262336"/>
+        <c:axId val="94324608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5807,14 +5799,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89284608"/>
+        <c:crossAx val="94326784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89284608"/>
+        <c:axId val="94326784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5849,7 +5841,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89262336"/>
+        <c:crossAx val="94324608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5880,7 +5872,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6162,11 +6154,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="89410176"/>
-        <c:axId val="89416064"/>
+        <c:axId val="94784128"/>
+        <c:axId val="94790400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="89410176"/>
+        <c:axId val="94784128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6187,17 +6179,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89416064"/>
+        <c:crossAx val="94790400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89416064"/>
+        <c:axId val="94790400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6228,11 +6219,10 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89410176"/>
+        <c:crossAx val="94784128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6252,7 +6242,6 @@
           </a:p>
         </c:txPr>
       </c:legendEntry>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -6263,7 +6252,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6545,11 +6534,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="89447808"/>
-        <c:axId val="89339008"/>
+        <c:axId val="94711808"/>
+        <c:axId val="94713728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="89447808"/>
+        <c:axId val="94711808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6570,17 +6559,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89339008"/>
+        <c:crossAx val="94713728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89339008"/>
+        <c:axId val="94713728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6611,11 +6599,10 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89447808"/>
+        <c:crossAx val="94711808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6635,7 +6622,6 @@
           </a:p>
         </c:txPr>
       </c:legendEntry>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -6646,7 +6632,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -11919,6 +11905,429 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1828800" y="19621500"/>
+          <a:ext cx="5210175" cy="3676650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1828800" y="23812500"/>
+          <a:ext cx="5095875" cy="3629025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1828800" y="28194000"/>
+          <a:ext cx="5124450" cy="3562350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1028" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1828800" y="32575500"/>
+          <a:ext cx="5191125" cy="3619500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1030" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1828800" y="36957000"/>
+          <a:ext cx="7591425" cy="1943100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1828800" y="39243000"/>
+          <a:ext cx="7791450" cy="1981200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>227</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1828800" y="41529000"/>
+          <a:ext cx="7705725" cy="1895475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>241</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1828800" y="44005500"/>
+          <a:ext cx="7886700" cy="1971675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9144000" y="15240000"/>
+          <a:ext cx="6248400" cy="4324350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -23247,8 +23656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="B52" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" topLeftCell="G79" workbookViewId="0">
+      <selection activeCell="P81" sqref="P81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23264,7 +23673,7 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="B3:AT45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+    <sheetView topLeftCell="AD1" workbookViewId="0">
       <selection activeCell="AM35" sqref="AM35"/>
     </sheetView>
   </sheetViews>
